--- a/kernel_compile_framework.xlsx
+++ b/kernel_compile_framework.xlsx
@@ -10,17 +10,18 @@
     <sheet name="内核编译过程" sheetId="34" r:id="rId1"/>
     <sheet name="dtb_dts_内容分析" sheetId="33" r:id="rId2"/>
     <sheet name="dtb_dts_语法" sheetId="35" r:id="rId3"/>
-    <sheet name="grep 搜索模板" sheetId="27" r:id="rId4"/>
-    <sheet name="Makefile中加打印与调试的方法" sheetId="17" r:id="rId5"/>
-    <sheet name="Makefile语法规则讲解" sheetId="6" r:id="rId6"/>
-    <sheet name="编译调试方法" sheetId="8" r:id="rId7"/>
+    <sheet name="VM机模型" sheetId="36" r:id="rId4"/>
+    <sheet name="grep 搜索模板" sheetId="27" r:id="rId5"/>
+    <sheet name="Makefile中加打印与调试的方法" sheetId="17" r:id="rId6"/>
+    <sheet name="Makefile语法规则讲解" sheetId="6" r:id="rId7"/>
+    <sheet name="编译调试方法" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="1742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="1903">
   <si>
     <t>build.sh 脚本的内容</t>
   </si>
@@ -3843,10 +3844,100 @@
     <t>﻿</t>
   </si>
   <si>
-    <t>设备树是一种描述硬件配置的树形数据结构， 有且仅有一个根节点。它包含了有关CPU、物理内存、总线、串口、PHY以及其他外围设备信息等。该树继承了Open Firmware IEEE 1275设备树的定义。</t>
-  </si>
-  <si>
-    <t>操作系统能够在启动时对此结构进行语法分析，以此配置内核，加载相应的驱动。</t>
+    <r>
+      <t>设备树是一种描述硬件配置的树形数据结构，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 有且仅有一个根节点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。它包含了有关</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CPU、物理内存、总线、串口、PHY以及其他外围设备信息等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。该树继承了Open Firmware IEEE 1275设备树的定义。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>操作系统能够在启动时对此结构进行语法分析，以此</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配置内核</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加载相应的驱动</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>由一系列被命名的结点（node）和属性（property）组成，而结点本身可包含子结点。</t>
@@ -3855,7 +3946,20 @@
     <t>所谓属性，其实就是成对出现的name和value。</t>
   </si>
   <si>
-    <t>在Device Tree中，可描述的信息包括（原先这些信息大多被hard code到kernel中）：CPU的数量和类别，内存基地址和大小，总线和桥，外设连接，中断控制器和中断使用情况，GPIO控制器和GPIO使用情况，Clock控制器和Clock使用情况</t>
+    <r>
+      <t>在Device Tree中，可描述的信息包括（原先这些信息大多被hard code到kernel中）：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CPU的数量和类别，内存基地址和大小，总线和桥，外设连接，中断控制器和中断使用情况，GPIO控制器和GPIO使用情况，Clock控制器和Clock使用情况</t>
+    </r>
   </si>
   <si>
     <t>通常由.dts文件以文本方式对系统设备树进行描述，经过Device Tree Compiler(dtc)将dts文件转换成二进制文件binary device tree blob(dtb)，</t>
@@ -3882,7 +3986,30 @@
     <t>&lt;1&gt; 头（header）</t>
   </si>
   <si>
-    <t>头主要描述设备树的一些基本信息，例如设备树大小，结构块偏移地址，字符串块偏移地址等。偏移地址是相对于设备树头的起始地址计算的。</t>
+    <r>
+      <t>头主要描述设备树的一些基本信息，例如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设备树大小，结构块偏移地址，字符串块偏移地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等。偏移地址是相对于设备树头的起始地址计算的。</t>
+    </r>
   </si>
   <si>
     <t>struct boot_param_header {</t>
@@ -3900,7 +4027,20 @@
     <t>    __be32 off_dt_strings;        //保存的字符串块在设备树中的偏移</t>
   </si>
   <si>
-    <t>    __be32 off_mem_rsvmap;        //保留内存区，该区保留了不能被内核动态分配的内存空间</t>
+    <r>
+      <t>    __be32 off_mem_rsvmap;        //保留内存区，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>该区保留了不能被内核动态分配的内存空间</t>
+    </r>
   </si>
   <si>
     <t>    __be32 version;            //设备树版本</t>
@@ -4153,6 +4293,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t> </t>
     </r>
     <r>
@@ -4247,6 +4394,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>设备树是一个包含节点和属性的简单树状结构。</t>
     </r>
     <r>
@@ -4488,38 +4642,8 @@
     <t>2.4节点名称</t>
   </si>
   <si>
-    <t xml:space="preserve">现在应该花点时间来讨论命名约定了。每个节点必须有一个“&lt;名称&gt;[@&lt;设备地址&gt;]”形式的名字。 </t>
-  </si>
-  <si>
-    <t>&lt;名称&gt; 就是一个不超过31位的简单 ascii 字符串。通常，节点的命名应该根据它所体现的是什么样的设备。</t>
-  </si>
-  <si>
-    <t>比如一个 3com 以太网适配器的节点就应该命名为 ethernet，而不应该是 3com509。</t>
-  </si>
-  <si>
-    <t>如果该节点描述的设备有一个地址的话就还应该加上设备地址（unit-address）。</t>
-  </si>
-  <si>
-    <t>通常，设备地址就是用来访问该设备的主地址，并且该地址也在节点的 reg 属性中列出。</t>
-  </si>
-  <si>
-    <t>本文档中我们将在稍后涉及到 reg 属性。</t>
-  </si>
-  <si>
-    <t>同级节点命名必须是唯一的，但只要地址不同，多个节点也可以使用一样的通用名称（例如 serial@101f1000 和 serial@101f2000）。</t>
-  </si>
-  <si>
-    <t>关于节点命名的更多细节请参考 ePAPR 规范 2.2.1 节。</t>
-  </si>
-  <si>
-    <t>2.5设备</t>
-  </si>
-  <si>
-    <t>系统中每个设备都表示为一个设备树节点。</t>
-  </si>
-  <si>
-    <r>
-      <t>所以接下来就应该为这个设备树填充</t>
+    <r>
+      <t>现在应该花点时间来讨论命名约定了。</t>
     </r>
     <r>
       <rPr>
@@ -4530,7 +4654,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>设备节点</t>
+      <t>每个节点必须有一个“&lt;名称&gt;[@&lt;设备地址&gt;]”形式的名字。</t>
     </r>
     <r>
       <rPr>
@@ -4540,102 +4664,32 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>现在，知道我们讨论如何进行寻址和中断请求如何处理之前这些新节点将一直为空。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    serial@101F0000 {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        compatible = "arm,pl011";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    serial@101F2000 {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    gpio@101F3000 {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        compatible = "arm,pl061";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    interrupt-controller@10140000 {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        compatible = "arm,pl190";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    spi@10115000 {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        compatible = "arm,pl022";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    external-bus {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ethernet@0,0 {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            compatible = "smc,smc91c111";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        i2c@1,0 {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            compatible = "acme,a1234-i2c-bus";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            rtc@58 {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                compatible = "maxim,ds1338";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            };</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        flash@2,0 {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            compatible = "samsung,k8f1315ebm", "cfi-flash";</t>
-  </si>
-  <si>
-    <t>在此树中，已经为系统中的每个设备添加了节点，而且这个·层次结构也反映了设备与系统的连接方式。</t>
-  </si>
-  <si>
-    <t>例如，外部总线上的设备就是外部总线节点的子节点，i2c 设备就是 i2c 总线节点的子节点。</t>
-  </si>
-  <si>
-    <t>通常，这个层次结构表现的是 CPU 视角的系统视图。</t>
-  </si>
-  <si>
-    <t>现在这棵树还是无效的，因为它缺少关于设备之间互联的信息。稍后将添加这些信息。</t>
-  </si>
-  <si>
-    <t>在这颗树中，应该注意这些事情：</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ■ 每个设备节点都拥有一个 compatible 属性。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ■ 闪存（flash）节点的 compatible 属性由两个字符串构成。欲知为何，请阅读下一节。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ■ 正如前面所述，节点的命名应当反映设备的类型而不是特定的型号。请查阅 ePAPR 规范第 2.2.2 节里定义的通用节点名，应当优先使用这些节点名。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>2.6理解 compatible 属性</t>
-  </si>
-  <si>
-    <r>
-      <t>树中每个表示一个设备的节点都需要一个 compatible 属性。</t>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;名称&gt; 就是一个不超过31位的简单 ascii 字符串。通常，节点的命名应该根据它所体现的是什么样的设备。</t>
+  </si>
+  <si>
+    <t>比如一个 3com 以太网适配器的节点就应该命名为 ethernet，而不应该是 3com509。</t>
+  </si>
+  <si>
+    <t>如果该节点描述的设备有一个地址的话就还应该加上设备地址（unit-address）。</t>
+  </si>
+  <si>
+    <r>
+      <t>通常，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设备地址</t>
     </r>
     <r>
       <rPr>
@@ -4646,7 +4700,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>compatible 属性是操作系统用来决定使用</t>
+      <t>就是用来访问该设备的主地址，</t>
     </r>
     <r>
       <rPr>
@@ -4657,7 +4711,26 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>哪个设备驱动</t>
+      <t>并且该地址也在节点的 reg 属性中列出。</t>
+    </r>
+  </si>
+  <si>
+    <t>本文档中我们将在稍后涉及到 reg 属性。</t>
+  </si>
+  <si>
+    <r>
+      <t>同级节点命名必须是唯一的，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>但只要地址不同，多个节点也可以使用一样的通用名称</t>
     </r>
     <r>
       <rPr>
@@ -4668,12 +4741,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>来绑定到一个设备上的关键因素。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>compatible 是一个</t>
+      <t>（例如 serial@101f1000 和 serial@101f2000）。</t>
+    </r>
+  </si>
+  <si>
+    <t>关于节点命名的更多细节请参考 ePAPR 规范 2.2.1 节。</t>
+  </si>
+  <si>
+    <t>2.5设备</t>
+  </si>
+  <si>
+    <t>系统中每个设备都表示为一个设备树节点。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所以接下来就应该为这个设备树填充</t>
     </r>
     <r>
       <rPr>
@@ -4684,7 +4773,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>字符串列表</t>
+      <t>设备节点</t>
     </r>
     <r>
       <rPr>
@@ -4694,7 +4783,161 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>，之中第一个字符串指定了这个节点所表示的确切的设备，该字符串的格式为："</t>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>现在，知道我们讨论如何进行寻址和中断请求如何处理之前这些新节点将一直为空。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    serial@101F0000 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        compatible = "arm,pl011";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    serial@101F2000 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    gpio@101F3000 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        compatible = "arm,pl061";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    interrupt-controller@10140000 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        compatible = "arm,pl190";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    spi@10115000 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        compatible = "arm,pl022";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    external-bus {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ethernet@0,0 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            compatible = "smc,smc91c111";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        i2c@1,0 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            compatible = "acme,a1234-i2c-bus";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            rtc@58 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                compatible = "maxim,ds1338";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            };</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        flash@2,0 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            compatible = "samsung,k8f1315ebm", "cfi-flash";</t>
+  </si>
+  <si>
+    <r>
+      <t>在此树中，已经为系统中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每个设备添加了节点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而且这个·层次结构也反映了设备与系统的连接方式。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>例如，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外部总线上的设备就是外部总线节点的子节点，i2c 设备就是 i2c 总线节点的子节点。</t>
+    </r>
+  </si>
+  <si>
+    <t>通常，这个层次结构表现的是 CPU 视角的系统视图。</t>
+  </si>
+  <si>
+    <r>
+      <t>现在这棵树还是无效的，因为它</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>缺少关于设备之间互联的信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。稍后将添加这些信息。</t>
+    </r>
+  </si>
+  <si>
+    <t>在这颗树中，应该注意这些事情：</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ 每个设备节点都拥有一个 compatible 属性。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ 闪存（flash）节点的 compatible 属性由两个字符串构成。欲知为何，请阅读下一节。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ 正如前面所述，节点的命名应当反映设备的类型而不是特定的型号。请查阅 ePAPR 规范第 2.2.2 节里定义的通用节点名，应当优先使用这些节点名。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2.6理解 compatible 属性</t>
+  </si>
+  <si>
+    <r>
+      <t>树中每个表示一个设备的节点都需要一个 compatible 属性。</t>
     </r>
     <r>
       <rPr>
@@ -4705,100 +4948,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;制造商&gt;,&lt;型号&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"。剩下的字符串的则表示其它与之相兼容的设备。</t>
-    </r>
-  </si>
-  <si>
-    <t>例如，Freescale MPC8349 片上系统（SoC）拥有一个实现了美国国家半导体 ns16550 的寄存器接口的串行设备，</t>
-  </si>
-  <si>
-    <t>那么 MPC8349 的串行设备的 compatible 属性就应该是：compatible = "fsl,mpc8349-uart", "ns16550"。</t>
-  </si>
-  <si>
-    <t>在这里，mpc8349-uart 指定了确切的设备，而 ns16550 则说明这是与美国国家半导体 ns16550 UART 的寄存器级兼容。</t>
-  </si>
-  <si>
-    <t>注：ns16550 并没有制造商前缀，这仅仅是历史原因造成的。所有的新 compatible 值都应该使用制造商前缀。</t>
-  </si>
-  <si>
-    <t>这种做法可以使现有的设备驱动能够绑定到新设备上，并仍然唯一的指定确切的设备。</t>
-  </si>
-  <si>
-    <t>警告：不要使用带通配符的 compatible 值，比如“fsl,mpc83xx-uart”或类似情况。芯片提供商无不会做出一些能够轻易打破你通配符猜想的变化，这时候在修改已经为时已晚了。</t>
-  </si>
-  <si>
-    <t>相反，应该选择一个特定的芯片然后是所有后续芯片都与之兼容。</t>
-  </si>
-  <si>
-    <t>如何编址</t>
-  </si>
-  <si>
-    <t>可编址设备使用以下属性将地址信息编码进设备树：</t>
-  </si>
-  <si>
-    <t>■ reg</t>
-  </si>
-  <si>
-    <t>■ #address-cells</t>
-  </si>
-  <si>
-    <t>■ #size-cells</t>
-  </si>
-  <si>
-    <t>每个可编址设备都有一个元组列表的 reg，元组的形式为：reg = &lt;地址1 长度1  [地址2 长度2]  [地址3 长度3] ... &gt;。</t>
-  </si>
-  <si>
-    <t>每个元组都表示一个该设备使用的地址范围。每个地址值是一个或多个 32 位整型数列表，称为cell。同样，长度值也可以是一个cell列表或者为空。</t>
-  </si>
-  <si>
-    <t>由于地址和长度字段都是可变大小的变量，那么父节点的 #address-cells 和 #size-cells属性就用来声明各个字段的cell的数量。</t>
-  </si>
-  <si>
-    <t>换句话说，正确解释一个reg属性需要用到父节点的#address-cells和#size-cells的值。要知道这一切是如何运作的，我们将给模型机添加编址属性，就从CPU开始。</t>
-  </si>
-  <si>
-    <t>3.1  CPU 编址</t>
-  </si>
-  <si>
-    <t>CPU 节点表示了一个关于编址的最简单的例子。每个 CPU 都分配了一个唯一的 ID，并且没有 CPU id 相关的大小信息。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        #address-cells = &lt;1&gt;;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        #size-cells = &lt;0&gt;;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            reg = &lt;0&gt;;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            reg = &lt;1&gt;;</t>
-  </si>
-  <si>
-    <t>在 cpu 节点中，#address-cells 设置为 1，#size-cells 设置为 0。</t>
-  </si>
-  <si>
-    <t>这意味着子节点的 reg 值是一个单一的 uint32，这是一个不包含大小字段的地址，为这两个 cpu 分配的地址是 0 和 1。cpu 节点的 #size-cells 为 0 是因为只为每个 cpu 分配一个单独的地址。</t>
-  </si>
-  <si>
-    <t>你可能还会注意到 reg 的值和节点名字是相同的。按照惯例，如果一个节点有 reg 属性，那么该节点的名字就必须包含设备地址，这个设备地址就是 reg 属性里第一个地址值。</t>
-  </si>
-  <si>
-    <t>3.2  内存映射设备</t>
-  </si>
-  <si>
-    <r>
-      <t>与 cpu 节点里单一地址值不同，应该分配给内存映射设备一个地址范围。</t>
+      <t>compatible 属性</t>
     </r>
     <r>
       <rPr>
@@ -4809,90 +4959,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>#size-cells 声明每个子节点的 reg 元组中长度字段的大小。【这个大小指的是这个cells元组中用几个字符数(也就是几个CELL)字来表示实际值】</t>
-    </r>
-  </si>
-  <si>
-    <t>在接下来的例子中，每个地址值是 1 cell（32 位），每个长度值也是 1 cell，这是典型的 32 位系统。</t>
-  </si>
-  <si>
-    <t>64 位的机器则可以使用值为 2 的 #address-cells 和 #size-cells 来获得在设备树中的 64 位编址。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    #address-cells = &lt;1&gt;;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    #size-cells = &lt;1&gt;;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    serial@101f0000 {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        reg = &lt;0x101f0000 0x1000 &gt;;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    serial@101f2000 {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        reg = &lt;0x101f2000 0x1000 &gt;;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    gpio@101f3000 {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        reg = &lt;0x101f3000 0x1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               0x101f4000 0x0010&gt;;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        reg = &lt;0x10140000 0x1000 &gt;;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        reg = &lt;0x10115000 0x1000 &gt;;</t>
-  </si>
-  <si>
-    <t>每个设备都被分配了一个基址以及该区域的大小。</t>
-  </si>
-  <si>
-    <t>这个例子中为 GPIO 分配了两个地址范围：0x101f3000...0x101f3fff 和 0x101f4000..0x101f400f。</t>
-  </si>
-  <si>
-    <t>一些挂在总线上的设备有不同的编址方案。</t>
-  </si>
-  <si>
-    <t>例如一个带独立片选线的设备也可以连接至外部总线。</t>
-  </si>
-  <si>
-    <t>由于父节点会为其子节点定义地址域，所以可以选择不同的地址映射来最恰当的描述该系统。</t>
-  </si>
-  <si>
-    <t>下面的代码展示了设备连接至外部总线并将其片选号编码进地址的地址分配。</t>
-  </si>
-  <si>
-    <t>external-bus {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        #address-cells = &lt;2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        #size-cells = &lt;1&gt;;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            reg = &lt;0 0 0x1000&gt;;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            reg = &lt;1 0 0x1000&gt;;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            reg = &lt;2 0 0x4000000&gt;;</t>
-  </si>
-  <si>
-    <r>
-      <t>外部总线的</t>
+      <t>是操作系统用来决定使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>哪个设备驱动</t>
     </r>
     <r>
       <rPr>
@@ -4903,17 +4981,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>地址值使用了两个 cell</t>
-    </r>
-    <r>
-      <rPr>
+      <t>来</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF1D41D5"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>，</t>
+      <t>绑定到一个设备上</t>
     </r>
     <r>
       <rPr>
@@ -4924,12 +5003,22 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>一个用于片选号；另一个则用于片选基址的偏移量。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>而</t>
+      <t>的关键因素。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>compatible 是一个字符串列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
     </r>
     <r>
       <rPr>
@@ -4940,7 +5029,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>长度字段则还是单个 cell</t>
+      <t>之中第一个字符串指定了这个节点所表示的确切的设备</t>
     </r>
     <r>
       <rPr>
@@ -4950,8 +5039,255 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>，这是因为只有地址的偏移部分才需要一个范围量。</t>
-    </r>
+      <t>，该字符串的格式为："</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;制造商&gt;,&lt;型号&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"。剩下的字符串的则表示其它与之相兼容的设备。</t>
+    </r>
+  </si>
+  <si>
+    <t>例如，Freescale MPC8349 片上系统（SoC）拥有一个实现了美国国家半导体 ns16550 的寄存器接口的串行设备，</t>
+  </si>
+  <si>
+    <t>那么 MPC8349 的串行设备的 compatible 属性就应该是：compatible = "fsl,mpc8349-uart", "ns16550"。</t>
+  </si>
+  <si>
+    <t>在这里，mpc8349-uart 指定了确切的设备，而 ns16550 则说明这是与美国国家半导体 ns16550 UART 的寄存器级兼容。</t>
+  </si>
+  <si>
+    <t>注：ns16550 并没有制造商前缀，这仅仅是历史原因造成的。所有的新 compatible 值都应该使用制造商前缀。</t>
+  </si>
+  <si>
+    <t>这种做法可以使现有的设备驱动能够绑定到新设备上，并仍然唯一的指定确切的设备。</t>
+  </si>
+  <si>
+    <t>警告：不要使用带通配符的 compatible 值，比如“fsl,mpc83xx-uart”或类似情况。芯片提供商无不会做出一些能够轻易打破你通配符猜想的变化，这时候在修改已经为时已晚了。</t>
+  </si>
+  <si>
+    <t>相反，应该选择一个特定的芯片然后是所有后续芯片都与之兼容。</t>
+  </si>
+  <si>
+    <t>如何编址</t>
+  </si>
+  <si>
+    <t>可编址设备使用以下属性将地址信息编码进设备树：</t>
+  </si>
+  <si>
+    <t>■ reg</t>
+  </si>
+  <si>
+    <t>■ #address-cells</t>
+  </si>
+  <si>
+    <t>■ #size-cells</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">每个可编址设备都有一个元组列表的 reg，元组的形式为：reg = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;地址1 长度1  [地址2 长度2]  [地址3 长度3] ... &gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>每个元组都表示一个该设备使用的地址范围。每个地址值是一个或多个 32 位整型数列表，称为cell。同样，长度值也可以是一个cell列表或者为空。</t>
+  </si>
+  <si>
+    <t>由于地址和长度字段都是可变大小的变量，那么父节点的 #address-cells 和 #size-cells属性就用来声明各个字段的cell的数量。</t>
+  </si>
+  <si>
+    <t>换句话说，正确解释一个reg属性需要用到父节点的#address-cells和#size-cells的值。要知道这一切是如何运作的，我们将给模型机添加编址属性，就从CPU开始。</t>
+  </si>
+  <si>
+    <t>3.1  CPU 编址</t>
+  </si>
+  <si>
+    <t>CPU 节点表示了一个关于编址的最简单的例子。每个 CPU 都分配了一个唯一的 ID，并且没有 CPU id 相关的大小信息。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #address-cells = &lt;1&gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #size-cells = &lt;0&gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            reg = &lt;0&gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            reg = &lt;1&gt;;</t>
+  </si>
+  <si>
+    <r>
+      <t>在 cpu 节点中，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#address-cells 设置为 1，#size-cells 设置为 0。</t>
+    </r>
+  </si>
+  <si>
+    <t>这意味着子节点的 reg 值是一个单一的 uint32，这是一个不包含大小字段的地址，为这两个 cpu 分配的地址是 0 和 1。cpu 节点的 #size-cells 为 0 是因为只为每个 cpu 分配一个单独的地址。</t>
+  </si>
+  <si>
+    <t>你可能还会注意到 reg 的值和节点名字是相同的。按照惯例，如果一个节点有 reg 属性，那么该节点的名字就必须包含设备地址，这个设备地址就是 reg 属性里第一个地址值。</t>
+  </si>
+  <si>
+    <t>3.2  内存映射设备</t>
+  </si>
+  <si>
+    <r>
+      <t>与 cpu 节点里单一地址值不同，应该分配给内存映射设备一个地址范围。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#size-cells 声明每个子节点的 reg 元组中长度字段的大小。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>【这个大小指的是这个cells元组中用几个字符数(也就是几个CELL)字来表示实际值】</t>
+    </r>
+  </si>
+  <si>
+    <t>在接下来的例子中，每个地址值是 1 cell（32 位），每个长度值也是 1 cell，这是典型的 32 位系统。</t>
+  </si>
+  <si>
+    <t>64 位的机器则可以使用值为 2 的 #address-cells 和 #size-cells 来获得在设备树中的 64 位编址。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    #address-cells = &lt;1&gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    #size-cells = &lt;1&gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    serial@101f0000 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        reg = &lt;0x101f0000 0x1000 &gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    serial@101f2000 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        reg = &lt;0x101f2000 0x1000 &gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    gpio@101f3000 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        reg = &lt;0x101f3000 0x1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               0x101f4000 0x0010&gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        reg = &lt;0x10140000 0x1000 &gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        reg = &lt;0x10115000 0x1000 &gt;;</t>
+  </si>
+  <si>
+    <t>每个设备都被分配了一个基址以及该区域的大小。</t>
+  </si>
+  <si>
+    <t>这个例子中为 GPIO 分配了两个地址范围：0x101f3000...0x101f3fff 和 0x101f4000..0x101f400f。</t>
+  </si>
+  <si>
+    <t>一些挂在总线上的设备有不同的编址方案。</t>
+  </si>
+  <si>
+    <t>例如一个带独立片选线的设备也可以连接至外部总线。</t>
+  </si>
+  <si>
+    <t>由于父节点会为其子节点定义地址域，所以可以选择不同的地址映射来最恰当的描述该系统。</t>
+  </si>
+  <si>
+    <t>下面的代码展示了设备连接至外部总线并将其片选号编码进地址的地址分配。</t>
+  </si>
+  <si>
+    <t>external-bus {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #address-cells = &lt;2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #size-cells = &lt;1&gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            reg = &lt;0 0 0x1000&gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            reg = &lt;1 0 0x1000&gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            reg = &lt;2 0 0x4000000&gt;;</t>
+  </si>
+  <si>
+    <t>外部总线的地址值使用了两个 cell，一个用于片选号；另一个则用于片选基址的偏移量。</t>
+  </si>
+  <si>
+    <t>而长度字段则还是单个 cell，这是因为只有地址的偏移部分才需要一个范围量。</t>
   </si>
   <si>
     <t>所以，在这个例子中，每个 reg 项都有三个 cell：片选号、偏移量和长度。</t>
@@ -4961,6 +5297,502 @@
   </si>
   <si>
     <t>那些在直接父节点和子节点以外的节点通常不关心本地地址域，而地址应该从一个域映射到另一个域。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.3  非内存映射设备 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>【非内存映射的意思就是不是直接挂在CPU的地址空间内】</t>
+    </r>
+  </si>
+  <si>
+    <t>其他的设备没有被映射到处理机总线上。虽然这些设备可以有一个地址范围，但他们并不是由 CPU 直接访问。取而代之的是，父设备的驱动程序会代表 CPU 执行简介访问。</t>
+  </si>
+  <si>
+    <t>以 i2c 设备为例，每个设备都分配了一个地址，但并没有与之关联的长度或范围信息。这看起来和 CPU 的地址分配很像</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            #address-cells = &lt;1&gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            #size-cells = &lt;0&gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                reg = &lt;58&gt;;</t>
+  </si>
+  <si>
+    <t>3.4  范围（地址转换）</t>
+  </si>
+  <si>
+    <t>我们已经讨论了如何给设备分配地址，但目前来说这些地址还只是设备节点的本地地址，我们还没有描述如何将这些地址映射成 CPU 可使用的地址</t>
+  </si>
+  <si>
+    <t>根节点始终描述的是 CPU 视角的地址空间。根节点的子节点已经使用的是 CPU 的地址域，所以它们不需要任何直接映射。例如，serial@101f0000 设备就是直接分配的 0x101f0000 地址。</t>
+  </si>
+  <si>
+    <t>那些非根节点直接子节点的节点就没有使用 CPU 地址域。为了得到一个内存映射地址，设备树必须指定从一个域到另一个域地址转换地方法，而 ranges 属性就为此而生。</t>
+  </si>
+  <si>
+    <t>下面就是一个添加了 ranges 属性的示例设备树。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ranges = &lt;0 0  0x10100000   0x10000     // Chipselect 1, Ethernet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  1 0  0x10160000   0x10000     // Chipselect 2, i2c controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  2 0  0x30000000   0x1000000&gt;; // Chipselect 3, NOR Flash</t>
+  </si>
+  <si>
+    <t>ranges 是一个地址转换列表。ranges 表中的每一项都是一个包含子地址、父地址和在子地址空间中区域大小的元组。每个字段的值都取决于子节点的 #address-cells 、父节点的 #address-cells 和子节点的 #size-cells。以本例中的外部总线来说，子地址是 2 cell、父地址是 1 cell、区域大小也是 1 cell。那么三个 ranges 被翻译为：</t>
+  </si>
+  <si>
+    <t>从片选 0 开始的偏移量 0 被映射为地址范围：</t>
+  </si>
+  <si>
+    <t>0x10100000..0x1010ffff</t>
+  </si>
+  <si>
+    <t>从片选 0 开始的偏移量 1 被映射为地址范围：</t>
+  </si>
+  <si>
+    <t>0x10160000..0x1016ffff</t>
+  </si>
+  <si>
+    <t>从片选 0 开始的偏移量 2 被映射为地址范围：</t>
+  </si>
+  <si>
+    <t>0x30000000..0x10000000</t>
+  </si>
+  <si>
+    <t>另外，如果父地址空间和子地址空间是相同的，那么该节点可以添加一个空的 range 属性。一个空的 range 属性意味着子地址将被 1:1 映射到父地址空间。</t>
+  </si>
+  <si>
+    <t>你有可能会问当全都可以设计成 1:1 映射的时候为何还要使用地址转换。答案就是，有一些具有完全不同地址空间的总线（比如 PCI），而它们的细节需要暴露给操作系统。</t>
+  </si>
+  <si>
+    <t>另外一些带有 DMA 引擎的设备需要知道总线上的真实地址。有时有需要将设备组合到一块，因为他们共享相同的软件可编程物理地址映射。是否应该使用 1:1 映射在很大程度上取决于来自操作系统的信息以及硬件设计。</t>
+  </si>
+  <si>
+    <t>你还应该注意到在 i2c@1,0 节点中并没有 range 属性。不同于外部总线，这里的原因是 i2c 总线上的设备并没有被内存映射到 CPU 的地址域。相反，CPU 将通过 i2c@1,0 设备间接访问 rtc@58 设备。</t>
+  </si>
+  <si>
+    <t>缺少 ranges 属性意味着这个设备将不能被出他的父设备之外的任何设备直接访问。</t>
+  </si>
+  <si>
+    <t>中断如何工作</t>
+  </si>
+  <si>
+    <t>与遵循树的自然结构而进行的地址转换不同，机器上的任何设备都可以发起和终止中断信号。另外地址的编址也不同于中断信号，前者是设备树的自然表示，而后者者表现为独立于设备树结构的节点之间的链接。描述中断连接需要四个属性：</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ interrupt-controller -一个空的属性定义该节点作为一个接收中断信号的设备。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ #interrupt-cells - 这是一个中断控制器节点的属性。它声明了该中断控制器的中断指示符中 cell 的个数（类似于 #address-cells 和 #size-cells）。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■  interrupt-parent -这是一个设备节点的属性，包含一个指向该设备连接的中断控制器的 phandle。那些没有 interrupt-parent 的节点则从它们的父节点中继承该属性。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ interrupts - 一个设备节点属性，包含一个中断指示符的列表，对应于该设备上的每个中断输出信号。</t>
+  </si>
+  <si>
+    <t>中断指示符是一个或多个 cell 的数据（由 #interrupt-cells 指定），这些数据指定了该设备连接至哪些输入中断。在以下的例子中，大部分设备都只有一个输出中断，但也有可能在一个设备上有多个输出中断。一个中断指示符的意义完全取决于与中断控制器设备的 binding。每个中断控制器可以决定使用几个 cell 来唯一的定义一个输入中断。</t>
+  </si>
+  <si>
+    <t>下面的代码为我们 Coyote's Revenge 模型机添加了中断连接：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    interrupt-parent = &lt;&amp;intc&gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        interrupts = &lt; 1 0 &gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        interrupts = &lt; 2 0 &gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        interrupts = &lt; 3 0 &gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    intc: interrupt-controller@10140000 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        interrupt-controller;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #interrupt-cells = &lt;2&gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        interrupts = &lt; 4 0 &gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            interrupts = &lt; 5 2 &gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            interrupts = &lt; 6 2 &gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                interrupts = &lt; 7 3 &gt;;</t>
+  </si>
+  <si>
+    <t>需要注意的事情：</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ 这个机器只有一个中断控制器：interrupt-controller@10140000。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ 中断控制器节点上添加了‘inc:’标签，该标签用于给根节点的 interrupt-parent 属性分配一个 phandle。这个 interrupt-parent 将成为本系统的默认值，因为所有的子节点都将继承它，除非显示覆写这个属性。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■每个设备使用 interrupts 属性来不同的中断输入线。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ #interrupt-cells 是 2，所以每个中断指示符都有 2 个 cell。本例使用一种通用的模式，也就是用第一个 cell 来编码中断线号；然后用第二个 cell 编码标志位，比如高电平/低电平有效，或者边缘/水平触发。对于任何给定的中断控制器，请参考该控制器的 binding 文档以了解指示符如何编码。</t>
+  </si>
+  <si>
+    <t>设备特定数据</t>
+  </si>
+  <si>
+    <t>除了通用属性以外，一个节点中可以添加任何属性和子节点。只要遵循一些规则，可以添加任何操作系统所需要的数据。</t>
+  </si>
+  <si>
+    <t>首先，新的设备特定属性的名字都应该使用制造商前缀，以避免和现有标准属性名相冲突。</t>
+  </si>
+  <si>
+    <t>其次，属性和子节点的含义必须存档在 binding 文档中，以便设备驱动程序的程序员知道如何解释这些数据。一个 binding 记录了一个特定 compatible 值的意义、应该包含什么样的属性、有可能包含那些子节点、以及它代表了什么样的设备。每个特别的 compatible 值都应该有一个它自己的 binding（或者要求与其他 compatible 值兼容）。新设备的 binding 存档在本 wiki 中。请查看主页上的文档格式描述和审核流程。</t>
+  </si>
+  <si>
+    <t>第三，使用邮件列表 devicetree-discuss@lists.ozlabs.org 发送新的 binding 以进行审核。新 binding 的审核可以捕获很多可能在以后导致问题的常见错误。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>特殊节点</t>
+  </si>
+  <si>
+    <t>6.1  aliases 节点</t>
+  </si>
+  <si>
+    <t>引用一个特定的节点通常使用全路径，</t>
+  </si>
+  <si>
+    <t>如 /external-bus/ethernet@0,0，但当用户真真想知道的只是“那个设备是 eth0？”时，这样的全路径就变得很冗长。这时，aliases 节点就可以用于指定一个设备全路径的别名。例如：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    aliases {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ethernet0 = ð0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        serial0 = &amp;serial0;</t>
+  </si>
+  <si>
+    <t>当给一个设备分配一个识别符是操作系统将非常乐意使用别名。</t>
+  </si>
+  <si>
+    <t>在这里你会发现一个新语法。property = &amp;label;，将作为字符串属性并通过引用标签来指定一个节点的全路径。这与之前的 phandle = &lt; &amp;label &gt;; 形式不同，这是把一个 phandle 值插入进一个 cell。</t>
+  </si>
+  <si>
+    <t>6.2  chosen 节点</t>
+  </si>
+  <si>
+    <t>chosen 节点并不代表一个真正的设备，只是作为一个为固件和操作系统之间传递数据的地方，比如引导参数。chosen 节点里的数据也不代表硬件。通常，chosen 节点在 .dts 源文件中为空，并在启动时填充。</t>
+  </si>
+  <si>
+    <t>在我们的示例系统中，固件可以往 chosen 节点添加以下信息：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    chosen {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        bootargs = "root=/dev/nfs rw nfsroot=192.168.1.1 console=ttyS0,115200";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>高级主题</t>
+  </si>
+  <si>
+    <t>7.1  高级模型机</t>
+  </si>
+  <si>
+    <t>现在，我们已经掌握了基本的定义，接下来让我们往模型机里添加一些硬件，以讨论一些更复杂的用例。</t>
+  </si>
+  <si>
+    <t>高级模型机添加了一个 PCI 主桥，其控制寄存器映射到内存 0x10180000，并且 BARs 编程至以地址 0x80000000 为起始。</t>
+  </si>
+  <si>
+    <t>既然关于设备树我们已经有所了解了，那么我们就从以下所示新增加的节点来介绍 PCI 主桥。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        pci@10180000 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            compatible = "arm,versatile-pci-hostbridge", "pci";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            reg = &lt;0x10180000 0x1000&gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            interrupts = &lt;8 0&gt;;</t>
+  </si>
+  <si>
+    <t>7.2  PCI  主桥</t>
+  </si>
+  <si>
+    <t>本节介绍 Host/PCI 桥节点。</t>
+  </si>
+  <si>
+    <t>注，本节将假定读者了解 PCI 的一些基本知识。本文并不是 PCI 教程，想要了解更深入的信息，请阅读 [1]。</t>
+  </si>
+  <si>
+    <t>你也可以参考 ePAPR 或 PCI Bus Binding to Open Firmware（http://playground.sun.com/1275/bindings/pci/pci2_1.pdf）。还可以访问 http://devicetree.org/MPC5200:PCI，这里可以找到 Freescale MPC5200 的一个完整工作的例子。</t>
+  </si>
+  <si>
+    <t>7.2.1  PCI 总线编号</t>
+  </si>
+  <si>
+    <t>每个 PCI 总线段都是唯一编号的，并且总线的编号是通过使用 bus-ranges 属性在 pci 节点中暴露出来的，这个属性有两个 cell。第一个 cell 给出分配给该节点的总线号；第二个 cell 给出任何次级 PCI 总线最大总线号。</t>
+  </si>
+  <si>
+    <t>模型机只有一个 pci 总线，所以两个 cell 都是 0。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        pci@0x10180000 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            bus-ranges = &lt;0 0&gt;;</t>
+  </si>
+  <si>
+    <t>7.2.2  PCI 地址转换</t>
+  </si>
+  <si>
+    <t>类似于前面所描述的本地总线，PCI 地址空间和 CPU 地址空间是完全分离的，所以需要一个从 PCI 地址到 CPU 地址的转换。同样，完成这样的转换将使用 ranges、#address-cells 和 #size-cells 属性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            #address-cells = &lt;3&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            #size-cells = &lt;2&gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ranges = &lt;0x42000000 0 0x80000000 0x80000000 0 0x20000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      0x02000000 0 0xa0000000 0xa0000000 0 0x10000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      0x01000000 0 0x00000000 0xb0000000 0 0x01000000&gt;;</t>
+  </si>
+  <si>
+    <t>正如你所看到的，子地址（PCI 地址）使用 3 个 cell，同时 PCI rangs 被编码为 2 个 cell。那么第一个问题就可能是，为什么我们要用三个 32 位 cell 去指定一个 PCI 地址？这三个 cell 分别标记了 phys.hi、phys.mid 和 phys.low[2]。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ phys.hi cell: npt000ss bbbbbbbb dddddfff rrrrrrrr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ phys.mid cell: hhhhhhhh hhhhhhhh hhhhhhhh hhhhhhhh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ phys.low cell: llllllll llllllll llllllll llllllll</t>
+  </si>
+  <si>
+    <t>PCI 地址是 64 位的，并编码进了 phys.mid 和 phys.low。然而真正有意思的是在 phys.high 里棉面，这是一个位域。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ n：重定位区域标志（在这里不起作用）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ p：预取（可缓存）区标志</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■t：地址别名标志（在这里不起作用）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ ss：空间代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ■ 00：配置空间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ■ 01：I/O 空间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ■ 10：32 位内存空间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ■ 11：64 位内存空间</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ bbbbbbbb：PCI 总线号。PCI 可以是分层结构，所以我们可能有 PCI/PCI 桥，这可以定义子总线。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ ddddd：设备号，通常与 IDSEL 型号相关联。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ fff：功能号。用于多功能 PCI 设备。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■rrrrrrrr：寄存器号，用于配置周期。</t>
+  </si>
+  <si>
+    <t>对于 PCI 地址转换来说，p 和 ss 是最重要的字段。在 phys.hi 里的 p 和 ss 的值决定了访问哪个 PCI 地址空间。因此，通过查找 ranges 属性，我们将得到三个区域。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■以 PCI 地址 0x80000000 开始的一个 512 MByte 32 位预取存储区，该区域将映射到主机 CPU 地址 0x80000000。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■以 PCI 地址 0xa0000000 开始的一个 265 MByte 32 位非预取存储区，该区域将映射到主机 CPU 地址 0xa0000000。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ 以 PCI 地址 0x00000000 开始的一个 16 MByte I/O 区，该区域将映射到主机 CPU 地址 0xb0000000。</t>
+  </si>
+  <si>
+    <t>为阻止这些工作，phys.hi 位域的存在就意味着操作系统必须知道该节点代表了一个 PCI 桥，这样操作系统才能为了地址转换而忽略那些不相关的字段。为了判断应该掩码哪些额外的字段，操作系统需要在 PCI 总线节点中寻找“pci”字符串。</t>
+  </si>
+  <si>
+    <t>7.3  高级中断映射</t>
+  </si>
+  <si>
+    <t>现在我们来到了最有趣的部分，PCI 中断映射。一个 PCI 设备可以使用引线 #INTA、#INTB、#INTC 和 #INTD 来触发中断。如果我们没有多功能 PCI 设备，那么设备中断必须使用 #INTA。然而，每个 PCI 插槽或设备通常会连接到中断控制器上不同的输入端。所以设备树需要一种能将各个 PCI 中断信号映射到中断控制器的途径。#interrupt-cells、interrupt-map 和 interrupt-map-mask 属性就被用来描述这个中断映射。</t>
+  </si>
+  <si>
+    <t>这里所描述的中断映射并不仅仅局限于 PCI 总线，事实上，任何节点都可以指定复杂的中断映射，但 PCI 是最常见的情况。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ranges = &lt;0x42000000 0 0x80000000  0x80000000  0 0x20000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      0x02000000 0 0xa0000000  0xa0000000  0 0x10000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      0x01000000 0 0x00000000  0xb0000000  0 0x01000000&gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            #interrupt-cells = &lt;1&gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            interrupt-map-mask = &lt;0xf800 0 0 7&gt;;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            interrupt-map = &lt;0xc000 0 0 1 &amp;intc  9 3 // 1st slot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             0xc000 0 0 2 &amp;intc 10 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             0xc000 0 0 3 &amp;intc 11 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             0xc000 0 0 4 &amp;intc 12 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             0xc800 0 0 1 &amp;intc 10 3 // 2nd slot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             0xc800 0 0 2 &amp;intc 11 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             0xc800 0 0 3 &amp;intc 12 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             0xc800 0 0 4 &amp;intc  9 3&gt;;</t>
+  </si>
+  <si>
+    <t>首先你会发现，PCI 中断号只使用了一个 cell，不像系统中断控制器，它使用两个 cell，一个用于中断号，另一个用于标志。PCI 中断只使用了一个 cell，因为 PCI 中断确定为始终是低电平触发。</t>
+  </si>
+  <si>
+    <t>在这个示例板上，我们有 2 个分别包含 4 个中断线的 PCI 插槽，所以我们需要映射 8 个中断线到中断控制器上。这已经在 interrupt-map 属性中完成了。关于中断映射的具体步骤请参考 [3]。</t>
+  </si>
+  <si>
+    <t>因为要区分单一 PCI 总线上的若干 PCI 设备中断号（#INA 等）是不够用的，所以我们还需要指出是哪个 PCI 设备触发了中断线。幸运的是我们还可以使用每个设备所拥有的唯一设备号。为了区分这些 PCI 设备，我们需要一个元组，该元组由 PCI 设备号和 PCI 中断号组成。通俗的说，我们构造了由四个 cell 组成的设备中断指示符。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ 三个 #address-cells 由 phys.hi、phys.mid、phys.low 组成，然后</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ 一个 #interrupt-cell（#INTA、#INTB、#INTC、#INTD）</t>
+  </si>
+  <si>
+    <t>因为我们只需要 PCI 地址中的设备号部分，所以 interrupt-map-mask 发挥了作用。interrupt-map-mask 也是 4 元组，就像设备中断指示符一样。掩码的第一部分指出我们应该考虑设备中断指示符中哪一部分。在本例中，我们可以看到在 phys.hi 中只需要设备号部分，另外我们还需要 3 位来区分四个中断线（PCI 中断线是从 1 开始计数的，不是 0！）。</t>
+  </si>
+  <si>
+    <t>现在。我们可以构建 interrupt-map 属性了。该属性是一个表，这个表的每一项都由一个子（PCI 总线）设备中断指示符、一个父句柄（用于中断服务的中断控制器）和一个父设备中断指示符组成。因此，在第一行中我们可以知道 PCI 中断 #INTA 将被映射到中断控制器的 IRQ 9，并且是低电平有效。[4]</t>
+  </si>
+  <si>
+    <t>目前为止，唯一没有讨论的就是 PCI 总线设备中断指示符里古怪的数字了。来自 phys.hi 位域的设备号是设备中断指示符中的重要组成部分。设备号是平台特定的，并取决于 PCI 主控制器如何激活各个设备的 IDSEL 管脚。在本例中，PCI slot 1 分配设备 id 24（0x18）,PCI slot 2 分配设备 id 25（0x19）。每个 slot 的 phys.hi 值是通过将设备号左移 11 位至位域的 ddddd 段得到的，就像下面：</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ slot 1 的 phys.hi 就是 0xC000， 并且</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■slot 2 的 phys.hi 就是 0xC800。</t>
+  </si>
+  <si>
+    <t>把这些放在一起之后，interrupt-map 属性就显示为：</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ 在主中断控制器上 slot 1 的 #INTA 是 IRQ9，低电平触发</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ 在主中断控制器上 slot 1 的 #INTB 是 IRQ10，低电平触发</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ 在主中断控制器上 slot 1 的 #INTC 是 IRQ11，低电平触发</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ■ 在主中断控制器上 slot 1 的 #INTD 是 IRQ12，低电平触发</t>
+  </si>
+  <si>
+    <t>和</t>
+  </si>
+  <si>
+    <t>■ 在主中断控制器上 slot 2 的 #INTA 是 IRQ10，低电平触发</t>
+  </si>
+  <si>
+    <t>■ 在主中断控制器上 slot 2 的 #INTA 是 IRQ11，低电平触发</t>
+  </si>
+  <si>
+    <t>■ 在主中断控制器上 slot 2 的 #INTA 是 IRQ12，低电平触发</t>
+  </si>
+  <si>
+    <t>■ 在主中断控制器上 slot 2 的 #INTA 是 IRQ9，低电平触发</t>
+  </si>
+  <si>
+    <t>属性 interrupts = &lt;8 0&gt;; 描述了主控制器或 PCI 桥控制器本身有可能触发中断。不要与 PCI 设备触发的中断（使用 INTA，INTB，...）告混了。</t>
+  </si>
+  <si>
+    <t>最后需要注意的事。就像 interrupt-parent 属性一样，节点中 interrupt-map 属性的存在将改变子节点和孙节点的默认中断控制器。在这个 PCI 示例中，这意味着 PCI 主桥变成了默认中断控制器。如果一个通过 PCI 总线连接的设备同时还直接连接至另一个中断控制器，这时就需要指定它自己的 interrupt-parent 属性。</t>
+  </si>
+  <si>
+    <t>附注</t>
+  </si>
+  <si>
+    <t>[1] Tom Shanley / Don Anderson: PCI System Architecture. Mindshare Inc.</t>
+  </si>
+  <si>
+    <t>[2] PCI Bus Bindings to Open Firmware.</t>
+  </si>
+  <si>
+    <t>[3] Open Firmware Recommended Practice: Interrupt Mapping</t>
+  </si>
+  <si>
+    <t>[4] PCI 中断总是低电平触发。</t>
   </si>
   <si>
     <t>grep    lowlevel_init     * -rn     --exclude-dir   "bak"</t>
@@ -8000,12 +8832,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8088,16 +8920,16 @@
     </font>
     <font>
       <b/>
-      <sz val="14.05"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF1D41D5"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF1D41D5"/>
+      <sz val="14.05"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8127,7 +8959,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8148,21 +9071,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -8171,86 +9079,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8267,6 +9099,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF1D41D5"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -8277,7 +9117,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8289,13 +9159,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8307,13 +9177,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8325,139 +9297,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8551,24 +9391,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -8580,6 +9402,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8614,15 +9445,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -8634,6 +9456,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8653,142 +9493,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8798,7 +9638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8856,10 +9696,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -8930,36 +9770,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -9054,7 +9864,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="11115675" y="3733800"/>
-          <a:ext cx="2276475" cy="1638300"/>
+          <a:ext cx="2276475" cy="1647825"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9102,7 +9912,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16621125" y="5981700"/>
+          <a:off x="16621125" y="5991225"/>
           <a:ext cx="2647950" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -9152,7 +9962,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="16268700" y="2933700"/>
-          <a:ext cx="2990850" cy="2438400"/>
+          <a:ext cx="2990850" cy="2447925"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9200,7 +10010,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="30186630" y="5504180"/>
+          <a:off x="30186630" y="5513705"/>
           <a:ext cx="2480945" cy="452755"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -9262,7 +10072,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1809750" y="3162300"/>
+          <a:off x="1809750" y="3181350"/>
           <a:ext cx="3257550" cy="3496310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9280,14 +10090,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>424180</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9304,7 +10114,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4733925" y="2185035"/>
+          <a:off x="4733925" y="2385060"/>
           <a:ext cx="9101455" cy="4596765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9686,15 +10496,15 @@
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
       <c r="H6" s="31"/>
-      <c r="AE6" s="44" t="s">
+      <c r="AE6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="48"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="38"/>
     </row>
     <row r="7" spans="3:37">
       <c r="C7" s="25" t="s">
@@ -9705,10 +10515,10 @@
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="32"/>
-      <c r="AE7" s="52" t="s">
+      <c r="AE7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="AK7" s="49"/>
+      <c r="AK7" s="39"/>
     </row>
     <row r="8" spans="3:37">
       <c r="C8" s="25" t="s">
@@ -9719,10 +10529,10 @@
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
       <c r="H8" s="32"/>
-      <c r="AE8" s="52" t="s">
+      <c r="AE8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AK8" s="49"/>
+      <c r="AK8" s="39"/>
     </row>
     <row r="9" spans="3:37">
       <c r="C9" s="25" t="s">
@@ -9733,10 +10543,10 @@
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
       <c r="H9" s="32"/>
-      <c r="AE9" s="52">
+      <c r="AE9" s="25">
         <v>966</v>
       </c>
-      <c r="AK9" s="49"/>
+      <c r="AK9" s="39"/>
     </row>
     <row r="10" spans="3:37">
       <c r="C10" s="25" t="s">
@@ -9747,10 +10557,10 @@
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
       <c r="H10" s="32"/>
-      <c r="AE10" s="52" t="s">
+      <c r="AE10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AK10" s="49"/>
+      <c r="AK10" s="39"/>
     </row>
     <row r="11" ht="16.5" spans="3:37">
       <c r="C11" s="27">
@@ -9761,10 +10571,10 @@
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
       <c r="H11" s="32"/>
-      <c r="AE11" s="52" t="s">
+      <c r="AE11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AK11" s="49"/>
+      <c r="AK11" s="39"/>
     </row>
     <row r="12" ht="16.5" spans="3:37">
       <c r="C12" s="25" t="s">
@@ -9775,15 +10585,15 @@
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="32"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="48"/>
-      <c r="AE12" s="52" t="s">
+      <c r="X12" s="34"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="38"/>
+      <c r="AE12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AK12" s="49"/>
+      <c r="AK12" s="39"/>
     </row>
     <row r="13" spans="3:37">
       <c r="C13" s="27" t="s">
@@ -9800,14 +10610,14 @@
       <c r="T13" s="37"/>
       <c r="U13" s="37"/>
       <c r="V13" s="38"/>
-      <c r="X13" s="45" t="s">
+      <c r="X13" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AB13" s="49"/>
-      <c r="AE13" s="53" t="s">
+      <c r="AB13" s="39"/>
+      <c r="AE13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AK13" s="49"/>
+      <c r="AK13" s="39"/>
     </row>
     <row r="14" spans="3:37">
       <c r="C14" s="27">
@@ -9826,12 +10636,12 @@
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
       <c r="V14" s="39"/>
-      <c r="X14" s="45"/>
-      <c r="AB14" s="49"/>
-      <c r="AE14" s="52" t="s">
+      <c r="X14" s="35"/>
+      <c r="AB14" s="39"/>
+      <c r="AE14" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AK14" s="49"/>
+      <c r="AK14" s="39"/>
     </row>
     <row r="15" spans="3:37">
       <c r="C15" s="25" t="s">
@@ -9848,14 +10658,14 @@
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
       <c r="V15" s="39"/>
-      <c r="X15" s="45" t="s">
+      <c r="X15" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="AB15" s="49"/>
-      <c r="AE15" s="52" t="s">
+      <c r="AB15" s="39"/>
+      <c r="AE15" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AK15" s="49"/>
+      <c r="AK15" s="39"/>
     </row>
     <row r="16" spans="3:37">
       <c r="C16" s="25" t="s">
@@ -9874,12 +10684,12 @@
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="39"/>
-      <c r="X16" s="45"/>
-      <c r="AB16" s="49"/>
-      <c r="AE16" s="52" t="s">
+      <c r="X16" s="35"/>
+      <c r="AB16" s="39"/>
+      <c r="AE16" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AK16" s="49"/>
+      <c r="AK16" s="39"/>
     </row>
     <row r="17" ht="16.5" spans="3:37">
       <c r="C17" s="27" t="s">
@@ -9898,15 +10708,15 @@
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
       <c r="V17" s="39"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="51"/>
-      <c r="AE17" s="52" t="s">
+      <c r="X17" s="36"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="41"/>
+      <c r="AE17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AK17" s="49"/>
+      <c r="AK17" s="39"/>
     </row>
     <row r="18" spans="3:37">
       <c r="C18" s="25" t="s">
@@ -9925,10 +10735,10 @@
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="39"/>
-      <c r="AE18" s="52" t="s">
+      <c r="AE18" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="AK18" s="49"/>
+      <c r="AK18" s="39"/>
     </row>
     <row r="19" spans="3:37">
       <c r="C19" s="27" t="s">
@@ -9947,10 +10757,10 @@
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
       <c r="V19" s="39"/>
-      <c r="AE19" s="52" t="s">
+      <c r="AE19" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AK19" s="49"/>
+      <c r="AK19" s="39"/>
     </row>
     <row r="20" spans="3:37">
       <c r="C20" s="25" t="s">
@@ -9969,10 +10779,10 @@
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="39"/>
-      <c r="AE20" s="52" t="s">
+      <c r="AE20" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AK20" s="49"/>
+      <c r="AK20" s="39"/>
     </row>
     <row r="21" spans="3:37">
       <c r="C21" s="25" t="s">
@@ -9991,10 +10801,10 @@
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
       <c r="V21" s="39"/>
-      <c r="AE21" s="52" t="s">
+      <c r="AE21" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AK21" s="49"/>
+      <c r="AK21" s="39"/>
     </row>
     <row r="22" spans="3:37">
       <c r="C22" s="25" t="s">
@@ -10011,12 +10821,12 @@
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
       <c r="V22" s="39"/>
-      <c r="AE22" s="52">
+      <c r="AE22" s="25">
         <v>979</v>
       </c>
-      <c r="AK22" s="49"/>
-    </row>
-    <row r="23" spans="3:37">
+      <c r="AK22" s="39"/>
+    </row>
+    <row r="23" ht="16.5" spans="3:37">
       <c r="C23" s="25" t="s">
         <v>37</v>
       </c>
@@ -10031,10 +10841,10 @@
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
       <c r="V23" s="39"/>
-      <c r="AE23" s="52" t="s">
+      <c r="AE23" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AK23" s="49"/>
+      <c r="AK23" s="39"/>
     </row>
     <row r="24" spans="3:43">
       <c r="C24" s="25" t="s">
@@ -10051,14 +10861,14 @@
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
       <c r="V24" s="39"/>
-      <c r="AE24" s="53" t="s">
+      <c r="AE24" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AK24" s="49"/>
-      <c r="AN24" s="44"/>
-      <c r="AO24" s="47"/>
-      <c r="AP24" s="47"/>
-      <c r="AQ24" s="48"/>
+      <c r="AK24" s="39"/>
+      <c r="AN24" s="34"/>
+      <c r="AO24" s="37"/>
+      <c r="AP24" s="37"/>
+      <c r="AQ24" s="38"/>
     </row>
     <row r="25" ht="16.5" spans="3:43">
       <c r="C25" s="28" t="s">
@@ -10077,12 +10887,12 @@
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
       <c r="V25" s="39"/>
-      <c r="AE25" s="52">
+      <c r="AE25" s="25">
         <v>982</v>
       </c>
-      <c r="AK25" s="49"/>
-      <c r="AN25" s="45"/>
-      <c r="AQ25" s="49"/>
+      <c r="AK25" s="39"/>
+      <c r="AN25" s="35"/>
+      <c r="AQ25" s="39"/>
     </row>
     <row r="26" spans="12:43">
       <c r="L26" s="34"/>
@@ -10096,14 +10906,14 @@
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
       <c r="V26" s="39"/>
-      <c r="AE26" s="53" t="s">
+      <c r="AE26" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AK26" s="49"/>
-      <c r="AN26" s="52" t="s">
+      <c r="AK26" s="39"/>
+      <c r="AN26" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="AQ26" s="49"/>
+      <c r="AQ26" s="39"/>
     </row>
     <row r="27" ht="16.5" spans="12:43">
       <c r="L27" s="35"/>
@@ -10119,14 +10929,14 @@
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
       <c r="V27" s="39"/>
-      <c r="AE27" s="53" t="s">
+      <c r="AE27" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AK27" s="49"/>
-      <c r="AN27" s="52" t="s">
+      <c r="AK27" s="39"/>
+      <c r="AN27" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AQ27" s="49"/>
+      <c r="AQ27" s="39"/>
     </row>
     <row r="28" ht="16.5" spans="12:43">
       <c r="L28" s="36"/>
@@ -10145,14 +10955,14 @@
       <c r="Z28" s="37"/>
       <c r="AA28" s="37"/>
       <c r="AB28" s="38"/>
-      <c r="AE28" s="52" t="s">
+      <c r="AE28" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="AK28" s="49"/>
-      <c r="AN28" s="52" t="s">
+      <c r="AK28" s="39"/>
+      <c r="AN28" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="AQ28" s="49"/>
+      <c r="AQ28" s="39"/>
     </row>
     <row r="29" spans="17:43">
       <c r="Q29" s="35"/>
@@ -10163,14 +10973,14 @@
       <c r="V29" s="39"/>
       <c r="X29" s="35"/>
       <c r="AB29" s="39"/>
-      <c r="AE29" s="52">
+      <c r="AE29" s="25">
         <v>986</v>
       </c>
-      <c r="AK29" s="49"/>
-      <c r="AN29" s="52" t="s">
+      <c r="AK29" s="39"/>
+      <c r="AN29" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="AQ29" s="49"/>
+      <c r="AQ29" s="39"/>
     </row>
     <row r="30" ht="16.5" spans="17:43">
       <c r="Q30" s="43" t="s">
@@ -10185,14 +10995,14 @@
         <v>55</v>
       </c>
       <c r="AB30" s="39"/>
-      <c r="AE30" s="53" t="s">
+      <c r="AE30" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="AK30" s="49"/>
-      <c r="AN30" s="46"/>
-      <c r="AO30" s="50"/>
-      <c r="AP30" s="50"/>
-      <c r="AQ30" s="51"/>
+      <c r="AK30" s="39"/>
+      <c r="AN30" s="36"/>
+      <c r="AO30" s="40"/>
+      <c r="AP30" s="40"/>
+      <c r="AQ30" s="41"/>
     </row>
     <row r="31" spans="17:37">
       <c r="Q31" s="35"/>
@@ -10203,10 +11013,10 @@
       <c r="V31" s="39"/>
       <c r="X31" s="35"/>
       <c r="AB31" s="39"/>
-      <c r="AE31" s="52">
+      <c r="AE31" s="25">
         <v>988</v>
       </c>
-      <c r="AK31" s="49"/>
+      <c r="AK31" s="39"/>
     </row>
     <row r="32" ht="16.5" spans="17:37">
       <c r="Q32" s="36"/>
@@ -10219,20 +11029,20 @@
         <v>57</v>
       </c>
       <c r="AB32" s="39"/>
-      <c r="AE32" s="53" t="s">
+      <c r="AE32" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="AK32" s="49"/>
+      <c r="AK32" s="39"/>
     </row>
     <row r="33" spans="24:37">
       <c r="X33" s="43" t="s">
         <v>59</v>
       </c>
       <c r="AB33" s="39"/>
-      <c r="AE33" s="52" t="s">
+      <c r="AE33" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AK33" s="49"/>
+      <c r="AK33" s="39"/>
     </row>
     <row r="34" ht="16.5" spans="24:37">
       <c r="X34" s="36"/>
@@ -10240,31 +11050,31 @@
       <c r="Z34" s="40"/>
       <c r="AA34" s="40"/>
       <c r="AB34" s="41"/>
-      <c r="AE34" s="52">
+      <c r="AE34" s="25">
         <v>991</v>
       </c>
-      <c r="AK34" s="49"/>
+      <c r="AK34" s="39"/>
     </row>
     <row r="35" spans="31:37">
-      <c r="AE35" s="52" t="s">
+      <c r="AE35" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AK35" s="49"/>
+      <c r="AK35" s="39"/>
     </row>
     <row r="36" spans="31:37">
-      <c r="AE36" s="53" t="s">
+      <c r="AE36" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="AK36" s="49"/>
+      <c r="AK36" s="39"/>
     </row>
     <row r="37" ht="16.5" spans="31:37">
-      <c r="AE37" s="46"/>
-      <c r="AF37" s="50"/>
-      <c r="AG37" s="50"/>
-      <c r="AH37" s="50"/>
-      <c r="AI37" s="50"/>
-      <c r="AJ37" s="50"/>
-      <c r="AK37" s="51"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="40"/>
+      <c r="AG37" s="40"/>
+      <c r="AH37" s="40"/>
+      <c r="AI37" s="40"/>
+      <c r="AJ37" s="40"/>
+      <c r="AK37" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19421,10 +20231,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D5:P434"/>
+  <dimension ref="D5:P744"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C407" workbookViewId="0">
-      <selection activeCell="D428" sqref="D428"/>
+    <sheetView tabSelected="1" topLeftCell="E639" workbookViewId="0">
+      <selection activeCell="I651" sqref="I651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -19442,8 +20252,8 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="7" spans="4:4">
-      <c r="D7" s="1" t="s">
+    <row r="7" ht="16.5" spans="4:4">
+      <c r="D7" s="17" t="s">
         <v>1244</v>
       </c>
     </row>
@@ -19453,12 +20263,12 @@
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="11" spans="4:4">
-      <c r="D11" t="s">
+    <row r="11" ht="16.5" spans="4:4">
+      <c r="D11" s="16" t="s">
         <v>1247</v>
       </c>
     </row>
@@ -19498,12 +20308,12 @@
       </c>
     </row>
     <row r="35" ht="18" spans="6:6">
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="18" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="36" spans="6:6">
-      <c r="F36" t="s">
+    <row r="36" ht="16.5" spans="6:6">
+      <c r="F36" s="16" t="s">
         <v>1256</v>
       </c>
     </row>
@@ -19524,22 +20334,22 @@
       </c>
     </row>
     <row r="39" spans="6:6">
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="40" spans="6:6">
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="41" spans="6:6">
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="42" spans="6:6">
-      <c r="F42" t="s">
+    <row r="42" ht="27.75" spans="6:6">
+      <c r="F42" s="1" t="s">
         <v>1262</v>
       </c>
     </row>
@@ -19558,15 +20368,17 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="46" spans="6:6">
-      <c r="F46" t="s">
+    <row r="46" spans="6:7">
+      <c r="F46" s="1" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="47" spans="6:6">
-      <c r="F47" t="s">
+      <c r="G46" s="19"/>
+    </row>
+    <row r="47" spans="6:7">
+      <c r="F47" s="1" t="s">
         <v>1267</v>
       </c>
+      <c r="G47" s="19"/>
     </row>
     <row r="48" spans="6:6">
       <c r="F48" t="s">
@@ -19574,12 +20386,12 @@
       </c>
     </row>
     <row r="50" ht="18" spans="6:6">
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="18" t="s">
         <v>1268</v>
       </c>
     </row>
     <row r="51" spans="6:6">
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="17" t="s">
         <v>1269</v>
       </c>
     </row>
@@ -19619,7 +20431,7 @@
       </c>
     </row>
     <row r="60" ht="18" spans="6:6">
-      <c r="F60" s="17" t="s">
+      <c r="F60" s="18" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -19629,7 +20441,7 @@
       </c>
     </row>
     <row r="63" ht="18" spans="6:6">
-      <c r="F63" s="17" t="s">
+      <c r="F63" s="18" t="s">
         <v>1279</v>
       </c>
     </row>
@@ -19659,7 +20471,7 @@
       </c>
     </row>
     <row r="70" ht="18" spans="6:6">
-      <c r="F70" s="17" t="s">
+      <c r="F70" s="18" t="s">
         <v>1285</v>
       </c>
     </row>
@@ -19829,7 +20641,7 @@
       </c>
     </row>
     <row r="105" ht="18" spans="6:6">
-      <c r="F105" s="17" t="s">
+      <c r="F105" s="18" t="s">
         <v>1317</v>
       </c>
     </row>
@@ -19944,7 +20756,7 @@
       </c>
     </row>
     <row r="130" ht="18" spans="6:6">
-      <c r="F130" s="17" t="s">
+      <c r="F130" s="18" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -20004,12 +20816,12 @@
       </c>
     </row>
     <row r="145" spans="6:6">
-      <c r="F145" s="19" t="s">
+      <c r="F145" s="20" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="146" spans="6:6">
-      <c r="F146" s="19" t="s">
+      <c r="F146" s="20" t="s">
         <v>1348</v>
       </c>
     </row>
@@ -20044,7 +20856,7 @@
       </c>
     </row>
     <row r="153" spans="6:6">
-      <c r="F153" s="19" t="s">
+      <c r="F153" s="20" t="s">
         <v>1355</v>
       </c>
     </row>
@@ -20069,17 +20881,17 @@
       </c>
     </row>
     <row r="158" spans="6:6">
-      <c r="F158" s="19" t="s">
+      <c r="F158" s="20" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="159" spans="6:6">
-      <c r="F159" s="19" t="s">
+      <c r="F159" s="20" t="s">
         <v>1361</v>
       </c>
     </row>
     <row r="160" spans="6:6">
-      <c r="F160" s="19" t="s">
+      <c r="F160" s="20" t="s">
         <v>1362</v>
       </c>
     </row>
@@ -20094,7 +20906,7 @@
       </c>
     </row>
     <row r="163" spans="6:6">
-      <c r="F163" s="19" t="s">
+      <c r="F163" s="20" t="s">
         <v>1365</v>
       </c>
     </row>
@@ -20124,12 +20936,12 @@
       </c>
     </row>
     <row r="169" spans="6:6">
-      <c r="F169" s="19" t="s">
+      <c r="F169" s="20" t="s">
         <v>1371</v>
       </c>
     </row>
     <row r="171" spans="6:6">
-      <c r="F171" s="19" t="s">
+      <c r="F171" s="20" t="s">
         <v>1372</v>
       </c>
     </row>
@@ -20139,102 +20951,102 @@
       </c>
     </row>
     <row r="173" spans="6:6">
-      <c r="F173" s="19" t="s">
+      <c r="F173" s="20" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="174" spans="6:6">
-      <c r="F174" s="19" t="s">
+      <c r="F174" s="20" t="s">
         <v>1375</v>
       </c>
     </row>
     <row r="175" spans="6:6">
-      <c r="F175" s="19" t="s">
+      <c r="F175" s="20" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="176" spans="6:6">
-      <c r="F176" s="19" t="s">
+      <c r="F176" s="20" t="s">
         <v>1377</v>
       </c>
     </row>
     <row r="177" spans="6:6">
-      <c r="F177" s="19" t="s">
+      <c r="F177" s="20" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="178" spans="6:6">
-      <c r="F178" s="19" t="s">
+      <c r="F178" s="20" t="s">
         <v>1379</v>
       </c>
     </row>
     <row r="179" spans="6:6">
-      <c r="F179" s="19" t="s">
+      <c r="F179" s="20" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="180" spans="6:6">
-      <c r="F180" s="19" t="s">
+      <c r="F180" s="20" t="s">
         <v>1381</v>
       </c>
     </row>
     <row r="181" spans="6:6">
-      <c r="F181" s="19" t="s">
+      <c r="F181" s="20" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="182" spans="6:6">
-      <c r="F182" s="19" t="s">
+      <c r="F182" s="20" t="s">
         <v>1383</v>
       </c>
     </row>
     <row r="183" spans="6:6">
-      <c r="F183" s="19" t="s">
+      <c r="F183" s="20" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="184" spans="6:6">
-      <c r="F184" s="19" t="s">
+      <c r="F184" s="20" t="s">
         <v>1385</v>
       </c>
     </row>
     <row r="185" spans="6:6">
-      <c r="F185" s="19" t="s">
+      <c r="F185" s="20" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="186" spans="6:6">
-      <c r="F186" s="19" t="s">
+      <c r="F186" s="20" t="s">
         <v>1387</v>
       </c>
     </row>
     <row r="187" spans="6:6">
-      <c r="F187" s="19" t="s">
+      <c r="F187" s="20" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="188" spans="6:6">
-      <c r="F188" s="19" t="s">
+      <c r="F188" s="20" t="s">
         <v>1389</v>
       </c>
     </row>
     <row r="189" spans="6:6">
-      <c r="F189" s="19" t="s">
+      <c r="F189" s="20" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="190" spans="6:6">
-      <c r="F190" s="19" t="s">
+      <c r="F190" s="20" t="s">
         <v>1383</v>
       </c>
     </row>
     <row r="191" spans="6:6">
-      <c r="F191" s="19" t="s">
+      <c r="F191" s="20" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="192" spans="6:6">
-      <c r="F192" s="19" t="s">
+      <c r="F192" s="20" t="s">
         <v>74</v>
       </c>
     </row>
@@ -20249,7 +21061,7 @@
       </c>
     </row>
     <row r="196" spans="6:6">
-      <c r="F196" t="s">
+      <c r="F196" s="1" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -20364,7 +21176,7 @@
       </c>
     </row>
     <row r="221" spans="6:6">
-      <c r="F221" s="19" t="s">
+      <c r="F221" s="20" t="s">
         <v>1416</v>
       </c>
     </row>
@@ -20454,7 +21266,7 @@
       </c>
     </row>
     <row r="242" spans="6:6">
-      <c r="F242" t="s">
+      <c r="F242" s="1" t="s">
         <v>1432</v>
       </c>
     </row>
@@ -20534,7 +21346,7 @@
       </c>
     </row>
     <row r="260" spans="6:6">
-      <c r="F260" t="s">
+      <c r="F260" s="1" t="s">
         <v>1443</v>
       </c>
     </row>
@@ -20548,8 +21360,8 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="264" spans="6:6">
-      <c r="F264" t="s">
+    <row r="264" ht="16.5" spans="6:6">
+      <c r="F264" s="16" t="s">
         <v>1446</v>
       </c>
     </row>
@@ -20568,36 +21380,36 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="268" spans="6:12">
+    <row r="268" ht="16.5" spans="6:12">
       <c r="F268" s="1" t="s">
         <v>1450</v>
       </c>
-      <c r="G268" s="20"/>
-      <c r="H268" s="20"/>
-      <c r="I268" s="20"/>
-      <c r="J268" s="20"/>
-      <c r="K268" s="20"/>
-      <c r="L268" s="20"/>
+      <c r="G268" s="1"/>
+      <c r="H268" s="1"/>
+      <c r="I268" s="1"/>
+      <c r="J268" s="1"/>
+      <c r="K268" s="1"/>
+      <c r="L268" s="1"/>
     </row>
     <row r="269" spans="6:6">
       <c r="F269" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="270" spans="6:16">
+    <row r="270" ht="16.5" spans="6:16">
       <c r="F270" s="1" t="s">
         <v>1452</v>
       </c>
-      <c r="G270" s="20"/>
-      <c r="H270" s="20"/>
-      <c r="I270" s="20"/>
-      <c r="J270" s="20"/>
-      <c r="K270" s="20"/>
-      <c r="L270" s="20"/>
-      <c r="M270" s="20"/>
-      <c r="N270" s="20"/>
-      <c r="O270" s="20"/>
-      <c r="P270" s="20"/>
+      <c r="G270" s="1"/>
+      <c r="H270" s="1"/>
+      <c r="I270" s="1"/>
+      <c r="J270" s="1"/>
+      <c r="K270" s="1"/>
+      <c r="L270" s="1"/>
+      <c r="M270" s="1"/>
+      <c r="N270" s="1"/>
+      <c r="O270" s="1"/>
+      <c r="P270" s="1"/>
     </row>
     <row r="271" spans="6:6">
       <c r="F271" t="s">
@@ -20824,13 +21636,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="320" spans="6:6">
-      <c r="F320" t="s">
+    <row r="320" ht="16.5" spans="6:6">
+      <c r="F320" s="16" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="321" spans="6:6">
-      <c r="F321" t="s">
+    <row r="321" ht="16.5" spans="6:6">
+      <c r="F321" s="16" t="s">
         <v>1478</v>
       </c>
     </row>
@@ -20839,8 +21651,8 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="323" spans="6:6">
-      <c r="F323" t="s">
+    <row r="323" ht="16.5" spans="6:6">
+      <c r="F323" s="16" t="s">
         <v>1480</v>
       </c>
     </row>
@@ -20850,7 +21662,7 @@
       </c>
     </row>
     <row r="325" spans="6:6">
-      <c r="F325" t="s">
+      <c r="F325" s="1" t="s">
         <v>1482</v>
       </c>
     </row>
@@ -20885,7 +21697,7 @@
       </c>
     </row>
     <row r="332" ht="16.5" spans="6:6">
-      <c r="F332" s="16" t="s">
+      <c r="F332" s="1" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -20930,7 +21742,7 @@
       </c>
     </row>
     <row r="342" spans="6:6">
-      <c r="F342" t="s">
+      <c r="F342" s="1" t="s">
         <v>1497</v>
       </c>
     </row>
@@ -21039,13 +21851,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="366" spans="6:6">
-      <c r="F366" t="s">
+    <row r="366" ht="16.5" spans="6:6">
+      <c r="F366" s="16" t="s">
         <v>1511</v>
       </c>
     </row>
     <row r="367" spans="6:6">
-      <c r="F367" t="s">
+      <c r="F367" s="1" t="s">
         <v>1512</v>
       </c>
     </row>
@@ -21334,12 +22146,12 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="430" ht="16.5" spans="6:6">
-      <c r="F430" s="16" t="s">
+    <row r="430" spans="6:6">
+      <c r="F430" s="1" t="s">
         <v>1542</v>
       </c>
     </row>
-    <row r="431" ht="16.5" spans="6:6">
+    <row r="431" spans="6:6">
       <c r="F431" s="16" t="s">
         <v>1543</v>
       </c>
@@ -21357,6 +22169,1401 @@
     <row r="434" spans="6:6">
       <c r="F434" t="s">
         <v>1546</v>
+      </c>
+    </row>
+    <row r="437" ht="16.5" spans="6:6">
+      <c r="F437" s="16" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="438" spans="6:6">
+      <c r="F438" s="1" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="439" spans="6:6">
+      <c r="F439" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="440" spans="6:6">
+      <c r="F440" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="441" spans="6:6">
+      <c r="F441" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="442" spans="6:6">
+      <c r="F442" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="443" spans="6:6">
+      <c r="F443" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="444" spans="6:6">
+      <c r="F444" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="445" spans="6:6">
+      <c r="F445" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="446" spans="6:6">
+      <c r="F446" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="447" spans="6:6">
+      <c r="F447" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="448" spans="6:6">
+      <c r="F448" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="449" spans="6:6">
+      <c r="F449" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="452" spans="6:6">
+      <c r="F452" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="453" spans="6:6">
+      <c r="F453" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="454" spans="6:6">
+      <c r="F454" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="455" spans="6:6">
+      <c r="F455" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="456" spans="6:6">
+      <c r="F456" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="458" spans="6:6">
+      <c r="F458" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="459" spans="6:6">
+      <c r="F459" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="460" spans="6:6">
+      <c r="F460" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="461" spans="6:6">
+      <c r="F461" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="462" spans="6:6">
+      <c r="F462" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="463" spans="6:6">
+      <c r="F463" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="464" spans="6:6">
+      <c r="F464" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="465" spans="6:6">
+      <c r="F465" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="466" spans="6:6">
+      <c r="F466" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="467" spans="6:6">
+      <c r="F467" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="468" spans="6:6">
+      <c r="F468" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="469" spans="6:6">
+      <c r="F469" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="470" spans="6:6">
+      <c r="F470" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="471" spans="6:6">
+      <c r="F471" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="472" spans="6:6">
+      <c r="F472" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="473" spans="6:6">
+      <c r="F473" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="474" spans="6:6">
+      <c r="F474" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="475" spans="6:6">
+      <c r="F475" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="476" spans="6:6">
+      <c r="F476" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="477" spans="6:6">
+      <c r="F477" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="478" spans="6:6">
+      <c r="F478" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="479" spans="6:6">
+      <c r="F479" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="480" spans="6:6">
+      <c r="F480" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="481" spans="6:6">
+      <c r="F481" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="482" spans="6:6">
+      <c r="F482" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="483" spans="6:6">
+      <c r="F483" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="484" spans="6:6">
+      <c r="F484" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="485" spans="6:6">
+      <c r="F485" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="486" spans="6:6">
+      <c r="F486" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="487" spans="6:6">
+      <c r="F487" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="488" spans="6:6">
+      <c r="F488" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="490" spans="6:6">
+      <c r="F490" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="491" spans="6:6">
+      <c r="F491" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="492" spans="6:6">
+      <c r="F492" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="493" spans="6:6">
+      <c r="F493" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="494" spans="6:6">
+      <c r="F494" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="495" spans="6:6">
+      <c r="F495" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="496" spans="6:6">
+      <c r="F496" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="497" spans="6:6">
+      <c r="F497" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="498" spans="6:6">
+      <c r="F498" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="499" spans="6:6">
+      <c r="F499" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="500" spans="6:6">
+      <c r="F500" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="501" spans="6:6">
+      <c r="F501" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="504" spans="6:6">
+      <c r="F504" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="505" spans="6:6">
+      <c r="F505" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="506" spans="6:6">
+      <c r="F506" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="507" spans="6:6">
+      <c r="F507" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="508" spans="6:6">
+      <c r="F508" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="509" spans="6:6">
+      <c r="F509" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="511" spans="6:6">
+      <c r="F511" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="512" spans="6:6">
+      <c r="F512" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="514" spans="6:6">
+      <c r="F514" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="515" spans="6:6">
+      <c r="F515" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="516" spans="6:6">
+      <c r="F516" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="517" spans="6:6">
+      <c r="F517" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="518" spans="6:6">
+      <c r="F518" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="519" spans="6:6">
+      <c r="F519" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="520" spans="6:6">
+      <c r="F520" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="521" spans="6:6">
+      <c r="F521" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="522" spans="6:6">
+      <c r="F522" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="523" spans="6:6">
+      <c r="F523" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="524" spans="6:6">
+      <c r="F524" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="525" spans="6:6">
+      <c r="F525" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="526" spans="6:6">
+      <c r="F526" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="527" spans="6:6">
+      <c r="F527" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="528" spans="6:6">
+      <c r="F528" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="529" spans="6:6">
+      <c r="F529" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="530" spans="6:6">
+      <c r="F530" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="532" spans="6:6">
+      <c r="F532" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="533" spans="6:6">
+      <c r="F533" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="534" spans="6:6">
+      <c r="F534" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="535" spans="6:6">
+      <c r="F535" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="536" spans="6:6">
+      <c r="F536" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="538" spans="6:6">
+      <c r="F538" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="539" spans="6:6">
+      <c r="F539" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="540" spans="6:6">
+      <c r="F540" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="541" spans="6:6">
+      <c r="F541" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="542" spans="6:6">
+      <c r="F542" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="544" spans="6:6">
+      <c r="F544" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="545" spans="6:6">
+      <c r="F545" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="546" spans="6:6">
+      <c r="F546" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="547" spans="6:6">
+      <c r="F547" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="548" spans="6:6">
+      <c r="F548" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="549" spans="6:6">
+      <c r="F549" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="551" spans="6:6">
+      <c r="F551" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="552" spans="6:6">
+      <c r="F552" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="553" spans="6:6">
+      <c r="F553" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="554" spans="6:6">
+      <c r="F554" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="555" spans="6:6">
+      <c r="F555" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="556" spans="6:6">
+      <c r="F556" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="557" spans="6:6">
+      <c r="F557" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="558" spans="6:6">
+      <c r="F558" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="559" spans="6:6">
+      <c r="F559" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="560" spans="6:6">
+      <c r="F560" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="561" spans="6:6">
+      <c r="F561" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="562" spans="6:6">
+      <c r="F562" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="563" spans="6:6">
+      <c r="F563" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="564" spans="6:6">
+      <c r="F564" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="565" spans="6:6">
+      <c r="F565" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="566" spans="6:6">
+      <c r="F566" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="567" spans="6:6">
+      <c r="F567" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="568" spans="6:6">
+      <c r="F568" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="569" spans="6:6">
+      <c r="F569" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="570" spans="6:6">
+      <c r="F570" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="571" spans="6:6">
+      <c r="F571" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="572" spans="6:6">
+      <c r="F572" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="573" spans="6:6">
+      <c r="F573" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="574" spans="6:6">
+      <c r="F574" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="575" spans="6:6">
+      <c r="F575" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="576" spans="6:6">
+      <c r="F576" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="577" spans="6:6">
+      <c r="F577" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="578" spans="6:6">
+      <c r="F578" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="579" spans="6:6">
+      <c r="F579" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="580" spans="6:6">
+      <c r="F580" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="581" spans="6:6">
+      <c r="F581" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="582" spans="6:6">
+      <c r="F582" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="583" spans="6:6">
+      <c r="F583" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="584" spans="6:6">
+      <c r="F584" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="585" spans="6:6">
+      <c r="F585" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="586" spans="6:6">
+      <c r="F586" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="587" spans="6:6">
+      <c r="F587" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="588" spans="6:6">
+      <c r="F588" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="589" spans="6:6">
+      <c r="F589" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="590" spans="6:6">
+      <c r="F590" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="592" spans="6:6">
+      <c r="F592" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="593" spans="6:6">
+      <c r="F593" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="594" spans="6:6">
+      <c r="F594" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="595" spans="6:6">
+      <c r="F595" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="596" spans="6:6">
+      <c r="F596" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="600" spans="6:6">
+      <c r="F600" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="603" spans="6:6">
+      <c r="F603" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="604" spans="6:6">
+      <c r="F604" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="605" spans="6:6">
+      <c r="F605" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="606" spans="6:6">
+      <c r="F606" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="608" spans="6:6">
+      <c r="F608" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="609" spans="6:6">
+      <c r="F609" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="610" spans="6:6">
+      <c r="F610" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="611" spans="6:6">
+      <c r="F611" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="612" spans="6:6">
+      <c r="F612" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="613" spans="6:6">
+      <c r="F613" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="614" spans="6:6">
+      <c r="F614" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="615" spans="6:6">
+      <c r="F615" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="616" spans="6:6">
+      <c r="F616" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="618" spans="6:6">
+      <c r="F618" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="619" spans="6:6">
+      <c r="F619" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="620" spans="6:6">
+      <c r="F620" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="621" spans="6:6">
+      <c r="F621" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="622" spans="6:6">
+      <c r="F622" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="623" spans="6:6">
+      <c r="F623" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="624" spans="6:6">
+      <c r="F624" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="625" spans="6:6">
+      <c r="F625" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="626" spans="6:6">
+      <c r="F626" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="627" spans="6:6">
+      <c r="F627" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="628" spans="6:6">
+      <c r="F628" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="629" spans="6:6">
+      <c r="F629" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="630" spans="6:6">
+      <c r="F630" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="631" spans="6:6">
+      <c r="F631" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="632" spans="6:6">
+      <c r="F632" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="633" spans="6:6">
+      <c r="F633" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="634" spans="6:6">
+      <c r="F634" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="635" spans="6:6">
+      <c r="F635" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="636" spans="6:6">
+      <c r="F636" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="638" spans="6:6">
+      <c r="F638" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="639" spans="6:6">
+      <c r="F639" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="640" spans="6:6">
+      <c r="F640" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="641" spans="6:6">
+      <c r="F641" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="643" spans="6:6">
+      <c r="F643" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="644" spans="6:6">
+      <c r="F644" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="645" spans="6:6">
+      <c r="F645" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="646" spans="6:6">
+      <c r="F646" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="647" spans="6:6">
+      <c r="F647" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="648" spans="6:6">
+      <c r="F648" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="649" spans="6:6">
+      <c r="F649" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="650" spans="6:6">
+      <c r="F650" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="651" spans="6:6">
+      <c r="F651" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="652" spans="6:6">
+      <c r="F652" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="653" spans="6:6">
+      <c r="F653" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="654" spans="6:6">
+      <c r="F654" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="655" spans="6:6">
+      <c r="F655" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="656" spans="6:6">
+      <c r="F656" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="657" spans="6:6">
+      <c r="F657" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="658" spans="6:6">
+      <c r="F658" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="659" spans="6:6">
+      <c r="F659" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="660" spans="6:6">
+      <c r="F660" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="661" spans="6:6">
+      <c r="F661" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="662" spans="6:6">
+      <c r="F662" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="663" spans="6:6">
+      <c r="F663" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="664" spans="6:6">
+      <c r="F664" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="665" spans="6:6">
+      <c r="F665" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="666" spans="6:6">
+      <c r="F666" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="667" spans="6:6">
+      <c r="F667" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="668" spans="6:6">
+      <c r="F668" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="670" spans="6:6">
+      <c r="F670" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="671" spans="6:6">
+      <c r="F671" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="672" spans="6:6">
+      <c r="F672" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="673" spans="6:6">
+      <c r="F673" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="674" spans="6:6">
+      <c r="F674" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="675" spans="6:6">
+      <c r="F675" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="676" spans="6:6">
+      <c r="F676" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="677" spans="6:6">
+      <c r="F677" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="678" spans="6:6">
+      <c r="F678" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="679" spans="6:6">
+      <c r="F679" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="680" spans="6:6">
+      <c r="F680" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="681" spans="6:6">
+      <c r="F681" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="682" spans="6:6">
+      <c r="F682" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="683" spans="6:6">
+      <c r="F683" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="684" spans="6:6">
+      <c r="F684" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="685" spans="6:6">
+      <c r="F685" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="686" spans="6:6">
+      <c r="F686" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="688" spans="6:6">
+      <c r="F688" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="690" spans="6:6">
+      <c r="F690" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="691" spans="6:6">
+      <c r="F691" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="692" spans="6:6">
+      <c r="F692" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="693" spans="6:6">
+      <c r="F693" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="694" spans="6:6">
+      <c r="F694" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="695" spans="6:6">
+      <c r="F695" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="696" spans="6:6">
+      <c r="F696" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="697" spans="6:6">
+      <c r="F697" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="698" spans="6:6">
+      <c r="F698" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="699" spans="6:6">
+      <c r="F699" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="700" spans="6:6">
+      <c r="F700" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="701" spans="6:6">
+      <c r="F701" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="702" spans="6:6">
+      <c r="F702" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="703" spans="6:6">
+      <c r="F703" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="704" spans="6:6">
+      <c r="F704" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="705" spans="6:6">
+      <c r="F705" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="706" spans="6:6">
+      <c r="F706" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="707" spans="6:6">
+      <c r="F707" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="708" spans="6:6">
+      <c r="F708" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="709" spans="6:6">
+      <c r="F709" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="710" spans="6:6">
+      <c r="F710" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="711" spans="6:6">
+      <c r="F711" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="712" spans="6:6">
+      <c r="F712" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="713" spans="6:6">
+      <c r="F713" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="715" spans="6:6">
+      <c r="F715" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="716" spans="6:6">
+      <c r="F716" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="717" spans="6:6">
+      <c r="F717" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="718" spans="6:6">
+      <c r="F718" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="719" spans="6:6">
+      <c r="F719" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="721" spans="6:6">
+      <c r="F721" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="722" spans="6:6">
+      <c r="F722" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="723" spans="6:6">
+      <c r="F723" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="724" spans="6:6">
+      <c r="F724" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="725" spans="6:6">
+      <c r="F725" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="726" spans="6:6">
+      <c r="F726" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="727" spans="6:6">
+      <c r="F727" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="728" spans="6:6">
+      <c r="F728" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="729" spans="6:6">
+      <c r="F729" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="730" spans="6:6">
+      <c r="F730" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="731" spans="6:6">
+      <c r="F731" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="732" spans="6:6">
+      <c r="F732" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="733" spans="6:6">
+      <c r="F733" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="734" spans="6:6">
+      <c r="F734" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="735" spans="6:6">
+      <c r="F735" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="737" spans="6:6">
+      <c r="F737" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="738" spans="6:6">
+      <c r="F738" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="740" spans="6:6">
+      <c r="F740" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="741" spans="6:6">
+      <c r="F741" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="742" spans="6:6">
+      <c r="F742" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="743" spans="6:6">
+      <c r="F743" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="744" spans="6:6">
+      <c r="F744" t="s">
+        <v>1707</v>
       </c>
     </row>
   </sheetData>
@@ -21367,6 +23574,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D12"/>
@@ -21379,7 +23602,7 @@
   <sheetData>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>1547</v>
+        <v>1708</v>
       </c>
     </row>
   </sheetData>
@@ -21388,7 +23611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="E9:E104"/>
@@ -21406,47 +23629,47 @@
     </row>
     <row r="11" spans="5:5">
       <c r="E11" t="s">
-        <v>1548</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" t="s">
-        <v>1549</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="15" spans="5:5">
       <c r="E15" t="s">
-        <v>1550</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>1551</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" t="s">
-        <v>1552</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="21" ht="20.25" spans="5:5">
       <c r="E21" s="3" t="s">
-        <v>1553</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="22" ht="21" spans="5:5">
       <c r="E22" s="4" t="s">
-        <v>1554</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="5:5">
       <c r="E23" s="5" t="s">
-        <v>1555</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="5:5">
       <c r="E24" s="6" t="s">
-        <v>1556</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="5:5">
@@ -21454,72 +23677,72 @@
     </row>
     <row r="26" ht="21.75" spans="5:5">
       <c r="E26" s="7" t="s">
-        <v>1557</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="5:5">
       <c r="E27" s="8" t="s">
-        <v>1558</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="5:5">
       <c r="E28" s="8" t="s">
-        <v>1559</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="5:5">
       <c r="E29" s="8" t="s">
-        <v>1560</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="5:5">
       <c r="E30" s="8" t="s">
-        <v>1561</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="5:5">
       <c r="E31" s="8" t="s">
-        <v>1562</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="32" ht="17.25" spans="5:5">
       <c r="E32" s="9" t="s">
-        <v>1563</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="5:5">
       <c r="E33" s="10" t="s">
-        <v>1564</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="5:5">
       <c r="E34" s="10" t="s">
-        <v>1565</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="10" t="s">
-        <v>1566</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="36" ht="20.25" spans="5:5">
       <c r="E36" s="4" t="s">
-        <v>1567</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="37" ht="17.25" spans="5:5">
       <c r="E37" s="5" t="s">
-        <v>1568</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="5:5">
       <c r="E38" s="8" t="s">
-        <v>1569</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="5:5">
       <c r="E39" s="6" t="s">
-        <v>1570</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="41" spans="5:5">
@@ -21527,17 +23750,17 @@
     </row>
     <row r="42" ht="17.25" spans="5:5">
       <c r="E42" s="6" t="s">
-        <v>1571</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="43" ht="20.25" spans="5:5">
       <c r="E43" s="4" t="s">
-        <v>1572</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="5:5">
       <c r="E44" s="8" t="s">
-        <v>1573</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="45" spans="5:5">
@@ -21572,152 +23795,152 @@
     </row>
     <row r="55" ht="17.25" spans="5:5">
       <c r="E55" s="6" t="s">
-        <v>1574</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="5:5">
       <c r="E56" s="6" t="s">
-        <v>1575</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="77" ht="17.25" spans="5:5">
       <c r="E77" s="6" t="s">
-        <v>1576</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="78" ht="17.25" spans="5:5">
       <c r="E78" s="8" t="s">
-        <v>1577</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="79" ht="17.25" spans="5:5">
       <c r="E79" s="8" t="s">
-        <v>1578</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="80" ht="17.25" spans="5:5">
       <c r="E80" s="6" t="s">
-        <v>1579</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="81" ht="17.25" spans="5:5">
       <c r="E81" s="8" t="s">
-        <v>1580</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="82" ht="17.25" spans="5:5">
       <c r="E82" s="6" t="s">
-        <v>1581</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="83" ht="17.25" spans="5:5">
       <c r="E83" s="8" t="s">
-        <v>1582</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="84" ht="17.25" spans="5:5">
       <c r="E84" s="6" t="s">
-        <v>1583</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="85" ht="17.25" spans="5:5">
       <c r="E85" s="8" t="s">
-        <v>1584</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="86" ht="17.25" spans="5:5">
       <c r="E86" s="8" t="s">
-        <v>1585</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="87" ht="20.25" spans="5:5">
       <c r="E87" s="4" t="s">
-        <v>1586</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="88" ht="17.25" spans="5:5">
       <c r="E88" s="8" t="s">
-        <v>1587</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="89" ht="17.25" spans="5:5">
       <c r="E89" s="6" t="s">
-        <v>1588</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="90" ht="21" spans="5:5">
       <c r="E90" s="4" t="s">
-        <v>1589</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="91" ht="17.25" spans="5:5">
       <c r="E91" s="8" t="s">
-        <v>1590</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="92" ht="17.25" spans="5:5">
       <c r="E92" s="8" t="s">
-        <v>1591</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="93" ht="20.25" spans="5:5">
       <c r="E93" s="4" t="s">
-        <v>1592</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="94" ht="17.25" spans="5:5">
       <c r="E94" s="8" t="s">
-        <v>1593</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="95" ht="20.25" spans="5:5">
       <c r="E95" s="4" t="s">
-        <v>1594</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="96" ht="17.25" spans="5:5">
       <c r="E96" s="8" t="s">
-        <v>1595</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="97" ht="20.25" spans="5:5">
       <c r="E97" s="4" t="s">
-        <v>1596</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="98" ht="17.25" spans="5:5">
       <c r="E98" s="8" t="s">
-        <v>1597</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="99" ht="20.25" spans="5:5">
       <c r="E99" s="4" t="s">
-        <v>1598</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="100" ht="17.25" spans="5:5">
       <c r="E100" s="8" t="s">
-        <v>1599</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="101" ht="20.25" spans="5:5">
       <c r="E101" s="4" t="s">
-        <v>1600</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="102" ht="17.25" spans="5:5">
       <c r="E102" s="8" t="s">
-        <v>1601</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="103" ht="20.25" spans="5:5">
       <c r="E103" s="4" t="s">
-        <v>1602</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="104" ht="17.25" spans="5:5">
       <c r="E104" s="8" t="s">
-        <v>1603</v>
+        <v>1764</v>
       </c>
     </row>
   </sheetData>
@@ -21727,7 +23950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D2:E174"/>
@@ -21740,732 +23963,732 @@
   <sheetData>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>1604</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>1605</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>1606</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" t="s">
-        <v>1607</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>1608</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="7" spans="5:5">
       <c r="E7" t="s">
-        <v>1609</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>1610</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="9" spans="5:5">
       <c r="E9" t="s">
-        <v>1611</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>1612</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>1613</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>1614</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>1615</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>1616</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>1617</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>1618</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>1619</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>1620</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>1621</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>1622</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>1623</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" t="s">
-        <v>1624</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="26" spans="4:4">
       <c r="D26" t="s">
-        <v>1625</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" t="s">
-        <v>1626</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" t="s">
-        <v>1627</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" t="s">
-        <v>1628</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" t="s">
-        <v>1629</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" t="s">
-        <v>1630</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" t="s">
-        <v>1631</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" t="s">
-        <v>1632</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" t="s">
-        <v>1633</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="37" spans="4:4">
       <c r="D37" t="s">
-        <v>1634</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" t="s">
-        <v>1635</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>1636</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>1637</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="41" spans="4:4">
       <c r="D41" s="1" t="s">
-        <v>1638</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" t="s">
-        <v>1639</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" s="1" t="s">
-        <v>1640</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" s="1" t="s">
-        <v>1641</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" t="s">
-        <v>1642</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>1643</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
-        <v>1644</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>1645</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" t="s">
-        <v>1646</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" t="s">
-        <v>1647</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" t="s">
-        <v>1648</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" t="s">
-        <v>1649</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" t="s">
-        <v>1650</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" t="s">
-        <v>1651</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" t="s">
-        <v>1652</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" t="s">
-        <v>1653</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" t="s">
-        <v>1654</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" t="s">
-        <v>1655</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61" t="s">
-        <v>1656</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>1657</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" t="s">
-        <v>1658</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" t="s">
-        <v>1659</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" t="s">
-        <v>1660</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" t="s">
-        <v>1661</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69" t="s">
-        <v>1662</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70" t="s">
-        <v>1663</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72" t="s">
-        <v>1664</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" t="s">
-        <v>1665</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" t="s">
-        <v>1666</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" t="s">
-        <v>1667</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" t="s">
-        <v>1668</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78" t="s">
-        <v>1669</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="79" spans="4:4">
       <c r="D79" t="s">
-        <v>1670</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" t="s">
-        <v>1671</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="81" spans="4:4">
       <c r="D81" t="s">
-        <v>1672</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" t="s">
-        <v>1673</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" t="s">
-        <v>1674</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="85" spans="4:4">
       <c r="D85" t="s">
-        <v>1675</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="86" spans="4:4">
       <c r="D86" t="s">
-        <v>1676</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87" t="s">
-        <v>1677</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="88" spans="4:4">
       <c r="D88" t="s">
-        <v>1678</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="90" spans="4:4">
       <c r="D90" t="s">
-        <v>1679</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="91" spans="4:4">
       <c r="D91" t="s">
-        <v>1680</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="92" spans="4:4">
       <c r="D92" t="s">
-        <v>1681</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="93" spans="4:4">
       <c r="D93" t="s">
-        <v>1682</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="94" spans="4:4">
       <c r="D94" t="s">
-        <v>1683</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="95" spans="4:4">
       <c r="D95" t="s">
-        <v>1684</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="96" spans="4:4">
       <c r="D96" t="s">
-        <v>1685</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="97" spans="4:4">
       <c r="D97" t="s">
-        <v>1686</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="98" spans="4:4">
       <c r="D98" t="s">
-        <v>1687</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="100" spans="4:4">
       <c r="D100" t="s">
-        <v>1688</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="101" spans="4:4">
       <c r="D101" t="s">
-        <v>1689</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="103" spans="4:4">
       <c r="D103" t="s">
-        <v>1690</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="105" spans="4:4">
       <c r="D105" t="s">
-        <v>1691</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="106" spans="4:4">
       <c r="D106" t="s">
-        <v>1692</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="107" spans="4:4">
       <c r="D107" t="s">
-        <v>1693</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="108" spans="4:4">
       <c r="D108" t="s">
-        <v>1694</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="109" spans="4:4">
       <c r="D109" t="s">
-        <v>1695</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="110" spans="4:4">
       <c r="D110" t="s">
-        <v>1696</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="111" spans="4:4">
       <c r="D111" t="s">
-        <v>1697</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="112" spans="4:4">
       <c r="D112" t="s">
-        <v>1698</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="113" spans="4:4">
       <c r="D113" t="s">
-        <v>1699</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="114" spans="4:4">
       <c r="D114" t="s">
-        <v>1700</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="115" spans="4:4">
       <c r="D115" t="s">
-        <v>1701</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="116" spans="4:4">
       <c r="D116" t="s">
-        <v>1702</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="117" spans="4:4">
       <c r="D117" t="s">
-        <v>1703</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="118" spans="4:4">
       <c r="D118" t="s">
-        <v>1704</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="119" spans="4:4">
       <c r="D119" t="s">
-        <v>1705</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="120" spans="4:4">
       <c r="D120" t="s">
-        <v>1706</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="121" spans="4:4">
       <c r="D121" t="s">
-        <v>1707</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="122" spans="4:4">
       <c r="D122" t="s">
-        <v>1708</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="123" spans="4:4">
       <c r="D123" t="s">
-        <v>1709</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="124" spans="4:4">
       <c r="D124" t="s">
-        <v>1710</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="125" spans="4:4">
       <c r="D125" t="s">
-        <v>1625</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="126" spans="5:5">
       <c r="E126" t="s">
-        <v>1711</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="127" spans="4:4">
       <c r="D127" t="s">
-        <v>1712</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="128" spans="4:4">
       <c r="D128" t="s">
-        <v>1713</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="129" spans="4:4">
       <c r="D129" t="s">
-        <v>1714</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="130" spans="4:4">
       <c r="D130" t="s">
-        <v>1715</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="131" spans="4:4">
       <c r="D131" t="s">
-        <v>1716</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="132" spans="4:4">
       <c r="D132" t="s">
-        <v>1717</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="133" spans="4:4">
       <c r="D133" t="s">
-        <v>1709</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="134" spans="4:4">
       <c r="D134" t="s">
-        <v>1718</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="135" spans="4:4">
       <c r="D135" t="s">
-        <v>1625</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="136" spans="5:5">
       <c r="E136" t="s">
-        <v>1711</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="137" spans="4:4">
       <c r="D137" t="s">
-        <v>1719</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="138" spans="4:4">
       <c r="D138" t="s">
-        <v>1720</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="139" spans="4:4">
       <c r="D139" t="s">
-        <v>1721</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="140" spans="4:4">
       <c r="D140" t="s">
-        <v>1722</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="141" spans="4:4">
       <c r="D141" t="s">
-        <v>1723</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="142" spans="4:4">
       <c r="D142" t="s">
-        <v>1724</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="143" spans="4:4">
       <c r="D143" t="s">
-        <v>1625</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="144" spans="5:5">
       <c r="E144" t="s">
-        <v>1711</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="145" spans="4:4">
       <c r="D145" t="s">
-        <v>1725</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="146" spans="4:4">
       <c r="D146" t="s">
-        <v>1721</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="147" spans="4:4">
       <c r="D147" t="s">
-        <v>1726</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="148" spans="4:4">
       <c r="D148" t="s">
-        <v>1723</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="149" spans="4:4">
       <c r="D149" t="s">
-        <v>1727</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="150" spans="4:4">
       <c r="D150" t="s">
-        <v>1625</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="151" spans="5:5">
       <c r="E151" t="s">
-        <v>1711</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="152" spans="4:4">
       <c r="D152" t="s">
-        <v>1728</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="153" spans="4:4">
       <c r="D153" t="s">
-        <v>1721</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="154" spans="4:4">
       <c r="D154" t="s">
-        <v>1729</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="155" spans="4:4">
       <c r="D155" t="s">
-        <v>1723</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="156" spans="4:4">
       <c r="D156" t="s">
-        <v>1727</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="157" spans="4:4">
       <c r="D157" t="s">
-        <v>1625</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="158" spans="5:5">
       <c r="E158" t="s">
-        <v>1711</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="159" spans="4:4">
       <c r="D159" t="s">
-        <v>1730</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="160" spans="4:4">
       <c r="D160" t="s">
-        <v>1668</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="164" spans="4:4">
       <c r="D164" t="s">
-        <v>1731</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="165" ht="21" spans="4:4">
       <c r="D165" s="2" t="s">
-        <v>1732</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="166" spans="4:4">
       <c r="D166" t="s">
-        <v>1733</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="169" spans="4:4">
@@ -22475,22 +24698,22 @@
     </row>
     <row r="171" spans="4:4">
       <c r="D171" t="s">
-        <v>1734</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="172" spans="4:4">
       <c r="D172" t="s">
-        <v>1735</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="173" spans="4:4">
       <c r="D173" t="s">
-        <v>1736</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="174" spans="4:4">
       <c r="D174" t="s">
-        <v>1737</v>
+        <v>1898</v>
       </c>
     </row>
   </sheetData>
@@ -22499,7 +24722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C4:C10"/>
@@ -22515,22 +24738,22 @@
   <sheetData>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>1738</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="1" t="s">
-        <v>1739</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>1740</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>1741</v>
+        <v>1902</v>
       </c>
     </row>
   </sheetData>

--- a/kernel_compile_framework.xlsx
+++ b/kernel_compile_framework.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="1903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2768" uniqueCount="1903">
   <si>
     <t>build.sh 脚本的内容</t>
   </si>
@@ -10128,6 +10128,130 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>651</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>652</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="https://ask.qcloudimg.com/http-save/yehe-1392766/kl232q5fiw.jpeg?imageView2/2/w/1620"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="130749675"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="https://ask.qcloudimg.com/http-save/yehe-1392766/kl232q5fiw.jpeg?imageView2/2/w/1620"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10896600" y="17935575"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>367030</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>90805</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>4445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10425430" y="15444470"/>
+          <a:ext cx="8105775" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20233,8 +20357,8 @@
   <sheetPr/>
   <dimension ref="D5:P744"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E639" workbookViewId="0">
-      <selection activeCell="I651" sqref="I651"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E63" workbookViewId="0">
+      <selection activeCell="U72" sqref="U72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -20555,14 +20679,20 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="87" spans="6:6">
+    <row r="87" spans="6:14">
       <c r="F87" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="88" spans="6:6">
+      <c r="N87" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="88" spans="6:14">
       <c r="F88" t="s">
         <v>1303</v>
+      </c>
+      <c r="N88" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="89" spans="6:6">
@@ -23131,9 +23261,12 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="651" spans="6:6">
+    <row r="651" spans="6:9">
       <c r="F651" t="s">
         <v>1440</v>
+      </c>
+      <c r="I651" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="652" spans="6:6">

--- a/kernel_compile_framework.xlsx
+++ b/kernel_compile_framework.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="dtb_dts_内容分析" sheetId="33" r:id="rId1"/>
     <sheet name="dtb_dts_语法" sheetId="35" r:id="rId2"/>
-    <sheet name="VM机模型" sheetId="36" r:id="rId3"/>
+    <sheet name="Makefile加打印模板" sheetId="36" r:id="rId3"/>
     <sheet name="内核编译过程" sheetId="34" r:id="rId4"/>
     <sheet name="grep 搜索模板" sheetId="27" r:id="rId5"/>
     <sheet name="Makefile中加打印与调试的方法" sheetId="17" r:id="rId6"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2768" uniqueCount="1903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="2095">
   <si>
     <t>目录/home/hpsp/rock_space/iMX6Q_files/iMX6Q_kernel/kernel_imx 下有目前买的这个板子的DTB文件： imx6q-sabresd.dtb</t>
   </si>
@@ -3584,6 +3584,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>设备树是一种描述硬件配置的树形数据结构，</t>
     </r>
     <r>
@@ -3631,6 +3638,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>操作系统能够在启动时对此结构进行语法分析，以此</t>
     </r>
     <r>
@@ -3686,6 +3701,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在Device Tree中，可描述的信息包括（原先这些信息大多被hard code到kernel中）：</t>
     </r>
     <r>
@@ -3726,6 +3748,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>头主要描述设备树的一些基本信息，例如</t>
     </r>
     <r>
@@ -3767,6 +3796,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>    __be32 off_mem_rsvmap;        //保留内存区，</t>
     </r>
     <r>
@@ -4382,6 +4419,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>现在应该花点时间来讨论命名约定了。</t>
     </r>
     <r>
@@ -4417,6 +4461,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>通常，</t>
     </r>
     <r>
@@ -4458,6 +4510,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>同级节点命名必须是唯一的，</t>
     </r>
     <r>
@@ -4587,6 +4647,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在此树中，已经为系统中的</t>
     </r>
     <r>
@@ -4613,6 +4680,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>例如，</t>
     </r>
     <r>
@@ -4632,6 +4706,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>现在这棵树还是无效的，因为它</t>
     </r>
     <r>
@@ -4676,6 +4757,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>树中每个表示一个设备的节点都需要一个 compatible 属性。</t>
     </r>
     <r>
@@ -4747,19 +4835,6 @@
   </si>
   <si>
     <r>
-      <t>compatible 是一个字符串列表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -4768,6 +4843,27 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>compatible 是一个字符串列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>之中第一个字符串指定了这个节点所表示的确切的设备</t>
     </r>
     <r>
@@ -4840,6 +4936,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">每个可编址设备都有一个元组列表的 reg，元组的形式为：reg = </t>
     </r>
     <r>
@@ -4894,6 +4998,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在 cpu 节点中，</t>
     </r>
     <r>
@@ -4919,6 +5030,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>与 cpu 节点里单一地址值不同，应该分配给内存映射设备一个地址范围。</t>
     </r>
     <r>
@@ -5039,6 +5157,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">3.3  非内存映射设备 </t>
     </r>
     <r>
@@ -5534,75 +5659,113 @@
     <t>[4] PCI 中断总是低电平触发。</t>
   </si>
   <si>
-    <t>build.sh 脚本的内容</t>
+    <t>@echo "rock_dbg:arch_arm_Makefile==&gt;dtbs..."</t>
+  </si>
+  <si>
+    <t>rock_dbg:Top_Makefile==&gt;scripts_basic...</t>
+  </si>
+  <si>
+    <t>要排除的文件  与 文件夹</t>
+  </si>
+  <si>
+    <t>*.s,*.S,*.h,*.c,*.tmp,*.dts,*.dtsi,*.sh,*.doc,*.txt,tools,*.pl,*.debug,*.mailmap,Documentation,*.reg,*.tab*,*.lex*,*.cocci,README,</t>
   </si>
   <si>
     <t>顶层Makefile</t>
   </si>
   <si>
-    <t xml:space="preserve">  1 #/bin/bash</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 964 # Listed in dependency order</t>
   </si>
   <si>
-    <t xml:space="preserve">  2 export ARCH=arm</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 965 PHONY += prepare archprepare prepare0 prepare1 prepare2 prepare3</t>
   </si>
   <si>
-    <t xml:space="preserve">  3 export CROSS_COMPILE=arm-linux-gnueabihf-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4 cp config_linux .config</t>
+    <t xml:space="preserve"> 455 PHONY += outputmakefile</t>
   </si>
   <si>
     <t xml:space="preserve"> 967 # prepare3 is used to check if we are building in a separate output directory,</t>
   </si>
   <si>
+    <t xml:space="preserve"> 456 # outputmakefile generates a Makefile in the output directory, if using a</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 968 # and if so do:</t>
   </si>
   <si>
-    <t xml:space="preserve">  6 echo make dtbs .......</t>
+    <t xml:space="preserve"> 457 # separate output directory. This allows convenient use of make in the</t>
   </si>
   <si>
     <t xml:space="preserve"> 969 # 1) Check that make has not been executed in the kernel src $(srctree)</t>
   </si>
   <si>
-    <t xml:space="preserve">  7 make dtbs</t>
+    <t xml:space="preserve"> 458 # output directory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 970 prepare3:   include/config/kernel.release</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 459 outputmakefile:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 971 ifneq ($(KBUILD_SRC),)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 460 ifneq ($(KBUILD_SRC),)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 972         @$(kecho) '  Using $(srctree) as source for kernel'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 461         $(Q)ln -fsn $(srctree) source</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 973         $(Q)if [ -f $(srctree)/.config -o -d $(srctree)/include/config ]; then \</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 462         $(Q)$(CONFIG_SHELL) $(srctree)/scripts/mkmakefile \</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 974                 echo &gt;&amp;2 "  $(srctree) is not clean, please run 'make mrproper'"; \</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 463             $(srctree) $(objtree) $(VERSION) $(PATCHLEVEL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 975                 echo &gt;&amp;2 "  in the '$(srctree)' directory.";\</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 464 endif</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 976                 /bin/false; \</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 977         fi;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 978 endif</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 466 # Support for using generic headers in asm-generic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 980 # prepare2 creates a makefile if using a separate output directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 467 PHONY += asm-generic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 981 prepare2:  prepare3   outputmakefile   asm-generic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 468 asm-generic:</t>
   </si>
   <si>
     <t>scripts/Kbuild.include</t>
   </si>
   <si>
-    <t xml:space="preserve"> 970 prepare3:   include/config/kernel.release</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 971 ifneq ($(KBUILD_SRC),)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9 #make zImage -j8</t>
-  </si>
-  <si>
-    <t>171   build := -f $(srctree)/scripts/Makefile.build obj</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 972         @$(kecho) '  Using $(srctree) as source for kernel'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10 echo make zImage ......</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 252 </t>
+    <r>
+      <t xml:space="preserve"> 469         $(Q)$(MAKE) </t>
     </r>
     <r>
       <rPr>
@@ -5613,94 +5776,35 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">ARCH            ?= arm        </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> 973         $(Q)if [ -f $(srctree)/.config -o -d $(srctree)/include/config ]; then \</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11 make zImage</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 253 CROSS_COMPILE   ?= arm-linux-gnueabihf-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 974                 echo &gt;&amp;2 "  $(srctree) is not clean, please run 'make mrproper'"; \</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12 echo  make modules ......</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 975                 echo &gt;&amp;2 "  in the '$(srctree)' directory.";\</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13 make modules</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 255 # Architecture as present in compile.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 976                 /bin/false; \</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14 echo all done ...... </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 256 UTS_MACHINE     := $(ARCH)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 977         fi;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15 cp arch/arm/boot/dts/e9v2-sabresd.dtb ./</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 257 SRCARCH         := $(ARCH) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 978 endif</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16 cp arch/arm/boot/dts/e9v3-sabresd.dtb ./</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17 cp arch/arm/boot/dts/imx6q-sabresd.dtb ./</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 980 # prepare2 creates a makefile if using a separate output directory</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18 cp arch/arm/boot/dts/imx6q-corea-sabresd.dtb ./</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 981 prepare2:  prepare3   outputmakefile   asm-generic</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19 cp arch/arm/boot/zImage ./</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 348 # We need some generic definitions (do not try to remake the file).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 349 scripts/Kbuild.include: ;</t>
+      <t xml:space="preserve">-f </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$(srctree)/scripts/Makefile.asm-generic \</t>
+    </r>
+  </si>
+  <si>
+    <t>build.sh 脚本的内容</t>
   </si>
   <si>
     <t xml:space="preserve"> 983 prepare1:  prepare2   $(version_h)   include/generated/utsrelease.h \</t>
   </si>
   <si>
-    <t xml:space="preserve"> 447 PHONY += scripts_basic</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">make   </t>
+    <t xml:space="preserve"> 470                     src=asm obj=arch/$(SRCARCH)/include/generated/asm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 #/bin/bash</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">171  </t>
     </r>
     <r>
       <rPr>
@@ -5711,40 +5815,16 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>dtbs</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> 350 include scripts/Kbuild.include</t>
+      <t xml:space="preserve"> build := -f $(srctree)/scripts/Makefile.build   obj</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve"> 984                    include/config/auto.conf</t>
   </si>
   <si>
-    <t xml:space="preserve"> 448 scripts_basic:</t>
-  </si>
-  <si>
-    <t>arch/arm/Makefile</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 985         $(cmd_crmodverdir)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 449         $(Q)$(MAKE) $(build)=scripts/basic</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 450         $(Q)rm -f .tmp_quiet_recordmcount</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 534 include arch/$(SRCARCH)/Makefile</t>
-  </si>
-  <si>
-    <t>304 boot := arch/arm/boot</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 987 archprepare:   archheaders   archscripts   prepare1   scripts_basic</t>
-  </si>
-  <si>
+    <r>
+      <t xml:space="preserve"> 471         $(Q)$(MAKE) </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -5754,7 +5834,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">328 </t>
+      <t xml:space="preserve">-f </t>
     </r>
     <r>
       <rPr>
@@ -5765,7 +5845,36 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>dtbs</t>
+      <t>$(srctree)/scripts/Makefile.asm-generic \</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  2 export ARCH=arm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 985         $(cmd_crmodverdir)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 472                     src=uapi/asm obj=arch/$(SRCARCH)/include/generated/uapi/asm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3 export CROSS_COMPILE=arm-linux-gnueabihf-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4 cp config_linux .config</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 987 archprepare:   archheaders   archscripts   prepare1   scripts_basic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6 echo make dtbs .......</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 989 prepare0:  archprepare  FORCE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">scripts/basic/Makefile   </t>
     </r>
     <r>
       <rPr>
@@ -5776,23 +5885,1033 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:  prepare   scripts</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> 989 prepare0:  archprepare  FORCE</t>
-  </si>
-  <si>
-    <t>329         $(Q)$(MAKE) $(build)=$(boot)/dts</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 990         $(Q)$(MAKE) $(build)=.</t>
+      <t xml:space="preserve"> Makefile.build中会包含该Makefile</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  7 make dtbs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 990        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> $(Q)$(MAKE)   $(build)=.</t>
+    </r>
+  </si>
+  <si>
+    <t>scripts/Makefile.build</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 447 PHONY += scripts_basic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11 hostprogs-y     := fixdep      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9 #make zImage -j8</t>
   </si>
   <si>
     <t xml:space="preserve"> 992 # All the preparing..</t>
   </si>
   <si>
+    <t xml:space="preserve"> 448 scripts_basic:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5 src := $(obj)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 hostprogs-$(CONFIG_BUILD_BIN2C)     += bin2c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 echo make zImage ......</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 252 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ARCH            ?= arm        </t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve"> 993 prepare:   prepare0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 449        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> $(Q)$(MAKE) $(build)=scripts/basic</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13 always   := $(hostprogs-y)   ==&gt; always 对应的目标依赖集合</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11 make zImage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 253 CROSS_COMPILE   ?= arm-linux-gnueabihf-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 450         $(Q)rm -f .tmp_quiet_recordmcount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7 PHONY := __build</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 echo  make modules ......</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  8 __build:    ==&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本次编译使用的默认的编译目标</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15 # fixdep is needed to compile other host programs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13 make modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 255 # Architecture as present in compile.h</t>
+  </si>
+  <si>
+    <t>1572 # Create temporary dir for module support files</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16 $(addprefix  $(obj)/,  $(filter-out   fixdep,  $(always))):   $(obj)/fixdep</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14 echo all done ...... </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 256 UTS_MACHINE     := $(ARCH)    </t>
+  </si>
+  <si>
+    <t>1573 # clean it up only when building all modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33 # Read auto.conf if it exists, otherwise ignore</t>
+  </si>
+  <si>
+    <t>给 非fixdep 名字的目标 添加一个$(obj)/的前缀，然后这个又依赖于$(obj)/fixdep</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15 cp arch/arm/boot/dts/e9v2-sabresd.dtb ./</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 257 SRCARCH         := $(ARCH) </t>
+  </si>
+  <si>
+    <t>1574 cmd_crmodverdir = $(Q)mkdir -p $(MODVERDIR) \</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34 -include   include/config/auto.conf</t>
+  </si>
+  <si>
+    <t>编译时打印如下</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16 cp arch/arm/boot/dts/e9v3-sabresd.dtb ./</t>
+  </si>
+  <si>
+    <t>1575                   $(if $(KBUILD_MODULES),; rm -f $(MODVERDIR)/*)</t>
+  </si>
+  <si>
+    <t>rock_dbg:Top_Makefile==&gt;scripts_basic...start</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17 cp arch/arm/boot/dts/imx6q-sabresd.dtb ./</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36 include   scripts/Kbuild.include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  HOSTCC  scripts/basic/fixdep</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18 cp arch/arm/boot/dts/imx6q-corea-sabresd.dtb ./</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  HOSTCC  scripts/basic/bin2c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19 cp arch/arm/boot/zImage ./</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 348 # We need some generic definitions (do not try to remake the file).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38 # For backward compatibility check that these variables do not change</t>
+  </si>
+  <si>
+    <t>rock_dbg:Makefile.build==&gt;__build: 1++$(if (KBUILD_BUILTIN)-1, 1.1--(builtin-target)- 1.2--(lib-target)- 1.3--(extra-y)-) 2++$(if (KBUILD_MODULES)-, 2.1--(obj-m)- 2.2--(modorder-target)-scripts/basic/modules.order)  3++(subdir-ym)-  4++(always)-scripts/basic/fixdep scripts/basic/bin2c obj=scripts/basic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 349 scripts/Kbuild.include: ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39 save-cflags := $(CFLAGS)</t>
+  </si>
+  <si>
+    <t>rock_dbg:Top_Makefile==&gt;scripts_basic...end</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">make   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dtbs</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 350 include scripts/Kbuild.include</t>
+  </si>
+  <si>
+    <t>arch/arm/Makefile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 549 # Additional helpers built in scripts/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41 # The filename Kbuild has precedence over Makefile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 550 # Carefully list dependencies so we do not try to build scripts twice</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 42 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kbuild-dir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> := $(if   $(filter  /%,  $(src)),    $(src), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> $(srctree)/$(src)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)  ==&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ./script/basic   </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 534 include arch/$(SRCARCH)/Makefile</t>
+  </si>
+  <si>
+    <t>304 boot := arch/arm/boot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 551 # in parallel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 43 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">kbuild-file </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:= $(if   $(wildcard  $(kbuild-dir)/Kbuild),    $(kbuild-dir)/Kbuild,  $(kbuild-dir)/Makefile)  ==&gt;   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>./script/basic/Kbuild  or  ./script/basic/Makefile 有前者就用前者 否则用后者</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 552 PHONY += scripts</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 44 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">include $(kbuild-file)  ==&gt; ./script/basic/Makefile </t>
+    </r>
+  </si>
+  <si>
+    <t>328 dtbs:  prepare   scripts</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 553 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scripts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scripts_basic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  include/config/auto.conf include/config/tristate.conf \</t>
+    </r>
+  </si>
+  <si>
+    <t>329         $(Q)$(MAKE)         $(build)=$(boot)/dts</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 554            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>asm-generic</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 62 # Do not include host rules unless needed </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 555         $(Q)$(MAKE) $(build)=$(@)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 63 ifneq (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$(hostprogs-y)$(hostprogs-m)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,)</t>
+    </r>
+  </si>
+  <si>
+    <t>scripts/Makefile.host</t>
+  </si>
+  <si>
+    <t>make   -f   $(srctree)/scripts/Makefile.build   obj=arch/arm/boot/dts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 64    include scripts/Makefile.host  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 65 endif </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 23 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__hostprogs := $(sort    $(hostprogs-y)   $(hostprogs-m)  )  ==&gt; 排序赋值给 __hostprogs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 94 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:   $( if   $(KBUILD_BUILTIN),   $(builtin-target) $(lib-target) $(extra-y)  ) \</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> ==&gt; 依次将 伪目标__build 的所有依赖 进行编译 执行</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25 # C code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 95          $(if $(KBUILD_MODULES),$(obj-m) $(modorder-target)) \</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26 # Executables compiled from a single .c file</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 96          $(subdir-ym)   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$(always)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27 host-csingle    := $(foreach m,$(__hostprogs), \</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ==&gt;  将__hostprogs中的值逐个$(m)处理，如果 $(m)-objs or $(m)-cxxobjs 的值为空 则将值$(m)赋给host-csingle, 否则赋一个空值给host-csingle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 97         @echo "rock_dbg:Makefile.build==&gt;__build: 1++\$$(if (KBUILD_BUILTIN)-$(KBUILD_BUILTIN), 1.1--(builtin-target)-$(builtin-target) 1.2--(lib-target)-$(lib-target) 1.3--(extra-y)-$(extra-y)) 2++\    $$(if (KBUILD_MODULES)-$(KBUILD_MODULES), 2.1--(obj-m)-$(obj-m) 2.2--(modorder-target)-$(modorder-target))  3++(subdir-ym)-$(subdir-ym)  4++(always)-$(always) obj=$(obj)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28                         $(if $($(m)-objs)$($(m)-cxxobjs),,$(m)))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 98         @:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30 # C executables linked based on several .o files</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31 host-cmulti     := $(foreach m,$(__hostprogs),\</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ==&gt;  将__hostprogs中的值逐个$(m)处理，如果 $(m)-cxxobjs 的值为空，将非空的$(m)-objs  则将值$(m)赋给host-cmulti, 否则赋一个空值给host-cmulti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32                    $(if $($(m)-cxxobjs),,$(if $($(m)-objs),$(m))))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34 # Object (.o) files compiled from .c files</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35 host-cobjs      := $(sort $(foreach m,$(__hostprogs),$($(m)-objs)))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ==&gt;  将__hostprogs中的值逐个$(m)处理，将所有 $(m)-objs的值 排序后 赋值给 host-cobjs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37 # C++ code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38 # C++ executables compiled from at least one .cc file</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39 # and zero or more .c files</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40 host-cxxmulti   := $(foreach m,$(__hostprogs),$(if $($(m)-cxxobjs),$(m)))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ==&gt;  将__hostprogs中的值逐个$(m)处理，如果 $(m)-cxxobjs 的值不为空，将值$(m)赋给host-cxxmulti,否则不用管</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42 # C++ Object (.o) files compiled from .cc files</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 43 host-cxxobjs    := $(sort $(foreach m,$(host-cxxmulti),$($(m)-cxxobjs)))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ==&gt;  将host-cxxmulti 中的值逐个$(m)处理，将所有 $(m)-cxxobjs 的值 排序后 赋给host-cxxobjs </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 42 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kbuild-dir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> := $(if   $(filter  /%,  $(src)),    $(src), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> $(srctree)/$(src)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)  ==&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ./arch/arm/boot/dts  根目录下的</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45 # output directory for programs/.o files</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 43 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">kbuild-file </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:= $(if   $(wildcard  $(kbuild-dir)/Kbuild),    $(kbuild-dir)/Kbuild,  $(kbuild-dir)/Makefile)  ==&gt;   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>./arch/arm/boot/dts/Kbuild  or  ./arch/arm/boot/dts/Makefile 有前者就用前者 否则用后者</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 46 # hostprogs-y := tools/build may have been specified.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 44 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">include $(kbuild-file)  ==&gt; arch/arm/boot/dts/Makefile </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 47 # Retrieve also directory of .o files from prog-objs or prog-cxxobjs notation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 48 host-objdirs := $(dir $(__hostprogs) $(host-cobjs) $(host-cxxobjs))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ==&gt;  从 $(__hostprogs) $(host-cobjs) $(host-cxxobjs) 的所有值中 提取出 目录路径来</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50 host-objdirs := $(strip   $(sort   $(filter-out   ./,  $(host-objdirs)  )))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ==&gt;  过滤掉$(host-objdirs) 所有值 中 过滤掉 ./ ，剩下的值排序后 再去掉多余的空格后  再赋值给host-objdirs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96          $(subdir-ym) $(always)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 52 __hostprogs     := $(addprefix $(obj)/,$(__hostprogs))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 53 host-csingle    := $(addprefix $(obj)/,$(host-csingle))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54 host-cmulti     := $(addprefix $(obj)/,$(host-cmulti))</t>
+  </si>
+  <si>
+    <t>rock_dbg:Makefile.build==&gt;__build: 1++$(if (KBUILD_BUILTIN)-1, 1.1--(builtin-target)- 1.2--(lib-target)- 1.3--(extra-y)-) 2++$(if (KBUILD_MODULES)-, 2.1--(obj-m)- 2.2--(modorder-target)-arch/arm/boot/dts/modules.order)  3++(subdir-ym)-  4++(always)-arch/arm/boot/dts/imx6q-sabresd.dtb arch/arm/boot/dts/e9v3-sabresd.dtb arch/arm/boot/dts/e9v2-sabresd.dtb arch/arm/boot/dts/imx6q-corea-sabresd.dtb obj=arch/arm/boot/dts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 55 host-cobjs      := $(addprefix $(obj)/,$(host-cobjs))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56 host-cxxmulti   := $(addprefix $(obj)/,$(host-cxxmulti))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1++$(if     (KBUILD_BUILTIN)-1,     1.1--(builtin-target)-     1.2--(lib-target)-     1.3--(extra-y)-    )  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57 host-cxxobjs    := $(addprefix $(obj)/,$(host-cxxobjs))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2++$(if     (KBUILD_MODULES)-,    2.1--(obj-m)-                2.2--(modorder-target)-arch/arm/boot/dts/modules.order)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 58 host-objdirs    := $(addprefix $(obj)/,$(host-objdirs))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3++(subdir-ym)-  </t>
+  </si>
+  <si>
+    <r>
+      <t>4++(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>always</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)-     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arch/arm/boot/dts/imx6q-sabresd.dtb       arch/arm/boot/dts/e9v3-sabresd.dtb        arch/arm/boot/dts/e9v2-sabresd.dtb       arch/arm/boot/dts/imx6q-corea-sabresd.dtb</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60 obj-dirs += $(host-objdirs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 63 $(warning host-csingle = $(host-csingle))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 64 $(warning host-cmulti  = $(host-cmulti))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 65 $(warning host-cobjs   = $(host-cobjs))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66 $(warning host-cxxmulti= $(host-cxxmulti))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 67 $(warning host-cxxobjs = $(host-cxxobjs))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 68 $(warning host-objdirs = $(host-objdirs))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 69 $(warning obj-dirs     = $(obj-dirs))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 71 obj-dirs += $#####</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72 # Handle options to gcc. Support building with separate output directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74 _hostc_flags   = $(HOSTCFLAGS)   $(HOST_EXTRACFLAGS)   \</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 75                  $(HOSTCFLAGS_$(basetarget).o)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 76 _hostcxx_flags = $(HOSTCXXFLAGS) $(HOST_EXTRACXXFLAGS) \</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77                  $(HOSTCXXFLAGS_$(basetarget).o)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79 ifeq ($(KBUILD_SRC),)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80 __hostc_flags   = $(_hostc_flags)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 81 __hostcxx_flags = $(_hostcxx_flags)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 82 else</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 83 __hostc_flags   = -I$(obj) $(call flags,_hostc_flags)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 84 __hostcxx_flags = -I$(obj) $(call flags,_hostcxx_flags)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85 endif</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 87 hostc_flags    = -Wp,-MD,$(depfile) $(__hostc_flags)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 88 hostcxx_flags  = -Wp,-MD,$(depfile) $(__hostcxx_flags)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90 #####</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 91 # Compile programs on the host</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 93 # Create executable from a single .c file</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 94 # host-csingle -&gt; Executable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 95 quiet_cmd_host-csingle  = HOSTCC  $@</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96       cmd_host-csingle  = $(HOSTCC) $(hostc_flags) -o $@ $&lt; \</t>
+  </si>
+  <si>
+    <t>==&gt; 调用HOST机器上的GCC进行编译</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 97                 $(HOST_LOADLIBES) $(HOSTLOADLIBES_$(@F))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 98 $(host-csingle): $(obj)/%: $(src)/%.c FORCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ==&gt; $(host-csingle) 的 所有值 就是 要编译的目录下的Makefile里面的$(hostprogs-y)   $(hostprogs-m) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99         $(call if_changed_dep,host-csingle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ==&gt; $(hostprogs-y)  里面各个值 又 赋值给了 Makefile.build里面的$(always),且$(always) 又是Makefile.build的默认编译规则__build的依赖</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ==&gt;  所以  $(host-csingle) 这个规则 就是   Makefile.build里面的$(always) 这个依赖的各个子目标 的 编译规则，所以得到了执行</t>
+  </si>
+  <si>
+    <t>101 # Link an executable based on list of .o files, all plain c</t>
+  </si>
+  <si>
+    <t>102 # host-cmulti -&gt; executable</t>
+  </si>
+  <si>
+    <t>103 quiet_cmd_host-cmulti   = HOSTLD  $@</t>
+  </si>
+  <si>
+    <t>104       cmd_host-cmulti   = $(HOSTCC) $(HOSTLDFLAGS) -o $@ \</t>
+  </si>
+  <si>
+    <t>105                           $(addprefix $(obj)/,$($(@F)-objs)) \</t>
+  </si>
+  <si>
+    <t>106                           $(HOST_LOADLIBES) $(HOSTLOADLIBES_$(@F))</t>
+  </si>
+  <si>
+    <t>107 $(host-cmulti): FORCE</t>
+  </si>
+  <si>
+    <t>108         $(call if_changed,host-cmulti)</t>
+  </si>
+  <si>
+    <t>109 $(call multi_depend, $(host-cmulti), , -objs)</t>
+  </si>
+  <si>
+    <t>111 # Create .o file from a single .c file</t>
+  </si>
+  <si>
+    <t>112 # host-cobjs -&gt; .o</t>
+  </si>
+  <si>
+    <t>113 quiet_cmd_host-cobjs    = HOSTCC  $@</t>
+  </si>
+  <si>
+    <t>114       cmd_host-cobjs    = $(HOSTCC) $(hostc_flags) -c -o $@ $&lt;</t>
+  </si>
+  <si>
+    <t>115 $(host-cobjs): $(obj)/%.o: $(src)/%.c FORCE</t>
+  </si>
+  <si>
+    <t>116         $(call if_changed_dep,host-cobjs)</t>
+  </si>
+  <si>
+    <t>118 # Link an executable based on list of .o files, a mixture of .c and .cc</t>
+  </si>
+  <si>
+    <t>119 # host-cxxmulti -&gt; executable</t>
+  </si>
+  <si>
+    <t>120 quiet_cmd_host-cxxmulti = HOSTLD  $@</t>
+  </si>
+  <si>
+    <t>121       cmd_host-cxxmulti = $(HOSTCXX) $(HOSTLDFLAGS) -o $@ \</t>
+  </si>
+  <si>
+    <t>122                           $(foreach o,objs cxxobjs,\</t>
+  </si>
+  <si>
+    <t>123                           $(addprefix $(obj)/,$($(@F)-$(o)))) \</t>
+  </si>
+  <si>
+    <t>124                           $(HOST_LOADLIBES) $(HOSTLOADLIBES_$(@F))</t>
+  </si>
+  <si>
+    <t>125 $(host-cxxmulti): FORCE</t>
+  </si>
+  <si>
+    <t>126         $(call if_changed,host-cxxmulti)</t>
+  </si>
+  <si>
+    <t>127 $(call multi_depend, $(host-cxxmulti), , -objs -cxxobjs)</t>
+  </si>
+  <si>
+    <t>129 # Create .o file from a single .cc (C++) file</t>
+  </si>
+  <si>
+    <t>130 quiet_cmd_host-cxxobjs  = HOSTCXX $@</t>
+  </si>
+  <si>
+    <t>131       cmd_host-cxxobjs  = $(HOSTCXX) $(hostcxx_flags) -c -o $@ $&lt;</t>
+  </si>
+  <si>
+    <t>132 $(host-cxxobjs): $(obj)/%.o: $(src)/%.cc FORCE</t>
+  </si>
+  <si>
+    <t>133         $(call if_changed_dep,host-cxxobjs)</t>
+  </si>
+  <si>
+    <t>135 targets += $(host-csingle)  $(host-cmulti) $(host-cobjs)\</t>
+  </si>
+  <si>
+    <t>136            $(host-cxxmulti) $(host-cxxobjs)</t>
   </si>
   <si>
     <t>grep    lowlevel_init     * -rn     --exclude-dir   "bak"</t>
@@ -8470,6 +9589,9 @@
     <t>src=$(wildcard *.c ./sub//*.c)  ==&gt; 这里本来是单/线，但是文本编译器会着色异常，所以打了两个//, 下面也是这种情况</t>
   </si>
   <si>
+    <t xml:space="preserve">2 name := ./  ./tst1/aa   ./tst2/bbb                                    </t>
+  </si>
+  <si>
     <t>dir=$(notdir $(src))</t>
   </si>
   <si>
@@ -8479,6 +9601,9 @@
     <t>all:</t>
   </si>
   <si>
+    <t xml:space="preserve">5 tst := $(filter-out ./, $(name))                                     </t>
+  </si>
+  <si>
     <t>@echo $(src)</t>
   </si>
   <si>
@@ -8488,21 +9613,36 @@
     <t>@echo $(obj)</t>
   </si>
   <si>
+    <t xml:space="preserve">8 target:                                     </t>
+  </si>
+  <si>
     <t>@echo "end"</t>
   </si>
   <si>
+    <t xml:space="preserve">9         @echo $(name)                                     </t>
+  </si>
+  <si>
     <t>执行结果分析:</t>
   </si>
   <si>
+    <t xml:space="preserve">10         @echo $(tst) </t>
+  </si>
+  <si>
     <t>第一行输出:a.c b.c./sub/sa.c ./sub/sb.c ==&gt; wildcard抱指定目录./和 ·/sub/下的所有后缀是.c的文件全部展开.</t>
   </si>
   <si>
     <t>第二行输出:a.c b.c sa.c ab.c notdir 把展开的文件 去除掉路径信息</t>
   </si>
   <si>
+    <t>./ ./tst1/aa ./tst2/bbb</t>
+  </si>
+  <si>
     <t>第三行输出:a.o b.o sa.o ab.o</t>
   </si>
   <si>
+    <t>./tst1/aa ./tst2/bbb</t>
+  </si>
+  <si>
     <t>过滤函数-- fi1ter 在目标集中进行模式过滤</t>
   </si>
   <si>
@@ -8515,7 +9655,10 @@
     <t>cc $(filter %.c %.s,$(sources)) -o foo</t>
   </si>
   <si>
-    <t>$(filter %.c %.s,$(aources))运回的值是"foo.c bar.c baz.s"</t>
+    <t>$(filter %.c %.s,$(sources))运回的值是"foo.c bar.c baz.s"</t>
+  </si>
+  <si>
+    <t>filter是筛选出符合左侧条件的内容，filterout是过滤掉符号左侧条件的内容</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                                    </t>
@@ -8566,7 +9709,7 @@
     <t>需要注意的是:这种情况下规则中通配符的展开和上一小节匹配通配符的区别</t>
   </si>
   <si>
-    <t>src=s(wildcard*.c./sub//*.c)</t>
+    <t>src=s(wildcard  *.c./sub//*.c)</t>
   </si>
   <si>
     <t>wildcard把指定日录/和·/aub/下的所有后级是c的文件全部扫出来</t>
@@ -8593,7 +9736,7 @@
     <t>则需要用“；”将这些命令连起来</t>
   </si>
   <si>
-    <t>$(if CONDITION,THEN-PART[,ELSE-PART]) ==&gt;[,ELSE-PART]是可以进择的</t>
+    <t>$(if   CONDITION,   THEN-PART   [,ELSE-PART]) ==&gt;[,ELSE-PART]是可以进择的</t>
   </si>
   <si>
     <t>makefile中$(if CONDITION,THEN-PART[,ELSE-PART])</t>
@@ -8603,6 +9746,12 @@
   </si>
   <si>
     <t>$(if $(BUILD_DIR),$(BUILD_DIR),$(CURDIR))</t>
+  </si>
+  <si>
+    <t>如果“CONDITION”的 展开结果非空，则条件为真，就将第二个参数“THEN_PATR”作为函数的计算</t>
+  </si>
+  <si>
+    <t>表达式；“CONDITION”的展开结果为空，将第三个参数“ELSE-PART”作为函数的表达式，函数的返回结果为有效表达式的计算结果</t>
   </si>
   <si>
     <t xml:space="preserve">      </t>
@@ -8832,12 +9981,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8921,7 +10070,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF1D41D5"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D41D5"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF1D41D5"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFD4D4D4"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8930,14 +10109,6 @@
       <b/>
       <sz val="14.05"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8958,20 +10129,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -8981,7 +10138,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9003,6 +10190,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -9015,14 +10210,6 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9041,9 +10228,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9051,13 +10237,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9071,24 +10250,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9117,43 +10288,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9183,7 +10330,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9195,25 +10372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9225,7 +10384,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9237,67 +10450,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9408,9 +10579,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9463,28 +10654,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9493,156 +10664,183 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -9693,6 +10891,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -9708,9 +10909,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -9723,22 +10921,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -9753,23 +10951,149 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -10058,15 +11382,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -10076,8 +11400,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11115675" y="3733800"/>
-          <a:ext cx="2276475" cy="1647825"/>
+          <a:off x="19497675" y="7858125"/>
+          <a:ext cx="2276475" cy="1724025"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10107,15 +11431,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -10125,7 +11449,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16621125" y="5991225"/>
+          <a:off x="25003125" y="10191750"/>
           <a:ext cx="2647950" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -10156,30 +11480,79 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>65405</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Elbow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38604825" y="6010910"/>
+          <a:ext cx="2422525" cy="931545"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -287"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>356870</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>42545</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Elbow Connector 3"/>
+        <xdr:cNvPr id="6" name="Elbow Connector 5"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="16268700" y="2933700"/>
-          <a:ext cx="2990850" cy="2447925"/>
+        <a:xfrm>
+          <a:off x="11253470" y="6564630"/>
+          <a:ext cx="7229475" cy="2992755"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 80594"/>
+            <a:gd name="adj1" fmla="val 72109"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -10206,29 +11579,137 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>46355</xdr:rowOff>
+      <xdr:colOff>74930</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>140335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>84455</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30250130" y="5379085"/>
+          <a:ext cx="9525" cy="5388610"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>199390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>815975</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>89535</xdr:rowOff>
+      <xdr:colOff>399415</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Elbow Connector 4"/>
+        <xdr:cNvPr id="8" name="Elbow Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="28809950" y="11305540"/>
+          <a:ext cx="3441065" cy="1759585"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 719"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>226060</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Elbow Connector 8"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="30186630" y="5513705"/>
-          <a:ext cx="2480945" cy="452755"/>
+          <a:off x="28724860" y="7200900"/>
+          <a:ext cx="4841240" cy="3396615"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -434"/>
+            <a:gd name="adj1" fmla="val -1337"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -10250,6 +11731,686 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>132715</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>792480</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65405</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="Group 24"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="36175315" y="2643505"/>
+          <a:ext cx="4850765" cy="2051050"/>
+          <a:chOff x="57106" y="6638"/>
+          <a:chExt cx="7658" cy="3121"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="23" name="Elbow Connector 22"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="57106" y="8646"/>
+            <a:ext cx="5418" cy="1113"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 498"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="24" name="Elbow Connector 23"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="62488" y="6638"/>
+            <a:ext cx="2276" cy="2028"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50022"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>166370</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>782320</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Elbow Connector 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="37885370" y="4361815"/>
+          <a:ext cx="3130550" cy="366395"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 77145"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>363855</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Elbow Connector 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="29700855" y="10168890"/>
+          <a:ext cx="3773805" cy="443865"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50017"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>811530</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="Group 28"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="35337750" y="7639685"/>
+          <a:ext cx="5707380" cy="2898140"/>
+          <a:chOff x="57106" y="6638"/>
+          <a:chExt cx="7658" cy="3121"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="30" name="Elbow Connector 29"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="57106" y="8344"/>
+            <a:ext cx="4345" cy="1415"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -1745"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="31" name="Elbow Connector 30"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="61375" y="6638"/>
+            <a:ext cx="3389" cy="1716"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50025"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Elbow Connector 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="35471100" y="5638800"/>
+          <a:ext cx="5581650" cy="5172075"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 87042"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>815340</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="34" name="Group 33"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="24646890" y="5334000"/>
+          <a:ext cx="2990850" cy="4244975"/>
+          <a:chOff x="38799" y="8385"/>
+          <a:chExt cx="4710" cy="6460"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="4" name="Elbow Connector 3"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="37226" y="10930"/>
+            <a:ext cx="5488" cy="2343"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -847"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="33" name="Elbow Connector 32"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="41125" y="8385"/>
+            <a:ext cx="2385" cy="960"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 964"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>109855</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="44489370" y="7181215"/>
+          <a:ext cx="1583055" cy="5715"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>669290</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>109855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>838835</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Elbow Connector 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="50123090" y="6986905"/>
+          <a:ext cx="15256510" cy="3409315"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 85533"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>744220</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>103505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>90805</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Elbow Connector 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="48521620" y="7180580"/>
+          <a:ext cx="16948785" cy="5062855"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 92266"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>109855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Elbow Connector 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="49263300" y="6786880"/>
+          <a:ext cx="16214725" cy="4211320"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 88463"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="69980175" y="23602950"/>
+          <a:ext cx="9544050" cy="2266950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10339,6 +12500,60 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Elbow Connector 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="10058400" y="7029450"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49933"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10611,7 +12826,7 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="4" spans="3:3">
-      <c r="C4" s="43"/>
+      <c r="C4" s="93"/>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
@@ -10624,7 +12839,7 @@
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="40" t="s">
         <v>2</v>
       </c>
     </row>
@@ -19749,7 +21964,7 @@
   <sheetPr/>
   <dimension ref="D5:P744"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="E63" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="E59" workbookViewId="0">
       <selection activeCell="U72" sqref="U72"/>
     </sheetView>
   </sheetViews>
@@ -19764,12 +21979,12 @@
       </c>
     </row>
     <row r="6" ht="16.5" spans="4:4">
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="40" t="s">
         <v>1180</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="4:4">
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="89" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -19784,7 +21999,7 @@
       </c>
     </row>
     <row r="11" ht="16.5" spans="4:4">
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="40" t="s">
         <v>1184</v>
       </c>
     </row>
@@ -19824,12 +22039,12 @@
       </c>
     </row>
     <row r="35" ht="18" spans="6:6">
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="90" t="s">
         <v>1192</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="6:6">
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="40" t="s">
         <v>1193</v>
       </c>
     </row>
@@ -19888,13 +22103,13 @@
       <c r="F46" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="G46" s="40"/>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="6:7">
       <c r="F47" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="G47" s="40"/>
+      <c r="G47" s="1"/>
     </row>
     <row r="48" spans="6:6">
       <c r="F48" t="s">
@@ -19902,12 +22117,12 @@
       </c>
     </row>
     <row r="50" ht="18" spans="6:6">
-      <c r="F50" s="39" t="s">
+      <c r="F50" s="90" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="51" spans="6:6">
-      <c r="F51" s="38" t="s">
+      <c r="F51" s="89" t="s">
         <v>1206</v>
       </c>
     </row>
@@ -19947,7 +22162,7 @@
       </c>
     </row>
     <row r="60" ht="18" spans="6:6">
-      <c r="F60" s="39" t="s">
+      <c r="F60" s="90" t="s">
         <v>1214</v>
       </c>
     </row>
@@ -19957,7 +22172,7 @@
       </c>
     </row>
     <row r="63" ht="18" spans="6:6">
-      <c r="F63" s="39" t="s">
+      <c r="F63" s="90" t="s">
         <v>1216</v>
       </c>
     </row>
@@ -19987,7 +22202,7 @@
       </c>
     </row>
     <row r="70" ht="18" spans="6:6">
-      <c r="F70" s="39" t="s">
+      <c r="F70" s="90" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -20163,7 +22378,7 @@
       </c>
     </row>
     <row r="105" ht="18" spans="6:6">
-      <c r="F105" s="39" t="s">
+      <c r="F105" s="90" t="s">
         <v>1254</v>
       </c>
     </row>
@@ -20278,7 +22493,7 @@
       </c>
     </row>
     <row r="130" ht="18" spans="6:6">
-      <c r="F130" s="39" t="s">
+      <c r="F130" s="90" t="s">
         <v>1275</v>
       </c>
     </row>
@@ -20338,12 +22553,12 @@
       </c>
     </row>
     <row r="145" spans="6:6">
-      <c r="F145" s="41" t="s">
+      <c r="F145" s="91" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="146" spans="6:6">
-      <c r="F146" s="41" t="s">
+      <c r="F146" s="91" t="s">
         <v>1285</v>
       </c>
     </row>
@@ -20378,7 +22593,7 @@
       </c>
     </row>
     <row r="153" spans="6:6">
-      <c r="F153" s="41" t="s">
+      <c r="F153" s="91" t="s">
         <v>1292</v>
       </c>
     </row>
@@ -20403,17 +22618,17 @@
       </c>
     </row>
     <row r="158" spans="6:6">
-      <c r="F158" s="41" t="s">
+      <c r="F158" s="91" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="159" spans="6:6">
-      <c r="F159" s="41" t="s">
+      <c r="F159" s="91" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="160" spans="6:6">
-      <c r="F160" s="41" t="s">
+      <c r="F160" s="91" t="s">
         <v>1299</v>
       </c>
     </row>
@@ -20428,7 +22643,7 @@
       </c>
     </row>
     <row r="163" spans="6:6">
-      <c r="F163" s="41" t="s">
+      <c r="F163" s="91" t="s">
         <v>1302</v>
       </c>
     </row>
@@ -20458,117 +22673,117 @@
       </c>
     </row>
     <row r="169" spans="6:6">
-      <c r="F169" s="41" t="s">
+      <c r="F169" s="91" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="171" spans="6:6">
-      <c r="F171" s="41" t="s">
+      <c r="F171" s="91" t="s">
         <v>1309</v>
       </c>
     </row>
     <row r="172" ht="16.5" spans="6:6">
-      <c r="F172" s="32" t="s">
+      <c r="F172" s="40" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="173" spans="6:6">
-      <c r="F173" s="41" t="s">
+      <c r="F173" s="91" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="174" spans="6:6">
-      <c r="F174" s="41" t="s">
+      <c r="F174" s="91" t="s">
         <v>1312</v>
       </c>
     </row>
     <row r="175" spans="6:6">
-      <c r="F175" s="41" t="s">
+      <c r="F175" s="91" t="s">
         <v>1313</v>
       </c>
     </row>
     <row r="176" spans="6:6">
-      <c r="F176" s="41" t="s">
+      <c r="F176" s="91" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="177" spans="6:6">
-      <c r="F177" s="41" t="s">
+      <c r="F177" s="91" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="178" spans="6:6">
-      <c r="F178" s="41" t="s">
+      <c r="F178" s="91" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="179" spans="6:6">
-      <c r="F179" s="41" t="s">
+      <c r="F179" s="91" t="s">
         <v>1317</v>
       </c>
     </row>
     <row r="180" spans="6:6">
-      <c r="F180" s="41" t="s">
+      <c r="F180" s="91" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="181" spans="6:6">
-      <c r="F181" s="41" t="s">
+      <c r="F181" s="91" t="s">
         <v>1319</v>
       </c>
     </row>
     <row r="182" spans="6:6">
-      <c r="F182" s="41" t="s">
+      <c r="F182" s="91" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="183" spans="6:6">
-      <c r="F183" s="41" t="s">
+      <c r="F183" s="91" t="s">
         <v>1321</v>
       </c>
     </row>
     <row r="184" spans="6:6">
-      <c r="F184" s="41" t="s">
+      <c r="F184" s="91" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="185" spans="6:6">
-      <c r="F185" s="41" t="s">
+      <c r="F185" s="91" t="s">
         <v>1323</v>
       </c>
     </row>
     <row r="186" spans="6:6">
-      <c r="F186" s="41" t="s">
+      <c r="F186" s="91" t="s">
         <v>1324</v>
       </c>
     </row>
     <row r="187" spans="6:6">
-      <c r="F187" s="41" t="s">
+      <c r="F187" s="91" t="s">
         <v>1325</v>
       </c>
     </row>
     <row r="188" spans="6:6">
-      <c r="F188" s="41" t="s">
+      <c r="F188" s="91" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="189" spans="6:6">
-      <c r="F189" s="41" t="s">
+      <c r="F189" s="91" t="s">
         <v>1327</v>
       </c>
     </row>
     <row r="190" spans="6:6">
-      <c r="F190" s="41" t="s">
+      <c r="F190" s="91" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="191" spans="6:6">
-      <c r="F191" s="41" t="s">
+      <c r="F191" s="91" t="s">
         <v>1323</v>
       </c>
     </row>
     <row r="192" spans="6:6">
-      <c r="F192" s="41" t="s">
+      <c r="F192" s="91" t="s">
         <v>11</v>
       </c>
     </row>
@@ -20698,7 +22913,7 @@
       </c>
     </row>
     <row r="221" spans="6:6">
-      <c r="F221" s="41" t="s">
+      <c r="F221" s="91" t="s">
         <v>1353</v>
       </c>
     </row>
@@ -20883,7 +23098,7 @@
       </c>
     </row>
     <row r="264" ht="16.5" spans="6:6">
-      <c r="F264" s="32" t="s">
+      <c r="F264" s="40" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -20949,7 +23164,7 @@
       </c>
     </row>
     <row r="276" ht="16.5" spans="6:6">
-      <c r="F276" s="32" t="s">
+      <c r="F276" s="40" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -21159,12 +23374,12 @@
       </c>
     </row>
     <row r="320" ht="16.5" spans="6:6">
-      <c r="F320" s="32" t="s">
+      <c r="F320" s="40" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="321" ht="16.5" spans="6:6">
-      <c r="F321" s="32" t="s">
+      <c r="F321" s="40" t="s">
         <v>1415</v>
       </c>
     </row>
@@ -21174,7 +23389,7 @@
       </c>
     </row>
     <row r="323" ht="16.5" spans="6:6">
-      <c r="F323" s="32" t="s">
+      <c r="F323" s="40" t="s">
         <v>1417</v>
       </c>
     </row>
@@ -21214,7 +23429,7 @@
       </c>
     </row>
     <row r="331" ht="16.5" spans="6:6">
-      <c r="F331" s="42" t="s">
+      <c r="F331" s="92" t="s">
         <v>1424</v>
       </c>
     </row>
@@ -21374,7 +23589,7 @@
       </c>
     </row>
     <row r="366" ht="16.5" spans="6:6">
-      <c r="F366" s="32" t="s">
+      <c r="F366" s="40" t="s">
         <v>1448</v>
       </c>
     </row>
@@ -21394,7 +23609,7 @@
       </c>
     </row>
     <row r="373" ht="16.5" spans="6:6">
-      <c r="F373" s="32" t="s">
+      <c r="F373" s="40" t="s">
         <v>1452</v>
       </c>
     </row>
@@ -21674,7 +23889,7 @@
       </c>
     </row>
     <row r="431" spans="6:6">
-      <c r="F431" s="32" t="s">
+      <c r="F431" s="40" t="s">
         <v>1480</v>
       </c>
     </row>
@@ -21694,7 +23909,7 @@
       </c>
     </row>
     <row r="437" ht="16.5" spans="6:6">
-      <c r="F437" s="32" t="s">
+      <c r="F437" s="40" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -23101,14 +25316,41 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="F16:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="16" spans="6:6">
+      <c r="F16" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" s="88"/>
+    </row>
+    <row r="22" spans="6:8">
+      <c r="F22" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -23117,603 +25359,3333 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C5:AQ37"/>
+  <dimension ref="M6:CK170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="J9" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView tabSelected="1" topLeftCell="BY113" workbookViewId="0">
+      <selection activeCell="CI141" sqref="CI141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="84" max="84" width="11.2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" ht="16.5"/>
-    <row r="6" spans="3:37">
-      <c r="C6" s="16"/>
-      <c r="D6" s="17" t="s">
-        <v>1645</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
-      <c r="AE6" s="27" t="s">
-        <v>1646</v>
-      </c>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="31"/>
-    </row>
-    <row r="7" spans="3:37">
-      <c r="C7" s="18" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="25"/>
-      <c r="AE7" s="18" t="s">
-        <v>1648</v>
-      </c>
-      <c r="AK7" s="33"/>
-    </row>
-    <row r="8" spans="3:37">
-      <c r="C8" s="18" t="s">
+    <row r="6" spans="41:47">
+      <c r="AO6" s="36" t="s">
         <v>1649</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="25"/>
-      <c r="AE8" s="18" t="s">
+      <c r="AP6" s="37"/>
+      <c r="AQ6" s="37"/>
+      <c r="AR6" s="37"/>
+      <c r="AS6" s="37"/>
+      <c r="AT6" s="37"/>
+      <c r="AU6" s="38"/>
+    </row>
+    <row r="7" ht="16.5" spans="41:47">
+      <c r="AO7" s="28" t="s">
         <v>1650</v>
       </c>
-      <c r="AK8" s="33"/>
-    </row>
-    <row r="9" spans="3:37">
-      <c r="C9" s="18" t="s">
+      <c r="AP7" s="48"/>
+      <c r="AQ7" s="48"/>
+      <c r="AR7" s="48"/>
+      <c r="AS7" s="48"/>
+      <c r="AT7" s="48"/>
+      <c r="AU7" s="41"/>
+    </row>
+    <row r="8" spans="41:56">
+      <c r="AO8" s="28" t="s">
         <v>1651</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="25"/>
-      <c r="AE9" s="18">
+      <c r="AP8" s="48"/>
+      <c r="AQ8" s="48"/>
+      <c r="AR8" s="48"/>
+      <c r="AS8" s="48"/>
+      <c r="AT8" s="48"/>
+      <c r="AU8" s="41"/>
+      <c r="AX8" s="36" t="s">
+        <v>1649</v>
+      </c>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="8"/>
+    </row>
+    <row r="9" spans="41:56">
+      <c r="AO9" s="28">
         <v>966</v>
       </c>
-      <c r="AK9" s="33"/>
-    </row>
-    <row r="10" spans="3:37">
-      <c r="C10" s="18" t="s">
+      <c r="AP9" s="48"/>
+      <c r="AQ9" s="48"/>
+      <c r="AR9" s="48"/>
+      <c r="AS9" s="48"/>
+      <c r="AT9" s="48"/>
+      <c r="AU9" s="41"/>
+      <c r="AX9" s="5" t="s">
         <v>1652</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="25"/>
-      <c r="AE10" s="18" t="s">
+      <c r="BD9" s="9"/>
+    </row>
+    <row r="10" spans="41:56">
+      <c r="AO10" s="28" t="s">
         <v>1653</v>
       </c>
-      <c r="AK10" s="33"/>
-    </row>
-    <row r="11" ht="16.5" spans="3:37">
-      <c r="C11" s="20">
+      <c r="AP10" s="48"/>
+      <c r="AQ10" s="48"/>
+      <c r="AR10" s="48"/>
+      <c r="AS10" s="48"/>
+      <c r="AT10" s="48"/>
+      <c r="AU10" s="41"/>
+      <c r="AX10" s="5" t="s">
+        <v>1654</v>
+      </c>
+      <c r="BD10" s="9"/>
+    </row>
+    <row r="11" spans="41:56">
+      <c r="AO11" s="28" t="s">
+        <v>1655</v>
+      </c>
+      <c r="AP11" s="48"/>
+      <c r="AQ11" s="48"/>
+      <c r="AR11" s="48"/>
+      <c r="AS11" s="48"/>
+      <c r="AT11" s="48"/>
+      <c r="AU11" s="41"/>
+      <c r="AX11" s="5" t="s">
+        <v>1656</v>
+      </c>
+      <c r="BD11" s="9"/>
+    </row>
+    <row r="12" spans="41:56">
+      <c r="AO12" s="28" t="s">
+        <v>1657</v>
+      </c>
+      <c r="AP12" s="48"/>
+      <c r="AQ12" s="48"/>
+      <c r="AR12" s="48"/>
+      <c r="AS12" s="48"/>
+      <c r="AT12" s="48"/>
+      <c r="AU12" s="41"/>
+      <c r="AX12" s="5" t="s">
+        <v>1658</v>
+      </c>
+      <c r="BD12" s="9"/>
+    </row>
+    <row r="13" spans="41:56">
+      <c r="AO13" s="30" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AP13" s="48"/>
+      <c r="AQ13" s="48"/>
+      <c r="AR13" s="48"/>
+      <c r="AS13" s="48"/>
+      <c r="AT13" s="48"/>
+      <c r="AU13" s="41"/>
+      <c r="AX13" s="62" t="s">
+        <v>1660</v>
+      </c>
+      <c r="BD13" s="9"/>
+    </row>
+    <row r="14" spans="41:56">
+      <c r="AO14" s="28" t="s">
+        <v>1661</v>
+      </c>
+      <c r="AP14" s="48"/>
+      <c r="AQ14" s="48"/>
+      <c r="AR14" s="48"/>
+      <c r="AS14" s="48"/>
+      <c r="AT14" s="48"/>
+      <c r="AU14" s="41"/>
+      <c r="AX14" s="5" t="s">
+        <v>1662</v>
+      </c>
+      <c r="BD14" s="9"/>
+    </row>
+    <row r="15" spans="41:56">
+      <c r="AO15" s="28" t="s">
+        <v>1663</v>
+      </c>
+      <c r="AP15" s="48"/>
+      <c r="AQ15" s="48"/>
+      <c r="AR15" s="48"/>
+      <c r="AS15" s="48"/>
+      <c r="AT15" s="48"/>
+      <c r="AU15" s="41"/>
+      <c r="AX15" s="5" t="s">
+        <v>1664</v>
+      </c>
+      <c r="BD15" s="9"/>
+    </row>
+    <row r="16" spans="41:56">
+      <c r="AO16" s="28" t="s">
+        <v>1665</v>
+      </c>
+      <c r="AP16" s="48"/>
+      <c r="AQ16" s="48"/>
+      <c r="AR16" s="48"/>
+      <c r="AS16" s="48"/>
+      <c r="AT16" s="48"/>
+      <c r="AU16" s="41"/>
+      <c r="AX16" s="5" t="s">
+        <v>1666</v>
+      </c>
+      <c r="BD16" s="9"/>
+    </row>
+    <row r="17" spans="41:56">
+      <c r="AO17" s="28" t="s">
+        <v>1667</v>
+      </c>
+      <c r="AP17" s="48"/>
+      <c r="AQ17" s="48"/>
+      <c r="AR17" s="48"/>
+      <c r="AS17" s="48"/>
+      <c r="AT17" s="48"/>
+      <c r="AU17" s="41"/>
+      <c r="AX17" s="5" t="s">
+        <v>1668</v>
+      </c>
+      <c r="BD17" s="9"/>
+    </row>
+    <row r="18" spans="41:56">
+      <c r="AO18" s="28" t="s">
+        <v>1669</v>
+      </c>
+      <c r="AP18" s="48"/>
+      <c r="AQ18" s="48"/>
+      <c r="AR18" s="48"/>
+      <c r="AS18" s="48"/>
+      <c r="AT18" s="48"/>
+      <c r="AU18" s="41"/>
+      <c r="AX18" s="5" t="s">
+        <v>1670</v>
+      </c>
+      <c r="BD18" s="9"/>
+    </row>
+    <row r="19" ht="16.5" spans="41:56">
+      <c r="AO19" s="28" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AP19" s="48"/>
+      <c r="AQ19" s="48"/>
+      <c r="AR19" s="48"/>
+      <c r="AS19" s="48"/>
+      <c r="AT19" s="48"/>
+      <c r="AU19" s="41"/>
+      <c r="AX19" s="6"/>
+      <c r="AY19" s="7"/>
+      <c r="AZ19" s="7"/>
+      <c r="BA19" s="7"/>
+      <c r="BB19" s="7"/>
+      <c r="BC19" s="7"/>
+      <c r="BD19" s="10"/>
+    </row>
+    <row r="20" ht="16.5" spans="41:47">
+      <c r="AO20" s="28" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AP20" s="48"/>
+      <c r="AQ20" s="48"/>
+      <c r="AR20" s="48"/>
+      <c r="AS20" s="48"/>
+      <c r="AT20" s="48"/>
+      <c r="AU20" s="41"/>
+    </row>
+    <row r="21" spans="41:56">
+      <c r="AO21" s="28" t="s">
+        <v>1673</v>
+      </c>
+      <c r="AP21" s="48"/>
+      <c r="AQ21" s="48"/>
+      <c r="AR21" s="48"/>
+      <c r="AS21" s="48"/>
+      <c r="AT21" s="48"/>
+      <c r="AU21" s="41"/>
+      <c r="AX21" s="36" t="s">
+        <v>1649</v>
+      </c>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="8"/>
+    </row>
+    <row r="22" spans="41:56">
+      <c r="AO22" s="28">
+        <v>979</v>
+      </c>
+      <c r="AP22" s="48"/>
+      <c r="AQ22" s="48"/>
+      <c r="AR22" s="48"/>
+      <c r="AS22" s="48"/>
+      <c r="AT22" s="48"/>
+      <c r="AU22" s="41"/>
+      <c r="AX22" s="5" t="s">
+        <v>1674</v>
+      </c>
+      <c r="BD22" s="9"/>
+    </row>
+    <row r="23" spans="41:56">
+      <c r="AO23" s="28" t="s">
+        <v>1675</v>
+      </c>
+      <c r="AP23" s="48"/>
+      <c r="AQ23" s="48"/>
+      <c r="AR23" s="48"/>
+      <c r="AS23" s="48"/>
+      <c r="AT23" s="48"/>
+      <c r="AU23" s="41"/>
+      <c r="AX23" s="5" t="s">
+        <v>1676</v>
+      </c>
+      <c r="BD23" s="9"/>
+    </row>
+    <row r="24" spans="34:56">
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
+      <c r="AK24" s="37"/>
+      <c r="AL24" s="38"/>
+      <c r="AO24" s="30" t="s">
+        <v>1677</v>
+      </c>
+      <c r="AP24" s="48"/>
+      <c r="AQ24" s="48"/>
+      <c r="AR24" s="48"/>
+      <c r="AS24" s="48"/>
+      <c r="AT24" s="48"/>
+      <c r="AU24" s="41"/>
+      <c r="AX24" s="62" t="s">
+        <v>1678</v>
+      </c>
+      <c r="BD24" s="9"/>
+    </row>
+    <row r="25" ht="16.5" spans="34:57">
+      <c r="AH25" s="39" t="s">
+        <v>1679</v>
+      </c>
+      <c r="AL25" s="41"/>
+      <c r="AO25" s="28">
+        <v>982</v>
+      </c>
+      <c r="AP25" s="48"/>
+      <c r="AQ25" s="48"/>
+      <c r="AR25" s="48"/>
+      <c r="AS25" s="48"/>
+      <c r="AT25" s="48"/>
+      <c r="AU25" s="41"/>
+      <c r="AX25" s="63" t="s">
+        <v>1680</v>
+      </c>
+      <c r="AY25" s="64"/>
+      <c r="AZ25" s="64"/>
+      <c r="BA25" s="64"/>
+      <c r="BB25" s="64"/>
+      <c r="BC25" s="64"/>
+      <c r="BD25" s="66"/>
+      <c r="BE25" s="64"/>
+    </row>
+    <row r="26" spans="13:57">
+      <c r="M26" s="25"/>
+      <c r="N26" s="26" t="s">
+        <v>1681</v>
+      </c>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="33"/>
+      <c r="AH26" s="39"/>
+      <c r="AL26" s="41"/>
+      <c r="AO26" s="30" t="s">
+        <v>1682</v>
+      </c>
+      <c r="AP26" s="48"/>
+      <c r="AQ26" s="48"/>
+      <c r="AR26" s="48"/>
+      <c r="AS26" s="48"/>
+      <c r="AT26" s="48"/>
+      <c r="AU26" s="41"/>
+      <c r="AX26" s="63" t="s">
+        <v>1683</v>
+      </c>
+      <c r="AY26" s="64"/>
+      <c r="AZ26" s="64"/>
+      <c r="BA26" s="64"/>
+      <c r="BB26" s="64"/>
+      <c r="BC26" s="64"/>
+      <c r="BD26" s="66"/>
+      <c r="BE26" s="64"/>
+    </row>
+    <row r="27" spans="13:57">
+      <c r="M27" s="28" t="s">
+        <v>1684</v>
+      </c>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="34"/>
+      <c r="AH27" s="47" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AL27" s="41"/>
+      <c r="AO27" s="30" t="s">
+        <v>1686</v>
+      </c>
+      <c r="AP27" s="48"/>
+      <c r="AQ27" s="48"/>
+      <c r="AR27" s="48"/>
+      <c r="AS27" s="48"/>
+      <c r="AT27" s="48"/>
+      <c r="AU27" s="41"/>
+      <c r="AX27" s="63" t="s">
+        <v>1687</v>
+      </c>
+      <c r="AY27" s="64"/>
+      <c r="AZ27" s="64"/>
+      <c r="BA27" s="64"/>
+      <c r="BB27" s="64"/>
+      <c r="BC27" s="64"/>
+      <c r="BD27" s="66"/>
+      <c r="BE27" s="64"/>
+    </row>
+    <row r="28" spans="13:57">
+      <c r="M28" s="28" t="s">
+        <v>1688</v>
+      </c>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="34"/>
+      <c r="AH28" s="39"/>
+      <c r="AL28" s="41"/>
+      <c r="AO28" s="59" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AP28" s="48"/>
+      <c r="AQ28" s="48"/>
+      <c r="AR28" s="48"/>
+      <c r="AS28" s="48"/>
+      <c r="AT28" s="48"/>
+      <c r="AU28" s="41"/>
+      <c r="AX28" s="63" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AY28" s="64"/>
+      <c r="AZ28" s="64"/>
+      <c r="BA28" s="64"/>
+      <c r="BB28" s="64"/>
+      <c r="BC28" s="64"/>
+      <c r="BD28" s="66"/>
+      <c r="BE28" s="64"/>
+    </row>
+    <row r="29" ht="16.5" spans="13:56">
+      <c r="M29" s="28" t="s">
+        <v>1691</v>
+      </c>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="34"/>
+      <c r="AH29" s="42"/>
+      <c r="AI29" s="43"/>
+      <c r="AJ29" s="43"/>
+      <c r="AK29" s="43"/>
+      <c r="AL29" s="44"/>
+      <c r="AO29" s="28">
+        <v>986</v>
+      </c>
+      <c r="AP29" s="48"/>
+      <c r="AQ29" s="48"/>
+      <c r="AR29" s="48"/>
+      <c r="AS29" s="48"/>
+      <c r="AT29" s="48"/>
+      <c r="AU29" s="41"/>
+      <c r="AX29" s="6"/>
+      <c r="AY29" s="7"/>
+      <c r="AZ29" s="7"/>
+      <c r="BA29" s="7"/>
+      <c r="BB29" s="7"/>
+      <c r="BC29" s="7"/>
+      <c r="BD29" s="10"/>
+    </row>
+    <row r="30" spans="13:47">
+      <c r="M30" s="28" t="s">
+        <v>1692</v>
+      </c>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="34"/>
+      <c r="AO30" s="30" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AP30" s="48"/>
+      <c r="AQ30" s="48"/>
+      <c r="AR30" s="48"/>
+      <c r="AS30" s="48"/>
+      <c r="AT30" s="48"/>
+      <c r="AU30" s="41"/>
+    </row>
+    <row r="31" ht="16.5" spans="13:47">
+      <c r="M31" s="30">
         <v>5</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="25"/>
-      <c r="AE11" s="18" t="s">
-        <v>1654</v>
-      </c>
-      <c r="AK11" s="33"/>
-    </row>
-    <row r="12" ht="16.5" spans="3:37">
-      <c r="C12" s="18" t="s">
-        <v>1655</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="25"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="31"/>
-      <c r="AE12" s="18" t="s">
-        <v>1656</v>
-      </c>
-      <c r="AK12" s="33"/>
-    </row>
-    <row r="13" spans="3:37">
-      <c r="C13" s="20" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="25"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="31"/>
-      <c r="X13" s="28" t="s">
-        <v>1658</v>
-      </c>
-      <c r="AB13" s="33"/>
-      <c r="AE13" s="20" t="s">
-        <v>1659</v>
-      </c>
-      <c r="AK13" s="33"/>
-    </row>
-    <row r="14" spans="3:37">
-      <c r="C14" s="20">
-        <v>8</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="25"/>
-      <c r="Q14" s="28" t="s">
-        <v>1646</v>
-      </c>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="33"/>
-      <c r="X14" s="28"/>
-      <c r="AB14" s="33"/>
-      <c r="AE14" s="18" t="s">
-        <v>1660</v>
-      </c>
-      <c r="AK14" s="33"/>
-    </row>
-    <row r="15" spans="3:37">
-      <c r="C15" s="18" t="s">
-        <v>1661</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="25"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="33"/>
-      <c r="X15" s="28" t="s">
-        <v>1662</v>
-      </c>
-      <c r="AB15" s="33"/>
-      <c r="AE15" s="18" t="s">
-        <v>1663</v>
-      </c>
-      <c r="AK15" s="33"/>
-    </row>
-    <row r="16" spans="3:37">
-      <c r="C16" s="18" t="s">
-        <v>1664</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="25"/>
-      <c r="Q16" s="36" t="s">
-        <v>1665</v>
-      </c>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="33"/>
-      <c r="X16" s="28"/>
-      <c r="AB16" s="33"/>
-      <c r="AE16" s="18" t="s">
-        <v>1666</v>
-      </c>
-      <c r="AK16" s="33"/>
-    </row>
-    <row r="17" ht="16.5" spans="3:37">
-      <c r="C17" s="20" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="25"/>
-      <c r="Q17" s="18" t="s">
-        <v>1668</v>
-      </c>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="33"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="35"/>
-      <c r="AE17" s="18" t="s">
-        <v>1669</v>
-      </c>
-      <c r="AK17" s="33"/>
-    </row>
-    <row r="18" spans="3:37">
-      <c r="C18" s="18" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="25"/>
-      <c r="Q18" s="18">
-        <v>254</v>
-      </c>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="33"/>
-      <c r="AE18" s="18" t="s">
-        <v>1671</v>
-      </c>
-      <c r="AK18" s="33"/>
-    </row>
-    <row r="19" spans="3:37">
-      <c r="C19" s="20" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="25"/>
-      <c r="Q19" s="18" t="s">
-        <v>1673</v>
-      </c>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="33"/>
-      <c r="AE19" s="18" t="s">
-        <v>1674</v>
-      </c>
-      <c r="AK19" s="33"/>
-    </row>
-    <row r="20" spans="3:37">
-      <c r="C20" s="18" t="s">
-        <v>1675</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="25"/>
-      <c r="Q20" s="18" t="s">
-        <v>1676</v>
-      </c>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="33"/>
-      <c r="AE20" s="18" t="s">
-        <v>1677</v>
-      </c>
-      <c r="AK20" s="33"/>
-    </row>
-    <row r="21" spans="3:37">
-      <c r="C21" s="18" t="s">
-        <v>1678</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="25"/>
-      <c r="Q21" s="20" t="s">
-        <v>1679</v>
-      </c>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="33"/>
-      <c r="AE21" s="18" t="s">
-        <v>1680</v>
-      </c>
-      <c r="AK21" s="33"/>
-    </row>
-    <row r="22" spans="3:37">
-      <c r="C22" s="18" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="25"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="33"/>
-      <c r="AE22" s="18">
-        <v>979</v>
-      </c>
-      <c r="AK22" s="33"/>
-    </row>
-    <row r="23" ht="16.5" spans="3:37">
-      <c r="C23" s="18" t="s">
-        <v>1682</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="25"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="33"/>
-      <c r="AE23" s="18" t="s">
-        <v>1683</v>
-      </c>
-      <c r="AK23" s="33"/>
-    </row>
-    <row r="24" spans="3:43">
-      <c r="C24" s="18" t="s">
-        <v>1684</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="25"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="33"/>
-      <c r="AE24" s="20" t="s">
-        <v>1685</v>
-      </c>
-      <c r="AK24" s="33"/>
-      <c r="AN24" s="27"/>
-      <c r="AO24" s="30"/>
-      <c r="AP24" s="30"/>
-      <c r="AQ24" s="31"/>
-    </row>
-    <row r="25" ht="16.5" spans="3:43">
-      <c r="C25" s="21" t="s">
-        <v>1686</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="26"/>
-      <c r="Q25" s="28" t="s">
-        <v>1687</v>
-      </c>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="33"/>
-      <c r="AE25" s="18">
-        <v>982</v>
-      </c>
-      <c r="AK25" s="33"/>
-      <c r="AN25" s="28"/>
-      <c r="AQ25" s="33"/>
-    </row>
-    <row r="26" spans="12:43">
-      <c r="L26" s="27"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="31"/>
-      <c r="Q26" s="28" t="s">
-        <v>1688</v>
-      </c>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="33"/>
-      <c r="AE26" s="20" t="s">
-        <v>1689</v>
-      </c>
-      <c r="AK26" s="33"/>
-      <c r="AN26" s="18" t="s">
-        <v>1690</v>
-      </c>
-      <c r="AQ26" s="33"/>
-    </row>
-    <row r="27" ht="16.5" spans="12:43">
-      <c r="L27" s="28"/>
-      <c r="M27" s="32" t="s">
-        <v>1691</v>
-      </c>
-      <c r="N27" s="33"/>
-      <c r="Q27" s="37" t="s">
-        <v>1692</v>
-      </c>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="33"/>
-      <c r="AE27" s="20" t="s">
-        <v>1693</v>
-      </c>
-      <c r="AK27" s="33"/>
-      <c r="AN27" s="18" t="s">
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="34"/>
+      <c r="AO31" s="28">
+        <v>988</v>
+      </c>
+      <c r="AP31" s="48"/>
+      <c r="AQ31" s="48"/>
+      <c r="AR31" s="48"/>
+      <c r="AS31" s="48"/>
+      <c r="AT31" s="48"/>
+      <c r="AU31" s="41"/>
+    </row>
+    <row r="32" ht="17.25" spans="13:87">
+      <c r="M32" s="28" t="s">
         <v>1694</v>
       </c>
-      <c r="AQ27" s="33"/>
-    </row>
-    <row r="28" ht="16.5" spans="12:43">
-      <c r="L28" s="29"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="35"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="33"/>
-      <c r="X28" s="27" t="s">
-        <v>1695</v>
-      </c>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="31"/>
-      <c r="AE28" s="18" t="s">
-        <v>1696</v>
-      </c>
-      <c r="AK28" s="33"/>
-      <c r="AN28" s="18" t="s">
-        <v>1697</v>
-      </c>
-      <c r="AQ28" s="33"/>
-    </row>
-    <row r="29" spans="17:43">
-      <c r="Q29" s="28"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="33"/>
-      <c r="X29" s="28"/>
-      <c r="AB29" s="33"/>
-      <c r="AE29" s="18">
-        <v>986</v>
-      </c>
-      <c r="AK29" s="33"/>
-      <c r="AN29" s="18" t="s">
-        <v>1698</v>
-      </c>
-      <c r="AQ29" s="33"/>
-    </row>
-    <row r="30" ht="16.5" spans="17:43">
-      <c r="Q30" s="37" t="s">
-        <v>1699</v>
-      </c>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="33"/>
-      <c r="X30" s="37" t="s">
-        <v>1700</v>
-      </c>
-      <c r="AB30" s="33"/>
-      <c r="AE30" s="20" t="s">
-        <v>1701</v>
-      </c>
-      <c r="AK30" s="33"/>
-      <c r="AN30" s="29"/>
-      <c r="AO30" s="34"/>
-      <c r="AP30" s="34"/>
-      <c r="AQ30" s="35"/>
-    </row>
-    <row r="31" spans="17:37">
-      <c r="Q31" s="28"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="33"/>
-      <c r="X31" s="28"/>
-      <c r="AB31" s="33"/>
-      <c r="AE31" s="18">
-        <v>988</v>
-      </c>
-      <c r="AK31" s="33"/>
-    </row>
-    <row r="32" ht="16.5" spans="17:37">
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
       <c r="Q32" s="29"/>
       <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="35"/>
-      <c r="X32" s="37" t="s">
+      <c r="AO32" s="30" t="s">
+        <v>1695</v>
+      </c>
+      <c r="AP32" s="48"/>
+      <c r="AQ32" s="48"/>
+      <c r="AR32" s="48"/>
+      <c r="AS32" s="48"/>
+      <c r="AT32" s="48"/>
+      <c r="AU32" s="41"/>
+      <c r="AX32" s="36" t="s">
+        <v>1649</v>
+      </c>
+      <c r="AY32" s="37"/>
+      <c r="AZ32" s="37"/>
+      <c r="BA32" s="38"/>
+      <c r="BD32" s="52"/>
+      <c r="BE32" s="53"/>
+      <c r="BF32" s="53"/>
+      <c r="BG32" s="53"/>
+      <c r="BH32" s="53"/>
+      <c r="BI32" s="53"/>
+      <c r="BJ32" s="53"/>
+      <c r="BK32" s="53"/>
+      <c r="BL32" s="53"/>
+      <c r="BM32" s="53"/>
+      <c r="BN32" s="53"/>
+      <c r="BO32" s="53"/>
+      <c r="BP32" s="53"/>
+      <c r="BQ32" s="53"/>
+      <c r="BR32" s="53"/>
+      <c r="BS32" s="53"/>
+      <c r="BT32" s="53"/>
+      <c r="BU32" s="74"/>
+      <c r="BV32" s="56"/>
+      <c r="CA32" s="79" t="s">
+        <v>1696</v>
+      </c>
+      <c r="CB32" s="53"/>
+      <c r="CC32" s="53"/>
+      <c r="CD32" s="53"/>
+      <c r="CE32" s="53"/>
+      <c r="CF32" s="53"/>
+      <c r="CG32" s="74"/>
+      <c r="CH32" s="53"/>
+      <c r="CI32" s="56"/>
+    </row>
+    <row r="33" spans="13:87">
+      <c r="M33" s="30" t="s">
+        <v>1697</v>
+      </c>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="34"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="38"/>
+      <c r="AO33" s="45" t="s">
+        <v>1698</v>
+      </c>
+      <c r="AP33" s="48"/>
+      <c r="AQ33" s="48"/>
+      <c r="AR33" s="48"/>
+      <c r="AS33" s="48"/>
+      <c r="AT33" s="48"/>
+      <c r="AU33" s="41"/>
+      <c r="AX33" s="39"/>
+      <c r="BA33" s="41"/>
+      <c r="BD33" s="54" t="s">
+        <v>1699</v>
+      </c>
+      <c r="BE33" s="48"/>
+      <c r="BF33" s="48"/>
+      <c r="BG33" s="48"/>
+      <c r="BH33" s="48"/>
+      <c r="BI33" s="48"/>
+      <c r="BJ33" s="48"/>
+      <c r="BK33" s="48"/>
+      <c r="BL33" s="48"/>
+      <c r="BM33" s="48"/>
+      <c r="BN33" s="48"/>
+      <c r="BO33" s="48"/>
+      <c r="BP33" s="48"/>
+      <c r="BQ33" s="48"/>
+      <c r="BR33" s="48"/>
+      <c r="BS33" s="48"/>
+      <c r="BT33" s="48"/>
+      <c r="BU33" s="75"/>
+      <c r="BV33" s="57"/>
+      <c r="CA33" s="55"/>
+      <c r="CB33" s="48"/>
+      <c r="CC33" s="48"/>
+      <c r="CD33" s="48"/>
+      <c r="CE33" s="48"/>
+      <c r="CF33" s="48"/>
+      <c r="CG33" s="75"/>
+      <c r="CH33" s="48"/>
+      <c r="CI33" s="57"/>
+    </row>
+    <row r="34" spans="13:87">
+      <c r="M34" s="30">
+        <v>8</v>
+      </c>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="34"/>
+      <c r="AA34" s="39" t="s">
+        <v>1649</v>
+      </c>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="41"/>
+      <c r="AO34" s="28">
+        <v>991</v>
+      </c>
+      <c r="AP34" s="48"/>
+      <c r="AQ34" s="48"/>
+      <c r="AR34" s="48"/>
+      <c r="AS34" s="48"/>
+      <c r="AT34" s="48"/>
+      <c r="AU34" s="41"/>
+      <c r="AX34" s="28" t="s">
+        <v>1700</v>
+      </c>
+      <c r="BA34" s="41"/>
+      <c r="BD34" s="54"/>
+      <c r="BE34" s="48"/>
+      <c r="BF34" s="48"/>
+      <c r="BG34" s="48"/>
+      <c r="BH34" s="48"/>
+      <c r="BI34" s="48"/>
+      <c r="BJ34" s="48"/>
+      <c r="BK34" s="48"/>
+      <c r="BL34" s="48"/>
+      <c r="BM34" s="48"/>
+      <c r="BN34" s="48"/>
+      <c r="BO34" s="48"/>
+      <c r="BP34" s="48"/>
+      <c r="BQ34" s="48"/>
+      <c r="BR34" s="48"/>
+      <c r="BS34" s="48"/>
+      <c r="BT34" s="48"/>
+      <c r="BU34" s="75"/>
+      <c r="BV34" s="57"/>
+      <c r="CA34" s="67" t="s">
+        <v>1701</v>
+      </c>
+      <c r="CB34" s="80"/>
+      <c r="CC34" s="48"/>
+      <c r="CD34" s="48"/>
+      <c r="CE34" s="48"/>
+      <c r="CF34" s="48"/>
+      <c r="CG34" s="75"/>
+      <c r="CH34" s="48"/>
+      <c r="CI34" s="57"/>
+    </row>
+    <row r="35" spans="13:87">
+      <c r="M35" s="28" t="s">
         <v>1702</v>
       </c>
-      <c r="AB32" s="33"/>
-      <c r="AE32" s="20" t="s">
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="34"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="20"/>
+      <c r="AE35" s="20"/>
+      <c r="AF35" s="41"/>
+      <c r="AO35" s="28" t="s">
         <v>1703</v>
       </c>
-      <c r="AK32" s="33"/>
-    </row>
-    <row r="33" spans="24:37">
-      <c r="X33" s="37" t="s">
+      <c r="AP35" s="48"/>
+      <c r="AQ35" s="48"/>
+      <c r="AR35" s="48"/>
+      <c r="AS35" s="48"/>
+      <c r="AT35" s="48"/>
+      <c r="AU35" s="41"/>
+      <c r="AX35" s="30" t="s">
         <v>1704</v>
       </c>
-      <c r="AB33" s="33"/>
-      <c r="AE33" s="18" t="s">
+      <c r="BA35" s="41"/>
+      <c r="BD35" s="55" t="s">
         <v>1705</v>
       </c>
-      <c r="AK33" s="33"/>
-    </row>
-    <row r="34" ht="16.5" spans="24:37">
-      <c r="X34" s="29"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="35"/>
-      <c r="AE34" s="18">
-        <v>991</v>
-      </c>
-      <c r="AK34" s="33"/>
-    </row>
-    <row r="35" spans="31:37">
-      <c r="AE35" s="18" t="s">
+      <c r="BE35" s="48"/>
+      <c r="BF35" s="48"/>
+      <c r="BG35" s="48"/>
+      <c r="BH35" s="48"/>
+      <c r="BI35" s="48"/>
+      <c r="BJ35" s="48"/>
+      <c r="BK35" s="48"/>
+      <c r="BL35" s="48"/>
+      <c r="BM35" s="48"/>
+      <c r="BN35" s="48"/>
+      <c r="BO35" s="48"/>
+      <c r="BP35" s="48"/>
+      <c r="BQ35" s="48"/>
+      <c r="BR35" s="48"/>
+      <c r="BS35" s="48"/>
+      <c r="BT35" s="48"/>
+      <c r="BU35" s="75"/>
+      <c r="BV35" s="57"/>
+      <c r="CA35" s="67" t="s">
         <v>1706</v>
       </c>
-      <c r="AK35" s="33"/>
-    </row>
-    <row r="36" spans="31:37">
-      <c r="AE36" s="20" t="s">
+      <c r="CB35" s="80"/>
+      <c r="CC35" s="48"/>
+      <c r="CD35" s="48"/>
+      <c r="CE35" s="48"/>
+      <c r="CF35" s="48"/>
+      <c r="CG35" s="75"/>
+      <c r="CH35" s="48"/>
+      <c r="CI35" s="57"/>
+    </row>
+    <row r="36" ht="21" spans="13:87">
+      <c r="M36" s="28" t="s">
         <v>1707</v>
       </c>
-      <c r="AK36" s="33"/>
-    </row>
-    <row r="37" ht="16.5" spans="31:37">
-      <c r="AE37" s="29"/>
-      <c r="AF37" s="34"/>
-      <c r="AG37" s="34"/>
-      <c r="AH37" s="34"/>
-      <c r="AI37" s="34"/>
-      <c r="AJ37" s="34"/>
-      <c r="AK37" s="35"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="34"/>
+      <c r="AA36" s="45" t="s">
+        <v>1708</v>
+      </c>
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="20"/>
+      <c r="AD36" s="20"/>
+      <c r="AE36" s="20"/>
+      <c r="AF36" s="41"/>
+      <c r="AO36" s="30" t="s">
+        <v>1709</v>
+      </c>
+      <c r="AP36" s="48"/>
+      <c r="AQ36" s="48"/>
+      <c r="AR36" s="48"/>
+      <c r="AS36" s="48"/>
+      <c r="AT36" s="48"/>
+      <c r="AU36" s="41"/>
+      <c r="AX36" s="65" t="s">
+        <v>1710</v>
+      </c>
+      <c r="BA36" s="41"/>
+      <c r="BD36" s="55">
+        <v>6</v>
+      </c>
+      <c r="BE36" s="48"/>
+      <c r="BF36" s="48"/>
+      <c r="BG36" s="48"/>
+      <c r="BH36" s="48"/>
+      <c r="BI36" s="48"/>
+      <c r="BJ36" s="48"/>
+      <c r="BK36" s="48"/>
+      <c r="BL36" s="48"/>
+      <c r="BM36" s="48"/>
+      <c r="BN36" s="48"/>
+      <c r="BO36" s="48"/>
+      <c r="BP36" s="48"/>
+      <c r="BQ36" s="48"/>
+      <c r="BR36" s="48"/>
+      <c r="BS36" s="48"/>
+      <c r="BT36" s="48"/>
+      <c r="BU36" s="75"/>
+      <c r="BV36" s="57"/>
+      <c r="CA36" s="81" t="s">
+        <v>1711</v>
+      </c>
+      <c r="CB36" s="48"/>
+      <c r="CC36" s="48"/>
+      <c r="CD36" s="48"/>
+      <c r="CE36" s="48"/>
+      <c r="CF36" s="48"/>
+      <c r="CG36" s="75"/>
+      <c r="CH36" s="48"/>
+      <c r="CI36" s="57"/>
+    </row>
+    <row r="37" spans="13:87">
+      <c r="M37" s="30" t="s">
+        <v>1712</v>
+      </c>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="34"/>
+      <c r="AA37" s="28" t="s">
+        <v>1713</v>
+      </c>
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="20"/>
+      <c r="AD37" s="20"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="41"/>
+      <c r="AO37" s="39"/>
+      <c r="AP37" s="20"/>
+      <c r="AQ37" s="20"/>
+      <c r="AR37" s="20"/>
+      <c r="AS37" s="20"/>
+      <c r="AT37" s="20"/>
+      <c r="AU37" s="41"/>
+      <c r="AV37"/>
+      <c r="AX37" s="28" t="s">
+        <v>1714</v>
+      </c>
+      <c r="BA37" s="41"/>
+      <c r="BD37" s="67" t="s">
+        <v>1715</v>
+      </c>
+      <c r="BE37" s="48"/>
+      <c r="BF37" s="48"/>
+      <c r="BG37" s="48"/>
+      <c r="BH37" s="48"/>
+      <c r="BI37" s="48"/>
+      <c r="BJ37" s="48"/>
+      <c r="BK37" s="48"/>
+      <c r="BL37" s="48"/>
+      <c r="BM37" s="48"/>
+      <c r="BN37" s="48"/>
+      <c r="BO37" s="48"/>
+      <c r="BP37" s="48"/>
+      <c r="BQ37" s="48"/>
+      <c r="BR37" s="48"/>
+      <c r="BS37" s="48"/>
+      <c r="BT37" s="48"/>
+      <c r="BU37" s="75"/>
+      <c r="BV37" s="57"/>
+      <c r="CA37" s="55">
+        <v>14</v>
+      </c>
+      <c r="CB37" s="48"/>
+      <c r="CC37" s="48"/>
+      <c r="CD37" s="48"/>
+      <c r="CE37" s="48"/>
+      <c r="CF37" s="48"/>
+      <c r="CG37" s="75"/>
+      <c r="CH37" s="48"/>
+      <c r="CI37" s="57"/>
+    </row>
+    <row r="38" ht="17.25" spans="13:87">
+      <c r="M38" s="28" t="s">
+        <v>1716</v>
+      </c>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="34"/>
+      <c r="AA38" s="28">
+        <v>254</v>
+      </c>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="41"/>
+      <c r="AO38" s="54"/>
+      <c r="AP38" s="48"/>
+      <c r="AQ38" s="48"/>
+      <c r="AR38" s="48"/>
+      <c r="AS38" s="48"/>
+      <c r="AT38" s="48"/>
+      <c r="AU38" s="57"/>
+      <c r="AX38" s="42"/>
+      <c r="AY38" s="43"/>
+      <c r="AZ38" s="43"/>
+      <c r="BA38" s="44"/>
+      <c r="BD38" s="67" t="s">
+        <v>1717</v>
+      </c>
+      <c r="BE38" s="48"/>
+      <c r="BF38" s="48"/>
+      <c r="BG38" s="48"/>
+      <c r="BH38" s="48"/>
+      <c r="BI38" s="48"/>
+      <c r="BJ38" s="48"/>
+      <c r="BK38" s="48"/>
+      <c r="BL38" s="48"/>
+      <c r="BM38" s="48"/>
+      <c r="BN38" s="48"/>
+      <c r="BO38" s="48"/>
+      <c r="BP38" s="48"/>
+      <c r="BQ38" s="48"/>
+      <c r="BR38" s="48"/>
+      <c r="BS38" s="48"/>
+      <c r="BT38" s="48"/>
+      <c r="BU38" s="75"/>
+      <c r="BV38" s="57"/>
+      <c r="CA38" s="55" t="s">
+        <v>1718</v>
+      </c>
+      <c r="CB38" s="48"/>
+      <c r="CC38" s="48"/>
+      <c r="CD38" s="48"/>
+      <c r="CE38" s="48"/>
+      <c r="CF38" s="48"/>
+      <c r="CG38" s="75"/>
+      <c r="CH38" s="48"/>
+      <c r="CI38" s="57"/>
+    </row>
+    <row r="39" ht="21" spans="13:87">
+      <c r="M39" s="30" t="s">
+        <v>1719</v>
+      </c>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="34"/>
+      <c r="AA39" s="28" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="20"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="41"/>
+      <c r="AO39" s="54" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AP39" s="48"/>
+      <c r="AQ39" s="48"/>
+      <c r="AR39" s="48"/>
+      <c r="AS39" s="48"/>
+      <c r="AT39" s="48"/>
+      <c r="AU39" s="57"/>
+      <c r="BD39" s="54"/>
+      <c r="BE39" s="48"/>
+      <c r="BF39" s="48"/>
+      <c r="BG39" s="48"/>
+      <c r="BH39" s="48"/>
+      <c r="BI39" s="48"/>
+      <c r="BJ39" s="48"/>
+      <c r="BK39" s="48"/>
+      <c r="BL39" s="48"/>
+      <c r="BM39" s="48"/>
+      <c r="BN39" s="48"/>
+      <c r="BO39" s="48"/>
+      <c r="BP39" s="48"/>
+      <c r="BQ39" s="48"/>
+      <c r="BR39" s="48"/>
+      <c r="BS39" s="48"/>
+      <c r="BT39" s="48"/>
+      <c r="BU39" s="75"/>
+      <c r="BV39" s="57"/>
+      <c r="CA39" s="81" t="s">
+        <v>1722</v>
+      </c>
+      <c r="CB39" s="48"/>
+      <c r="CC39" s="48"/>
+      <c r="CD39" s="48"/>
+      <c r="CE39" s="48"/>
+      <c r="CF39" s="48"/>
+      <c r="CG39" s="75"/>
+      <c r="CH39" s="48"/>
+      <c r="CI39" s="57"/>
+    </row>
+    <row r="40" spans="13:87">
+      <c r="M40" s="28" t="s">
+        <v>1723</v>
+      </c>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="34"/>
+      <c r="AA40" s="28" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="41"/>
+      <c r="AO40" s="54" t="s">
+        <v>1725</v>
+      </c>
+      <c r="AP40" s="48"/>
+      <c r="AQ40" s="48"/>
+      <c r="AR40" s="48"/>
+      <c r="AS40" s="48"/>
+      <c r="AT40" s="48"/>
+      <c r="AU40" s="57"/>
+      <c r="BD40" s="55" t="s">
+        <v>1726</v>
+      </c>
+      <c r="BE40" s="48"/>
+      <c r="BF40" s="48"/>
+      <c r="BG40" s="48"/>
+      <c r="BH40" s="48"/>
+      <c r="BI40" s="48"/>
+      <c r="BJ40" s="48"/>
+      <c r="BK40" s="48"/>
+      <c r="BL40" s="48"/>
+      <c r="BM40" s="48"/>
+      <c r="BN40" s="48"/>
+      <c r="BO40" s="48"/>
+      <c r="BP40" s="48"/>
+      <c r="BQ40" s="48"/>
+      <c r="BR40" s="48"/>
+      <c r="BS40" s="48"/>
+      <c r="BT40" s="48"/>
+      <c r="BU40" s="75"/>
+      <c r="BV40" s="57"/>
+      <c r="CA40" s="82"/>
+      <c r="CB40" s="83" t="s">
+        <v>1727</v>
+      </c>
+      <c r="CC40" s="72"/>
+      <c r="CD40" s="72"/>
+      <c r="CE40" s="72"/>
+      <c r="CF40" s="72"/>
+      <c r="CG40" s="76"/>
+      <c r="CH40" s="48"/>
+      <c r="CI40" s="57"/>
+    </row>
+    <row r="41" spans="13:87">
+      <c r="M41" s="28" t="s">
+        <v>1728</v>
+      </c>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="34"/>
+      <c r="AA41" s="30" t="s">
+        <v>1729</v>
+      </c>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="20"/>
+      <c r="AE41" s="20"/>
+      <c r="AF41" s="41"/>
+      <c r="AO41" s="49" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AP41" s="60"/>
+      <c r="AQ41" s="60"/>
+      <c r="AR41" s="60"/>
+      <c r="AS41" s="60"/>
+      <c r="AT41" s="60"/>
+      <c r="AU41" s="57"/>
+      <c r="BD41" s="55" t="s">
+        <v>1731</v>
+      </c>
+      <c r="BE41" s="48"/>
+      <c r="BF41" s="48"/>
+      <c r="BG41" s="48"/>
+      <c r="BH41" s="48"/>
+      <c r="BI41" s="48"/>
+      <c r="BJ41" s="48"/>
+      <c r="BK41" s="48"/>
+      <c r="BL41" s="48"/>
+      <c r="BM41" s="48"/>
+      <c r="BN41" s="48"/>
+      <c r="BO41" s="48"/>
+      <c r="BP41" s="48"/>
+      <c r="BQ41" s="48"/>
+      <c r="BR41" s="48"/>
+      <c r="BS41" s="48"/>
+      <c r="BT41" s="48"/>
+      <c r="BU41" s="75"/>
+      <c r="BV41" s="57"/>
+      <c r="CA41" s="54" t="s">
+        <v>1732</v>
+      </c>
+      <c r="CB41" s="48"/>
+      <c r="CC41" s="48"/>
+      <c r="CD41" s="48"/>
+      <c r="CE41" s="48"/>
+      <c r="CF41" s="48"/>
+      <c r="CG41" s="48"/>
+      <c r="CH41" s="48"/>
+      <c r="CI41" s="57"/>
+    </row>
+    <row r="42" spans="13:87">
+      <c r="M42" s="28" t="s">
+        <v>1733</v>
+      </c>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="34"/>
+      <c r="AA42" s="39"/>
+      <c r="AB42" s="20"/>
+      <c r="AC42" s="20"/>
+      <c r="AD42" s="20"/>
+      <c r="AE42" s="20"/>
+      <c r="AF42" s="41"/>
+      <c r="AO42" s="49" t="s">
+        <v>1734</v>
+      </c>
+      <c r="AP42" s="60"/>
+      <c r="AQ42" s="60"/>
+      <c r="AR42" s="60"/>
+      <c r="AS42" s="60"/>
+      <c r="AT42" s="60"/>
+      <c r="AU42" s="57"/>
+      <c r="BD42" s="55">
+        <v>35</v>
+      </c>
+      <c r="BE42" s="48"/>
+      <c r="BF42" s="48"/>
+      <c r="BG42" s="48"/>
+      <c r="BH42" s="48"/>
+      <c r="BI42" s="48"/>
+      <c r="BJ42" s="48"/>
+      <c r="BK42" s="48"/>
+      <c r="BL42" s="48"/>
+      <c r="BM42" s="48"/>
+      <c r="BN42" s="48"/>
+      <c r="BO42" s="48"/>
+      <c r="BP42" s="48"/>
+      <c r="BQ42" s="48"/>
+      <c r="BR42" s="48"/>
+      <c r="BS42" s="48"/>
+      <c r="BT42" s="48"/>
+      <c r="BU42" s="75"/>
+      <c r="BV42" s="57"/>
+      <c r="CA42" s="54" t="s">
+        <v>1735</v>
+      </c>
+      <c r="CB42" s="48"/>
+      <c r="CC42" s="48"/>
+      <c r="CD42" s="48"/>
+      <c r="CE42" s="48"/>
+      <c r="CF42" s="48"/>
+      <c r="CG42" s="48"/>
+      <c r="CH42" s="48"/>
+      <c r="CI42" s="57"/>
+    </row>
+    <row r="43" spans="13:87">
+      <c r="M43" s="28" t="s">
+        <v>1736</v>
+      </c>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="34"/>
+      <c r="AA43" s="39"/>
+      <c r="AB43" s="20"/>
+      <c r="AC43" s="20"/>
+      <c r="AD43" s="20"/>
+      <c r="AE43" s="20"/>
+      <c r="AF43" s="41"/>
+      <c r="AO43" s="54"/>
+      <c r="AP43" s="48"/>
+      <c r="AQ43" s="48"/>
+      <c r="AR43" s="48"/>
+      <c r="AS43" s="48"/>
+      <c r="AT43" s="48"/>
+      <c r="AU43" s="57"/>
+      <c r="BD43" s="55" t="s">
+        <v>1737</v>
+      </c>
+      <c r="BE43" s="48"/>
+      <c r="BF43" s="48"/>
+      <c r="BG43" s="48"/>
+      <c r="BH43" s="48"/>
+      <c r="BI43" s="48"/>
+      <c r="BJ43" s="48"/>
+      <c r="BK43" s="48"/>
+      <c r="BL43" s="48"/>
+      <c r="BM43" s="48"/>
+      <c r="BN43" s="48"/>
+      <c r="BO43" s="48"/>
+      <c r="BP43" s="48"/>
+      <c r="BQ43" s="48"/>
+      <c r="BR43" s="48"/>
+      <c r="BS43" s="48"/>
+      <c r="BT43" s="48"/>
+      <c r="BU43" s="75"/>
+      <c r="BV43" s="57"/>
+      <c r="CA43" s="54" t="s">
+        <v>1738</v>
+      </c>
+      <c r="CB43" s="48"/>
+      <c r="CC43" s="48"/>
+      <c r="CD43" s="48"/>
+      <c r="CE43" s="48"/>
+      <c r="CF43" s="48"/>
+      <c r="CG43" s="48"/>
+      <c r="CH43" s="48"/>
+      <c r="CI43" s="57"/>
+    </row>
+    <row r="44" ht="16.5" spans="13:87">
+      <c r="M44" s="28" t="s">
+        <v>1739</v>
+      </c>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="34"/>
+      <c r="AA44" s="39"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="20"/>
+      <c r="AD44" s="20"/>
+      <c r="AE44" s="20"/>
+      <c r="AF44" s="41"/>
+      <c r="AO44" s="50"/>
+      <c r="AP44" s="51"/>
+      <c r="AQ44" s="51"/>
+      <c r="AR44" s="51"/>
+      <c r="AS44" s="51"/>
+      <c r="AT44" s="51"/>
+      <c r="AU44" s="58"/>
+      <c r="BD44" s="55">
+        <v>37</v>
+      </c>
+      <c r="BE44" s="48"/>
+      <c r="BF44" s="48"/>
+      <c r="BG44" s="48"/>
+      <c r="BH44" s="48"/>
+      <c r="BI44" s="48"/>
+      <c r="BJ44" s="48"/>
+      <c r="BK44" s="48"/>
+      <c r="BL44" s="48"/>
+      <c r="BM44" s="48"/>
+      <c r="BN44" s="48"/>
+      <c r="BO44" s="48"/>
+      <c r="BP44" s="48"/>
+      <c r="BQ44" s="48"/>
+      <c r="BR44" s="48"/>
+      <c r="BS44" s="48"/>
+      <c r="BT44" s="48"/>
+      <c r="BU44" s="75"/>
+      <c r="BV44" s="57"/>
+      <c r="CA44" s="54" t="s">
+        <v>1740</v>
+      </c>
+      <c r="CB44" s="48"/>
+      <c r="CC44" s="48"/>
+      <c r="CD44" s="48"/>
+      <c r="CE44" s="48"/>
+      <c r="CF44" s="48"/>
+      <c r="CG44" s="48"/>
+      <c r="CH44" s="48"/>
+      <c r="CI44" s="57"/>
+    </row>
+    <row r="45" ht="16.5" spans="13:87">
+      <c r="M45" s="31" t="s">
+        <v>1741</v>
+      </c>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="35"/>
+      <c r="AA45" s="39" t="s">
+        <v>1742</v>
+      </c>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="20"/>
+      <c r="AD45" s="20"/>
+      <c r="AE45" s="20"/>
+      <c r="AF45" s="41"/>
+      <c r="BD45" s="55" t="s">
+        <v>1743</v>
+      </c>
+      <c r="BE45" s="48"/>
+      <c r="BF45" s="48"/>
+      <c r="BG45" s="48"/>
+      <c r="BH45" s="48"/>
+      <c r="BI45" s="48"/>
+      <c r="BJ45" s="48"/>
+      <c r="BK45" s="48"/>
+      <c r="BL45" s="48"/>
+      <c r="BM45" s="48"/>
+      <c r="BN45" s="48"/>
+      <c r="BO45" s="48"/>
+      <c r="BP45" s="48"/>
+      <c r="BQ45" s="48"/>
+      <c r="BR45" s="48"/>
+      <c r="BS45" s="48"/>
+      <c r="BT45" s="48"/>
+      <c r="BU45" s="75"/>
+      <c r="BV45" s="57"/>
+      <c r="CA45" s="54" t="s">
+        <v>1744</v>
+      </c>
+      <c r="CB45" s="48"/>
+      <c r="CC45" s="48"/>
+      <c r="CD45" s="48"/>
+      <c r="CE45" s="48"/>
+      <c r="CF45" s="48"/>
+      <c r="CG45" s="48"/>
+      <c r="CH45" s="48"/>
+      <c r="CI45" s="57"/>
+    </row>
+    <row r="46" ht="16.5" spans="22:87">
+      <c r="V46" s="36"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="38"/>
+      <c r="AA46" s="39" t="s">
+        <v>1745</v>
+      </c>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="20"/>
+      <c r="AD46" s="20"/>
+      <c r="AE46" s="20"/>
+      <c r="AF46" s="41"/>
+      <c r="BD46" s="55" t="s">
+        <v>1746</v>
+      </c>
+      <c r="BE46" s="48"/>
+      <c r="BF46" s="48"/>
+      <c r="BG46" s="48"/>
+      <c r="BH46" s="48"/>
+      <c r="BI46" s="48"/>
+      <c r="BJ46" s="48"/>
+      <c r="BK46" s="48"/>
+      <c r="BL46" s="48"/>
+      <c r="BM46" s="48"/>
+      <c r="BN46" s="48"/>
+      <c r="BO46" s="48"/>
+      <c r="BP46" s="48"/>
+      <c r="BQ46" s="48"/>
+      <c r="BR46" s="48"/>
+      <c r="BS46" s="48"/>
+      <c r="BT46" s="48"/>
+      <c r="BU46" s="75"/>
+      <c r="BV46" s="57"/>
+      <c r="CA46" s="54" t="s">
+        <v>1747</v>
+      </c>
+      <c r="CB46" s="48"/>
+      <c r="CC46" s="48"/>
+      <c r="CD46" s="48"/>
+      <c r="CE46" s="48"/>
+      <c r="CF46" s="48"/>
+      <c r="CG46" s="48"/>
+      <c r="CH46" s="48"/>
+      <c r="CI46" s="57"/>
+    </row>
+    <row r="47" ht="16.5" spans="22:87">
+      <c r="V47" s="39"/>
+      <c r="W47" s="40" t="s">
+        <v>1748</v>
+      </c>
+      <c r="X47" s="41"/>
+      <c r="AA47" s="46" t="s">
+        <v>1749</v>
+      </c>
+      <c r="AB47" s="20"/>
+      <c r="AC47" s="20"/>
+      <c r="AD47" s="20"/>
+      <c r="AE47" s="20"/>
+      <c r="AF47" s="41"/>
+      <c r="AO47" s="36" t="s">
+        <v>1649</v>
+      </c>
+      <c r="AP47" s="3"/>
+      <c r="AQ47" s="3"/>
+      <c r="AR47" s="3"/>
+      <c r="AS47" s="3"/>
+      <c r="AT47" s="3"/>
+      <c r="AU47" s="8"/>
+      <c r="BD47" s="55">
+        <v>40</v>
+      </c>
+      <c r="BE47" s="48"/>
+      <c r="BF47" s="48"/>
+      <c r="BG47" s="48"/>
+      <c r="BH47" s="48"/>
+      <c r="BI47" s="48"/>
+      <c r="BJ47" s="48"/>
+      <c r="BK47" s="48"/>
+      <c r="BL47" s="48"/>
+      <c r="BM47" s="48"/>
+      <c r="BN47" s="48"/>
+      <c r="BO47" s="48"/>
+      <c r="BP47" s="48"/>
+      <c r="BQ47" s="48"/>
+      <c r="BR47" s="48"/>
+      <c r="BS47" s="48"/>
+      <c r="BT47" s="48"/>
+      <c r="BU47" s="75"/>
+      <c r="BV47" s="57"/>
+      <c r="CA47" s="54"/>
+      <c r="CB47" s="48"/>
+      <c r="CC47" s="48"/>
+      <c r="CD47" s="48"/>
+      <c r="CE47" s="48"/>
+      <c r="CF47" s="48"/>
+      <c r="CG47" s="48"/>
+      <c r="CH47" s="48"/>
+      <c r="CI47" s="57"/>
+    </row>
+    <row r="48" ht="16.5" spans="22:87">
+      <c r="V48" s="42"/>
+      <c r="W48" s="43"/>
+      <c r="X48" s="44"/>
+      <c r="AA48" s="39"/>
+      <c r="AB48" s="20"/>
+      <c r="AC48" s="20"/>
+      <c r="AD48" s="20"/>
+      <c r="AE48" s="20"/>
+      <c r="AF48" s="41"/>
+      <c r="AH48" s="36" t="s">
+        <v>1750</v>
+      </c>
+      <c r="AI48" s="37"/>
+      <c r="AJ48" s="37"/>
+      <c r="AK48" s="37"/>
+      <c r="AL48" s="37"/>
+      <c r="AM48" s="56"/>
+      <c r="AO48" s="5" t="s">
+        <v>1751</v>
+      </c>
+      <c r="AU48" s="9"/>
+      <c r="BD48" s="55" t="s">
+        <v>1752</v>
+      </c>
+      <c r="BE48" s="48"/>
+      <c r="BF48" s="48"/>
+      <c r="BG48" s="48"/>
+      <c r="BH48" s="48"/>
+      <c r="BI48" s="48"/>
+      <c r="BJ48" s="48"/>
+      <c r="BK48" s="48"/>
+      <c r="BL48" s="48"/>
+      <c r="BM48" s="48"/>
+      <c r="BN48" s="48"/>
+      <c r="BO48" s="48"/>
+      <c r="BP48" s="48"/>
+      <c r="BQ48" s="48"/>
+      <c r="BR48" s="48"/>
+      <c r="BS48" s="48"/>
+      <c r="BT48" s="48"/>
+      <c r="BU48" s="75"/>
+      <c r="BV48" s="57"/>
+      <c r="CA48" s="50"/>
+      <c r="CB48" s="51"/>
+      <c r="CC48" s="51"/>
+      <c r="CD48" s="51"/>
+      <c r="CE48" s="51"/>
+      <c r="CF48" s="51"/>
+      <c r="CG48" s="51"/>
+      <c r="CH48" s="51"/>
+      <c r="CI48" s="58"/>
+    </row>
+    <row r="49" spans="27:74">
+      <c r="AA49" s="39"/>
+      <c r="AB49" s="20"/>
+      <c r="AC49" s="20"/>
+      <c r="AD49" s="20"/>
+      <c r="AE49" s="20"/>
+      <c r="AF49" s="41"/>
+      <c r="AH49" s="39"/>
+      <c r="AI49" s="48"/>
+      <c r="AJ49" s="48"/>
+      <c r="AK49" s="48"/>
+      <c r="AL49" s="20"/>
+      <c r="AM49" s="57"/>
+      <c r="AO49" s="5" t="s">
+        <v>1753</v>
+      </c>
+      <c r="AU49" s="9"/>
+      <c r="BD49" s="68" t="s">
+        <v>1754</v>
+      </c>
+      <c r="BE49" s="48"/>
+      <c r="BF49" s="48"/>
+      <c r="BG49" s="48"/>
+      <c r="BH49" s="48"/>
+      <c r="BI49" s="48"/>
+      <c r="BJ49" s="48"/>
+      <c r="BK49" s="48"/>
+      <c r="BL49" s="48"/>
+      <c r="BM49" s="48"/>
+      <c r="BN49" s="48"/>
+      <c r="BO49" s="48"/>
+      <c r="BP49" s="48"/>
+      <c r="BQ49" s="48"/>
+      <c r="BR49" s="48"/>
+      <c r="BS49" s="48"/>
+      <c r="BT49" s="48"/>
+      <c r="BU49" s="75"/>
+      <c r="BV49" s="57"/>
+    </row>
+    <row r="50" ht="16.5" spans="27:74">
+      <c r="AA50" s="46" t="s">
+        <v>1755</v>
+      </c>
+      <c r="AB50" s="20"/>
+      <c r="AC50" s="20"/>
+      <c r="AD50" s="20"/>
+      <c r="AE50" s="20"/>
+      <c r="AF50" s="41"/>
+      <c r="AH50" s="46" t="s">
+        <v>1756</v>
+      </c>
+      <c r="AI50" s="48"/>
+      <c r="AJ50" s="48"/>
+      <c r="AK50" s="48"/>
+      <c r="AL50" s="20"/>
+      <c r="AM50" s="57"/>
+      <c r="AO50" s="5" t="s">
+        <v>1757</v>
+      </c>
+      <c r="AU50" s="9"/>
+      <c r="BD50" s="68" t="s">
+        <v>1758</v>
+      </c>
+      <c r="BE50" s="48"/>
+      <c r="BF50" s="48"/>
+      <c r="BG50" s="48"/>
+      <c r="BH50" s="48"/>
+      <c r="BI50" s="48"/>
+      <c r="BJ50" s="48"/>
+      <c r="BK50" s="48"/>
+      <c r="BL50" s="48"/>
+      <c r="BM50" s="48"/>
+      <c r="BN50" s="48"/>
+      <c r="BO50" s="48"/>
+      <c r="BP50" s="48"/>
+      <c r="BQ50" s="48"/>
+      <c r="BR50" s="48"/>
+      <c r="BS50" s="48"/>
+      <c r="BT50" s="48"/>
+      <c r="BU50" s="75"/>
+      <c r="BV50" s="57"/>
+    </row>
+    <row r="51" spans="27:74">
+      <c r="AA51" s="39"/>
+      <c r="AB51" s="20"/>
+      <c r="AC51" s="20"/>
+      <c r="AD51" s="20"/>
+      <c r="AE51" s="20"/>
+      <c r="AF51" s="41"/>
+      <c r="AH51" s="39"/>
+      <c r="AI51" s="48"/>
+      <c r="AJ51" s="48"/>
+      <c r="AK51" s="48"/>
+      <c r="AL51" s="20"/>
+      <c r="AM51" s="57"/>
+      <c r="AO51" s="5" t="s">
+        <v>1759</v>
+      </c>
+      <c r="AU51" s="9"/>
+      <c r="BD51" s="68" t="s">
+        <v>1760</v>
+      </c>
+      <c r="BE51" s="48"/>
+      <c r="BF51" s="48"/>
+      <c r="BG51" s="48"/>
+      <c r="BH51" s="48"/>
+      <c r="BI51" s="48"/>
+      <c r="BJ51" s="48"/>
+      <c r="BK51" s="48"/>
+      <c r="BL51" s="48"/>
+      <c r="BM51" s="48"/>
+      <c r="BN51" s="48"/>
+      <c r="BO51" s="48"/>
+      <c r="BP51" s="48"/>
+      <c r="BQ51" s="48"/>
+      <c r="BR51" s="48"/>
+      <c r="BS51" s="48"/>
+      <c r="BT51" s="48"/>
+      <c r="BU51" s="75"/>
+      <c r="BV51" s="57"/>
+    </row>
+    <row r="52" ht="16.5" spans="27:74">
+      <c r="AA52" s="42"/>
+      <c r="AB52" s="43"/>
+      <c r="AC52" s="43"/>
+      <c r="AD52" s="43"/>
+      <c r="AE52" s="43"/>
+      <c r="AF52" s="44"/>
+      <c r="AH52" s="46" t="s">
+        <v>1761</v>
+      </c>
+      <c r="AI52" s="48"/>
+      <c r="AJ52" s="48"/>
+      <c r="AK52" s="48"/>
+      <c r="AL52" s="20"/>
+      <c r="AM52" s="57"/>
+      <c r="AO52" s="61" t="s">
+        <v>1762</v>
+      </c>
+      <c r="AU52" s="9"/>
+      <c r="BD52" s="54"/>
+      <c r="BE52" s="48"/>
+      <c r="BF52" s="48"/>
+      <c r="BG52" s="48"/>
+      <c r="BH52" s="48"/>
+      <c r="BI52" s="48"/>
+      <c r="BJ52" s="48"/>
+      <c r="BK52" s="48"/>
+      <c r="BL52" s="48"/>
+      <c r="BM52" s="48"/>
+      <c r="BN52" s="48"/>
+      <c r="BO52" s="48"/>
+      <c r="BP52" s="48"/>
+      <c r="BQ52" s="48"/>
+      <c r="BR52" s="48"/>
+      <c r="BS52" s="48"/>
+      <c r="BT52" s="48"/>
+      <c r="BU52" s="75"/>
+      <c r="BV52" s="57"/>
+    </row>
+    <row r="53" ht="16.5" spans="34:74">
+      <c r="AH53" s="46" t="s">
+        <v>1763</v>
+      </c>
+      <c r="AI53" s="48"/>
+      <c r="AJ53" s="48"/>
+      <c r="AK53" s="48"/>
+      <c r="AL53" s="20"/>
+      <c r="AM53" s="57"/>
+      <c r="AO53" s="61" t="s">
+        <v>1764</v>
+      </c>
+      <c r="AU53" s="9"/>
+      <c r="BD53" s="54" t="s">
+        <v>1765</v>
+      </c>
+      <c r="BE53" s="48"/>
+      <c r="BF53" s="48"/>
+      <c r="BG53" s="48"/>
+      <c r="BH53" s="48"/>
+      <c r="BI53" s="48"/>
+      <c r="BJ53" s="48"/>
+      <c r="BK53" s="48"/>
+      <c r="BL53" s="48"/>
+      <c r="BM53" s="48"/>
+      <c r="BN53" s="48"/>
+      <c r="BO53" s="48"/>
+      <c r="BP53" s="48"/>
+      <c r="BQ53" s="48"/>
+      <c r="BR53" s="48"/>
+      <c r="BS53" s="48"/>
+      <c r="BT53" s="48"/>
+      <c r="BU53" s="75"/>
+      <c r="BV53" s="57"/>
+    </row>
+    <row r="54" spans="34:89">
+      <c r="AH54" s="39"/>
+      <c r="AI54" s="20"/>
+      <c r="AJ54" s="20"/>
+      <c r="AK54" s="20"/>
+      <c r="AL54" s="20"/>
+      <c r="AM54" s="57"/>
+      <c r="AO54" s="5" t="s">
+        <v>1766</v>
+      </c>
+      <c r="AU54" s="9"/>
+      <c r="BD54" s="69" t="s">
+        <v>1767</v>
+      </c>
+      <c r="BE54" s="72"/>
+      <c r="BF54" s="72"/>
+      <c r="BG54" s="72"/>
+      <c r="BH54" s="72"/>
+      <c r="BI54" s="72"/>
+      <c r="BJ54" s="72"/>
+      <c r="BK54" s="72"/>
+      <c r="BL54" s="72"/>
+      <c r="BM54" s="72"/>
+      <c r="BN54" s="72"/>
+      <c r="BO54" s="48"/>
+      <c r="BP54" s="48"/>
+      <c r="BQ54" s="48"/>
+      <c r="BR54" s="48"/>
+      <c r="BS54" s="48"/>
+      <c r="BT54" s="48"/>
+      <c r="BU54" s="75"/>
+      <c r="BV54" s="57"/>
+      <c r="CA54" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="CB54" s="3"/>
+      <c r="CC54" s="3"/>
+      <c r="CD54" s="3"/>
+      <c r="CE54" s="3"/>
+      <c r="CF54" s="3"/>
+      <c r="CG54" s="3"/>
+      <c r="CH54" s="3"/>
+      <c r="CI54" s="3"/>
+      <c r="CJ54" s="3"/>
+      <c r="CK54" s="8"/>
+    </row>
+    <row r="55" spans="34:89">
+      <c r="AH55" s="49" t="s">
+        <v>1769</v>
+      </c>
+      <c r="AI55" s="48"/>
+      <c r="AJ55" s="48"/>
+      <c r="AK55" s="48"/>
+      <c r="AL55" s="48"/>
+      <c r="AM55" s="57"/>
+      <c r="AO55" s="5"/>
+      <c r="AU55" s="9"/>
+      <c r="BD55" s="70" t="s">
+        <v>1770</v>
+      </c>
+      <c r="BE55" s="48"/>
+      <c r="BF55" s="48"/>
+      <c r="BG55" s="48"/>
+      <c r="BH55" s="48"/>
+      <c r="BI55" s="48"/>
+      <c r="BJ55" s="48"/>
+      <c r="BK55" s="48"/>
+      <c r="BL55" s="48"/>
+      <c r="BM55" s="48"/>
+      <c r="BN55" s="48"/>
+      <c r="BO55" s="48"/>
+      <c r="BP55" s="48"/>
+      <c r="BQ55" s="48"/>
+      <c r="BR55" s="48"/>
+      <c r="BS55" s="48"/>
+      <c r="BT55" s="48"/>
+      <c r="BU55" s="75"/>
+      <c r="BV55" s="57"/>
+      <c r="CA55" s="5"/>
+      <c r="CK55" s="9"/>
+    </row>
+    <row r="56" ht="17.25" spans="34:89">
+      <c r="AH56" s="50"/>
+      <c r="AI56" s="51"/>
+      <c r="AJ56" s="51"/>
+      <c r="AK56" s="51"/>
+      <c r="AL56" s="51"/>
+      <c r="AM56" s="58"/>
+      <c r="AO56" s="6"/>
+      <c r="AP56" s="7"/>
+      <c r="AQ56" s="7"/>
+      <c r="AR56" s="7"/>
+      <c r="AS56" s="7"/>
+      <c r="AT56" s="7"/>
+      <c r="AU56" s="10"/>
+      <c r="BD56" s="54" t="s">
+        <v>1771</v>
+      </c>
+      <c r="BE56" s="48"/>
+      <c r="BF56" s="48"/>
+      <c r="BG56" s="48"/>
+      <c r="BH56" s="48"/>
+      <c r="BI56" s="48"/>
+      <c r="BJ56" s="48"/>
+      <c r="BK56" s="48"/>
+      <c r="BL56" s="48"/>
+      <c r="BM56" s="48"/>
+      <c r="BN56" s="48"/>
+      <c r="BO56" s="48"/>
+      <c r="BP56" s="48"/>
+      <c r="BQ56" s="48"/>
+      <c r="BR56" s="48"/>
+      <c r="BS56" s="48"/>
+      <c r="BT56" s="48"/>
+      <c r="BU56" s="75"/>
+      <c r="BV56" s="57"/>
+      <c r="CA56" s="84" t="s">
+        <v>1772</v>
+      </c>
+      <c r="CK56" s="9"/>
+    </row>
+    <row r="57" spans="56:89">
+      <c r="BD57" s="71"/>
+      <c r="BE57" s="48"/>
+      <c r="BF57" s="48"/>
+      <c r="BG57" s="48"/>
+      <c r="BH57" s="48"/>
+      <c r="BI57" s="48"/>
+      <c r="BJ57" s="48"/>
+      <c r="BK57" s="48"/>
+      <c r="BL57" s="48"/>
+      <c r="BM57" s="48"/>
+      <c r="BN57" s="48"/>
+      <c r="BO57" s="48"/>
+      <c r="BP57" s="48"/>
+      <c r="BQ57" s="48"/>
+      <c r="BR57" s="48"/>
+      <c r="BS57" s="48"/>
+      <c r="BT57" s="48"/>
+      <c r="BU57" s="75"/>
+      <c r="BV57" s="57"/>
+      <c r="CA57" s="4">
+        <v>24</v>
+      </c>
+      <c r="CK57" s="9"/>
+    </row>
+    <row r="58" spans="56:89">
+      <c r="BD58" s="71" t="s">
+        <v>1773</v>
+      </c>
+      <c r="BE58" s="48"/>
+      <c r="BF58" s="48"/>
+      <c r="BG58" s="48"/>
+      <c r="BH58" s="48"/>
+      <c r="BI58" s="48"/>
+      <c r="BJ58" s="48"/>
+      <c r="BK58" s="73" t="s">
+        <v>1774</v>
+      </c>
+      <c r="BL58" s="48"/>
+      <c r="BM58" s="48"/>
+      <c r="BN58" s="48"/>
+      <c r="BO58" s="72"/>
+      <c r="BP58" s="72"/>
+      <c r="BQ58" s="72"/>
+      <c r="BR58" s="72"/>
+      <c r="BS58" s="72"/>
+      <c r="BT58" s="72"/>
+      <c r="BU58" s="76"/>
+      <c r="BV58" s="77"/>
+      <c r="CA58" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="CK58" s="9"/>
+    </row>
+    <row r="59" spans="56:89">
+      <c r="BD59" s="54" t="s">
+        <v>1776</v>
+      </c>
+      <c r="BE59" s="48"/>
+      <c r="BF59" s="48"/>
+      <c r="BG59" s="48"/>
+      <c r="BH59" s="48"/>
+      <c r="BI59" s="48"/>
+      <c r="BJ59" s="48"/>
+      <c r="BK59" s="48"/>
+      <c r="BL59" s="48"/>
+      <c r="BM59" s="48"/>
+      <c r="BN59" s="48"/>
+      <c r="BO59" s="48"/>
+      <c r="BP59" s="48"/>
+      <c r="BQ59" s="48"/>
+      <c r="BR59" s="48"/>
+      <c r="BS59" s="48"/>
+      <c r="BT59" s="48"/>
+      <c r="BU59" s="75"/>
+      <c r="BV59" s="57"/>
+      <c r="CA59" s="4" t="s">
+        <v>1777</v>
+      </c>
+      <c r="CK59" s="9"/>
+    </row>
+    <row r="60" ht="16.5" spans="56:89">
+      <c r="BD60" s="71" t="s">
+        <v>1778</v>
+      </c>
+      <c r="BE60" s="48"/>
+      <c r="BF60" s="48"/>
+      <c r="BG60" s="48"/>
+      <c r="BH60" s="48"/>
+      <c r="BI60" s="48"/>
+      <c r="BJ60" s="48"/>
+      <c r="BK60" s="48"/>
+      <c r="BL60" s="48"/>
+      <c r="BM60" s="48"/>
+      <c r="BN60" s="48"/>
+      <c r="BO60" s="48"/>
+      <c r="BP60" s="48"/>
+      <c r="BQ60" s="48"/>
+      <c r="BR60" s="48"/>
+      <c r="BS60" s="48"/>
+      <c r="BT60" s="48"/>
+      <c r="BU60" s="75"/>
+      <c r="BV60" s="57"/>
+      <c r="CA60" s="4" t="s">
+        <v>1779</v>
+      </c>
+      <c r="CF60" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="CK60" s="9"/>
+    </row>
+    <row r="61" spans="34:89">
+      <c r="AH61" s="52"/>
+      <c r="AI61" s="53"/>
+      <c r="AJ61" s="53"/>
+      <c r="AK61" s="53"/>
+      <c r="AL61" s="53"/>
+      <c r="AM61" s="53"/>
+      <c r="AN61" s="53"/>
+      <c r="AO61" s="53"/>
+      <c r="AP61" s="53"/>
+      <c r="AQ61" s="53"/>
+      <c r="AR61" s="53"/>
+      <c r="AS61" s="53"/>
+      <c r="AT61" s="53"/>
+      <c r="AU61" s="53"/>
+      <c r="AV61" s="53"/>
+      <c r="AW61" s="53"/>
+      <c r="AX61" s="53"/>
+      <c r="AY61" s="56"/>
+      <c r="BD61" s="54" t="s">
+        <v>1781</v>
+      </c>
+      <c r="BE61" s="48"/>
+      <c r="BF61" s="48"/>
+      <c r="BG61" s="48"/>
+      <c r="BH61" s="48"/>
+      <c r="BI61" s="48"/>
+      <c r="BJ61" s="48"/>
+      <c r="BK61" s="48"/>
+      <c r="BL61" s="48"/>
+      <c r="BM61" s="48"/>
+      <c r="BN61" s="48"/>
+      <c r="BO61" s="72"/>
+      <c r="BP61" s="72"/>
+      <c r="BQ61" s="72"/>
+      <c r="BR61" s="72"/>
+      <c r="BS61" s="72"/>
+      <c r="BT61" s="72"/>
+      <c r="BU61" s="76"/>
+      <c r="BV61" s="57"/>
+      <c r="CA61" s="4" t="s">
+        <v>1782</v>
+      </c>
+      <c r="CK61" s="9"/>
+    </row>
+    <row r="62" spans="34:89">
+      <c r="AH62" s="54" t="s">
+        <v>1699</v>
+      </c>
+      <c r="AI62" s="48"/>
+      <c r="AJ62" s="48"/>
+      <c r="AK62" s="48"/>
+      <c r="AL62" s="48"/>
+      <c r="AM62" s="48"/>
+      <c r="AN62" s="48"/>
+      <c r="AO62" s="48"/>
+      <c r="AP62" s="48"/>
+      <c r="AQ62" s="48"/>
+      <c r="AR62" s="48"/>
+      <c r="AS62" s="48"/>
+      <c r="AT62" s="48"/>
+      <c r="AU62" s="48"/>
+      <c r="AV62" s="48"/>
+      <c r="AW62" s="48"/>
+      <c r="AX62" s="48"/>
+      <c r="AY62" s="57"/>
+      <c r="BD62" s="54" t="s">
+        <v>1783</v>
+      </c>
+      <c r="BE62" s="48"/>
+      <c r="BF62" s="48"/>
+      <c r="BG62" s="48"/>
+      <c r="BH62" s="48"/>
+      <c r="BI62" s="48"/>
+      <c r="BJ62" s="48"/>
+      <c r="BK62" s="48"/>
+      <c r="BL62" s="48"/>
+      <c r="BM62" s="48"/>
+      <c r="BN62" s="48"/>
+      <c r="BO62" s="48"/>
+      <c r="BP62" s="48"/>
+      <c r="BQ62" s="48"/>
+      <c r="BR62" s="48"/>
+      <c r="BS62" s="48"/>
+      <c r="BT62" s="48"/>
+      <c r="BU62" s="75"/>
+      <c r="BV62" s="57"/>
+      <c r="CA62" s="4">
+        <v>29</v>
+      </c>
+      <c r="CK62" s="9"/>
+    </row>
+    <row r="63" ht="16.5" spans="34:89">
+      <c r="AH63" s="54"/>
+      <c r="AI63" s="48"/>
+      <c r="AJ63" s="48"/>
+      <c r="AK63" s="48"/>
+      <c r="AL63" s="48"/>
+      <c r="AM63" s="48"/>
+      <c r="AN63" s="48"/>
+      <c r="AO63" s="48"/>
+      <c r="AP63" s="48"/>
+      <c r="AQ63" s="48"/>
+      <c r="AR63" s="48"/>
+      <c r="AS63" s="48"/>
+      <c r="AT63" s="48"/>
+      <c r="AU63" s="48"/>
+      <c r="AV63" s="48"/>
+      <c r="AW63" s="48"/>
+      <c r="AX63" s="48"/>
+      <c r="AY63" s="57"/>
+      <c r="BD63" s="50"/>
+      <c r="BE63" s="51"/>
+      <c r="BF63" s="51"/>
+      <c r="BG63" s="51"/>
+      <c r="BH63" s="51"/>
+      <c r="BI63" s="51"/>
+      <c r="BJ63" s="51"/>
+      <c r="BK63" s="51"/>
+      <c r="BL63" s="51"/>
+      <c r="BM63" s="51"/>
+      <c r="BN63" s="51"/>
+      <c r="BO63" s="51"/>
+      <c r="BP63" s="51"/>
+      <c r="BQ63" s="51"/>
+      <c r="BR63" s="51"/>
+      <c r="BS63" s="51"/>
+      <c r="BT63" s="51"/>
+      <c r="BU63" s="78"/>
+      <c r="BV63" s="58"/>
+      <c r="CA63" s="4" t="s">
+        <v>1784</v>
+      </c>
+      <c r="CK63" s="9"/>
+    </row>
+    <row r="64" spans="34:89">
+      <c r="AH64" s="55" t="s">
+        <v>1705</v>
+      </c>
+      <c r="AI64" s="48"/>
+      <c r="AJ64" s="48"/>
+      <c r="AK64" s="48"/>
+      <c r="AL64" s="48"/>
+      <c r="AM64" s="48"/>
+      <c r="AN64" s="48"/>
+      <c r="AO64" s="48"/>
+      <c r="AP64" s="48"/>
+      <c r="AQ64" s="48"/>
+      <c r="AR64" s="48"/>
+      <c r="AS64" s="48"/>
+      <c r="AT64" s="48"/>
+      <c r="AU64" s="48"/>
+      <c r="AV64" s="48"/>
+      <c r="AW64" s="48"/>
+      <c r="AX64" s="48"/>
+      <c r="AY64" s="57"/>
+      <c r="BO64" s="48"/>
+      <c r="BP64" s="48"/>
+      <c r="BQ64" s="48"/>
+      <c r="BR64" s="48"/>
+      <c r="BS64" s="48"/>
+      <c r="BT64" s="48"/>
+      <c r="BU64" s="75"/>
+      <c r="CA64" s="4" t="s">
+        <v>1785</v>
+      </c>
+      <c r="CF64" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="CK64" s="9"/>
+    </row>
+    <row r="65" spans="34:89">
+      <c r="AH65" s="55">
+        <v>6</v>
+      </c>
+      <c r="AI65" s="48"/>
+      <c r="AJ65" s="48"/>
+      <c r="AK65" s="48"/>
+      <c r="AL65" s="48"/>
+      <c r="AM65" s="48"/>
+      <c r="AN65" s="48"/>
+      <c r="AO65" s="48"/>
+      <c r="AP65" s="48"/>
+      <c r="AQ65" s="48"/>
+      <c r="AR65" s="48"/>
+      <c r="AS65" s="48"/>
+      <c r="AT65" s="48"/>
+      <c r="AU65" s="48"/>
+      <c r="AV65" s="48"/>
+      <c r="AW65" s="48"/>
+      <c r="AX65" s="48"/>
+      <c r="AY65" s="57"/>
+      <c r="BO65" s="72"/>
+      <c r="BP65" s="72"/>
+      <c r="BQ65" s="72"/>
+      <c r="BR65" s="72"/>
+      <c r="BS65" s="72"/>
+      <c r="BT65" s="72"/>
+      <c r="BU65" s="76"/>
+      <c r="CA65" s="4" t="s">
+        <v>1787</v>
+      </c>
+      <c r="CK65" s="9"/>
+    </row>
+    <row r="66" spans="34:89">
+      <c r="AH66" s="67" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AI66" s="48"/>
+      <c r="AJ66" s="48"/>
+      <c r="AK66" s="48"/>
+      <c r="AL66" s="48"/>
+      <c r="AM66" s="48"/>
+      <c r="AN66" s="48"/>
+      <c r="AO66" s="48"/>
+      <c r="AP66" s="48"/>
+      <c r="AQ66" s="48"/>
+      <c r="AR66" s="48"/>
+      <c r="AS66" s="48"/>
+      <c r="AT66" s="48"/>
+      <c r="AU66" s="48"/>
+      <c r="AV66" s="48"/>
+      <c r="AW66" s="48"/>
+      <c r="AX66" s="48"/>
+      <c r="AY66" s="57"/>
+      <c r="CA66" s="4">
+        <v>33</v>
+      </c>
+      <c r="CK66" s="9"/>
+    </row>
+    <row r="67" ht="16.5" spans="34:89">
+      <c r="AH67" s="67" t="s">
+        <v>1717</v>
+      </c>
+      <c r="AI67" s="48"/>
+      <c r="AJ67" s="48"/>
+      <c r="AK67" s="48"/>
+      <c r="AL67" s="48"/>
+      <c r="AM67" s="48"/>
+      <c r="AN67" s="48"/>
+      <c r="AO67" s="48"/>
+      <c r="AP67" s="48"/>
+      <c r="AQ67" s="48"/>
+      <c r="AR67" s="48"/>
+      <c r="AS67" s="48"/>
+      <c r="AT67" s="48"/>
+      <c r="AU67" s="48"/>
+      <c r="AV67" s="48"/>
+      <c r="AW67" s="48"/>
+      <c r="AX67" s="48"/>
+      <c r="AY67" s="57"/>
+      <c r="CA67" s="4" t="s">
+        <v>1788</v>
+      </c>
+      <c r="CK67" s="9"/>
+    </row>
+    <row r="68" spans="34:89">
+      <c r="AH68" s="54"/>
+      <c r="AI68" s="48"/>
+      <c r="AJ68" s="48"/>
+      <c r="AK68" s="48"/>
+      <c r="AL68" s="48"/>
+      <c r="AM68" s="48"/>
+      <c r="AN68" s="48"/>
+      <c r="AO68" s="48"/>
+      <c r="AP68" s="48"/>
+      <c r="AQ68" s="48"/>
+      <c r="AR68" s="48"/>
+      <c r="AS68" s="48"/>
+      <c r="AT68" s="48"/>
+      <c r="AU68" s="48"/>
+      <c r="AV68" s="48"/>
+      <c r="AW68" s="48"/>
+      <c r="AX68" s="48"/>
+      <c r="AY68" s="57"/>
+      <c r="CA68" s="4" t="s">
+        <v>1789</v>
+      </c>
+      <c r="CG68" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="CK68" s="9"/>
+    </row>
+    <row r="69" spans="34:89">
+      <c r="AH69" s="55" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AI69" s="48"/>
+      <c r="AJ69" s="48"/>
+      <c r="AK69" s="48"/>
+      <c r="AL69" s="48"/>
+      <c r="AM69" s="48"/>
+      <c r="AN69" s="48"/>
+      <c r="AO69" s="48"/>
+      <c r="AP69" s="48"/>
+      <c r="AQ69" s="48"/>
+      <c r="AR69" s="48"/>
+      <c r="AS69" s="48"/>
+      <c r="AT69" s="48"/>
+      <c r="AU69" s="48"/>
+      <c r="AV69" s="48"/>
+      <c r="AW69" s="48"/>
+      <c r="AX69" s="48"/>
+      <c r="AY69" s="57"/>
+      <c r="CA69" s="4">
+        <v>36</v>
+      </c>
+      <c r="CK69" s="9"/>
+    </row>
+    <row r="70" spans="34:89">
+      <c r="AH70" s="55" t="s">
+        <v>1731</v>
+      </c>
+      <c r="AI70" s="48"/>
+      <c r="AJ70" s="48"/>
+      <c r="AK70" s="48"/>
+      <c r="AL70" s="48"/>
+      <c r="AM70" s="48"/>
+      <c r="AN70" s="48"/>
+      <c r="AO70" s="48"/>
+      <c r="AP70" s="48"/>
+      <c r="AQ70" s="48"/>
+      <c r="AR70" s="48"/>
+      <c r="AS70" s="48"/>
+      <c r="AT70" s="48"/>
+      <c r="AU70" s="48"/>
+      <c r="AV70" s="48"/>
+      <c r="AW70" s="48"/>
+      <c r="AX70" s="48"/>
+      <c r="AY70" s="57"/>
+      <c r="CA70" s="4" t="s">
+        <v>1791</v>
+      </c>
+      <c r="CK70" s="9"/>
+    </row>
+    <row r="71" spans="34:89">
+      <c r="AH71" s="55">
+        <v>35</v>
+      </c>
+      <c r="AI71" s="48"/>
+      <c r="AJ71" s="48"/>
+      <c r="AK71" s="48"/>
+      <c r="AL71" s="48"/>
+      <c r="AM71" s="48"/>
+      <c r="AN71" s="48"/>
+      <c r="AO71" s="48"/>
+      <c r="AP71" s="48"/>
+      <c r="AQ71" s="48"/>
+      <c r="AR71" s="48"/>
+      <c r="AS71" s="48"/>
+      <c r="AT71" s="48"/>
+      <c r="AU71" s="48"/>
+      <c r="AV71" s="48"/>
+      <c r="AW71" s="48"/>
+      <c r="AX71" s="48"/>
+      <c r="AY71" s="57"/>
+      <c r="CA71" s="4" t="s">
+        <v>1792</v>
+      </c>
+      <c r="CK71" s="9"/>
+    </row>
+    <row r="72" spans="34:89">
+      <c r="AH72" s="55" t="s">
+        <v>1737</v>
+      </c>
+      <c r="AI72" s="48"/>
+      <c r="AJ72" s="48"/>
+      <c r="AK72" s="48"/>
+      <c r="AL72" s="48"/>
+      <c r="AM72" s="48"/>
+      <c r="AN72" s="48"/>
+      <c r="AO72" s="48"/>
+      <c r="AP72" s="48"/>
+      <c r="AQ72" s="48"/>
+      <c r="AR72" s="48"/>
+      <c r="AS72" s="48"/>
+      <c r="AT72" s="48"/>
+      <c r="AU72" s="48"/>
+      <c r="AV72" s="48"/>
+      <c r="AW72" s="48"/>
+      <c r="AX72" s="48"/>
+      <c r="AY72" s="57"/>
+      <c r="CA72" s="4" t="s">
+        <v>1793</v>
+      </c>
+      <c r="CK72" s="9"/>
+    </row>
+    <row r="73" spans="34:89">
+      <c r="AH73" s="55">
+        <v>37</v>
+      </c>
+      <c r="AI73" s="48"/>
+      <c r="AJ73" s="48"/>
+      <c r="AK73" s="48"/>
+      <c r="AL73" s="48"/>
+      <c r="AM73" s="48"/>
+      <c r="AN73" s="48"/>
+      <c r="AO73" s="48"/>
+      <c r="AP73" s="48"/>
+      <c r="AQ73" s="48"/>
+      <c r="AR73" s="48"/>
+      <c r="AS73" s="48"/>
+      <c r="AT73" s="48"/>
+      <c r="AU73" s="48"/>
+      <c r="AV73" s="48"/>
+      <c r="AW73" s="48"/>
+      <c r="AX73" s="48"/>
+      <c r="AY73" s="57"/>
+      <c r="CA73" s="4" t="s">
+        <v>1794</v>
+      </c>
+      <c r="CH73" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="CK73" s="9"/>
+    </row>
+    <row r="74" spans="34:89">
+      <c r="AH74" s="55" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AI74" s="48"/>
+      <c r="AJ74" s="48"/>
+      <c r="AK74" s="48"/>
+      <c r="AL74" s="48"/>
+      <c r="AM74" s="48"/>
+      <c r="AN74" s="48"/>
+      <c r="AO74" s="48"/>
+      <c r="AP74" s="48"/>
+      <c r="AQ74" s="48"/>
+      <c r="AR74" s="48"/>
+      <c r="AS74" s="48"/>
+      <c r="AT74" s="48"/>
+      <c r="AU74" s="48"/>
+      <c r="AV74" s="48"/>
+      <c r="AW74" s="48"/>
+      <c r="AX74" s="48"/>
+      <c r="AY74" s="57"/>
+      <c r="CA74" s="4">
+        <v>41</v>
+      </c>
+      <c r="CK74" s="9"/>
+    </row>
+    <row r="75" spans="34:89">
+      <c r="AH75" s="55" t="s">
+        <v>1746</v>
+      </c>
+      <c r="AI75" s="48"/>
+      <c r="AJ75" s="48"/>
+      <c r="AK75" s="48"/>
+      <c r="AL75" s="48"/>
+      <c r="AM75" s="48"/>
+      <c r="AN75" s="48"/>
+      <c r="AO75" s="48"/>
+      <c r="AP75" s="48"/>
+      <c r="AQ75" s="48"/>
+      <c r="AR75" s="48"/>
+      <c r="AS75" s="48"/>
+      <c r="AT75" s="48"/>
+      <c r="AU75" s="48"/>
+      <c r="AV75" s="48"/>
+      <c r="AW75" s="48"/>
+      <c r="AX75" s="48"/>
+      <c r="AY75" s="57"/>
+      <c r="CA75" s="4" t="s">
+        <v>1796</v>
+      </c>
+      <c r="CK75" s="9"/>
+    </row>
+    <row r="76" spans="34:89">
+      <c r="AH76" s="55">
+        <v>40</v>
+      </c>
+      <c r="AI76" s="48"/>
+      <c r="AJ76" s="48"/>
+      <c r="AK76" s="48"/>
+      <c r="AL76" s="48"/>
+      <c r="AM76" s="48"/>
+      <c r="AN76" s="48"/>
+      <c r="AO76" s="48"/>
+      <c r="AP76" s="48"/>
+      <c r="AQ76" s="48"/>
+      <c r="AR76" s="48"/>
+      <c r="AS76" s="48"/>
+      <c r="AT76" s="48"/>
+      <c r="AU76" s="48"/>
+      <c r="AV76" s="48"/>
+      <c r="AW76" s="48"/>
+      <c r="AX76" s="48"/>
+      <c r="AY76" s="57"/>
+      <c r="CA76" s="4" t="s">
+        <v>1797</v>
+      </c>
+      <c r="CH76" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="CK76" s="9"/>
+    </row>
+    <row r="77" spans="34:89">
+      <c r="AH77" s="55" t="s">
+        <v>1752</v>
+      </c>
+      <c r="AI77" s="48"/>
+      <c r="AJ77" s="48"/>
+      <c r="AK77" s="48"/>
+      <c r="AL77" s="48"/>
+      <c r="AM77" s="48"/>
+      <c r="AN77" s="48"/>
+      <c r="AO77" s="48"/>
+      <c r="AP77" s="48"/>
+      <c r="AQ77" s="48"/>
+      <c r="AR77" s="48"/>
+      <c r="AS77" s="48"/>
+      <c r="AT77" s="48"/>
+      <c r="AU77" s="48"/>
+      <c r="AV77" s="48"/>
+      <c r="AW77" s="48"/>
+      <c r="AX77" s="48"/>
+      <c r="AY77" s="57"/>
+      <c r="CA77" s="4">
+        <v>44</v>
+      </c>
+      <c r="CK77" s="9"/>
+    </row>
+    <row r="78" ht="16.5" spans="34:89">
+      <c r="AH78" s="68" t="s">
+        <v>1799</v>
+      </c>
+      <c r="AI78" s="48"/>
+      <c r="AJ78" s="48"/>
+      <c r="AK78" s="48"/>
+      <c r="AL78" s="48"/>
+      <c r="AM78" s="48"/>
+      <c r="AN78" s="48"/>
+      <c r="AO78" s="48"/>
+      <c r="AP78" s="48"/>
+      <c r="AQ78" s="48"/>
+      <c r="AR78" s="48"/>
+      <c r="AS78" s="48"/>
+      <c r="AT78" s="48"/>
+      <c r="AU78" s="48"/>
+      <c r="AV78" s="48"/>
+      <c r="AW78" s="48"/>
+      <c r="AX78" s="48"/>
+      <c r="AY78" s="57"/>
+      <c r="CA78" s="4" t="s">
+        <v>1800</v>
+      </c>
+      <c r="CK78" s="9"/>
+    </row>
+    <row r="79" ht="16.5" spans="34:89">
+      <c r="AH79" s="68" t="s">
+        <v>1801</v>
+      </c>
+      <c r="AI79" s="48"/>
+      <c r="AJ79" s="48"/>
+      <c r="AK79" s="48"/>
+      <c r="AL79" s="48"/>
+      <c r="AM79" s="48"/>
+      <c r="AN79" s="48"/>
+      <c r="AO79" s="48"/>
+      <c r="AP79" s="48"/>
+      <c r="AQ79" s="48"/>
+      <c r="AR79" s="48"/>
+      <c r="AS79" s="48"/>
+      <c r="AT79" s="48"/>
+      <c r="AU79" s="48"/>
+      <c r="AV79" s="48"/>
+      <c r="AW79" s="48"/>
+      <c r="AX79" s="48"/>
+      <c r="AY79" s="57"/>
+      <c r="CA79" s="4" t="s">
+        <v>1802</v>
+      </c>
+      <c r="CK79" s="9"/>
+    </row>
+    <row r="80" spans="34:89">
+      <c r="AH80" s="68" t="s">
+        <v>1803</v>
+      </c>
+      <c r="AI80" s="48"/>
+      <c r="AJ80" s="48"/>
+      <c r="AK80" s="48"/>
+      <c r="AL80" s="48"/>
+      <c r="AM80" s="48"/>
+      <c r="AN80" s="48"/>
+      <c r="AO80" s="48"/>
+      <c r="AP80" s="48"/>
+      <c r="AQ80" s="48"/>
+      <c r="AR80" s="48"/>
+      <c r="AS80" s="48"/>
+      <c r="AT80" s="48"/>
+      <c r="AU80" s="48"/>
+      <c r="AV80" s="48"/>
+      <c r="AW80" s="48"/>
+      <c r="AX80" s="48"/>
+      <c r="AY80" s="57"/>
+      <c r="CA80" s="4" t="s">
+        <v>1804</v>
+      </c>
+      <c r="CK80" s="9"/>
+    </row>
+    <row r="81" spans="34:89">
+      <c r="AH81" s="54"/>
+      <c r="AI81" s="48"/>
+      <c r="AJ81" s="48"/>
+      <c r="AK81" s="48"/>
+      <c r="AL81" s="48"/>
+      <c r="AM81" s="48"/>
+      <c r="AN81" s="48"/>
+      <c r="AO81" s="48"/>
+      <c r="AP81" s="48"/>
+      <c r="AQ81" s="48"/>
+      <c r="AR81" s="48"/>
+      <c r="AS81" s="48"/>
+      <c r="AT81" s="48"/>
+      <c r="AU81" s="48"/>
+      <c r="AV81" s="48"/>
+      <c r="AW81" s="48"/>
+      <c r="AX81" s="48"/>
+      <c r="AY81" s="57"/>
+      <c r="CA81" s="85" t="s">
+        <v>1805</v>
+      </c>
+      <c r="CH81" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="CK81" s="9"/>
+    </row>
+    <row r="82" spans="34:89">
+      <c r="AH82" s="71" t="s">
+        <v>1773</v>
+      </c>
+      <c r="AI82" s="48"/>
+      <c r="AJ82" s="48"/>
+      <c r="AK82" s="48"/>
+      <c r="AL82" s="48"/>
+      <c r="AM82" s="48"/>
+      <c r="AN82" s="48"/>
+      <c r="AO82" s="73" t="s">
+        <v>1774</v>
+      </c>
+      <c r="AP82" s="48"/>
+      <c r="AQ82" s="48"/>
+      <c r="AR82" s="48"/>
+      <c r="AS82" s="48"/>
+      <c r="AT82" s="48"/>
+      <c r="AU82" s="48"/>
+      <c r="AV82" s="48"/>
+      <c r="AW82" s="48"/>
+      <c r="AX82" s="48"/>
+      <c r="AY82" s="57"/>
+      <c r="CA82" s="4">
+        <v>49</v>
+      </c>
+      <c r="CK82" s="9"/>
+    </row>
+    <row r="83" spans="34:89">
+      <c r="AH83" s="54" t="s">
+        <v>1776</v>
+      </c>
+      <c r="AI83" s="48"/>
+      <c r="AJ83" s="48"/>
+      <c r="AK83" s="48"/>
+      <c r="AL83" s="48"/>
+      <c r="AM83" s="48"/>
+      <c r="AN83" s="48"/>
+      <c r="AO83" s="48"/>
+      <c r="AP83" s="48"/>
+      <c r="AQ83" s="48"/>
+      <c r="AR83" s="48"/>
+      <c r="AS83" s="48"/>
+      <c r="AT83" s="48"/>
+      <c r="AU83" s="48"/>
+      <c r="AV83" s="48"/>
+      <c r="AW83" s="48"/>
+      <c r="AX83" s="48"/>
+      <c r="AY83" s="57"/>
+      <c r="CA83" s="85" t="s">
+        <v>1807</v>
+      </c>
+      <c r="CH83" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="CK83" s="9"/>
+    </row>
+    <row r="84" spans="34:89">
+      <c r="AH84" s="54" t="s">
+        <v>1809</v>
+      </c>
+      <c r="AI84" s="48"/>
+      <c r="AJ84" s="48"/>
+      <c r="AK84" s="48"/>
+      <c r="AL84" s="48"/>
+      <c r="AM84" s="48"/>
+      <c r="AN84" s="48"/>
+      <c r="AO84" s="48"/>
+      <c r="AP84" s="48"/>
+      <c r="AQ84" s="48"/>
+      <c r="AR84" s="48"/>
+      <c r="AS84" s="48"/>
+      <c r="AT84" s="48"/>
+      <c r="AU84" s="48"/>
+      <c r="AV84" s="48"/>
+      <c r="AW84" s="48"/>
+      <c r="AX84" s="48"/>
+      <c r="AY84" s="57"/>
+      <c r="CA84" s="5"/>
+      <c r="CK84" s="9"/>
+    </row>
+    <row r="85" spans="34:89">
+      <c r="AH85" s="54" t="s">
+        <v>1781</v>
+      </c>
+      <c r="AI85" s="48"/>
+      <c r="AJ85" s="48"/>
+      <c r="AK85" s="48"/>
+      <c r="AL85" s="48"/>
+      <c r="AM85" s="48"/>
+      <c r="AN85" s="48"/>
+      <c r="AO85" s="48"/>
+      <c r="AP85" s="48"/>
+      <c r="AQ85" s="48"/>
+      <c r="AR85" s="48"/>
+      <c r="AS85" s="48"/>
+      <c r="AT85" s="48"/>
+      <c r="AU85" s="48"/>
+      <c r="AV85" s="48"/>
+      <c r="AW85" s="48"/>
+      <c r="AX85" s="48"/>
+      <c r="AY85" s="57"/>
+      <c r="CA85" s="4" t="s">
+        <v>1810</v>
+      </c>
+      <c r="CK85" s="9"/>
+    </row>
+    <row r="86" spans="34:89">
+      <c r="AH86" s="54" t="s">
+        <v>1783</v>
+      </c>
+      <c r="AI86" s="48"/>
+      <c r="AJ86" s="48"/>
+      <c r="AK86" s="48"/>
+      <c r="AL86" s="48"/>
+      <c r="AM86" s="48"/>
+      <c r="AN86" s="48"/>
+      <c r="AO86" s="48"/>
+      <c r="AP86" s="48"/>
+      <c r="AQ86" s="48"/>
+      <c r="AR86" s="48"/>
+      <c r="AS86" s="48"/>
+      <c r="AT86" s="48"/>
+      <c r="AU86" s="48"/>
+      <c r="AV86" s="48"/>
+      <c r="AW86" s="48"/>
+      <c r="AX86" s="48"/>
+      <c r="AY86" s="57"/>
+      <c r="CA86" s="4" t="s">
+        <v>1811</v>
+      </c>
+      <c r="CK86" s="9"/>
+    </row>
+    <row r="87" spans="34:89">
+      <c r="AH87" s="82"/>
+      <c r="AI87" s="72"/>
+      <c r="AJ87" s="72"/>
+      <c r="AK87" s="72"/>
+      <c r="AL87" s="72"/>
+      <c r="AM87" s="72"/>
+      <c r="AN87" s="72"/>
+      <c r="AO87" s="72"/>
+      <c r="AP87" s="72"/>
+      <c r="AQ87" s="72"/>
+      <c r="AR87" s="72"/>
+      <c r="AS87" s="72"/>
+      <c r="AT87" s="72"/>
+      <c r="AU87" s="72"/>
+      <c r="AV87" s="72"/>
+      <c r="AW87" s="72"/>
+      <c r="AX87" s="72"/>
+      <c r="AY87" s="77"/>
+      <c r="CA87" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="CK87" s="9"/>
+    </row>
+    <row r="88" spans="34:89">
+      <c r="AH88" s="54" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AI88" s="48"/>
+      <c r="AJ88" s="48"/>
+      <c r="AK88" s="48"/>
+      <c r="AL88" s="48"/>
+      <c r="AM88" s="48"/>
+      <c r="AN88" s="48"/>
+      <c r="AO88" s="48"/>
+      <c r="AP88" s="48"/>
+      <c r="AQ88" s="48"/>
+      <c r="AR88" s="48"/>
+      <c r="AS88" s="48"/>
+      <c r="AT88" s="48"/>
+      <c r="AU88" s="48"/>
+      <c r="AV88" s="48"/>
+      <c r="AW88" s="48"/>
+      <c r="AX88" s="48"/>
+      <c r="AY88" s="57"/>
+      <c r="CA88" s="4" t="s">
+        <v>1814</v>
+      </c>
+      <c r="CK88" s="9"/>
+    </row>
+    <row r="89" spans="34:89">
+      <c r="AH89" s="54"/>
+      <c r="AI89" s="48"/>
+      <c r="AJ89" s="48"/>
+      <c r="AK89" s="48"/>
+      <c r="AL89" s="48"/>
+      <c r="AM89" s="48"/>
+      <c r="AN89" s="48"/>
+      <c r="AO89" s="48"/>
+      <c r="AP89" s="48"/>
+      <c r="AQ89" s="48"/>
+      <c r="AR89" s="48"/>
+      <c r="AS89" s="48"/>
+      <c r="AT89" s="48"/>
+      <c r="AU89" s="48"/>
+      <c r="AV89" s="48"/>
+      <c r="AW89" s="48"/>
+      <c r="AX89" s="48"/>
+      <c r="AY89" s="57"/>
+      <c r="CA89" s="4" t="s">
+        <v>1815</v>
+      </c>
+      <c r="CK89" s="9"/>
+    </row>
+    <row r="90" spans="34:89">
+      <c r="AH90" s="82" t="s">
+        <v>1816</v>
+      </c>
+      <c r="AI90" s="72"/>
+      <c r="AJ90" s="72"/>
+      <c r="AK90" s="72"/>
+      <c r="AL90" s="72"/>
+      <c r="AM90" s="72"/>
+      <c r="AN90" s="72"/>
+      <c r="AO90" s="72"/>
+      <c r="AP90" s="72"/>
+      <c r="AQ90" s="72"/>
+      <c r="AR90" s="72"/>
+      <c r="AS90" s="72"/>
+      <c r="AT90" s="72"/>
+      <c r="AU90" s="72"/>
+      <c r="AV90" s="72"/>
+      <c r="AW90" s="72"/>
+      <c r="AX90" s="72"/>
+      <c r="AY90" s="77"/>
+      <c r="CA90" s="4" t="s">
+        <v>1817</v>
+      </c>
+      <c r="CK90" s="9"/>
+    </row>
+    <row r="91" spans="34:89">
+      <c r="AH91" s="54" t="s">
+        <v>1818</v>
+      </c>
+      <c r="AI91" s="48"/>
+      <c r="AJ91" s="48"/>
+      <c r="AK91" s="48"/>
+      <c r="AL91" s="48"/>
+      <c r="AM91" s="48"/>
+      <c r="AN91" s="48"/>
+      <c r="AO91" s="48"/>
+      <c r="AP91" s="48"/>
+      <c r="AQ91" s="48"/>
+      <c r="AR91" s="48"/>
+      <c r="AS91" s="48"/>
+      <c r="AT91" s="48"/>
+      <c r="AU91" s="48"/>
+      <c r="AV91" s="48"/>
+      <c r="AW91" s="48"/>
+      <c r="AX91" s="48"/>
+      <c r="AY91" s="57"/>
+      <c r="CA91" s="4" t="s">
+        <v>1819</v>
+      </c>
+      <c r="CK91" s="9"/>
+    </row>
+    <row r="92" spans="34:89">
+      <c r="AH92" s="54" t="s">
+        <v>1820</v>
+      </c>
+      <c r="AI92" s="48"/>
+      <c r="AJ92" s="48"/>
+      <c r="AK92" s="48"/>
+      <c r="AL92" s="48"/>
+      <c r="AM92" s="48"/>
+      <c r="AN92" s="48"/>
+      <c r="AO92" s="48"/>
+      <c r="AP92" s="48"/>
+      <c r="AQ92" s="48"/>
+      <c r="AR92" s="48"/>
+      <c r="AS92" s="48"/>
+      <c r="AT92" s="48"/>
+      <c r="AU92" s="48"/>
+      <c r="AV92" s="48"/>
+      <c r="AW92" s="48"/>
+      <c r="AX92" s="48"/>
+      <c r="AY92" s="57"/>
+      <c r="CA92" s="4">
+        <v>59</v>
+      </c>
+      <c r="CK92" s="9"/>
+    </row>
+    <row r="93" spans="34:89">
+      <c r="AH93" s="71" t="s">
+        <v>1821</v>
+      </c>
+      <c r="AI93" s="48"/>
+      <c r="AJ93" s="48"/>
+      <c r="AK93" s="48"/>
+      <c r="AL93" s="48"/>
+      <c r="AM93" s="48"/>
+      <c r="AN93" s="48"/>
+      <c r="AO93" s="48"/>
+      <c r="AP93" s="48"/>
+      <c r="AQ93" s="48"/>
+      <c r="AR93" s="48"/>
+      <c r="AS93" s="48"/>
+      <c r="AT93" s="48"/>
+      <c r="AU93" s="48"/>
+      <c r="AV93" s="48"/>
+      <c r="AW93" s="48"/>
+      <c r="AX93" s="48"/>
+      <c r="AY93" s="57"/>
+      <c r="CA93" s="4" t="s">
+        <v>1822</v>
+      </c>
+      <c r="CK93" s="9"/>
+    </row>
+    <row r="94" ht="16.5" spans="34:89">
+      <c r="AH94" s="50"/>
+      <c r="AI94" s="51"/>
+      <c r="AJ94" s="51"/>
+      <c r="AK94" s="51"/>
+      <c r="AL94" s="51"/>
+      <c r="AM94" s="51"/>
+      <c r="AN94" s="51"/>
+      <c r="AO94" s="51"/>
+      <c r="AP94" s="51"/>
+      <c r="AQ94" s="51"/>
+      <c r="AR94" s="51"/>
+      <c r="AS94" s="51"/>
+      <c r="AT94" s="51"/>
+      <c r="AU94" s="51"/>
+      <c r="AV94" s="51"/>
+      <c r="AW94" s="51"/>
+      <c r="AX94" s="51"/>
+      <c r="AY94" s="58"/>
+      <c r="CA94" s="4">
+        <v>61</v>
+      </c>
+      <c r="CK94" s="9"/>
+    </row>
+    <row r="95" spans="79:89">
+      <c r="CA95" s="4">
+        <v>62</v>
+      </c>
+      <c r="CK95" s="9"/>
+    </row>
+    <row r="96" spans="79:89">
+      <c r="CA96" s="4" t="s">
+        <v>1823</v>
+      </c>
+      <c r="CK96" s="9"/>
+    </row>
+    <row r="97" spans="79:89">
+      <c r="CA97" s="4" t="s">
+        <v>1824</v>
+      </c>
+      <c r="CK97" s="9"/>
+    </row>
+    <row r="98" spans="79:89">
+      <c r="CA98" s="4" t="s">
+        <v>1825</v>
+      </c>
+      <c r="CK98" s="9"/>
+    </row>
+    <row r="99" spans="79:89">
+      <c r="CA99" s="4" t="s">
+        <v>1826</v>
+      </c>
+      <c r="CK99" s="9"/>
+    </row>
+    <row r="100" spans="79:89">
+      <c r="CA100" s="4" t="s">
+        <v>1827</v>
+      </c>
+      <c r="CK100" s="9"/>
+    </row>
+    <row r="101" spans="79:89">
+      <c r="CA101" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="CK101" s="9"/>
+    </row>
+    <row r="102" spans="79:89">
+      <c r="CA102" s="4" t="s">
+        <v>1829</v>
+      </c>
+      <c r="CK102" s="9"/>
+    </row>
+    <row r="103" spans="79:89">
+      <c r="CA103" s="4">
+        <v>70</v>
+      </c>
+      <c r="CK103" s="9"/>
+    </row>
+    <row r="104" spans="79:89">
+      <c r="CA104" s="4" t="s">
+        <v>1830</v>
+      </c>
+      <c r="CK104" s="9"/>
+    </row>
+    <row r="105" spans="79:89">
+      <c r="CA105" s="4" t="s">
+        <v>1831</v>
+      </c>
+      <c r="CK105" s="9"/>
+    </row>
+    <row r="106" spans="79:89">
+      <c r="CA106" s="4">
+        <v>73</v>
+      </c>
+      <c r="CK106" s="9"/>
+    </row>
+    <row r="107" spans="79:89">
+      <c r="CA107" s="4" t="s">
+        <v>1832</v>
+      </c>
+      <c r="CK107" s="9"/>
+    </row>
+    <row r="108" spans="79:89">
+      <c r="CA108" s="4" t="s">
+        <v>1833</v>
+      </c>
+      <c r="CK108" s="9"/>
+    </row>
+    <row r="109" spans="79:89">
+      <c r="CA109" s="4" t="s">
+        <v>1834</v>
+      </c>
+      <c r="CK109" s="9"/>
+    </row>
+    <row r="110" spans="79:89">
+      <c r="CA110" s="4" t="s">
+        <v>1835</v>
+      </c>
+      <c r="CK110" s="9"/>
+    </row>
+    <row r="111" spans="79:89">
+      <c r="CA111" s="4">
+        <v>78</v>
+      </c>
+      <c r="CK111" s="9"/>
+    </row>
+    <row r="112" spans="79:89">
+      <c r="CA112" s="4" t="s">
+        <v>1836</v>
+      </c>
+      <c r="CK112" s="9"/>
+    </row>
+    <row r="113" spans="79:89">
+      <c r="CA113" s="4" t="s">
+        <v>1837</v>
+      </c>
+      <c r="CK113" s="9"/>
+    </row>
+    <row r="114" spans="79:89">
+      <c r="CA114" s="4" t="s">
+        <v>1838</v>
+      </c>
+      <c r="CK114" s="9"/>
+    </row>
+    <row r="115" spans="79:89">
+      <c r="CA115" s="4" t="s">
+        <v>1839</v>
+      </c>
+      <c r="CK115" s="9"/>
+    </row>
+    <row r="116" spans="79:89">
+      <c r="CA116" s="4" t="s">
+        <v>1840</v>
+      </c>
+      <c r="CK116" s="9"/>
+    </row>
+    <row r="117" spans="79:89">
+      <c r="CA117" s="4" t="s">
+        <v>1841</v>
+      </c>
+      <c r="CK117" s="9"/>
+    </row>
+    <row r="118" spans="79:89">
+      <c r="CA118" s="4" t="s">
+        <v>1842</v>
+      </c>
+      <c r="CK118" s="9"/>
+    </row>
+    <row r="119" spans="79:89">
+      <c r="CA119" s="4">
+        <v>86</v>
+      </c>
+      <c r="CK119" s="9"/>
+    </row>
+    <row r="120" spans="79:89">
+      <c r="CA120" s="4" t="s">
+        <v>1843</v>
+      </c>
+      <c r="CK120" s="9"/>
+    </row>
+    <row r="121" spans="79:89">
+      <c r="CA121" s="4" t="s">
+        <v>1844</v>
+      </c>
+      <c r="CK121" s="9"/>
+    </row>
+    <row r="122" spans="79:89">
+      <c r="CA122" s="4">
+        <v>89</v>
+      </c>
+      <c r="CK122" s="9"/>
+    </row>
+    <row r="123" spans="79:89">
+      <c r="CA123" s="4" t="s">
+        <v>1845</v>
+      </c>
+      <c r="CK123" s="9"/>
+    </row>
+    <row r="124" spans="79:89">
+      <c r="CA124" s="4" t="s">
+        <v>1846</v>
+      </c>
+      <c r="CK124" s="9"/>
+    </row>
+    <row r="125" spans="79:89">
+      <c r="CA125" s="4">
+        <v>92</v>
+      </c>
+      <c r="CK125" s="9"/>
+    </row>
+    <row r="126" spans="79:89">
+      <c r="CA126" s="4" t="s">
+        <v>1847</v>
+      </c>
+      <c r="CK126" s="9"/>
+    </row>
+    <row r="127" spans="79:89">
+      <c r="CA127" s="4" t="s">
+        <v>1848</v>
+      </c>
+      <c r="CK127" s="9"/>
+    </row>
+    <row r="128" spans="79:89">
+      <c r="CA128" s="85" t="s">
+        <v>1849</v>
+      </c>
+      <c r="CK128" s="9"/>
+    </row>
+    <row r="129" spans="79:89">
+      <c r="CA129" s="85" t="s">
+        <v>1850</v>
+      </c>
+      <c r="CG129" s="94" t="s">
+        <v>1851</v>
+      </c>
+      <c r="CK129" s="9"/>
+    </row>
+    <row r="130" spans="79:89">
+      <c r="CA130" s="85" t="s">
+        <v>1852</v>
+      </c>
+      <c r="CK130" s="9"/>
+    </row>
+    <row r="131" spans="79:89">
+      <c r="CA131" s="85" t="s">
+        <v>1853</v>
+      </c>
+      <c r="CB131" s="86"/>
+      <c r="CC131" s="86"/>
+      <c r="CD131" s="86"/>
+      <c r="CE131" s="86"/>
+      <c r="CF131" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="CK131" s="9"/>
+    </row>
+    <row r="132" spans="79:89">
+      <c r="CA132" s="85" t="s">
+        <v>1855</v>
+      </c>
+      <c r="CB132" s="86"/>
+      <c r="CC132" s="86"/>
+      <c r="CD132" s="86"/>
+      <c r="CE132" s="86"/>
+      <c r="CF132" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="CK132" s="9"/>
+    </row>
+    <row r="133" ht="21" spans="79:89">
+      <c r="CA133" s="4">
+        <v>100</v>
+      </c>
+      <c r="CF133" s="87" t="s">
+        <v>1857</v>
+      </c>
+      <c r="CK133" s="9"/>
+    </row>
+    <row r="134" spans="79:89">
+      <c r="CA134" s="4" t="s">
+        <v>1858</v>
+      </c>
+      <c r="CK134" s="9"/>
+    </row>
+    <row r="135" spans="79:89">
+      <c r="CA135" s="4" t="s">
+        <v>1859</v>
+      </c>
+      <c r="CK135" s="9"/>
+    </row>
+    <row r="136" spans="79:89">
+      <c r="CA136" s="4" t="s">
+        <v>1860</v>
+      </c>
+      <c r="CK136" s="9"/>
+    </row>
+    <row r="137" spans="79:89">
+      <c r="CA137" s="4" t="s">
+        <v>1861</v>
+      </c>
+      <c r="CK137" s="9"/>
+    </row>
+    <row r="138" spans="79:89">
+      <c r="CA138" s="4" t="s">
+        <v>1862</v>
+      </c>
+      <c r="CK138" s="9"/>
+    </row>
+    <row r="139" spans="79:89">
+      <c r="CA139" s="4" t="s">
+        <v>1863</v>
+      </c>
+      <c r="CK139" s="9"/>
+    </row>
+    <row r="140" spans="79:89">
+      <c r="CA140" s="4" t="s">
+        <v>1864</v>
+      </c>
+      <c r="CK140" s="9"/>
+    </row>
+    <row r="141" spans="79:89">
+      <c r="CA141" s="4" t="s">
+        <v>1865</v>
+      </c>
+      <c r="CK141" s="9"/>
+    </row>
+    <row r="142" spans="79:89">
+      <c r="CA142" s="4" t="s">
+        <v>1866</v>
+      </c>
+      <c r="CK142" s="9"/>
+    </row>
+    <row r="143" spans="79:89">
+      <c r="CA143" s="4">
+        <v>110</v>
+      </c>
+      <c r="CK143" s="9"/>
+    </row>
+    <row r="144" spans="79:89">
+      <c r="CA144" s="4" t="s">
+        <v>1867</v>
+      </c>
+      <c r="CK144" s="9"/>
+    </row>
+    <row r="145" spans="79:89">
+      <c r="CA145" s="4" t="s">
+        <v>1868</v>
+      </c>
+      <c r="CK145" s="9"/>
+    </row>
+    <row r="146" spans="79:89">
+      <c r="CA146" s="4" t="s">
+        <v>1869</v>
+      </c>
+      <c r="CK146" s="9"/>
+    </row>
+    <row r="147" spans="79:89">
+      <c r="CA147" s="4" t="s">
+        <v>1870</v>
+      </c>
+      <c r="CK147" s="9"/>
+    </row>
+    <row r="148" spans="79:89">
+      <c r="CA148" s="4" t="s">
+        <v>1871</v>
+      </c>
+      <c r="CK148" s="9"/>
+    </row>
+    <row r="149" spans="79:89">
+      <c r="CA149" s="4" t="s">
+        <v>1872</v>
+      </c>
+      <c r="CK149" s="9"/>
+    </row>
+    <row r="150" spans="79:89">
+      <c r="CA150" s="4">
+        <v>117</v>
+      </c>
+      <c r="CK150" s="9"/>
+    </row>
+    <row r="151" spans="79:89">
+      <c r="CA151" s="4" t="s">
+        <v>1873</v>
+      </c>
+      <c r="CK151" s="9"/>
+    </row>
+    <row r="152" spans="79:89">
+      <c r="CA152" s="4" t="s">
+        <v>1874</v>
+      </c>
+      <c r="CK152" s="9"/>
+    </row>
+    <row r="153" spans="79:89">
+      <c r="CA153" s="4" t="s">
+        <v>1875</v>
+      </c>
+      <c r="CK153" s="9"/>
+    </row>
+    <row r="154" spans="79:89">
+      <c r="CA154" s="4" t="s">
+        <v>1876</v>
+      </c>
+      <c r="CK154" s="9"/>
+    </row>
+    <row r="155" spans="79:89">
+      <c r="CA155" s="4" t="s">
+        <v>1877</v>
+      </c>
+      <c r="CK155" s="9"/>
+    </row>
+    <row r="156" spans="79:89">
+      <c r="CA156" s="4" t="s">
+        <v>1878</v>
+      </c>
+      <c r="CK156" s="9"/>
+    </row>
+    <row r="157" spans="79:89">
+      <c r="CA157" s="4" t="s">
+        <v>1879</v>
+      </c>
+      <c r="CK157" s="9"/>
+    </row>
+    <row r="158" spans="79:89">
+      <c r="CA158" s="4" t="s">
+        <v>1880</v>
+      </c>
+      <c r="CK158" s="9"/>
+    </row>
+    <row r="159" spans="79:89">
+      <c r="CA159" s="4" t="s">
+        <v>1881</v>
+      </c>
+      <c r="CK159" s="9"/>
+    </row>
+    <row r="160" spans="79:89">
+      <c r="CA160" s="4" t="s">
+        <v>1882</v>
+      </c>
+      <c r="CK160" s="9"/>
+    </row>
+    <row r="161" spans="79:89">
+      <c r="CA161" s="4">
+        <v>128</v>
+      </c>
+      <c r="CK161" s="9"/>
+    </row>
+    <row r="162" spans="79:89">
+      <c r="CA162" s="4" t="s">
+        <v>1883</v>
+      </c>
+      <c r="CK162" s="9"/>
+    </row>
+    <row r="163" spans="79:89">
+      <c r="CA163" s="4" t="s">
+        <v>1884</v>
+      </c>
+      <c r="CK163" s="9"/>
+    </row>
+    <row r="164" spans="79:89">
+      <c r="CA164" s="4" t="s">
+        <v>1885</v>
+      </c>
+      <c r="CK164" s="9"/>
+    </row>
+    <row r="165" spans="79:89">
+      <c r="CA165" s="4" t="s">
+        <v>1886</v>
+      </c>
+      <c r="CK165" s="9"/>
+    </row>
+    <row r="166" spans="79:89">
+      <c r="CA166" s="4" t="s">
+        <v>1887</v>
+      </c>
+      <c r="CK166" s="9"/>
+    </row>
+    <row r="167" spans="79:89">
+      <c r="CA167" s="4">
+        <v>134</v>
+      </c>
+      <c r="CK167" s="9"/>
+    </row>
+    <row r="168" spans="79:89">
+      <c r="CA168" s="4" t="s">
+        <v>1888</v>
+      </c>
+      <c r="CK168" s="9"/>
+    </row>
+    <row r="169" spans="79:89">
+      <c r="CA169" s="4" t="s">
+        <v>1889</v>
+      </c>
+      <c r="CK169" s="9"/>
+    </row>
+    <row r="170" ht="16.5" spans="79:89">
+      <c r="CA170" s="6"/>
+      <c r="CB170" s="7"/>
+      <c r="CC170" s="7"/>
+      <c r="CD170" s="7"/>
+      <c r="CE170" s="7"/>
+      <c r="CF170" s="7"/>
+      <c r="CG170" s="7"/>
+      <c r="CH170" s="7"/>
+      <c r="CI170" s="7"/>
+      <c r="CJ170" s="7"/>
+      <c r="CK170" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23735,7 +28707,7 @@
   <sheetData>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>1708</v>
+        <v>1890</v>
       </c>
     </row>
   </sheetData>
@@ -23749,8 +28721,8 @@
   <sheetPr/>
   <dimension ref="E9:E104"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="M64" sqref="M64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -23762,318 +28734,318 @@
     </row>
     <row r="11" spans="5:5">
       <c r="E11" t="s">
-        <v>1709</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" t="s">
-        <v>1710</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="15" spans="5:5">
       <c r="E15" t="s">
-        <v>1711</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>1712</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" t="s">
-        <v>1713</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="21" ht="20.25" spans="5:5">
-      <c r="E21" s="3" t="s">
-        <v>1714</v>
+      <c r="E21" s="12" t="s">
+        <v>1896</v>
       </c>
     </row>
     <row r="22" ht="21" spans="5:5">
-      <c r="E22" s="4" t="s">
-        <v>1715</v>
+      <c r="E22" s="13" t="s">
+        <v>1897</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="5:5">
-      <c r="E23" s="5" t="s">
-        <v>1716</v>
+      <c r="E23" s="14" t="s">
+        <v>1898</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="5:5">
-      <c r="E24" s="6" t="s">
-        <v>1717</v>
+      <c r="E24" s="15" t="s">
+        <v>1899</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="5:5">
-      <c r="E25" s="6"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" ht="21.75" spans="5:5">
-      <c r="E26" s="7" t="s">
-        <v>1718</v>
+      <c r="E26" s="16" t="s">
+        <v>1900</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="5:5">
-      <c r="E27" s="8" t="s">
-        <v>1719</v>
+      <c r="E27" s="17" t="s">
+        <v>1901</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="5:5">
-      <c r="E28" s="8" t="s">
-        <v>1720</v>
+      <c r="E28" s="17" t="s">
+        <v>1902</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="5:5">
-      <c r="E29" s="8" t="s">
-        <v>1721</v>
+      <c r="E29" s="17" t="s">
+        <v>1903</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="5:5">
-      <c r="E30" s="8" t="s">
-        <v>1722</v>
+      <c r="E30" s="17" t="s">
+        <v>1904</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="5:5">
-      <c r="E31" s="8" t="s">
-        <v>1723</v>
+      <c r="E31" s="17" t="s">
+        <v>1905</v>
       </c>
     </row>
     <row r="32" ht="17.25" spans="5:5">
-      <c r="E32" s="9" t="s">
-        <v>1724</v>
+      <c r="E32" s="18" t="s">
+        <v>1906</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="5:5">
-      <c r="E33" s="10" t="s">
-        <v>1725</v>
+      <c r="E33" s="19" t="s">
+        <v>1907</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="5:5">
-      <c r="E34" s="10" t="s">
-        <v>1726</v>
+      <c r="E34" s="19" t="s">
+        <v>1908</v>
       </c>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="10" t="s">
-        <v>1727</v>
+      <c r="E35" s="19" t="s">
+        <v>1909</v>
       </c>
     </row>
     <row r="36" ht="20.25" spans="5:5">
-      <c r="E36" s="4" t="s">
-        <v>1728</v>
+      <c r="E36" s="13" t="s">
+        <v>1910</v>
       </c>
     </row>
     <row r="37" ht="17.25" spans="5:5">
-      <c r="E37" s="5" t="s">
-        <v>1729</v>
+      <c r="E37" s="14" t="s">
+        <v>1911</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="5:5">
-      <c r="E38" s="8" t="s">
-        <v>1730</v>
+      <c r="E38" s="17" t="s">
+        <v>1912</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="5:5">
-      <c r="E39" s="6" t="s">
-        <v>1731</v>
+      <c r="E39" s="15" t="s">
+        <v>1913</v>
       </c>
     </row>
     <row r="41" spans="5:5">
-      <c r="E41" s="11"/>
+      <c r="E41" s="20"/>
     </row>
     <row r="42" ht="17.25" spans="5:5">
-      <c r="E42" s="6" t="s">
-        <v>1732</v>
+      <c r="E42" s="15" t="s">
+        <v>1914</v>
       </c>
     </row>
     <row r="43" ht="20.25" spans="5:5">
-      <c r="E43" s="4" t="s">
-        <v>1733</v>
+      <c r="E43" s="13" t="s">
+        <v>1915</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="5:5">
-      <c r="E44" s="8" t="s">
-        <v>1734</v>
+      <c r="E44" s="17" t="s">
+        <v>1916</v>
       </c>
     </row>
     <row r="45" spans="5:5">
-      <c r="E45" s="12"/>
+      <c r="E45" s="21"/>
     </row>
     <row r="46" spans="5:5">
-      <c r="E46" s="12"/>
+      <c r="E46" s="21"/>
     </row>
     <row r="47" spans="5:5">
-      <c r="E47" s="12"/>
+      <c r="E47" s="21"/>
     </row>
     <row r="48" spans="5:5">
-      <c r="E48" s="12"/>
+      <c r="E48" s="21"/>
     </row>
     <row r="49" spans="5:5">
-      <c r="E49" s="12"/>
+      <c r="E49" s="21"/>
     </row>
     <row r="50" spans="5:5">
-      <c r="E50" s="13"/>
+      <c r="E50" s="22"/>
     </row>
     <row r="51" spans="5:5">
-      <c r="E51" s="14"/>
+      <c r="E51" s="23"/>
     </row>
     <row r="52" spans="5:5">
-      <c r="E52" s="12"/>
+      <c r="E52" s="21"/>
     </row>
     <row r="53" spans="5:5">
-      <c r="E53" s="12"/>
+      <c r="E53" s="21"/>
     </row>
     <row r="54" spans="5:5">
-      <c r="E54" s="15"/>
+      <c r="E54" s="24"/>
     </row>
     <row r="55" ht="17.25" spans="5:5">
-      <c r="E55" s="6" t="s">
-        <v>1735</v>
+      <c r="E55" s="15" t="s">
+        <v>1917</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="5:5">
-      <c r="E56" s="6" t="s">
-        <v>1736</v>
+      <c r="E56" s="15" t="s">
+        <v>1918</v>
       </c>
     </row>
     <row r="77" ht="17.25" spans="5:5">
-      <c r="E77" s="6" t="s">
-        <v>1737</v>
+      <c r="E77" s="15" t="s">
+        <v>1919</v>
       </c>
     </row>
     <row r="78" ht="17.25" spans="5:5">
-      <c r="E78" s="8" t="s">
-        <v>1738</v>
+      <c r="E78" s="17" t="s">
+        <v>1920</v>
       </c>
     </row>
     <row r="79" ht="17.25" spans="5:5">
-      <c r="E79" s="8" t="s">
-        <v>1739</v>
+      <c r="E79" s="17" t="s">
+        <v>1921</v>
       </c>
     </row>
     <row r="80" ht="17.25" spans="5:5">
-      <c r="E80" s="6" t="s">
-        <v>1740</v>
+      <c r="E80" s="15" t="s">
+        <v>1922</v>
       </c>
     </row>
     <row r="81" ht="17.25" spans="5:5">
-      <c r="E81" s="8" t="s">
-        <v>1741</v>
+      <c r="E81" s="17" t="s">
+        <v>1923</v>
       </c>
     </row>
     <row r="82" ht="17.25" spans="5:5">
-      <c r="E82" s="6" t="s">
-        <v>1742</v>
+      <c r="E82" s="15" t="s">
+        <v>1924</v>
       </c>
     </row>
     <row r="83" ht="17.25" spans="5:5">
-      <c r="E83" s="8" t="s">
-        <v>1743</v>
+      <c r="E83" s="17" t="s">
+        <v>1925</v>
       </c>
     </row>
     <row r="84" ht="17.25" spans="5:5">
-      <c r="E84" s="6" t="s">
-        <v>1744</v>
+      <c r="E84" s="15" t="s">
+        <v>1926</v>
       </c>
     </row>
     <row r="85" ht="17.25" spans="5:5">
-      <c r="E85" s="8" t="s">
-        <v>1745</v>
+      <c r="E85" s="17" t="s">
+        <v>1927</v>
       </c>
     </row>
     <row r="86" ht="17.25" spans="5:5">
-      <c r="E86" s="8" t="s">
-        <v>1746</v>
+      <c r="E86" s="17" t="s">
+        <v>1928</v>
       </c>
     </row>
     <row r="87" ht="20.25" spans="5:5">
-      <c r="E87" s="4" t="s">
-        <v>1747</v>
+      <c r="E87" s="13" t="s">
+        <v>1929</v>
       </c>
     </row>
     <row r="88" ht="17.25" spans="5:5">
-      <c r="E88" s="8" t="s">
-        <v>1748</v>
+      <c r="E88" s="17" t="s">
+        <v>1930</v>
       </c>
     </row>
     <row r="89" ht="17.25" spans="5:5">
-      <c r="E89" s="6" t="s">
-        <v>1749</v>
+      <c r="E89" s="15" t="s">
+        <v>1931</v>
       </c>
     </row>
     <row r="90" ht="21" spans="5:5">
-      <c r="E90" s="4" t="s">
-        <v>1750</v>
+      <c r="E90" s="13" t="s">
+        <v>1932</v>
       </c>
     </row>
     <row r="91" ht="17.25" spans="5:5">
-      <c r="E91" s="8" t="s">
-        <v>1751</v>
+      <c r="E91" s="17" t="s">
+        <v>1933</v>
       </c>
     </row>
     <row r="92" ht="17.25" spans="5:5">
-      <c r="E92" s="8" t="s">
-        <v>1752</v>
+      <c r="E92" s="17" t="s">
+        <v>1934</v>
       </c>
     </row>
     <row r="93" ht="20.25" spans="5:5">
-      <c r="E93" s="4" t="s">
-        <v>1753</v>
+      <c r="E93" s="13" t="s">
+        <v>1935</v>
       </c>
     </row>
     <row r="94" ht="17.25" spans="5:5">
-      <c r="E94" s="8" t="s">
-        <v>1754</v>
+      <c r="E94" s="17" t="s">
+        <v>1936</v>
       </c>
     </row>
     <row r="95" ht="20.25" spans="5:5">
-      <c r="E95" s="4" t="s">
-        <v>1755</v>
+      <c r="E95" s="13" t="s">
+        <v>1937</v>
       </c>
     </row>
     <row r="96" ht="17.25" spans="5:5">
-      <c r="E96" s="8" t="s">
-        <v>1756</v>
+      <c r="E96" s="17" t="s">
+        <v>1938</v>
       </c>
     </row>
     <row r="97" ht="20.25" spans="5:5">
-      <c r="E97" s="4" t="s">
-        <v>1757</v>
+      <c r="E97" s="13" t="s">
+        <v>1939</v>
       </c>
     </row>
     <row r="98" ht="17.25" spans="5:5">
-      <c r="E98" s="8" t="s">
-        <v>1758</v>
+      <c r="E98" s="17" t="s">
+        <v>1940</v>
       </c>
     </row>
     <row r="99" ht="20.25" spans="5:5">
-      <c r="E99" s="4" t="s">
-        <v>1759</v>
+      <c r="E99" s="13" t="s">
+        <v>1941</v>
       </c>
     </row>
     <row r="100" ht="17.25" spans="5:5">
-      <c r="E100" s="8" t="s">
-        <v>1760</v>
+      <c r="E100" s="17" t="s">
+        <v>1942</v>
       </c>
     </row>
     <row r="101" ht="20.25" spans="5:5">
-      <c r="E101" s="4" t="s">
-        <v>1761</v>
+      <c r="E101" s="13" t="s">
+        <v>1943</v>
       </c>
     </row>
     <row r="102" ht="17.25" spans="5:5">
-      <c r="E102" s="8" t="s">
-        <v>1762</v>
+      <c r="E102" s="17" t="s">
+        <v>1944</v>
       </c>
     </row>
     <row r="103" ht="20.25" spans="5:5">
-      <c r="E103" s="4" t="s">
-        <v>1763</v>
+      <c r="E103" s="13" t="s">
+        <v>1945</v>
       </c>
     </row>
     <row r="104" ht="17.25" spans="5:5">
-      <c r="E104" s="8" t="s">
-        <v>1764</v>
+      <c r="E104" s="17" t="s">
+        <v>1946</v>
       </c>
     </row>
   </sheetData>
@@ -24086,772 +29058,846 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D2:E174"/>
+  <dimension ref="D2:R175"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="E169" sqref="E169"/>
+    <sheetView topLeftCell="E17" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>1765</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>1766</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>1767</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" t="s">
-        <v>1768</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>1769</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="7" spans="5:5">
       <c r="E7" t="s">
-        <v>1770</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>1771</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="9" spans="5:5">
       <c r="E9" t="s">
-        <v>1772</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>1773</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>1774</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>1775</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>1776</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>1777</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>1778</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>1779</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>1780</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>1781</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="22" spans="14:18">
+      <c r="N22" s="2"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="8"/>
+    </row>
+    <row r="23" spans="4:18">
       <c r="D23" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4">
+        <v>1965</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>1966</v>
+      </c>
+      <c r="R23" s="9"/>
+    </row>
+    <row r="24" spans="4:18">
       <c r="D24" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4">
+        <v>1967</v>
+      </c>
+      <c r="N24" s="4">
+        <v>3</v>
+      </c>
+      <c r="R24" s="9"/>
+    </row>
+    <row r="25" spans="4:18">
       <c r="D25" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="26" spans="4:4">
+        <v>1968</v>
+      </c>
+      <c r="N25" s="4">
+        <v>4</v>
+      </c>
+      <c r="R25" s="9"/>
+    </row>
+    <row r="26" spans="4:18">
       <c r="D26" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4">
+        <v>1969</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>1970</v>
+      </c>
+      <c r="R26" s="9"/>
+    </row>
+    <row r="27" spans="4:18">
       <c r="D27" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4">
+        <v>1971</v>
+      </c>
+      <c r="N27" s="4">
+        <v>6</v>
+      </c>
+      <c r="R27" s="9"/>
+    </row>
+    <row r="28" spans="4:18">
       <c r="D28" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="29" spans="4:4">
+        <v>1972</v>
+      </c>
+      <c r="N28" s="4">
+        <v>7</v>
+      </c>
+      <c r="R28" s="9"/>
+    </row>
+    <row r="29" spans="4:18">
       <c r="D29" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="30" spans="4:4">
+        <v>1973</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>1974</v>
+      </c>
+      <c r="R29" s="9"/>
+    </row>
+    <row r="30" spans="4:18">
       <c r="D30" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4">
+        <v>1975</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>1976</v>
+      </c>
+      <c r="R30" s="9"/>
+    </row>
+    <row r="31" spans="4:18">
       <c r="D31" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="32" spans="4:4">
+        <v>1977</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>1978</v>
+      </c>
+      <c r="R31" s="9"/>
+    </row>
+    <row r="32" spans="4:18">
       <c r="D32" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4">
+        <v>1979</v>
+      </c>
+      <c r="N32" s="5"/>
+      <c r="R32" s="9"/>
+    </row>
+    <row r="33" spans="4:18">
       <c r="D33" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4">
+        <v>1980</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>1981</v>
+      </c>
+      <c r="R33" s="9"/>
+    </row>
+    <row r="34" spans="4:18">
       <c r="D34" t="s">
-        <v>1794</v>
-      </c>
+        <v>1982</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>1983</v>
+      </c>
+      <c r="R34" s="9"/>
+    </row>
+    <row r="35" ht="16.5" spans="14:18">
+      <c r="N35" s="6"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="10"/>
     </row>
     <row r="37" spans="4:4">
       <c r="D37" t="s">
-        <v>1795</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" t="s">
-        <v>1796</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>1797</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10">
       <c r="D41" s="1" t="s">
-        <v>1799</v>
+        <v>1988</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>1989</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" t="s">
-        <v>1800</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" s="1" t="s">
-        <v>1801</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" s="1" t="s">
-        <v>1802</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" t="s">
-        <v>1803</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>1804</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
-        <v>1805</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>1806</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="51" spans="4:4">
-      <c r="D51" t="s">
-        <v>1807</v>
+      <c r="D51" s="1" t="s">
+        <v>1997</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" t="s">
-        <v>1808</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" t="s">
-        <v>1809</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" t="s">
-        <v>1810</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" t="s">
-        <v>1811</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" t="s">
-        <v>1812</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" t="s">
-        <v>1813</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" t="s">
-        <v>1814</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" t="s">
-        <v>1815</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="60" spans="4:4">
-      <c r="D60" t="s">
-        <v>1816</v>
+      <c r="D60" s="1" t="s">
+        <v>2006</v>
       </c>
     </row>
     <row r="61" spans="4:4">
-      <c r="D61" t="s">
-        <v>1817</v>
+      <c r="D61" s="1" t="s">
+        <v>2007</v>
       </c>
     </row>
     <row r="62" spans="4:4">
-      <c r="D62" t="s">
-        <v>1818</v>
+      <c r="D62" s="1" t="s">
+        <v>2008</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" t="s">
-        <v>1819</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" t="s">
-        <v>1820</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" t="s">
-        <v>1821</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" t="s">
-        <v>1822</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69" t="s">
-        <v>1823</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70" t="s">
-        <v>1824</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="72" spans="4:4">
-      <c r="D72" t="s">
-        <v>1825</v>
+      <c r="D72" s="1" t="s">
+        <v>2015</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" t="s">
-        <v>1826</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" t="s">
-        <v>1827</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" t="s">
-        <v>1828</v>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="1" t="s">
+        <v>2019</v>
       </c>
     </row>
     <row r="77" spans="4:4">
-      <c r="D77" t="s">
-        <v>1829</v>
+      <c r="D77" s="1" t="s">
+        <v>2020</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78" t="s">
-        <v>1830</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="79" spans="4:4">
       <c r="D79" t="s">
-        <v>1831</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" t="s">
-        <v>1832</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="81" spans="4:4">
       <c r="D81" t="s">
-        <v>1833</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" t="s">
-        <v>1834</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" t="s">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="85" spans="4:4">
-      <c r="D85" t="s">
-        <v>1836</v>
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84" t="s">
+        <v>2027</v>
       </c>
     </row>
     <row r="86" spans="4:4">
       <c r="D86" t="s">
-        <v>1837</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87" t="s">
-        <v>1838</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="88" spans="4:4">
       <c r="D88" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="90" spans="4:4">
-      <c r="D90" t="s">
-        <v>1840</v>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89" t="s">
+        <v>2031</v>
       </c>
     </row>
     <row r="91" spans="4:4">
       <c r="D91" t="s">
-        <v>1841</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="92" spans="4:4">
       <c r="D92" t="s">
-        <v>1842</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="93" spans="4:4">
       <c r="D93" t="s">
-        <v>1843</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="94" spans="4:4">
       <c r="D94" t="s">
-        <v>1844</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="95" spans="4:4">
       <c r="D95" t="s">
-        <v>1845</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="96" spans="4:4">
       <c r="D96" t="s">
-        <v>1846</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="97" spans="4:4">
       <c r="D97" t="s">
-        <v>1847</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="98" spans="4:4">
       <c r="D98" t="s">
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="100" spans="4:4">
-      <c r="D100" t="s">
-        <v>1849</v>
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" t="s">
+        <v>2040</v>
       </c>
     </row>
     <row r="101" spans="4:4">
       <c r="D101" t="s">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="103" spans="4:4">
-      <c r="D103" t="s">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="105" spans="4:4">
-      <c r="D105" t="s">
-        <v>1852</v>
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104" t="s">
+        <v>2043</v>
       </c>
     </row>
     <row r="106" spans="4:4">
       <c r="D106" t="s">
-        <v>1853</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="107" spans="4:4">
       <c r="D107" t="s">
-        <v>1854</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="108" spans="4:4">
       <c r="D108" t="s">
-        <v>1855</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="109" spans="4:4">
       <c r="D109" t="s">
-        <v>1856</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="110" spans="4:4">
       <c r="D110" t="s">
-        <v>1857</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="111" spans="4:4">
       <c r="D111" t="s">
-        <v>1858</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="112" spans="4:4">
       <c r="D112" t="s">
-        <v>1859</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="113" spans="4:4">
       <c r="D113" t="s">
-        <v>1860</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="114" spans="4:4">
       <c r="D114" t="s">
-        <v>1861</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="115" spans="4:4">
       <c r="D115" t="s">
-        <v>1862</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="116" spans="4:4">
       <c r="D116" t="s">
-        <v>1863</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="117" spans="4:4">
       <c r="D117" t="s">
-        <v>1864</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="118" spans="4:4">
       <c r="D118" t="s">
-        <v>1865</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="119" spans="4:4">
       <c r="D119" t="s">
-        <v>1866</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="120" spans="4:4">
       <c r="D120" t="s">
-        <v>1867</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="121" spans="4:4">
       <c r="D121" t="s">
-        <v>1868</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="122" spans="4:4">
       <c r="D122" t="s">
-        <v>1869</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="123" spans="4:4">
       <c r="D123" t="s">
-        <v>1870</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="124" spans="4:4">
       <c r="D124" t="s">
-        <v>1871</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="125" spans="4:4">
       <c r="D125" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="126" spans="5:5">
-      <c r="E126" t="s">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="127" spans="4:4">
-      <c r="D127" t="s">
-        <v>1873</v>
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4">
+      <c r="D126" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="127" spans="5:5">
+      <c r="E127" t="s">
+        <v>2064</v>
       </c>
     </row>
     <row r="128" spans="4:4">
       <c r="D128" t="s">
-        <v>1874</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="129" spans="4:4">
       <c r="D129" t="s">
-        <v>1875</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="130" spans="4:4">
       <c r="D130" t="s">
-        <v>1876</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="131" spans="4:4">
       <c r="D131" t="s">
-        <v>1877</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="132" spans="4:4">
       <c r="D132" t="s">
-        <v>1878</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="133" spans="4:4">
       <c r="D133" t="s">
-        <v>1870</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="134" spans="4:4">
       <c r="D134" t="s">
-        <v>1879</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="135" spans="4:4">
       <c r="D135" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="136" spans="5:5">
-      <c r="E136" t="s">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="137" spans="4:4">
-      <c r="D137" t="s">
-        <v>1880</v>
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4">
+      <c r="D136" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="137" spans="5:5">
+      <c r="E137" t="s">
+        <v>2064</v>
       </c>
     </row>
     <row r="138" spans="4:4">
       <c r="D138" t="s">
-        <v>1881</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="139" spans="4:4">
       <c r="D139" t="s">
-        <v>1882</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="140" spans="4:4">
       <c r="D140" t="s">
-        <v>1883</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="141" spans="4:4">
       <c r="D141" t="s">
-        <v>1884</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="142" spans="4:4">
       <c r="D142" t="s">
-        <v>1885</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="143" spans="4:4">
       <c r="D143" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="144" spans="5:5">
-      <c r="E144" t="s">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="145" spans="4:4">
-      <c r="D145" t="s">
-        <v>1886</v>
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4">
+      <c r="D144" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="145" spans="5:5">
+      <c r="E145" t="s">
+        <v>2064</v>
       </c>
     </row>
     <row r="146" spans="4:4">
       <c r="D146" t="s">
-        <v>1882</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="147" spans="4:4">
       <c r="D147" t="s">
-        <v>1887</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="148" spans="4:4">
       <c r="D148" t="s">
-        <v>1884</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="149" spans="4:4">
       <c r="D149" t="s">
-        <v>1888</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="150" spans="4:4">
       <c r="D150" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="151" spans="5:5">
-      <c r="E151" t="s">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="152" spans="4:4">
-      <c r="D152" t="s">
-        <v>1889</v>
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4">
+      <c r="D151" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="152" spans="5:5">
+      <c r="E152" t="s">
+        <v>2064</v>
       </c>
     </row>
     <row r="153" spans="4:4">
       <c r="D153" t="s">
-        <v>1882</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="154" spans="4:4">
       <c r="D154" t="s">
-        <v>1890</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="155" spans="4:4">
       <c r="D155" t="s">
-        <v>1884</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="156" spans="4:4">
       <c r="D156" t="s">
-        <v>1888</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="157" spans="4:4">
       <c r="D157" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="158" spans="5:5">
-      <c r="E158" t="s">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="159" spans="4:4">
-      <c r="D159" t="s">
-        <v>1891</v>
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="158" spans="4:4">
+      <c r="D158" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="159" spans="5:5">
+      <c r="E159" t="s">
+        <v>2064</v>
       </c>
     </row>
     <row r="160" spans="4:4">
       <c r="D160" t="s">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="164" spans="4:4">
-      <c r="D164" t="s">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="165" ht="21" spans="4:4">
-      <c r="D165" s="2" t="s">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="166" spans="4:4">
-      <c r="D166" t="s">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="169" spans="4:4">
-      <c r="D169" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4">
+      <c r="D161" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="165" spans="4:4">
+      <c r="D165" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="166" ht="21" spans="4:4">
+      <c r="D166" s="11" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4">
+      <c r="D167" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4">
+      <c r="D170" t="s">
         <v>1179</v>
-      </c>
-    </row>
-    <row r="171" spans="4:4">
-      <c r="D171" t="s">
-        <v>1895</v>
       </c>
     </row>
     <row r="172" spans="4:4">
       <c r="D172" t="s">
-        <v>1896</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="173" spans="4:4">
       <c r="D173" t="s">
-        <v>1897</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="174" spans="4:4">
       <c r="D174" t="s">
-        <v>1898</v>
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4">
+      <c r="D175" t="s">
+        <v>2090</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24861,7 +29907,7 @@
   <dimension ref="C4:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="2"/>
@@ -24871,22 +29917,22 @@
   <sheetData>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>1899</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="1" t="s">
-        <v>1900</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>1901</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>1902</v>
+        <v>2094</v>
       </c>
     </row>
   </sheetData>

--- a/kernel_compile_framework.xlsx
+++ b/kernel_compile_framework.xlsx
@@ -12413,6 +12413,55 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Elbow Connector 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="48968025" y="11220450"/>
+          <a:ext cx="16383000" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50004"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -25361,8 +25410,8 @@
   <sheetPr/>
   <dimension ref="M6:CK170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BY113" workbookViewId="0">
-      <selection activeCell="CI141" sqref="CI141"/>
+    <sheetView tabSelected="1" topLeftCell="AS37" workbookViewId="0">
+      <selection activeCell="BC66" sqref="BC66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>

--- a/kernel_compile_framework.xlsx
+++ b/kernel_compile_framework.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="2095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3030" uniqueCount="2143">
   <si>
     <t>目录/home/hpsp/rock_space/iMX6Q_files/iMX6Q_kernel/kernel_imx 下有目前买的这个板子的DTB文件： imx6q-sabresd.dtb</t>
   </si>
@@ -6490,12 +6490,18 @@
     <t xml:space="preserve"> 39 # and zero or more .c files</t>
   </si>
   <si>
+    <t xml:space="preserve">arch/arm/boot/dts/Makefile </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 40 host-cxxmulti   := $(foreach m,$(__hostprogs),$(if $($(m)-cxxobjs),$(m)))</t>
   </si>
   <si>
     <t xml:space="preserve"> ==&gt;  将__hostprogs中的值逐个$(m)处理，如果 $(m)-cxxobjs 的值不为空，将值$(m)赋给host-cxxmulti,否则不用管</t>
   </si>
   <si>
+    <t xml:space="preserve">  1 ifeq ($(CONFIG_OF),y)                                 </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 42 # C++ Object (.o) files compiled from .cc files</t>
   </si>
   <si>
@@ -6503,6 +6509,9 @@
   </si>
   <si>
     <t xml:space="preserve"> ==&gt;  将host-cxxmulti 中的值逐个$(m)处理，将所有 $(m)-cxxobjs 的值 排序后 赋给host-cxxobjs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3 dtb-$(CONFIG_SOC_IMX6Q) += \</t>
   </si>
   <si>
     <r>
@@ -6563,6 +6572,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">  4         imx6q-sabresd.dtb \</t>
+  </si>
+  <si>
+    <t>arch/arm/Makefile   各个DTB目标的执行规则</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 45 # output directory for programs/.o files</t>
   </si>
   <si>
@@ -6603,6 +6618,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">  5         e9v3-sabresd.dtb \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">323 %.dtb: | scripts               </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 46 # hostprogs-y := tools/build may have been specified.</t>
   </si>
   <si>
@@ -6622,52 +6643,109 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">  6         e9v2-sabresd.dtb \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">324         $(Q)$(MAKE) $(build)=$(boot)/dts MACHINE=$(MACHINE) $(boot)/dts/$@                                                                                                                             </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 47 # Retrieve also directory of .o files from prog-objs or prog-cxxobjs notation</t>
   </si>
   <si>
+    <t xml:space="preserve">  7         imx6q-corea-sabresd.dtb </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 48 host-objdirs := $(dir $(__hostprogs) $(host-cobjs) $(host-cxxobjs))</t>
   </si>
   <si>
     <t xml:space="preserve"> ==&gt;  从 $(__hostprogs) $(host-cobjs) $(host-cxxobjs) 的所有值中 提取出 目录路径来</t>
   </si>
   <si>
+    <t xml:space="preserve"> 53 include scripts/Makefile.lib </t>
+  </si>
+  <si>
+    <t xml:space="preserve">326 PHONY += dtbs dtbs_install     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9 endif       </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 50 host-objdirs := $(strip   $(sort   $(filter-out   ./,  $(host-objdirs)  )))</t>
   </si>
   <si>
     <t xml:space="preserve"> ==&gt;  过滤掉$(host-objdirs) 所有值 中 过滤掉 ./ ，剩下的值排序后 再去掉多余的空格后  再赋值给host-objdirs</t>
   </si>
   <si>
-    <t xml:space="preserve"> 96          $(subdir-ym) $(always)</t>
+    <t xml:space="preserve">328 dtbs: prepare scripts          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11 DTB_NAMES := $(subst  $\",,$(CONFIG_BUILD_ARM_APPENDED_DTB_IMAGE_NAMES)) </t>
+  </si>
+  <si>
+    <t>329         @echo "rock_dbg:arch_arm_Makefile==&gt;dtbs..."</t>
   </si>
   <si>
     <t xml:space="preserve"> 52 __hostprogs     := $(addprefix $(obj)/,$(__hostprogs))</t>
   </si>
   <si>
+    <t xml:space="preserve"> 12 ifneq ($(DTB_NAMES),)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330         $(Q)$(MAKE) $(build)=$(boot)/dts                                                                                                                                                               </t>
+  </si>
+  <si>
     <t xml:space="preserve"> 53 host-csingle    := $(addprefix $(obj)/,$(host-csingle))</t>
   </si>
   <si>
+    <t xml:space="preserve"> 13 DTB_LIST := $(addsuffix .dtb,$(DTB_NAMES))</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 54 host-cmulti     := $(addprefix $(obj)/,$(host-cmulti))</t>
   </si>
   <si>
+    <t xml:space="preserve"> 14 else        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">332 dtbs_install:                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 55 host-cobjs      := $(addprefix $(obj)/,$(host-cobjs))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15 DTB_LIST := $(dtb-y)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333         $(Q)$(MAKE) $(dtbinst)=$(boot)/dts                                                                                                                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56 host-cxxmulti   := $(addprefix $(obj)/,$(host-cxxmulti))</t>
+  </si>
+  <si>
     <t>rock_dbg:Makefile.build==&gt;__build: 1++$(if (KBUILD_BUILTIN)-1, 1.1--(builtin-target)- 1.2--(lib-target)- 1.3--(extra-y)-) 2++$(if (KBUILD_MODULES)-, 2.1--(obj-m)- 2.2--(modorder-target)-arch/arm/boot/dts/modules.order)  3++(subdir-ym)-  4++(always)-arch/arm/boot/dts/imx6q-sabresd.dtb arch/arm/boot/dts/e9v3-sabresd.dtb arch/arm/boot/dts/e9v2-sabresd.dtb arch/arm/boot/dts/imx6q-corea-sabresd.dtb obj=arch/arm/boot/dts</t>
   </si>
   <si>
-    <t xml:space="preserve"> 55 host-cobjs      := $(addprefix $(obj)/,$(host-cobjs))</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 56 host-cxxmulti   := $(addprefix $(obj)/,$(host-cxxmulti))</t>
+    <t xml:space="preserve"> 16 endif       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57 host-cxxobjs    := $(addprefix $(obj)/,$(host-cxxobjs))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 58 host-objdirs    := $(addprefix $(obj)/,$(host-objdirs))</t>
   </si>
   <si>
     <t xml:space="preserve">1++$(if     (KBUILD_BUILTIN)-1,     1.1--(builtin-target)-     1.2--(lib-target)-     1.3--(extra-y)-    )  </t>
   </si>
   <si>
-    <t xml:space="preserve"> 57 host-cxxobjs    := $(addprefix $(obj)/,$(host-cxxobjs))</t>
+    <t xml:space="preserve"> 18 targets += dtbs dtbs_install                          </t>
   </si>
   <si>
     <t xml:space="preserve">2++$(if     (KBUILD_MODULES)-,    2.1--(obj-m)-                2.2--(modorder-target)-arch/arm/boot/dts/modules.order)  </t>
   </si>
   <si>
-    <t xml:space="preserve"> 58 host-objdirs    := $(addprefix $(obj)/,$(host-objdirs))</t>
+    <t xml:space="preserve"> 19 targets += $(DTB_LIST)                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60 obj-dirs += $(host-objdirs)</t>
   </si>
   <si>
     <t xml:space="preserve">3++(subdir-ym)-  </t>
@@ -6710,7 +6788,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> 60 obj-dirs += $(host-objdirs)</t>
+    <t xml:space="preserve"> 21 always          := $(DTB_LIST)                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22 clean-files     := *.dtb</t>
   </si>
   <si>
     <t xml:space="preserve"> 63 $(warning host-csingle = $(host-csingle))</t>
@@ -6746,39 +6827,78 @@
     <t xml:space="preserve"> 75                  $(HOSTCFLAGS_$(basetarget).o)</t>
   </si>
   <si>
+    <t xml:space="preserve">scripts/Makefile.lib </t>
+  </si>
+  <si>
+    <t>最终编译生成DTB的地方</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 76 _hostcxx_flags = $(HOSTCXXFLAGS) $(HOST_EXTRACXXFLAGS) \</t>
   </si>
   <si>
     <t xml:space="preserve"> 77                  $(HOSTCXXFLAGS_$(basetarget).o)</t>
   </si>
   <si>
+    <t>284 quiet_cmd_dtc = DTC     $@</t>
+  </si>
+  <si>
+    <t>285 cmd_dtc = mkdir -p $(dir ${dtc-tmp}) ; \</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 79 ifeq ($(KBUILD_SRC),)</t>
   </si>
   <si>
+    <t>286         $(CPP) $(dtc_cpp_flags) -x assembler-with-cpp -o $(dtc-tmp) $&lt; ; \</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 80 __hostc_flags   = $(_hostc_flags)</t>
   </si>
   <si>
+    <t>287         $(objtree)/scripts/dtc/dtc -O dtb -o $@ -b 0 \</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 81 __hostcxx_flags = $(_hostcxx_flags)</t>
   </si>
   <si>
+    <t>288                 -i $(dir $&lt;) $(DTC_FLAGS) \</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 82 else</t>
   </si>
   <si>
+    <t>289                 -d $(depfile).dtc.tmp $(dtc-tmp) ; \</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 83 __hostc_flags   = -I$(obj) $(call flags,_hostc_flags)</t>
   </si>
   <si>
+    <t>290         cat $(depfile).pre.tmp $(depfile).dtc.tmp &gt; $(depfile)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 84 __hostcxx_flags = -I$(obj) $(call flags,_hostcxx_flags)</t>
   </si>
   <si>
     <t xml:space="preserve"> 85 endif</t>
   </si>
   <si>
+    <t>292 $(obj)/%.dtb: $(src)/%.dts FORCE</t>
+  </si>
+  <si>
+    <t>293         @echo "rock_dbg:Makefile.lib==&gt;d$(obj)/%.dtb--$@--$^"</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 87 hostc_flags    = -Wp,-MD,$(depfile) $(__hostc_flags)</t>
   </si>
   <si>
+    <t>294         $(call if_changed_dep,  dtc)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 88 hostcxx_flags  = -Wp,-MD,$(depfile) $(__hostcxx_flags)</t>
   </si>
   <si>
+    <t>296 dtc-tmp = $(subst $(comma),_,$(dot-target).dts.tmp)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 90 #####</t>
   </si>
   <si>
@@ -6866,28 +6986,96 @@
     <t>118 # Link an executable based on list of .o files, a mixture of .c and .cc</t>
   </si>
   <si>
+    <t>rock_dbg:Makefile.lib==&gt;cmd_dtc:</t>
+  </si>
+  <si>
     <t>119 # host-cxxmulti -&gt; executable</t>
   </si>
   <si>
+    <t xml:space="preserve">mkdir -p arch/arm/boot/dts/ ; </t>
+  </si>
+  <si>
     <t>120 quiet_cmd_host-cxxmulti = HOSTLD  $@</t>
   </si>
   <si>
+    <t xml:space="preserve">arm-linux-gnueabihf-gcc   -E   -Wp,-MD,arch/arm/boot/dts/.imx6q-sabresd.dtb.d.pre.tmp   -nostdinc   -I./arch/arm/boot/dts   -I./arch/arm/boot/dts/include   -I./drivers/of/testcase-data   </t>
+  </si>
+  <si>
     <t>121       cmd_host-cxxmulti = $(HOSTCXX) $(HOSTLDFLAGS) -o $@ \</t>
   </si>
   <si>
+    <t xml:space="preserve">-undef -D__DTS__ -x assembler-with-cpp   -o   arch/arm/boot/dts/.imx6q-sabresd.dtb.dts.tmp    arch/arm/boot/dts/imx6q-sabresd.dts ; </t>
+  </si>
+  <si>
     <t>122                           $(foreach o,objs cxxobjs,\</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">./scripts/dtc/dtc   -O   dtb   -o   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arch/arm/boot/dts/imx6q-sabresd.dtb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   -b  0   -i    arch/arm/boot/dts/     -d arch/arm/boot/dts/.imx6q-sabresd.dtb.d.dtc.tmp    arch/arm/boot/dts/.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> imx6q-sabresd.dtb.dts.tmp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; </t>
+    </r>
+  </si>
+  <si>
     <t>123                           $(addprefix $(obj)/,$($(@F)-$(o)))) \</t>
   </si>
   <si>
+    <t>cat    arch/arm/boot/dts/.imx6q-sabresd.dtb.d.pre.tmp     arch/arm/boot/dts/.imx6q-sabresd.dtb.d.dtc.tmp   &gt;    arch/arm/boot/dts/.imx6q-sabresd.dtb.d</t>
+  </si>
+  <si>
     <t>124                           $(HOST_LOADLIBES) $(HOSTLOADLIBES_$(@F))</t>
   </si>
   <si>
     <t>125 $(host-cxxmulti): FORCE</t>
   </si>
   <si>
+    <t>默认情况下，预处理器的输出会被导入到标准输出流（也就是显示器），可以利用-o选项把它导入到某个输出文件：</t>
+  </si>
+  <si>
     <t>126         $(call if_changed,host-cxxmulti)</t>
+  </si>
+  <si>
+    <t>$ gcc -E circle.c -o circle.i</t>
   </si>
   <si>
     <t>127 $(call multi_depend, $(host-cxxmulti), , -objs -cxxobjs)</t>
@@ -10070,7 +10258,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF1D41D5"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10078,7 +10266,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF1D41D5"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10809,7 +10997,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10954,10 +11142,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
@@ -10987,10 +11178,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
@@ -10999,16 +11190,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11029,7 +11220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -11065,11 +11256,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -11077,13 +11310,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -12382,7 +12615,7 @@
       <xdr:col>94</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12399,7 +12632,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="69980175" y="23602950"/>
+          <a:off x="69980175" y="23660100"/>
           <a:ext cx="9544050" cy="2266950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12460,6 +12693,304 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>76835</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Elbow Connector 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30289500" y="17487900"/>
+          <a:ext cx="15888335" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 87770"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="46101000" y="19831050"/>
+          <a:ext cx="4724400" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>267970</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>798830</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Elbow Connector 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="32119570" y="14881860"/>
+          <a:ext cx="13942060" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 85497"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>812165</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>90805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>812165</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Elbow Connector 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="48589565" y="16073755"/>
+          <a:ext cx="5867400" cy="3270250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 80892"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>703580</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>812165</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Elbow Connector 50"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30040580" y="16697325"/>
+          <a:ext cx="16034385" cy="5675630"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 91827"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="46101000" y="25650825"/>
+          <a:ext cx="17545050" cy="4848225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12875,7 +13406,7 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="4" spans="3:3">
-      <c r="C4" s="93"/>
+      <c r="C4" s="108"/>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
@@ -22033,7 +22564,7 @@
       </c>
     </row>
     <row r="7" ht="16.5" spans="4:4">
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="104" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -22088,7 +22619,7 @@
       </c>
     </row>
     <row r="35" ht="18" spans="6:6">
-      <c r="F35" s="90" t="s">
+      <c r="F35" s="105" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -22166,12 +22697,12 @@
       </c>
     </row>
     <row r="50" ht="18" spans="6:6">
-      <c r="F50" s="90" t="s">
+      <c r="F50" s="105" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="51" spans="6:6">
-      <c r="F51" s="89" t="s">
+      <c r="F51" s="104" t="s">
         <v>1206</v>
       </c>
     </row>
@@ -22211,7 +22742,7 @@
       </c>
     </row>
     <row r="60" ht="18" spans="6:6">
-      <c r="F60" s="90" t="s">
+      <c r="F60" s="105" t="s">
         <v>1214</v>
       </c>
     </row>
@@ -22221,7 +22752,7 @@
       </c>
     </row>
     <row r="63" ht="18" spans="6:6">
-      <c r="F63" s="90" t="s">
+      <c r="F63" s="105" t="s">
         <v>1216</v>
       </c>
     </row>
@@ -22251,7 +22782,7 @@
       </c>
     </row>
     <row r="70" ht="18" spans="6:6">
-      <c r="F70" s="90" t="s">
+      <c r="F70" s="105" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -22427,7 +22958,7 @@
       </c>
     </row>
     <row r="105" ht="18" spans="6:6">
-      <c r="F105" s="90" t="s">
+      <c r="F105" s="105" t="s">
         <v>1254</v>
       </c>
     </row>
@@ -22542,7 +23073,7 @@
       </c>
     </row>
     <row r="130" ht="18" spans="6:6">
-      <c r="F130" s="90" t="s">
+      <c r="F130" s="105" t="s">
         <v>1275</v>
       </c>
     </row>
@@ -22602,12 +23133,12 @@
       </c>
     </row>
     <row r="145" spans="6:6">
-      <c r="F145" s="91" t="s">
+      <c r="F145" s="106" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="146" spans="6:6">
-      <c r="F146" s="91" t="s">
+      <c r="F146" s="106" t="s">
         <v>1285</v>
       </c>
     </row>
@@ -22642,7 +23173,7 @@
       </c>
     </row>
     <row r="153" spans="6:6">
-      <c r="F153" s="91" t="s">
+      <c r="F153" s="106" t="s">
         <v>1292</v>
       </c>
     </row>
@@ -22667,17 +23198,17 @@
       </c>
     </row>
     <row r="158" spans="6:6">
-      <c r="F158" s="91" t="s">
+      <c r="F158" s="106" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="159" spans="6:6">
-      <c r="F159" s="91" t="s">
+      <c r="F159" s="106" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="160" spans="6:6">
-      <c r="F160" s="91" t="s">
+      <c r="F160" s="106" t="s">
         <v>1299</v>
       </c>
     </row>
@@ -22692,7 +23223,7 @@
       </c>
     </row>
     <row r="163" spans="6:6">
-      <c r="F163" s="91" t="s">
+      <c r="F163" s="106" t="s">
         <v>1302</v>
       </c>
     </row>
@@ -22722,12 +23253,12 @@
       </c>
     </row>
     <row r="169" spans="6:6">
-      <c r="F169" s="91" t="s">
+      <c r="F169" s="106" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="171" spans="6:6">
-      <c r="F171" s="91" t="s">
+      <c r="F171" s="106" t="s">
         <v>1309</v>
       </c>
     </row>
@@ -22737,102 +23268,102 @@
       </c>
     </row>
     <row r="173" spans="6:6">
-      <c r="F173" s="91" t="s">
+      <c r="F173" s="106" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="174" spans="6:6">
-      <c r="F174" s="91" t="s">
+      <c r="F174" s="106" t="s">
         <v>1312</v>
       </c>
     </row>
     <row r="175" spans="6:6">
-      <c r="F175" s="91" t="s">
+      <c r="F175" s="106" t="s">
         <v>1313</v>
       </c>
     </row>
     <row r="176" spans="6:6">
-      <c r="F176" s="91" t="s">
+      <c r="F176" s="106" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="177" spans="6:6">
-      <c r="F177" s="91" t="s">
+      <c r="F177" s="106" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="178" spans="6:6">
-      <c r="F178" s="91" t="s">
+      <c r="F178" s="106" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="179" spans="6:6">
-      <c r="F179" s="91" t="s">
+      <c r="F179" s="106" t="s">
         <v>1317</v>
       </c>
     </row>
     <row r="180" spans="6:6">
-      <c r="F180" s="91" t="s">
+      <c r="F180" s="106" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="181" spans="6:6">
-      <c r="F181" s="91" t="s">
+      <c r="F181" s="106" t="s">
         <v>1319</v>
       </c>
     </row>
     <row r="182" spans="6:6">
-      <c r="F182" s="91" t="s">
+      <c r="F182" s="106" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="183" spans="6:6">
-      <c r="F183" s="91" t="s">
+      <c r="F183" s="106" t="s">
         <v>1321</v>
       </c>
     </row>
     <row r="184" spans="6:6">
-      <c r="F184" s="91" t="s">
+      <c r="F184" s="106" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="185" spans="6:6">
-      <c r="F185" s="91" t="s">
+      <c r="F185" s="106" t="s">
         <v>1323</v>
       </c>
     </row>
     <row r="186" spans="6:6">
-      <c r="F186" s="91" t="s">
+      <c r="F186" s="106" t="s">
         <v>1324</v>
       </c>
     </row>
     <row r="187" spans="6:6">
-      <c r="F187" s="91" t="s">
+      <c r="F187" s="106" t="s">
         <v>1325</v>
       </c>
     </row>
     <row r="188" spans="6:6">
-      <c r="F188" s="91" t="s">
+      <c r="F188" s="106" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="189" spans="6:6">
-      <c r="F189" s="91" t="s">
+      <c r="F189" s="106" t="s">
         <v>1327</v>
       </c>
     </row>
     <row r="190" spans="6:6">
-      <c r="F190" s="91" t="s">
+      <c r="F190" s="106" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="191" spans="6:6">
-      <c r="F191" s="91" t="s">
+      <c r="F191" s="106" t="s">
         <v>1323</v>
       </c>
     </row>
     <row r="192" spans="6:6">
-      <c r="F192" s="91" t="s">
+      <c r="F192" s="106" t="s">
         <v>11</v>
       </c>
     </row>
@@ -22962,7 +23493,7 @@
       </c>
     </row>
     <row r="221" spans="6:6">
-      <c r="F221" s="91" t="s">
+      <c r="F221" s="106" t="s">
         <v>1353</v>
       </c>
     </row>
@@ -23478,7 +24009,7 @@
       </c>
     </row>
     <row r="331" ht="16.5" spans="6:6">
-      <c r="F331" s="92" t="s">
+      <c r="F331" s="107" t="s">
         <v>1424</v>
       </c>
     </row>
@@ -25368,7 +25899,7 @@
   <dimension ref="F16:H22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -25389,7 +25920,7 @@
       </c>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="88"/>
+      <c r="G21" s="103"/>
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
@@ -25410,8 +25941,8 @@
   <sheetPr/>
   <dimension ref="M6:CK170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS37" workbookViewId="0">
-      <selection activeCell="BC66" sqref="BC66"/>
+    <sheetView tabSelected="1" topLeftCell="BC129" workbookViewId="0">
+      <selection activeCell="BF163" sqref="BF163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -25434,22 +25965,22 @@
       <c r="AO7" s="28" t="s">
         <v>1650</v>
       </c>
-      <c r="AP7" s="48"/>
-      <c r="AQ7" s="48"/>
-      <c r="AR7" s="48"/>
-      <c r="AS7" s="48"/>
-      <c r="AT7" s="48"/>
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
       <c r="AU7" s="41"/>
     </row>
     <row r="8" spans="41:56">
       <c r="AO8" s="28" t="s">
         <v>1651</v>
       </c>
-      <c r="AP8" s="48"/>
-      <c r="AQ8" s="48"/>
-      <c r="AR8" s="48"/>
-      <c r="AS8" s="48"/>
-      <c r="AT8" s="48"/>
+      <c r="AP8" s="49"/>
+      <c r="AQ8" s="49"/>
+      <c r="AR8" s="49"/>
+      <c r="AS8" s="49"/>
+      <c r="AT8" s="49"/>
       <c r="AU8" s="41"/>
       <c r="AX8" s="36" t="s">
         <v>1649</v>
@@ -25465,11 +25996,11 @@
       <c r="AO9" s="28">
         <v>966</v>
       </c>
-      <c r="AP9" s="48"/>
-      <c r="AQ9" s="48"/>
-      <c r="AR9" s="48"/>
-      <c r="AS9" s="48"/>
-      <c r="AT9" s="48"/>
+      <c r="AP9" s="49"/>
+      <c r="AQ9" s="49"/>
+      <c r="AR9" s="49"/>
+      <c r="AS9" s="49"/>
+      <c r="AT9" s="49"/>
       <c r="AU9" s="41"/>
       <c r="AX9" s="5" t="s">
         <v>1652</v>
@@ -25480,11 +26011,11 @@
       <c r="AO10" s="28" t="s">
         <v>1653</v>
       </c>
-      <c r="AP10" s="48"/>
-      <c r="AQ10" s="48"/>
-      <c r="AR10" s="48"/>
-      <c r="AS10" s="48"/>
-      <c r="AT10" s="48"/>
+      <c r="AP10" s="49"/>
+      <c r="AQ10" s="49"/>
+      <c r="AR10" s="49"/>
+      <c r="AS10" s="49"/>
+      <c r="AT10" s="49"/>
       <c r="AU10" s="41"/>
       <c r="AX10" s="5" t="s">
         <v>1654</v>
@@ -25495,11 +26026,11 @@
       <c r="AO11" s="28" t="s">
         <v>1655</v>
       </c>
-      <c r="AP11" s="48"/>
-      <c r="AQ11" s="48"/>
-      <c r="AR11" s="48"/>
-      <c r="AS11" s="48"/>
-      <c r="AT11" s="48"/>
+      <c r="AP11" s="49"/>
+      <c r="AQ11" s="49"/>
+      <c r="AR11" s="49"/>
+      <c r="AS11" s="49"/>
+      <c r="AT11" s="49"/>
       <c r="AU11" s="41"/>
       <c r="AX11" s="5" t="s">
         <v>1656</v>
@@ -25510,11 +26041,11 @@
       <c r="AO12" s="28" t="s">
         <v>1657</v>
       </c>
-      <c r="AP12" s="48"/>
-      <c r="AQ12" s="48"/>
-      <c r="AR12" s="48"/>
-      <c r="AS12" s="48"/>
-      <c r="AT12" s="48"/>
+      <c r="AP12" s="49"/>
+      <c r="AQ12" s="49"/>
+      <c r="AR12" s="49"/>
+      <c r="AS12" s="49"/>
+      <c r="AT12" s="49"/>
       <c r="AU12" s="41"/>
       <c r="AX12" s="5" t="s">
         <v>1658</v>
@@ -25525,13 +26056,13 @@
       <c r="AO13" s="30" t="s">
         <v>1659</v>
       </c>
-      <c r="AP13" s="48"/>
-      <c r="AQ13" s="48"/>
-      <c r="AR13" s="48"/>
-      <c r="AS13" s="48"/>
-      <c r="AT13" s="48"/>
+      <c r="AP13" s="49"/>
+      <c r="AQ13" s="49"/>
+      <c r="AR13" s="49"/>
+      <c r="AS13" s="49"/>
+      <c r="AT13" s="49"/>
       <c r="AU13" s="41"/>
-      <c r="AX13" s="62" t="s">
+      <c r="AX13" s="63" t="s">
         <v>1660</v>
       </c>
       <c r="BD13" s="9"/>
@@ -25540,11 +26071,11 @@
       <c r="AO14" s="28" t="s">
         <v>1661</v>
       </c>
-      <c r="AP14" s="48"/>
-      <c r="AQ14" s="48"/>
-      <c r="AR14" s="48"/>
-      <c r="AS14" s="48"/>
-      <c r="AT14" s="48"/>
+      <c r="AP14" s="49"/>
+      <c r="AQ14" s="49"/>
+      <c r="AR14" s="49"/>
+      <c r="AS14" s="49"/>
+      <c r="AT14" s="49"/>
       <c r="AU14" s="41"/>
       <c r="AX14" s="5" t="s">
         <v>1662</v>
@@ -25555,11 +26086,11 @@
       <c r="AO15" s="28" t="s">
         <v>1663</v>
       </c>
-      <c r="AP15" s="48"/>
-      <c r="AQ15" s="48"/>
-      <c r="AR15" s="48"/>
-      <c r="AS15" s="48"/>
-      <c r="AT15" s="48"/>
+      <c r="AP15" s="49"/>
+      <c r="AQ15" s="49"/>
+      <c r="AR15" s="49"/>
+      <c r="AS15" s="49"/>
+      <c r="AT15" s="49"/>
       <c r="AU15" s="41"/>
       <c r="AX15" s="5" t="s">
         <v>1664</v>
@@ -25570,11 +26101,11 @@
       <c r="AO16" s="28" t="s">
         <v>1665</v>
       </c>
-      <c r="AP16" s="48"/>
-      <c r="AQ16" s="48"/>
-      <c r="AR16" s="48"/>
-      <c r="AS16" s="48"/>
-      <c r="AT16" s="48"/>
+      <c r="AP16" s="49"/>
+      <c r="AQ16" s="49"/>
+      <c r="AR16" s="49"/>
+      <c r="AS16" s="49"/>
+      <c r="AT16" s="49"/>
       <c r="AU16" s="41"/>
       <c r="AX16" s="5" t="s">
         <v>1666</v>
@@ -25585,11 +26116,11 @@
       <c r="AO17" s="28" t="s">
         <v>1667</v>
       </c>
-      <c r="AP17" s="48"/>
-      <c r="AQ17" s="48"/>
-      <c r="AR17" s="48"/>
-      <c r="AS17" s="48"/>
-      <c r="AT17" s="48"/>
+      <c r="AP17" s="49"/>
+      <c r="AQ17" s="49"/>
+      <c r="AR17" s="49"/>
+      <c r="AS17" s="49"/>
+      <c r="AT17" s="49"/>
       <c r="AU17" s="41"/>
       <c r="AX17" s="5" t="s">
         <v>1668</v>
@@ -25600,11 +26131,11 @@
       <c r="AO18" s="28" t="s">
         <v>1669</v>
       </c>
-      <c r="AP18" s="48"/>
-      <c r="AQ18" s="48"/>
-      <c r="AR18" s="48"/>
-      <c r="AS18" s="48"/>
-      <c r="AT18" s="48"/>
+      <c r="AP18" s="49"/>
+      <c r="AQ18" s="49"/>
+      <c r="AR18" s="49"/>
+      <c r="AS18" s="49"/>
+      <c r="AT18" s="49"/>
       <c r="AU18" s="41"/>
       <c r="AX18" s="5" t="s">
         <v>1670</v>
@@ -25615,11 +26146,11 @@
       <c r="AO19" s="28" t="s">
         <v>1671</v>
       </c>
-      <c r="AP19" s="48"/>
-      <c r="AQ19" s="48"/>
-      <c r="AR19" s="48"/>
-      <c r="AS19" s="48"/>
-      <c r="AT19" s="48"/>
+      <c r="AP19" s="49"/>
+      <c r="AQ19" s="49"/>
+      <c r="AR19" s="49"/>
+      <c r="AS19" s="49"/>
+      <c r="AT19" s="49"/>
       <c r="AU19" s="41"/>
       <c r="AX19" s="6"/>
       <c r="AY19" s="7"/>
@@ -25633,22 +26164,22 @@
       <c r="AO20" s="28" t="s">
         <v>1672</v>
       </c>
-      <c r="AP20" s="48"/>
-      <c r="AQ20" s="48"/>
-      <c r="AR20" s="48"/>
-      <c r="AS20" s="48"/>
-      <c r="AT20" s="48"/>
+      <c r="AP20" s="49"/>
+      <c r="AQ20" s="49"/>
+      <c r="AR20" s="49"/>
+      <c r="AS20" s="49"/>
+      <c r="AT20" s="49"/>
       <c r="AU20" s="41"/>
     </row>
     <row r="21" spans="41:56">
       <c r="AO21" s="28" t="s">
         <v>1673</v>
       </c>
-      <c r="AP21" s="48"/>
-      <c r="AQ21" s="48"/>
-      <c r="AR21" s="48"/>
-      <c r="AS21" s="48"/>
-      <c r="AT21" s="48"/>
+      <c r="AP21" s="49"/>
+      <c r="AQ21" s="49"/>
+      <c r="AR21" s="49"/>
+      <c r="AS21" s="49"/>
+      <c r="AT21" s="49"/>
       <c r="AU21" s="41"/>
       <c r="AX21" s="36" t="s">
         <v>1649</v>
@@ -25664,11 +26195,11 @@
       <c r="AO22" s="28">
         <v>979</v>
       </c>
-      <c r="AP22" s="48"/>
-      <c r="AQ22" s="48"/>
-      <c r="AR22" s="48"/>
-      <c r="AS22" s="48"/>
-      <c r="AT22" s="48"/>
+      <c r="AP22" s="49"/>
+      <c r="AQ22" s="49"/>
+      <c r="AR22" s="49"/>
+      <c r="AS22" s="49"/>
+      <c r="AT22" s="49"/>
       <c r="AU22" s="41"/>
       <c r="AX22" s="5" t="s">
         <v>1674</v>
@@ -25679,11 +26210,11 @@
       <c r="AO23" s="28" t="s">
         <v>1675</v>
       </c>
-      <c r="AP23" s="48"/>
-      <c r="AQ23" s="48"/>
-      <c r="AR23" s="48"/>
-      <c r="AS23" s="48"/>
-      <c r="AT23" s="48"/>
+      <c r="AP23" s="49"/>
+      <c r="AQ23" s="49"/>
+      <c r="AR23" s="49"/>
+      <c r="AS23" s="49"/>
+      <c r="AT23" s="49"/>
       <c r="AU23" s="41"/>
       <c r="AX23" s="5" t="s">
         <v>1676</v>
@@ -25699,13 +26230,13 @@
       <c r="AO24" s="30" t="s">
         <v>1677</v>
       </c>
-      <c r="AP24" s="48"/>
-      <c r="AQ24" s="48"/>
-      <c r="AR24" s="48"/>
-      <c r="AS24" s="48"/>
-      <c r="AT24" s="48"/>
+      <c r="AP24" s="49"/>
+      <c r="AQ24" s="49"/>
+      <c r="AR24" s="49"/>
+      <c r="AS24" s="49"/>
+      <c r="AT24" s="49"/>
       <c r="AU24" s="41"/>
-      <c r="AX24" s="62" t="s">
+      <c r="AX24" s="63" t="s">
         <v>1678</v>
       </c>
       <c r="BD24" s="9"/>
@@ -25718,22 +26249,22 @@
       <c r="AO25" s="28">
         <v>982</v>
       </c>
-      <c r="AP25" s="48"/>
-      <c r="AQ25" s="48"/>
-      <c r="AR25" s="48"/>
-      <c r="AS25" s="48"/>
-      <c r="AT25" s="48"/>
+      <c r="AP25" s="49"/>
+      <c r="AQ25" s="49"/>
+      <c r="AR25" s="49"/>
+      <c r="AS25" s="49"/>
+      <c r="AT25" s="49"/>
       <c r="AU25" s="41"/>
-      <c r="AX25" s="63" t="s">
+      <c r="AX25" s="64" t="s">
         <v>1680</v>
       </c>
-      <c r="AY25" s="64"/>
-      <c r="AZ25" s="64"/>
-      <c r="BA25" s="64"/>
-      <c r="BB25" s="64"/>
-      <c r="BC25" s="64"/>
-      <c r="BD25" s="66"/>
-      <c r="BE25" s="64"/>
+      <c r="AY25" s="65"/>
+      <c r="AZ25" s="65"/>
+      <c r="BA25" s="65"/>
+      <c r="BB25" s="65"/>
+      <c r="BC25" s="65"/>
+      <c r="BD25" s="67"/>
+      <c r="BE25" s="65"/>
     </row>
     <row r="26" spans="13:57">
       <c r="M26" s="25"/>
@@ -25749,22 +26280,22 @@
       <c r="AO26" s="30" t="s">
         <v>1682</v>
       </c>
-      <c r="AP26" s="48"/>
-      <c r="AQ26" s="48"/>
-      <c r="AR26" s="48"/>
-      <c r="AS26" s="48"/>
-      <c r="AT26" s="48"/>
+      <c r="AP26" s="49"/>
+      <c r="AQ26" s="49"/>
+      <c r="AR26" s="49"/>
+      <c r="AS26" s="49"/>
+      <c r="AT26" s="49"/>
       <c r="AU26" s="41"/>
-      <c r="AX26" s="63" t="s">
+      <c r="AX26" s="64" t="s">
         <v>1683</v>
       </c>
-      <c r="AY26" s="64"/>
-      <c r="AZ26" s="64"/>
-      <c r="BA26" s="64"/>
-      <c r="BB26" s="64"/>
-      <c r="BC26" s="64"/>
-      <c r="BD26" s="66"/>
-      <c r="BE26" s="64"/>
+      <c r="AY26" s="65"/>
+      <c r="AZ26" s="65"/>
+      <c r="BA26" s="65"/>
+      <c r="BB26" s="65"/>
+      <c r="BC26" s="65"/>
+      <c r="BD26" s="67"/>
+      <c r="BE26" s="65"/>
     </row>
     <row r="27" spans="13:57">
       <c r="M27" s="28" t="s">
@@ -25775,29 +26306,29 @@
       <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="34"/>
-      <c r="AH27" s="47" t="s">
+      <c r="AH27" s="48" t="s">
         <v>1685</v>
       </c>
       <c r="AL27" s="41"/>
       <c r="AO27" s="30" t="s">
         <v>1686</v>
       </c>
-      <c r="AP27" s="48"/>
-      <c r="AQ27" s="48"/>
-      <c r="AR27" s="48"/>
-      <c r="AS27" s="48"/>
-      <c r="AT27" s="48"/>
+      <c r="AP27" s="49"/>
+      <c r="AQ27" s="49"/>
+      <c r="AR27" s="49"/>
+      <c r="AS27" s="49"/>
+      <c r="AT27" s="49"/>
       <c r="AU27" s="41"/>
-      <c r="AX27" s="63" t="s">
+      <c r="AX27" s="64" t="s">
         <v>1687</v>
       </c>
-      <c r="AY27" s="64"/>
-      <c r="AZ27" s="64"/>
-      <c r="BA27" s="64"/>
-      <c r="BB27" s="64"/>
-      <c r="BC27" s="64"/>
-      <c r="BD27" s="66"/>
-      <c r="BE27" s="64"/>
+      <c r="AY27" s="65"/>
+      <c r="AZ27" s="65"/>
+      <c r="BA27" s="65"/>
+      <c r="BB27" s="65"/>
+      <c r="BC27" s="65"/>
+      <c r="BD27" s="67"/>
+      <c r="BE27" s="65"/>
     </row>
     <row r="28" spans="13:57">
       <c r="M28" s="28" t="s">
@@ -25810,25 +26341,25 @@
       <c r="R28" s="34"/>
       <c r="AH28" s="39"/>
       <c r="AL28" s="41"/>
-      <c r="AO28" s="59" t="s">
+      <c r="AO28" s="60" t="s">
         <v>1689</v>
       </c>
-      <c r="AP28" s="48"/>
-      <c r="AQ28" s="48"/>
-      <c r="AR28" s="48"/>
-      <c r="AS28" s="48"/>
-      <c r="AT28" s="48"/>
+      <c r="AP28" s="49"/>
+      <c r="AQ28" s="49"/>
+      <c r="AR28" s="49"/>
+      <c r="AS28" s="49"/>
+      <c r="AT28" s="49"/>
       <c r="AU28" s="41"/>
-      <c r="AX28" s="63" t="s">
+      <c r="AX28" s="64" t="s">
         <v>1690</v>
       </c>
-      <c r="AY28" s="64"/>
-      <c r="AZ28" s="64"/>
-      <c r="BA28" s="64"/>
-      <c r="BB28" s="64"/>
-      <c r="BC28" s="64"/>
-      <c r="BD28" s="66"/>
-      <c r="BE28" s="64"/>
+      <c r="AY28" s="65"/>
+      <c r="AZ28" s="65"/>
+      <c r="BA28" s="65"/>
+      <c r="BB28" s="65"/>
+      <c r="BC28" s="65"/>
+      <c r="BD28" s="67"/>
+      <c r="BE28" s="65"/>
     </row>
     <row r="29" ht="16.5" spans="13:56">
       <c r="M29" s="28" t="s">
@@ -25847,11 +26378,11 @@
       <c r="AO29" s="28">
         <v>986</v>
       </c>
-      <c r="AP29" s="48"/>
-      <c r="AQ29" s="48"/>
-      <c r="AR29" s="48"/>
-      <c r="AS29" s="48"/>
-      <c r="AT29" s="48"/>
+      <c r="AP29" s="49"/>
+      <c r="AQ29" s="49"/>
+      <c r="AR29" s="49"/>
+      <c r="AS29" s="49"/>
+      <c r="AT29" s="49"/>
       <c r="AU29" s="41"/>
       <c r="AX29" s="6"/>
       <c r="AY29" s="7"/>
@@ -25873,11 +26404,11 @@
       <c r="AO30" s="30" t="s">
         <v>1693</v>
       </c>
-      <c r="AP30" s="48"/>
-      <c r="AQ30" s="48"/>
-      <c r="AR30" s="48"/>
-      <c r="AS30" s="48"/>
-      <c r="AT30" s="48"/>
+      <c r="AP30" s="49"/>
+      <c r="AQ30" s="49"/>
+      <c r="AR30" s="49"/>
+      <c r="AS30" s="49"/>
+      <c r="AT30" s="49"/>
       <c r="AU30" s="41"/>
     </row>
     <row r="31" ht="16.5" spans="13:47">
@@ -25892,11 +26423,11 @@
       <c r="AO31" s="28">
         <v>988</v>
       </c>
-      <c r="AP31" s="48"/>
-      <c r="AQ31" s="48"/>
-      <c r="AR31" s="48"/>
-      <c r="AS31" s="48"/>
-      <c r="AT31" s="48"/>
+      <c r="AP31" s="49"/>
+      <c r="AQ31" s="49"/>
+      <c r="AR31" s="49"/>
+      <c r="AS31" s="49"/>
+      <c r="AT31" s="49"/>
       <c r="AU31" s="41"/>
     </row>
     <row r="32" ht="17.25" spans="13:87">
@@ -25911,11 +26442,11 @@
       <c r="AO32" s="30" t="s">
         <v>1695</v>
       </c>
-      <c r="AP32" s="48"/>
-      <c r="AQ32" s="48"/>
-      <c r="AR32" s="48"/>
-      <c r="AS32" s="48"/>
-      <c r="AT32" s="48"/>
+      <c r="AP32" s="49"/>
+      <c r="AQ32" s="49"/>
+      <c r="AR32" s="49"/>
+      <c r="AS32" s="49"/>
+      <c r="AT32" s="49"/>
       <c r="AU32" s="41"/>
       <c r="AX32" s="36" t="s">
         <v>1649</v>
@@ -25923,36 +26454,36 @@
       <c r="AY32" s="37"/>
       <c r="AZ32" s="37"/>
       <c r="BA32" s="38"/>
-      <c r="BD32" s="52"/>
-      <c r="BE32" s="53"/>
-      <c r="BF32" s="53"/>
-      <c r="BG32" s="53"/>
-      <c r="BH32" s="53"/>
-      <c r="BI32" s="53"/>
-      <c r="BJ32" s="53"/>
-      <c r="BK32" s="53"/>
-      <c r="BL32" s="53"/>
-      <c r="BM32" s="53"/>
-      <c r="BN32" s="53"/>
-      <c r="BO32" s="53"/>
-      <c r="BP32" s="53"/>
-      <c r="BQ32" s="53"/>
-      <c r="BR32" s="53"/>
-      <c r="BS32" s="53"/>
-      <c r="BT32" s="53"/>
-      <c r="BU32" s="74"/>
-      <c r="BV32" s="56"/>
-      <c r="CA32" s="79" t="s">
+      <c r="BD32" s="53"/>
+      <c r="BE32" s="54"/>
+      <c r="BF32" s="54"/>
+      <c r="BG32" s="54"/>
+      <c r="BH32" s="54"/>
+      <c r="BI32" s="54"/>
+      <c r="BJ32" s="54"/>
+      <c r="BK32" s="54"/>
+      <c r="BL32" s="54"/>
+      <c r="BM32" s="54"/>
+      <c r="BN32" s="54"/>
+      <c r="BO32" s="54"/>
+      <c r="BP32" s="54"/>
+      <c r="BQ32" s="54"/>
+      <c r="BR32" s="54"/>
+      <c r="BS32" s="54"/>
+      <c r="BT32" s="54"/>
+      <c r="BU32" s="75"/>
+      <c r="BV32" s="57"/>
+      <c r="CA32" s="80" t="s">
         <v>1696</v>
       </c>
-      <c r="CB32" s="53"/>
-      <c r="CC32" s="53"/>
-      <c r="CD32" s="53"/>
-      <c r="CE32" s="53"/>
-      <c r="CF32" s="53"/>
-      <c r="CG32" s="74"/>
-      <c r="CH32" s="53"/>
-      <c r="CI32" s="56"/>
+      <c r="CB32" s="54"/>
+      <c r="CC32" s="54"/>
+      <c r="CD32" s="54"/>
+      <c r="CE32" s="54"/>
+      <c r="CF32" s="54"/>
+      <c r="CG32" s="75"/>
+      <c r="CH32" s="54"/>
+      <c r="CI32" s="57"/>
     </row>
     <row r="33" spans="13:87">
       <c r="M33" s="30" t="s">
@@ -25972,44 +26503,44 @@
       <c r="AO33" s="45" t="s">
         <v>1698</v>
       </c>
-      <c r="AP33" s="48"/>
-      <c r="AQ33" s="48"/>
-      <c r="AR33" s="48"/>
-      <c r="AS33" s="48"/>
-      <c r="AT33" s="48"/>
+      <c r="AP33" s="49"/>
+      <c r="AQ33" s="49"/>
+      <c r="AR33" s="49"/>
+      <c r="AS33" s="49"/>
+      <c r="AT33" s="49"/>
       <c r="AU33" s="41"/>
       <c r="AX33" s="39"/>
       <c r="BA33" s="41"/>
-      <c r="BD33" s="54" t="s">
+      <c r="BD33" s="55" t="s">
         <v>1699</v>
       </c>
-      <c r="BE33" s="48"/>
-      <c r="BF33" s="48"/>
-      <c r="BG33" s="48"/>
-      <c r="BH33" s="48"/>
-      <c r="BI33" s="48"/>
-      <c r="BJ33" s="48"/>
-      <c r="BK33" s="48"/>
-      <c r="BL33" s="48"/>
-      <c r="BM33" s="48"/>
-      <c r="BN33" s="48"/>
-      <c r="BO33" s="48"/>
-      <c r="BP33" s="48"/>
-      <c r="BQ33" s="48"/>
-      <c r="BR33" s="48"/>
-      <c r="BS33" s="48"/>
-      <c r="BT33" s="48"/>
-      <c r="BU33" s="75"/>
-      <c r="BV33" s="57"/>
-      <c r="CA33" s="55"/>
-      <c r="CB33" s="48"/>
-      <c r="CC33" s="48"/>
-      <c r="CD33" s="48"/>
-      <c r="CE33" s="48"/>
-      <c r="CF33" s="48"/>
-      <c r="CG33" s="75"/>
-      <c r="CH33" s="48"/>
-      <c r="CI33" s="57"/>
+      <c r="BE33" s="49"/>
+      <c r="BF33" s="49"/>
+      <c r="BG33" s="49"/>
+      <c r="BH33" s="49"/>
+      <c r="BI33" s="49"/>
+      <c r="BJ33" s="49"/>
+      <c r="BK33" s="49"/>
+      <c r="BL33" s="49"/>
+      <c r="BM33" s="49"/>
+      <c r="BN33" s="49"/>
+      <c r="BO33" s="49"/>
+      <c r="BP33" s="49"/>
+      <c r="BQ33" s="49"/>
+      <c r="BR33" s="49"/>
+      <c r="BS33" s="49"/>
+      <c r="BT33" s="49"/>
+      <c r="BU33" s="76"/>
+      <c r="BV33" s="58"/>
+      <c r="CA33" s="56"/>
+      <c r="CB33" s="49"/>
+      <c r="CC33" s="49"/>
+      <c r="CD33" s="49"/>
+      <c r="CE33" s="49"/>
+      <c r="CF33" s="49"/>
+      <c r="CG33" s="76"/>
+      <c r="CH33" s="49"/>
+      <c r="CI33" s="58"/>
     </row>
     <row r="34" spans="13:87">
       <c r="M34" s="30">
@@ -26031,46 +26562,46 @@
       <c r="AO34" s="28">
         <v>991</v>
       </c>
-      <c r="AP34" s="48"/>
-      <c r="AQ34" s="48"/>
-      <c r="AR34" s="48"/>
-      <c r="AS34" s="48"/>
-      <c r="AT34" s="48"/>
+      <c r="AP34" s="49"/>
+      <c r="AQ34" s="49"/>
+      <c r="AR34" s="49"/>
+      <c r="AS34" s="49"/>
+      <c r="AT34" s="49"/>
       <c r="AU34" s="41"/>
       <c r="AX34" s="28" t="s">
         <v>1700</v>
       </c>
       <c r="BA34" s="41"/>
-      <c r="BD34" s="54"/>
-      <c r="BE34" s="48"/>
-      <c r="BF34" s="48"/>
-      <c r="BG34" s="48"/>
-      <c r="BH34" s="48"/>
-      <c r="BI34" s="48"/>
-      <c r="BJ34" s="48"/>
-      <c r="BK34" s="48"/>
-      <c r="BL34" s="48"/>
-      <c r="BM34" s="48"/>
-      <c r="BN34" s="48"/>
-      <c r="BO34" s="48"/>
-      <c r="BP34" s="48"/>
-      <c r="BQ34" s="48"/>
-      <c r="BR34" s="48"/>
-      <c r="BS34" s="48"/>
-      <c r="BT34" s="48"/>
-      <c r="BU34" s="75"/>
-      <c r="BV34" s="57"/>
-      <c r="CA34" s="67" t="s">
+      <c r="BD34" s="55"/>
+      <c r="BE34" s="49"/>
+      <c r="BF34" s="49"/>
+      <c r="BG34" s="49"/>
+      <c r="BH34" s="49"/>
+      <c r="BI34" s="49"/>
+      <c r="BJ34" s="49"/>
+      <c r="BK34" s="49"/>
+      <c r="BL34" s="49"/>
+      <c r="BM34" s="49"/>
+      <c r="BN34" s="49"/>
+      <c r="BO34" s="49"/>
+      <c r="BP34" s="49"/>
+      <c r="BQ34" s="49"/>
+      <c r="BR34" s="49"/>
+      <c r="BS34" s="49"/>
+      <c r="BT34" s="49"/>
+      <c r="BU34" s="76"/>
+      <c r="BV34" s="58"/>
+      <c r="CA34" s="68" t="s">
         <v>1701</v>
       </c>
-      <c r="CB34" s="80"/>
-      <c r="CC34" s="48"/>
-      <c r="CD34" s="48"/>
-      <c r="CE34" s="48"/>
-      <c r="CF34" s="48"/>
-      <c r="CG34" s="75"/>
-      <c r="CH34" s="48"/>
-      <c r="CI34" s="57"/>
+      <c r="CB34" s="81"/>
+      <c r="CC34" s="49"/>
+      <c r="CD34" s="49"/>
+      <c r="CE34" s="49"/>
+      <c r="CF34" s="49"/>
+      <c r="CG34" s="76"/>
+      <c r="CH34" s="49"/>
+      <c r="CI34" s="58"/>
     </row>
     <row r="35" spans="13:87">
       <c r="M35" s="28" t="s">
@@ -26090,48 +26621,48 @@
       <c r="AO35" s="28" t="s">
         <v>1703</v>
       </c>
-      <c r="AP35" s="48"/>
-      <c r="AQ35" s="48"/>
-      <c r="AR35" s="48"/>
-      <c r="AS35" s="48"/>
-      <c r="AT35" s="48"/>
+      <c r="AP35" s="49"/>
+      <c r="AQ35" s="49"/>
+      <c r="AR35" s="49"/>
+      <c r="AS35" s="49"/>
+      <c r="AT35" s="49"/>
       <c r="AU35" s="41"/>
       <c r="AX35" s="30" t="s">
         <v>1704</v>
       </c>
       <c r="BA35" s="41"/>
-      <c r="BD35" s="55" t="s">
+      <c r="BD35" s="56" t="s">
         <v>1705</v>
       </c>
-      <c r="BE35" s="48"/>
-      <c r="BF35" s="48"/>
-      <c r="BG35" s="48"/>
-      <c r="BH35" s="48"/>
-      <c r="BI35" s="48"/>
-      <c r="BJ35" s="48"/>
-      <c r="BK35" s="48"/>
-      <c r="BL35" s="48"/>
-      <c r="BM35" s="48"/>
-      <c r="BN35" s="48"/>
-      <c r="BO35" s="48"/>
-      <c r="BP35" s="48"/>
-      <c r="BQ35" s="48"/>
-      <c r="BR35" s="48"/>
-      <c r="BS35" s="48"/>
-      <c r="BT35" s="48"/>
-      <c r="BU35" s="75"/>
-      <c r="BV35" s="57"/>
-      <c r="CA35" s="67" t="s">
+      <c r="BE35" s="49"/>
+      <c r="BF35" s="49"/>
+      <c r="BG35" s="49"/>
+      <c r="BH35" s="49"/>
+      <c r="BI35" s="49"/>
+      <c r="BJ35" s="49"/>
+      <c r="BK35" s="49"/>
+      <c r="BL35" s="49"/>
+      <c r="BM35" s="49"/>
+      <c r="BN35" s="49"/>
+      <c r="BO35" s="49"/>
+      <c r="BP35" s="49"/>
+      <c r="BQ35" s="49"/>
+      <c r="BR35" s="49"/>
+      <c r="BS35" s="49"/>
+      <c r="BT35" s="49"/>
+      <c r="BU35" s="76"/>
+      <c r="BV35" s="58"/>
+      <c r="CA35" s="68" t="s">
         <v>1706</v>
       </c>
-      <c r="CB35" s="80"/>
-      <c r="CC35" s="48"/>
-      <c r="CD35" s="48"/>
-      <c r="CE35" s="48"/>
-      <c r="CF35" s="48"/>
-      <c r="CG35" s="75"/>
-      <c r="CH35" s="48"/>
-      <c r="CI35" s="57"/>
+      <c r="CB35" s="81"/>
+      <c r="CC35" s="49"/>
+      <c r="CD35" s="49"/>
+      <c r="CE35" s="49"/>
+      <c r="CF35" s="49"/>
+      <c r="CG35" s="76"/>
+      <c r="CH35" s="49"/>
+      <c r="CI35" s="58"/>
     </row>
     <row r="36" ht="21" spans="13:87">
       <c r="M36" s="28" t="s">
@@ -26153,48 +26684,48 @@
       <c r="AO36" s="30" t="s">
         <v>1709</v>
       </c>
-      <c r="AP36" s="48"/>
-      <c r="AQ36" s="48"/>
-      <c r="AR36" s="48"/>
-      <c r="AS36" s="48"/>
-      <c r="AT36" s="48"/>
+      <c r="AP36" s="49"/>
+      <c r="AQ36" s="49"/>
+      <c r="AR36" s="49"/>
+      <c r="AS36" s="49"/>
+      <c r="AT36" s="49"/>
       <c r="AU36" s="41"/>
-      <c r="AX36" s="65" t="s">
+      <c r="AX36" s="66" t="s">
         <v>1710</v>
       </c>
       <c r="BA36" s="41"/>
-      <c r="BD36" s="55">
+      <c r="BD36" s="56">
         <v>6</v>
       </c>
-      <c r="BE36" s="48"/>
-      <c r="BF36" s="48"/>
-      <c r="BG36" s="48"/>
-      <c r="BH36" s="48"/>
-      <c r="BI36" s="48"/>
-      <c r="BJ36" s="48"/>
-      <c r="BK36" s="48"/>
-      <c r="BL36" s="48"/>
-      <c r="BM36" s="48"/>
-      <c r="BN36" s="48"/>
-      <c r="BO36" s="48"/>
-      <c r="BP36" s="48"/>
-      <c r="BQ36" s="48"/>
-      <c r="BR36" s="48"/>
-      <c r="BS36" s="48"/>
-      <c r="BT36" s="48"/>
-      <c r="BU36" s="75"/>
-      <c r="BV36" s="57"/>
-      <c r="CA36" s="81" t="s">
+      <c r="BE36" s="49"/>
+      <c r="BF36" s="49"/>
+      <c r="BG36" s="49"/>
+      <c r="BH36" s="49"/>
+      <c r="BI36" s="49"/>
+      <c r="BJ36" s="49"/>
+      <c r="BK36" s="49"/>
+      <c r="BL36" s="49"/>
+      <c r="BM36" s="49"/>
+      <c r="BN36" s="49"/>
+      <c r="BO36" s="49"/>
+      <c r="BP36" s="49"/>
+      <c r="BQ36" s="49"/>
+      <c r="BR36" s="49"/>
+      <c r="BS36" s="49"/>
+      <c r="BT36" s="49"/>
+      <c r="BU36" s="76"/>
+      <c r="BV36" s="58"/>
+      <c r="CA36" s="82" t="s">
         <v>1711</v>
       </c>
-      <c r="CB36" s="48"/>
-      <c r="CC36" s="48"/>
-      <c r="CD36" s="48"/>
-      <c r="CE36" s="48"/>
-      <c r="CF36" s="48"/>
-      <c r="CG36" s="75"/>
-      <c r="CH36" s="48"/>
-      <c r="CI36" s="57"/>
+      <c r="CB36" s="49"/>
+      <c r="CC36" s="49"/>
+      <c r="CD36" s="49"/>
+      <c r="CE36" s="49"/>
+      <c r="CF36" s="49"/>
+      <c r="CG36" s="76"/>
+      <c r="CH36" s="49"/>
+      <c r="CI36" s="58"/>
     </row>
     <row r="37" spans="13:87">
       <c r="M37" s="30" t="s">
@@ -26225,38 +26756,38 @@
         <v>1714</v>
       </c>
       <c r="BA37" s="41"/>
-      <c r="BD37" s="67" t="s">
+      <c r="BD37" s="68" t="s">
         <v>1715</v>
       </c>
-      <c r="BE37" s="48"/>
-      <c r="BF37" s="48"/>
-      <c r="BG37" s="48"/>
-      <c r="BH37" s="48"/>
-      <c r="BI37" s="48"/>
-      <c r="BJ37" s="48"/>
-      <c r="BK37" s="48"/>
-      <c r="BL37" s="48"/>
-      <c r="BM37" s="48"/>
-      <c r="BN37" s="48"/>
-      <c r="BO37" s="48"/>
-      <c r="BP37" s="48"/>
-      <c r="BQ37" s="48"/>
-      <c r="BR37" s="48"/>
-      <c r="BS37" s="48"/>
-      <c r="BT37" s="48"/>
-      <c r="BU37" s="75"/>
-      <c r="BV37" s="57"/>
-      <c r="CA37" s="55">
+      <c r="BE37" s="49"/>
+      <c r="BF37" s="49"/>
+      <c r="BG37" s="49"/>
+      <c r="BH37" s="49"/>
+      <c r="BI37" s="49"/>
+      <c r="BJ37" s="49"/>
+      <c r="BK37" s="49"/>
+      <c r="BL37" s="49"/>
+      <c r="BM37" s="49"/>
+      <c r="BN37" s="49"/>
+      <c r="BO37" s="49"/>
+      <c r="BP37" s="49"/>
+      <c r="BQ37" s="49"/>
+      <c r="BR37" s="49"/>
+      <c r="BS37" s="49"/>
+      <c r="BT37" s="49"/>
+      <c r="BU37" s="76"/>
+      <c r="BV37" s="58"/>
+      <c r="CA37" s="56">
         <v>14</v>
       </c>
-      <c r="CB37" s="48"/>
-      <c r="CC37" s="48"/>
-      <c r="CD37" s="48"/>
-      <c r="CE37" s="48"/>
-      <c r="CF37" s="48"/>
-      <c r="CG37" s="75"/>
-      <c r="CH37" s="48"/>
-      <c r="CI37" s="57"/>
+      <c r="CB37" s="49"/>
+      <c r="CC37" s="49"/>
+      <c r="CD37" s="49"/>
+      <c r="CE37" s="49"/>
+      <c r="CF37" s="49"/>
+      <c r="CG37" s="76"/>
+      <c r="CH37" s="49"/>
+      <c r="CI37" s="58"/>
     </row>
     <row r="38" ht="17.25" spans="13:87">
       <c r="M38" s="28" t="s">
@@ -26275,49 +26806,49 @@
       <c r="AD38" s="20"/>
       <c r="AE38" s="20"/>
       <c r="AF38" s="41"/>
-      <c r="AO38" s="54"/>
-      <c r="AP38" s="48"/>
-      <c r="AQ38" s="48"/>
-      <c r="AR38" s="48"/>
-      <c r="AS38" s="48"/>
-      <c r="AT38" s="48"/>
-      <c r="AU38" s="57"/>
+      <c r="AO38" s="55"/>
+      <c r="AP38" s="49"/>
+      <c r="AQ38" s="49"/>
+      <c r="AR38" s="49"/>
+      <c r="AS38" s="49"/>
+      <c r="AT38" s="49"/>
+      <c r="AU38" s="58"/>
       <c r="AX38" s="42"/>
       <c r="AY38" s="43"/>
       <c r="AZ38" s="43"/>
       <c r="BA38" s="44"/>
-      <c r="BD38" s="67" t="s">
+      <c r="BD38" s="68" t="s">
         <v>1717</v>
       </c>
-      <c r="BE38" s="48"/>
-      <c r="BF38" s="48"/>
-      <c r="BG38" s="48"/>
-      <c r="BH38" s="48"/>
-      <c r="BI38" s="48"/>
-      <c r="BJ38" s="48"/>
-      <c r="BK38" s="48"/>
-      <c r="BL38" s="48"/>
-      <c r="BM38" s="48"/>
-      <c r="BN38" s="48"/>
-      <c r="BO38" s="48"/>
-      <c r="BP38" s="48"/>
-      <c r="BQ38" s="48"/>
-      <c r="BR38" s="48"/>
-      <c r="BS38" s="48"/>
-      <c r="BT38" s="48"/>
-      <c r="BU38" s="75"/>
-      <c r="BV38" s="57"/>
-      <c r="CA38" s="55" t="s">
+      <c r="BE38" s="49"/>
+      <c r="BF38" s="49"/>
+      <c r="BG38" s="49"/>
+      <c r="BH38" s="49"/>
+      <c r="BI38" s="49"/>
+      <c r="BJ38" s="49"/>
+      <c r="BK38" s="49"/>
+      <c r="BL38" s="49"/>
+      <c r="BM38" s="49"/>
+      <c r="BN38" s="49"/>
+      <c r="BO38" s="49"/>
+      <c r="BP38" s="49"/>
+      <c r="BQ38" s="49"/>
+      <c r="BR38" s="49"/>
+      <c r="BS38" s="49"/>
+      <c r="BT38" s="49"/>
+      <c r="BU38" s="76"/>
+      <c r="BV38" s="58"/>
+      <c r="CA38" s="56" t="s">
         <v>1718</v>
       </c>
-      <c r="CB38" s="48"/>
-      <c r="CC38" s="48"/>
-      <c r="CD38" s="48"/>
-      <c r="CE38" s="48"/>
-      <c r="CF38" s="48"/>
-      <c r="CG38" s="75"/>
-      <c r="CH38" s="48"/>
-      <c r="CI38" s="57"/>
+      <c r="CB38" s="49"/>
+      <c r="CC38" s="49"/>
+      <c r="CD38" s="49"/>
+      <c r="CE38" s="49"/>
+      <c r="CF38" s="49"/>
+      <c r="CG38" s="76"/>
+      <c r="CH38" s="49"/>
+      <c r="CI38" s="58"/>
     </row>
     <row r="39" ht="21" spans="13:87">
       <c r="M39" s="30" t="s">
@@ -26336,45 +26867,45 @@
       <c r="AD39" s="20"/>
       <c r="AE39" s="20"/>
       <c r="AF39" s="41"/>
-      <c r="AO39" s="54" t="s">
+      <c r="AO39" s="55" t="s">
         <v>1721</v>
       </c>
-      <c r="AP39" s="48"/>
-      <c r="AQ39" s="48"/>
-      <c r="AR39" s="48"/>
-      <c r="AS39" s="48"/>
-      <c r="AT39" s="48"/>
-      <c r="AU39" s="57"/>
-      <c r="BD39" s="54"/>
-      <c r="BE39" s="48"/>
-      <c r="BF39" s="48"/>
-      <c r="BG39" s="48"/>
-      <c r="BH39" s="48"/>
-      <c r="BI39" s="48"/>
-      <c r="BJ39" s="48"/>
-      <c r="BK39" s="48"/>
-      <c r="BL39" s="48"/>
-      <c r="BM39" s="48"/>
-      <c r="BN39" s="48"/>
-      <c r="BO39" s="48"/>
-      <c r="BP39" s="48"/>
-      <c r="BQ39" s="48"/>
-      <c r="BR39" s="48"/>
-      <c r="BS39" s="48"/>
-      <c r="BT39" s="48"/>
-      <c r="BU39" s="75"/>
-      <c r="BV39" s="57"/>
-      <c r="CA39" s="81" t="s">
+      <c r="AP39" s="49"/>
+      <c r="AQ39" s="49"/>
+      <c r="AR39" s="49"/>
+      <c r="AS39" s="49"/>
+      <c r="AT39" s="49"/>
+      <c r="AU39" s="58"/>
+      <c r="BD39" s="55"/>
+      <c r="BE39" s="49"/>
+      <c r="BF39" s="49"/>
+      <c r="BG39" s="49"/>
+      <c r="BH39" s="49"/>
+      <c r="BI39" s="49"/>
+      <c r="BJ39" s="49"/>
+      <c r="BK39" s="49"/>
+      <c r="BL39" s="49"/>
+      <c r="BM39" s="49"/>
+      <c r="BN39" s="49"/>
+      <c r="BO39" s="49"/>
+      <c r="BP39" s="49"/>
+      <c r="BQ39" s="49"/>
+      <c r="BR39" s="49"/>
+      <c r="BS39" s="49"/>
+      <c r="BT39" s="49"/>
+      <c r="BU39" s="76"/>
+      <c r="BV39" s="58"/>
+      <c r="CA39" s="82" t="s">
         <v>1722</v>
       </c>
-      <c r="CB39" s="48"/>
-      <c r="CC39" s="48"/>
-      <c r="CD39" s="48"/>
-      <c r="CE39" s="48"/>
-      <c r="CF39" s="48"/>
-      <c r="CG39" s="75"/>
-      <c r="CH39" s="48"/>
-      <c r="CI39" s="57"/>
+      <c r="CB39" s="49"/>
+      <c r="CC39" s="49"/>
+      <c r="CD39" s="49"/>
+      <c r="CE39" s="49"/>
+      <c r="CF39" s="49"/>
+      <c r="CG39" s="76"/>
+      <c r="CH39" s="49"/>
+      <c r="CI39" s="58"/>
     </row>
     <row r="40" spans="13:87">
       <c r="M40" s="28" t="s">
@@ -26393,47 +26924,47 @@
       <c r="AD40" s="20"/>
       <c r="AE40" s="20"/>
       <c r="AF40" s="41"/>
-      <c r="AO40" s="54" t="s">
+      <c r="AO40" s="55" t="s">
         <v>1725</v>
       </c>
-      <c r="AP40" s="48"/>
-      <c r="AQ40" s="48"/>
-      <c r="AR40" s="48"/>
-      <c r="AS40" s="48"/>
-      <c r="AT40" s="48"/>
-      <c r="AU40" s="57"/>
-      <c r="BD40" s="55" t="s">
+      <c r="AP40" s="49"/>
+      <c r="AQ40" s="49"/>
+      <c r="AR40" s="49"/>
+      <c r="AS40" s="49"/>
+      <c r="AT40" s="49"/>
+      <c r="AU40" s="58"/>
+      <c r="BD40" s="56" t="s">
         <v>1726</v>
       </c>
-      <c r="BE40" s="48"/>
-      <c r="BF40" s="48"/>
-      <c r="BG40" s="48"/>
-      <c r="BH40" s="48"/>
-      <c r="BI40" s="48"/>
-      <c r="BJ40" s="48"/>
-      <c r="BK40" s="48"/>
-      <c r="BL40" s="48"/>
-      <c r="BM40" s="48"/>
-      <c r="BN40" s="48"/>
-      <c r="BO40" s="48"/>
-      <c r="BP40" s="48"/>
-      <c r="BQ40" s="48"/>
-      <c r="BR40" s="48"/>
-      <c r="BS40" s="48"/>
-      <c r="BT40" s="48"/>
-      <c r="BU40" s="75"/>
-      <c r="BV40" s="57"/>
-      <c r="CA40" s="82"/>
-      <c r="CB40" s="83" t="s">
+      <c r="BE40" s="49"/>
+      <c r="BF40" s="49"/>
+      <c r="BG40" s="49"/>
+      <c r="BH40" s="49"/>
+      <c r="BI40" s="49"/>
+      <c r="BJ40" s="49"/>
+      <c r="BK40" s="49"/>
+      <c r="BL40" s="49"/>
+      <c r="BM40" s="49"/>
+      <c r="BN40" s="49"/>
+      <c r="BO40" s="49"/>
+      <c r="BP40" s="49"/>
+      <c r="BQ40" s="49"/>
+      <c r="BR40" s="49"/>
+      <c r="BS40" s="49"/>
+      <c r="BT40" s="49"/>
+      <c r="BU40" s="76"/>
+      <c r="BV40" s="58"/>
+      <c r="CA40" s="83"/>
+      <c r="CB40" s="84" t="s">
         <v>1727</v>
       </c>
-      <c r="CC40" s="72"/>
-      <c r="CD40" s="72"/>
-      <c r="CE40" s="72"/>
-      <c r="CF40" s="72"/>
-      <c r="CG40" s="76"/>
-      <c r="CH40" s="48"/>
-      <c r="CI40" s="57"/>
+      <c r="CC40" s="73"/>
+      <c r="CD40" s="73"/>
+      <c r="CE40" s="73"/>
+      <c r="CF40" s="73"/>
+      <c r="CG40" s="77"/>
+      <c r="CH40" s="49"/>
+      <c r="CI40" s="58"/>
     </row>
     <row r="41" spans="13:87">
       <c r="M41" s="28" t="s">
@@ -26452,47 +26983,47 @@
       <c r="AD41" s="20"/>
       <c r="AE41" s="20"/>
       <c r="AF41" s="41"/>
-      <c r="AO41" s="49" t="s">
+      <c r="AO41" s="50" t="s">
         <v>1730</v>
       </c>
-      <c r="AP41" s="60"/>
-      <c r="AQ41" s="60"/>
-      <c r="AR41" s="60"/>
-      <c r="AS41" s="60"/>
-      <c r="AT41" s="60"/>
-      <c r="AU41" s="57"/>
-      <c r="BD41" s="55" t="s">
+      <c r="AP41" s="61"/>
+      <c r="AQ41" s="61"/>
+      <c r="AR41" s="61"/>
+      <c r="AS41" s="61"/>
+      <c r="AT41" s="61"/>
+      <c r="AU41" s="58"/>
+      <c r="BD41" s="56" t="s">
         <v>1731</v>
       </c>
-      <c r="BE41" s="48"/>
-      <c r="BF41" s="48"/>
-      <c r="BG41" s="48"/>
-      <c r="BH41" s="48"/>
-      <c r="BI41" s="48"/>
-      <c r="BJ41" s="48"/>
-      <c r="BK41" s="48"/>
-      <c r="BL41" s="48"/>
-      <c r="BM41" s="48"/>
-      <c r="BN41" s="48"/>
-      <c r="BO41" s="48"/>
-      <c r="BP41" s="48"/>
-      <c r="BQ41" s="48"/>
-      <c r="BR41" s="48"/>
-      <c r="BS41" s="48"/>
-      <c r="BT41" s="48"/>
-      <c r="BU41" s="75"/>
-      <c r="BV41" s="57"/>
-      <c r="CA41" s="54" t="s">
+      <c r="BE41" s="49"/>
+      <c r="BF41" s="49"/>
+      <c r="BG41" s="49"/>
+      <c r="BH41" s="49"/>
+      <c r="BI41" s="49"/>
+      <c r="BJ41" s="49"/>
+      <c r="BK41" s="49"/>
+      <c r="BL41" s="49"/>
+      <c r="BM41" s="49"/>
+      <c r="BN41" s="49"/>
+      <c r="BO41" s="49"/>
+      <c r="BP41" s="49"/>
+      <c r="BQ41" s="49"/>
+      <c r="BR41" s="49"/>
+      <c r="BS41" s="49"/>
+      <c r="BT41" s="49"/>
+      <c r="BU41" s="76"/>
+      <c r="BV41" s="58"/>
+      <c r="CA41" s="55" t="s">
         <v>1732</v>
       </c>
-      <c r="CB41" s="48"/>
-      <c r="CC41" s="48"/>
-      <c r="CD41" s="48"/>
-      <c r="CE41" s="48"/>
-      <c r="CF41" s="48"/>
-      <c r="CG41" s="48"/>
-      <c r="CH41" s="48"/>
-      <c r="CI41" s="57"/>
+      <c r="CB41" s="49"/>
+      <c r="CC41" s="49"/>
+      <c r="CD41" s="49"/>
+      <c r="CE41" s="49"/>
+      <c r="CF41" s="49"/>
+      <c r="CG41" s="49"/>
+      <c r="CH41" s="49"/>
+      <c r="CI41" s="58"/>
     </row>
     <row r="42" spans="13:87">
       <c r="M42" s="28" t="s">
@@ -26509,47 +27040,47 @@
       <c r="AD42" s="20"/>
       <c r="AE42" s="20"/>
       <c r="AF42" s="41"/>
-      <c r="AO42" s="49" t="s">
+      <c r="AO42" s="50" t="s">
         <v>1734</v>
       </c>
-      <c r="AP42" s="60"/>
-      <c r="AQ42" s="60"/>
-      <c r="AR42" s="60"/>
-      <c r="AS42" s="60"/>
-      <c r="AT42" s="60"/>
-      <c r="AU42" s="57"/>
-      <c r="BD42" s="55">
+      <c r="AP42" s="61"/>
+      <c r="AQ42" s="61"/>
+      <c r="AR42" s="61"/>
+      <c r="AS42" s="61"/>
+      <c r="AT42" s="61"/>
+      <c r="AU42" s="58"/>
+      <c r="BD42" s="56">
         <v>35</v>
       </c>
-      <c r="BE42" s="48"/>
-      <c r="BF42" s="48"/>
-      <c r="BG42" s="48"/>
-      <c r="BH42" s="48"/>
-      <c r="BI42" s="48"/>
-      <c r="BJ42" s="48"/>
-      <c r="BK42" s="48"/>
-      <c r="BL42" s="48"/>
-      <c r="BM42" s="48"/>
-      <c r="BN42" s="48"/>
-      <c r="BO42" s="48"/>
-      <c r="BP42" s="48"/>
-      <c r="BQ42" s="48"/>
-      <c r="BR42" s="48"/>
-      <c r="BS42" s="48"/>
-      <c r="BT42" s="48"/>
-      <c r="BU42" s="75"/>
-      <c r="BV42" s="57"/>
-      <c r="CA42" s="54" t="s">
+      <c r="BE42" s="49"/>
+      <c r="BF42" s="49"/>
+      <c r="BG42" s="49"/>
+      <c r="BH42" s="49"/>
+      <c r="BI42" s="49"/>
+      <c r="BJ42" s="49"/>
+      <c r="BK42" s="49"/>
+      <c r="BL42" s="49"/>
+      <c r="BM42" s="49"/>
+      <c r="BN42" s="49"/>
+      <c r="BO42" s="49"/>
+      <c r="BP42" s="49"/>
+      <c r="BQ42" s="49"/>
+      <c r="BR42" s="49"/>
+      <c r="BS42" s="49"/>
+      <c r="BT42" s="49"/>
+      <c r="BU42" s="76"/>
+      <c r="BV42" s="58"/>
+      <c r="CA42" s="55" t="s">
         <v>1735</v>
       </c>
-      <c r="CB42" s="48"/>
-      <c r="CC42" s="48"/>
-      <c r="CD42" s="48"/>
-      <c r="CE42" s="48"/>
-      <c r="CF42" s="48"/>
-      <c r="CG42" s="48"/>
-      <c r="CH42" s="48"/>
-      <c r="CI42" s="57"/>
+      <c r="CB42" s="49"/>
+      <c r="CC42" s="49"/>
+      <c r="CD42" s="49"/>
+      <c r="CE42" s="49"/>
+      <c r="CF42" s="49"/>
+      <c r="CG42" s="49"/>
+      <c r="CH42" s="49"/>
+      <c r="CI42" s="58"/>
     </row>
     <row r="43" spans="13:87">
       <c r="M43" s="28" t="s">
@@ -26566,45 +27097,45 @@
       <c r="AD43" s="20"/>
       <c r="AE43" s="20"/>
       <c r="AF43" s="41"/>
-      <c r="AO43" s="54"/>
-      <c r="AP43" s="48"/>
-      <c r="AQ43" s="48"/>
-      <c r="AR43" s="48"/>
-      <c r="AS43" s="48"/>
-      <c r="AT43" s="48"/>
-      <c r="AU43" s="57"/>
-      <c r="BD43" s="55" t="s">
+      <c r="AO43" s="55"/>
+      <c r="AP43" s="49"/>
+      <c r="AQ43" s="49"/>
+      <c r="AR43" s="49"/>
+      <c r="AS43" s="49"/>
+      <c r="AT43" s="49"/>
+      <c r="AU43" s="58"/>
+      <c r="BD43" s="56" t="s">
         <v>1737</v>
       </c>
-      <c r="BE43" s="48"/>
-      <c r="BF43" s="48"/>
-      <c r="BG43" s="48"/>
-      <c r="BH43" s="48"/>
-      <c r="BI43" s="48"/>
-      <c r="BJ43" s="48"/>
-      <c r="BK43" s="48"/>
-      <c r="BL43" s="48"/>
-      <c r="BM43" s="48"/>
-      <c r="BN43" s="48"/>
-      <c r="BO43" s="48"/>
-      <c r="BP43" s="48"/>
-      <c r="BQ43" s="48"/>
-      <c r="BR43" s="48"/>
-      <c r="BS43" s="48"/>
-      <c r="BT43" s="48"/>
-      <c r="BU43" s="75"/>
-      <c r="BV43" s="57"/>
-      <c r="CA43" s="54" t="s">
+      <c r="BE43" s="49"/>
+      <c r="BF43" s="49"/>
+      <c r="BG43" s="49"/>
+      <c r="BH43" s="49"/>
+      <c r="BI43" s="49"/>
+      <c r="BJ43" s="49"/>
+      <c r="BK43" s="49"/>
+      <c r="BL43" s="49"/>
+      <c r="BM43" s="49"/>
+      <c r="BN43" s="49"/>
+      <c r="BO43" s="49"/>
+      <c r="BP43" s="49"/>
+      <c r="BQ43" s="49"/>
+      <c r="BR43" s="49"/>
+      <c r="BS43" s="49"/>
+      <c r="BT43" s="49"/>
+      <c r="BU43" s="76"/>
+      <c r="BV43" s="58"/>
+      <c r="CA43" s="55" t="s">
         <v>1738</v>
       </c>
-      <c r="CB43" s="48"/>
-      <c r="CC43" s="48"/>
-      <c r="CD43" s="48"/>
-      <c r="CE43" s="48"/>
-      <c r="CF43" s="48"/>
-      <c r="CG43" s="48"/>
-      <c r="CH43" s="48"/>
-      <c r="CI43" s="57"/>
+      <c r="CB43" s="49"/>
+      <c r="CC43" s="49"/>
+      <c r="CD43" s="49"/>
+      <c r="CE43" s="49"/>
+      <c r="CF43" s="49"/>
+      <c r="CG43" s="49"/>
+      <c r="CH43" s="49"/>
+      <c r="CI43" s="58"/>
     </row>
     <row r="44" ht="16.5" spans="13:87">
       <c r="M44" s="28" t="s">
@@ -26621,45 +27152,45 @@
       <c r="AD44" s="20"/>
       <c r="AE44" s="20"/>
       <c r="AF44" s="41"/>
-      <c r="AO44" s="50"/>
-      <c r="AP44" s="51"/>
-      <c r="AQ44" s="51"/>
-      <c r="AR44" s="51"/>
-      <c r="AS44" s="51"/>
-      <c r="AT44" s="51"/>
-      <c r="AU44" s="58"/>
-      <c r="BD44" s="55">
+      <c r="AO44" s="51"/>
+      <c r="AP44" s="52"/>
+      <c r="AQ44" s="52"/>
+      <c r="AR44" s="52"/>
+      <c r="AS44" s="52"/>
+      <c r="AT44" s="52"/>
+      <c r="AU44" s="59"/>
+      <c r="BD44" s="56">
         <v>37</v>
       </c>
-      <c r="BE44" s="48"/>
-      <c r="BF44" s="48"/>
-      <c r="BG44" s="48"/>
-      <c r="BH44" s="48"/>
-      <c r="BI44" s="48"/>
-      <c r="BJ44" s="48"/>
-      <c r="BK44" s="48"/>
-      <c r="BL44" s="48"/>
-      <c r="BM44" s="48"/>
-      <c r="BN44" s="48"/>
-      <c r="BO44" s="48"/>
-      <c r="BP44" s="48"/>
-      <c r="BQ44" s="48"/>
-      <c r="BR44" s="48"/>
-      <c r="BS44" s="48"/>
-      <c r="BT44" s="48"/>
-      <c r="BU44" s="75"/>
-      <c r="BV44" s="57"/>
-      <c r="CA44" s="54" t="s">
+      <c r="BE44" s="49"/>
+      <c r="BF44" s="49"/>
+      <c r="BG44" s="49"/>
+      <c r="BH44" s="49"/>
+      <c r="BI44" s="49"/>
+      <c r="BJ44" s="49"/>
+      <c r="BK44" s="49"/>
+      <c r="BL44" s="49"/>
+      <c r="BM44" s="49"/>
+      <c r="BN44" s="49"/>
+      <c r="BO44" s="49"/>
+      <c r="BP44" s="49"/>
+      <c r="BQ44" s="49"/>
+      <c r="BR44" s="49"/>
+      <c r="BS44" s="49"/>
+      <c r="BT44" s="49"/>
+      <c r="BU44" s="76"/>
+      <c r="BV44" s="58"/>
+      <c r="CA44" s="55" t="s">
         <v>1740</v>
       </c>
-      <c r="CB44" s="48"/>
-      <c r="CC44" s="48"/>
-      <c r="CD44" s="48"/>
-      <c r="CE44" s="48"/>
-      <c r="CF44" s="48"/>
-      <c r="CG44" s="48"/>
-      <c r="CH44" s="48"/>
-      <c r="CI44" s="57"/>
+      <c r="CB44" s="49"/>
+      <c r="CC44" s="49"/>
+      <c r="CD44" s="49"/>
+      <c r="CE44" s="49"/>
+      <c r="CF44" s="49"/>
+      <c r="CG44" s="49"/>
+      <c r="CH44" s="49"/>
+      <c r="CI44" s="58"/>
     </row>
     <row r="45" ht="16.5" spans="13:87">
       <c r="M45" s="31" t="s">
@@ -26678,38 +27209,38 @@
       <c r="AD45" s="20"/>
       <c r="AE45" s="20"/>
       <c r="AF45" s="41"/>
-      <c r="BD45" s="55" t="s">
+      <c r="BD45" s="56" t="s">
         <v>1743</v>
       </c>
-      <c r="BE45" s="48"/>
-      <c r="BF45" s="48"/>
-      <c r="BG45" s="48"/>
-      <c r="BH45" s="48"/>
-      <c r="BI45" s="48"/>
-      <c r="BJ45" s="48"/>
-      <c r="BK45" s="48"/>
-      <c r="BL45" s="48"/>
-      <c r="BM45" s="48"/>
-      <c r="BN45" s="48"/>
-      <c r="BO45" s="48"/>
-      <c r="BP45" s="48"/>
-      <c r="BQ45" s="48"/>
-      <c r="BR45" s="48"/>
-      <c r="BS45" s="48"/>
-      <c r="BT45" s="48"/>
-      <c r="BU45" s="75"/>
-      <c r="BV45" s="57"/>
-      <c r="CA45" s="54" t="s">
+      <c r="BE45" s="49"/>
+      <c r="BF45" s="49"/>
+      <c r="BG45" s="49"/>
+      <c r="BH45" s="49"/>
+      <c r="BI45" s="49"/>
+      <c r="BJ45" s="49"/>
+      <c r="BK45" s="49"/>
+      <c r="BL45" s="49"/>
+      <c r="BM45" s="49"/>
+      <c r="BN45" s="49"/>
+      <c r="BO45" s="49"/>
+      <c r="BP45" s="49"/>
+      <c r="BQ45" s="49"/>
+      <c r="BR45" s="49"/>
+      <c r="BS45" s="49"/>
+      <c r="BT45" s="49"/>
+      <c r="BU45" s="76"/>
+      <c r="BV45" s="58"/>
+      <c r="CA45" s="55" t="s">
         <v>1744</v>
       </c>
-      <c r="CB45" s="48"/>
-      <c r="CC45" s="48"/>
-      <c r="CD45" s="48"/>
-      <c r="CE45" s="48"/>
-      <c r="CF45" s="48"/>
-      <c r="CG45" s="48"/>
-      <c r="CH45" s="48"/>
-      <c r="CI45" s="57"/>
+      <c r="CB45" s="49"/>
+      <c r="CC45" s="49"/>
+      <c r="CD45" s="49"/>
+      <c r="CE45" s="49"/>
+      <c r="CF45" s="49"/>
+      <c r="CG45" s="49"/>
+      <c r="CH45" s="49"/>
+      <c r="CI45" s="58"/>
     </row>
     <row r="46" ht="16.5" spans="22:87">
       <c r="V46" s="36"/>
@@ -26723,38 +27254,38 @@
       <c r="AD46" s="20"/>
       <c r="AE46" s="20"/>
       <c r="AF46" s="41"/>
-      <c r="BD46" s="55" t="s">
+      <c r="BD46" s="56" t="s">
         <v>1746</v>
       </c>
-      <c r="BE46" s="48"/>
-      <c r="BF46" s="48"/>
-      <c r="BG46" s="48"/>
-      <c r="BH46" s="48"/>
-      <c r="BI46" s="48"/>
-      <c r="BJ46" s="48"/>
-      <c r="BK46" s="48"/>
-      <c r="BL46" s="48"/>
-      <c r="BM46" s="48"/>
-      <c r="BN46" s="48"/>
-      <c r="BO46" s="48"/>
-      <c r="BP46" s="48"/>
-      <c r="BQ46" s="48"/>
-      <c r="BR46" s="48"/>
-      <c r="BS46" s="48"/>
-      <c r="BT46" s="48"/>
-      <c r="BU46" s="75"/>
-      <c r="BV46" s="57"/>
-      <c r="CA46" s="54" t="s">
+      <c r="BE46" s="49"/>
+      <c r="BF46" s="49"/>
+      <c r="BG46" s="49"/>
+      <c r="BH46" s="49"/>
+      <c r="BI46" s="49"/>
+      <c r="BJ46" s="49"/>
+      <c r="BK46" s="49"/>
+      <c r="BL46" s="49"/>
+      <c r="BM46" s="49"/>
+      <c r="BN46" s="49"/>
+      <c r="BO46" s="49"/>
+      <c r="BP46" s="49"/>
+      <c r="BQ46" s="49"/>
+      <c r="BR46" s="49"/>
+      <c r="BS46" s="49"/>
+      <c r="BT46" s="49"/>
+      <c r="BU46" s="76"/>
+      <c r="BV46" s="58"/>
+      <c r="CA46" s="55" t="s">
         <v>1747</v>
       </c>
-      <c r="CB46" s="48"/>
-      <c r="CC46" s="48"/>
-      <c r="CD46" s="48"/>
-      <c r="CE46" s="48"/>
-      <c r="CF46" s="48"/>
-      <c r="CG46" s="48"/>
-      <c r="CH46" s="48"/>
-      <c r="CI46" s="57"/>
+      <c r="CB46" s="49"/>
+      <c r="CC46" s="49"/>
+      <c r="CD46" s="49"/>
+      <c r="CE46" s="49"/>
+      <c r="CF46" s="49"/>
+      <c r="CG46" s="49"/>
+      <c r="CH46" s="49"/>
+      <c r="CI46" s="58"/>
     </row>
     <row r="47" ht="16.5" spans="22:87">
       <c r="V47" s="39"/>
@@ -26779,36 +27310,36 @@
       <c r="AS47" s="3"/>
       <c r="AT47" s="3"/>
       <c r="AU47" s="8"/>
-      <c r="BD47" s="55">
+      <c r="BD47" s="56">
         <v>40</v>
       </c>
-      <c r="BE47" s="48"/>
-      <c r="BF47" s="48"/>
-      <c r="BG47" s="48"/>
-      <c r="BH47" s="48"/>
-      <c r="BI47" s="48"/>
-      <c r="BJ47" s="48"/>
-      <c r="BK47" s="48"/>
-      <c r="BL47" s="48"/>
-      <c r="BM47" s="48"/>
-      <c r="BN47" s="48"/>
-      <c r="BO47" s="48"/>
-      <c r="BP47" s="48"/>
-      <c r="BQ47" s="48"/>
-      <c r="BR47" s="48"/>
-      <c r="BS47" s="48"/>
-      <c r="BT47" s="48"/>
-      <c r="BU47" s="75"/>
-      <c r="BV47" s="57"/>
-      <c r="CA47" s="54"/>
-      <c r="CB47" s="48"/>
-      <c r="CC47" s="48"/>
-      <c r="CD47" s="48"/>
-      <c r="CE47" s="48"/>
-      <c r="CF47" s="48"/>
-      <c r="CG47" s="48"/>
-      <c r="CH47" s="48"/>
-      <c r="CI47" s="57"/>
+      <c r="BE47" s="49"/>
+      <c r="BF47" s="49"/>
+      <c r="BG47" s="49"/>
+      <c r="BH47" s="49"/>
+      <c r="BI47" s="49"/>
+      <c r="BJ47" s="49"/>
+      <c r="BK47" s="49"/>
+      <c r="BL47" s="49"/>
+      <c r="BM47" s="49"/>
+      <c r="BN47" s="49"/>
+      <c r="BO47" s="49"/>
+      <c r="BP47" s="49"/>
+      <c r="BQ47" s="49"/>
+      <c r="BR47" s="49"/>
+      <c r="BS47" s="49"/>
+      <c r="BT47" s="49"/>
+      <c r="BU47" s="76"/>
+      <c r="BV47" s="58"/>
+      <c r="CA47" s="55"/>
+      <c r="CB47" s="49"/>
+      <c r="CC47" s="49"/>
+      <c r="CD47" s="49"/>
+      <c r="CE47" s="49"/>
+      <c r="CF47" s="49"/>
+      <c r="CG47" s="49"/>
+      <c r="CH47" s="49"/>
+      <c r="CI47" s="58"/>
     </row>
     <row r="48" ht="16.5" spans="22:87">
       <c r="V48" s="42"/>
@@ -26827,41 +27358,41 @@
       <c r="AJ48" s="37"/>
       <c r="AK48" s="37"/>
       <c r="AL48" s="37"/>
-      <c r="AM48" s="56"/>
+      <c r="AM48" s="57"/>
       <c r="AO48" s="5" t="s">
         <v>1751</v>
       </c>
       <c r="AU48" s="9"/>
-      <c r="BD48" s="55" t="s">
+      <c r="BD48" s="56" t="s">
         <v>1752</v>
       </c>
-      <c r="BE48" s="48"/>
-      <c r="BF48" s="48"/>
-      <c r="BG48" s="48"/>
-      <c r="BH48" s="48"/>
-      <c r="BI48" s="48"/>
-      <c r="BJ48" s="48"/>
-      <c r="BK48" s="48"/>
-      <c r="BL48" s="48"/>
-      <c r="BM48" s="48"/>
-      <c r="BN48" s="48"/>
-      <c r="BO48" s="48"/>
-      <c r="BP48" s="48"/>
-      <c r="BQ48" s="48"/>
-      <c r="BR48" s="48"/>
-      <c r="BS48" s="48"/>
-      <c r="BT48" s="48"/>
-      <c r="BU48" s="75"/>
-      <c r="BV48" s="57"/>
-      <c r="CA48" s="50"/>
-      <c r="CB48" s="51"/>
-      <c r="CC48" s="51"/>
-      <c r="CD48" s="51"/>
-      <c r="CE48" s="51"/>
-      <c r="CF48" s="51"/>
-      <c r="CG48" s="51"/>
-      <c r="CH48" s="51"/>
-      <c r="CI48" s="58"/>
+      <c r="BE48" s="49"/>
+      <c r="BF48" s="49"/>
+      <c r="BG48" s="49"/>
+      <c r="BH48" s="49"/>
+      <c r="BI48" s="49"/>
+      <c r="BJ48" s="49"/>
+      <c r="BK48" s="49"/>
+      <c r="BL48" s="49"/>
+      <c r="BM48" s="49"/>
+      <c r="BN48" s="49"/>
+      <c r="BO48" s="49"/>
+      <c r="BP48" s="49"/>
+      <c r="BQ48" s="49"/>
+      <c r="BR48" s="49"/>
+      <c r="BS48" s="49"/>
+      <c r="BT48" s="49"/>
+      <c r="BU48" s="76"/>
+      <c r="BV48" s="58"/>
+      <c r="CA48" s="51"/>
+      <c r="CB48" s="52"/>
+      <c r="CC48" s="52"/>
+      <c r="CD48" s="52"/>
+      <c r="CE48" s="52"/>
+      <c r="CF48" s="52"/>
+      <c r="CG48" s="52"/>
+      <c r="CH48" s="52"/>
+      <c r="CI48" s="59"/>
     </row>
     <row r="49" spans="27:74">
       <c r="AA49" s="39"/>
@@ -26871,39 +27402,39 @@
       <c r="AE49" s="20"/>
       <c r="AF49" s="41"/>
       <c r="AH49" s="39"/>
-      <c r="AI49" s="48"/>
-      <c r="AJ49" s="48"/>
-      <c r="AK49" s="48"/>
+      <c r="AI49" s="49"/>
+      <c r="AJ49" s="49"/>
+      <c r="AK49" s="49"/>
       <c r="AL49" s="20"/>
-      <c r="AM49" s="57"/>
+      <c r="AM49" s="58"/>
       <c r="AO49" s="5" t="s">
         <v>1753</v>
       </c>
       <c r="AU49" s="9"/>
-      <c r="BD49" s="68" t="s">
+      <c r="BD49" s="69" t="s">
         <v>1754</v>
       </c>
-      <c r="BE49" s="48"/>
-      <c r="BF49" s="48"/>
-      <c r="BG49" s="48"/>
-      <c r="BH49" s="48"/>
-      <c r="BI49" s="48"/>
-      <c r="BJ49" s="48"/>
-      <c r="BK49" s="48"/>
-      <c r="BL49" s="48"/>
-      <c r="BM49" s="48"/>
-      <c r="BN49" s="48"/>
-      <c r="BO49" s="48"/>
-      <c r="BP49" s="48"/>
-      <c r="BQ49" s="48"/>
-      <c r="BR49" s="48"/>
-      <c r="BS49" s="48"/>
-      <c r="BT49" s="48"/>
-      <c r="BU49" s="75"/>
-      <c r="BV49" s="57"/>
+      <c r="BE49" s="49"/>
+      <c r="BF49" s="49"/>
+      <c r="BG49" s="49"/>
+      <c r="BH49" s="49"/>
+      <c r="BI49" s="49"/>
+      <c r="BJ49" s="49"/>
+      <c r="BK49" s="49"/>
+      <c r="BL49" s="49"/>
+      <c r="BM49" s="49"/>
+      <c r="BN49" s="49"/>
+      <c r="BO49" s="49"/>
+      <c r="BP49" s="49"/>
+      <c r="BQ49" s="49"/>
+      <c r="BR49" s="49"/>
+      <c r="BS49" s="49"/>
+      <c r="BT49" s="49"/>
+      <c r="BU49" s="76"/>
+      <c r="BV49" s="58"/>
     </row>
     <row r="50" ht="16.5" spans="27:74">
-      <c r="AA50" s="46" t="s">
+      <c r="AA50" s="47" t="s">
         <v>1755</v>
       </c>
       <c r="AB50" s="20"/>
@@ -26914,36 +27445,36 @@
       <c r="AH50" s="46" t="s">
         <v>1756</v>
       </c>
-      <c r="AI50" s="48"/>
-      <c r="AJ50" s="48"/>
-      <c r="AK50" s="48"/>
+      <c r="AI50" s="49"/>
+      <c r="AJ50" s="49"/>
+      <c r="AK50" s="49"/>
       <c r="AL50" s="20"/>
-      <c r="AM50" s="57"/>
+      <c r="AM50" s="58"/>
       <c r="AO50" s="5" t="s">
         <v>1757</v>
       </c>
       <c r="AU50" s="9"/>
-      <c r="BD50" s="68" t="s">
+      <c r="BD50" s="69" t="s">
         <v>1758</v>
       </c>
-      <c r="BE50" s="48"/>
-      <c r="BF50" s="48"/>
-      <c r="BG50" s="48"/>
-      <c r="BH50" s="48"/>
-      <c r="BI50" s="48"/>
-      <c r="BJ50" s="48"/>
-      <c r="BK50" s="48"/>
-      <c r="BL50" s="48"/>
-      <c r="BM50" s="48"/>
-      <c r="BN50" s="48"/>
-      <c r="BO50" s="48"/>
-      <c r="BP50" s="48"/>
-      <c r="BQ50" s="48"/>
-      <c r="BR50" s="48"/>
-      <c r="BS50" s="48"/>
-      <c r="BT50" s="48"/>
-      <c r="BU50" s="75"/>
-      <c r="BV50" s="57"/>
+      <c r="BE50" s="49"/>
+      <c r="BF50" s="49"/>
+      <c r="BG50" s="49"/>
+      <c r="BH50" s="49"/>
+      <c r="BI50" s="49"/>
+      <c r="BJ50" s="49"/>
+      <c r="BK50" s="49"/>
+      <c r="BL50" s="49"/>
+      <c r="BM50" s="49"/>
+      <c r="BN50" s="49"/>
+      <c r="BO50" s="49"/>
+      <c r="BP50" s="49"/>
+      <c r="BQ50" s="49"/>
+      <c r="BR50" s="49"/>
+      <c r="BS50" s="49"/>
+      <c r="BT50" s="49"/>
+      <c r="BU50" s="76"/>
+      <c r="BV50" s="58"/>
     </row>
     <row r="51" spans="27:74">
       <c r="AA51" s="39"/>
@@ -26953,36 +27484,36 @@
       <c r="AE51" s="20"/>
       <c r="AF51" s="41"/>
       <c r="AH51" s="39"/>
-      <c r="AI51" s="48"/>
-      <c r="AJ51" s="48"/>
-      <c r="AK51" s="48"/>
+      <c r="AI51" s="49"/>
+      <c r="AJ51" s="49"/>
+      <c r="AK51" s="49"/>
       <c r="AL51" s="20"/>
-      <c r="AM51" s="57"/>
+      <c r="AM51" s="58"/>
       <c r="AO51" s="5" t="s">
         <v>1759</v>
       </c>
       <c r="AU51" s="9"/>
-      <c r="BD51" s="68" t="s">
+      <c r="BD51" s="69" t="s">
         <v>1760</v>
       </c>
-      <c r="BE51" s="48"/>
-      <c r="BF51" s="48"/>
-      <c r="BG51" s="48"/>
-      <c r="BH51" s="48"/>
-      <c r="BI51" s="48"/>
-      <c r="BJ51" s="48"/>
-      <c r="BK51" s="48"/>
-      <c r="BL51" s="48"/>
-      <c r="BM51" s="48"/>
-      <c r="BN51" s="48"/>
-      <c r="BO51" s="48"/>
-      <c r="BP51" s="48"/>
-      <c r="BQ51" s="48"/>
-      <c r="BR51" s="48"/>
-      <c r="BS51" s="48"/>
-      <c r="BT51" s="48"/>
-      <c r="BU51" s="75"/>
-      <c r="BV51" s="57"/>
+      <c r="BE51" s="49"/>
+      <c r="BF51" s="49"/>
+      <c r="BG51" s="49"/>
+      <c r="BH51" s="49"/>
+      <c r="BI51" s="49"/>
+      <c r="BJ51" s="49"/>
+      <c r="BK51" s="49"/>
+      <c r="BL51" s="49"/>
+      <c r="BM51" s="49"/>
+      <c r="BN51" s="49"/>
+      <c r="BO51" s="49"/>
+      <c r="BP51" s="49"/>
+      <c r="BQ51" s="49"/>
+      <c r="BR51" s="49"/>
+      <c r="BS51" s="49"/>
+      <c r="BT51" s="49"/>
+      <c r="BU51" s="76"/>
+      <c r="BV51" s="58"/>
     </row>
     <row r="52" ht="16.5" spans="27:74">
       <c r="AA52" s="42"/>
@@ -26994,69 +27525,69 @@
       <c r="AH52" s="46" t="s">
         <v>1761</v>
       </c>
-      <c r="AI52" s="48"/>
-      <c r="AJ52" s="48"/>
-      <c r="AK52" s="48"/>
+      <c r="AI52" s="49"/>
+      <c r="AJ52" s="49"/>
+      <c r="AK52" s="49"/>
       <c r="AL52" s="20"/>
-      <c r="AM52" s="57"/>
-      <c r="AO52" s="61" t="s">
+      <c r="AM52" s="58"/>
+      <c r="AO52" s="62" t="s">
         <v>1762</v>
       </c>
       <c r="AU52" s="9"/>
-      <c r="BD52" s="54"/>
-      <c r="BE52" s="48"/>
-      <c r="BF52" s="48"/>
-      <c r="BG52" s="48"/>
-      <c r="BH52" s="48"/>
-      <c r="BI52" s="48"/>
-      <c r="BJ52" s="48"/>
-      <c r="BK52" s="48"/>
-      <c r="BL52" s="48"/>
-      <c r="BM52" s="48"/>
-      <c r="BN52" s="48"/>
-      <c r="BO52" s="48"/>
-      <c r="BP52" s="48"/>
-      <c r="BQ52" s="48"/>
-      <c r="BR52" s="48"/>
-      <c r="BS52" s="48"/>
-      <c r="BT52" s="48"/>
-      <c r="BU52" s="75"/>
-      <c r="BV52" s="57"/>
+      <c r="BD52" s="55"/>
+      <c r="BE52" s="49"/>
+      <c r="BF52" s="49"/>
+      <c r="BG52" s="49"/>
+      <c r="BH52" s="49"/>
+      <c r="BI52" s="49"/>
+      <c r="BJ52" s="49"/>
+      <c r="BK52" s="49"/>
+      <c r="BL52" s="49"/>
+      <c r="BM52" s="49"/>
+      <c r="BN52" s="49"/>
+      <c r="BO52" s="49"/>
+      <c r="BP52" s="49"/>
+      <c r="BQ52" s="49"/>
+      <c r="BR52" s="49"/>
+      <c r="BS52" s="49"/>
+      <c r="BT52" s="49"/>
+      <c r="BU52" s="76"/>
+      <c r="BV52" s="58"/>
     </row>
     <row r="53" ht="16.5" spans="34:74">
       <c r="AH53" s="46" t="s">
         <v>1763</v>
       </c>
-      <c r="AI53" s="48"/>
-      <c r="AJ53" s="48"/>
-      <c r="AK53" s="48"/>
+      <c r="AI53" s="49"/>
+      <c r="AJ53" s="49"/>
+      <c r="AK53" s="49"/>
       <c r="AL53" s="20"/>
-      <c r="AM53" s="57"/>
-      <c r="AO53" s="61" t="s">
+      <c r="AM53" s="58"/>
+      <c r="AO53" s="62" t="s">
         <v>1764</v>
       </c>
       <c r="AU53" s="9"/>
-      <c r="BD53" s="54" t="s">
+      <c r="BD53" s="55" t="s">
         <v>1765</v>
       </c>
-      <c r="BE53" s="48"/>
-      <c r="BF53" s="48"/>
-      <c r="BG53" s="48"/>
-      <c r="BH53" s="48"/>
-      <c r="BI53" s="48"/>
-      <c r="BJ53" s="48"/>
-      <c r="BK53" s="48"/>
-      <c r="BL53" s="48"/>
-      <c r="BM53" s="48"/>
-      <c r="BN53" s="48"/>
-      <c r="BO53" s="48"/>
-      <c r="BP53" s="48"/>
-      <c r="BQ53" s="48"/>
-      <c r="BR53" s="48"/>
-      <c r="BS53" s="48"/>
-      <c r="BT53" s="48"/>
-      <c r="BU53" s="75"/>
-      <c r="BV53" s="57"/>
+      <c r="BE53" s="49"/>
+      <c r="BF53" s="49"/>
+      <c r="BG53" s="49"/>
+      <c r="BH53" s="49"/>
+      <c r="BI53" s="49"/>
+      <c r="BJ53" s="49"/>
+      <c r="BK53" s="49"/>
+      <c r="BL53" s="49"/>
+      <c r="BM53" s="49"/>
+      <c r="BN53" s="49"/>
+      <c r="BO53" s="49"/>
+      <c r="BP53" s="49"/>
+      <c r="BQ53" s="49"/>
+      <c r="BR53" s="49"/>
+      <c r="BS53" s="49"/>
+      <c r="BT53" s="49"/>
+      <c r="BU53" s="76"/>
+      <c r="BV53" s="58"/>
     </row>
     <row r="54" spans="34:89">
       <c r="AH54" s="39"/>
@@ -27064,32 +27595,32 @@
       <c r="AJ54" s="20"/>
       <c r="AK54" s="20"/>
       <c r="AL54" s="20"/>
-      <c r="AM54" s="57"/>
+      <c r="AM54" s="58"/>
       <c r="AO54" s="5" t="s">
         <v>1766</v>
       </c>
       <c r="AU54" s="9"/>
-      <c r="BD54" s="69" t="s">
+      <c r="BD54" s="70" t="s">
         <v>1767</v>
       </c>
-      <c r="BE54" s="72"/>
-      <c r="BF54" s="72"/>
-      <c r="BG54" s="72"/>
-      <c r="BH54" s="72"/>
-      <c r="BI54" s="72"/>
-      <c r="BJ54" s="72"/>
-      <c r="BK54" s="72"/>
-      <c r="BL54" s="72"/>
-      <c r="BM54" s="72"/>
-      <c r="BN54" s="72"/>
-      <c r="BO54" s="48"/>
-      <c r="BP54" s="48"/>
-      <c r="BQ54" s="48"/>
-      <c r="BR54" s="48"/>
-      <c r="BS54" s="48"/>
-      <c r="BT54" s="48"/>
-      <c r="BU54" s="75"/>
-      <c r="BV54" s="57"/>
+      <c r="BE54" s="73"/>
+      <c r="BF54" s="73"/>
+      <c r="BG54" s="73"/>
+      <c r="BH54" s="73"/>
+      <c r="BI54" s="73"/>
+      <c r="BJ54" s="73"/>
+      <c r="BK54" s="73"/>
+      <c r="BL54" s="73"/>
+      <c r="BM54" s="73"/>
+      <c r="BN54" s="73"/>
+      <c r="BO54" s="49"/>
+      <c r="BP54" s="49"/>
+      <c r="BQ54" s="49"/>
+      <c r="BR54" s="49"/>
+      <c r="BS54" s="49"/>
+      <c r="BT54" s="49"/>
+      <c r="BU54" s="76"/>
+      <c r="BV54" s="58"/>
       <c r="CA54" s="2" t="s">
         <v>1768</v>
       </c>
@@ -27105,47 +27636,47 @@
       <c r="CK54" s="8"/>
     </row>
     <row r="55" spans="34:89">
-      <c r="AH55" s="49" t="s">
+      <c r="AH55" s="50" t="s">
         <v>1769</v>
       </c>
-      <c r="AI55" s="48"/>
-      <c r="AJ55" s="48"/>
-      <c r="AK55" s="48"/>
-      <c r="AL55" s="48"/>
-      <c r="AM55" s="57"/>
+      <c r="AI55" s="49"/>
+      <c r="AJ55" s="49"/>
+      <c r="AK55" s="49"/>
+      <c r="AL55" s="49"/>
+      <c r="AM55" s="58"/>
       <c r="AO55" s="5"/>
       <c r="AU55" s="9"/>
-      <c r="BD55" s="70" t="s">
+      <c r="BD55" s="71" t="s">
         <v>1770</v>
       </c>
-      <c r="BE55" s="48"/>
-      <c r="BF55" s="48"/>
-      <c r="BG55" s="48"/>
-      <c r="BH55" s="48"/>
-      <c r="BI55" s="48"/>
-      <c r="BJ55" s="48"/>
-      <c r="BK55" s="48"/>
-      <c r="BL55" s="48"/>
-      <c r="BM55" s="48"/>
-      <c r="BN55" s="48"/>
-      <c r="BO55" s="48"/>
-      <c r="BP55" s="48"/>
-      <c r="BQ55" s="48"/>
-      <c r="BR55" s="48"/>
-      <c r="BS55" s="48"/>
-      <c r="BT55" s="48"/>
-      <c r="BU55" s="75"/>
-      <c r="BV55" s="57"/>
+      <c r="BE55" s="49"/>
+      <c r="BF55" s="49"/>
+      <c r="BG55" s="49"/>
+      <c r="BH55" s="49"/>
+      <c r="BI55" s="49"/>
+      <c r="BJ55" s="49"/>
+      <c r="BK55" s="49"/>
+      <c r="BL55" s="49"/>
+      <c r="BM55" s="49"/>
+      <c r="BN55" s="49"/>
+      <c r="BO55" s="49"/>
+      <c r="BP55" s="49"/>
+      <c r="BQ55" s="49"/>
+      <c r="BR55" s="49"/>
+      <c r="BS55" s="49"/>
+      <c r="BT55" s="49"/>
+      <c r="BU55" s="76"/>
+      <c r="BV55" s="58"/>
       <c r="CA55" s="5"/>
       <c r="CK55" s="9"/>
     </row>
     <row r="56" ht="17.25" spans="34:89">
-      <c r="AH56" s="50"/>
-      <c r="AI56" s="51"/>
-      <c r="AJ56" s="51"/>
-      <c r="AK56" s="51"/>
-      <c r="AL56" s="51"/>
-      <c r="AM56" s="58"/>
+      <c r="AH56" s="51"/>
+      <c r="AI56" s="52"/>
+      <c r="AJ56" s="52"/>
+      <c r="AK56" s="52"/>
+      <c r="AL56" s="52"/>
+      <c r="AM56" s="59"/>
       <c r="AO56" s="6"/>
       <c r="AP56" s="7"/>
       <c r="AQ56" s="7"/>
@@ -27153,135 +27684,135 @@
       <c r="AS56" s="7"/>
       <c r="AT56" s="7"/>
       <c r="AU56" s="10"/>
-      <c r="BD56" s="54" t="s">
+      <c r="BD56" s="55" t="s">
         <v>1771</v>
       </c>
-      <c r="BE56" s="48"/>
-      <c r="BF56" s="48"/>
-      <c r="BG56" s="48"/>
-      <c r="BH56" s="48"/>
-      <c r="BI56" s="48"/>
-      <c r="BJ56" s="48"/>
-      <c r="BK56" s="48"/>
-      <c r="BL56" s="48"/>
-      <c r="BM56" s="48"/>
-      <c r="BN56" s="48"/>
-      <c r="BO56" s="48"/>
-      <c r="BP56" s="48"/>
-      <c r="BQ56" s="48"/>
-      <c r="BR56" s="48"/>
-      <c r="BS56" s="48"/>
-      <c r="BT56" s="48"/>
-      <c r="BU56" s="75"/>
-      <c r="BV56" s="57"/>
-      <c r="CA56" s="84" t="s">
+      <c r="BE56" s="49"/>
+      <c r="BF56" s="49"/>
+      <c r="BG56" s="49"/>
+      <c r="BH56" s="49"/>
+      <c r="BI56" s="49"/>
+      <c r="BJ56" s="49"/>
+      <c r="BK56" s="49"/>
+      <c r="BL56" s="49"/>
+      <c r="BM56" s="49"/>
+      <c r="BN56" s="49"/>
+      <c r="BO56" s="49"/>
+      <c r="BP56" s="49"/>
+      <c r="BQ56" s="49"/>
+      <c r="BR56" s="49"/>
+      <c r="BS56" s="49"/>
+      <c r="BT56" s="49"/>
+      <c r="BU56" s="76"/>
+      <c r="BV56" s="58"/>
+      <c r="CA56" s="85" t="s">
         <v>1772</v>
       </c>
       <c r="CK56" s="9"/>
     </row>
     <row r="57" spans="56:89">
-      <c r="BD57" s="71"/>
-      <c r="BE57" s="48"/>
-      <c r="BF57" s="48"/>
-      <c r="BG57" s="48"/>
-      <c r="BH57" s="48"/>
-      <c r="BI57" s="48"/>
-      <c r="BJ57" s="48"/>
-      <c r="BK57" s="48"/>
-      <c r="BL57" s="48"/>
-      <c r="BM57" s="48"/>
-      <c r="BN57" s="48"/>
-      <c r="BO57" s="48"/>
-      <c r="BP57" s="48"/>
-      <c r="BQ57" s="48"/>
-      <c r="BR57" s="48"/>
-      <c r="BS57" s="48"/>
-      <c r="BT57" s="48"/>
-      <c r="BU57" s="75"/>
-      <c r="BV57" s="57"/>
+      <c r="BD57" s="72"/>
+      <c r="BE57" s="49"/>
+      <c r="BF57" s="49"/>
+      <c r="BG57" s="49"/>
+      <c r="BH57" s="49"/>
+      <c r="BI57" s="49"/>
+      <c r="BJ57" s="49"/>
+      <c r="BK57" s="49"/>
+      <c r="BL57" s="49"/>
+      <c r="BM57" s="49"/>
+      <c r="BN57" s="49"/>
+      <c r="BO57" s="49"/>
+      <c r="BP57" s="49"/>
+      <c r="BQ57" s="49"/>
+      <c r="BR57" s="49"/>
+      <c r="BS57" s="49"/>
+      <c r="BT57" s="49"/>
+      <c r="BU57" s="76"/>
+      <c r="BV57" s="58"/>
       <c r="CA57" s="4">
         <v>24</v>
       </c>
       <c r="CK57" s="9"/>
     </row>
     <row r="58" spans="56:89">
-      <c r="BD58" s="71" t="s">
+      <c r="BD58" s="72" t="s">
         <v>1773</v>
       </c>
-      <c r="BE58" s="48"/>
-      <c r="BF58" s="48"/>
-      <c r="BG58" s="48"/>
-      <c r="BH58" s="48"/>
-      <c r="BI58" s="48"/>
-      <c r="BJ58" s="48"/>
-      <c r="BK58" s="73" t="s">
+      <c r="BE58" s="49"/>
+      <c r="BF58" s="49"/>
+      <c r="BG58" s="49"/>
+      <c r="BH58" s="49"/>
+      <c r="BI58" s="49"/>
+      <c r="BJ58" s="49"/>
+      <c r="BK58" s="74" t="s">
         <v>1774</v>
       </c>
-      <c r="BL58" s="48"/>
-      <c r="BM58" s="48"/>
-      <c r="BN58" s="48"/>
-      <c r="BO58" s="72"/>
-      <c r="BP58" s="72"/>
-      <c r="BQ58" s="72"/>
-      <c r="BR58" s="72"/>
-      <c r="BS58" s="72"/>
-      <c r="BT58" s="72"/>
-      <c r="BU58" s="76"/>
-      <c r="BV58" s="77"/>
+      <c r="BL58" s="49"/>
+      <c r="BM58" s="49"/>
+      <c r="BN58" s="49"/>
+      <c r="BO58" s="73"/>
+      <c r="BP58" s="73"/>
+      <c r="BQ58" s="73"/>
+      <c r="BR58" s="73"/>
+      <c r="BS58" s="73"/>
+      <c r="BT58" s="73"/>
+      <c r="BU58" s="77"/>
+      <c r="BV58" s="78"/>
       <c r="CA58" s="4" t="s">
         <v>1775</v>
       </c>
       <c r="CK58" s="9"/>
     </row>
     <row r="59" spans="56:89">
-      <c r="BD59" s="54" t="s">
+      <c r="BD59" s="55" t="s">
         <v>1776</v>
       </c>
-      <c r="BE59" s="48"/>
-      <c r="BF59" s="48"/>
-      <c r="BG59" s="48"/>
-      <c r="BH59" s="48"/>
-      <c r="BI59" s="48"/>
-      <c r="BJ59" s="48"/>
-      <c r="BK59" s="48"/>
-      <c r="BL59" s="48"/>
-      <c r="BM59" s="48"/>
-      <c r="BN59" s="48"/>
-      <c r="BO59" s="48"/>
-      <c r="BP59" s="48"/>
-      <c r="BQ59" s="48"/>
-      <c r="BR59" s="48"/>
-      <c r="BS59" s="48"/>
-      <c r="BT59" s="48"/>
-      <c r="BU59" s="75"/>
-      <c r="BV59" s="57"/>
+      <c r="BE59" s="49"/>
+      <c r="BF59" s="49"/>
+      <c r="BG59" s="49"/>
+      <c r="BH59" s="49"/>
+      <c r="BI59" s="49"/>
+      <c r="BJ59" s="49"/>
+      <c r="BK59" s="49"/>
+      <c r="BL59" s="49"/>
+      <c r="BM59" s="49"/>
+      <c r="BN59" s="49"/>
+      <c r="BO59" s="49"/>
+      <c r="BP59" s="49"/>
+      <c r="BQ59" s="49"/>
+      <c r="BR59" s="49"/>
+      <c r="BS59" s="49"/>
+      <c r="BT59" s="49"/>
+      <c r="BU59" s="76"/>
+      <c r="BV59" s="58"/>
       <c r="CA59" s="4" t="s">
         <v>1777</v>
       </c>
       <c r="CK59" s="9"/>
     </row>
     <row r="60" ht="16.5" spans="56:89">
-      <c r="BD60" s="71" t="s">
+      <c r="BD60" s="72" t="s">
         <v>1778</v>
       </c>
-      <c r="BE60" s="48"/>
-      <c r="BF60" s="48"/>
-      <c r="BG60" s="48"/>
-      <c r="BH60" s="48"/>
-      <c r="BI60" s="48"/>
-      <c r="BJ60" s="48"/>
-      <c r="BK60" s="48"/>
-      <c r="BL60" s="48"/>
-      <c r="BM60" s="48"/>
-      <c r="BN60" s="48"/>
-      <c r="BO60" s="48"/>
-      <c r="BP60" s="48"/>
-      <c r="BQ60" s="48"/>
-      <c r="BR60" s="48"/>
-      <c r="BS60" s="48"/>
-      <c r="BT60" s="48"/>
-      <c r="BU60" s="75"/>
-      <c r="BV60" s="57"/>
+      <c r="BE60" s="49"/>
+      <c r="BF60" s="49"/>
+      <c r="BG60" s="49"/>
+      <c r="BH60" s="49"/>
+      <c r="BI60" s="49"/>
+      <c r="BJ60" s="49"/>
+      <c r="BK60" s="49"/>
+      <c r="BL60" s="49"/>
+      <c r="BM60" s="49"/>
+      <c r="BN60" s="49"/>
+      <c r="BO60" s="49"/>
+      <c r="BP60" s="49"/>
+      <c r="BQ60" s="49"/>
+      <c r="BR60" s="49"/>
+      <c r="BS60" s="49"/>
+      <c r="BT60" s="49"/>
+      <c r="BU60" s="76"/>
+      <c r="BV60" s="58"/>
       <c r="CA60" s="4" t="s">
         <v>1779</v>
       </c>
@@ -27291,168 +27822,168 @@
       <c r="CK60" s="9"/>
     </row>
     <row r="61" spans="34:89">
-      <c r="AH61" s="52"/>
-      <c r="AI61" s="53"/>
-      <c r="AJ61" s="53"/>
-      <c r="AK61" s="53"/>
-      <c r="AL61" s="53"/>
-      <c r="AM61" s="53"/>
-      <c r="AN61" s="53"/>
-      <c r="AO61" s="53"/>
-      <c r="AP61" s="53"/>
-      <c r="AQ61" s="53"/>
-      <c r="AR61" s="53"/>
-      <c r="AS61" s="53"/>
-      <c r="AT61" s="53"/>
-      <c r="AU61" s="53"/>
-      <c r="AV61" s="53"/>
-      <c r="AW61" s="53"/>
-      <c r="AX61" s="53"/>
-      <c r="AY61" s="56"/>
-      <c r="BD61" s="54" t="s">
+      <c r="AH61" s="53"/>
+      <c r="AI61" s="54"/>
+      <c r="AJ61" s="54"/>
+      <c r="AK61" s="54"/>
+      <c r="AL61" s="54"/>
+      <c r="AM61" s="54"/>
+      <c r="AN61" s="54"/>
+      <c r="AO61" s="54"/>
+      <c r="AP61" s="54"/>
+      <c r="AQ61" s="54"/>
+      <c r="AR61" s="54"/>
+      <c r="AS61" s="54"/>
+      <c r="AT61" s="54"/>
+      <c r="AU61" s="54"/>
+      <c r="AV61" s="54"/>
+      <c r="AW61" s="54"/>
+      <c r="AX61" s="54"/>
+      <c r="AY61" s="57"/>
+      <c r="BD61" s="55" t="s">
         <v>1781</v>
       </c>
-      <c r="BE61" s="48"/>
-      <c r="BF61" s="48"/>
-      <c r="BG61" s="48"/>
-      <c r="BH61" s="48"/>
-      <c r="BI61" s="48"/>
-      <c r="BJ61" s="48"/>
-      <c r="BK61" s="48"/>
-      <c r="BL61" s="48"/>
-      <c r="BM61" s="48"/>
-      <c r="BN61" s="48"/>
-      <c r="BO61" s="72"/>
-      <c r="BP61" s="72"/>
-      <c r="BQ61" s="72"/>
-      <c r="BR61" s="72"/>
-      <c r="BS61" s="72"/>
-      <c r="BT61" s="72"/>
-      <c r="BU61" s="76"/>
-      <c r="BV61" s="57"/>
+      <c r="BE61" s="49"/>
+      <c r="BF61" s="49"/>
+      <c r="BG61" s="49"/>
+      <c r="BH61" s="49"/>
+      <c r="BI61" s="49"/>
+      <c r="BJ61" s="49"/>
+      <c r="BK61" s="49"/>
+      <c r="BL61" s="49"/>
+      <c r="BM61" s="49"/>
+      <c r="BN61" s="49"/>
+      <c r="BO61" s="73"/>
+      <c r="BP61" s="73"/>
+      <c r="BQ61" s="73"/>
+      <c r="BR61" s="73"/>
+      <c r="BS61" s="73"/>
+      <c r="BT61" s="73"/>
+      <c r="BU61" s="77"/>
+      <c r="BV61" s="58"/>
       <c r="CA61" s="4" t="s">
         <v>1782</v>
       </c>
       <c r="CK61" s="9"/>
     </row>
     <row r="62" spans="34:89">
-      <c r="AH62" s="54" t="s">
+      <c r="AH62" s="55" t="s">
         <v>1699</v>
       </c>
-      <c r="AI62" s="48"/>
-      <c r="AJ62" s="48"/>
-      <c r="AK62" s="48"/>
-      <c r="AL62" s="48"/>
-      <c r="AM62" s="48"/>
-      <c r="AN62" s="48"/>
-      <c r="AO62" s="48"/>
-      <c r="AP62" s="48"/>
-      <c r="AQ62" s="48"/>
-      <c r="AR62" s="48"/>
-      <c r="AS62" s="48"/>
-      <c r="AT62" s="48"/>
-      <c r="AU62" s="48"/>
-      <c r="AV62" s="48"/>
-      <c r="AW62" s="48"/>
-      <c r="AX62" s="48"/>
-      <c r="AY62" s="57"/>
-      <c r="BD62" s="54" t="s">
+      <c r="AI62" s="49"/>
+      <c r="AJ62" s="49"/>
+      <c r="AK62" s="49"/>
+      <c r="AL62" s="49"/>
+      <c r="AM62" s="49"/>
+      <c r="AN62" s="49"/>
+      <c r="AO62" s="49"/>
+      <c r="AP62" s="49"/>
+      <c r="AQ62" s="49"/>
+      <c r="AR62" s="49"/>
+      <c r="AS62" s="49"/>
+      <c r="AT62" s="49"/>
+      <c r="AU62" s="49"/>
+      <c r="AV62" s="49"/>
+      <c r="AW62" s="49"/>
+      <c r="AX62" s="49"/>
+      <c r="AY62" s="58"/>
+      <c r="BD62" s="55" t="s">
         <v>1783</v>
       </c>
-      <c r="BE62" s="48"/>
-      <c r="BF62" s="48"/>
-      <c r="BG62" s="48"/>
-      <c r="BH62" s="48"/>
-      <c r="BI62" s="48"/>
-      <c r="BJ62" s="48"/>
-      <c r="BK62" s="48"/>
-      <c r="BL62" s="48"/>
-      <c r="BM62" s="48"/>
-      <c r="BN62" s="48"/>
-      <c r="BO62" s="48"/>
-      <c r="BP62" s="48"/>
-      <c r="BQ62" s="48"/>
-      <c r="BR62" s="48"/>
-      <c r="BS62" s="48"/>
-      <c r="BT62" s="48"/>
-      <c r="BU62" s="75"/>
-      <c r="BV62" s="57"/>
+      <c r="BE62" s="49"/>
+      <c r="BF62" s="49"/>
+      <c r="BG62" s="49"/>
+      <c r="BH62" s="49"/>
+      <c r="BI62" s="49"/>
+      <c r="BJ62" s="49"/>
+      <c r="BK62" s="49"/>
+      <c r="BL62" s="49"/>
+      <c r="BM62" s="49"/>
+      <c r="BN62" s="49"/>
+      <c r="BO62" s="49"/>
+      <c r="BP62" s="49"/>
+      <c r="BQ62" s="49"/>
+      <c r="BR62" s="49"/>
+      <c r="BS62" s="49"/>
+      <c r="BT62" s="49"/>
+      <c r="BU62" s="76"/>
+      <c r="BV62" s="58"/>
       <c r="CA62" s="4">
         <v>29</v>
       </c>
       <c r="CK62" s="9"/>
     </row>
     <row r="63" ht="16.5" spans="34:89">
-      <c r="AH63" s="54"/>
-      <c r="AI63" s="48"/>
-      <c r="AJ63" s="48"/>
-      <c r="AK63" s="48"/>
-      <c r="AL63" s="48"/>
-      <c r="AM63" s="48"/>
-      <c r="AN63" s="48"/>
-      <c r="AO63" s="48"/>
-      <c r="AP63" s="48"/>
-      <c r="AQ63" s="48"/>
-      <c r="AR63" s="48"/>
-      <c r="AS63" s="48"/>
-      <c r="AT63" s="48"/>
-      <c r="AU63" s="48"/>
-      <c r="AV63" s="48"/>
-      <c r="AW63" s="48"/>
-      <c r="AX63" s="48"/>
-      <c r="AY63" s="57"/>
-      <c r="BD63" s="50"/>
-      <c r="BE63" s="51"/>
-      <c r="BF63" s="51"/>
-      <c r="BG63" s="51"/>
-      <c r="BH63" s="51"/>
-      <c r="BI63" s="51"/>
-      <c r="BJ63" s="51"/>
-      <c r="BK63" s="51"/>
-      <c r="BL63" s="51"/>
-      <c r="BM63" s="51"/>
-      <c r="BN63" s="51"/>
-      <c r="BO63" s="51"/>
-      <c r="BP63" s="51"/>
-      <c r="BQ63" s="51"/>
-      <c r="BR63" s="51"/>
-      <c r="BS63" s="51"/>
-      <c r="BT63" s="51"/>
-      <c r="BU63" s="78"/>
-      <c r="BV63" s="58"/>
+      <c r="AH63" s="55"/>
+      <c r="AI63" s="49"/>
+      <c r="AJ63" s="49"/>
+      <c r="AK63" s="49"/>
+      <c r="AL63" s="49"/>
+      <c r="AM63" s="49"/>
+      <c r="AN63" s="49"/>
+      <c r="AO63" s="49"/>
+      <c r="AP63" s="49"/>
+      <c r="AQ63" s="49"/>
+      <c r="AR63" s="49"/>
+      <c r="AS63" s="49"/>
+      <c r="AT63" s="49"/>
+      <c r="AU63" s="49"/>
+      <c r="AV63" s="49"/>
+      <c r="AW63" s="49"/>
+      <c r="AX63" s="49"/>
+      <c r="AY63" s="58"/>
+      <c r="BD63" s="51"/>
+      <c r="BE63" s="52"/>
+      <c r="BF63" s="52"/>
+      <c r="BG63" s="52"/>
+      <c r="BH63" s="52"/>
+      <c r="BI63" s="52"/>
+      <c r="BJ63" s="52"/>
+      <c r="BK63" s="52"/>
+      <c r="BL63" s="52"/>
+      <c r="BM63" s="52"/>
+      <c r="BN63" s="52"/>
+      <c r="BO63" s="52"/>
+      <c r="BP63" s="52"/>
+      <c r="BQ63" s="52"/>
+      <c r="BR63" s="52"/>
+      <c r="BS63" s="52"/>
+      <c r="BT63" s="52"/>
+      <c r="BU63" s="79"/>
+      <c r="BV63" s="59"/>
       <c r="CA63" s="4" t="s">
         <v>1784</v>
       </c>
       <c r="CK63" s="9"/>
     </row>
     <row r="64" spans="34:89">
-      <c r="AH64" s="55" t="s">
+      <c r="AH64" s="56" t="s">
         <v>1705</v>
       </c>
-      <c r="AI64" s="48"/>
-      <c r="AJ64" s="48"/>
-      <c r="AK64" s="48"/>
-      <c r="AL64" s="48"/>
-      <c r="AM64" s="48"/>
-      <c r="AN64" s="48"/>
-      <c r="AO64" s="48"/>
-      <c r="AP64" s="48"/>
-      <c r="AQ64" s="48"/>
-      <c r="AR64" s="48"/>
-      <c r="AS64" s="48"/>
-      <c r="AT64" s="48"/>
-      <c r="AU64" s="48"/>
-      <c r="AV64" s="48"/>
-      <c r="AW64" s="48"/>
-      <c r="AX64" s="48"/>
-      <c r="AY64" s="57"/>
-      <c r="BO64" s="48"/>
-      <c r="BP64" s="48"/>
-      <c r="BQ64" s="48"/>
-      <c r="BR64" s="48"/>
-      <c r="BS64" s="48"/>
-      <c r="BT64" s="48"/>
-      <c r="BU64" s="75"/>
+      <c r="AI64" s="49"/>
+      <c r="AJ64" s="49"/>
+      <c r="AK64" s="49"/>
+      <c r="AL64" s="49"/>
+      <c r="AM64" s="49"/>
+      <c r="AN64" s="49"/>
+      <c r="AO64" s="49"/>
+      <c r="AP64" s="49"/>
+      <c r="AQ64" s="49"/>
+      <c r="AR64" s="49"/>
+      <c r="AS64" s="49"/>
+      <c r="AT64" s="49"/>
+      <c r="AU64" s="49"/>
+      <c r="AV64" s="49"/>
+      <c r="AW64" s="49"/>
+      <c r="AX64" s="49"/>
+      <c r="AY64" s="58"/>
+      <c r="BO64" s="49"/>
+      <c r="BP64" s="49"/>
+      <c r="BQ64" s="49"/>
+      <c r="BR64" s="49"/>
+      <c r="BS64" s="49"/>
+      <c r="BT64" s="49"/>
+      <c r="BU64" s="76"/>
       <c r="CA64" s="4" t="s">
         <v>1785</v>
       </c>
@@ -27462,109 +27993,109 @@
       <c r="CK64" s="9"/>
     </row>
     <row r="65" spans="34:89">
-      <c r="AH65" s="55">
+      <c r="AH65" s="56">
         <v>6</v>
       </c>
-      <c r="AI65" s="48"/>
-      <c r="AJ65" s="48"/>
-      <c r="AK65" s="48"/>
-      <c r="AL65" s="48"/>
-      <c r="AM65" s="48"/>
-      <c r="AN65" s="48"/>
-      <c r="AO65" s="48"/>
-      <c r="AP65" s="48"/>
-      <c r="AQ65" s="48"/>
-      <c r="AR65" s="48"/>
-      <c r="AS65" s="48"/>
-      <c r="AT65" s="48"/>
-      <c r="AU65" s="48"/>
-      <c r="AV65" s="48"/>
-      <c r="AW65" s="48"/>
-      <c r="AX65" s="48"/>
-      <c r="AY65" s="57"/>
-      <c r="BO65" s="72"/>
-      <c r="BP65" s="72"/>
-      <c r="BQ65" s="72"/>
-      <c r="BR65" s="72"/>
-      <c r="BS65" s="72"/>
-      <c r="BT65" s="72"/>
-      <c r="BU65" s="76"/>
+      <c r="AI65" s="49"/>
+      <c r="AJ65" s="49"/>
+      <c r="AK65" s="49"/>
+      <c r="AL65" s="49"/>
+      <c r="AM65" s="49"/>
+      <c r="AN65" s="49"/>
+      <c r="AO65" s="49"/>
+      <c r="AP65" s="49"/>
+      <c r="AQ65" s="49"/>
+      <c r="AR65" s="49"/>
+      <c r="AS65" s="49"/>
+      <c r="AT65" s="49"/>
+      <c r="AU65" s="49"/>
+      <c r="AV65" s="49"/>
+      <c r="AW65" s="49"/>
+      <c r="AX65" s="49"/>
+      <c r="AY65" s="58"/>
+      <c r="BO65" s="73"/>
+      <c r="BP65" s="73"/>
+      <c r="BQ65" s="73"/>
+      <c r="BR65" s="73"/>
+      <c r="BS65" s="73"/>
+      <c r="BT65" s="73"/>
+      <c r="BU65" s="77"/>
       <c r="CA65" s="4" t="s">
         <v>1787</v>
       </c>
       <c r="CK65" s="9"/>
     </row>
     <row r="66" spans="34:89">
-      <c r="AH66" s="67" t="s">
+      <c r="AH66" s="68" t="s">
         <v>1715</v>
       </c>
-      <c r="AI66" s="48"/>
-      <c r="AJ66" s="48"/>
-      <c r="AK66" s="48"/>
-      <c r="AL66" s="48"/>
-      <c r="AM66" s="48"/>
-      <c r="AN66" s="48"/>
-      <c r="AO66" s="48"/>
-      <c r="AP66" s="48"/>
-      <c r="AQ66" s="48"/>
-      <c r="AR66" s="48"/>
-      <c r="AS66" s="48"/>
-      <c r="AT66" s="48"/>
-      <c r="AU66" s="48"/>
-      <c r="AV66" s="48"/>
-      <c r="AW66" s="48"/>
-      <c r="AX66" s="48"/>
-      <c r="AY66" s="57"/>
+      <c r="AI66" s="49"/>
+      <c r="AJ66" s="49"/>
+      <c r="AK66" s="49"/>
+      <c r="AL66" s="49"/>
+      <c r="AM66" s="49"/>
+      <c r="AN66" s="49"/>
+      <c r="AO66" s="49"/>
+      <c r="AP66" s="49"/>
+      <c r="AQ66" s="49"/>
+      <c r="AR66" s="49"/>
+      <c r="AS66" s="49"/>
+      <c r="AT66" s="49"/>
+      <c r="AU66" s="49"/>
+      <c r="AV66" s="49"/>
+      <c r="AW66" s="49"/>
+      <c r="AX66" s="49"/>
+      <c r="AY66" s="58"/>
       <c r="CA66" s="4">
         <v>33</v>
       </c>
       <c r="CK66" s="9"/>
     </row>
     <row r="67" ht="16.5" spans="34:89">
-      <c r="AH67" s="67" t="s">
+      <c r="AH67" s="68" t="s">
         <v>1717</v>
       </c>
-      <c r="AI67" s="48"/>
-      <c r="AJ67" s="48"/>
-      <c r="AK67" s="48"/>
-      <c r="AL67" s="48"/>
-      <c r="AM67" s="48"/>
-      <c r="AN67" s="48"/>
-      <c r="AO67" s="48"/>
-      <c r="AP67" s="48"/>
-      <c r="AQ67" s="48"/>
-      <c r="AR67" s="48"/>
-      <c r="AS67" s="48"/>
-      <c r="AT67" s="48"/>
-      <c r="AU67" s="48"/>
-      <c r="AV67" s="48"/>
-      <c r="AW67" s="48"/>
-      <c r="AX67" s="48"/>
-      <c r="AY67" s="57"/>
+      <c r="AI67" s="49"/>
+      <c r="AJ67" s="49"/>
+      <c r="AK67" s="49"/>
+      <c r="AL67" s="49"/>
+      <c r="AM67" s="49"/>
+      <c r="AN67" s="49"/>
+      <c r="AO67" s="49"/>
+      <c r="AP67" s="49"/>
+      <c r="AQ67" s="49"/>
+      <c r="AR67" s="49"/>
+      <c r="AS67" s="49"/>
+      <c r="AT67" s="49"/>
+      <c r="AU67" s="49"/>
+      <c r="AV67" s="49"/>
+      <c r="AW67" s="49"/>
+      <c r="AX67" s="49"/>
+      <c r="AY67" s="58"/>
       <c r="CA67" s="4" t="s">
         <v>1788</v>
       </c>
       <c r="CK67" s="9"/>
     </row>
     <row r="68" spans="34:89">
-      <c r="AH68" s="54"/>
-      <c r="AI68" s="48"/>
-      <c r="AJ68" s="48"/>
-      <c r="AK68" s="48"/>
-      <c r="AL68" s="48"/>
-      <c r="AM68" s="48"/>
-      <c r="AN68" s="48"/>
-      <c r="AO68" s="48"/>
-      <c r="AP68" s="48"/>
-      <c r="AQ68" s="48"/>
-      <c r="AR68" s="48"/>
-      <c r="AS68" s="48"/>
-      <c r="AT68" s="48"/>
-      <c r="AU68" s="48"/>
-      <c r="AV68" s="48"/>
-      <c r="AW68" s="48"/>
-      <c r="AX68" s="48"/>
-      <c r="AY68" s="57"/>
+      <c r="AH68" s="55"/>
+      <c r="AI68" s="49"/>
+      <c r="AJ68" s="49"/>
+      <c r="AK68" s="49"/>
+      <c r="AL68" s="49"/>
+      <c r="AM68" s="49"/>
+      <c r="AN68" s="49"/>
+      <c r="AO68" s="49"/>
+      <c r="AP68" s="49"/>
+      <c r="AQ68" s="49"/>
+      <c r="AR68" s="49"/>
+      <c r="AS68" s="49"/>
+      <c r="AT68" s="49"/>
+      <c r="AU68" s="49"/>
+      <c r="AV68" s="49"/>
+      <c r="AW68" s="49"/>
+      <c r="AX68" s="49"/>
+      <c r="AY68" s="58"/>
       <c r="CA68" s="4" t="s">
         <v>1789</v>
       </c>
@@ -27574,730 +28105,1193 @@
       <c r="CK68" s="9"/>
     </row>
     <row r="69" spans="34:89">
-      <c r="AH69" s="55" t="s">
+      <c r="AH69" s="56" t="s">
         <v>1726</v>
       </c>
-      <c r="AI69" s="48"/>
-      <c r="AJ69" s="48"/>
-      <c r="AK69" s="48"/>
-      <c r="AL69" s="48"/>
-      <c r="AM69" s="48"/>
-      <c r="AN69" s="48"/>
-      <c r="AO69" s="48"/>
-      <c r="AP69" s="48"/>
-      <c r="AQ69" s="48"/>
-      <c r="AR69" s="48"/>
-      <c r="AS69" s="48"/>
-      <c r="AT69" s="48"/>
-      <c r="AU69" s="48"/>
-      <c r="AV69" s="48"/>
-      <c r="AW69" s="48"/>
-      <c r="AX69" s="48"/>
-      <c r="AY69" s="57"/>
+      <c r="AI69" s="49"/>
+      <c r="AJ69" s="49"/>
+      <c r="AK69" s="49"/>
+      <c r="AL69" s="49"/>
+      <c r="AM69" s="49"/>
+      <c r="AN69" s="49"/>
+      <c r="AO69" s="49"/>
+      <c r="AP69" s="49"/>
+      <c r="AQ69" s="49"/>
+      <c r="AR69" s="49"/>
+      <c r="AS69" s="49"/>
+      <c r="AT69" s="49"/>
+      <c r="AU69" s="49"/>
+      <c r="AV69" s="49"/>
+      <c r="AW69" s="49"/>
+      <c r="AX69" s="49"/>
+      <c r="AY69" s="58"/>
       <c r="CA69" s="4">
         <v>36</v>
       </c>
       <c r="CK69" s="9"/>
     </row>
     <row r="70" spans="34:89">
-      <c r="AH70" s="55" t="s">
+      <c r="AH70" s="56" t="s">
         <v>1731</v>
       </c>
-      <c r="AI70" s="48"/>
-      <c r="AJ70" s="48"/>
-      <c r="AK70" s="48"/>
-      <c r="AL70" s="48"/>
-      <c r="AM70" s="48"/>
-      <c r="AN70" s="48"/>
-      <c r="AO70" s="48"/>
-      <c r="AP70" s="48"/>
-      <c r="AQ70" s="48"/>
-      <c r="AR70" s="48"/>
-      <c r="AS70" s="48"/>
-      <c r="AT70" s="48"/>
-      <c r="AU70" s="48"/>
-      <c r="AV70" s="48"/>
-      <c r="AW70" s="48"/>
-      <c r="AX70" s="48"/>
-      <c r="AY70" s="57"/>
+      <c r="AI70" s="49"/>
+      <c r="AJ70" s="49"/>
+      <c r="AK70" s="49"/>
+      <c r="AL70" s="49"/>
+      <c r="AM70" s="49"/>
+      <c r="AN70" s="49"/>
+      <c r="AO70" s="49"/>
+      <c r="AP70" s="49"/>
+      <c r="AQ70" s="49"/>
+      <c r="AR70" s="49"/>
+      <c r="AS70" s="49"/>
+      <c r="AT70" s="49"/>
+      <c r="AU70" s="49"/>
+      <c r="AV70" s="49"/>
+      <c r="AW70" s="49"/>
+      <c r="AX70" s="49"/>
+      <c r="AY70" s="58"/>
       <c r="CA70" s="4" t="s">
         <v>1791</v>
       </c>
       <c r="CK70" s="9"/>
     </row>
     <row r="71" spans="34:89">
-      <c r="AH71" s="55">
+      <c r="AH71" s="56">
         <v>35</v>
       </c>
-      <c r="AI71" s="48"/>
-      <c r="AJ71" s="48"/>
-      <c r="AK71" s="48"/>
-      <c r="AL71" s="48"/>
-      <c r="AM71" s="48"/>
-      <c r="AN71" s="48"/>
-      <c r="AO71" s="48"/>
-      <c r="AP71" s="48"/>
-      <c r="AQ71" s="48"/>
-      <c r="AR71" s="48"/>
-      <c r="AS71" s="48"/>
-      <c r="AT71" s="48"/>
-      <c r="AU71" s="48"/>
-      <c r="AV71" s="48"/>
-      <c r="AW71" s="48"/>
-      <c r="AX71" s="48"/>
-      <c r="AY71" s="57"/>
+      <c r="AI71" s="49"/>
+      <c r="AJ71" s="49"/>
+      <c r="AK71" s="49"/>
+      <c r="AL71" s="49"/>
+      <c r="AM71" s="49"/>
+      <c r="AN71" s="49"/>
+      <c r="AO71" s="49"/>
+      <c r="AP71" s="49"/>
+      <c r="AQ71" s="49"/>
+      <c r="AR71" s="49"/>
+      <c r="AS71" s="49"/>
+      <c r="AT71" s="49"/>
+      <c r="AU71" s="49"/>
+      <c r="AV71" s="49"/>
+      <c r="AW71" s="49"/>
+      <c r="AX71" s="49"/>
+      <c r="AY71" s="58"/>
       <c r="CA71" s="4" t="s">
         <v>1792</v>
       </c>
       <c r="CK71" s="9"/>
     </row>
-    <row r="72" spans="34:89">
-      <c r="AH72" s="55" t="s">
+    <row r="72" ht="16.5" spans="34:89">
+      <c r="AH72" s="56" t="s">
         <v>1737</v>
       </c>
-      <c r="AI72" s="48"/>
-      <c r="AJ72" s="48"/>
-      <c r="AK72" s="48"/>
-      <c r="AL72" s="48"/>
-      <c r="AM72" s="48"/>
-      <c r="AN72" s="48"/>
-      <c r="AO72" s="48"/>
-      <c r="AP72" s="48"/>
-      <c r="AQ72" s="48"/>
-      <c r="AR72" s="48"/>
-      <c r="AS72" s="48"/>
-      <c r="AT72" s="48"/>
-      <c r="AU72" s="48"/>
-      <c r="AV72" s="48"/>
-      <c r="AW72" s="48"/>
-      <c r="AX72" s="48"/>
-      <c r="AY72" s="57"/>
+      <c r="AI72" s="49"/>
+      <c r="AJ72" s="49"/>
+      <c r="AK72" s="49"/>
+      <c r="AL72" s="49"/>
+      <c r="AM72" s="49"/>
+      <c r="AN72" s="49"/>
+      <c r="AO72" s="49"/>
+      <c r="AP72" s="49"/>
+      <c r="AQ72" s="49"/>
+      <c r="AR72" s="49"/>
+      <c r="AS72" s="49"/>
+      <c r="AT72" s="49"/>
+      <c r="AU72" s="49"/>
+      <c r="AV72" s="49"/>
+      <c r="AW72" s="49"/>
+      <c r="AX72" s="49"/>
+      <c r="AY72" s="58"/>
       <c r="CA72" s="4" t="s">
         <v>1793</v>
       </c>
       <c r="CK72" s="9"/>
     </row>
     <row r="73" spans="34:89">
-      <c r="AH73" s="55">
+      <c r="AH73" s="56">
         <v>37</v>
       </c>
-      <c r="AI73" s="48"/>
-      <c r="AJ73" s="48"/>
-      <c r="AK73" s="48"/>
-      <c r="AL73" s="48"/>
-      <c r="AM73" s="48"/>
-      <c r="AN73" s="48"/>
-      <c r="AO73" s="48"/>
-      <c r="AP73" s="48"/>
-      <c r="AQ73" s="48"/>
-      <c r="AR73" s="48"/>
-      <c r="AS73" s="48"/>
-      <c r="AT73" s="48"/>
-      <c r="AU73" s="48"/>
-      <c r="AV73" s="48"/>
-      <c r="AW73" s="48"/>
-      <c r="AX73" s="48"/>
-      <c r="AY73" s="57"/>
+      <c r="AI73" s="49"/>
+      <c r="AJ73" s="49"/>
+      <c r="AK73" s="49"/>
+      <c r="AL73" s="49"/>
+      <c r="AM73" s="49"/>
+      <c r="AN73" s="49"/>
+      <c r="AO73" s="49"/>
+      <c r="AP73" s="49"/>
+      <c r="AQ73" s="49"/>
+      <c r="AR73" s="49"/>
+      <c r="AS73" s="49"/>
+      <c r="AT73" s="49"/>
+      <c r="AU73" s="49"/>
+      <c r="AV73" s="49"/>
+      <c r="AW73" s="49"/>
+      <c r="AX73" s="49"/>
+      <c r="AY73" s="58"/>
+      <c r="BD73" s="96" t="s">
+        <v>1794</v>
+      </c>
+      <c r="BE73" s="3"/>
+      <c r="BF73" s="3"/>
+      <c r="BG73" s="3"/>
+      <c r="BH73" s="3"/>
+      <c r="BI73" s="3"/>
+      <c r="BJ73" s="8"/>
       <c r="CA73" s="4" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="CH73" s="1" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="CK73" s="9"/>
     </row>
-    <row r="74" spans="34:89">
-      <c r="AH74" s="55" t="s">
+    <row r="74" ht="16.5" spans="34:89">
+      <c r="AH74" s="56" t="s">
         <v>1743</v>
       </c>
-      <c r="AI74" s="48"/>
-      <c r="AJ74" s="48"/>
-      <c r="AK74" s="48"/>
-      <c r="AL74" s="48"/>
-      <c r="AM74" s="48"/>
-      <c r="AN74" s="48"/>
-      <c r="AO74" s="48"/>
-      <c r="AP74" s="48"/>
-      <c r="AQ74" s="48"/>
-      <c r="AR74" s="48"/>
-      <c r="AS74" s="48"/>
-      <c r="AT74" s="48"/>
-      <c r="AU74" s="48"/>
-      <c r="AV74" s="48"/>
-      <c r="AW74" s="48"/>
-      <c r="AX74" s="48"/>
-      <c r="AY74" s="57"/>
+      <c r="AI74" s="49"/>
+      <c r="AJ74" s="49"/>
+      <c r="AK74" s="49"/>
+      <c r="AL74" s="49"/>
+      <c r="AM74" s="49"/>
+      <c r="AN74" s="49"/>
+      <c r="AO74" s="49"/>
+      <c r="AP74" s="49"/>
+      <c r="AQ74" s="49"/>
+      <c r="AR74" s="49"/>
+      <c r="AS74" s="49"/>
+      <c r="AT74" s="49"/>
+      <c r="AU74" s="49"/>
+      <c r="AV74" s="49"/>
+      <c r="AW74" s="49"/>
+      <c r="AX74" s="49"/>
+      <c r="AY74" s="58"/>
+      <c r="BD74" s="5"/>
+      <c r="BJ74" s="9"/>
       <c r="CA74" s="4">
         <v>41</v>
       </c>
       <c r="CK74" s="9"/>
     </row>
-    <row r="75" spans="34:89">
-      <c r="AH75" s="55" t="s">
+    <row r="75" spans="25:89">
+      <c r="Y75" s="86"/>
+      <c r="Z75" s="87"/>
+      <c r="AA75" s="87"/>
+      <c r="AB75" s="87"/>
+      <c r="AC75" s="87"/>
+      <c r="AD75" s="87"/>
+      <c r="AE75" s="94"/>
+      <c r="AH75" s="56" t="s">
         <v>1746</v>
       </c>
-      <c r="AI75" s="48"/>
-      <c r="AJ75" s="48"/>
-      <c r="AK75" s="48"/>
-      <c r="AL75" s="48"/>
-      <c r="AM75" s="48"/>
-      <c r="AN75" s="48"/>
-      <c r="AO75" s="48"/>
-      <c r="AP75" s="48"/>
-      <c r="AQ75" s="48"/>
-      <c r="AR75" s="48"/>
-      <c r="AS75" s="48"/>
-      <c r="AT75" s="48"/>
-      <c r="AU75" s="48"/>
-      <c r="AV75" s="48"/>
-      <c r="AW75" s="48"/>
-      <c r="AX75" s="48"/>
-      <c r="AY75" s="57"/>
+      <c r="AI75" s="49"/>
+      <c r="AJ75" s="49"/>
+      <c r="AK75" s="49"/>
+      <c r="AL75" s="49"/>
+      <c r="AM75" s="49"/>
+      <c r="AN75" s="49"/>
+      <c r="AO75" s="49"/>
+      <c r="AP75" s="49"/>
+      <c r="AQ75" s="49"/>
+      <c r="AR75" s="49"/>
+      <c r="AS75" s="49"/>
+      <c r="AT75" s="49"/>
+      <c r="AU75" s="49"/>
+      <c r="AV75" s="49"/>
+      <c r="AW75" s="49"/>
+      <c r="AX75" s="49"/>
+      <c r="AY75" s="58"/>
+      <c r="BD75" s="4" t="s">
+        <v>1797</v>
+      </c>
+      <c r="BE75" s="98"/>
+      <c r="BF75" s="98"/>
+      <c r="BG75" s="98"/>
+      <c r="BH75" s="98"/>
+      <c r="BI75" s="98"/>
+      <c r="BJ75" s="101"/>
       <c r="CA75" s="4" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="CK75" s="9"/>
     </row>
-    <row r="76" spans="34:89">
-      <c r="AH76" s="55">
+    <row r="76" spans="25:89">
+      <c r="Y76" s="88"/>
+      <c r="Z76" s="49"/>
+      <c r="AA76" s="49"/>
+      <c r="AB76" s="49"/>
+      <c r="AC76" s="49"/>
+      <c r="AD76" s="49"/>
+      <c r="AE76" s="76"/>
+      <c r="AH76" s="56">
         <v>40</v>
       </c>
-      <c r="AI76" s="48"/>
-      <c r="AJ76" s="48"/>
-      <c r="AK76" s="48"/>
-      <c r="AL76" s="48"/>
-      <c r="AM76" s="48"/>
-      <c r="AN76" s="48"/>
-      <c r="AO76" s="48"/>
-      <c r="AP76" s="48"/>
-      <c r="AQ76" s="48"/>
-      <c r="AR76" s="48"/>
-      <c r="AS76" s="48"/>
-      <c r="AT76" s="48"/>
-      <c r="AU76" s="48"/>
-      <c r="AV76" s="48"/>
-      <c r="AW76" s="48"/>
-      <c r="AX76" s="48"/>
-      <c r="AY76" s="57"/>
+      <c r="AI76" s="49"/>
+      <c r="AJ76" s="49"/>
+      <c r="AK76" s="49"/>
+      <c r="AL76" s="49"/>
+      <c r="AM76" s="49"/>
+      <c r="AN76" s="49"/>
+      <c r="AO76" s="49"/>
+      <c r="AP76" s="49"/>
+      <c r="AQ76" s="49"/>
+      <c r="AR76" s="49"/>
+      <c r="AS76" s="49"/>
+      <c r="AT76" s="49"/>
+      <c r="AU76" s="49"/>
+      <c r="AV76" s="49"/>
+      <c r="AW76" s="49"/>
+      <c r="AX76" s="49"/>
+      <c r="AY76" s="58"/>
+      <c r="BD76" s="4">
+        <v>2</v>
+      </c>
+      <c r="BE76" s="98"/>
+      <c r="BF76" s="98"/>
+      <c r="BG76" s="98"/>
+      <c r="BH76" s="98"/>
+      <c r="BI76" s="98"/>
+      <c r="BJ76" s="101"/>
       <c r="CA76" s="4" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="CH76" s="1" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="CK76" s="9"/>
     </row>
-    <row r="77" spans="34:89">
-      <c r="AH77" s="55" t="s">
+    <row r="77" spans="25:89">
+      <c r="Y77" s="89"/>
+      <c r="Z77" s="90"/>
+      <c r="AA77" s="90"/>
+      <c r="AB77" s="90"/>
+      <c r="AC77" s="90"/>
+      <c r="AD77" s="90"/>
+      <c r="AE77" s="95"/>
+      <c r="AH77" s="56" t="s">
         <v>1752</v>
       </c>
-      <c r="AI77" s="48"/>
-      <c r="AJ77" s="48"/>
-      <c r="AK77" s="48"/>
-      <c r="AL77" s="48"/>
-      <c r="AM77" s="48"/>
-      <c r="AN77" s="48"/>
-      <c r="AO77" s="48"/>
-      <c r="AP77" s="48"/>
-      <c r="AQ77" s="48"/>
-      <c r="AR77" s="48"/>
-      <c r="AS77" s="48"/>
-      <c r="AT77" s="48"/>
-      <c r="AU77" s="48"/>
-      <c r="AV77" s="48"/>
-      <c r="AW77" s="48"/>
-      <c r="AX77" s="48"/>
-      <c r="AY77" s="57"/>
+      <c r="AI77" s="49"/>
+      <c r="AJ77" s="49"/>
+      <c r="AK77" s="49"/>
+      <c r="AL77" s="49"/>
+      <c r="AM77" s="49"/>
+      <c r="AN77" s="49"/>
+      <c r="AO77" s="49"/>
+      <c r="AP77" s="49"/>
+      <c r="AQ77" s="49"/>
+      <c r="AR77" s="49"/>
+      <c r="AS77" s="49"/>
+      <c r="AT77" s="49"/>
+      <c r="AU77" s="49"/>
+      <c r="AV77" s="49"/>
+      <c r="AW77" s="49"/>
+      <c r="AX77" s="49"/>
+      <c r="AY77" s="58"/>
+      <c r="BD77" s="97" t="s">
+        <v>1801</v>
+      </c>
+      <c r="BE77" s="99"/>
+      <c r="BF77" s="99"/>
+      <c r="BG77" s="99"/>
+      <c r="BH77" s="98"/>
+      <c r="BI77" s="98"/>
+      <c r="BJ77" s="101"/>
       <c r="CA77" s="4">
         <v>44</v>
       </c>
       <c r="CK77" s="9"/>
     </row>
-    <row r="78" ht="16.5" spans="34:89">
-      <c r="AH78" s="68" t="s">
-        <v>1799</v>
-      </c>
-      <c r="AI78" s="48"/>
-      <c r="AJ78" s="48"/>
-      <c r="AK78" s="48"/>
-      <c r="AL78" s="48"/>
-      <c r="AM78" s="48"/>
-      <c r="AN78" s="48"/>
-      <c r="AO78" s="48"/>
-      <c r="AP78" s="48"/>
-      <c r="AQ78" s="48"/>
-      <c r="AR78" s="48"/>
-      <c r="AS78" s="48"/>
-      <c r="AT78" s="48"/>
-      <c r="AU78" s="48"/>
-      <c r="AV78" s="48"/>
-      <c r="AW78" s="48"/>
-      <c r="AX78" s="48"/>
-      <c r="AY78" s="57"/>
+    <row r="78" ht="16.5" spans="25:89">
+      <c r="Y78" s="89"/>
+      <c r="Z78" s="90"/>
+      <c r="AA78" s="90"/>
+      <c r="AB78" s="90"/>
+      <c r="AC78" s="90"/>
+      <c r="AD78" s="90"/>
+      <c r="AE78" s="95"/>
+      <c r="AH78" s="69" t="s">
+        <v>1802</v>
+      </c>
+      <c r="AI78" s="49"/>
+      <c r="AJ78" s="49"/>
+      <c r="AK78" s="49"/>
+      <c r="AL78" s="49"/>
+      <c r="AM78" s="49"/>
+      <c r="AN78" s="49"/>
+      <c r="AO78" s="49"/>
+      <c r="AP78" s="49"/>
+      <c r="AQ78" s="49"/>
+      <c r="AR78" s="49"/>
+      <c r="AS78" s="49"/>
+      <c r="AT78" s="49"/>
+      <c r="AU78" s="49"/>
+      <c r="AV78" s="49"/>
+      <c r="AW78" s="49"/>
+      <c r="AX78" s="49"/>
+      <c r="AY78" s="58"/>
+      <c r="BD78" s="97" t="s">
+        <v>1803</v>
+      </c>
+      <c r="BE78" s="99"/>
+      <c r="BF78" s="99"/>
+      <c r="BG78" s="99"/>
+      <c r="BH78" s="98"/>
+      <c r="BI78" s="98"/>
+      <c r="BJ78" s="101"/>
+      <c r="BN78" s="96" t="s">
+        <v>1804</v>
+      </c>
+      <c r="BO78" s="3"/>
+      <c r="BP78" s="3"/>
+      <c r="BQ78" s="3"/>
+      <c r="BR78" s="3"/>
+      <c r="BS78" s="3"/>
+      <c r="BT78" s="8"/>
       <c r="CA78" s="4" t="s">
-        <v>1800</v>
+        <v>1805</v>
       </c>
       <c r="CK78" s="9"/>
     </row>
-    <row r="79" ht="16.5" spans="34:89">
-      <c r="AH79" s="68" t="s">
-        <v>1801</v>
-      </c>
-      <c r="AI79" s="48"/>
-      <c r="AJ79" s="48"/>
-      <c r="AK79" s="48"/>
-      <c r="AL79" s="48"/>
-      <c r="AM79" s="48"/>
-      <c r="AN79" s="48"/>
-      <c r="AO79" s="48"/>
-      <c r="AP79" s="48"/>
-      <c r="AQ79" s="48"/>
-      <c r="AR79" s="48"/>
-      <c r="AS79" s="48"/>
-      <c r="AT79" s="48"/>
-      <c r="AU79" s="48"/>
-      <c r="AV79" s="48"/>
-      <c r="AW79" s="48"/>
-      <c r="AX79" s="48"/>
-      <c r="AY79" s="57"/>
+    <row r="79" ht="16.5" spans="25:89">
+      <c r="Y79" s="91"/>
+      <c r="Z79" s="92"/>
+      <c r="AA79" s="92"/>
+      <c r="AB79" s="92"/>
+      <c r="AC79" s="90"/>
+      <c r="AD79" s="90"/>
+      <c r="AE79" s="95"/>
+      <c r="AH79" s="69" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AI79" s="49"/>
+      <c r="AJ79" s="49"/>
+      <c r="AK79" s="49"/>
+      <c r="AL79" s="49"/>
+      <c r="AM79" s="49"/>
+      <c r="AN79" s="49"/>
+      <c r="AO79" s="49"/>
+      <c r="AP79" s="49"/>
+      <c r="AQ79" s="49"/>
+      <c r="AR79" s="49"/>
+      <c r="AS79" s="49"/>
+      <c r="AT79" s="49"/>
+      <c r="AU79" s="49"/>
+      <c r="AV79" s="49"/>
+      <c r="AW79" s="49"/>
+      <c r="AX79" s="49"/>
+      <c r="AY79" s="58"/>
+      <c r="BD79" s="97" t="s">
+        <v>1807</v>
+      </c>
+      <c r="BE79" s="99"/>
+      <c r="BF79" s="99"/>
+      <c r="BG79" s="99"/>
+      <c r="BH79" s="98"/>
+      <c r="BI79" s="98"/>
+      <c r="BJ79" s="101"/>
+      <c r="BN79" s="4" t="s">
+        <v>1808</v>
+      </c>
+      <c r="BT79" s="9"/>
       <c r="CA79" s="4" t="s">
-        <v>1802</v>
+        <v>1809</v>
       </c>
       <c r="CK79" s="9"/>
     </row>
-    <row r="80" spans="34:89">
-      <c r="AH80" s="68" t="s">
-        <v>1803</v>
-      </c>
-      <c r="AI80" s="48"/>
-      <c r="AJ80" s="48"/>
-      <c r="AK80" s="48"/>
-      <c r="AL80" s="48"/>
-      <c r="AM80" s="48"/>
-      <c r="AN80" s="48"/>
-      <c r="AO80" s="48"/>
-      <c r="AP80" s="48"/>
-      <c r="AQ80" s="48"/>
-      <c r="AR80" s="48"/>
-      <c r="AS80" s="48"/>
-      <c r="AT80" s="48"/>
-      <c r="AU80" s="48"/>
-      <c r="AV80" s="48"/>
-      <c r="AW80" s="48"/>
-      <c r="AX80" s="48"/>
-      <c r="AY80" s="57"/>
+    <row r="80" spans="25:89">
+      <c r="Y80" s="91"/>
+      <c r="Z80" s="92"/>
+      <c r="AA80" s="92"/>
+      <c r="AB80" s="92"/>
+      <c r="AC80" s="90"/>
+      <c r="AD80" s="90"/>
+      <c r="AE80" s="95"/>
+      <c r="AH80" s="69" t="s">
+        <v>1810</v>
+      </c>
+      <c r="AI80" s="49"/>
+      <c r="AJ80" s="49"/>
+      <c r="AK80" s="49"/>
+      <c r="AL80" s="49"/>
+      <c r="AM80" s="49"/>
+      <c r="AN80" s="49"/>
+      <c r="AO80" s="49"/>
+      <c r="AP80" s="49"/>
+      <c r="AQ80" s="49"/>
+      <c r="AR80" s="49"/>
+      <c r="AS80" s="49"/>
+      <c r="AT80" s="49"/>
+      <c r="AU80" s="49"/>
+      <c r="AV80" s="49"/>
+      <c r="AW80" s="49"/>
+      <c r="AX80" s="49"/>
+      <c r="AY80" s="58"/>
+      <c r="BD80" s="97" t="s">
+        <v>1811</v>
+      </c>
+      <c r="BE80" s="99"/>
+      <c r="BF80" s="99"/>
+      <c r="BG80" s="99"/>
+      <c r="BH80" s="98"/>
+      <c r="BI80" s="98"/>
+      <c r="BJ80" s="101"/>
+      <c r="BN80" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="BT80" s="9"/>
       <c r="CA80" s="4" t="s">
-        <v>1804</v>
+        <v>1813</v>
       </c>
       <c r="CK80" s="9"/>
     </row>
-    <row r="81" spans="34:89">
-      <c r="AH81" s="54"/>
-      <c r="AI81" s="48"/>
-      <c r="AJ81" s="48"/>
-      <c r="AK81" s="48"/>
-      <c r="AL81" s="48"/>
-      <c r="AM81" s="48"/>
-      <c r="AN81" s="48"/>
-      <c r="AO81" s="48"/>
-      <c r="AP81" s="48"/>
-      <c r="AQ81" s="48"/>
-      <c r="AR81" s="48"/>
-      <c r="AS81" s="48"/>
-      <c r="AT81" s="48"/>
-      <c r="AU81" s="48"/>
-      <c r="AV81" s="48"/>
-      <c r="AW81" s="48"/>
-      <c r="AX81" s="48"/>
-      <c r="AY81" s="57"/>
-      <c r="CA81" s="85" t="s">
-        <v>1805</v>
+    <row r="81" spans="25:89">
+      <c r="Y81" s="91"/>
+      <c r="Z81" s="92"/>
+      <c r="AA81" s="92"/>
+      <c r="AB81" s="92"/>
+      <c r="AC81" s="90"/>
+      <c r="AD81" s="90"/>
+      <c r="AE81" s="95"/>
+      <c r="AH81" s="5"/>
+      <c r="AI81" s="49"/>
+      <c r="AJ81" s="49"/>
+      <c r="AK81" s="49"/>
+      <c r="AL81" s="49"/>
+      <c r="AM81" s="49"/>
+      <c r="AN81" s="49"/>
+      <c r="AO81" s="49"/>
+      <c r="AP81" s="49"/>
+      <c r="AQ81" s="49"/>
+      <c r="AR81" s="49"/>
+      <c r="AS81" s="49"/>
+      <c r="AT81" s="49"/>
+      <c r="AU81" s="49"/>
+      <c r="AV81" s="49"/>
+      <c r="AW81" s="49"/>
+      <c r="AX81" s="49"/>
+      <c r="AY81" s="58"/>
+      <c r="BD81" s="97" t="s">
+        <v>1814</v>
+      </c>
+      <c r="BE81" s="99"/>
+      <c r="BF81" s="99"/>
+      <c r="BG81" s="99"/>
+      <c r="BH81" s="98"/>
+      <c r="BI81" s="98"/>
+      <c r="BJ81" s="101"/>
+      <c r="BN81" s="4">
+        <v>325</v>
+      </c>
+      <c r="BT81" s="9"/>
+      <c r="CA81" s="97" t="s">
+        <v>1815</v>
       </c>
       <c r="CH81" s="1" t="s">
-        <v>1806</v>
+        <v>1816</v>
       </c>
       <c r="CK81" s="9"/>
     </row>
-    <row r="82" spans="34:89">
+    <row r="82" spans="25:89">
+      <c r="Y82" s="91"/>
+      <c r="Z82" s="92"/>
+      <c r="AA82" s="92"/>
+      <c r="AB82" s="92"/>
+      <c r="AC82" s="90"/>
+      <c r="AD82" s="90"/>
+      <c r="AE82" s="95"/>
       <c r="AH82" s="71" t="s">
-        <v>1773</v>
-      </c>
-      <c r="AI82" s="48"/>
-      <c r="AJ82" s="48"/>
-      <c r="AK82" s="48"/>
-      <c r="AL82" s="48"/>
-      <c r="AM82" s="48"/>
-      <c r="AN82" s="48"/>
-      <c r="AO82" s="73" t="s">
-        <v>1774</v>
-      </c>
-      <c r="AP82" s="48"/>
-      <c r="AQ82" s="48"/>
-      <c r="AR82" s="48"/>
-      <c r="AS82" s="48"/>
-      <c r="AT82" s="48"/>
-      <c r="AU82" s="48"/>
-      <c r="AV82" s="48"/>
-      <c r="AW82" s="48"/>
-      <c r="AX82" s="48"/>
-      <c r="AY82" s="57"/>
+        <v>1817</v>
+      </c>
+      <c r="AY82" s="9"/>
+      <c r="BD82" s="4">
+        <v>8</v>
+      </c>
+      <c r="BE82" s="98"/>
+      <c r="BF82" s="98"/>
+      <c r="BG82" s="98"/>
+      <c r="BH82" s="98"/>
+      <c r="BI82" s="98"/>
+      <c r="BJ82" s="101"/>
+      <c r="BN82" s="4" t="s">
+        <v>1818</v>
+      </c>
+      <c r="BT82" s="9"/>
       <c r="CA82" s="4">
         <v>49</v>
       </c>
       <c r="CK82" s="9"/>
     </row>
-    <row r="83" spans="34:89">
-      <c r="AH83" s="54" t="s">
-        <v>1776</v>
-      </c>
-      <c r="AI83" s="48"/>
-      <c r="AJ83" s="48"/>
-      <c r="AK83" s="48"/>
-      <c r="AL83" s="48"/>
-      <c r="AM83" s="48"/>
-      <c r="AN83" s="48"/>
-      <c r="AO83" s="48"/>
-      <c r="AP83" s="48"/>
-      <c r="AQ83" s="48"/>
-      <c r="AR83" s="48"/>
-      <c r="AS83" s="48"/>
-      <c r="AT83" s="48"/>
-      <c r="AU83" s="48"/>
-      <c r="AV83" s="48"/>
-      <c r="AW83" s="48"/>
-      <c r="AX83" s="48"/>
-      <c r="AY83" s="57"/>
-      <c r="CA83" s="85" t="s">
-        <v>1807</v>
+    <row r="83" spans="25:89">
+      <c r="Y83" s="91"/>
+      <c r="Z83" s="92"/>
+      <c r="AA83" s="92"/>
+      <c r="AB83" s="92"/>
+      <c r="AC83" s="90"/>
+      <c r="AD83" s="90"/>
+      <c r="AE83" s="95"/>
+      <c r="AH83" s="5"/>
+      <c r="AY83" s="9"/>
+      <c r="BD83" s="4" t="s">
+        <v>1819</v>
+      </c>
+      <c r="BE83" s="98"/>
+      <c r="BF83" s="98"/>
+      <c r="BG83" s="98"/>
+      <c r="BH83" s="98"/>
+      <c r="BI83" s="98"/>
+      <c r="BJ83" s="101"/>
+      <c r="BN83" s="4">
+        <v>327</v>
+      </c>
+      <c r="BT83" s="9"/>
+      <c r="CA83" s="97" t="s">
+        <v>1820</v>
       </c>
       <c r="CH83" s="1" t="s">
-        <v>1808</v>
+        <v>1821</v>
       </c>
       <c r="CK83" s="9"/>
     </row>
-    <row r="84" spans="34:89">
-      <c r="AH84" s="54" t="s">
-        <v>1809</v>
-      </c>
-      <c r="AI84" s="48"/>
-      <c r="AJ84" s="48"/>
-      <c r="AK84" s="48"/>
-      <c r="AL84" s="48"/>
-      <c r="AM84" s="48"/>
-      <c r="AN84" s="48"/>
-      <c r="AO84" s="48"/>
-      <c r="AP84" s="48"/>
-      <c r="AQ84" s="48"/>
-      <c r="AR84" s="48"/>
-      <c r="AS84" s="48"/>
-      <c r="AT84" s="48"/>
-      <c r="AU84" s="48"/>
-      <c r="AV84" s="48"/>
-      <c r="AW84" s="48"/>
-      <c r="AX84" s="48"/>
-      <c r="AY84" s="57"/>
+    <row r="84" spans="25:89">
+      <c r="Y84" s="89"/>
+      <c r="Z84" s="90"/>
+      <c r="AA84" s="90"/>
+      <c r="AB84" s="90"/>
+      <c r="AC84" s="90"/>
+      <c r="AD84" s="90"/>
+      <c r="AE84" s="95"/>
+      <c r="AH84" s="72" t="s">
+        <v>1773</v>
+      </c>
+      <c r="AI84" s="49"/>
+      <c r="AJ84" s="49"/>
+      <c r="AK84" s="49"/>
+      <c r="AL84" s="49"/>
+      <c r="AM84" s="49"/>
+      <c r="AN84" s="49"/>
+      <c r="AO84" s="74" t="s">
+        <v>1774</v>
+      </c>
+      <c r="AP84" s="49"/>
+      <c r="AQ84" s="49"/>
+      <c r="AR84" s="49"/>
+      <c r="AS84" s="49"/>
+      <c r="AT84" s="49"/>
+      <c r="AU84" s="49"/>
+      <c r="AV84" s="49"/>
+      <c r="AW84" s="49"/>
+      <c r="AX84" s="49"/>
+      <c r="AY84" s="58"/>
+      <c r="BD84" s="4">
+        <v>10</v>
+      </c>
+      <c r="BE84" s="98"/>
+      <c r="BF84" s="98"/>
+      <c r="BG84" s="98"/>
+      <c r="BH84" s="98"/>
+      <c r="BI84" s="98"/>
+      <c r="BJ84" s="101"/>
+      <c r="BN84" s="4" t="s">
+        <v>1822</v>
+      </c>
+      <c r="BT84" s="9"/>
       <c r="CA84" s="5"/>
       <c r="CK84" s="9"/>
     </row>
-    <row r="85" spans="34:89">
-      <c r="AH85" s="54" t="s">
+    <row r="85" spans="25:89">
+      <c r="Y85" s="89"/>
+      <c r="Z85" s="90"/>
+      <c r="AA85" s="90"/>
+      <c r="AB85" s="90"/>
+      <c r="AC85" s="90"/>
+      <c r="AD85" s="90"/>
+      <c r="AE85" s="95"/>
+      <c r="AH85" s="55" t="s">
+        <v>1776</v>
+      </c>
+      <c r="AI85" s="49"/>
+      <c r="AJ85" s="49"/>
+      <c r="AK85" s="49"/>
+      <c r="AL85" s="49"/>
+      <c r="AM85" s="49"/>
+      <c r="AN85" s="49"/>
+      <c r="AO85" s="49"/>
+      <c r="AP85" s="49"/>
+      <c r="AQ85" s="49"/>
+      <c r="AR85" s="49"/>
+      <c r="AS85" s="49"/>
+      <c r="AT85" s="49"/>
+      <c r="AU85" s="49"/>
+      <c r="AV85" s="49"/>
+      <c r="AW85" s="49"/>
+      <c r="AX85" s="49"/>
+      <c r="AY85" s="58"/>
+      <c r="BD85" s="4" t="s">
+        <v>1823</v>
+      </c>
+      <c r="BE85" s="98"/>
+      <c r="BF85" s="98"/>
+      <c r="BG85" s="98"/>
+      <c r="BH85" s="98"/>
+      <c r="BI85" s="98"/>
+      <c r="BJ85" s="101"/>
+      <c r="BN85" s="4" t="s">
+        <v>1824</v>
+      </c>
+      <c r="BT85" s="9"/>
+      <c r="CA85" s="4" t="s">
+        <v>1825</v>
+      </c>
+      <c r="CK85" s="9"/>
+    </row>
+    <row r="86" spans="25:89">
+      <c r="Y86" s="89"/>
+      <c r="Z86" s="90"/>
+      <c r="AA86" s="90"/>
+      <c r="AB86" s="90"/>
+      <c r="AC86" s="90"/>
+      <c r="AD86" s="90"/>
+      <c r="AE86" s="95"/>
+      <c r="AH86" s="72" t="s">
+        <v>1778</v>
+      </c>
+      <c r="AI86" s="49"/>
+      <c r="AJ86" s="49"/>
+      <c r="AK86" s="49"/>
+      <c r="AL86" s="49"/>
+      <c r="AM86" s="49"/>
+      <c r="AN86" s="49"/>
+      <c r="AO86" s="49"/>
+      <c r="AP86" s="49"/>
+      <c r="AQ86" s="49"/>
+      <c r="AR86" s="49"/>
+      <c r="AS86" s="49"/>
+      <c r="AT86" s="49"/>
+      <c r="AU86" s="49"/>
+      <c r="AV86" s="49"/>
+      <c r="AW86" s="49"/>
+      <c r="AX86" s="49"/>
+      <c r="AY86" s="58"/>
+      <c r="BD86" s="4" t="s">
+        <v>1826</v>
+      </c>
+      <c r="BE86" s="98"/>
+      <c r="BF86" s="98"/>
+      <c r="BG86" s="98"/>
+      <c r="BH86" s="98"/>
+      <c r="BI86" s="98"/>
+      <c r="BJ86" s="101"/>
+      <c r="BN86" s="4" t="s">
+        <v>1827</v>
+      </c>
+      <c r="BT86" s="9"/>
+      <c r="CA86" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="CK86" s="9"/>
+    </row>
+    <row r="87" spans="25:89">
+      <c r="Y87" s="89"/>
+      <c r="Z87" s="90"/>
+      <c r="AA87" s="90"/>
+      <c r="AB87" s="90"/>
+      <c r="AC87" s="90"/>
+      <c r="AD87" s="90"/>
+      <c r="AE87" s="95"/>
+      <c r="AH87" s="55" t="s">
         <v>1781</v>
       </c>
-      <c r="AI85" s="48"/>
-      <c r="AJ85" s="48"/>
-      <c r="AK85" s="48"/>
-      <c r="AL85" s="48"/>
-      <c r="AM85" s="48"/>
-      <c r="AN85" s="48"/>
-      <c r="AO85" s="48"/>
-      <c r="AP85" s="48"/>
-      <c r="AQ85" s="48"/>
-      <c r="AR85" s="48"/>
-      <c r="AS85" s="48"/>
-      <c r="AT85" s="48"/>
-      <c r="AU85" s="48"/>
-      <c r="AV85" s="48"/>
-      <c r="AW85" s="48"/>
-      <c r="AX85" s="48"/>
-      <c r="AY85" s="57"/>
-      <c r="CA85" s="4" t="s">
-        <v>1810</v>
-      </c>
-      <c r="CK85" s="9"/>
-    </row>
-    <row r="86" spans="34:89">
-      <c r="AH86" s="54" t="s">
+      <c r="AI87" s="49"/>
+      <c r="AJ87" s="49"/>
+      <c r="AK87" s="49"/>
+      <c r="AL87" s="49"/>
+      <c r="AM87" s="49"/>
+      <c r="AN87" s="49"/>
+      <c r="AO87" s="49"/>
+      <c r="AP87" s="49"/>
+      <c r="AQ87" s="49"/>
+      <c r="AR87" s="49"/>
+      <c r="AS87" s="49"/>
+      <c r="AT87" s="49"/>
+      <c r="AU87" s="49"/>
+      <c r="AV87" s="49"/>
+      <c r="AW87" s="49"/>
+      <c r="AX87" s="49"/>
+      <c r="AY87" s="58"/>
+      <c r="BD87" s="4" t="s">
+        <v>1829</v>
+      </c>
+      <c r="BE87" s="98"/>
+      <c r="BF87" s="98"/>
+      <c r="BG87" s="98"/>
+      <c r="BH87" s="98"/>
+      <c r="BI87" s="98"/>
+      <c r="BJ87" s="101"/>
+      <c r="BN87" s="4">
+        <v>331</v>
+      </c>
+      <c r="BT87" s="9"/>
+      <c r="CA87" s="4" t="s">
+        <v>1830</v>
+      </c>
+      <c r="CK87" s="9"/>
+    </row>
+    <row r="88" spans="25:89">
+      <c r="Y88" s="89"/>
+      <c r="Z88" s="90"/>
+      <c r="AA88" s="90"/>
+      <c r="AB88" s="90"/>
+      <c r="AC88" s="90"/>
+      <c r="AD88" s="90"/>
+      <c r="AE88" s="95"/>
+      <c r="AH88" s="55" t="s">
         <v>1783</v>
       </c>
-      <c r="AI86" s="48"/>
-      <c r="AJ86" s="48"/>
-      <c r="AK86" s="48"/>
-      <c r="AL86" s="48"/>
-      <c r="AM86" s="48"/>
-      <c r="AN86" s="48"/>
-      <c r="AO86" s="48"/>
-      <c r="AP86" s="48"/>
-      <c r="AQ86" s="48"/>
-      <c r="AR86" s="48"/>
-      <c r="AS86" s="48"/>
-      <c r="AT86" s="48"/>
-      <c r="AU86" s="48"/>
-      <c r="AV86" s="48"/>
-      <c r="AW86" s="48"/>
-      <c r="AX86" s="48"/>
-      <c r="AY86" s="57"/>
-      <c r="CA86" s="4" t="s">
-        <v>1811</v>
-      </c>
-      <c r="CK86" s="9"/>
-    </row>
-    <row r="87" spans="34:89">
-      <c r="AH87" s="82"/>
-      <c r="AI87" s="72"/>
-      <c r="AJ87" s="72"/>
-      <c r="AK87" s="72"/>
-      <c r="AL87" s="72"/>
-      <c r="AM87" s="72"/>
-      <c r="AN87" s="72"/>
-      <c r="AO87" s="72"/>
-      <c r="AP87" s="72"/>
-      <c r="AQ87" s="72"/>
-      <c r="AR87" s="72"/>
-      <c r="AS87" s="72"/>
-      <c r="AT87" s="72"/>
-      <c r="AU87" s="72"/>
-      <c r="AV87" s="72"/>
-      <c r="AW87" s="72"/>
-      <c r="AX87" s="72"/>
-      <c r="AY87" s="77"/>
-      <c r="CA87" s="4" t="s">
-        <v>1812</v>
-      </c>
-      <c r="CK87" s="9"/>
-    </row>
-    <row r="88" spans="34:89">
-      <c r="AH88" s="54" t="s">
-        <v>1813</v>
-      </c>
-      <c r="AI88" s="48"/>
-      <c r="AJ88" s="48"/>
-      <c r="AK88" s="48"/>
-      <c r="AL88" s="48"/>
-      <c r="AM88" s="48"/>
-      <c r="AN88" s="48"/>
-      <c r="AO88" s="48"/>
-      <c r="AP88" s="48"/>
-      <c r="AQ88" s="48"/>
-      <c r="AR88" s="48"/>
-      <c r="AS88" s="48"/>
-      <c r="AT88" s="48"/>
-      <c r="AU88" s="48"/>
-      <c r="AV88" s="48"/>
-      <c r="AW88" s="48"/>
-      <c r="AX88" s="48"/>
-      <c r="AY88" s="57"/>
+      <c r="AI88" s="49"/>
+      <c r="AJ88" s="49"/>
+      <c r="AK88" s="49"/>
+      <c r="AL88" s="49"/>
+      <c r="AM88" s="49"/>
+      <c r="AN88" s="49"/>
+      <c r="AO88" s="49"/>
+      <c r="AP88" s="49"/>
+      <c r="AQ88" s="49"/>
+      <c r="AR88" s="49"/>
+      <c r="AS88" s="49"/>
+      <c r="AT88" s="49"/>
+      <c r="AU88" s="49"/>
+      <c r="AV88" s="49"/>
+      <c r="AW88" s="49"/>
+      <c r="AX88" s="49"/>
+      <c r="AY88" s="58"/>
+      <c r="BD88" s="4" t="s">
+        <v>1831</v>
+      </c>
+      <c r="BE88" s="98"/>
+      <c r="BF88" s="98"/>
+      <c r="BG88" s="98"/>
+      <c r="BH88" s="98"/>
+      <c r="BI88" s="98"/>
+      <c r="BJ88" s="101"/>
+      <c r="BN88" s="4" t="s">
+        <v>1832</v>
+      </c>
+      <c r="BT88" s="9"/>
       <c r="CA88" s="4" t="s">
-        <v>1814</v>
+        <v>1833</v>
       </c>
       <c r="CK88" s="9"/>
     </row>
-    <row r="89" spans="34:89">
-      <c r="AH89" s="54"/>
-      <c r="AI89" s="48"/>
-      <c r="AJ89" s="48"/>
-      <c r="AK89" s="48"/>
-      <c r="AL89" s="48"/>
-      <c r="AM89" s="48"/>
-      <c r="AN89" s="48"/>
-      <c r="AO89" s="48"/>
-      <c r="AP89" s="48"/>
-      <c r="AQ89" s="48"/>
-      <c r="AR89" s="48"/>
-      <c r="AS89" s="48"/>
-      <c r="AT89" s="48"/>
-      <c r="AU89" s="48"/>
-      <c r="AV89" s="48"/>
-      <c r="AW89" s="48"/>
-      <c r="AX89" s="48"/>
-      <c r="AY89" s="57"/>
+    <row r="89" spans="25:89">
+      <c r="Y89" s="89"/>
+      <c r="Z89" s="90"/>
+      <c r="AA89" s="90"/>
+      <c r="AB89" s="90"/>
+      <c r="AC89" s="90"/>
+      <c r="AD89" s="90"/>
+      <c r="AE89" s="95"/>
+      <c r="AH89" s="83"/>
+      <c r="AI89" s="73"/>
+      <c r="AJ89" s="73"/>
+      <c r="AK89" s="73"/>
+      <c r="AL89" s="73"/>
+      <c r="AM89" s="73"/>
+      <c r="AN89" s="73"/>
+      <c r="AO89" s="73"/>
+      <c r="AP89" s="73"/>
+      <c r="AQ89" s="73"/>
+      <c r="AR89" s="73"/>
+      <c r="AS89" s="73"/>
+      <c r="AT89" s="73"/>
+      <c r="AU89" s="73"/>
+      <c r="AV89" s="73"/>
+      <c r="AW89" s="73"/>
+      <c r="AX89" s="73"/>
+      <c r="AY89" s="78"/>
+      <c r="BD89" s="4" t="s">
+        <v>1834</v>
+      </c>
+      <c r="BE89" s="98"/>
+      <c r="BF89" s="98"/>
+      <c r="BG89" s="98"/>
+      <c r="BH89" s="98"/>
+      <c r="BI89" s="98"/>
+      <c r="BJ89" s="101"/>
+      <c r="BN89" s="4" t="s">
+        <v>1835</v>
+      </c>
+      <c r="BT89" s="9"/>
       <c r="CA89" s="4" t="s">
-        <v>1815</v>
+        <v>1836</v>
       </c>
       <c r="CK89" s="9"/>
     </row>
-    <row r="90" spans="34:89">
-      <c r="AH90" s="82" t="s">
-        <v>1816</v>
-      </c>
-      <c r="AI90" s="72"/>
-      <c r="AJ90" s="72"/>
-      <c r="AK90" s="72"/>
-      <c r="AL90" s="72"/>
-      <c r="AM90" s="72"/>
-      <c r="AN90" s="72"/>
-      <c r="AO90" s="72"/>
-      <c r="AP90" s="72"/>
-      <c r="AQ90" s="72"/>
-      <c r="AR90" s="72"/>
-      <c r="AS90" s="72"/>
-      <c r="AT90" s="72"/>
-      <c r="AU90" s="72"/>
-      <c r="AV90" s="72"/>
-      <c r="AW90" s="72"/>
-      <c r="AX90" s="72"/>
-      <c r="AY90" s="77"/>
+    <row r="90" spans="25:89">
+      <c r="Y90" s="89"/>
+      <c r="Z90" s="90"/>
+      <c r="AA90" s="90"/>
+      <c r="AB90" s="90"/>
+      <c r="AC90" s="90"/>
+      <c r="AD90" s="90"/>
+      <c r="AE90" s="95"/>
+      <c r="AH90" s="55" t="s">
+        <v>1837</v>
+      </c>
+      <c r="AI90" s="49"/>
+      <c r="AJ90" s="49"/>
+      <c r="AK90" s="49"/>
+      <c r="AL90" s="49"/>
+      <c r="AM90" s="49"/>
+      <c r="AN90" s="49"/>
+      <c r="AO90" s="49"/>
+      <c r="AP90" s="49"/>
+      <c r="AQ90" s="49"/>
+      <c r="AR90" s="49"/>
+      <c r="AS90" s="49"/>
+      <c r="AT90" s="49"/>
+      <c r="AU90" s="49"/>
+      <c r="AV90" s="49"/>
+      <c r="AW90" s="49"/>
+      <c r="AX90" s="49"/>
+      <c r="AY90" s="58"/>
+      <c r="BD90" s="4" t="s">
+        <v>1838</v>
+      </c>
+      <c r="BE90" s="98"/>
+      <c r="BF90" s="98"/>
+      <c r="BG90" s="98"/>
+      <c r="BH90" s="98"/>
+      <c r="BI90" s="98"/>
+      <c r="BJ90" s="101"/>
+      <c r="BN90" s="4">
+        <v>334</v>
+      </c>
+      <c r="BT90" s="9"/>
       <c r="CA90" s="4" t="s">
-        <v>1817</v>
+        <v>1839</v>
       </c>
       <c r="CK90" s="9"/>
     </row>
-    <row r="91" spans="34:89">
-      <c r="AH91" s="54" t="s">
-        <v>1818</v>
-      </c>
-      <c r="AI91" s="48"/>
-      <c r="AJ91" s="48"/>
-      <c r="AK91" s="48"/>
-      <c r="AL91" s="48"/>
-      <c r="AM91" s="48"/>
-      <c r="AN91" s="48"/>
-      <c r="AO91" s="48"/>
-      <c r="AP91" s="48"/>
-      <c r="AQ91" s="48"/>
-      <c r="AR91" s="48"/>
-      <c r="AS91" s="48"/>
-      <c r="AT91" s="48"/>
-      <c r="AU91" s="48"/>
-      <c r="AV91" s="48"/>
-      <c r="AW91" s="48"/>
-      <c r="AX91" s="48"/>
-      <c r="AY91" s="57"/>
+    <row r="91" spans="25:89">
+      <c r="Y91" s="89"/>
+      <c r="Z91" s="90"/>
+      <c r="AA91" s="90"/>
+      <c r="AB91" s="90"/>
+      <c r="AC91" s="90"/>
+      <c r="AD91" s="90"/>
+      <c r="AE91" s="95"/>
+      <c r="AH91" s="55"/>
+      <c r="AI91" s="49"/>
+      <c r="AJ91" s="49"/>
+      <c r="AK91" s="49"/>
+      <c r="AL91" s="49"/>
+      <c r="AM91" s="49"/>
+      <c r="AN91" s="49"/>
+      <c r="AO91" s="49"/>
+      <c r="AP91" s="49"/>
+      <c r="AQ91" s="49"/>
+      <c r="AR91" s="49"/>
+      <c r="AS91" s="49"/>
+      <c r="AT91" s="49"/>
+      <c r="AU91" s="49"/>
+      <c r="AV91" s="49"/>
+      <c r="AW91" s="49"/>
+      <c r="AX91" s="49"/>
+      <c r="AY91" s="58"/>
+      <c r="BD91" s="4">
+        <v>17</v>
+      </c>
+      <c r="BE91" s="98"/>
+      <c r="BF91" s="98"/>
+      <c r="BG91" s="98"/>
+      <c r="BH91" s="98"/>
+      <c r="BI91" s="98"/>
+      <c r="BJ91" s="101"/>
+      <c r="BN91" s="5"/>
+      <c r="BT91" s="9"/>
       <c r="CA91" s="4" t="s">
-        <v>1819</v>
+        <v>1840</v>
       </c>
       <c r="CK91" s="9"/>
     </row>
-    <row r="92" spans="34:89">
-      <c r="AH92" s="54" t="s">
-        <v>1820</v>
-      </c>
-      <c r="AI92" s="48"/>
-      <c r="AJ92" s="48"/>
-      <c r="AK92" s="48"/>
-      <c r="AL92" s="48"/>
-      <c r="AM92" s="48"/>
-      <c r="AN92" s="48"/>
-      <c r="AO92" s="48"/>
-      <c r="AP92" s="48"/>
-      <c r="AQ92" s="48"/>
-      <c r="AR92" s="48"/>
-      <c r="AS92" s="48"/>
-      <c r="AT92" s="48"/>
-      <c r="AU92" s="48"/>
-      <c r="AV92" s="48"/>
-      <c r="AW92" s="48"/>
-      <c r="AX92" s="48"/>
-      <c r="AY92" s="57"/>
+    <row r="92" ht="16.5" spans="25:89">
+      <c r="Y92" s="89"/>
+      <c r="Z92" s="90"/>
+      <c r="AA92" s="90"/>
+      <c r="AB92" s="90"/>
+      <c r="AC92" s="90"/>
+      <c r="AD92" s="90"/>
+      <c r="AE92" s="95"/>
+      <c r="AH92" s="83" t="s">
+        <v>1841</v>
+      </c>
+      <c r="AI92" s="73"/>
+      <c r="AJ92" s="73"/>
+      <c r="AK92" s="73"/>
+      <c r="AL92" s="73"/>
+      <c r="AM92" s="73"/>
+      <c r="AN92" s="73"/>
+      <c r="AO92" s="73"/>
+      <c r="AP92" s="73"/>
+      <c r="AQ92" s="73"/>
+      <c r="AR92" s="73"/>
+      <c r="AS92" s="73"/>
+      <c r="AT92" s="73"/>
+      <c r="AU92" s="73"/>
+      <c r="AV92" s="73"/>
+      <c r="AW92" s="73"/>
+      <c r="AX92" s="73"/>
+      <c r="AY92" s="78"/>
+      <c r="BD92" s="97" t="s">
+        <v>1842</v>
+      </c>
+      <c r="BE92" s="98"/>
+      <c r="BF92" s="98"/>
+      <c r="BG92" s="98"/>
+      <c r="BH92" s="98"/>
+      <c r="BI92" s="98"/>
+      <c r="BJ92" s="101"/>
+      <c r="BN92" s="6"/>
+      <c r="BO92" s="7"/>
+      <c r="BP92" s="7"/>
+      <c r="BQ92" s="7"/>
+      <c r="BR92" s="7"/>
+      <c r="BS92" s="7"/>
+      <c r="BT92" s="10"/>
       <c r="CA92" s="4">
         <v>59</v>
       </c>
       <c r="CK92" s="9"/>
     </row>
-    <row r="93" spans="34:89">
-      <c r="AH93" s="71" t="s">
-        <v>1821</v>
-      </c>
-      <c r="AI93" s="48"/>
-      <c r="AJ93" s="48"/>
-      <c r="AK93" s="48"/>
-      <c r="AL93" s="48"/>
-      <c r="AM93" s="48"/>
-      <c r="AN93" s="48"/>
-      <c r="AO93" s="48"/>
-      <c r="AP93" s="48"/>
-      <c r="AQ93" s="48"/>
-      <c r="AR93" s="48"/>
-      <c r="AS93" s="48"/>
-      <c r="AT93" s="48"/>
-      <c r="AU93" s="48"/>
-      <c r="AV93" s="48"/>
-      <c r="AW93" s="48"/>
-      <c r="AX93" s="48"/>
-      <c r="AY93" s="57"/>
+    <row r="93" spans="25:89">
+      <c r="Y93" s="89"/>
+      <c r="Z93" s="90"/>
+      <c r="AA93" s="90"/>
+      <c r="AB93" s="90"/>
+      <c r="AC93" s="90"/>
+      <c r="AD93" s="90"/>
+      <c r="AE93" s="95"/>
+      <c r="AH93" s="55" t="s">
+        <v>1843</v>
+      </c>
+      <c r="AI93" s="49"/>
+      <c r="AJ93" s="49"/>
+      <c r="AK93" s="49"/>
+      <c r="AL93" s="49"/>
+      <c r="AM93" s="49"/>
+      <c r="AN93" s="49"/>
+      <c r="AO93" s="49"/>
+      <c r="AP93" s="49"/>
+      <c r="AQ93" s="49"/>
+      <c r="AR93" s="49"/>
+      <c r="AS93" s="49"/>
+      <c r="AT93" s="49"/>
+      <c r="AU93" s="49"/>
+      <c r="AV93" s="49"/>
+      <c r="AW93" s="49"/>
+      <c r="AX93" s="49"/>
+      <c r="AY93" s="58"/>
+      <c r="BD93" s="97" t="s">
+        <v>1844</v>
+      </c>
+      <c r="BE93" s="98"/>
+      <c r="BF93" s="98"/>
+      <c r="BG93" s="98"/>
+      <c r="BH93" s="98"/>
+      <c r="BI93" s="98"/>
+      <c r="BJ93" s="101"/>
       <c r="CA93" s="4" t="s">
-        <v>1822</v>
+        <v>1845</v>
       </c>
       <c r="CK93" s="9"/>
     </row>
-    <row r="94" ht="16.5" spans="34:89">
-      <c r="AH94" s="50"/>
-      <c r="AI94" s="51"/>
-      <c r="AJ94" s="51"/>
-      <c r="AK94" s="51"/>
-      <c r="AL94" s="51"/>
-      <c r="AM94" s="51"/>
-      <c r="AN94" s="51"/>
-      <c r="AO94" s="51"/>
-      <c r="AP94" s="51"/>
-      <c r="AQ94" s="51"/>
-      <c r="AR94" s="51"/>
-      <c r="AS94" s="51"/>
-      <c r="AT94" s="51"/>
-      <c r="AU94" s="51"/>
-      <c r="AV94" s="51"/>
-      <c r="AW94" s="51"/>
-      <c r="AX94" s="51"/>
+    <row r="94" ht="16.5" spans="25:89">
+      <c r="Y94" s="91"/>
+      <c r="Z94" s="90"/>
+      <c r="AA94" s="90"/>
+      <c r="AB94" s="90"/>
+      <c r="AC94" s="90"/>
+      <c r="AD94" s="90"/>
+      <c r="AE94" s="95"/>
+      <c r="AH94" s="55" t="s">
+        <v>1846</v>
+      </c>
+      <c r="AI94" s="49"/>
+      <c r="AJ94" s="49"/>
+      <c r="AK94" s="49"/>
+      <c r="AL94" s="49"/>
+      <c r="AM94" s="49"/>
+      <c r="AN94" s="49"/>
+      <c r="AO94" s="49"/>
+      <c r="AP94" s="49"/>
+      <c r="AQ94" s="49"/>
+      <c r="AR94" s="49"/>
+      <c r="AS94" s="49"/>
+      <c r="AT94" s="49"/>
+      <c r="AU94" s="49"/>
+      <c r="AV94" s="49"/>
+      <c r="AW94" s="49"/>
+      <c r="AX94" s="49"/>
       <c r="AY94" s="58"/>
+      <c r="BD94" s="4">
+        <v>20</v>
+      </c>
+      <c r="BE94" s="98"/>
+      <c r="BF94" s="98"/>
+      <c r="BG94" s="98"/>
+      <c r="BH94" s="98"/>
+      <c r="BI94" s="98"/>
+      <c r="BJ94" s="101"/>
       <c r="CA94" s="4">
         <v>61</v>
       </c>
       <c r="CK94" s="9"/>
     </row>
-    <row r="95" spans="79:89">
+    <row r="95" spans="25:89">
+      <c r="Y95" s="91"/>
+      <c r="Z95" s="90"/>
+      <c r="AA95" s="90"/>
+      <c r="AB95" s="90"/>
+      <c r="AC95" s="90"/>
+      <c r="AD95" s="90"/>
+      <c r="AE95" s="95"/>
+      <c r="AH95" s="72" t="s">
+        <v>1847</v>
+      </c>
+      <c r="AI95" s="49"/>
+      <c r="AJ95" s="49"/>
+      <c r="AK95" s="49"/>
+      <c r="AL95" s="49"/>
+      <c r="AM95" s="49"/>
+      <c r="AN95" s="49"/>
+      <c r="AO95" s="49"/>
+      <c r="AP95" s="49"/>
+      <c r="AQ95" s="49"/>
+      <c r="AR95" s="49"/>
+      <c r="AS95" s="49"/>
+      <c r="AT95" s="49"/>
+      <c r="AU95" s="49"/>
+      <c r="AV95" s="49"/>
+      <c r="AW95" s="49"/>
+      <c r="AX95" s="49"/>
+      <c r="AY95" s="58"/>
+      <c r="BD95" s="97" t="s">
+        <v>1848</v>
+      </c>
+      <c r="BE95" s="98"/>
+      <c r="BF95" s="98"/>
+      <c r="BG95" s="98"/>
+      <c r="BH95" s="98"/>
+      <c r="BI95" s="98"/>
+      <c r="BJ95" s="101"/>
       <c r="CA95" s="4">
         <v>62</v>
       </c>
       <c r="CK95" s="9"/>
     </row>
-    <row r="96" spans="79:89">
+    <row r="96" ht="16.5" spans="25:89">
+      <c r="Y96" s="89"/>
+      <c r="Z96" s="90"/>
+      <c r="AA96" s="90"/>
+      <c r="AB96" s="90"/>
+      <c r="AC96" s="90"/>
+      <c r="AD96" s="90"/>
+      <c r="AE96" s="95"/>
+      <c r="AH96" s="51"/>
+      <c r="AI96" s="52"/>
+      <c r="AJ96" s="52"/>
+      <c r="AK96" s="52"/>
+      <c r="AL96" s="52"/>
+      <c r="AM96" s="52"/>
+      <c r="AN96" s="52"/>
+      <c r="AO96" s="52"/>
+      <c r="AP96" s="52"/>
+      <c r="AQ96" s="52"/>
+      <c r="AR96" s="52"/>
+      <c r="AS96" s="52"/>
+      <c r="AT96" s="52"/>
+      <c r="AU96" s="52"/>
+      <c r="AV96" s="52"/>
+      <c r="AW96" s="52"/>
+      <c r="AX96" s="52"/>
+      <c r="AY96" s="59"/>
+      <c r="BD96" s="4" t="s">
+        <v>1849</v>
+      </c>
+      <c r="BE96" s="98"/>
+      <c r="BF96" s="98"/>
+      <c r="BG96" s="98"/>
+      <c r="BH96" s="98"/>
+      <c r="BI96" s="98"/>
+      <c r="BJ96" s="101"/>
       <c r="CA96" s="4" t="s">
-        <v>1823</v>
+        <v>1850</v>
       </c>
       <c r="CK96" s="9"/>
     </row>
-    <row r="97" spans="79:89">
+    <row r="97" ht="16.5" spans="25:89">
+      <c r="Y97" s="91"/>
+      <c r="Z97" s="90"/>
+      <c r="AA97" s="90"/>
+      <c r="AB97" s="90"/>
+      <c r="AC97" s="90"/>
+      <c r="AD97" s="90"/>
+      <c r="AE97" s="95"/>
+      <c r="BD97" s="6"/>
+      <c r="BE97" s="7"/>
+      <c r="BF97" s="7"/>
+      <c r="BG97" s="7"/>
+      <c r="BH97" s="7"/>
+      <c r="BI97" s="7"/>
+      <c r="BJ97" s="10"/>
       <c r="CA97" s="4" t="s">
-        <v>1824</v>
+        <v>1851</v>
       </c>
       <c r="CK97" s="9"/>
     </row>
-    <row r="98" spans="79:89">
+    <row r="98" spans="25:89">
+      <c r="Y98" s="89"/>
+      <c r="Z98" s="90"/>
+      <c r="AA98" s="90"/>
+      <c r="AB98" s="90"/>
+      <c r="AC98" s="90"/>
+      <c r="AD98" s="90"/>
+      <c r="AE98" s="95"/>
       <c r="CA98" s="4" t="s">
-        <v>1825</v>
+        <v>1852</v>
       </c>
       <c r="CK98" s="9"/>
     </row>
-    <row r="99" spans="79:89">
+    <row r="99" spans="25:89">
+      <c r="Y99" s="93"/>
+      <c r="Z99" s="73"/>
+      <c r="AA99" s="73"/>
+      <c r="AB99" s="73"/>
+      <c r="AC99" s="73"/>
+      <c r="AD99" s="73"/>
+      <c r="AE99" s="77"/>
       <c r="CA99" s="4" t="s">
-        <v>1826</v>
+        <v>1853</v>
       </c>
       <c r="CK99" s="9"/>
     </row>
     <row r="100" spans="79:89">
       <c r="CA100" s="4" t="s">
-        <v>1827</v>
+        <v>1854</v>
       </c>
       <c r="CK100" s="9"/>
     </row>
-    <row r="101" spans="79:89">
+    <row r="101" ht="16.5" spans="79:89">
       <c r="CA101" s="4" t="s">
-        <v>1828</v>
+        <v>1855</v>
       </c>
       <c r="CK101" s="9"/>
     </row>
     <row r="102" spans="79:89">
       <c r="CA102" s="4" t="s">
-        <v>1829</v>
+        <v>1856</v>
       </c>
       <c r="CK102" s="9"/>
     </row>
@@ -28309,13 +29303,13 @@
     </row>
     <row r="104" spans="79:89">
       <c r="CA104" s="4" t="s">
-        <v>1830</v>
+        <v>1857</v>
       </c>
       <c r="CK104" s="9"/>
     </row>
     <row r="105" spans="79:89">
       <c r="CA105" s="4" t="s">
-        <v>1831</v>
+        <v>1858</v>
       </c>
       <c r="CK105" s="9"/>
     </row>
@@ -28327,113 +29321,214 @@
     </row>
     <row r="107" spans="79:89">
       <c r="CA107" s="4" t="s">
-        <v>1832</v>
+        <v>1859</v>
       </c>
       <c r="CK107" s="9"/>
     </row>
-    <row r="108" spans="79:89">
+    <row r="108" spans="56:89">
+      <c r="BD108" s="2"/>
+      <c r="BE108" s="3"/>
+      <c r="BF108" s="3"/>
+      <c r="BG108" s="3"/>
+      <c r="BH108" s="3"/>
+      <c r="BI108" s="3"/>
+      <c r="BJ108" s="8"/>
       <c r="CA108" s="4" t="s">
-        <v>1833</v>
+        <v>1860</v>
       </c>
       <c r="CK108" s="9"/>
     </row>
-    <row r="109" spans="79:89">
+    <row r="109" spans="56:89">
+      <c r="BD109" s="5" t="s">
+        <v>1861</v>
+      </c>
+      <c r="BF109" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="BJ109" s="9"/>
       <c r="CA109" s="4" t="s">
-        <v>1834</v>
+        <v>1863</v>
       </c>
       <c r="CK109" s="9"/>
     </row>
-    <row r="110" spans="79:89">
+    <row r="110" spans="56:89">
+      <c r="BD110" s="5"/>
+      <c r="BJ110" s="9"/>
       <c r="CA110" s="4" t="s">
-        <v>1835</v>
+        <v>1864</v>
       </c>
       <c r="CK110" s="9"/>
     </row>
-    <row r="111" spans="79:89">
+    <row r="111" spans="56:89">
+      <c r="BD111" s="4" t="s">
+        <v>1865</v>
+      </c>
+      <c r="BJ111" s="9"/>
       <c r="CA111" s="4">
         <v>78</v>
       </c>
       <c r="CK111" s="9"/>
     </row>
-    <row r="112" spans="79:89">
+    <row r="112" spans="56:89">
+      <c r="BD112" s="97" t="s">
+        <v>1866</v>
+      </c>
+      <c r="BE112" s="100"/>
+      <c r="BF112" s="100"/>
+      <c r="BG112" s="100"/>
+      <c r="BH112" s="100"/>
+      <c r="BJ112" s="9"/>
       <c r="CA112" s="4" t="s">
-        <v>1836</v>
+        <v>1867</v>
       </c>
       <c r="CK112" s="9"/>
     </row>
-    <row r="113" spans="79:89">
+    <row r="113" spans="56:89">
+      <c r="BD113" s="97" t="s">
+        <v>1868</v>
+      </c>
+      <c r="BE113" s="100"/>
+      <c r="BF113" s="100"/>
+      <c r="BG113" s="100"/>
+      <c r="BH113" s="100"/>
+      <c r="BJ113" s="9"/>
       <c r="CA113" s="4" t="s">
-        <v>1837</v>
+        <v>1869</v>
       </c>
       <c r="CK113" s="9"/>
     </row>
-    <row r="114" spans="79:89">
+    <row r="114" spans="56:89">
+      <c r="BD114" s="97" t="s">
+        <v>1870</v>
+      </c>
+      <c r="BE114" s="100"/>
+      <c r="BF114" s="100"/>
+      <c r="BG114" s="100"/>
+      <c r="BH114" s="100"/>
+      <c r="BJ114" s="9"/>
       <c r="CA114" s="4" t="s">
-        <v>1838</v>
+        <v>1871</v>
       </c>
       <c r="CK114" s="9"/>
     </row>
-    <row r="115" spans="79:89">
+    <row r="115" spans="56:89">
+      <c r="BD115" s="97" t="s">
+        <v>1872</v>
+      </c>
+      <c r="BE115" s="100"/>
+      <c r="BF115" s="100"/>
+      <c r="BG115" s="100"/>
+      <c r="BH115" s="100"/>
+      <c r="BJ115" s="9"/>
       <c r="CA115" s="4" t="s">
-        <v>1839</v>
+        <v>1873</v>
       </c>
       <c r="CK115" s="9"/>
     </row>
-    <row r="116" spans="79:89">
+    <row r="116" spans="56:89">
+      <c r="BD116" s="97" t="s">
+        <v>1874</v>
+      </c>
+      <c r="BE116" s="100"/>
+      <c r="BF116" s="100"/>
+      <c r="BG116" s="100"/>
+      <c r="BH116" s="100"/>
+      <c r="BJ116" s="9"/>
       <c r="CA116" s="4" t="s">
-        <v>1840</v>
+        <v>1875</v>
       </c>
       <c r="CK116" s="9"/>
     </row>
-    <row r="117" spans="79:89">
+    <row r="117" spans="56:89">
+      <c r="BD117" s="97" t="s">
+        <v>1876</v>
+      </c>
+      <c r="BE117" s="100"/>
+      <c r="BF117" s="100"/>
+      <c r="BG117" s="100"/>
+      <c r="BH117" s="100"/>
+      <c r="BJ117" s="9"/>
       <c r="CA117" s="4" t="s">
-        <v>1841</v>
+        <v>1877</v>
       </c>
       <c r="CK117" s="9"/>
     </row>
-    <row r="118" spans="79:89">
+    <row r="118" spans="56:89">
+      <c r="BD118" s="4">
+        <v>291</v>
+      </c>
+      <c r="BJ118" s="9"/>
       <c r="CA118" s="4" t="s">
-        <v>1842</v>
+        <v>1878</v>
       </c>
       <c r="CK118" s="9"/>
     </row>
-    <row r="119" spans="79:89">
+    <row r="119" spans="56:89">
+      <c r="BD119" s="97" t="s">
+        <v>1879</v>
+      </c>
+      <c r="BJ119" s="9"/>
       <c r="CA119" s="4">
         <v>86</v>
       </c>
       <c r="CK119" s="9"/>
     </row>
-    <row r="120" spans="79:89">
+    <row r="120" spans="56:89">
+      <c r="BD120" s="4" t="s">
+        <v>1880</v>
+      </c>
+      <c r="BJ120" s="9"/>
       <c r="CA120" s="4" t="s">
-        <v>1843</v>
+        <v>1881</v>
       </c>
       <c r="CK120" s="9"/>
     </row>
-    <row r="121" spans="79:89">
+    <row r="121" spans="56:89">
+      <c r="BD121" s="4" t="s">
+        <v>1882</v>
+      </c>
+      <c r="BJ121" s="9"/>
       <c r="CA121" s="4" t="s">
-        <v>1844</v>
+        <v>1883</v>
       </c>
       <c r="CK121" s="9"/>
     </row>
-    <row r="122" spans="79:89">
+    <row r="122" spans="56:89">
+      <c r="BD122" s="4">
+        <v>295</v>
+      </c>
+      <c r="BJ122" s="9"/>
       <c r="CA122" s="4">
         <v>89</v>
       </c>
       <c r="CK122" s="9"/>
     </row>
-    <row r="123" spans="79:89">
+    <row r="123" spans="56:89">
+      <c r="BD123" s="4" t="s">
+        <v>1884</v>
+      </c>
+      <c r="BJ123" s="9"/>
       <c r="CA123" s="4" t="s">
-        <v>1845</v>
+        <v>1885</v>
       </c>
       <c r="CK123" s="9"/>
     </row>
-    <row r="124" spans="79:89">
+    <row r="124" spans="56:89">
+      <c r="BD124" s="5"/>
+      <c r="BJ124" s="9"/>
       <c r="CA124" s="4" t="s">
-        <v>1846</v>
+        <v>1886</v>
       </c>
       <c r="CK124" s="9"/>
     </row>
-    <row r="125" spans="79:89">
+    <row r="125" ht="16.5" spans="56:89">
+      <c r="BD125" s="6"/>
+      <c r="BE125" s="7"/>
+      <c r="BF125" s="7"/>
+      <c r="BG125" s="7"/>
+      <c r="BH125" s="7"/>
+      <c r="BI125" s="7"/>
+      <c r="BJ125" s="10"/>
       <c r="CA125" s="4">
         <v>92</v>
       </c>
@@ -28441,60 +29536,60 @@
     </row>
     <row r="126" spans="79:89">
       <c r="CA126" s="4" t="s">
-        <v>1847</v>
+        <v>1887</v>
       </c>
       <c r="CK126" s="9"/>
     </row>
     <row r="127" spans="79:89">
       <c r="CA127" s="4" t="s">
-        <v>1848</v>
+        <v>1888</v>
       </c>
       <c r="CK127" s="9"/>
     </row>
     <row r="128" spans="79:89">
-      <c r="CA128" s="85" t="s">
-        <v>1849</v>
+      <c r="CA128" s="97" t="s">
+        <v>1889</v>
       </c>
       <c r="CK128" s="9"/>
     </row>
     <row r="129" spans="79:89">
-      <c r="CA129" s="85" t="s">
-        <v>1850</v>
-      </c>
-      <c r="CG129" s="94" t="s">
-        <v>1851</v>
+      <c r="CA129" s="97" t="s">
+        <v>1890</v>
+      </c>
+      <c r="CG129" s="109" t="s">
+        <v>1891</v>
       </c>
       <c r="CK129" s="9"/>
     </row>
     <row r="130" spans="79:89">
-      <c r="CA130" s="85" t="s">
-        <v>1852</v>
+      <c r="CA130" s="97" t="s">
+        <v>1892</v>
       </c>
       <c r="CK130" s="9"/>
     </row>
     <row r="131" spans="79:89">
-      <c r="CA131" s="85" t="s">
-        <v>1853</v>
-      </c>
-      <c r="CB131" s="86"/>
-      <c r="CC131" s="86"/>
-      <c r="CD131" s="86"/>
-      <c r="CE131" s="86"/>
+      <c r="CA131" s="97" t="s">
+        <v>1893</v>
+      </c>
+      <c r="CB131" s="100"/>
+      <c r="CC131" s="100"/>
+      <c r="CD131" s="100"/>
+      <c r="CE131" s="100"/>
       <c r="CF131" s="1" t="s">
-        <v>1854</v>
+        <v>1894</v>
       </c>
       <c r="CK131" s="9"/>
     </row>
     <row r="132" spans="79:89">
-      <c r="CA132" s="85" t="s">
-        <v>1855</v>
-      </c>
-      <c r="CB132" s="86"/>
-      <c r="CC132" s="86"/>
-      <c r="CD132" s="86"/>
-      <c r="CE132" s="86"/>
+      <c r="CA132" s="97" t="s">
+        <v>1895</v>
+      </c>
+      <c r="CB132" s="100"/>
+      <c r="CC132" s="100"/>
+      <c r="CD132" s="100"/>
+      <c r="CE132" s="100"/>
       <c r="CF132" s="1" t="s">
-        <v>1856</v>
+        <v>1896</v>
       </c>
       <c r="CK132" s="9"/>
     </row>
@@ -28502,62 +29597,62 @@
       <c r="CA133" s="4">
         <v>100</v>
       </c>
-      <c r="CF133" s="87" t="s">
-        <v>1857</v>
+      <c r="CF133" s="102" t="s">
+        <v>1897</v>
       </c>
       <c r="CK133" s="9"/>
     </row>
     <row r="134" spans="79:89">
       <c r="CA134" s="4" t="s">
-        <v>1858</v>
+        <v>1898</v>
       </c>
       <c r="CK134" s="9"/>
     </row>
     <row r="135" spans="79:89">
       <c r="CA135" s="4" t="s">
-        <v>1859</v>
+        <v>1899</v>
       </c>
       <c r="CK135" s="9"/>
     </row>
     <row r="136" spans="79:89">
       <c r="CA136" s="4" t="s">
-        <v>1860</v>
+        <v>1900</v>
       </c>
       <c r="CK136" s="9"/>
     </row>
     <row r="137" spans="79:89">
       <c r="CA137" s="4" t="s">
-        <v>1861</v>
+        <v>1901</v>
       </c>
       <c r="CK137" s="9"/>
     </row>
     <row r="138" spans="79:89">
       <c r="CA138" s="4" t="s">
-        <v>1862</v>
+        <v>1902</v>
       </c>
       <c r="CK138" s="9"/>
     </row>
     <row r="139" spans="79:89">
       <c r="CA139" s="4" t="s">
-        <v>1863</v>
+        <v>1903</v>
       </c>
       <c r="CK139" s="9"/>
     </row>
     <row r="140" spans="79:89">
       <c r="CA140" s="4" t="s">
-        <v>1864</v>
+        <v>1904</v>
       </c>
       <c r="CK140" s="9"/>
     </row>
     <row r="141" spans="79:89">
       <c r="CA141" s="4" t="s">
-        <v>1865</v>
+        <v>1905</v>
       </c>
       <c r="CK141" s="9"/>
     </row>
     <row r="142" spans="79:89">
       <c r="CA142" s="4" t="s">
-        <v>1866</v>
+        <v>1906</v>
       </c>
       <c r="CK142" s="9"/>
     </row>
@@ -28569,37 +29664,37 @@
     </row>
     <row r="144" spans="79:89">
       <c r="CA144" s="4" t="s">
-        <v>1867</v>
+        <v>1907</v>
       </c>
       <c r="CK144" s="9"/>
     </row>
     <row r="145" spans="79:89">
       <c r="CA145" s="4" t="s">
-        <v>1868</v>
+        <v>1908</v>
       </c>
       <c r="CK145" s="9"/>
     </row>
     <row r="146" spans="79:89">
       <c r="CA146" s="4" t="s">
-        <v>1869</v>
+        <v>1909</v>
       </c>
       <c r="CK146" s="9"/>
     </row>
     <row r="147" spans="79:89">
       <c r="CA147" s="4" t="s">
-        <v>1870</v>
+        <v>1910</v>
       </c>
       <c r="CK147" s="9"/>
     </row>
     <row r="148" spans="79:89">
       <c r="CA148" s="4" t="s">
-        <v>1871</v>
+        <v>1911</v>
       </c>
       <c r="CK148" s="9"/>
     </row>
     <row r="149" spans="79:89">
       <c r="CA149" s="4" t="s">
-        <v>1872</v>
+        <v>1912</v>
       </c>
       <c r="CK149" s="9"/>
     </row>
@@ -28611,61 +29706,88 @@
     </row>
     <row r="151" spans="79:89">
       <c r="CA151" s="4" t="s">
-        <v>1873</v>
+        <v>1913</v>
       </c>
       <c r="CK151" s="9"/>
     </row>
-    <row r="152" spans="79:89">
+    <row r="152" spans="56:89">
+      <c r="BD152" t="s">
+        <v>1914</v>
+      </c>
       <c r="CA152" s="4" t="s">
-        <v>1874</v>
+        <v>1915</v>
       </c>
       <c r="CK152" s="9"/>
     </row>
-    <row r="153" spans="79:89">
+    <row r="153" spans="56:89">
+      <c r="BD153" t="s">
+        <v>1916</v>
+      </c>
       <c r="CA153" s="4" t="s">
-        <v>1875</v>
+        <v>1917</v>
       </c>
       <c r="CK153" s="9"/>
     </row>
-    <row r="154" spans="79:89">
+    <row r="154" spans="56:89">
+      <c r="BD154" s="40" t="s">
+        <v>1918</v>
+      </c>
       <c r="CA154" s="4" t="s">
-        <v>1876</v>
+        <v>1919</v>
       </c>
       <c r="CK154" s="9"/>
     </row>
-    <row r="155" spans="79:89">
+    <row r="155" spans="57:89">
+      <c r="BE155" t="s">
+        <v>1920</v>
+      </c>
       <c r="CA155" s="4" t="s">
-        <v>1877</v>
+        <v>1921</v>
       </c>
       <c r="CK155" s="9"/>
     </row>
-    <row r="156" spans="79:89">
+    <row r="156" spans="56:89">
+      <c r="BD156" s="40" t="s">
+        <v>1922</v>
+      </c>
       <c r="CA156" s="4" t="s">
-        <v>1878</v>
+        <v>1923</v>
       </c>
       <c r="CK156" s="9"/>
     </row>
-    <row r="157" spans="79:89">
+    <row r="157" spans="56:89">
+      <c r="BD157" t="s">
+        <v>1924</v>
+      </c>
       <c r="CA157" s="4" t="s">
-        <v>1879</v>
+        <v>1925</v>
       </c>
       <c r="CK157" s="9"/>
     </row>
-    <row r="158" spans="79:89">
+    <row r="158" spans="56:89">
+      <c r="BD158" t="s">
+        <v>1179</v>
+      </c>
       <c r="CA158" s="4" t="s">
-        <v>1880</v>
+        <v>1926</v>
       </c>
       <c r="CK158" s="9"/>
     </row>
-    <row r="159" spans="79:89">
+    <row r="159" spans="56:89">
+      <c r="BD159" t="s">
+        <v>1927</v>
+      </c>
       <c r="CA159" s="4" t="s">
-        <v>1881</v>
+        <v>1928</v>
       </c>
       <c r="CK159" s="9"/>
     </row>
-    <row r="160" spans="79:89">
+    <row r="160" spans="56:89">
+      <c r="BD160" t="s">
+        <v>1929</v>
+      </c>
       <c r="CA160" s="4" t="s">
-        <v>1882</v>
+        <v>1930</v>
       </c>
       <c r="CK160" s="9"/>
     </row>
@@ -28677,31 +29799,31 @@
     </row>
     <row r="162" spans="79:89">
       <c r="CA162" s="4" t="s">
-        <v>1883</v>
+        <v>1931</v>
       </c>
       <c r="CK162" s="9"/>
     </row>
     <row r="163" spans="79:89">
       <c r="CA163" s="4" t="s">
-        <v>1884</v>
+        <v>1932</v>
       </c>
       <c r="CK163" s="9"/>
     </row>
     <row r="164" spans="79:89">
       <c r="CA164" s="4" t="s">
-        <v>1885</v>
+        <v>1933</v>
       </c>
       <c r="CK164" s="9"/>
     </row>
     <row r="165" spans="79:89">
       <c r="CA165" s="4" t="s">
-        <v>1886</v>
+        <v>1934</v>
       </c>
       <c r="CK165" s="9"/>
     </row>
     <row r="166" spans="79:89">
       <c r="CA166" s="4" t="s">
-        <v>1887</v>
+        <v>1935</v>
       </c>
       <c r="CK166" s="9"/>
     </row>
@@ -28713,13 +29835,13 @@
     </row>
     <row r="168" spans="79:89">
       <c r="CA168" s="4" t="s">
-        <v>1888</v>
+        <v>1936</v>
       </c>
       <c r="CK168" s="9"/>
     </row>
     <row r="169" spans="79:89">
       <c r="CA169" s="4" t="s">
-        <v>1889</v>
+        <v>1937</v>
       </c>
       <c r="CK169" s="9"/>
     </row>
@@ -28756,7 +29878,7 @@
   <sheetData>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>1890</v>
+        <v>1938</v>
       </c>
     </row>
   </sheetData>
@@ -28783,47 +29905,47 @@
     </row>
     <row r="11" spans="5:5">
       <c r="E11" t="s">
-        <v>1891</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" t="s">
-        <v>1892</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="15" spans="5:5">
       <c r="E15" t="s">
-        <v>1893</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>1894</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" t="s">
-        <v>1895</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="21" ht="20.25" spans="5:5">
       <c r="E21" s="12" t="s">
-        <v>1896</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="22" ht="21" spans="5:5">
       <c r="E22" s="13" t="s">
-        <v>1897</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="5:5">
       <c r="E23" s="14" t="s">
-        <v>1898</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="5:5">
       <c r="E24" s="15" t="s">
-        <v>1899</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="5:5">
@@ -28831,72 +29953,72 @@
     </row>
     <row r="26" ht="21.75" spans="5:5">
       <c r="E26" s="16" t="s">
-        <v>1900</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="5:5">
       <c r="E27" s="17" t="s">
-        <v>1901</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="5:5">
       <c r="E28" s="17" t="s">
-        <v>1902</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="5:5">
       <c r="E29" s="17" t="s">
-        <v>1903</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="5:5">
       <c r="E30" s="17" t="s">
-        <v>1904</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="5:5">
       <c r="E31" s="17" t="s">
-        <v>1905</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="32" ht="17.25" spans="5:5">
       <c r="E32" s="18" t="s">
-        <v>1906</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="5:5">
       <c r="E33" s="19" t="s">
-        <v>1907</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="5:5">
       <c r="E34" s="19" t="s">
-        <v>1908</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="19" t="s">
-        <v>1909</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="36" ht="20.25" spans="5:5">
       <c r="E36" s="13" t="s">
-        <v>1910</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="37" ht="17.25" spans="5:5">
       <c r="E37" s="14" t="s">
-        <v>1911</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="5:5">
       <c r="E38" s="17" t="s">
-        <v>1912</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="5:5">
       <c r="E39" s="15" t="s">
-        <v>1913</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="41" spans="5:5">
@@ -28904,17 +30026,17 @@
     </row>
     <row r="42" ht="17.25" spans="5:5">
       <c r="E42" s="15" t="s">
-        <v>1914</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="43" ht="20.25" spans="5:5">
       <c r="E43" s="13" t="s">
-        <v>1915</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="5:5">
       <c r="E44" s="17" t="s">
-        <v>1916</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="45" spans="5:5">
@@ -28949,152 +30071,152 @@
     </row>
     <row r="55" ht="17.25" spans="5:5">
       <c r="E55" s="15" t="s">
-        <v>1917</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="5:5">
       <c r="E56" s="15" t="s">
-        <v>1918</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="77" ht="17.25" spans="5:5">
       <c r="E77" s="15" t="s">
-        <v>1919</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="78" ht="17.25" spans="5:5">
       <c r="E78" s="17" t="s">
-        <v>1920</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="79" ht="17.25" spans="5:5">
       <c r="E79" s="17" t="s">
-        <v>1921</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="80" ht="17.25" spans="5:5">
       <c r="E80" s="15" t="s">
-        <v>1922</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="81" ht="17.25" spans="5:5">
       <c r="E81" s="17" t="s">
-        <v>1923</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="82" ht="17.25" spans="5:5">
       <c r="E82" s="15" t="s">
-        <v>1924</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="83" ht="17.25" spans="5:5">
       <c r="E83" s="17" t="s">
-        <v>1925</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="84" ht="17.25" spans="5:5">
       <c r="E84" s="15" t="s">
-        <v>1926</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="85" ht="17.25" spans="5:5">
       <c r="E85" s="17" t="s">
-        <v>1927</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="86" ht="17.25" spans="5:5">
       <c r="E86" s="17" t="s">
-        <v>1928</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="87" ht="20.25" spans="5:5">
       <c r="E87" s="13" t="s">
-        <v>1929</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="88" ht="17.25" spans="5:5">
       <c r="E88" s="17" t="s">
-        <v>1930</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="89" ht="17.25" spans="5:5">
       <c r="E89" s="15" t="s">
-        <v>1931</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="90" ht="21" spans="5:5">
       <c r="E90" s="13" t="s">
-        <v>1932</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="91" ht="17.25" spans="5:5">
       <c r="E91" s="17" t="s">
-        <v>1933</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="92" ht="17.25" spans="5:5">
       <c r="E92" s="17" t="s">
-        <v>1934</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="93" ht="20.25" spans="5:5">
       <c r="E93" s="13" t="s">
-        <v>1935</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="94" ht="17.25" spans="5:5">
       <c r="E94" s="17" t="s">
-        <v>1936</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="95" ht="20.25" spans="5:5">
       <c r="E95" s="13" t="s">
-        <v>1937</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="96" ht="17.25" spans="5:5">
       <c r="E96" s="17" t="s">
-        <v>1938</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="97" ht="20.25" spans="5:5">
       <c r="E97" s="13" t="s">
-        <v>1939</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="98" ht="17.25" spans="5:5">
       <c r="E98" s="17" t="s">
-        <v>1940</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="99" ht="20.25" spans="5:5">
       <c r="E99" s="13" t="s">
-        <v>1941</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="100" ht="17.25" spans="5:5">
       <c r="E100" s="17" t="s">
-        <v>1942</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="101" ht="20.25" spans="5:5">
       <c r="E101" s="13" t="s">
-        <v>1943</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="102" ht="17.25" spans="5:5">
       <c r="E102" s="17" t="s">
-        <v>1944</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="103" ht="20.25" spans="5:5">
       <c r="E103" s="13" t="s">
-        <v>1945</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="104" ht="17.25" spans="5:5">
       <c r="E104" s="17" t="s">
-        <v>1946</v>
+        <v>1994</v>
       </c>
     </row>
   </sheetData>
@@ -29117,92 +30239,92 @@
   <sheetData>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>1947</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>1948</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>1949</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" t="s">
-        <v>1950</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>1951</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="7" spans="5:5">
       <c r="E7" t="s">
-        <v>1952</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>1953</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="9" spans="5:5">
       <c r="E9" t="s">
-        <v>1954</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>1955</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>1956</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>1957</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>1958</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>1959</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>1960</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>1961</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>1962</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>1963</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>1964</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="22" spans="14:18">
@@ -29214,16 +30336,16 @@
     </row>
     <row r="23" spans="4:18">
       <c r="D23" t="s">
-        <v>1965</v>
+        <v>2013</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>1966</v>
+        <v>2014</v>
       </c>
       <c r="R23" s="9"/>
     </row>
     <row r="24" spans="4:18">
       <c r="D24" t="s">
-        <v>1967</v>
+        <v>2015</v>
       </c>
       <c r="N24" s="4">
         <v>3</v>
@@ -29232,7 +30354,7 @@
     </row>
     <row r="25" spans="4:18">
       <c r="D25" t="s">
-        <v>1968</v>
+        <v>2016</v>
       </c>
       <c r="N25" s="4">
         <v>4</v>
@@ -29241,16 +30363,16 @@
     </row>
     <row r="26" spans="4:18">
       <c r="D26" t="s">
-        <v>1969</v>
+        <v>2017</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>1970</v>
+        <v>2018</v>
       </c>
       <c r="R26" s="9"/>
     </row>
     <row r="27" spans="4:18">
       <c r="D27" t="s">
-        <v>1971</v>
+        <v>2019</v>
       </c>
       <c r="N27" s="4">
         <v>6</v>
@@ -29259,7 +30381,7 @@
     </row>
     <row r="28" spans="4:18">
       <c r="D28" t="s">
-        <v>1972</v>
+        <v>2020</v>
       </c>
       <c r="N28" s="4">
         <v>7</v>
@@ -29268,53 +30390,53 @@
     </row>
     <row r="29" spans="4:18">
       <c r="D29" t="s">
-        <v>1973</v>
+        <v>2021</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>1974</v>
+        <v>2022</v>
       </c>
       <c r="R29" s="9"/>
     </row>
     <row r="30" spans="4:18">
       <c r="D30" t="s">
-        <v>1975</v>
+        <v>2023</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>1976</v>
+        <v>2024</v>
       </c>
       <c r="R30" s="9"/>
     </row>
     <row r="31" spans="4:18">
       <c r="D31" t="s">
-        <v>1977</v>
+        <v>2025</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>1978</v>
+        <v>2026</v>
       </c>
       <c r="R31" s="9"/>
     </row>
     <row r="32" spans="4:18">
       <c r="D32" t="s">
-        <v>1979</v>
+        <v>2027</v>
       </c>
       <c r="N32" s="5"/>
       <c r="R32" s="9"/>
     </row>
     <row r="33" spans="4:18">
       <c r="D33" t="s">
-        <v>1980</v>
+        <v>2028</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>1981</v>
+        <v>2029</v>
       </c>
       <c r="R33" s="9"/>
     </row>
     <row r="34" spans="4:18">
       <c r="D34" t="s">
-        <v>1982</v>
+        <v>2030</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>1983</v>
+        <v>2031</v>
       </c>
       <c r="R34" s="9"/>
     </row>
@@ -29327,595 +30449,595 @@
     </row>
     <row r="37" spans="4:4">
       <c r="D37" t="s">
-        <v>1984</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" t="s">
-        <v>1985</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>1986</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>1987</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="41" spans="4:10">
       <c r="D41" s="1" t="s">
-        <v>1988</v>
+        <v>2036</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>1989</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" t="s">
-        <v>1990</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" s="1" t="s">
-        <v>1991</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" s="1" t="s">
-        <v>1992</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" t="s">
-        <v>1993</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>1994</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
-        <v>1995</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>1996</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="1" t="s">
-        <v>1997</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" t="s">
-        <v>1998</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" t="s">
-        <v>1999</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" t="s">
-        <v>2000</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" t="s">
-        <v>2001</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" t="s">
-        <v>2002</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" t="s">
-        <v>2003</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" t="s">
-        <v>2004</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" t="s">
-        <v>2005</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" s="1" t="s">
-        <v>2006</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61" s="1" t="s">
-        <v>2007</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" s="1" t="s">
-        <v>2008</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" t="s">
-        <v>2009</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" t="s">
-        <v>2010</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" t="s">
-        <v>2011</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" t="s">
-        <v>2012</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69" t="s">
-        <v>2013</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70" t="s">
-        <v>2014</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72" s="1" t="s">
-        <v>2015</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" t="s">
-        <v>2016</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" t="s">
-        <v>2017</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" t="s">
-        <v>2018</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="76" spans="4:4">
       <c r="D76" s="1" t="s">
-        <v>2019</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="1" t="s">
-        <v>2020</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78" t="s">
-        <v>2021</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="79" spans="4:4">
       <c r="D79" t="s">
-        <v>2022</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" t="s">
-        <v>2023</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="81" spans="4:4">
       <c r="D81" t="s">
-        <v>2024</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" t="s">
-        <v>2025</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" t="s">
-        <v>2026</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" t="s">
-        <v>2027</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="86" spans="4:4">
       <c r="D86" t="s">
-        <v>2028</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87" t="s">
-        <v>2029</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="88" spans="4:4">
       <c r="D88" t="s">
-        <v>2030</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="89" spans="4:4">
       <c r="D89" t="s">
-        <v>2031</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="91" spans="4:4">
       <c r="D91" t="s">
-        <v>2032</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="92" spans="4:4">
       <c r="D92" t="s">
-        <v>2033</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="93" spans="4:4">
       <c r="D93" t="s">
-        <v>2034</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="94" spans="4:4">
       <c r="D94" t="s">
-        <v>2035</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="95" spans="4:4">
       <c r="D95" t="s">
-        <v>2036</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="96" spans="4:4">
       <c r="D96" t="s">
-        <v>2037</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="97" spans="4:4">
       <c r="D97" t="s">
-        <v>2038</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="98" spans="4:4">
       <c r="D98" t="s">
-        <v>2039</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="99" spans="4:4">
       <c r="D99" t="s">
-        <v>2040</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="101" spans="4:4">
       <c r="D101" t="s">
-        <v>2041</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="102" spans="4:4">
       <c r="D102" t="s">
-        <v>2042</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="104" spans="4:4">
       <c r="D104" t="s">
-        <v>2043</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="106" spans="4:4">
       <c r="D106" t="s">
-        <v>2044</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="107" spans="4:4">
       <c r="D107" t="s">
-        <v>2045</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="108" spans="4:4">
       <c r="D108" t="s">
-        <v>2046</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="109" spans="4:4">
       <c r="D109" t="s">
-        <v>2047</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="110" spans="4:4">
       <c r="D110" t="s">
-        <v>2048</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="111" spans="4:4">
       <c r="D111" t="s">
-        <v>2049</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="112" spans="4:4">
       <c r="D112" t="s">
-        <v>2050</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="113" spans="4:4">
       <c r="D113" t="s">
-        <v>2051</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="114" spans="4:4">
       <c r="D114" t="s">
-        <v>2052</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="115" spans="4:4">
       <c r="D115" t="s">
-        <v>2053</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="116" spans="4:4">
       <c r="D116" t="s">
-        <v>2054</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="117" spans="4:4">
       <c r="D117" t="s">
-        <v>2055</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="118" spans="4:4">
       <c r="D118" t="s">
-        <v>2056</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="119" spans="4:4">
       <c r="D119" t="s">
-        <v>2057</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="120" spans="4:4">
       <c r="D120" t="s">
-        <v>2058</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="121" spans="4:4">
       <c r="D121" t="s">
-        <v>2059</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="122" spans="4:4">
       <c r="D122" t="s">
-        <v>2060</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="123" spans="4:4">
       <c r="D123" t="s">
-        <v>2061</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="124" spans="4:4">
       <c r="D124" t="s">
-        <v>2062</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="125" spans="4:4">
       <c r="D125" t="s">
-        <v>2063</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="126" spans="4:4">
       <c r="D126" t="s">
-        <v>1969</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="127" spans="5:5">
       <c r="E127" t="s">
-        <v>2064</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="128" spans="4:4">
       <c r="D128" t="s">
-        <v>2065</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="129" spans="4:4">
       <c r="D129" t="s">
-        <v>2066</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="130" spans="4:4">
       <c r="D130" t="s">
-        <v>2067</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="131" spans="4:4">
       <c r="D131" t="s">
-        <v>2068</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="132" spans="4:4">
       <c r="D132" t="s">
-        <v>2069</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="133" spans="4:4">
       <c r="D133" t="s">
-        <v>2070</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="134" spans="4:4">
       <c r="D134" t="s">
-        <v>2062</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="135" spans="4:4">
       <c r="D135" t="s">
-        <v>2071</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="136" spans="4:4">
       <c r="D136" t="s">
-        <v>1969</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="137" spans="5:5">
       <c r="E137" t="s">
-        <v>2064</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="138" spans="4:4">
       <c r="D138" t="s">
-        <v>2072</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="139" spans="4:4">
       <c r="D139" t="s">
-        <v>2073</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="140" spans="4:4">
       <c r="D140" t="s">
-        <v>2074</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="141" spans="4:4">
       <c r="D141" t="s">
-        <v>2075</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="142" spans="4:4">
       <c r="D142" t="s">
-        <v>2076</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="143" spans="4:4">
       <c r="D143" t="s">
-        <v>2077</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="144" spans="4:4">
       <c r="D144" t="s">
-        <v>1969</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="145" spans="5:5">
       <c r="E145" t="s">
-        <v>2064</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="146" spans="4:4">
       <c r="D146" t="s">
-        <v>2078</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="147" spans="4:4">
       <c r="D147" t="s">
-        <v>2074</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="148" spans="4:4">
       <c r="D148" t="s">
-        <v>2079</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="149" spans="4:4">
       <c r="D149" t="s">
-        <v>2076</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="150" spans="4:4">
       <c r="D150" t="s">
-        <v>2080</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="151" spans="4:4">
       <c r="D151" t="s">
-        <v>1969</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="152" spans="5:5">
       <c r="E152" t="s">
-        <v>2064</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="153" spans="4:4">
       <c r="D153" t="s">
-        <v>2081</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="154" spans="4:4">
       <c r="D154" t="s">
-        <v>2074</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="155" spans="4:4">
       <c r="D155" t="s">
-        <v>2082</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="156" spans="4:4">
       <c r="D156" t="s">
-        <v>2076</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="157" spans="4:4">
       <c r="D157" t="s">
-        <v>2080</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="158" spans="4:4">
       <c r="D158" t="s">
-        <v>1969</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="159" spans="5:5">
       <c r="E159" t="s">
-        <v>2064</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="160" spans="4:4">
       <c r="D160" t="s">
-        <v>2083</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="161" spans="4:4">
       <c r="D161" t="s">
-        <v>2021</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="165" spans="4:4">
       <c r="D165" t="s">
-        <v>2084</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="166" ht="21" spans="4:4">
       <c r="D166" s="11" t="s">
-        <v>2085</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="167" spans="4:4">
       <c r="D167" t="s">
-        <v>2086</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="170" spans="4:4">
@@ -29925,22 +31047,22 @@
     </row>
     <row r="172" spans="4:4">
       <c r="D172" t="s">
-        <v>2087</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="173" spans="4:4">
       <c r="D173" t="s">
-        <v>2088</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="174" spans="4:4">
       <c r="D174" t="s">
-        <v>2089</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="175" spans="4:4">
       <c r="D175" t="s">
-        <v>2090</v>
+        <v>2138</v>
       </c>
     </row>
   </sheetData>
@@ -29966,22 +31088,22 @@
   <sheetData>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>2091</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="1" t="s">
-        <v>2092</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>2093</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>2094</v>
+        <v>2142</v>
       </c>
     </row>
   </sheetData>

--- a/kernel_compile_framework.xlsx
+++ b/kernel_compile_framework.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3030" uniqueCount="2143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3371" uniqueCount="2413">
   <si>
     <t>目录/home/hpsp/rock_space/iMX6Q_files/iMX6Q_kernel/kernel_imx 下有目前买的这个板子的DTB文件： imx6q-sabresd.dtb</t>
   </si>
@@ -7096,10 +7096,1042 @@
     <t>133         $(call if_changed_dep,host-cxxobjs)</t>
   </si>
   <si>
+    <t xml:space="preserve">顶层Makefile </t>
+  </si>
+  <si>
     <t>135 targets += $(host-csingle)  $(host-cmulti) $(host-cobjs)\</t>
   </si>
   <si>
     <t>136            $(host-cxxmulti) $(host-cxxobjs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 920 # Final link of vmlinux   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 921       cmd_link-vmlinux = $(CONFIG_SHELL) $&lt; $(LD) $(LDFLAGS) $(LDFLAGS_vmlinux)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 922 quiet_cmd_link-vmlinux = LINK    $@</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 911 export KBUILD_VMLINUX_INIT :=   $(head-y)    $(init-y)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 912 export KBUILD_VMLINUX_MAIN :=  $(core-y)     $(libs-y)   $(drivers-y)    $(net-y)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 924 # Include targets which we want to</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 925 # execute if the rest of the kernel build went well.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 913 export KBUILD_LDS    := </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arch/$(SRCARCH)/kernel/vmlinux.lds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 926 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vmlinux</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:    scripts/link-vmlinux.sh  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> $(vmlinux-deps) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   FORCE</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 927         @echo "rock_dbg:top_Makefile==&gt;vmlinux----&gt;$^...."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 928 ifdef CONFIG_HEADERS_CHECK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 929         @echo "rock_dbg:top_Makefile==&gt;vmlinux----111...."</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">make   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zImage</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 930         $(Q)$(MAKE) -f $(srctree)/Makefile headers_check</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 918 vmlinux-deps :=  $(KBUILD_LDS)   $(KBUILD_VMLINUX_INIT)    $(KBUILD_VMLINUX_MAIN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 931 endif</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 895 vmlinux-dirs    := $(patsubst  %/, %,  $( filter   %/,   $(init-y)   $(init-m) \</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 932 ifdef CONFIG_SAMPLES      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 896                      $(core-y)   $(core-m)   $(drivers-y)    $(drivers-m) \</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 933         @echo "rock_dbg:top_Makefile==&gt;vmlinux----222...."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 897                      $(net-y)    $(net-m)    $(libs-y)    $(libs-m)))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 934         $(Q)$(MAKE) $(build)=samples</t>
+  </si>
+  <si>
+    <t>vmlinux规则最后要执行的命令</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 947 # The actual objects are generated when descending,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">将变量中带/结尾的值筛选出来，并去掉/，保留值剩下的的部分赋给vmlinux-dirs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">304 boot := arch/arm/boot  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 935 endif</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 948 # make sure no implicit rule kicks in</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 936 ifdef CONFIG_BUILD_DOCSRC </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cmd:  /bin/bash    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scripts/link-vmlinux.sh</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    arm-linux-gnueabihf-ld   -EL  -p  --no-undefined  -X  --pic-veneer --build-id....</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 949 $(sort    $(vmlinux-deps)):   $(vmlinux-dirs) ;    ==&gt; 各个依赖 的 规则</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">312   BOOT_TARGETS    =   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zImage</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    Image   xipImage   bootpImage    uImage</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 937         @echo "rock_dbg:top_Makefile==&gt;vmlinux----333...."</t>
+  </si>
+  <si>
+    <t>rock_dbg:top_Makefile==&gt;vmlinux-dirs=init usr arch/arm/vfp arch/arm/vdso arch/arm/kernel arch/arm/mm arch/arm/common arch/arm/probes arch/arm/net arch/arm/crypto arch/arm/firmware arch/arm/mach-imx kernel mm fs ipc security crypto block drivers sound firmware net arch/arm/lib lib....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">313 INSTALL_TARGETS = zinstall uinstall install                                                                                                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 938         $(Q)$(MAKE) $(build)=Documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 939 endif                     </t>
+  </si>
+  <si>
+    <t>scripts/link-vmlinux.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">315 PHONY += bzImage $(BOOT_TARGETS) $(INSTALL_TARGETS)                                                                                                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 940 ifdef CONFIG_GDB_SCRIPTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 941         @echo "rock_dbg:top_Makefile==&gt;vmlinux----444...."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">317 $(BOOT_TARGETS): vmlinux       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 942         $(Q)ln -fsn `cd $(srctree) &amp;&amp; /bin/pwd`/scripts/gdb/vmlinux-gdb.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">318         $(Q)$(MAKE)   $(build)=$(boot)   MACHINE=$(MACHINE)   $(boot)/$@ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 943 endif</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 944         @echo "rock_dbg:top_Makefile==&gt;vmlinux----cmd:$(cmd_link-vmlinux)...."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make   -f   $(srctree)/scripts/Makefile.build   obj=arch/arm/boot     MACHINE=$(MACHINE)     $(boot)/$@ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 945         +$(call if_changed,link-vmlinux)</t>
+  </si>
+  <si>
+    <t>#!/bin/sh</t>
+  </si>
+  <si>
+    <t>实际过程的打印</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t># link vmlinux</t>
+  </si>
+  <si>
+    <t>rock_dbg:top_Makefile==&gt;vmlinux----&gt;scripts/link-vmlinux.sh arch/arm/kernel/vmlinux.lds arch/arm/kernel/head.o init/built-in.o usr/built-in.o arch/arm/vfp/built-in.o arch/arm/vdso/built-in.o arch/arm/kernel/built-in.o arch/arm/mm/built-in.o arch/arm/common/built-in.o arch/arm/probes/built-in.o arch/arm/net/built-in.o arch/arm/crypto/built-in.o arch/arm/firmware/built-in.o arch/arm/mach-imx/built-in.o kernel/built-in.o mm/built-in.o fs/built-in.o ipc/built-in.o security/built-in.o crypto/built-in.o block/built-in.o arch/arm/lib/lib.a lib/lib.a arch/arm/lib/built-in.o lib/built-in.o drivers/built-in.o sound/built-in.o firmware/built-in.o net/built-in.o FORCE....</t>
+  </si>
+  <si>
+    <t>rock_dbg:top_Makefile==&gt;vmlinux----cmd:/bin/bash scripts/link-vmlinux.sh arm-linux-gnueabihf-ld -EL  -p --no-undefined -X --pic-veneer --build-id....</t>
+  </si>
+  <si>
+    <t># vmlinux is linked from the objects selected by $(KBUILD_VMLINUX_INIT) and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LINK    vmlinux</t>
+  </si>
+  <si>
+    <t># $(KBUILD_VMLINUX_MAIN). Most are built-in.o files from top-level directories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LD      vmlinux.o</t>
+  </si>
+  <si>
+    <t># in the kernel tree, others are specified in arch/$(ARCH)/Makefile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  MODPOST vmlinux.o</t>
+  </si>
+  <si>
+    <t># Ordering when linking is important, and $(KBUILD_VMLINUX_INIT) must be first.</t>
+  </si>
+  <si>
+    <t>WARNING: modpost: Found 1 section mismatch(es).</t>
+  </si>
+  <si>
+    <t>To see full details build your kernel with:</t>
+  </si>
+  <si>
+    <t># vmlinux</t>
+  </si>
+  <si>
+    <t>make CONFIG_DEBUG_SECTION_MISMATCH=y'</t>
+  </si>
+  <si>
+    <t>#   ^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  GEN     .version</t>
+  </si>
+  <si>
+    <t>#   |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CHK     include/generated/compile.h</t>
+  </si>
+  <si>
+    <t>#   +-&lt; $(KBUILD_VMLINUX_INIT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  UPD     include/generated/compile.h</t>
+  </si>
+  <si>
+    <t>#   |   +--&lt; init/version.o + more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CC      init/version.o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LD      init/built-in.o</t>
+  </si>
+  <si>
+    <t>#   +--&lt; $(KBUILD_VMLINUX_MAIN)</t>
+  </si>
+  <si>
+    <t>rock_dbg:Makefile.build==&gt;__build: 1++$(if (KBUILD_BUILTIN)-1, 1.1--(builtin-target)-init/built-in.o 1.2--(lib-target)- 1.3--(extra-y)-) 2++$(if (KBUILD_MODULES)-, 2.1--(obj-m)- 2.2--(modorder-target)-init/modules.order)  3++(subdir-ym)-  4++(always)- obj=init</t>
+  </si>
+  <si>
+    <t>#   |    +--&lt; drivers/built-in.o mm/built-in.o + more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  KSYM    .tmp_kallsyms1.o</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 42 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kbuild-dir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> := $(if   $(filter  /%,  $(src)),    $(src), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> $(srctree)/$(src)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)  ==&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> arch/arm/boot   </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  KSYM    .tmp_kallsyms2.o</t>
+  </si>
+  <si>
+    <t>#   +-&lt; ${kallsymso} (see description in KALLSYMS section)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 43 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">kbuild-file </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:= $(if   $(wildcard  $(kbuild-dir)/Kbuild),    $(kbuild-dir)/Kbuild,  $(kbuild-dir)/Makefile)  ==&gt;   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>./arch/arm/boot/Kbuild  or  ./arch/arm/boot/Makefile 有前者就用前者 否则用后者</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  LD      vmlinux</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 44 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">include $(kbuild-file)  ==&gt; arch/arm/boot/Makefile </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  SORTEX  vmlinux</t>
+  </si>
+  <si>
+    <t># vmlinux version (uname -v) cannot be updated during normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SYSMAP  System.map</t>
+  </si>
+  <si>
+    <t># descending-into-subdirs phase since we do not yet know if we need to</t>
+  </si>
+  <si>
+    <t>rock_dbg:arch_arm_Makefile==&gt; zImage--vmlinux....</t>
+  </si>
+  <si>
+    <t># update vmlinux.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  OBJCOPY arch/arm/boot/Image</t>
+  </si>
+  <si>
+    <t># Therefore this step is delayed until just before final link of vmlinux.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kernel: arch/arm/boot/Image is ready</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LDS     arch/arm/boot/compressed/vmlinux.lds</t>
+  </si>
+  <si>
+    <t># System.map is generated to document addresses of all kernel symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AS      arch/arm/boot/compressed/head.o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LZO     arch/arm/boot/compressed/piggy.lzo</t>
+  </si>
+  <si>
+    <t># Error out on error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AS      arch/arm/boot/compressed/piggy.lzo.o</t>
+  </si>
+  <si>
+    <t>set -e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CC      arch/arm/boot/compressed/misc.o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CC      arch/arm/boot/compressed/decompress.o</t>
+  </si>
+  <si>
+    <t># Nice output in kbuild format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CC      arch/arm/boot/compressed/string.o</t>
+  </si>
+  <si>
+    <t># Will be supressed by "make -s"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SHIPPED arch/arm/boot/compressed/hyp-stub.S</t>
+  </si>
+  <si>
+    <t>info()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AS      arch/arm/boot/compressed/hyp-stub.o</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SHIPPED arch/arm/boot/compressed/fdt_rw.c</t>
+  </si>
+  <si>
+    <t>if [ "${quiet}" != "silent_" ]; then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SHIPPED arch/arm/boot/compressed/fdt.h</t>
+  </si>
+  <si>
+    <t>printf "  %-7s %s\n" ${1} ${2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SHIPPED arch/arm/boot/compressed/libfdt.h</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SHIPPED arch/arm/boot/compressed/libfdt_internal.h</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CC      arch/arm/boot/compressed/fdt_rw.o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SHIPPED arch/arm/boot/compressed/fdt_ro.c</t>
+  </si>
+  <si>
+    <t># Link of vmlinux.o used for section mismatch analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CC      arch/arm/boot/compressed/fdt_ro.o</t>
+  </si>
+  <si>
+    <t># ${1} output file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SHIPPED arch/arm/boot/compressed/fdt_wip.c</t>
+  </si>
+  <si>
+    <t>modpost_link()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CC      arch/arm/boot/compressed/fdt_wip.o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SHIPPED arch/arm/boot/compressed/fdt.c</t>
+  </si>
+  <si>
+    <t>${LD} ${LDFLAGS} -r -o ${1} ${KBUILD_VMLINUX_INIT}                   \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CC      arch/arm/boot/compressed/fdt.o</t>
+  </si>
+  <si>
+    <t>--start-group ${KBUILD_VMLINUX_MAIN} --end-group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CC      arch/arm/boot/compressed/atags_to_fdt.o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SHIPPED arch/arm/boot/compressed/lib1funcs.S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AS      arch/arm/boot/compressed/lib1funcs.o</t>
+  </si>
+  <si>
+    <t># Link of vmlinux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SHIPPED arch/arm/boot/compressed/ashldi3.S</t>
+  </si>
+  <si>
+    <t># ${1} - optional extra .o files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AS      arch/arm/boot/compressed/ashldi3.o</t>
+  </si>
+  <si>
+    <t># ${2} - output file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SHIPPED arch/arm/boot/compressed/bswapsdi2.S</t>
+  </si>
+  <si>
+    <t>vmlinux_link()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AS      arch/arm/boot/compressed/bswapsdi2.o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LD      arch/arm/boot/compressed/vmlinux</t>
+  </si>
+  <si>
+    <t>local lds="${objtree}/${KBUILD_LDS}"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  OBJCOPY arch/arm/boot/zImage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Kernel: arch/arm/boot/zImage is ready</t>
+  </si>
+  <si>
+    <t>if [ "${SRCARCH}" != "um" ]; then</t>
+  </si>
+  <si>
+    <t>${LD} ${LDFLAGS} ${LDFLAGS_vmlinux} -o ${2}                  \</t>
+  </si>
+  <si>
+    <t>-T ${lds} ${KBUILD_VMLINUX_INIT}                     \</t>
+  </si>
+  <si>
+    <t>--start-group ${KBUILD_VMLINUX_MAIN} --end-group ${1}</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>${CC} ${CFLAGS_vmlinux} -o ${2}                              \</t>
+  </si>
+  <si>
+    <t>-Wl,-T,${lds} ${KBUILD_VMLINUX_INIT}                 \</t>
+  </si>
+  <si>
+    <t>-Wl,--start-group                                    \</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${KBUILD_VMLINUX_MAIN}                      \</t>
+  </si>
+  <si>
+    <t>-Wl,--end-group                                      \</t>
+  </si>
+  <si>
+    <t>-lutil ${1}</t>
+  </si>
+  <si>
+    <t>rm -f linux</t>
+  </si>
+  <si>
+    <t># Create ${2} .o file with all symbols from the ${1} object file</t>
+  </si>
+  <si>
+    <t>kallsyms()</t>
+  </si>
+  <si>
+    <t>info KSYM ${2}</t>
+  </si>
+  <si>
+    <t>local kallsymopt;</t>
+  </si>
+  <si>
+    <t>if [ -n "${CONFIG_HAVE_UNDERSCORE_SYMBOL_PREFIX}" ]; then</t>
+  </si>
+  <si>
+    <t>kallsymopt="${kallsymopt} --symbol-prefix=_"</t>
+  </si>
+  <si>
+    <t>if [ -n "${CONFIG_KALLSYMS_ALL}" ]; then</t>
+  </si>
+  <si>
+    <t>kallsymopt="${kallsymopt} --all-symbols"</t>
+  </si>
+  <si>
+    <t>if [ -n "${CONFIG_ARM}" ] &amp;&amp; [ -n "${CONFIG_PAGE_OFFSET}" ]; then</t>
+  </si>
+  <si>
+    <t>kallsymopt="${kallsymopt} --page-offset=$CONFIG_PAGE_OFFSET"</t>
+  </si>
+  <si>
+    <t>if [ -n "${CONFIG_X86_64}" ]; then</t>
+  </si>
+  <si>
+    <t>kallsymopt="${kallsymopt} --absolute-percpu"</t>
+  </si>
+  <si>
+    <t>local aflags="${KBUILD_AFLAGS} ${KBUILD_AFLAGS_KERNEL}               \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ${NOSTDINC_FLAGS} ${LINUXINCLUDE} ${KBUILD_CPPFLAGS}"</t>
+  </si>
+  <si>
+    <t>${NM} -n ${1} | \</t>
+  </si>
+  <si>
+    <t>scripts/kallsyms ${kallsymopt} | \</t>
+  </si>
+  <si>
+    <t>${CC} ${aflags} -c -o ${2} -x assembler-with-cpp -</t>
+  </si>
+  <si>
+    <t># Create map file with all symbols from ${1}</t>
+  </si>
+  <si>
+    <t># See mksymap for additional details</t>
+  </si>
+  <si>
+    <t>mksysmap()</t>
+  </si>
+  <si>
+    <t>${CONFIG_SHELL} "${srctree}/scripts/mksysmap" ${1} ${2}</t>
+  </si>
+  <si>
+    <t>sortextable()</t>
+  </si>
+  <si>
+    <t>${objtree}/scripts/sortextable ${1}</t>
+  </si>
+  <si>
+    <t># Delete output files in case of error</t>
+  </si>
+  <si>
+    <t>trap cleanup SIGHUP SIGINT SIGQUIT SIGTERM ERR</t>
+  </si>
+  <si>
+    <t>cleanup()</t>
+  </si>
+  <si>
+    <t>rm -f .old_version</t>
+  </si>
+  <si>
+    <t>rm -f .tmp_System.map</t>
+  </si>
+  <si>
+    <t>rm -f .tmp_kallsyms*</t>
+  </si>
+  <si>
+    <t>rm -f .tmp_version</t>
+  </si>
+  <si>
+    <t>rm -f .tmp_vmlinux*</t>
+  </si>
+  <si>
+    <t>rm -f System.map</t>
+  </si>
+  <si>
+    <t>rm -f vmlinux</t>
+  </si>
+  <si>
+    <t>rm -f vmlinux.o</t>
+  </si>
+  <si>
+    <t># Use "make V=1" to debug this script</t>
+  </si>
+  <si>
+    <t>case "${KBUILD_VERBOSE}" in</t>
+  </si>
+  <si>
+    <t>*1*)</t>
+  </si>
+  <si>
+    <t>set -x</t>
+  </si>
+  <si>
+    <t>;;</t>
+  </si>
+  <si>
+    <t>esac</t>
+  </si>
+  <si>
+    <t>if [ "$1" = "clean" ]; then</t>
+  </si>
+  <si>
+    <t>cleanup</t>
+  </si>
+  <si>
+    <t>exit 0</t>
+  </si>
+  <si>
+    <t># We need access to CONFIG_ symbols</t>
+  </si>
+  <si>
+    <t>case "${KCONFIG_CONFIG}" in</t>
+  </si>
+  <si>
+    <t>*/*)</t>
+  </si>
+  <si>
+    <t>. "${KCONFIG_CONFIG}"</t>
+  </si>
+  <si>
+    <t>*)</t>
+  </si>
+  <si>
+    <t># Force using a file from the current directory</t>
+  </si>
+  <si>
+    <t>. "./${KCONFIG_CONFIG}"</t>
+  </si>
+  <si>
+    <t>#link vmlinux.o</t>
+  </si>
+  <si>
+    <t>info LD vmlinux.o</t>
+  </si>
+  <si>
+    <t>modpost_link vmlinux.o</t>
+  </si>
+  <si>
+    <t># modpost vmlinux.o to check for section mismatches</t>
+  </si>
+  <si>
+    <t>${MAKE}   -f    "${srctree}/scripts/Makefile.modpost"    vmlinux.o</t>
+  </si>
+  <si>
+    <t># Update version</t>
+  </si>
+  <si>
+    <t>info GEN .version</t>
+  </si>
+  <si>
+    <t>if [ ! -r .version ]; then</t>
+  </si>
+  <si>
+    <t>rm -f .version;</t>
+  </si>
+  <si>
+    <t>echo 1 &gt;.version;</t>
+  </si>
+  <si>
+    <t>mv .version .old_version;</t>
+  </si>
+  <si>
+    <t>expr 0$(cat .old_version) + 1 &gt;.version;</t>
+  </si>
+  <si>
+    <t>fi;</t>
+  </si>
+  <si>
+    <t># final build of init/</t>
+  </si>
+  <si>
+    <t>${MAKE}   -f    "${srctree}/scripts/Makefile.build"    obj=init</t>
+  </si>
+  <si>
+    <t>kallsymso=""</t>
+  </si>
+  <si>
+    <t>kallsyms_vmlinux=""</t>
+  </si>
+  <si>
+    <t>if [ -n "${CONFIG_KALLSYMS}" ]; then</t>
+  </si>
+  <si>
+    <t># kallsyms support</t>
+  </si>
+  <si>
+    <t># Generate section listing all symbols and add it into vmlinux</t>
+  </si>
+  <si>
+    <t># It's a three step process:</t>
+  </si>
+  <si>
+    <t># 1)  Link .tmp_vmlinux1 so it has all symbols and sections,</t>
+  </si>
+  <si>
+    <t>#     but __kallsyms is empty.</t>
+  </si>
+  <si>
+    <t>#     Running kallsyms on that gives us .tmp_kallsyms1.o with</t>
+  </si>
+  <si>
+    <t>#     the right size</t>
+  </si>
+  <si>
+    <t># 2)  Link .tmp_vmlinux2 so it now has a __kallsyms section of</t>
+  </si>
+  <si>
+    <t>#     the right size, but due to the added section, some</t>
+  </si>
+  <si>
+    <t>#     addresses have shifted.</t>
+  </si>
+  <si>
+    <t>#     From here, we generate a correct .tmp_kallsyms2.o</t>
+  </si>
+  <si>
+    <t># 2a) We may use an extra pass as this has been necessary to</t>
+  </si>
+  <si>
+    <t>#     woraround some alignment related bugs.</t>
+  </si>
+  <si>
+    <t>#     KALLSYMS_EXTRA_PASS=1 is used to trigger this.</t>
+  </si>
+  <si>
+    <t># 3)  The correct ${kallsymso} is linked into the final vmlinux.</t>
+  </si>
+  <si>
+    <t># a)  Verify that the System.map from vmlinux matches the map from</t>
+  </si>
+  <si>
+    <t>#     ${kallsymso}.</t>
+  </si>
+  <si>
+    <t>kallsymso=.tmp_kallsyms2.o</t>
+  </si>
+  <si>
+    <t>kallsyms_vmlinux=.tmp_vmlinux2</t>
+  </si>
+  <si>
+    <t># step 1</t>
+  </si>
+  <si>
+    <t>vmlinux_link "" .tmp_vmlinux1</t>
+  </si>
+  <si>
+    <t>kallsyms .tmp_vmlinux1 .tmp_kallsyms1.o</t>
+  </si>
+  <si>
+    <t># step 2</t>
+  </si>
+  <si>
+    <t>vmlinux_link .tmp_kallsyms1.o .tmp_vmlinux2</t>
+  </si>
+  <si>
+    <t>kallsyms .tmp_vmlinux2 .tmp_kallsyms2.o</t>
+  </si>
+  <si>
+    <t># step 2a</t>
+  </si>
+  <si>
+    <t>if [ -n "${KALLSYMS_EXTRA_PASS}" ]; then</t>
+  </si>
+  <si>
+    <t>kallsymso=.tmp_kallsyms3.o</t>
+  </si>
+  <si>
+    <t>kallsyms_vmlinux=.tmp_vmlinux3</t>
+  </si>
+  <si>
+    <t>vmlinux_link .tmp_kallsyms2.o .tmp_vmlinux3</t>
+  </si>
+  <si>
+    <t>kallsyms .tmp_vmlinux3 .tmp_kallsyms3.o</t>
+  </si>
+  <si>
+    <t>info   LD   vmlinux</t>
+  </si>
+  <si>
+    <t>vmlinux_link   "${kallsymso}"   vmlinux</t>
+  </si>
+  <si>
+    <t>if [ -n "${CONFIG_BUILDTIME_EXTABLE_SORT}" ]; then</t>
+  </si>
+  <si>
+    <t>info SORTEX vmlinux</t>
+  </si>
+  <si>
+    <t>sortextable vmlinux</t>
+  </si>
+  <si>
+    <t>info SYSMAP System.map</t>
+  </si>
+  <si>
+    <t>mksysmap vmlinux System.map</t>
+  </si>
+  <si>
+    <t># step a (see comment above)</t>
+  </si>
+  <si>
+    <t>mksysmap ${kallsyms_vmlinux} .tmp_System.map</t>
+  </si>
+  <si>
+    <t>if ! cmp -s System.map .tmp_System.map; then</t>
+  </si>
+  <si>
+    <t>echo &gt;&amp;2 Inconsistent kallsyms data</t>
+  </si>
+  <si>
+    <t>echo &gt;&amp;2 Try "make KALLSYMS_EXTRA_PASS=1" as a workaround</t>
+  </si>
+  <si>
+    <t>exit 1</t>
+  </si>
+  <si>
+    <t># We made a new kernel - delete old version file</t>
   </si>
   <si>
     <t>grep    lowlevel_init     * -rn     --exclude-dir   "bak"</t>
@@ -10174,7 +11206,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10287,6 +11319,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FFD4D4D4"/>
       <name val="Calibri"/>
@@ -10296,13 +11351,6 @@
     <font>
       <b/>
       <sz val="14.05"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -10457,6 +11505,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF1D41D5"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -10852,152 +11908,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11304,22 +12360,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11327,6 +12455,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -12993,6 +14124,1901 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>537210</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>90805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>436245</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="57" name="Group 56"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11433810" y="7434580"/>
+          <a:ext cx="6604635" cy="28671520"/>
+          <a:chOff x="18103" y="11207"/>
+          <a:chExt cx="10469" cy="43163"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="55" name="Elbow Connector 54"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipV="1">
+            <a:off x="5044" y="30842"/>
+            <a:ext cx="43017" cy="4040"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 50001"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="56" name="Elbow Connector 55"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18103" y="11207"/>
+            <a:ext cx="6472" cy="187"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 99351"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>492760</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>135890</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Elbow Connector 57"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="24800560" y="37127815"/>
+          <a:ext cx="3718560" cy="1108075"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 68947"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>36195</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>90805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>90805</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Elbow Connector 58"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19314795" y="36466780"/>
+          <a:ext cx="2465705" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50026"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>119380</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Elbow Connector 63"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="24427180" y="33271460"/>
+          <a:ext cx="4071620" cy="4228465"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50016"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>455930</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>151765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>474980</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Straight Arrow Connector 64"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31469330" y="32879665"/>
+          <a:ext cx="19050" cy="6317615"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>187642</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>18732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>198437</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Elbow Connector 66"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="31733490" y="40118665"/>
+          <a:ext cx="789305" cy="179070"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>748665</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>827405</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>109855</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Elbow Connector 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="30923865" y="35044380"/>
+          <a:ext cx="12651740" cy="3994150"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 87991"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>354330</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>167005</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Elbow Connector 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="70" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="48131730" y="35899090"/>
+          <a:ext cx="4465320" cy="1463040"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 74758"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>189865</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Text Box 69"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="52597050" y="34443670"/>
+          <a:ext cx="5610225" cy="5951220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>vmlinux的 各个依赖文件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>scripts/link-vmlinux.sh </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/kernel/vmlinux.lds </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/kernel/head.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>init/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>usr/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/vfp/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/vdso/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/kernel/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/mm/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/common/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/probes/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/net/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/crypto/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/firmware/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/mach-imx/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>kernel/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>mm/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>fs/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ipc/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>security/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>crypto/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>block/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/lib/lib.a </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>lib/lib.a </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/lib/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>lib/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>drivers/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>sound/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>firmware/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>net/built-in.o</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Up Arrow 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="53701950" y="40014525"/>
+          <a:ext cx="466725" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>746760</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Elbow Connector 71"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="46847760" y="38220650"/>
+          <a:ext cx="12673965" cy="1473200"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 36687"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>218440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>180340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Elbow Connector 72"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipV="1">
+          <a:off x="63583820" y="37884735"/>
+          <a:ext cx="2152650" cy="2028825"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50015"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>77470</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>103505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Elbow Connector 73"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47854870" y="35660330"/>
+          <a:ext cx="32004000" cy="820420"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50002"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Elbow Connector 74"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="83121500" y="36928425"/>
+          <a:ext cx="5080000" cy="775335"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 512"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Text Box 75"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="79848075" y="38728650"/>
+          <a:ext cx="5610225" cy="5951220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>vmlinux-deps </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>打印出来的实际值</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/kernel/vmlinux.lds </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/kernel/head.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>init/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>usr/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/vfp/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/vdso/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/kernel/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/mm/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/common/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/probes/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/net/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/crypto/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/firmware/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/mach-imx/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>kernel/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>mm/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>fs/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ipc/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>security/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>crypto/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>block/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/lib/lib.a </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>lib/lib.a </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/lib/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>lib/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>drivers/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>sound/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>firmware/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>net/built-in.o</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="80886300" y="36576000"/>
+          <a:ext cx="0" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="Text Box 77"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="89077800" y="38309550"/>
+          <a:ext cx="5610225" cy="4941570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>vmlinux-dirs 打印出来的实际值</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>init </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>usr </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/vfp </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/vdso </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/kernel </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/mm </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/common </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/probes </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/net </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/crypto </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/firmware </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/mach-imx </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>kernel </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>mm </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>fs </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ipc </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>security </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>crypto </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>block </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>drivers </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>sound </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>firmware </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>net </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>arch/arm/lib </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>lib</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Straight Arrow Connector 78"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="89287350" y="36747450"/>
+          <a:ext cx="19050" cy="1581150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13406,7 +16432,7 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="4" spans="3:3">
-      <c r="C4" s="108"/>
+      <c r="C4" s="132"/>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
@@ -22564,7 +25590,7 @@
       </c>
     </row>
     <row r="7" ht="16.5" spans="4:4">
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="128" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -22619,7 +25645,7 @@
       </c>
     </row>
     <row r="35" ht="18" spans="6:6">
-      <c r="F35" s="105" t="s">
+      <c r="F35" s="129" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -22697,12 +25723,12 @@
       </c>
     </row>
     <row r="50" ht="18" spans="6:6">
-      <c r="F50" s="105" t="s">
+      <c r="F50" s="129" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="51" spans="6:6">
-      <c r="F51" s="104" t="s">
+      <c r="F51" s="128" t="s">
         <v>1206</v>
       </c>
     </row>
@@ -22742,7 +25768,7 @@
       </c>
     </row>
     <row r="60" ht="18" spans="6:6">
-      <c r="F60" s="105" t="s">
+      <c r="F60" s="129" t="s">
         <v>1214</v>
       </c>
     </row>
@@ -22752,7 +25778,7 @@
       </c>
     </row>
     <row r="63" ht="18" spans="6:6">
-      <c r="F63" s="105" t="s">
+      <c r="F63" s="129" t="s">
         <v>1216</v>
       </c>
     </row>
@@ -22782,7 +25808,7 @@
       </c>
     </row>
     <row r="70" ht="18" spans="6:6">
-      <c r="F70" s="105" t="s">
+      <c r="F70" s="129" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -22958,7 +25984,7 @@
       </c>
     </row>
     <row r="105" ht="18" spans="6:6">
-      <c r="F105" s="105" t="s">
+      <c r="F105" s="129" t="s">
         <v>1254</v>
       </c>
     </row>
@@ -23073,7 +26099,7 @@
       </c>
     </row>
     <row r="130" ht="18" spans="6:6">
-      <c r="F130" s="105" t="s">
+      <c r="F130" s="129" t="s">
         <v>1275</v>
       </c>
     </row>
@@ -23133,12 +26159,12 @@
       </c>
     </row>
     <row r="145" spans="6:6">
-      <c r="F145" s="106" t="s">
+      <c r="F145" s="130" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="146" spans="6:6">
-      <c r="F146" s="106" t="s">
+      <c r="F146" s="130" t="s">
         <v>1285</v>
       </c>
     </row>
@@ -23173,7 +26199,7 @@
       </c>
     </row>
     <row r="153" spans="6:6">
-      <c r="F153" s="106" t="s">
+      <c r="F153" s="130" t="s">
         <v>1292</v>
       </c>
     </row>
@@ -23198,17 +26224,17 @@
       </c>
     </row>
     <row r="158" spans="6:6">
-      <c r="F158" s="106" t="s">
+      <c r="F158" s="130" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="159" spans="6:6">
-      <c r="F159" s="106" t="s">
+      <c r="F159" s="130" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="160" spans="6:6">
-      <c r="F160" s="106" t="s">
+      <c r="F160" s="130" t="s">
         <v>1299</v>
       </c>
     </row>
@@ -23223,7 +26249,7 @@
       </c>
     </row>
     <row r="163" spans="6:6">
-      <c r="F163" s="106" t="s">
+      <c r="F163" s="130" t="s">
         <v>1302</v>
       </c>
     </row>
@@ -23253,12 +26279,12 @@
       </c>
     </row>
     <row r="169" spans="6:6">
-      <c r="F169" s="106" t="s">
+      <c r="F169" s="130" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="171" spans="6:6">
-      <c r="F171" s="106" t="s">
+      <c r="F171" s="130" t="s">
         <v>1309</v>
       </c>
     </row>
@@ -23268,102 +26294,102 @@
       </c>
     </row>
     <row r="173" spans="6:6">
-      <c r="F173" s="106" t="s">
+      <c r="F173" s="130" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="174" spans="6:6">
-      <c r="F174" s="106" t="s">
+      <c r="F174" s="130" t="s">
         <v>1312</v>
       </c>
     </row>
     <row r="175" spans="6:6">
-      <c r="F175" s="106" t="s">
+      <c r="F175" s="130" t="s">
         <v>1313</v>
       </c>
     </row>
     <row r="176" spans="6:6">
-      <c r="F176" s="106" t="s">
+      <c r="F176" s="130" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="177" spans="6:6">
-      <c r="F177" s="106" t="s">
+      <c r="F177" s="130" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="178" spans="6:6">
-      <c r="F178" s="106" t="s">
+      <c r="F178" s="130" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="179" spans="6:6">
-      <c r="F179" s="106" t="s">
+      <c r="F179" s="130" t="s">
         <v>1317</v>
       </c>
     </row>
     <row r="180" spans="6:6">
-      <c r="F180" s="106" t="s">
+      <c r="F180" s="130" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="181" spans="6:6">
-      <c r="F181" s="106" t="s">
+      <c r="F181" s="130" t="s">
         <v>1319</v>
       </c>
     </row>
     <row r="182" spans="6:6">
-      <c r="F182" s="106" t="s">
+      <c r="F182" s="130" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="183" spans="6:6">
-      <c r="F183" s="106" t="s">
+      <c r="F183" s="130" t="s">
         <v>1321</v>
       </c>
     </row>
     <row r="184" spans="6:6">
-      <c r="F184" s="106" t="s">
+      <c r="F184" s="130" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="185" spans="6:6">
-      <c r="F185" s="106" t="s">
+      <c r="F185" s="130" t="s">
         <v>1323</v>
       </c>
     </row>
     <row r="186" spans="6:6">
-      <c r="F186" s="106" t="s">
+      <c r="F186" s="130" t="s">
         <v>1324</v>
       </c>
     </row>
     <row r="187" spans="6:6">
-      <c r="F187" s="106" t="s">
+      <c r="F187" s="130" t="s">
         <v>1325</v>
       </c>
     </row>
     <row r="188" spans="6:6">
-      <c r="F188" s="106" t="s">
+      <c r="F188" s="130" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="189" spans="6:6">
-      <c r="F189" s="106" t="s">
+      <c r="F189" s="130" t="s">
         <v>1327</v>
       </c>
     </row>
     <row r="190" spans="6:6">
-      <c r="F190" s="106" t="s">
+      <c r="F190" s="130" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="191" spans="6:6">
-      <c r="F191" s="106" t="s">
+      <c r="F191" s="130" t="s">
         <v>1323</v>
       </c>
     </row>
     <row r="192" spans="6:6">
-      <c r="F192" s="106" t="s">
+      <c r="F192" s="130" t="s">
         <v>11</v>
       </c>
     </row>
@@ -23493,7 +26519,7 @@
       </c>
     </row>
     <row r="221" spans="6:6">
-      <c r="F221" s="106" t="s">
+      <c r="F221" s="130" t="s">
         <v>1353</v>
       </c>
     </row>
@@ -24009,7 +27035,7 @@
       </c>
     </row>
     <row r="331" ht="16.5" spans="6:6">
-      <c r="F331" s="107" t="s">
+      <c r="F331" s="131" t="s">
         <v>1424</v>
       </c>
     </row>
@@ -25920,7 +28946,7 @@
       </c>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="103"/>
+      <c r="G21" s="127"/>
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
@@ -25939,10 +28965,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="M6:CK170"/>
+  <dimension ref="M6:DI441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC129" workbookViewId="0">
-      <selection activeCell="BF163" sqref="BF163"/>
+    <sheetView tabSelected="1" topLeftCell="CP169" workbookViewId="0">
+      <selection activeCell="DB186" sqref="DB186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -29556,7 +32582,7 @@
       <c r="CA129" s="97" t="s">
         <v>1890</v>
       </c>
-      <c r="CG129" s="109" t="s">
+      <c r="CG129" s="133" t="s">
         <v>1891</v>
       </c>
       <c r="CK129" s="9"/>
@@ -29597,7 +32623,7 @@
       <c r="CA133" s="4">
         <v>100</v>
       </c>
-      <c r="CF133" s="102" t="s">
+      <c r="CF133" s="115" t="s">
         <v>1897</v>
       </c>
       <c r="CK133" s="9"/>
@@ -29764,7 +32790,7 @@
       </c>
       <c r="CK157" s="9"/>
     </row>
-    <row r="158" spans="56:89">
+    <row r="158" ht="16.5" spans="56:89">
       <c r="BD158" t="s">
         <v>1179</v>
       </c>
@@ -29773,7 +32799,12 @@
       </c>
       <c r="CK158" s="9"/>
     </row>
-    <row r="159" spans="56:89">
+    <row r="159" spans="35:89">
+      <c r="AI159" s="36"/>
+      <c r="AJ159" s="37"/>
+      <c r="AK159" s="37"/>
+      <c r="AL159" s="37"/>
+      <c r="AM159" s="38"/>
       <c r="BD159" t="s">
         <v>1927</v>
       </c>
@@ -29782,7 +32813,11 @@
       </c>
       <c r="CK159" s="9"/>
     </row>
-    <row r="160" spans="56:89">
+    <row r="160" spans="35:89">
+      <c r="AI160" s="39" t="s">
+        <v>1679</v>
+      </c>
+      <c r="AM160" s="41"/>
       <c r="BD160" t="s">
         <v>1929</v>
       </c>
@@ -29791,61 +32826,94 @@
       </c>
       <c r="CK160" s="9"/>
     </row>
-    <row r="161" spans="79:89">
+    <row r="161" spans="35:89">
+      <c r="AI161" s="39"/>
+      <c r="AM161" s="41"/>
       <c r="CA161" s="4">
         <v>128</v>
       </c>
       <c r="CK161" s="9"/>
     </row>
-    <row r="162" spans="79:89">
+    <row r="162" spans="35:89">
+      <c r="AI162" s="48" t="s">
+        <v>1685</v>
+      </c>
+      <c r="AM162" s="41"/>
       <c r="CA162" s="4" t="s">
         <v>1931</v>
       </c>
       <c r="CK162" s="9"/>
     </row>
-    <row r="163" spans="79:89">
+    <row r="163" spans="35:89">
+      <c r="AI163" s="39"/>
+      <c r="AM163" s="41"/>
       <c r="CA163" s="4" t="s">
         <v>1932</v>
       </c>
       <c r="CK163" s="9"/>
     </row>
-    <row r="164" spans="79:89">
+    <row r="164" ht="16.5" spans="35:89">
+      <c r="AI164" s="42"/>
+      <c r="AJ164" s="43"/>
+      <c r="AK164" s="43"/>
+      <c r="AL164" s="43"/>
+      <c r="AM164" s="44"/>
       <c r="CA164" s="4" t="s">
         <v>1933</v>
       </c>
       <c r="CK164" s="9"/>
     </row>
-    <row r="165" spans="79:89">
+    <row r="165" ht="16.5" spans="79:89">
       <c r="CA165" s="4" t="s">
         <v>1934</v>
       </c>
       <c r="CK165" s="9"/>
     </row>
-    <row r="166" spans="79:89">
+    <row r="166" spans="53:89">
+      <c r="BA166" s="2"/>
+      <c r="BB166" s="3"/>
+      <c r="BC166" s="3"/>
+      <c r="BD166" s="3"/>
+      <c r="BE166" s="3"/>
+      <c r="BF166" s="3"/>
+      <c r="BG166" s="3"/>
+      <c r="BH166" s="8"/>
       <c r="CA166" s="4" t="s">
         <v>1935</v>
       </c>
       <c r="CK166" s="9"/>
     </row>
-    <row r="167" spans="79:89">
+    <row r="167" spans="53:89">
+      <c r="BA167" s="5"/>
+      <c r="BH167" s="9"/>
       <c r="CA167" s="4">
         <v>134</v>
       </c>
       <c r="CK167" s="9"/>
     </row>
-    <row r="168" spans="79:89">
+    <row r="168" spans="53:89">
+      <c r="BA168" s="5" t="s">
+        <v>1936</v>
+      </c>
+      <c r="BH168" s="9"/>
       <c r="CA168" s="4" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="CK168" s="9"/>
     </row>
-    <row r="169" spans="79:89">
+    <row r="169" spans="53:89">
+      <c r="BA169" s="5"/>
+      <c r="BH169" s="9"/>
       <c r="CA169" s="4" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="CK169" s="9"/>
     </row>
-    <row r="170" ht="16.5" spans="79:89">
+    <row r="170" ht="16.5" spans="53:89">
+      <c r="BA170" s="4" t="s">
+        <v>1939</v>
+      </c>
+      <c r="BH170" s="9"/>
       <c r="CA170" s="6"/>
       <c r="CB170" s="7"/>
       <c r="CC170" s="7"/>
@@ -29857,6 +32925,4752 @@
       <c r="CI170" s="7"/>
       <c r="CJ170" s="7"/>
       <c r="CK170" s="10"/>
+    </row>
+    <row r="171" spans="27:104">
+      <c r="AA171" s="36"/>
+      <c r="AB171" s="37"/>
+      <c r="AC171" s="37"/>
+      <c r="AD171" s="37"/>
+      <c r="AE171" s="37"/>
+      <c r="AF171" s="38"/>
+      <c r="BA171" s="97" t="s">
+        <v>1940</v>
+      </c>
+      <c r="BH171" s="9"/>
+      <c r="CR171" s="2" t="s">
+        <v>1936</v>
+      </c>
+      <c r="CS171" s="3"/>
+      <c r="CT171" s="3"/>
+      <c r="CU171" s="3"/>
+      <c r="CV171" s="3"/>
+      <c r="CW171" s="3"/>
+      <c r="CX171" s="3"/>
+      <c r="CY171" s="3"/>
+      <c r="CZ171" s="8"/>
+    </row>
+    <row r="172" spans="27:104">
+      <c r="AA172" s="39" t="s">
+        <v>1649</v>
+      </c>
+      <c r="AB172" s="20"/>
+      <c r="AC172" s="20"/>
+      <c r="AD172" s="20"/>
+      <c r="AE172" s="20"/>
+      <c r="AF172" s="41"/>
+      <c r="BA172" s="4" t="s">
+        <v>1941</v>
+      </c>
+      <c r="BH172" s="9"/>
+      <c r="CR172" s="63" t="s">
+        <v>1942</v>
+      </c>
+      <c r="CZ172" s="9"/>
+    </row>
+    <row r="173" spans="27:104">
+      <c r="AA173" s="39"/>
+      <c r="AB173" s="20"/>
+      <c r="AC173" s="20"/>
+      <c r="AD173" s="20"/>
+      <c r="AE173" s="20"/>
+      <c r="AF173" s="41"/>
+      <c r="BA173" s="4">
+        <v>923</v>
+      </c>
+      <c r="BH173" s="9"/>
+      <c r="CR173" s="63" t="s">
+        <v>1943</v>
+      </c>
+      <c r="CZ173" s="9"/>
+    </row>
+    <row r="174" spans="27:104">
+      <c r="AA174" s="45" t="s">
+        <v>1708</v>
+      </c>
+      <c r="AB174" s="20"/>
+      <c r="AC174" s="20"/>
+      <c r="AD174" s="20"/>
+      <c r="AE174" s="20"/>
+      <c r="AF174" s="41"/>
+      <c r="BA174" s="4" t="s">
+        <v>1944</v>
+      </c>
+      <c r="BH174" s="9"/>
+      <c r="CR174" s="116"/>
+      <c r="CZ174" s="9"/>
+    </row>
+    <row r="175" spans="27:104">
+      <c r="AA175" s="28" t="s">
+        <v>1713</v>
+      </c>
+      <c r="AB175" s="20"/>
+      <c r="AC175" s="20"/>
+      <c r="AD175" s="20"/>
+      <c r="AE175" s="20"/>
+      <c r="AF175" s="41"/>
+      <c r="BA175" s="4" t="s">
+        <v>1945</v>
+      </c>
+      <c r="BH175" s="9"/>
+      <c r="CR175" s="63" t="s">
+        <v>1946</v>
+      </c>
+      <c r="CZ175" s="9"/>
+    </row>
+    <row r="176" spans="27:104">
+      <c r="AA176" s="28">
+        <v>254</v>
+      </c>
+      <c r="AB176" s="20"/>
+      <c r="AC176" s="20"/>
+      <c r="AD176" s="20"/>
+      <c r="AE176" s="20"/>
+      <c r="AF176" s="41"/>
+      <c r="BA176" s="97" t="s">
+        <v>1947</v>
+      </c>
+      <c r="BH176" s="9"/>
+      <c r="CR176" s="5"/>
+      <c r="CZ176" s="9"/>
+    </row>
+    <row r="177" spans="27:104">
+      <c r="AA177" s="28" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AB177" s="20"/>
+      <c r="AC177" s="20"/>
+      <c r="AD177" s="20"/>
+      <c r="AE177" s="20"/>
+      <c r="AF177" s="41"/>
+      <c r="BA177" s="97" t="s">
+        <v>1948</v>
+      </c>
+      <c r="BH177" s="9"/>
+      <c r="CR177" s="5"/>
+      <c r="CZ177" s="9"/>
+    </row>
+    <row r="178" ht="16.5" spans="27:104">
+      <c r="AA178" s="28" t="s">
+        <v>1724</v>
+      </c>
+      <c r="AB178" s="20"/>
+      <c r="AC178" s="20"/>
+      <c r="AD178" s="20"/>
+      <c r="AE178" s="20"/>
+      <c r="AF178" s="41"/>
+      <c r="BA178" s="4" t="s">
+        <v>1949</v>
+      </c>
+      <c r="BH178" s="9"/>
+      <c r="CR178" s="5"/>
+      <c r="CZ178" s="9"/>
+    </row>
+    <row r="179" ht="16.5" spans="21:104">
+      <c r="U179" s="36"/>
+      <c r="V179" s="37"/>
+      <c r="W179" s="38"/>
+      <c r="AA179" s="30" t="s">
+        <v>1729</v>
+      </c>
+      <c r="AB179" s="20"/>
+      <c r="AC179" s="20"/>
+      <c r="AD179" s="20"/>
+      <c r="AE179" s="20"/>
+      <c r="AF179" s="41"/>
+      <c r="BA179" s="4" t="s">
+        <v>1950</v>
+      </c>
+      <c r="BH179" s="9"/>
+      <c r="CR179" s="4"/>
+      <c r="CS179" s="98"/>
+      <c r="CT179" s="98"/>
+      <c r="CU179" s="98"/>
+      <c r="CV179" s="98"/>
+      <c r="CW179" s="98"/>
+      <c r="CX179" s="98"/>
+      <c r="CY179" s="98"/>
+      <c r="CZ179" s="101"/>
+    </row>
+    <row r="180" spans="21:113">
+      <c r="U180" s="39"/>
+      <c r="V180" s="40" t="s">
+        <v>1951</v>
+      </c>
+      <c r="W180" s="41"/>
+      <c r="AA180" s="39"/>
+      <c r="AB180" s="20"/>
+      <c r="AC180" s="20"/>
+      <c r="AD180" s="20"/>
+      <c r="AE180" s="20"/>
+      <c r="AF180" s="41"/>
+      <c r="BA180" s="4" t="s">
+        <v>1952</v>
+      </c>
+      <c r="BH180" s="9"/>
+      <c r="CR180" s="97" t="s">
+        <v>1953</v>
+      </c>
+      <c r="CS180" s="98"/>
+      <c r="CT180" s="98"/>
+      <c r="CU180" s="98"/>
+      <c r="CV180" s="98"/>
+      <c r="CW180" s="98"/>
+      <c r="CX180" s="98"/>
+      <c r="CY180" s="98"/>
+      <c r="CZ180" s="101"/>
+      <c r="DB180" s="53" t="s">
+        <v>1936</v>
+      </c>
+      <c r="DC180" s="54"/>
+      <c r="DD180" s="54"/>
+      <c r="DE180" s="54"/>
+      <c r="DF180" s="54"/>
+      <c r="DG180" s="54"/>
+      <c r="DH180" s="75"/>
+      <c r="DI180" s="57"/>
+    </row>
+    <row r="181" ht="16.5" spans="21:113">
+      <c r="U181" s="42"/>
+      <c r="V181" s="43"/>
+      <c r="W181" s="44"/>
+      <c r="AA181" s="39"/>
+      <c r="AB181" s="20"/>
+      <c r="AC181" s="20"/>
+      <c r="AD181" s="20"/>
+      <c r="AE181" s="20"/>
+      <c r="AF181" s="41"/>
+      <c r="BA181" s="4" t="s">
+        <v>1954</v>
+      </c>
+      <c r="BH181" s="9"/>
+      <c r="BT181" s="88"/>
+      <c r="BU181" s="49"/>
+      <c r="BV181" s="49"/>
+      <c r="BW181" s="49"/>
+      <c r="BX181" s="49"/>
+      <c r="BY181" s="49"/>
+      <c r="BZ181" s="49"/>
+      <c r="CA181" s="49"/>
+      <c r="CB181" s="49"/>
+      <c r="CC181" s="49"/>
+      <c r="CD181" s="76"/>
+      <c r="CR181" s="4">
+        <v>919</v>
+      </c>
+      <c r="CS181" s="98"/>
+      <c r="CT181" s="98"/>
+      <c r="CU181" s="98"/>
+      <c r="CV181" s="98"/>
+      <c r="CW181" s="98"/>
+      <c r="CX181" s="98"/>
+      <c r="CY181" s="98"/>
+      <c r="CZ181" s="101"/>
+      <c r="DB181" s="55" t="s">
+        <v>1955</v>
+      </c>
+      <c r="DC181" s="49"/>
+      <c r="DD181" s="49"/>
+      <c r="DE181" s="49"/>
+      <c r="DF181" s="49"/>
+      <c r="DG181" s="49"/>
+      <c r="DH181" s="76"/>
+      <c r="DI181" s="58"/>
+    </row>
+    <row r="182" ht="16.5" spans="27:113">
+      <c r="AA182" s="39"/>
+      <c r="AB182" s="20"/>
+      <c r="AC182" s="20"/>
+      <c r="AD182" s="20"/>
+      <c r="AE182" s="20"/>
+      <c r="AF182" s="41"/>
+      <c r="BA182" s="4" t="s">
+        <v>1956</v>
+      </c>
+      <c r="BH182" s="9"/>
+      <c r="BT182" s="88"/>
+      <c r="BU182" s="49"/>
+      <c r="BV182" s="49"/>
+      <c r="BW182" s="49"/>
+      <c r="BX182" s="49"/>
+      <c r="BY182" s="49"/>
+      <c r="BZ182" s="49"/>
+      <c r="CA182" s="49"/>
+      <c r="CB182" s="49"/>
+      <c r="CC182" s="49"/>
+      <c r="CD182" s="76"/>
+      <c r="CR182" s="4"/>
+      <c r="CS182" s="98"/>
+      <c r="CT182" s="98"/>
+      <c r="CU182" s="98"/>
+      <c r="CV182" s="98"/>
+      <c r="CW182" s="98"/>
+      <c r="CX182" s="98"/>
+      <c r="CY182" s="98"/>
+      <c r="CZ182" s="101"/>
+      <c r="DB182" s="55" t="s">
+        <v>1957</v>
+      </c>
+      <c r="DC182" s="49"/>
+      <c r="DD182" s="49"/>
+      <c r="DE182" s="49"/>
+      <c r="DF182" s="49"/>
+      <c r="DG182" s="49"/>
+      <c r="DH182" s="76"/>
+      <c r="DI182" s="58"/>
+    </row>
+    <row r="183" spans="27:113">
+      <c r="AA183" s="39" t="s">
+        <v>1742</v>
+      </c>
+      <c r="AB183" s="20"/>
+      <c r="AC183" s="20"/>
+      <c r="AD183" s="20"/>
+      <c r="AE183" s="20"/>
+      <c r="AF183" s="41"/>
+      <c r="AI183" s="102" t="s">
+        <v>1750</v>
+      </c>
+      <c r="AJ183" s="103"/>
+      <c r="AK183" s="103"/>
+      <c r="AL183" s="103"/>
+      <c r="AM183" s="103"/>
+      <c r="AN183" s="111"/>
+      <c r="AO183" s="111"/>
+      <c r="AP183" s="54"/>
+      <c r="AQ183" s="54"/>
+      <c r="AR183" s="54"/>
+      <c r="AS183" s="54"/>
+      <c r="AT183" s="54"/>
+      <c r="AU183" s="54"/>
+      <c r="AV183" s="54"/>
+      <c r="AW183" s="57"/>
+      <c r="BA183" s="4" t="s">
+        <v>1958</v>
+      </c>
+      <c r="BH183" s="9"/>
+      <c r="BT183" s="53"/>
+      <c r="BU183" s="54"/>
+      <c r="BV183" s="54"/>
+      <c r="BW183" s="54"/>
+      <c r="BX183" s="54"/>
+      <c r="BY183" s="54"/>
+      <c r="BZ183" s="54"/>
+      <c r="CA183" s="54"/>
+      <c r="CB183" s="54"/>
+      <c r="CC183" s="54"/>
+      <c r="CD183" s="75"/>
+      <c r="CE183" s="54"/>
+      <c r="CF183" s="54"/>
+      <c r="CG183" s="54"/>
+      <c r="CH183" s="54"/>
+      <c r="CI183" s="54"/>
+      <c r="CJ183" s="54"/>
+      <c r="CK183" s="54"/>
+      <c r="CL183" s="57"/>
+      <c r="CR183" s="5"/>
+      <c r="CZ183" s="9"/>
+      <c r="DB183" s="55" t="s">
+        <v>1959</v>
+      </c>
+      <c r="DC183" s="49"/>
+      <c r="DD183" s="49"/>
+      <c r="DE183" s="49"/>
+      <c r="DF183" s="49"/>
+      <c r="DG183" s="49"/>
+      <c r="DH183" s="76"/>
+      <c r="DI183" s="58"/>
+    </row>
+    <row r="184" ht="16.5" spans="27:113">
+      <c r="AA184" s="39" t="s">
+        <v>1745</v>
+      </c>
+      <c r="AB184" s="20"/>
+      <c r="AC184" s="20"/>
+      <c r="AD184" s="20"/>
+      <c r="AE184" s="20"/>
+      <c r="AF184" s="41"/>
+      <c r="AI184" s="55"/>
+      <c r="AJ184" s="104"/>
+      <c r="AK184" s="104"/>
+      <c r="AL184" s="104"/>
+      <c r="AM184" s="107"/>
+      <c r="AN184" s="112"/>
+      <c r="AO184" s="112"/>
+      <c r="AP184" s="49"/>
+      <c r="AQ184" s="49"/>
+      <c r="AR184" s="49"/>
+      <c r="AS184" s="49"/>
+      <c r="AT184" s="49"/>
+      <c r="AU184" s="49"/>
+      <c r="AV184" s="49"/>
+      <c r="AW184" s="58"/>
+      <c r="BA184" s="4" t="s">
+        <v>1960</v>
+      </c>
+      <c r="BH184" s="9"/>
+      <c r="BT184" s="71" t="s">
+        <v>1961</v>
+      </c>
+      <c r="BU184" s="49"/>
+      <c r="BV184" s="49"/>
+      <c r="BW184" s="49"/>
+      <c r="BX184" s="49"/>
+      <c r="BY184" s="49"/>
+      <c r="BZ184" s="49"/>
+      <c r="CA184" s="49"/>
+      <c r="CB184" s="49"/>
+      <c r="CC184" s="49"/>
+      <c r="CD184" s="76"/>
+      <c r="CE184" s="49"/>
+      <c r="CF184" s="49"/>
+      <c r="CG184" s="49"/>
+      <c r="CH184" s="49"/>
+      <c r="CI184" s="49"/>
+      <c r="CJ184" s="49"/>
+      <c r="CK184" s="49"/>
+      <c r="CL184" s="58"/>
+      <c r="CR184" s="5" t="s">
+        <v>1962</v>
+      </c>
+      <c r="CZ184" s="9"/>
+      <c r="DB184" s="51"/>
+      <c r="DC184" s="117" t="s">
+        <v>1963</v>
+      </c>
+      <c r="DD184" s="52"/>
+      <c r="DE184" s="52"/>
+      <c r="DF184" s="52"/>
+      <c r="DG184" s="52"/>
+      <c r="DH184" s="79"/>
+      <c r="DI184" s="59"/>
+    </row>
+    <row r="185" spans="27:104">
+      <c r="AA185" s="46" t="s">
+        <v>1749</v>
+      </c>
+      <c r="AB185" s="20"/>
+      <c r="AC185" s="20"/>
+      <c r="AD185" s="20"/>
+      <c r="AE185" s="20"/>
+      <c r="AF185" s="41"/>
+      <c r="AI185" s="105" t="s">
+        <v>1964</v>
+      </c>
+      <c r="AJ185" s="104"/>
+      <c r="AK185" s="104"/>
+      <c r="AL185" s="104"/>
+      <c r="AM185" s="107"/>
+      <c r="AN185" s="112"/>
+      <c r="AO185" s="112"/>
+      <c r="AP185" s="49"/>
+      <c r="AQ185" s="49"/>
+      <c r="AR185" s="49"/>
+      <c r="AS185" s="49"/>
+      <c r="AT185" s="49"/>
+      <c r="AU185" s="49"/>
+      <c r="AV185" s="49"/>
+      <c r="AW185" s="58"/>
+      <c r="BA185" s="4" t="s">
+        <v>1965</v>
+      </c>
+      <c r="BH185" s="9"/>
+      <c r="BT185" s="55"/>
+      <c r="BU185" s="49"/>
+      <c r="BV185" s="49"/>
+      <c r="BW185" s="49"/>
+      <c r="BX185" s="49"/>
+      <c r="BY185" s="49"/>
+      <c r="BZ185" s="49"/>
+      <c r="CA185" s="49"/>
+      <c r="CB185" s="49"/>
+      <c r="CC185" s="49"/>
+      <c r="CD185" s="76"/>
+      <c r="CE185" s="49"/>
+      <c r="CF185" s="49"/>
+      <c r="CG185" s="49"/>
+      <c r="CH185" s="49"/>
+      <c r="CI185" s="49"/>
+      <c r="CJ185" s="49"/>
+      <c r="CK185" s="49"/>
+      <c r="CL185" s="58"/>
+      <c r="CR185" s="5" t="s">
+        <v>1966</v>
+      </c>
+      <c r="CZ185" s="9"/>
+    </row>
+    <row r="186" ht="23.25" spans="27:104">
+      <c r="AA186" s="39"/>
+      <c r="AB186" s="20"/>
+      <c r="AC186" s="20"/>
+      <c r="AD186" s="20"/>
+      <c r="AE186" s="20"/>
+      <c r="AF186" s="41"/>
+      <c r="AI186" s="55"/>
+      <c r="AJ186" s="104"/>
+      <c r="AK186" s="104"/>
+      <c r="AL186" s="104"/>
+      <c r="AM186" s="107"/>
+      <c r="AN186" s="112"/>
+      <c r="AO186" s="112"/>
+      <c r="AP186" s="49"/>
+      <c r="AQ186" s="49"/>
+      <c r="AR186" s="49"/>
+      <c r="AS186" s="49"/>
+      <c r="AT186" s="49"/>
+      <c r="AU186" s="49"/>
+      <c r="AV186" s="49"/>
+      <c r="AW186" s="58"/>
+      <c r="BA186" s="4" t="s">
+        <v>1967</v>
+      </c>
+      <c r="BH186" s="9"/>
+      <c r="BT186" s="114" t="s">
+        <v>1968</v>
+      </c>
+      <c r="BU186" s="49"/>
+      <c r="BV186" s="49"/>
+      <c r="BW186" s="49"/>
+      <c r="BX186" s="49"/>
+      <c r="BY186" s="49"/>
+      <c r="BZ186" s="49"/>
+      <c r="CA186" s="49"/>
+      <c r="CB186" s="49"/>
+      <c r="CC186" s="49"/>
+      <c r="CD186" s="76"/>
+      <c r="CE186" s="49"/>
+      <c r="CF186" s="49"/>
+      <c r="CG186" s="49"/>
+      <c r="CH186" s="49"/>
+      <c r="CI186" s="49"/>
+      <c r="CJ186" s="49"/>
+      <c r="CK186" s="49"/>
+      <c r="CL186" s="58"/>
+      <c r="CR186" s="63" t="s">
+        <v>1969</v>
+      </c>
+      <c r="CZ186" s="9"/>
+    </row>
+    <row r="187" spans="27:107">
+      <c r="AA187" s="39"/>
+      <c r="AB187" s="20"/>
+      <c r="AC187" s="20"/>
+      <c r="AD187" s="20"/>
+      <c r="AE187" s="20"/>
+      <c r="AF187" s="41"/>
+      <c r="AI187" s="105" t="s">
+        <v>1970</v>
+      </c>
+      <c r="AJ187" s="104"/>
+      <c r="AK187" s="104"/>
+      <c r="AL187" s="104"/>
+      <c r="AM187" s="107"/>
+      <c r="AN187" s="112"/>
+      <c r="AO187" s="112"/>
+      <c r="AP187" s="49"/>
+      <c r="AQ187" s="49"/>
+      <c r="AR187" s="49"/>
+      <c r="AS187" s="49"/>
+      <c r="AT187" s="49"/>
+      <c r="AU187" s="49"/>
+      <c r="AV187" s="49"/>
+      <c r="AW187" s="58"/>
+      <c r="BA187" s="4" t="s">
+        <v>1971</v>
+      </c>
+      <c r="BH187" s="9"/>
+      <c r="BT187" s="55"/>
+      <c r="BU187" s="49"/>
+      <c r="BV187" s="49"/>
+      <c r="BW187" s="49"/>
+      <c r="BX187" s="49"/>
+      <c r="BY187" s="49"/>
+      <c r="BZ187" s="49"/>
+      <c r="CA187" s="49"/>
+      <c r="CB187" s="49"/>
+      <c r="CC187" s="49"/>
+      <c r="CD187" s="76"/>
+      <c r="CE187" s="49"/>
+      <c r="CF187" s="49"/>
+      <c r="CG187" s="49"/>
+      <c r="CH187" s="49"/>
+      <c r="CI187" s="49"/>
+      <c r="CJ187" s="49"/>
+      <c r="CK187" s="49"/>
+      <c r="CL187" s="58"/>
+      <c r="CR187" s="5"/>
+      <c r="CZ187" s="9"/>
+      <c r="DC187" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="188" ht="16.5" spans="27:104">
+      <c r="AA188" s="47" t="s">
+        <v>1755</v>
+      </c>
+      <c r="AB188" s="20"/>
+      <c r="AC188" s="20"/>
+      <c r="AD188" s="20"/>
+      <c r="AE188" s="20"/>
+      <c r="AF188" s="41"/>
+      <c r="AI188" s="106" t="s">
+        <v>1973</v>
+      </c>
+      <c r="AJ188" s="104"/>
+      <c r="AK188" s="104"/>
+      <c r="AL188" s="104"/>
+      <c r="AM188" s="107"/>
+      <c r="AN188" s="112"/>
+      <c r="AO188" s="112"/>
+      <c r="AP188" s="49"/>
+      <c r="AQ188" s="49"/>
+      <c r="AR188" s="49"/>
+      <c r="AS188" s="49"/>
+      <c r="AT188" s="49"/>
+      <c r="AU188" s="49"/>
+      <c r="AV188" s="49"/>
+      <c r="AW188" s="58"/>
+      <c r="BA188" s="4" t="s">
+        <v>1974</v>
+      </c>
+      <c r="BH188" s="9"/>
+      <c r="BT188" s="55"/>
+      <c r="BU188" s="49"/>
+      <c r="BV188" s="49"/>
+      <c r="BW188" s="49"/>
+      <c r="BX188" s="49"/>
+      <c r="BY188" s="49"/>
+      <c r="BZ188" s="49"/>
+      <c r="CA188" s="49"/>
+      <c r="CB188" s="49"/>
+      <c r="CC188" s="49"/>
+      <c r="CD188" s="76"/>
+      <c r="CE188" s="49"/>
+      <c r="CF188" s="49"/>
+      <c r="CG188" s="49"/>
+      <c r="CH188" s="49"/>
+      <c r="CI188" s="49"/>
+      <c r="CJ188" s="49"/>
+      <c r="CK188" s="49"/>
+      <c r="CL188" s="58"/>
+      <c r="CR188" s="6"/>
+      <c r="CS188" s="7"/>
+      <c r="CT188" s="7"/>
+      <c r="CU188" s="7"/>
+      <c r="CV188" s="7"/>
+      <c r="CW188" s="7"/>
+      <c r="CX188" s="7"/>
+      <c r="CY188" s="7"/>
+      <c r="CZ188" s="10"/>
+    </row>
+    <row r="189" ht="16.5" spans="27:90">
+      <c r="AA189" s="39"/>
+      <c r="AB189" s="20"/>
+      <c r="AC189" s="20"/>
+      <c r="AD189" s="20"/>
+      <c r="AE189" s="20"/>
+      <c r="AF189" s="41"/>
+      <c r="AI189" s="106">
+        <v>314</v>
+      </c>
+      <c r="AJ189" s="107"/>
+      <c r="AK189" s="107"/>
+      <c r="AL189" s="107"/>
+      <c r="AM189" s="107"/>
+      <c r="AN189" s="112"/>
+      <c r="AO189" s="112"/>
+      <c r="AP189" s="49"/>
+      <c r="AQ189" s="49"/>
+      <c r="AR189" s="49"/>
+      <c r="AS189" s="49"/>
+      <c r="AT189" s="49"/>
+      <c r="AU189" s="49"/>
+      <c r="AV189" s="49"/>
+      <c r="AW189" s="58"/>
+      <c r="BA189" s="4" t="s">
+        <v>1975</v>
+      </c>
+      <c r="BH189" s="9"/>
+      <c r="BT189" s="51" t="s">
+        <v>1976</v>
+      </c>
+      <c r="BU189" s="52"/>
+      <c r="BV189" s="52"/>
+      <c r="BW189" s="52"/>
+      <c r="BX189" s="52"/>
+      <c r="BY189" s="52"/>
+      <c r="BZ189" s="52"/>
+      <c r="CA189" s="52"/>
+      <c r="CB189" s="52"/>
+      <c r="CC189" s="52"/>
+      <c r="CD189" s="79"/>
+      <c r="CE189" s="52"/>
+      <c r="CF189" s="52"/>
+      <c r="CG189" s="52"/>
+      <c r="CH189" s="52"/>
+      <c r="CI189" s="52"/>
+      <c r="CJ189" s="52"/>
+      <c r="CK189" s="52"/>
+      <c r="CL189" s="59"/>
+    </row>
+    <row r="190" ht="16.5" spans="27:82">
+      <c r="AA190" s="42"/>
+      <c r="AB190" s="43"/>
+      <c r="AC190" s="43"/>
+      <c r="AD190" s="43"/>
+      <c r="AE190" s="43"/>
+      <c r="AF190" s="44"/>
+      <c r="AI190" s="106" t="s">
+        <v>1977</v>
+      </c>
+      <c r="AJ190" s="104"/>
+      <c r="AK190" s="104"/>
+      <c r="AL190" s="104"/>
+      <c r="AM190" s="104"/>
+      <c r="AN190" s="112"/>
+      <c r="AO190" s="112"/>
+      <c r="AP190" s="49"/>
+      <c r="AQ190" s="49"/>
+      <c r="AR190" s="49"/>
+      <c r="AS190" s="49"/>
+      <c r="AT190" s="49"/>
+      <c r="AU190" s="49"/>
+      <c r="AV190" s="49"/>
+      <c r="AW190" s="58"/>
+      <c r="BA190" s="4" t="s">
+        <v>1978</v>
+      </c>
+      <c r="BH190" s="9"/>
+      <c r="BT190" s="88"/>
+      <c r="BU190" s="49"/>
+      <c r="BV190" s="49"/>
+      <c r="BW190" s="49"/>
+      <c r="BX190" s="49"/>
+      <c r="BY190" s="49"/>
+      <c r="BZ190" s="49"/>
+      <c r="CA190" s="49"/>
+      <c r="CB190" s="49"/>
+      <c r="CC190" s="49"/>
+      <c r="CD190" s="76"/>
+    </row>
+    <row r="191" spans="35:82">
+      <c r="AI191" s="108">
+        <v>316</v>
+      </c>
+      <c r="AJ191" s="109"/>
+      <c r="AK191" s="109"/>
+      <c r="AL191" s="109"/>
+      <c r="AM191" s="109"/>
+      <c r="AN191" s="113"/>
+      <c r="AO191" s="112"/>
+      <c r="AP191" s="49"/>
+      <c r="AQ191" s="49"/>
+      <c r="AR191" s="49"/>
+      <c r="AS191" s="49"/>
+      <c r="AT191" s="49"/>
+      <c r="AU191" s="49"/>
+      <c r="AV191" s="49"/>
+      <c r="AW191" s="58"/>
+      <c r="BA191" s="4" t="s">
+        <v>1979</v>
+      </c>
+      <c r="BH191" s="9"/>
+      <c r="BT191" s="88"/>
+      <c r="BU191" s="49"/>
+      <c r="BV191" s="49"/>
+      <c r="BW191" s="49"/>
+      <c r="BX191" s="49"/>
+      <c r="BY191" s="49"/>
+      <c r="BZ191" s="49"/>
+      <c r="CA191" s="49"/>
+      <c r="CB191" s="49"/>
+      <c r="CC191" s="49"/>
+      <c r="CD191" s="76"/>
+    </row>
+    <row r="192" spans="35:82">
+      <c r="AI192" s="110" t="s">
+        <v>1980</v>
+      </c>
+      <c r="AJ192" s="104"/>
+      <c r="AK192" s="104"/>
+      <c r="AL192" s="104"/>
+      <c r="AM192" s="104"/>
+      <c r="AN192" s="104"/>
+      <c r="AO192" s="112"/>
+      <c r="AP192" s="49"/>
+      <c r="AQ192" s="49"/>
+      <c r="AR192" s="49"/>
+      <c r="AS192" s="49"/>
+      <c r="AT192" s="49"/>
+      <c r="AU192" s="49"/>
+      <c r="AV192" s="49"/>
+      <c r="AW192" s="58"/>
+      <c r="BA192" s="4" t="s">
+        <v>1981</v>
+      </c>
+      <c r="BH192" s="9"/>
+      <c r="BT192" s="88"/>
+      <c r="BU192" s="49"/>
+      <c r="BV192" s="49"/>
+      <c r="BW192" s="49"/>
+      <c r="BX192" s="49"/>
+      <c r="BY192" s="49"/>
+      <c r="BZ192" s="49"/>
+      <c r="CA192" s="49"/>
+      <c r="CB192" s="49"/>
+      <c r="CC192" s="49"/>
+      <c r="CD192" s="76"/>
+    </row>
+    <row r="193" spans="35:82">
+      <c r="AI193" s="118" t="s">
+        <v>1982</v>
+      </c>
+      <c r="AJ193" s="109"/>
+      <c r="AK193" s="109"/>
+      <c r="AL193" s="109"/>
+      <c r="AM193" s="109"/>
+      <c r="AN193" s="109"/>
+      <c r="AO193" s="113"/>
+      <c r="AP193" s="49"/>
+      <c r="AQ193" s="49"/>
+      <c r="AR193" s="49"/>
+      <c r="AS193" s="49"/>
+      <c r="AT193" s="49"/>
+      <c r="AU193" s="49"/>
+      <c r="AV193" s="49"/>
+      <c r="AW193" s="58"/>
+      <c r="BA193" s="4" t="s">
+        <v>1983</v>
+      </c>
+      <c r="BH193" s="9"/>
+      <c r="BT193" s="88"/>
+      <c r="BU193" s="49"/>
+      <c r="BV193" s="49"/>
+      <c r="BW193" s="49"/>
+      <c r="BX193" s="49"/>
+      <c r="BY193" s="49"/>
+      <c r="BZ193" s="49"/>
+      <c r="CA193" s="49"/>
+      <c r="CB193" s="49"/>
+      <c r="CC193" s="49"/>
+      <c r="CD193" s="76"/>
+    </row>
+    <row r="194" spans="35:82">
+      <c r="AI194" s="119"/>
+      <c r="AJ194" s="104"/>
+      <c r="AK194" s="104"/>
+      <c r="AL194" s="104"/>
+      <c r="AM194" s="104"/>
+      <c r="AN194" s="104"/>
+      <c r="AO194" s="112"/>
+      <c r="AP194" s="49"/>
+      <c r="AQ194" s="49"/>
+      <c r="AR194" s="49"/>
+      <c r="AS194" s="49"/>
+      <c r="AT194" s="49"/>
+      <c r="AU194" s="49"/>
+      <c r="AV194" s="49"/>
+      <c r="AW194" s="58"/>
+      <c r="BA194" s="97" t="s">
+        <v>1984</v>
+      </c>
+      <c r="BH194" s="9"/>
+      <c r="BT194" s="88"/>
+      <c r="BU194" s="49"/>
+      <c r="BV194" s="49"/>
+      <c r="BW194" s="49"/>
+      <c r="BX194" s="49"/>
+      <c r="BY194" s="49"/>
+      <c r="BZ194" s="49"/>
+      <c r="CA194" s="49"/>
+      <c r="CB194" s="49"/>
+      <c r="CC194" s="49"/>
+      <c r="CD194" s="76"/>
+    </row>
+    <row r="195" ht="21" spans="35:82">
+      <c r="AI195" s="120" t="s">
+        <v>1985</v>
+      </c>
+      <c r="AJ195" s="73"/>
+      <c r="AK195" s="73"/>
+      <c r="AL195" s="73"/>
+      <c r="AM195" s="73"/>
+      <c r="AN195" s="73"/>
+      <c r="AO195" s="77"/>
+      <c r="AP195" s="49"/>
+      <c r="AQ195" s="49"/>
+      <c r="AR195" s="49"/>
+      <c r="AS195" s="49"/>
+      <c r="AT195" s="49"/>
+      <c r="AU195" s="49"/>
+      <c r="AV195" s="49"/>
+      <c r="AW195" s="58"/>
+      <c r="BA195" s="97" t="s">
+        <v>1986</v>
+      </c>
+      <c r="BH195" s="9"/>
+      <c r="BT195" s="88"/>
+      <c r="BU195" s="49"/>
+      <c r="BV195" s="49"/>
+      <c r="BW195" s="49"/>
+      <c r="BX195" s="49"/>
+      <c r="BY195" s="49"/>
+      <c r="BZ195" s="49"/>
+      <c r="CA195" s="49"/>
+      <c r="CB195" s="49"/>
+      <c r="CC195" s="49"/>
+      <c r="CD195" s="76"/>
+    </row>
+    <row r="196" ht="16.5" spans="35:82">
+      <c r="AI196" s="51"/>
+      <c r="AJ196" s="52"/>
+      <c r="AK196" s="52"/>
+      <c r="AL196" s="52"/>
+      <c r="AM196" s="52"/>
+      <c r="AN196" s="52"/>
+      <c r="AO196" s="52"/>
+      <c r="AP196" s="52"/>
+      <c r="AQ196" s="52"/>
+      <c r="AR196" s="52"/>
+      <c r="AS196" s="52"/>
+      <c r="AT196" s="52"/>
+      <c r="AU196" s="52"/>
+      <c r="AV196" s="52"/>
+      <c r="AW196" s="59"/>
+      <c r="BA196" s="6"/>
+      <c r="BB196" s="7"/>
+      <c r="BC196" s="7"/>
+      <c r="BD196" s="7"/>
+      <c r="BE196" s="7"/>
+      <c r="BF196" s="7"/>
+      <c r="BG196" s="7"/>
+      <c r="BH196" s="10"/>
+      <c r="BT196" s="88"/>
+      <c r="BU196" s="49"/>
+      <c r="BV196" s="49"/>
+      <c r="BW196" s="49"/>
+      <c r="BX196" s="49"/>
+      <c r="BY196" s="49"/>
+      <c r="BZ196" s="49"/>
+      <c r="CA196" s="49"/>
+      <c r="CB196" s="49"/>
+      <c r="CC196" s="49"/>
+      <c r="CD196" s="76"/>
+    </row>
+    <row r="197" spans="72:85">
+      <c r="BT197" s="88"/>
+      <c r="BU197" s="49"/>
+      <c r="BV197" s="49"/>
+      <c r="BW197" s="49"/>
+      <c r="BX197" s="49"/>
+      <c r="BY197" s="49"/>
+      <c r="BZ197" s="53" t="s">
+        <v>1976</v>
+      </c>
+      <c r="CA197" s="54"/>
+      <c r="CB197" s="54"/>
+      <c r="CC197" s="54"/>
+      <c r="CD197" s="75"/>
+      <c r="CE197" s="3"/>
+      <c r="CF197" s="3"/>
+      <c r="CG197" s="8"/>
+    </row>
+    <row r="198" spans="72:85">
+      <c r="BT198" s="93"/>
+      <c r="BU198" s="73"/>
+      <c r="BV198" s="73"/>
+      <c r="BW198" s="73"/>
+      <c r="BX198" s="73"/>
+      <c r="BY198" s="73"/>
+      <c r="BZ198" s="83"/>
+      <c r="CA198" s="73"/>
+      <c r="CB198" s="73"/>
+      <c r="CC198" s="73"/>
+      <c r="CD198" s="77"/>
+      <c r="CG198" s="9"/>
+    </row>
+    <row r="199" ht="16.5" spans="78:85">
+      <c r="BZ199" s="4" t="s">
+        <v>1987</v>
+      </c>
+      <c r="CA199" s="98"/>
+      <c r="CB199" s="98"/>
+      <c r="CC199" s="98"/>
+      <c r="CD199" s="98"/>
+      <c r="CG199" s="9"/>
+    </row>
+    <row r="200" spans="35:85">
+      <c r="AI200" s="53"/>
+      <c r="AJ200" s="54"/>
+      <c r="AK200" s="54"/>
+      <c r="AL200" s="54"/>
+      <c r="AM200" s="54"/>
+      <c r="AN200" s="54"/>
+      <c r="AO200" s="54"/>
+      <c r="AP200" s="54"/>
+      <c r="AQ200" s="54"/>
+      <c r="AR200" s="54"/>
+      <c r="AS200" s="54"/>
+      <c r="AT200" s="54"/>
+      <c r="AU200" s="54"/>
+      <c r="AV200" s="54"/>
+      <c r="AW200" s="54"/>
+      <c r="AX200" s="54"/>
+      <c r="AY200" s="54"/>
+      <c r="AZ200" s="57"/>
+      <c r="BI200" s="121" t="s">
+        <v>1988</v>
+      </c>
+      <c r="BJ200" s="122"/>
+      <c r="BK200" s="122"/>
+      <c r="BL200" s="122"/>
+      <c r="BM200" s="122"/>
+      <c r="BN200" s="122"/>
+      <c r="BO200" s="122"/>
+      <c r="BP200" s="122"/>
+      <c r="BQ200" s="122"/>
+      <c r="BR200" s="122"/>
+      <c r="BS200" s="122"/>
+      <c r="BT200" s="125"/>
+      <c r="BZ200" s="4" t="s">
+        <v>1989</v>
+      </c>
+      <c r="CA200" s="98"/>
+      <c r="CB200" s="98"/>
+      <c r="CC200" s="98"/>
+      <c r="CD200" s="98"/>
+      <c r="CG200" s="9"/>
+    </row>
+    <row r="201" spans="35:85">
+      <c r="AI201" s="55" t="s">
+        <v>1699</v>
+      </c>
+      <c r="AJ201" s="49"/>
+      <c r="AK201" s="49"/>
+      <c r="AL201" s="49"/>
+      <c r="AM201" s="49"/>
+      <c r="AN201" s="49"/>
+      <c r="AO201" s="49"/>
+      <c r="AP201" s="49"/>
+      <c r="AQ201" s="49"/>
+      <c r="AR201" s="49"/>
+      <c r="AS201" s="49"/>
+      <c r="AT201" s="49"/>
+      <c r="AU201" s="49"/>
+      <c r="AV201" s="49"/>
+      <c r="AW201" s="49"/>
+      <c r="AX201" s="49"/>
+      <c r="AY201" s="49"/>
+      <c r="AZ201" s="58"/>
+      <c r="BI201" s="4"/>
+      <c r="BJ201" s="98"/>
+      <c r="BK201" s="98"/>
+      <c r="BL201" s="98"/>
+      <c r="BM201" s="98"/>
+      <c r="BN201" s="98"/>
+      <c r="BO201" s="98"/>
+      <c r="BP201" s="98"/>
+      <c r="BQ201" s="98"/>
+      <c r="BR201" s="98"/>
+      <c r="BS201" s="98"/>
+      <c r="BT201" s="101"/>
+      <c r="BZ201" s="4" t="s">
+        <v>1990</v>
+      </c>
+      <c r="CA201" s="98"/>
+      <c r="CB201" s="98"/>
+      <c r="CC201" s="98"/>
+      <c r="CD201" s="98"/>
+      <c r="CG201" s="9"/>
+    </row>
+    <row r="202" spans="35:85">
+      <c r="AI202" s="55"/>
+      <c r="AJ202" s="49"/>
+      <c r="AK202" s="49"/>
+      <c r="AL202" s="49"/>
+      <c r="AM202" s="49"/>
+      <c r="AN202" s="49"/>
+      <c r="AO202" s="49"/>
+      <c r="AP202" s="49"/>
+      <c r="AQ202" s="49"/>
+      <c r="AR202" s="49"/>
+      <c r="AS202" s="49"/>
+      <c r="AT202" s="49"/>
+      <c r="AU202" s="49"/>
+      <c r="AV202" s="49"/>
+      <c r="AW202" s="49"/>
+      <c r="AX202" s="49"/>
+      <c r="AY202" s="49"/>
+      <c r="AZ202" s="58"/>
+      <c r="BI202" s="97" t="s">
+        <v>1991</v>
+      </c>
+      <c r="BJ202" s="98"/>
+      <c r="BK202" s="98"/>
+      <c r="BL202" s="98"/>
+      <c r="BM202" s="98"/>
+      <c r="BN202" s="98"/>
+      <c r="BO202" s="98"/>
+      <c r="BP202" s="98"/>
+      <c r="BQ202" s="98"/>
+      <c r="BR202" s="98"/>
+      <c r="BS202" s="98"/>
+      <c r="BT202" s="101"/>
+      <c r="BZ202" s="4" t="s">
+        <v>1989</v>
+      </c>
+      <c r="CA202" s="98"/>
+      <c r="CB202" s="98"/>
+      <c r="CC202" s="98"/>
+      <c r="CD202" s="98"/>
+      <c r="CG202" s="9"/>
+    </row>
+    <row r="203" spans="35:85">
+      <c r="AI203" s="56" t="s">
+        <v>1705</v>
+      </c>
+      <c r="AJ203" s="49"/>
+      <c r="AK203" s="49"/>
+      <c r="AL203" s="49"/>
+      <c r="AM203" s="49"/>
+      <c r="AN203" s="49"/>
+      <c r="AO203" s="49"/>
+      <c r="AP203" s="49"/>
+      <c r="AQ203" s="49"/>
+      <c r="AR203" s="49"/>
+      <c r="AS203" s="49"/>
+      <c r="AT203" s="49"/>
+      <c r="AU203" s="49"/>
+      <c r="AV203" s="49"/>
+      <c r="AW203" s="49"/>
+      <c r="AX203" s="49"/>
+      <c r="AY203" s="49"/>
+      <c r="AZ203" s="58"/>
+      <c r="BI203" s="97" t="s">
+        <v>1992</v>
+      </c>
+      <c r="BJ203" s="98"/>
+      <c r="BK203" s="98"/>
+      <c r="BL203" s="98"/>
+      <c r="BM203" s="98"/>
+      <c r="BN203" s="98"/>
+      <c r="BO203" s="98"/>
+      <c r="BP203" s="98"/>
+      <c r="BQ203" s="98"/>
+      <c r="BR203" s="98"/>
+      <c r="BS203" s="98"/>
+      <c r="BT203" s="101"/>
+      <c r="BZ203" s="4" t="s">
+        <v>1993</v>
+      </c>
+      <c r="CA203" s="98"/>
+      <c r="CB203" s="98"/>
+      <c r="CC203" s="98"/>
+      <c r="CD203" s="98"/>
+      <c r="CG203" s="9"/>
+    </row>
+    <row r="204" spans="35:85">
+      <c r="AI204" s="56">
+        <v>6</v>
+      </c>
+      <c r="AJ204" s="49"/>
+      <c r="AK204" s="49"/>
+      <c r="AL204" s="49"/>
+      <c r="AM204" s="49"/>
+      <c r="AN204" s="49"/>
+      <c r="AO204" s="49"/>
+      <c r="AP204" s="49"/>
+      <c r="AQ204" s="49"/>
+      <c r="AR204" s="49"/>
+      <c r="AS204" s="49"/>
+      <c r="AT204" s="49"/>
+      <c r="AU204" s="49"/>
+      <c r="AV204" s="49"/>
+      <c r="AW204" s="49"/>
+      <c r="AX204" s="49"/>
+      <c r="AY204" s="49"/>
+      <c r="AZ204" s="58"/>
+      <c r="BI204" s="4" t="s">
+        <v>1994</v>
+      </c>
+      <c r="BJ204" s="98"/>
+      <c r="BK204" s="98"/>
+      <c r="BL204" s="98"/>
+      <c r="BM204" s="98"/>
+      <c r="BN204" s="98"/>
+      <c r="BO204" s="98"/>
+      <c r="BP204" s="98"/>
+      <c r="BQ204" s="98"/>
+      <c r="BR204" s="98"/>
+      <c r="BS204" s="98"/>
+      <c r="BT204" s="101"/>
+      <c r="BZ204" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="CA204" s="98"/>
+      <c r="CB204" s="98"/>
+      <c r="CC204" s="98"/>
+      <c r="CD204" s="98"/>
+      <c r="CG204" s="9"/>
+    </row>
+    <row r="205" spans="35:85">
+      <c r="AI205" s="68" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AJ205" s="49"/>
+      <c r="AK205" s="49"/>
+      <c r="AL205" s="49"/>
+      <c r="AM205" s="49"/>
+      <c r="AN205" s="49"/>
+      <c r="AO205" s="49"/>
+      <c r="AP205" s="49"/>
+      <c r="AQ205" s="49"/>
+      <c r="AR205" s="49"/>
+      <c r="AS205" s="49"/>
+      <c r="AT205" s="49"/>
+      <c r="AU205" s="49"/>
+      <c r="AV205" s="49"/>
+      <c r="AW205" s="49"/>
+      <c r="AX205" s="49"/>
+      <c r="AY205" s="49"/>
+      <c r="AZ205" s="58"/>
+      <c r="BI205" s="4" t="s">
+        <v>1996</v>
+      </c>
+      <c r="BJ205" s="98"/>
+      <c r="BK205" s="98"/>
+      <c r="BL205" s="98"/>
+      <c r="BM205" s="98"/>
+      <c r="BN205" s="98"/>
+      <c r="BO205" s="98"/>
+      <c r="BP205" s="98"/>
+      <c r="BQ205" s="98"/>
+      <c r="BR205" s="98"/>
+      <c r="BS205" s="98"/>
+      <c r="BT205" s="101"/>
+      <c r="BZ205" s="4" t="s">
+        <v>1997</v>
+      </c>
+      <c r="CA205" s="98"/>
+      <c r="CB205" s="98"/>
+      <c r="CC205" s="98"/>
+      <c r="CD205" s="98"/>
+      <c r="CG205" s="9"/>
+    </row>
+    <row r="206" ht="16.5" spans="35:85">
+      <c r="AI206" s="68" t="s">
+        <v>1717</v>
+      </c>
+      <c r="AJ206" s="49"/>
+      <c r="AK206" s="49"/>
+      <c r="AL206" s="49"/>
+      <c r="AM206" s="49"/>
+      <c r="AN206" s="49"/>
+      <c r="AO206" s="49"/>
+      <c r="AP206" s="49"/>
+      <c r="AQ206" s="49"/>
+      <c r="AR206" s="49"/>
+      <c r="AS206" s="49"/>
+      <c r="AT206" s="49"/>
+      <c r="AU206" s="49"/>
+      <c r="AV206" s="49"/>
+      <c r="AW206" s="49"/>
+      <c r="AX206" s="49"/>
+      <c r="AY206" s="49"/>
+      <c r="AZ206" s="58"/>
+      <c r="BI206" s="4" t="s">
+        <v>1998</v>
+      </c>
+      <c r="BJ206" s="98"/>
+      <c r="BK206" s="98"/>
+      <c r="BL206" s="98"/>
+      <c r="BM206" s="98"/>
+      <c r="BN206" s="98"/>
+      <c r="BO206" s="98"/>
+      <c r="BP206" s="98"/>
+      <c r="BQ206" s="98"/>
+      <c r="BR206" s="98"/>
+      <c r="BS206" s="98"/>
+      <c r="BT206" s="101"/>
+      <c r="BZ206" s="4" t="s">
+        <v>1999</v>
+      </c>
+      <c r="CA206" s="98"/>
+      <c r="CB206" s="98"/>
+      <c r="CC206" s="98"/>
+      <c r="CD206" s="98"/>
+      <c r="CG206" s="9"/>
+    </row>
+    <row r="207" spans="35:85">
+      <c r="AI207" s="55"/>
+      <c r="AJ207" s="49"/>
+      <c r="AK207" s="49"/>
+      <c r="AL207" s="49"/>
+      <c r="AM207" s="49"/>
+      <c r="AN207" s="49"/>
+      <c r="AO207" s="49"/>
+      <c r="AP207" s="49"/>
+      <c r="AQ207" s="49"/>
+      <c r="AR207" s="49"/>
+      <c r="AS207" s="49"/>
+      <c r="AT207" s="49"/>
+      <c r="AU207" s="49"/>
+      <c r="AV207" s="49"/>
+      <c r="AW207" s="49"/>
+      <c r="AX207" s="49"/>
+      <c r="AY207" s="49"/>
+      <c r="AZ207" s="58"/>
+      <c r="BI207" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="BJ207" s="98"/>
+      <c r="BK207" s="98"/>
+      <c r="BL207" s="98"/>
+      <c r="BM207" s="98"/>
+      <c r="BN207" s="98"/>
+      <c r="BO207" s="98"/>
+      <c r="BP207" s="98"/>
+      <c r="BQ207" s="98"/>
+      <c r="BR207" s="98"/>
+      <c r="BS207" s="98"/>
+      <c r="BT207" s="101"/>
+      <c r="BZ207" s="4" t="s">
+        <v>1989</v>
+      </c>
+      <c r="CA207" s="98"/>
+      <c r="CB207" s="98"/>
+      <c r="CC207" s="98"/>
+      <c r="CD207" s="98"/>
+      <c r="CG207" s="9"/>
+    </row>
+    <row r="208" spans="35:85">
+      <c r="AI208" s="56" t="s">
+        <v>1726</v>
+      </c>
+      <c r="AJ208" s="49"/>
+      <c r="AK208" s="49"/>
+      <c r="AL208" s="49"/>
+      <c r="AM208" s="49"/>
+      <c r="AN208" s="49"/>
+      <c r="AO208" s="49"/>
+      <c r="AP208" s="49"/>
+      <c r="AQ208" s="49"/>
+      <c r="AR208" s="49"/>
+      <c r="AS208" s="49"/>
+      <c r="AT208" s="49"/>
+      <c r="AU208" s="49"/>
+      <c r="AV208" s="49"/>
+      <c r="AW208" s="49"/>
+      <c r="AX208" s="49"/>
+      <c r="AY208" s="49"/>
+      <c r="AZ208" s="58"/>
+      <c r="BI208" s="4" t="s">
+        <v>2001</v>
+      </c>
+      <c r="BJ208" s="98"/>
+      <c r="BK208" s="98"/>
+      <c r="BL208" s="98"/>
+      <c r="BM208" s="98"/>
+      <c r="BN208" s="98"/>
+      <c r="BO208" s="98"/>
+      <c r="BP208" s="98"/>
+      <c r="BQ208" s="98"/>
+      <c r="BR208" s="98"/>
+      <c r="BS208" s="98"/>
+      <c r="BT208" s="101"/>
+      <c r="BZ208" s="97" t="s">
+        <v>2002</v>
+      </c>
+      <c r="CA208" s="99"/>
+      <c r="CB208" s="99"/>
+      <c r="CC208" s="99"/>
+      <c r="CD208" s="99"/>
+      <c r="CE208" s="100"/>
+      <c r="CG208" s="9"/>
+    </row>
+    <row r="209" spans="35:85">
+      <c r="AI209" s="56" t="s">
+        <v>1731</v>
+      </c>
+      <c r="AJ209" s="49"/>
+      <c r="AK209" s="49"/>
+      <c r="AL209" s="49"/>
+      <c r="AM209" s="49"/>
+      <c r="AN209" s="49"/>
+      <c r="AO209" s="49"/>
+      <c r="AP209" s="49"/>
+      <c r="AQ209" s="49"/>
+      <c r="AR209" s="49"/>
+      <c r="AS209" s="49"/>
+      <c r="AT209" s="49"/>
+      <c r="AU209" s="49"/>
+      <c r="AV209" s="49"/>
+      <c r="AW209" s="49"/>
+      <c r="AX209" s="49"/>
+      <c r="AY209" s="49"/>
+      <c r="AZ209" s="58"/>
+      <c r="BI209" s="134" t="s">
+        <v>2003</v>
+      </c>
+      <c r="BJ209" s="98"/>
+      <c r="BK209" s="98"/>
+      <c r="BL209" s="98"/>
+      <c r="BM209" s="98"/>
+      <c r="BN209" s="98"/>
+      <c r="BO209" s="98"/>
+      <c r="BP209" s="98"/>
+      <c r="BQ209" s="98"/>
+      <c r="BR209" s="98"/>
+      <c r="BS209" s="98"/>
+      <c r="BT209" s="101"/>
+      <c r="BZ209" s="97" t="s">
+        <v>2004</v>
+      </c>
+      <c r="CA209" s="99"/>
+      <c r="CB209" s="99"/>
+      <c r="CC209" s="99"/>
+      <c r="CD209" s="99"/>
+      <c r="CE209" s="100"/>
+      <c r="CG209" s="9"/>
+    </row>
+    <row r="210" spans="35:85">
+      <c r="AI210" s="56">
+        <v>35</v>
+      </c>
+      <c r="AJ210" s="49"/>
+      <c r="AK210" s="49"/>
+      <c r="AL210" s="49"/>
+      <c r="AM210" s="49"/>
+      <c r="AN210" s="49"/>
+      <c r="AO210" s="49"/>
+      <c r="AP210" s="49"/>
+      <c r="AQ210" s="49"/>
+      <c r="AR210" s="49"/>
+      <c r="AS210" s="49"/>
+      <c r="AT210" s="49"/>
+      <c r="AU210" s="49"/>
+      <c r="AV210" s="49"/>
+      <c r="AW210" s="49"/>
+      <c r="AX210" s="49"/>
+      <c r="AY210" s="49"/>
+      <c r="AZ210" s="58"/>
+      <c r="BI210" s="4" t="s">
+        <v>2005</v>
+      </c>
+      <c r="BJ210" s="98"/>
+      <c r="BK210" s="98"/>
+      <c r="BL210" s="98"/>
+      <c r="BM210" s="98"/>
+      <c r="BN210" s="98"/>
+      <c r="BO210" s="98"/>
+      <c r="BP210" s="98"/>
+      <c r="BQ210" s="98"/>
+      <c r="BR210" s="98"/>
+      <c r="BS210" s="98"/>
+      <c r="BT210" s="101"/>
+      <c r="BZ210" s="97" t="s">
+        <v>2006</v>
+      </c>
+      <c r="CA210" s="99"/>
+      <c r="CB210" s="99"/>
+      <c r="CC210" s="99"/>
+      <c r="CD210" s="99"/>
+      <c r="CE210" s="100"/>
+      <c r="CG210" s="9"/>
+    </row>
+    <row r="211" spans="35:85">
+      <c r="AI211" s="56" t="s">
+        <v>1737</v>
+      </c>
+      <c r="AJ211" s="49"/>
+      <c r="AK211" s="49"/>
+      <c r="AL211" s="49"/>
+      <c r="AM211" s="49"/>
+      <c r="AN211" s="49"/>
+      <c r="AO211" s="49"/>
+      <c r="AP211" s="49"/>
+      <c r="AQ211" s="49"/>
+      <c r="AR211" s="49"/>
+      <c r="AS211" s="49"/>
+      <c r="AT211" s="49"/>
+      <c r="AU211" s="49"/>
+      <c r="AV211" s="49"/>
+      <c r="AW211" s="49"/>
+      <c r="AX211" s="49"/>
+      <c r="AY211" s="49"/>
+      <c r="AZ211" s="58"/>
+      <c r="BI211" s="4" t="s">
+        <v>2007</v>
+      </c>
+      <c r="BJ211" s="98"/>
+      <c r="BK211" s="98"/>
+      <c r="BL211" s="98"/>
+      <c r="BM211" s="98"/>
+      <c r="BN211" s="98"/>
+      <c r="BO211" s="98"/>
+      <c r="BP211" s="98"/>
+      <c r="BQ211" s="98"/>
+      <c r="BR211" s="98"/>
+      <c r="BS211" s="98"/>
+      <c r="BT211" s="101"/>
+      <c r="BZ211" s="97" t="s">
+        <v>2008</v>
+      </c>
+      <c r="CA211" s="99"/>
+      <c r="CB211" s="99"/>
+      <c r="CC211" s="99"/>
+      <c r="CD211" s="99"/>
+      <c r="CE211" s="100"/>
+      <c r="CG211" s="9"/>
+    </row>
+    <row r="212" spans="35:85">
+      <c r="AI212" s="56">
+        <v>37</v>
+      </c>
+      <c r="AJ212" s="49"/>
+      <c r="AK212" s="49"/>
+      <c r="AL212" s="49"/>
+      <c r="AM212" s="49"/>
+      <c r="AN212" s="49"/>
+      <c r="AO212" s="49"/>
+      <c r="AP212" s="49"/>
+      <c r="AQ212" s="49"/>
+      <c r="AR212" s="49"/>
+      <c r="AS212" s="49"/>
+      <c r="AT212" s="49"/>
+      <c r="AU212" s="49"/>
+      <c r="AV212" s="49"/>
+      <c r="AW212" s="49"/>
+      <c r="AX212" s="49"/>
+      <c r="AY212" s="49"/>
+      <c r="AZ212" s="58"/>
+      <c r="BI212" s="4" t="s">
+        <v>2009</v>
+      </c>
+      <c r="BJ212" s="98"/>
+      <c r="BK212" s="98"/>
+      <c r="BL212" s="98"/>
+      <c r="BM212" s="98"/>
+      <c r="BN212" s="98"/>
+      <c r="BO212" s="98"/>
+      <c r="BP212" s="98"/>
+      <c r="BQ212" s="98"/>
+      <c r="BR212" s="98"/>
+      <c r="BS212" s="98"/>
+      <c r="BT212" s="101"/>
+      <c r="BZ212" s="97" t="s">
+        <v>2010</v>
+      </c>
+      <c r="CA212" s="99"/>
+      <c r="CB212" s="99"/>
+      <c r="CC212" s="99"/>
+      <c r="CD212" s="99"/>
+      <c r="CE212" s="100"/>
+      <c r="CG212" s="9"/>
+    </row>
+    <row r="213" spans="35:85">
+      <c r="AI213" s="56" t="s">
+        <v>1743</v>
+      </c>
+      <c r="AJ213" s="49"/>
+      <c r="AK213" s="49"/>
+      <c r="AL213" s="49"/>
+      <c r="AM213" s="49"/>
+      <c r="AN213" s="49"/>
+      <c r="AO213" s="49"/>
+      <c r="AP213" s="49"/>
+      <c r="AQ213" s="49"/>
+      <c r="AR213" s="49"/>
+      <c r="AS213" s="49"/>
+      <c r="AT213" s="49"/>
+      <c r="AU213" s="49"/>
+      <c r="AV213" s="49"/>
+      <c r="AW213" s="49"/>
+      <c r="AX213" s="49"/>
+      <c r="AY213" s="49"/>
+      <c r="AZ213" s="58"/>
+      <c r="BI213" s="4" t="s">
+        <v>2011</v>
+      </c>
+      <c r="BJ213" s="98"/>
+      <c r="BK213" s="98"/>
+      <c r="BL213" s="98"/>
+      <c r="BM213" s="98"/>
+      <c r="BN213" s="98"/>
+      <c r="BO213" s="98"/>
+      <c r="BP213" s="98"/>
+      <c r="BQ213" s="98"/>
+      <c r="BR213" s="98"/>
+      <c r="BS213" s="98"/>
+      <c r="BT213" s="101"/>
+      <c r="BZ213" s="97" t="s">
+        <v>2006</v>
+      </c>
+      <c r="CA213" s="99"/>
+      <c r="CB213" s="99"/>
+      <c r="CC213" s="99"/>
+      <c r="CD213" s="99"/>
+      <c r="CE213" s="100"/>
+      <c r="CG213" s="9"/>
+    </row>
+    <row r="214" spans="35:85">
+      <c r="AI214" s="56" t="s">
+        <v>1746</v>
+      </c>
+      <c r="AJ214" s="49"/>
+      <c r="AK214" s="49"/>
+      <c r="AL214" s="49"/>
+      <c r="AM214" s="49"/>
+      <c r="AN214" s="49"/>
+      <c r="AO214" s="49"/>
+      <c r="AP214" s="49"/>
+      <c r="AQ214" s="49"/>
+      <c r="AR214" s="49"/>
+      <c r="AS214" s="49"/>
+      <c r="AT214" s="49"/>
+      <c r="AU214" s="49"/>
+      <c r="AV214" s="49"/>
+      <c r="AW214" s="49"/>
+      <c r="AX214" s="49"/>
+      <c r="AY214" s="49"/>
+      <c r="AZ214" s="58"/>
+      <c r="BI214" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="BJ214" s="98"/>
+      <c r="BK214" s="98"/>
+      <c r="BL214" s="98"/>
+      <c r="BM214" s="98"/>
+      <c r="BN214" s="98"/>
+      <c r="BO214" s="98"/>
+      <c r="BP214" s="98"/>
+      <c r="BQ214" s="98"/>
+      <c r="BR214" s="98"/>
+      <c r="BS214" s="98"/>
+      <c r="BT214" s="101"/>
+      <c r="BZ214" s="97" t="s">
+        <v>2013</v>
+      </c>
+      <c r="CA214" s="99"/>
+      <c r="CB214" s="99"/>
+      <c r="CC214" s="99"/>
+      <c r="CD214" s="99"/>
+      <c r="CE214" s="100"/>
+      <c r="CG214" s="9"/>
+    </row>
+    <row r="215" spans="35:85">
+      <c r="AI215" s="56">
+        <v>40</v>
+      </c>
+      <c r="AJ215" s="49"/>
+      <c r="AK215" s="49"/>
+      <c r="AL215" s="49"/>
+      <c r="AM215" s="49"/>
+      <c r="AN215" s="49"/>
+      <c r="AO215" s="49"/>
+      <c r="AP215" s="49"/>
+      <c r="AQ215" s="49"/>
+      <c r="AR215" s="49"/>
+      <c r="AS215" s="49"/>
+      <c r="AT215" s="49"/>
+      <c r="AU215" s="49"/>
+      <c r="AV215" s="49"/>
+      <c r="AW215" s="49"/>
+      <c r="AX215" s="49"/>
+      <c r="AY215" s="49"/>
+      <c r="AZ215" s="58"/>
+      <c r="BI215" s="4" t="s">
+        <v>2014</v>
+      </c>
+      <c r="BJ215" s="98"/>
+      <c r="BK215" s="98"/>
+      <c r="BL215" s="98"/>
+      <c r="BM215" s="98"/>
+      <c r="BN215" s="98"/>
+      <c r="BO215" s="98"/>
+      <c r="BP215" s="98"/>
+      <c r="BQ215" s="98"/>
+      <c r="BR215" s="98"/>
+      <c r="BS215" s="98"/>
+      <c r="BT215" s="101"/>
+      <c r="BZ215" s="97" t="s">
+        <v>2015</v>
+      </c>
+      <c r="CA215" s="99"/>
+      <c r="CB215" s="99"/>
+      <c r="CC215" s="99"/>
+      <c r="CD215" s="99"/>
+      <c r="CE215" s="100"/>
+      <c r="CG215" s="9"/>
+    </row>
+    <row r="216" spans="35:85">
+      <c r="AI216" s="56" t="s">
+        <v>1752</v>
+      </c>
+      <c r="AJ216" s="49"/>
+      <c r="AK216" s="49"/>
+      <c r="AL216" s="49"/>
+      <c r="AM216" s="49"/>
+      <c r="AN216" s="49"/>
+      <c r="AO216" s="49"/>
+      <c r="AP216" s="49"/>
+      <c r="AQ216" s="49"/>
+      <c r="AR216" s="49"/>
+      <c r="AS216" s="49"/>
+      <c r="AT216" s="49"/>
+      <c r="AU216" s="49"/>
+      <c r="AV216" s="49"/>
+      <c r="AW216" s="49"/>
+      <c r="AX216" s="49"/>
+      <c r="AY216" s="49"/>
+      <c r="AZ216" s="58"/>
+      <c r="BI216" s="4" t="s">
+        <v>2016</v>
+      </c>
+      <c r="BJ216" s="98"/>
+      <c r="BK216" s="98"/>
+      <c r="BL216" s="98"/>
+      <c r="BM216" s="98"/>
+      <c r="BN216" s="98"/>
+      <c r="BO216" s="98"/>
+      <c r="BP216" s="98"/>
+      <c r="BQ216" s="98"/>
+      <c r="BR216" s="98"/>
+      <c r="BS216" s="98"/>
+      <c r="BT216" s="101"/>
+      <c r="BZ216" s="97" t="s">
+        <v>2006</v>
+      </c>
+      <c r="CA216" s="99"/>
+      <c r="CB216" s="99"/>
+      <c r="CC216" s="99"/>
+      <c r="CD216" s="99"/>
+      <c r="CE216" s="100"/>
+      <c r="CG216" s="9"/>
+    </row>
+    <row r="217" spans="35:85">
+      <c r="AI217" s="69" t="s">
+        <v>2017</v>
+      </c>
+      <c r="AJ217" s="49"/>
+      <c r="AK217" s="49"/>
+      <c r="AL217" s="49"/>
+      <c r="AM217" s="49"/>
+      <c r="AN217" s="49"/>
+      <c r="AO217" s="49"/>
+      <c r="AP217" s="49"/>
+      <c r="AQ217" s="49"/>
+      <c r="AR217" s="49"/>
+      <c r="AS217" s="49"/>
+      <c r="AT217" s="49"/>
+      <c r="AU217" s="49"/>
+      <c r="AV217" s="49"/>
+      <c r="AW217" s="49"/>
+      <c r="AX217" s="49"/>
+      <c r="AY217" s="49"/>
+      <c r="AZ217" s="58"/>
+      <c r="BI217" s="4" t="s">
+        <v>2018</v>
+      </c>
+      <c r="BJ217" s="98"/>
+      <c r="BK217" s="98"/>
+      <c r="BL217" s="98"/>
+      <c r="BM217" s="98"/>
+      <c r="BN217" s="98"/>
+      <c r="BO217" s="98"/>
+      <c r="BP217" s="98"/>
+      <c r="BQ217" s="98"/>
+      <c r="BR217" s="98"/>
+      <c r="BS217" s="98"/>
+      <c r="BT217" s="101"/>
+      <c r="BZ217" s="97" t="s">
+        <v>2019</v>
+      </c>
+      <c r="CA217" s="99"/>
+      <c r="CB217" s="99"/>
+      <c r="CC217" s="99"/>
+      <c r="CD217" s="99"/>
+      <c r="CE217" s="100"/>
+      <c r="CG217" s="9"/>
+    </row>
+    <row r="218" ht="16.5" spans="35:85">
+      <c r="AI218" s="69" t="s">
+        <v>2020</v>
+      </c>
+      <c r="AJ218" s="49"/>
+      <c r="AK218" s="49"/>
+      <c r="AL218" s="49"/>
+      <c r="AM218" s="49"/>
+      <c r="AN218" s="49"/>
+      <c r="AO218" s="49"/>
+      <c r="AP218" s="49"/>
+      <c r="AQ218" s="49"/>
+      <c r="AR218" s="49"/>
+      <c r="AS218" s="49"/>
+      <c r="AT218" s="49"/>
+      <c r="AU218" s="49"/>
+      <c r="AV218" s="49"/>
+      <c r="AW218" s="49"/>
+      <c r="AX218" s="49"/>
+      <c r="AY218" s="49"/>
+      <c r="AZ218" s="58"/>
+      <c r="BI218" s="4" t="s">
+        <v>2021</v>
+      </c>
+      <c r="BJ218" s="98"/>
+      <c r="BK218" s="98"/>
+      <c r="BL218" s="98"/>
+      <c r="BM218" s="98"/>
+      <c r="BN218" s="98"/>
+      <c r="BO218" s="98"/>
+      <c r="BP218" s="98"/>
+      <c r="BQ218" s="98"/>
+      <c r="BR218" s="98"/>
+      <c r="BS218" s="98"/>
+      <c r="BT218" s="101"/>
+      <c r="BZ218" s="4" t="s">
+        <v>1989</v>
+      </c>
+      <c r="CA218" s="98"/>
+      <c r="CB218" s="98"/>
+      <c r="CC218" s="98"/>
+      <c r="CD218" s="98"/>
+      <c r="CG218" s="9"/>
+    </row>
+    <row r="219" spans="35:85">
+      <c r="AI219" s="69" t="s">
+        <v>2022</v>
+      </c>
+      <c r="AJ219" s="49"/>
+      <c r="AK219" s="49"/>
+      <c r="AL219" s="49"/>
+      <c r="AM219" s="49"/>
+      <c r="AN219" s="49"/>
+      <c r="AO219" s="49"/>
+      <c r="AP219" s="49"/>
+      <c r="AQ219" s="49"/>
+      <c r="AR219" s="49"/>
+      <c r="AS219" s="49"/>
+      <c r="AT219" s="49"/>
+      <c r="AU219" s="49"/>
+      <c r="AV219" s="49"/>
+      <c r="AW219" s="49"/>
+      <c r="AX219" s="49"/>
+      <c r="AY219" s="49"/>
+      <c r="AZ219" s="58"/>
+      <c r="BI219" s="4" t="s">
+        <v>2023</v>
+      </c>
+      <c r="BJ219" s="98"/>
+      <c r="BK219" s="98"/>
+      <c r="BL219" s="98"/>
+      <c r="BM219" s="98"/>
+      <c r="BN219" s="98"/>
+      <c r="BO219" s="98"/>
+      <c r="BP219" s="98"/>
+      <c r="BQ219" s="98"/>
+      <c r="BR219" s="98"/>
+      <c r="BS219" s="98"/>
+      <c r="BT219" s="101"/>
+      <c r="BZ219" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="CA219" s="98"/>
+      <c r="CB219" s="98"/>
+      <c r="CC219" s="98"/>
+      <c r="CD219" s="98"/>
+      <c r="CG219" s="9"/>
+    </row>
+    <row r="220" spans="35:85">
+      <c r="AI220" s="5"/>
+      <c r="AJ220" s="49"/>
+      <c r="AK220" s="49"/>
+      <c r="AL220" s="49"/>
+      <c r="AM220" s="49"/>
+      <c r="AN220" s="49"/>
+      <c r="AO220" s="49"/>
+      <c r="AP220" s="49"/>
+      <c r="AQ220" s="49"/>
+      <c r="AR220" s="49"/>
+      <c r="AS220" s="49"/>
+      <c r="AT220" s="49"/>
+      <c r="AU220" s="49"/>
+      <c r="AV220" s="49"/>
+      <c r="AW220" s="49"/>
+      <c r="AX220" s="49"/>
+      <c r="AY220" s="49"/>
+      <c r="AZ220" s="58"/>
+      <c r="BI220" s="4" t="s">
+        <v>2025</v>
+      </c>
+      <c r="BJ220" s="98"/>
+      <c r="BK220" s="98"/>
+      <c r="BL220" s="98"/>
+      <c r="BM220" s="98"/>
+      <c r="BN220" s="98"/>
+      <c r="BO220" s="98"/>
+      <c r="BP220" s="98"/>
+      <c r="BQ220" s="98"/>
+      <c r="BR220" s="98"/>
+      <c r="BS220" s="98"/>
+      <c r="BT220" s="101"/>
+      <c r="BZ220" s="4" t="s">
+        <v>2026</v>
+      </c>
+      <c r="CA220" s="98"/>
+      <c r="CB220" s="98"/>
+      <c r="CC220" s="98"/>
+      <c r="CD220" s="98"/>
+      <c r="CG220" s="9"/>
+    </row>
+    <row r="221" spans="35:85">
+      <c r="AI221" s="71" t="s">
+        <v>1817</v>
+      </c>
+      <c r="AZ221" s="9"/>
+      <c r="BI221" s="4" t="s">
+        <v>2027</v>
+      </c>
+      <c r="BJ221" s="98"/>
+      <c r="BK221" s="98"/>
+      <c r="BL221" s="98"/>
+      <c r="BM221" s="98"/>
+      <c r="BN221" s="98"/>
+      <c r="BO221" s="98"/>
+      <c r="BP221" s="98"/>
+      <c r="BQ221" s="98"/>
+      <c r="BR221" s="98"/>
+      <c r="BS221" s="98"/>
+      <c r="BT221" s="101"/>
+      <c r="BZ221" s="4" t="s">
+        <v>2028</v>
+      </c>
+      <c r="CA221" s="98"/>
+      <c r="CB221" s="98"/>
+      <c r="CC221" s="98"/>
+      <c r="CD221" s="98"/>
+      <c r="CG221" s="9"/>
+    </row>
+    <row r="222" spans="35:85">
+      <c r="AI222" s="5"/>
+      <c r="AZ222" s="9"/>
+      <c r="BI222" s="4" t="s">
+        <v>2029</v>
+      </c>
+      <c r="BJ222" s="98"/>
+      <c r="BK222" s="98"/>
+      <c r="BL222" s="98"/>
+      <c r="BM222" s="98"/>
+      <c r="BN222" s="98"/>
+      <c r="BO222" s="98"/>
+      <c r="BP222" s="98"/>
+      <c r="BQ222" s="98"/>
+      <c r="BR222" s="98"/>
+      <c r="BS222" s="98"/>
+      <c r="BT222" s="101"/>
+      <c r="BZ222" s="4" t="s">
+        <v>2030</v>
+      </c>
+      <c r="CA222" s="98"/>
+      <c r="CB222" s="98"/>
+      <c r="CC222" s="98"/>
+      <c r="CD222" s="98"/>
+      <c r="CG222" s="9"/>
+    </row>
+    <row r="223" spans="35:85">
+      <c r="AI223" s="72" t="s">
+        <v>1773</v>
+      </c>
+      <c r="AJ223" s="49"/>
+      <c r="AK223" s="49"/>
+      <c r="AL223" s="49"/>
+      <c r="AM223" s="49"/>
+      <c r="AN223" s="49"/>
+      <c r="AO223" s="49"/>
+      <c r="AP223" s="74" t="s">
+        <v>1774</v>
+      </c>
+      <c r="AQ223" s="49"/>
+      <c r="AR223" s="49"/>
+      <c r="AS223" s="49"/>
+      <c r="AT223" s="49"/>
+      <c r="AU223" s="49"/>
+      <c r="AV223" s="49"/>
+      <c r="AW223" s="49"/>
+      <c r="AX223" s="49"/>
+      <c r="AY223" s="49"/>
+      <c r="AZ223" s="58"/>
+      <c r="BI223" s="4" t="s">
+        <v>2031</v>
+      </c>
+      <c r="BJ223" s="98"/>
+      <c r="BK223" s="98"/>
+      <c r="BL223" s="98"/>
+      <c r="BM223" s="98"/>
+      <c r="BN223" s="98"/>
+      <c r="BO223" s="98"/>
+      <c r="BP223" s="98"/>
+      <c r="BQ223" s="98"/>
+      <c r="BR223" s="98"/>
+      <c r="BS223" s="98"/>
+      <c r="BT223" s="101"/>
+      <c r="BZ223" s="4" t="s">
+        <v>1989</v>
+      </c>
+      <c r="CA223" s="98"/>
+      <c r="CB223" s="98"/>
+      <c r="CC223" s="98"/>
+      <c r="CD223" s="98"/>
+      <c r="CG223" s="9"/>
+    </row>
+    <row r="224" spans="35:85">
+      <c r="AI224" s="55" t="s">
+        <v>1776</v>
+      </c>
+      <c r="AJ224" s="49"/>
+      <c r="AK224" s="49"/>
+      <c r="AL224" s="49"/>
+      <c r="AM224" s="49"/>
+      <c r="AN224" s="49"/>
+      <c r="AO224" s="49"/>
+      <c r="AP224" s="49"/>
+      <c r="AQ224" s="49"/>
+      <c r="AR224" s="49"/>
+      <c r="AS224" s="49"/>
+      <c r="AT224" s="49"/>
+      <c r="AU224" s="49"/>
+      <c r="AV224" s="49"/>
+      <c r="AW224" s="49"/>
+      <c r="AX224" s="49"/>
+      <c r="AY224" s="49"/>
+      <c r="AZ224" s="58"/>
+      <c r="BI224" s="4" t="s">
+        <v>2032</v>
+      </c>
+      <c r="BJ224" s="98"/>
+      <c r="BK224" s="98"/>
+      <c r="BL224" s="98"/>
+      <c r="BM224" s="98"/>
+      <c r="BN224" s="98"/>
+      <c r="BO224" s="98"/>
+      <c r="BP224" s="98"/>
+      <c r="BQ224" s="98"/>
+      <c r="BR224" s="98"/>
+      <c r="BS224" s="98"/>
+      <c r="BT224" s="101"/>
+      <c r="BZ224" s="4" t="s">
+        <v>2033</v>
+      </c>
+      <c r="CA224" s="98"/>
+      <c r="CB224" s="98"/>
+      <c r="CC224" s="98"/>
+      <c r="CD224" s="98"/>
+      <c r="CG224" s="9"/>
+    </row>
+    <row r="225" spans="35:85">
+      <c r="AI225" s="72" t="s">
+        <v>1778</v>
+      </c>
+      <c r="AJ225" s="49"/>
+      <c r="AK225" s="49"/>
+      <c r="AL225" s="49"/>
+      <c r="AM225" s="49"/>
+      <c r="AN225" s="49"/>
+      <c r="AO225" s="49"/>
+      <c r="AP225" s="49"/>
+      <c r="AQ225" s="49"/>
+      <c r="AR225" s="49"/>
+      <c r="AS225" s="49"/>
+      <c r="AT225" s="49"/>
+      <c r="AU225" s="49"/>
+      <c r="AV225" s="49"/>
+      <c r="AW225" s="49"/>
+      <c r="AX225" s="49"/>
+      <c r="AY225" s="49"/>
+      <c r="AZ225" s="58"/>
+      <c r="BI225" s="4" t="s">
+        <v>2034</v>
+      </c>
+      <c r="BJ225" s="98"/>
+      <c r="BK225" s="98"/>
+      <c r="BL225" s="98"/>
+      <c r="BM225" s="98"/>
+      <c r="BN225" s="98"/>
+      <c r="BO225" s="98"/>
+      <c r="BP225" s="98"/>
+      <c r="BQ225" s="98"/>
+      <c r="BR225" s="98"/>
+      <c r="BS225" s="98"/>
+      <c r="BT225" s="101"/>
+      <c r="BZ225" s="4"/>
+      <c r="CA225" s="98"/>
+      <c r="CB225" s="98"/>
+      <c r="CC225" s="98"/>
+      <c r="CD225" s="98"/>
+      <c r="CG225" s="9"/>
+    </row>
+    <row r="226" spans="35:85">
+      <c r="AI226" s="55" t="s">
+        <v>1781</v>
+      </c>
+      <c r="AJ226" s="49"/>
+      <c r="AK226" s="49"/>
+      <c r="AL226" s="49"/>
+      <c r="AM226" s="49"/>
+      <c r="AN226" s="49"/>
+      <c r="AO226" s="49"/>
+      <c r="AP226" s="49"/>
+      <c r="AQ226" s="49"/>
+      <c r="AR226" s="49"/>
+      <c r="AS226" s="49"/>
+      <c r="AT226" s="49"/>
+      <c r="AU226" s="49"/>
+      <c r="AV226" s="49"/>
+      <c r="AW226" s="49"/>
+      <c r="AX226" s="49"/>
+      <c r="AY226" s="49"/>
+      <c r="AZ226" s="58"/>
+      <c r="BI226" s="4" t="s">
+        <v>2035</v>
+      </c>
+      <c r="BJ226" s="98"/>
+      <c r="BK226" s="98"/>
+      <c r="BL226" s="98"/>
+      <c r="BM226" s="98"/>
+      <c r="BN226" s="98"/>
+      <c r="BO226" s="98"/>
+      <c r="BP226" s="98"/>
+      <c r="BQ226" s="98"/>
+      <c r="BR226" s="98"/>
+      <c r="BS226" s="98"/>
+      <c r="BT226" s="101"/>
+      <c r="BZ226" s="4" t="s">
+        <v>2036</v>
+      </c>
+      <c r="CA226" s="98"/>
+      <c r="CB226" s="98"/>
+      <c r="CC226" s="98"/>
+      <c r="CD226" s="98"/>
+      <c r="CG226" s="9"/>
+    </row>
+    <row r="227" spans="35:85">
+      <c r="AI227" s="55" t="s">
+        <v>1783</v>
+      </c>
+      <c r="AJ227" s="49"/>
+      <c r="AK227" s="49"/>
+      <c r="AL227" s="49"/>
+      <c r="AM227" s="49"/>
+      <c r="AN227" s="49"/>
+      <c r="AO227" s="49"/>
+      <c r="AP227" s="49"/>
+      <c r="AQ227" s="49"/>
+      <c r="AR227" s="49"/>
+      <c r="AS227" s="49"/>
+      <c r="AT227" s="49"/>
+      <c r="AU227" s="49"/>
+      <c r="AV227" s="49"/>
+      <c r="AW227" s="49"/>
+      <c r="AX227" s="49"/>
+      <c r="AY227" s="49"/>
+      <c r="AZ227" s="58"/>
+      <c r="BI227" s="4" t="s">
+        <v>2037</v>
+      </c>
+      <c r="BJ227" s="98"/>
+      <c r="BK227" s="98"/>
+      <c r="BL227" s="98"/>
+      <c r="BM227" s="98"/>
+      <c r="BN227" s="98"/>
+      <c r="BO227" s="98"/>
+      <c r="BP227" s="98"/>
+      <c r="BQ227" s="98"/>
+      <c r="BR227" s="98"/>
+      <c r="BS227" s="98"/>
+      <c r="BT227" s="101"/>
+      <c r="BZ227" s="4" t="s">
+        <v>2038</v>
+      </c>
+      <c r="CA227" s="98"/>
+      <c r="CB227" s="98"/>
+      <c r="CC227" s="98"/>
+      <c r="CD227" s="98"/>
+      <c r="CG227" s="9"/>
+    </row>
+    <row r="228" spans="35:85">
+      <c r="AI228" s="83"/>
+      <c r="AJ228" s="73"/>
+      <c r="AK228" s="73"/>
+      <c r="AL228" s="73"/>
+      <c r="AM228" s="73"/>
+      <c r="AN228" s="73"/>
+      <c r="AO228" s="73"/>
+      <c r="AP228" s="73"/>
+      <c r="AQ228" s="73"/>
+      <c r="AR228" s="73"/>
+      <c r="AS228" s="73"/>
+      <c r="AT228" s="73"/>
+      <c r="AU228" s="73"/>
+      <c r="AV228" s="73"/>
+      <c r="AW228" s="73"/>
+      <c r="AX228" s="73"/>
+      <c r="AY228" s="73"/>
+      <c r="AZ228" s="78"/>
+      <c r="BI228" s="4" t="s">
+        <v>2039</v>
+      </c>
+      <c r="BJ228" s="98"/>
+      <c r="BK228" s="98"/>
+      <c r="BL228" s="98"/>
+      <c r="BM228" s="98"/>
+      <c r="BN228" s="98"/>
+      <c r="BO228" s="98"/>
+      <c r="BP228" s="98"/>
+      <c r="BQ228" s="98"/>
+      <c r="BR228" s="98"/>
+      <c r="BS228" s="98"/>
+      <c r="BT228" s="101"/>
+      <c r="BZ228" s="4"/>
+      <c r="CA228" s="98"/>
+      <c r="CB228" s="98"/>
+      <c r="CC228" s="98"/>
+      <c r="CD228" s="98"/>
+      <c r="CG228" s="9"/>
+    </row>
+    <row r="229" spans="35:85">
+      <c r="AI229" s="55"/>
+      <c r="AJ229" s="49"/>
+      <c r="AK229" s="49"/>
+      <c r="AL229" s="49"/>
+      <c r="AM229" s="49"/>
+      <c r="AN229" s="49"/>
+      <c r="AO229" s="49"/>
+      <c r="AP229" s="49"/>
+      <c r="AQ229" s="49"/>
+      <c r="AR229" s="49"/>
+      <c r="AS229" s="49"/>
+      <c r="AT229" s="49"/>
+      <c r="AU229" s="49"/>
+      <c r="AV229" s="49"/>
+      <c r="AW229" s="49"/>
+      <c r="AX229" s="49"/>
+      <c r="AY229" s="49"/>
+      <c r="AZ229" s="58"/>
+      <c r="BI229" s="4" t="s">
+        <v>2040</v>
+      </c>
+      <c r="BJ229" s="98"/>
+      <c r="BK229" s="98"/>
+      <c r="BL229" s="98"/>
+      <c r="BM229" s="98"/>
+      <c r="BN229" s="98"/>
+      <c r="BO229" s="98"/>
+      <c r="BP229" s="98"/>
+      <c r="BQ229" s="98"/>
+      <c r="BR229" s="98"/>
+      <c r="BS229" s="98"/>
+      <c r="BT229" s="101"/>
+      <c r="BZ229" s="4" t="s">
+        <v>2041</v>
+      </c>
+      <c r="CA229" s="98"/>
+      <c r="CB229" s="98"/>
+      <c r="CC229" s="98"/>
+      <c r="CD229" s="98"/>
+      <c r="CG229" s="9"/>
+    </row>
+    <row r="230" spans="35:85">
+      <c r="AI230" s="55"/>
+      <c r="AJ230" s="49"/>
+      <c r="AK230" s="49"/>
+      <c r="AL230" s="49"/>
+      <c r="AM230" s="49"/>
+      <c r="AN230" s="49"/>
+      <c r="AO230" s="49"/>
+      <c r="AP230" s="49"/>
+      <c r="AQ230" s="49"/>
+      <c r="AR230" s="49"/>
+      <c r="AS230" s="49"/>
+      <c r="AT230" s="49"/>
+      <c r="AU230" s="49"/>
+      <c r="AV230" s="49"/>
+      <c r="AW230" s="49"/>
+      <c r="AX230" s="49"/>
+      <c r="AY230" s="49"/>
+      <c r="AZ230" s="58"/>
+      <c r="BI230" s="4" t="s">
+        <v>2042</v>
+      </c>
+      <c r="BJ230" s="98"/>
+      <c r="BK230" s="98"/>
+      <c r="BL230" s="98"/>
+      <c r="BM230" s="98"/>
+      <c r="BN230" s="98"/>
+      <c r="BO230" s="98"/>
+      <c r="BP230" s="98"/>
+      <c r="BQ230" s="98"/>
+      <c r="BR230" s="98"/>
+      <c r="BS230" s="98"/>
+      <c r="BT230" s="101"/>
+      <c r="BZ230" s="4" t="s">
+        <v>2043</v>
+      </c>
+      <c r="CA230" s="98"/>
+      <c r="CB230" s="98"/>
+      <c r="CC230" s="98"/>
+      <c r="CD230" s="98"/>
+      <c r="CG230" s="9"/>
+    </row>
+    <row r="231" spans="35:85">
+      <c r="AI231" s="83"/>
+      <c r="AJ231" s="73"/>
+      <c r="AK231" s="73"/>
+      <c r="AL231" s="73"/>
+      <c r="AM231" s="73"/>
+      <c r="AN231" s="73"/>
+      <c r="AO231" s="73"/>
+      <c r="AP231" s="73"/>
+      <c r="AQ231" s="73"/>
+      <c r="AR231" s="73"/>
+      <c r="AS231" s="73"/>
+      <c r="AT231" s="73"/>
+      <c r="AU231" s="73"/>
+      <c r="AV231" s="73"/>
+      <c r="AW231" s="73"/>
+      <c r="AX231" s="73"/>
+      <c r="AY231" s="73"/>
+      <c r="AZ231" s="78"/>
+      <c r="BI231" s="4" t="s">
+        <v>2044</v>
+      </c>
+      <c r="BJ231" s="98"/>
+      <c r="BK231" s="98"/>
+      <c r="BL231" s="98"/>
+      <c r="BM231" s="98"/>
+      <c r="BN231" s="98"/>
+      <c r="BO231" s="98"/>
+      <c r="BP231" s="98"/>
+      <c r="BQ231" s="98"/>
+      <c r="BR231" s="98"/>
+      <c r="BS231" s="98"/>
+      <c r="BT231" s="101"/>
+      <c r="BZ231" s="4" t="s">
+        <v>2045</v>
+      </c>
+      <c r="CA231" s="98"/>
+      <c r="CB231" s="98"/>
+      <c r="CC231" s="98"/>
+      <c r="CD231" s="98"/>
+      <c r="CG231" s="9"/>
+    </row>
+    <row r="232" spans="35:85">
+      <c r="AI232" s="55"/>
+      <c r="AJ232" s="49"/>
+      <c r="AK232" s="49"/>
+      <c r="AL232" s="49"/>
+      <c r="AM232" s="49"/>
+      <c r="AN232" s="49"/>
+      <c r="AO232" s="49"/>
+      <c r="AP232" s="49"/>
+      <c r="AQ232" s="49"/>
+      <c r="AR232" s="49"/>
+      <c r="AS232" s="49"/>
+      <c r="AT232" s="49"/>
+      <c r="AU232" s="49"/>
+      <c r="AV232" s="49"/>
+      <c r="AW232" s="49"/>
+      <c r="AX232" s="49"/>
+      <c r="AY232" s="49"/>
+      <c r="AZ232" s="58"/>
+      <c r="BI232" s="4" t="s">
+        <v>2046</v>
+      </c>
+      <c r="BJ232" s="98"/>
+      <c r="BK232" s="98"/>
+      <c r="BL232" s="98"/>
+      <c r="BM232" s="98"/>
+      <c r="BN232" s="98"/>
+      <c r="BO232" s="98"/>
+      <c r="BP232" s="98"/>
+      <c r="BQ232" s="98"/>
+      <c r="BR232" s="98"/>
+      <c r="BS232" s="98"/>
+      <c r="BT232" s="101"/>
+      <c r="BZ232" s="4" t="s">
+        <v>2047</v>
+      </c>
+      <c r="CA232" s="98"/>
+      <c r="CB232" s="98"/>
+      <c r="CC232" s="98"/>
+      <c r="CD232" s="98"/>
+      <c r="CG232" s="9"/>
+    </row>
+    <row r="233" spans="35:85">
+      <c r="AI233" s="55"/>
+      <c r="AJ233" s="49"/>
+      <c r="AK233" s="49"/>
+      <c r="AL233" s="49"/>
+      <c r="AM233" s="49"/>
+      <c r="AN233" s="49"/>
+      <c r="AO233" s="49"/>
+      <c r="AP233" s="49"/>
+      <c r="AQ233" s="49"/>
+      <c r="AR233" s="49"/>
+      <c r="AS233" s="49"/>
+      <c r="AT233" s="49"/>
+      <c r="AU233" s="49"/>
+      <c r="AV233" s="49"/>
+      <c r="AW233" s="49"/>
+      <c r="AX233" s="49"/>
+      <c r="AY233" s="49"/>
+      <c r="AZ233" s="58"/>
+      <c r="BI233" s="4" t="s">
+        <v>2048</v>
+      </c>
+      <c r="BJ233" s="98"/>
+      <c r="BK233" s="98"/>
+      <c r="BL233" s="98"/>
+      <c r="BM233" s="98"/>
+      <c r="BN233" s="98"/>
+      <c r="BO233" s="98"/>
+      <c r="BP233" s="98"/>
+      <c r="BQ233" s="98"/>
+      <c r="BR233" s="98"/>
+      <c r="BS233" s="98"/>
+      <c r="BT233" s="101"/>
+      <c r="BZ233" s="4"/>
+      <c r="CA233" s="98" t="s">
+        <v>2049</v>
+      </c>
+      <c r="CB233" s="98"/>
+      <c r="CC233" s="98"/>
+      <c r="CD233" s="98"/>
+      <c r="CG233" s="9"/>
+    </row>
+    <row r="234" spans="35:85">
+      <c r="AI234" s="72"/>
+      <c r="AJ234" s="49"/>
+      <c r="AK234" s="49"/>
+      <c r="AL234" s="49"/>
+      <c r="AM234" s="49"/>
+      <c r="AN234" s="49"/>
+      <c r="AO234" s="49"/>
+      <c r="AP234" s="49"/>
+      <c r="AQ234" s="49"/>
+      <c r="AR234" s="49"/>
+      <c r="AS234" s="49"/>
+      <c r="AT234" s="49"/>
+      <c r="AU234" s="49"/>
+      <c r="AV234" s="49"/>
+      <c r="AW234" s="49"/>
+      <c r="AX234" s="49"/>
+      <c r="AY234" s="49"/>
+      <c r="AZ234" s="58"/>
+      <c r="BI234" s="4" t="s">
+        <v>2050</v>
+      </c>
+      <c r="BJ234" s="98"/>
+      <c r="BK234" s="98"/>
+      <c r="BL234" s="98"/>
+      <c r="BM234" s="98"/>
+      <c r="BN234" s="98"/>
+      <c r="BO234" s="98"/>
+      <c r="BP234" s="98"/>
+      <c r="BQ234" s="98"/>
+      <c r="BR234" s="98"/>
+      <c r="BS234" s="98"/>
+      <c r="BT234" s="101"/>
+      <c r="BZ234" s="4"/>
+      <c r="CA234" s="98"/>
+      <c r="CB234" s="98" t="s">
+        <v>2051</v>
+      </c>
+      <c r="CC234" s="98"/>
+      <c r="CD234" s="98"/>
+      <c r="CG234" s="9"/>
+    </row>
+    <row r="235" ht="16.5" spans="35:85">
+      <c r="AI235" s="51"/>
+      <c r="AJ235" s="52"/>
+      <c r="AK235" s="52"/>
+      <c r="AL235" s="52"/>
+      <c r="AM235" s="52"/>
+      <c r="AN235" s="52"/>
+      <c r="AO235" s="52"/>
+      <c r="AP235" s="52"/>
+      <c r="AQ235" s="52"/>
+      <c r="AR235" s="52"/>
+      <c r="AS235" s="52"/>
+      <c r="AT235" s="52"/>
+      <c r="AU235" s="52"/>
+      <c r="AV235" s="52"/>
+      <c r="AW235" s="52"/>
+      <c r="AX235" s="52"/>
+      <c r="AY235" s="52"/>
+      <c r="AZ235" s="59"/>
+      <c r="BI235" s="4" t="s">
+        <v>2052</v>
+      </c>
+      <c r="BJ235" s="98"/>
+      <c r="BK235" s="98"/>
+      <c r="BL235" s="98"/>
+      <c r="BM235" s="98"/>
+      <c r="BN235" s="98"/>
+      <c r="BO235" s="98"/>
+      <c r="BP235" s="98"/>
+      <c r="BQ235" s="98"/>
+      <c r="BR235" s="98"/>
+      <c r="BS235" s="98"/>
+      <c r="BT235" s="101"/>
+      <c r="BZ235" s="4"/>
+      <c r="CA235" s="98" t="s">
+        <v>2053</v>
+      </c>
+      <c r="CB235" s="98"/>
+      <c r="CC235" s="98"/>
+      <c r="CD235" s="98"/>
+      <c r="CG235" s="9"/>
+    </row>
+    <row r="236" spans="61:85">
+      <c r="BI236" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="BJ236" s="98"/>
+      <c r="BK236" s="98"/>
+      <c r="BL236" s="98"/>
+      <c r="BM236" s="98"/>
+      <c r="BN236" s="98"/>
+      <c r="BO236" s="98"/>
+      <c r="BP236" s="98"/>
+      <c r="BQ236" s="98"/>
+      <c r="BR236" s="98"/>
+      <c r="BS236" s="98"/>
+      <c r="BT236" s="101"/>
+      <c r="BZ236" s="4" t="s">
+        <v>2055</v>
+      </c>
+      <c r="CA236" s="98"/>
+      <c r="CB236" s="98"/>
+      <c r="CC236" s="98"/>
+      <c r="CD236" s="98"/>
+      <c r="CG236" s="9"/>
+    </row>
+    <row r="237" spans="61:85">
+      <c r="BI237" s="4" t="s">
+        <v>2056</v>
+      </c>
+      <c r="BJ237" s="98"/>
+      <c r="BK237" s="98"/>
+      <c r="BL237" s="98"/>
+      <c r="BM237" s="98"/>
+      <c r="BN237" s="98"/>
+      <c r="BO237" s="98"/>
+      <c r="BP237" s="98"/>
+      <c r="BQ237" s="98"/>
+      <c r="BR237" s="98"/>
+      <c r="BS237" s="98"/>
+      <c r="BT237" s="101"/>
+      <c r="BZ237" s="4"/>
+      <c r="CA237" s="98"/>
+      <c r="CB237" s="98"/>
+      <c r="CC237" s="98"/>
+      <c r="CD237" s="98"/>
+      <c r="CG237" s="9"/>
+    </row>
+    <row r="238" spans="61:85">
+      <c r="BI238" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="BJ238" s="98"/>
+      <c r="BK238" s="98"/>
+      <c r="BL238" s="98"/>
+      <c r="BM238" s="98"/>
+      <c r="BN238" s="98"/>
+      <c r="BO238" s="98"/>
+      <c r="BP238" s="98"/>
+      <c r="BQ238" s="98"/>
+      <c r="BR238" s="98"/>
+      <c r="BS238" s="98"/>
+      <c r="BT238" s="101"/>
+      <c r="BZ238" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="CA238" s="98"/>
+      <c r="CB238" s="98"/>
+      <c r="CC238" s="98"/>
+      <c r="CD238" s="98"/>
+      <c r="CG238" s="9"/>
+    </row>
+    <row r="239" spans="61:85">
+      <c r="BI239" s="4" t="s">
+        <v>2059</v>
+      </c>
+      <c r="BJ239" s="98"/>
+      <c r="BK239" s="98"/>
+      <c r="BL239" s="98"/>
+      <c r="BM239" s="98"/>
+      <c r="BN239" s="98"/>
+      <c r="BO239" s="98"/>
+      <c r="BP239" s="98"/>
+      <c r="BQ239" s="98"/>
+      <c r="BR239" s="98"/>
+      <c r="BS239" s="98"/>
+      <c r="BT239" s="101"/>
+      <c r="BZ239" s="4" t="s">
+        <v>2060</v>
+      </c>
+      <c r="CA239" s="98"/>
+      <c r="CB239" s="98"/>
+      <c r="CC239" s="98"/>
+      <c r="CD239" s="98"/>
+      <c r="CG239" s="9"/>
+    </row>
+    <row r="240" spans="61:85">
+      <c r="BI240" s="4" t="s">
+        <v>2061</v>
+      </c>
+      <c r="BJ240" s="98"/>
+      <c r="BK240" s="98"/>
+      <c r="BL240" s="98"/>
+      <c r="BM240" s="98"/>
+      <c r="BN240" s="98"/>
+      <c r="BO240" s="98"/>
+      <c r="BP240" s="98"/>
+      <c r="BQ240" s="98"/>
+      <c r="BR240" s="98"/>
+      <c r="BS240" s="98"/>
+      <c r="BT240" s="101"/>
+      <c r="BZ240" s="4" t="s">
+        <v>2062</v>
+      </c>
+      <c r="CA240" s="98"/>
+      <c r="CB240" s="98"/>
+      <c r="CC240" s="98"/>
+      <c r="CD240" s="98"/>
+      <c r="CG240" s="9"/>
+    </row>
+    <row r="241" spans="61:85">
+      <c r="BI241" s="4" t="s">
+        <v>2063</v>
+      </c>
+      <c r="BJ241" s="98"/>
+      <c r="BK241" s="98"/>
+      <c r="BL241" s="98"/>
+      <c r="BM241" s="98"/>
+      <c r="BN241" s="98"/>
+      <c r="BO241" s="98"/>
+      <c r="BP241" s="98"/>
+      <c r="BQ241" s="98"/>
+      <c r="BR241" s="98"/>
+      <c r="BS241" s="98"/>
+      <c r="BT241" s="101"/>
+      <c r="BZ241" s="4" t="s">
+        <v>2047</v>
+      </c>
+      <c r="CA241" s="98"/>
+      <c r="CB241" s="98"/>
+      <c r="CC241" s="98"/>
+      <c r="CD241" s="98"/>
+      <c r="CG241" s="9"/>
+    </row>
+    <row r="242" spans="61:85">
+      <c r="BI242" s="4" t="s">
+        <v>2064</v>
+      </c>
+      <c r="BJ242" s="98"/>
+      <c r="BK242" s="98"/>
+      <c r="BL242" s="98"/>
+      <c r="BM242" s="98"/>
+      <c r="BN242" s="98"/>
+      <c r="BO242" s="98"/>
+      <c r="BP242" s="98"/>
+      <c r="BQ242" s="98"/>
+      <c r="BR242" s="98"/>
+      <c r="BS242" s="98"/>
+      <c r="BT242" s="101"/>
+      <c r="BZ242" s="4"/>
+      <c r="CA242" s="98" t="s">
+        <v>2065</v>
+      </c>
+      <c r="CB242" s="98"/>
+      <c r="CC242" s="98"/>
+      <c r="CD242" s="98"/>
+      <c r="CG242" s="9"/>
+    </row>
+    <row r="243" spans="61:85">
+      <c r="BI243" s="4" t="s">
+        <v>2066</v>
+      </c>
+      <c r="BJ243" s="98"/>
+      <c r="BK243" s="98"/>
+      <c r="BL243" s="98"/>
+      <c r="BM243" s="98"/>
+      <c r="BN243" s="98"/>
+      <c r="BO243" s="98"/>
+      <c r="BP243" s="98"/>
+      <c r="BQ243" s="98"/>
+      <c r="BR243" s="98"/>
+      <c r="BS243" s="98"/>
+      <c r="BT243" s="101"/>
+      <c r="BZ243" s="4"/>
+      <c r="CA243" s="98"/>
+      <c r="CB243" s="98" t="s">
+        <v>2067</v>
+      </c>
+      <c r="CC243" s="98"/>
+      <c r="CD243" s="98"/>
+      <c r="CG243" s="9"/>
+    </row>
+    <row r="244" spans="61:85">
+      <c r="BI244" s="4" t="s">
+        <v>2068</v>
+      </c>
+      <c r="BJ244" s="98"/>
+      <c r="BK244" s="98"/>
+      <c r="BL244" s="98"/>
+      <c r="BM244" s="98"/>
+      <c r="BN244" s="98"/>
+      <c r="BO244" s="98"/>
+      <c r="BP244" s="98"/>
+      <c r="BQ244" s="98"/>
+      <c r="BR244" s="98"/>
+      <c r="BS244" s="98"/>
+      <c r="BT244" s="101"/>
+      <c r="BZ244" s="4" t="s">
+        <v>2055</v>
+      </c>
+      <c r="CA244" s="98"/>
+      <c r="CB244" s="98"/>
+      <c r="CC244" s="98"/>
+      <c r="CD244" s="98"/>
+      <c r="CG244" s="9"/>
+    </row>
+    <row r="245" spans="61:85">
+      <c r="BI245" s="4" t="s">
+        <v>2069</v>
+      </c>
+      <c r="BJ245" s="98"/>
+      <c r="BK245" s="98"/>
+      <c r="BL245" s="98"/>
+      <c r="BM245" s="98"/>
+      <c r="BN245" s="98"/>
+      <c r="BO245" s="98"/>
+      <c r="BP245" s="98"/>
+      <c r="BQ245" s="98"/>
+      <c r="BR245" s="98"/>
+      <c r="BS245" s="98"/>
+      <c r="BT245" s="101"/>
+      <c r="BZ245" s="4"/>
+      <c r="CA245" s="98"/>
+      <c r="CB245" s="98"/>
+      <c r="CC245" s="98"/>
+      <c r="CD245" s="98"/>
+      <c r="CG245" s="9"/>
+    </row>
+    <row r="246" spans="61:85">
+      <c r="BI246" s="4" t="s">
+        <v>2070</v>
+      </c>
+      <c r="BJ246" s="98"/>
+      <c r="BK246" s="98"/>
+      <c r="BL246" s="98"/>
+      <c r="BM246" s="98"/>
+      <c r="BN246" s="98"/>
+      <c r="BO246" s="98"/>
+      <c r="BP246" s="98"/>
+      <c r="BQ246" s="98"/>
+      <c r="BR246" s="98"/>
+      <c r="BS246" s="98"/>
+      <c r="BT246" s="101"/>
+      <c r="BZ246" s="4" t="s">
+        <v>2071</v>
+      </c>
+      <c r="CA246" s="98"/>
+      <c r="CB246" s="98"/>
+      <c r="CC246" s="98"/>
+      <c r="CD246" s="98"/>
+      <c r="CG246" s="9"/>
+    </row>
+    <row r="247" spans="61:85">
+      <c r="BI247" s="4" t="s">
+        <v>2072</v>
+      </c>
+      <c r="BJ247" s="98"/>
+      <c r="BK247" s="98"/>
+      <c r="BL247" s="98"/>
+      <c r="BM247" s="98"/>
+      <c r="BN247" s="98"/>
+      <c r="BO247" s="98"/>
+      <c r="BP247" s="98"/>
+      <c r="BQ247" s="98"/>
+      <c r="BR247" s="98"/>
+      <c r="BS247" s="98"/>
+      <c r="BT247" s="101"/>
+      <c r="BZ247" s="4" t="s">
+        <v>2073</v>
+      </c>
+      <c r="CA247" s="98"/>
+      <c r="CB247" s="98"/>
+      <c r="CC247" s="98"/>
+      <c r="CD247" s="98"/>
+      <c r="CG247" s="9"/>
+    </row>
+    <row r="248" spans="61:85">
+      <c r="BI248" s="4" t="s">
+        <v>2074</v>
+      </c>
+      <c r="BJ248" s="98"/>
+      <c r="BK248" s="98"/>
+      <c r="BL248" s="98"/>
+      <c r="BM248" s="98"/>
+      <c r="BN248" s="98"/>
+      <c r="BO248" s="98"/>
+      <c r="BP248" s="98"/>
+      <c r="BQ248" s="98"/>
+      <c r="BR248" s="98"/>
+      <c r="BS248" s="98"/>
+      <c r="BT248" s="101"/>
+      <c r="BZ248" s="4" t="s">
+        <v>2075</v>
+      </c>
+      <c r="CA248" s="98"/>
+      <c r="CB248" s="98"/>
+      <c r="CC248" s="98"/>
+      <c r="CD248" s="98"/>
+      <c r="CG248" s="9"/>
+    </row>
+    <row r="249" spans="61:85">
+      <c r="BI249" s="4" t="s">
+        <v>2076</v>
+      </c>
+      <c r="BJ249" s="98"/>
+      <c r="BK249" s="98"/>
+      <c r="BL249" s="98"/>
+      <c r="BM249" s="98"/>
+      <c r="BN249" s="98"/>
+      <c r="BO249" s="98"/>
+      <c r="BP249" s="98"/>
+      <c r="BQ249" s="98"/>
+      <c r="BR249" s="98"/>
+      <c r="BS249" s="98"/>
+      <c r="BT249" s="101"/>
+      <c r="BZ249" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="CA249" s="98"/>
+      <c r="CB249" s="98"/>
+      <c r="CC249" s="98"/>
+      <c r="CD249" s="98"/>
+      <c r="CG249" s="9"/>
+    </row>
+    <row r="250" spans="61:85">
+      <c r="BI250" s="4" t="s">
+        <v>2078</v>
+      </c>
+      <c r="BJ250" s="98"/>
+      <c r="BK250" s="98"/>
+      <c r="BL250" s="98"/>
+      <c r="BM250" s="98"/>
+      <c r="BN250" s="98"/>
+      <c r="BO250" s="98"/>
+      <c r="BP250" s="98"/>
+      <c r="BQ250" s="98"/>
+      <c r="BR250" s="98"/>
+      <c r="BS250" s="98"/>
+      <c r="BT250" s="101"/>
+      <c r="BZ250" s="4" t="s">
+        <v>2047</v>
+      </c>
+      <c r="CA250" s="98"/>
+      <c r="CB250" s="98"/>
+      <c r="CC250" s="98"/>
+      <c r="CD250" s="98"/>
+      <c r="CG250" s="9"/>
+    </row>
+    <row r="251" spans="61:85">
+      <c r="BI251" s="4" t="s">
+        <v>2079</v>
+      </c>
+      <c r="BJ251" s="98"/>
+      <c r="BK251" s="98"/>
+      <c r="BL251" s="98"/>
+      <c r="BM251" s="98"/>
+      <c r="BN251" s="98"/>
+      <c r="BO251" s="98"/>
+      <c r="BP251" s="98"/>
+      <c r="BQ251" s="98"/>
+      <c r="BR251" s="98"/>
+      <c r="BS251" s="98"/>
+      <c r="BT251" s="101"/>
+      <c r="BZ251" s="4"/>
+      <c r="CA251" s="98" t="s">
+        <v>2080</v>
+      </c>
+      <c r="CB251" s="98"/>
+      <c r="CC251" s="98"/>
+      <c r="CD251" s="98"/>
+      <c r="CG251" s="9"/>
+    </row>
+    <row r="252" spans="61:85">
+      <c r="BI252" s="4" t="s">
+        <v>2081</v>
+      </c>
+      <c r="BJ252" s="98"/>
+      <c r="BK252" s="98"/>
+      <c r="BL252" s="98"/>
+      <c r="BM252" s="98"/>
+      <c r="BN252" s="98"/>
+      <c r="BO252" s="98"/>
+      <c r="BP252" s="98"/>
+      <c r="BQ252" s="98"/>
+      <c r="BR252" s="98"/>
+      <c r="BS252" s="98"/>
+      <c r="BT252" s="101"/>
+      <c r="BZ252" s="4"/>
+      <c r="CA252" s="98"/>
+      <c r="CB252" s="98"/>
+      <c r="CC252" s="98"/>
+      <c r="CD252" s="98"/>
+      <c r="CG252" s="9"/>
+    </row>
+    <row r="253" spans="61:85">
+      <c r="BI253" s="4" t="s">
+        <v>2082</v>
+      </c>
+      <c r="BJ253" s="98"/>
+      <c r="BK253" s="98"/>
+      <c r="BL253" s="98"/>
+      <c r="BM253" s="98"/>
+      <c r="BN253" s="98"/>
+      <c r="BO253" s="98"/>
+      <c r="BP253" s="98"/>
+      <c r="BQ253" s="98"/>
+      <c r="BR253" s="98"/>
+      <c r="BS253" s="98"/>
+      <c r="BT253" s="101"/>
+      <c r="BZ253" s="4"/>
+      <c r="CA253" s="98" t="s">
+        <v>2083</v>
+      </c>
+      <c r="CB253" s="98"/>
+      <c r="CC253" s="98"/>
+      <c r="CD253" s="98"/>
+      <c r="CG253" s="9"/>
+    </row>
+    <row r="254" ht="16.5" spans="61:85">
+      <c r="BI254" s="123"/>
+      <c r="BJ254" s="124"/>
+      <c r="BK254" s="124"/>
+      <c r="BL254" s="124"/>
+      <c r="BM254" s="124"/>
+      <c r="BN254" s="124"/>
+      <c r="BO254" s="124"/>
+      <c r="BP254" s="124"/>
+      <c r="BQ254" s="124"/>
+      <c r="BR254" s="124"/>
+      <c r="BS254" s="124"/>
+      <c r="BT254" s="126"/>
+      <c r="BZ254" s="4"/>
+      <c r="CA254" s="98"/>
+      <c r="CB254" s="98" t="s">
+        <v>2084</v>
+      </c>
+      <c r="CC254" s="98"/>
+      <c r="CD254" s="98"/>
+      <c r="CG254" s="9"/>
+    </row>
+    <row r="255" spans="78:85">
+      <c r="BZ255" s="4"/>
+      <c r="CA255" s="98"/>
+      <c r="CB255" s="98"/>
+      <c r="CC255" s="98" t="s">
+        <v>2085</v>
+      </c>
+      <c r="CD255" s="98"/>
+      <c r="CG255" s="9"/>
+    </row>
+    <row r="256" spans="78:85">
+      <c r="BZ256" s="4"/>
+      <c r="CA256" s="98"/>
+      <c r="CB256" s="98"/>
+      <c r="CC256" s="98" t="s">
+        <v>2086</v>
+      </c>
+      <c r="CD256" s="98"/>
+      <c r="CG256" s="9"/>
+    </row>
+    <row r="257" spans="78:85">
+      <c r="BZ257" s="4"/>
+      <c r="CA257" s="98" t="s">
+        <v>2087</v>
+      </c>
+      <c r="CB257" s="98"/>
+      <c r="CC257" s="98"/>
+      <c r="CD257" s="98"/>
+      <c r="CG257" s="9"/>
+    </row>
+    <row r="258" spans="78:85">
+      <c r="BZ258" s="4"/>
+      <c r="CA258" s="98"/>
+      <c r="CB258" s="98" t="s">
+        <v>2088</v>
+      </c>
+      <c r="CC258" s="98"/>
+      <c r="CD258" s="98"/>
+      <c r="CG258" s="9"/>
+    </row>
+    <row r="259" spans="78:85">
+      <c r="BZ259" s="4"/>
+      <c r="CA259" s="98"/>
+      <c r="CB259" s="98"/>
+      <c r="CC259" s="98" t="s">
+        <v>2089</v>
+      </c>
+      <c r="CD259" s="98"/>
+      <c r="CG259" s="9"/>
+    </row>
+    <row r="260" spans="78:85">
+      <c r="BZ260" s="4"/>
+      <c r="CA260" s="98"/>
+      <c r="CB260" s="98"/>
+      <c r="CC260" s="98" t="s">
+        <v>2090</v>
+      </c>
+      <c r="CD260" s="98"/>
+      <c r="CG260" s="9"/>
+    </row>
+    <row r="261" spans="78:85">
+      <c r="BZ261" s="4"/>
+      <c r="CA261" s="98"/>
+      <c r="CB261" s="98"/>
+      <c r="CC261" s="98"/>
+      <c r="CD261" s="98" t="s">
+        <v>2091</v>
+      </c>
+      <c r="CG261" s="9"/>
+    </row>
+    <row r="262" spans="78:85">
+      <c r="BZ262" s="4"/>
+      <c r="CA262" s="98"/>
+      <c r="CB262" s="98"/>
+      <c r="CC262" s="98" t="s">
+        <v>2092</v>
+      </c>
+      <c r="CD262" s="98"/>
+      <c r="CG262" s="9"/>
+    </row>
+    <row r="263" spans="78:85">
+      <c r="BZ263" s="4"/>
+      <c r="CA263" s="98"/>
+      <c r="CB263" s="98"/>
+      <c r="CC263" s="98" t="s">
+        <v>2093</v>
+      </c>
+      <c r="CD263" s="98"/>
+      <c r="CG263" s="9"/>
+    </row>
+    <row r="264" spans="78:85">
+      <c r="BZ264" s="4"/>
+      <c r="CA264" s="98"/>
+      <c r="CB264" s="98" t="s">
+        <v>2094</v>
+      </c>
+      <c r="CC264" s="98"/>
+      <c r="CD264" s="98"/>
+      <c r="CG264" s="9"/>
+    </row>
+    <row r="265" spans="78:85">
+      <c r="BZ265" s="4"/>
+      <c r="CA265" s="98" t="s">
+        <v>2053</v>
+      </c>
+      <c r="CB265" s="98"/>
+      <c r="CC265" s="98"/>
+      <c r="CD265" s="98"/>
+      <c r="CG265" s="9"/>
+    </row>
+    <row r="266" spans="78:85">
+      <c r="BZ266" s="4" t="s">
+        <v>2055</v>
+      </c>
+      <c r="CA266" s="98"/>
+      <c r="CB266" s="98"/>
+      <c r="CC266" s="98"/>
+      <c r="CD266" s="98"/>
+      <c r="CG266" s="9"/>
+    </row>
+    <row r="267" spans="78:85">
+      <c r="BZ267" s="4"/>
+      <c r="CA267" s="98"/>
+      <c r="CB267" s="98"/>
+      <c r="CC267" s="98"/>
+      <c r="CD267" s="98"/>
+      <c r="CG267" s="9"/>
+    </row>
+    <row r="268" spans="78:85">
+      <c r="BZ268" s="4"/>
+      <c r="CA268" s="98"/>
+      <c r="CB268" s="98"/>
+      <c r="CC268" s="98"/>
+      <c r="CD268" s="98"/>
+      <c r="CG268" s="9"/>
+    </row>
+    <row r="269" spans="78:85">
+      <c r="BZ269" s="4" t="s">
+        <v>2095</v>
+      </c>
+      <c r="CA269" s="98"/>
+      <c r="CB269" s="98"/>
+      <c r="CC269" s="98"/>
+      <c r="CD269" s="98"/>
+      <c r="CG269" s="9"/>
+    </row>
+    <row r="270" spans="78:85">
+      <c r="BZ270" s="4" t="s">
+        <v>2096</v>
+      </c>
+      <c r="CA270" s="98"/>
+      <c r="CB270" s="98"/>
+      <c r="CC270" s="98"/>
+      <c r="CD270" s="98"/>
+      <c r="CG270" s="9"/>
+    </row>
+    <row r="271" spans="78:85">
+      <c r="BZ271" s="4" t="s">
+        <v>2047</v>
+      </c>
+      <c r="CA271" s="98"/>
+      <c r="CB271" s="98"/>
+      <c r="CC271" s="98"/>
+      <c r="CD271" s="98"/>
+      <c r="CG271" s="9"/>
+    </row>
+    <row r="272" spans="78:85">
+      <c r="BZ272" s="4"/>
+      <c r="CA272" s="98" t="s">
+        <v>2097</v>
+      </c>
+      <c r="CB272" s="98"/>
+      <c r="CC272" s="98"/>
+      <c r="CD272" s="98"/>
+      <c r="CG272" s="9"/>
+    </row>
+    <row r="273" spans="78:85">
+      <c r="BZ273" s="4"/>
+      <c r="CA273" s="98" t="s">
+        <v>2098</v>
+      </c>
+      <c r="CB273" s="98"/>
+      <c r="CC273" s="98"/>
+      <c r="CD273" s="98"/>
+      <c r="CG273" s="9"/>
+    </row>
+    <row r="274" spans="78:85">
+      <c r="BZ274" s="4"/>
+      <c r="CA274" s="98"/>
+      <c r="CB274" s="98"/>
+      <c r="CC274" s="98"/>
+      <c r="CD274" s="98"/>
+      <c r="CG274" s="9"/>
+    </row>
+    <row r="275" spans="78:85">
+      <c r="BZ275" s="4"/>
+      <c r="CA275" s="98" t="s">
+        <v>2099</v>
+      </c>
+      <c r="CB275" s="98"/>
+      <c r="CC275" s="98"/>
+      <c r="CD275" s="98"/>
+      <c r="CG275" s="9"/>
+    </row>
+    <row r="276" spans="78:85">
+      <c r="BZ276" s="4"/>
+      <c r="CA276" s="98"/>
+      <c r="CB276" s="98" t="s">
+        <v>2100</v>
+      </c>
+      <c r="CC276" s="98"/>
+      <c r="CD276" s="98"/>
+      <c r="CG276" s="9"/>
+    </row>
+    <row r="277" spans="78:85">
+      <c r="BZ277" s="4"/>
+      <c r="CA277" s="98" t="s">
+        <v>2053</v>
+      </c>
+      <c r="CB277" s="98"/>
+      <c r="CC277" s="98"/>
+      <c r="CD277" s="98"/>
+      <c r="CG277" s="9"/>
+    </row>
+    <row r="278" spans="78:85">
+      <c r="BZ278" s="4"/>
+      <c r="CA278" s="98"/>
+      <c r="CB278" s="98"/>
+      <c r="CC278" s="98"/>
+      <c r="CD278" s="98"/>
+      <c r="CG278" s="9"/>
+    </row>
+    <row r="279" spans="78:85">
+      <c r="BZ279" s="4"/>
+      <c r="CA279" s="98" t="s">
+        <v>2101</v>
+      </c>
+      <c r="CB279" s="98"/>
+      <c r="CC279" s="98"/>
+      <c r="CD279" s="98"/>
+      <c r="CG279" s="9"/>
+    </row>
+    <row r="280" spans="78:85">
+      <c r="BZ280" s="4"/>
+      <c r="CA280" s="98"/>
+      <c r="CB280" s="98" t="s">
+        <v>2102</v>
+      </c>
+      <c r="CC280" s="98"/>
+      <c r="CD280" s="98"/>
+      <c r="CG280" s="9"/>
+    </row>
+    <row r="281" spans="78:85">
+      <c r="BZ281" s="4"/>
+      <c r="CA281" s="98" t="s">
+        <v>2053</v>
+      </c>
+      <c r="CB281" s="98"/>
+      <c r="CC281" s="98"/>
+      <c r="CD281" s="98"/>
+      <c r="CG281" s="9"/>
+    </row>
+    <row r="282" spans="78:85">
+      <c r="BZ282" s="4"/>
+      <c r="CA282" s="98"/>
+      <c r="CB282" s="98"/>
+      <c r="CC282" s="98"/>
+      <c r="CD282" s="98"/>
+      <c r="CG282" s="9"/>
+    </row>
+    <row r="283" spans="78:85">
+      <c r="BZ283" s="4"/>
+      <c r="CA283" s="98" t="s">
+        <v>2103</v>
+      </c>
+      <c r="CB283" s="98"/>
+      <c r="CC283" s="98"/>
+      <c r="CD283" s="98"/>
+      <c r="CG283" s="9"/>
+    </row>
+    <row r="284" spans="78:85">
+      <c r="BZ284" s="4"/>
+      <c r="CA284" s="98"/>
+      <c r="CB284" s="98" t="s">
+        <v>2104</v>
+      </c>
+      <c r="CC284" s="98"/>
+      <c r="CD284" s="98"/>
+      <c r="CG284" s="9"/>
+    </row>
+    <row r="285" spans="78:85">
+      <c r="BZ285" s="4"/>
+      <c r="CA285" s="98" t="s">
+        <v>2053</v>
+      </c>
+      <c r="CB285" s="98"/>
+      <c r="CC285" s="98"/>
+      <c r="CD285" s="98"/>
+      <c r="CG285" s="9"/>
+    </row>
+    <row r="286" spans="78:85">
+      <c r="BZ286" s="4"/>
+      <c r="CA286" s="98"/>
+      <c r="CB286" s="98"/>
+      <c r="CC286" s="98"/>
+      <c r="CD286" s="98"/>
+      <c r="CG286" s="9"/>
+    </row>
+    <row r="287" spans="78:85">
+      <c r="BZ287" s="4"/>
+      <c r="CA287" s="98" t="s">
+        <v>2105</v>
+      </c>
+      <c r="CB287" s="98"/>
+      <c r="CC287" s="98"/>
+      <c r="CD287" s="98"/>
+      <c r="CG287" s="9"/>
+    </row>
+    <row r="288" spans="78:85">
+      <c r="BZ288" s="4"/>
+      <c r="CA288" s="98"/>
+      <c r="CB288" s="98" t="s">
+        <v>2106</v>
+      </c>
+      <c r="CC288" s="98"/>
+      <c r="CD288" s="98"/>
+      <c r="CG288" s="9"/>
+    </row>
+    <row r="289" spans="78:85">
+      <c r="BZ289" s="4"/>
+      <c r="CA289" s="98" t="s">
+        <v>2053</v>
+      </c>
+      <c r="CB289" s="98"/>
+      <c r="CC289" s="98"/>
+      <c r="CD289" s="98"/>
+      <c r="CG289" s="9"/>
+    </row>
+    <row r="290" spans="78:85">
+      <c r="BZ290" s="4"/>
+      <c r="CA290" s="98"/>
+      <c r="CB290" s="98"/>
+      <c r="CC290" s="98"/>
+      <c r="CD290" s="98"/>
+      <c r="CG290" s="9"/>
+    </row>
+    <row r="291" spans="78:85">
+      <c r="BZ291" s="4"/>
+      <c r="CA291" s="98" t="s">
+        <v>2107</v>
+      </c>
+      <c r="CB291" s="98"/>
+      <c r="CC291" s="98"/>
+      <c r="CD291" s="98"/>
+      <c r="CG291" s="9"/>
+    </row>
+    <row r="292" spans="78:85">
+      <c r="BZ292" s="4"/>
+      <c r="CA292" s="98"/>
+      <c r="CB292" s="98" t="s">
+        <v>2108</v>
+      </c>
+      <c r="CC292" s="98"/>
+      <c r="CD292" s="98"/>
+      <c r="CG292" s="9"/>
+    </row>
+    <row r="293" spans="78:85">
+      <c r="BZ293" s="4"/>
+      <c r="CA293" s="98"/>
+      <c r="CB293" s="98"/>
+      <c r="CC293" s="98"/>
+      <c r="CD293" s="98"/>
+      <c r="CG293" s="9"/>
+    </row>
+    <row r="294" spans="78:85">
+      <c r="BZ294" s="4"/>
+      <c r="CA294" s="98" t="s">
+        <v>2109</v>
+      </c>
+      <c r="CB294" s="98"/>
+      <c r="CC294" s="98"/>
+      <c r="CD294" s="98"/>
+      <c r="CG294" s="9"/>
+    </row>
+    <row r="295" spans="78:85">
+      <c r="BZ295" s="4"/>
+      <c r="CA295" s="98"/>
+      <c r="CB295" s="98" t="s">
+        <v>2110</v>
+      </c>
+      <c r="CC295" s="98"/>
+      <c r="CD295" s="98"/>
+      <c r="CG295" s="9"/>
+    </row>
+    <row r="296" spans="78:85">
+      <c r="BZ296" s="4"/>
+      <c r="CA296" s="98"/>
+      <c r="CB296" s="98" t="s">
+        <v>2111</v>
+      </c>
+      <c r="CC296" s="98"/>
+      <c r="CD296" s="98"/>
+      <c r="CG296" s="9"/>
+    </row>
+    <row r="297" spans="78:85">
+      <c r="BZ297" s="4" t="s">
+        <v>2055</v>
+      </c>
+      <c r="CA297" s="98"/>
+      <c r="CB297" s="98"/>
+      <c r="CC297" s="98"/>
+      <c r="CD297" s="98"/>
+      <c r="CG297" s="9"/>
+    </row>
+    <row r="298" spans="78:85">
+      <c r="BZ298" s="4"/>
+      <c r="CA298" s="98"/>
+      <c r="CB298" s="98"/>
+      <c r="CC298" s="98"/>
+      <c r="CD298" s="98"/>
+      <c r="CG298" s="9"/>
+    </row>
+    <row r="299" spans="78:85">
+      <c r="BZ299" s="4" t="s">
+        <v>2112</v>
+      </c>
+      <c r="CA299" s="98"/>
+      <c r="CB299" s="98"/>
+      <c r="CC299" s="98"/>
+      <c r="CD299" s="98"/>
+      <c r="CG299" s="9"/>
+    </row>
+    <row r="300" spans="78:85">
+      <c r="BZ300" s="4" t="s">
+        <v>2113</v>
+      </c>
+      <c r="CA300" s="98"/>
+      <c r="CB300" s="98"/>
+      <c r="CC300" s="98"/>
+      <c r="CD300" s="98"/>
+      <c r="CG300" s="9"/>
+    </row>
+    <row r="301" spans="78:85">
+      <c r="BZ301" s="4" t="s">
+        <v>2114</v>
+      </c>
+      <c r="CA301" s="98"/>
+      <c r="CB301" s="98"/>
+      <c r="CC301" s="98"/>
+      <c r="CD301" s="98"/>
+      <c r="CG301" s="9"/>
+    </row>
+    <row r="302" spans="78:85">
+      <c r="BZ302" s="4" t="s">
+        <v>2047</v>
+      </c>
+      <c r="CA302" s="98"/>
+      <c r="CB302" s="98"/>
+      <c r="CC302" s="98"/>
+      <c r="CD302" s="98"/>
+      <c r="CG302" s="9"/>
+    </row>
+    <row r="303" spans="78:85">
+      <c r="BZ303" s="4"/>
+      <c r="CA303" s="98" t="s">
+        <v>2115</v>
+      </c>
+      <c r="CB303" s="98"/>
+      <c r="CC303" s="98"/>
+      <c r="CD303" s="98"/>
+      <c r="CG303" s="9"/>
+    </row>
+    <row r="304" spans="78:85">
+      <c r="BZ304" s="4" t="s">
+        <v>2055</v>
+      </c>
+      <c r="CA304" s="98"/>
+      <c r="CB304" s="98"/>
+      <c r="CC304" s="98"/>
+      <c r="CD304" s="98"/>
+      <c r="CG304" s="9"/>
+    </row>
+    <row r="305" spans="78:85">
+      <c r="BZ305" s="4"/>
+      <c r="CA305" s="98"/>
+      <c r="CB305" s="98"/>
+      <c r="CC305" s="98"/>
+      <c r="CD305" s="98"/>
+      <c r="CG305" s="9"/>
+    </row>
+    <row r="306" spans="78:85">
+      <c r="BZ306" s="4" t="s">
+        <v>2116</v>
+      </c>
+      <c r="CA306" s="98"/>
+      <c r="CB306" s="98"/>
+      <c r="CC306" s="98"/>
+      <c r="CD306" s="98"/>
+      <c r="CG306" s="9"/>
+    </row>
+    <row r="307" spans="78:85">
+      <c r="BZ307" s="4" t="s">
+        <v>2047</v>
+      </c>
+      <c r="CA307" s="98"/>
+      <c r="CB307" s="98"/>
+      <c r="CC307" s="98"/>
+      <c r="CD307" s="98"/>
+      <c r="CG307" s="9"/>
+    </row>
+    <row r="308" spans="78:85">
+      <c r="BZ308" s="4"/>
+      <c r="CA308" s="98" t="s">
+        <v>2117</v>
+      </c>
+      <c r="CB308" s="98"/>
+      <c r="CC308" s="98"/>
+      <c r="CD308" s="98"/>
+      <c r="CG308" s="9"/>
+    </row>
+    <row r="309" spans="78:85">
+      <c r="BZ309" s="4" t="s">
+        <v>2055</v>
+      </c>
+      <c r="CA309" s="98"/>
+      <c r="CB309" s="98"/>
+      <c r="CC309" s="98"/>
+      <c r="CD309" s="98"/>
+      <c r="CG309" s="9"/>
+    </row>
+    <row r="310" spans="78:85">
+      <c r="BZ310" s="4"/>
+      <c r="CA310" s="98"/>
+      <c r="CB310" s="98"/>
+      <c r="CC310" s="98"/>
+      <c r="CD310" s="98"/>
+      <c r="CG310" s="9"/>
+    </row>
+    <row r="311" spans="78:85">
+      <c r="BZ311" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="CA311" s="98"/>
+      <c r="CB311" s="98"/>
+      <c r="CC311" s="98"/>
+      <c r="CD311" s="98"/>
+      <c r="CG311" s="9"/>
+    </row>
+    <row r="312" spans="78:85">
+      <c r="BZ312" s="4" t="s">
+        <v>2119</v>
+      </c>
+      <c r="CA312" s="98"/>
+      <c r="CB312" s="98"/>
+      <c r="CC312" s="98"/>
+      <c r="CD312" s="98"/>
+      <c r="CG312" s="9"/>
+    </row>
+    <row r="313" spans="78:85">
+      <c r="BZ313" s="4" t="s">
+        <v>2120</v>
+      </c>
+      <c r="CA313" s="98"/>
+      <c r="CB313" s="98"/>
+      <c r="CC313" s="98"/>
+      <c r="CD313" s="98"/>
+      <c r="CG313" s="9"/>
+    </row>
+    <row r="314" spans="78:85">
+      <c r="BZ314" s="4" t="s">
+        <v>2047</v>
+      </c>
+      <c r="CA314" s="98"/>
+      <c r="CB314" s="98"/>
+      <c r="CC314" s="98"/>
+      <c r="CD314" s="98"/>
+      <c r="CG314" s="9"/>
+    </row>
+    <row r="315" spans="78:85">
+      <c r="BZ315" s="4"/>
+      <c r="CA315" s="98" t="s">
+        <v>2121</v>
+      </c>
+      <c r="CB315" s="98"/>
+      <c r="CC315" s="98"/>
+      <c r="CD315" s="98"/>
+      <c r="CG315" s="9"/>
+    </row>
+    <row r="316" spans="78:85">
+      <c r="BZ316" s="4"/>
+      <c r="CA316" s="98" t="s">
+        <v>2122</v>
+      </c>
+      <c r="CB316" s="98"/>
+      <c r="CC316" s="98"/>
+      <c r="CD316" s="98"/>
+      <c r="CG316" s="9"/>
+    </row>
+    <row r="317" spans="78:85">
+      <c r="BZ317" s="4"/>
+      <c r="CA317" s="98" t="s">
+        <v>2123</v>
+      </c>
+      <c r="CB317" s="98"/>
+      <c r="CC317" s="98"/>
+      <c r="CD317" s="98"/>
+      <c r="CG317" s="9"/>
+    </row>
+    <row r="318" spans="78:85">
+      <c r="BZ318" s="4"/>
+      <c r="CA318" s="98" t="s">
+        <v>2124</v>
+      </c>
+      <c r="CB318" s="98"/>
+      <c r="CC318" s="98"/>
+      <c r="CD318" s="98"/>
+      <c r="CG318" s="9"/>
+    </row>
+    <row r="319" spans="78:85">
+      <c r="BZ319" s="4"/>
+      <c r="CA319" s="98" t="s">
+        <v>2125</v>
+      </c>
+      <c r="CB319" s="98"/>
+      <c r="CC319" s="98"/>
+      <c r="CD319" s="98"/>
+      <c r="CG319" s="9"/>
+    </row>
+    <row r="320" spans="78:85">
+      <c r="BZ320" s="4"/>
+      <c r="CA320" s="98" t="s">
+        <v>2126</v>
+      </c>
+      <c r="CB320" s="98"/>
+      <c r="CC320" s="98"/>
+      <c r="CD320" s="98"/>
+      <c r="CG320" s="9"/>
+    </row>
+    <row r="321" spans="78:85">
+      <c r="BZ321" s="4"/>
+      <c r="CA321" s="98" t="s">
+        <v>2127</v>
+      </c>
+      <c r="CB321" s="98"/>
+      <c r="CC321" s="98"/>
+      <c r="CD321" s="98"/>
+      <c r="CG321" s="9"/>
+    </row>
+    <row r="322" spans="78:85">
+      <c r="BZ322" s="4"/>
+      <c r="CA322" s="98" t="s">
+        <v>2128</v>
+      </c>
+      <c r="CB322" s="98"/>
+      <c r="CC322" s="98"/>
+      <c r="CD322" s="98"/>
+      <c r="CG322" s="9"/>
+    </row>
+    <row r="323" spans="78:85">
+      <c r="BZ323" s="4" t="s">
+        <v>2055</v>
+      </c>
+      <c r="CA323" s="98"/>
+      <c r="CB323" s="98"/>
+      <c r="CC323" s="98"/>
+      <c r="CD323" s="98"/>
+      <c r="CG323" s="9"/>
+    </row>
+    <row r="324" spans="78:85">
+      <c r="BZ324" s="4"/>
+      <c r="CA324" s="98"/>
+      <c r="CB324" s="98"/>
+      <c r="CC324" s="98"/>
+      <c r="CD324" s="98"/>
+      <c r="CG324" s="9"/>
+    </row>
+    <row r="325" spans="78:85">
+      <c r="BZ325" s="4" t="s">
+        <v>1989</v>
+      </c>
+      <c r="CA325" s="98"/>
+      <c r="CB325" s="98"/>
+      <c r="CC325" s="98"/>
+      <c r="CD325" s="98"/>
+      <c r="CG325" s="9"/>
+    </row>
+    <row r="326" spans="78:85">
+      <c r="BZ326" s="4" t="s">
+        <v>1989</v>
+      </c>
+      <c r="CA326" s="98"/>
+      <c r="CB326" s="98"/>
+      <c r="CC326" s="98"/>
+      <c r="CD326" s="98"/>
+      <c r="CG326" s="9"/>
+    </row>
+    <row r="327" spans="78:85">
+      <c r="BZ327" s="4" t="s">
+        <v>2129</v>
+      </c>
+      <c r="CA327" s="98"/>
+      <c r="CB327" s="98"/>
+      <c r="CC327" s="98"/>
+      <c r="CD327" s="98"/>
+      <c r="CG327" s="9"/>
+    </row>
+    <row r="328" spans="78:85">
+      <c r="BZ328" s="97" t="s">
+        <v>2130</v>
+      </c>
+      <c r="CA328" s="98"/>
+      <c r="CB328" s="98"/>
+      <c r="CC328" s="98"/>
+      <c r="CD328" s="98"/>
+      <c r="CG328" s="9"/>
+    </row>
+    <row r="329" spans="78:85">
+      <c r="BZ329" s="97" t="s">
+        <v>2131</v>
+      </c>
+      <c r="CA329" s="98"/>
+      <c r="CB329" s="98"/>
+      <c r="CC329" s="98"/>
+      <c r="CD329" s="98"/>
+      <c r="CG329" s="9"/>
+    </row>
+    <row r="330" spans="78:85">
+      <c r="BZ330" s="4"/>
+      <c r="CA330" s="98" t="s">
+        <v>2132</v>
+      </c>
+      <c r="CB330" s="98"/>
+      <c r="CC330" s="98"/>
+      <c r="CD330" s="98"/>
+      <c r="CG330" s="9"/>
+    </row>
+    <row r="331" spans="78:85">
+      <c r="BZ331" s="4"/>
+      <c r="CA331" s="98" t="s">
+        <v>2133</v>
+      </c>
+      <c r="CB331" s="98"/>
+      <c r="CC331" s="98"/>
+      <c r="CD331" s="98"/>
+      <c r="CG331" s="9"/>
+    </row>
+    <row r="332" spans="78:85">
+      <c r="BZ332" s="4" t="s">
+        <v>2134</v>
+      </c>
+      <c r="CA332" s="98"/>
+      <c r="CB332" s="98"/>
+      <c r="CC332" s="98"/>
+      <c r="CD332" s="98"/>
+      <c r="CG332" s="9"/>
+    </row>
+    <row r="333" spans="78:85">
+      <c r="BZ333" s="4"/>
+      <c r="CA333" s="98"/>
+      <c r="CB333" s="98"/>
+      <c r="CC333" s="98"/>
+      <c r="CD333" s="98"/>
+      <c r="CG333" s="9"/>
+    </row>
+    <row r="334" spans="78:85">
+      <c r="BZ334" s="4" t="s">
+        <v>2135</v>
+      </c>
+      <c r="CA334" s="98"/>
+      <c r="CB334" s="98"/>
+      <c r="CC334" s="98"/>
+      <c r="CD334" s="98"/>
+      <c r="CG334" s="9"/>
+    </row>
+    <row r="335" spans="78:85">
+      <c r="BZ335" s="4"/>
+      <c r="CA335" s="98" t="s">
+        <v>2136</v>
+      </c>
+      <c r="CB335" s="98"/>
+      <c r="CC335" s="98"/>
+      <c r="CD335" s="98"/>
+      <c r="CG335" s="9"/>
+    </row>
+    <row r="336" spans="78:85">
+      <c r="BZ336" s="4"/>
+      <c r="CA336" s="98" t="s">
+        <v>2137</v>
+      </c>
+      <c r="CB336" s="98"/>
+      <c r="CC336" s="98"/>
+      <c r="CD336" s="98"/>
+      <c r="CG336" s="9"/>
+    </row>
+    <row r="337" spans="78:85">
+      <c r="BZ337" s="4" t="s">
+        <v>2053</v>
+      </c>
+      <c r="CA337" s="98"/>
+      <c r="CB337" s="98"/>
+      <c r="CC337" s="98"/>
+      <c r="CD337" s="98"/>
+      <c r="CG337" s="9"/>
+    </row>
+    <row r="338" spans="78:85">
+      <c r="BZ338" s="4"/>
+      <c r="CA338" s="98"/>
+      <c r="CB338" s="98"/>
+      <c r="CC338" s="98"/>
+      <c r="CD338" s="98"/>
+      <c r="CG338" s="9"/>
+    </row>
+    <row r="339" spans="78:85">
+      <c r="BZ339" s="4" t="s">
+        <v>2138</v>
+      </c>
+      <c r="CA339" s="98"/>
+      <c r="CB339" s="98"/>
+      <c r="CC339" s="98"/>
+      <c r="CD339" s="98"/>
+      <c r="CG339" s="9"/>
+    </row>
+    <row r="340" spans="78:85">
+      <c r="BZ340" s="97" t="s">
+        <v>2139</v>
+      </c>
+      <c r="CA340" s="98"/>
+      <c r="CB340" s="98"/>
+      <c r="CC340" s="98"/>
+      <c r="CD340" s="98"/>
+      <c r="CG340" s="9"/>
+    </row>
+    <row r="341" spans="78:85">
+      <c r="BZ341" s="97" t="s">
+        <v>2140</v>
+      </c>
+      <c r="CA341" s="98"/>
+      <c r="CB341" s="98"/>
+      <c r="CC341" s="98"/>
+      <c r="CD341" s="98"/>
+      <c r="CG341" s="9"/>
+    </row>
+    <row r="342" spans="78:85">
+      <c r="BZ342" s="4"/>
+      <c r="CA342" s="98" t="s">
+        <v>2141</v>
+      </c>
+      <c r="CB342" s="98"/>
+      <c r="CC342" s="98"/>
+      <c r="CD342" s="98"/>
+      <c r="CG342" s="9"/>
+    </row>
+    <row r="343" spans="78:85">
+      <c r="BZ343" s="4"/>
+      <c r="CA343" s="98" t="s">
+        <v>2133</v>
+      </c>
+      <c r="CB343" s="98"/>
+      <c r="CC343" s="98"/>
+      <c r="CD343" s="98"/>
+      <c r="CG343" s="9"/>
+    </row>
+    <row r="344" spans="78:85">
+      <c r="BZ344" s="97" t="s">
+        <v>2142</v>
+      </c>
+      <c r="CA344" s="98"/>
+      <c r="CB344" s="98"/>
+      <c r="CC344" s="98"/>
+      <c r="CD344" s="98"/>
+      <c r="CG344" s="9"/>
+    </row>
+    <row r="345" spans="78:85">
+      <c r="BZ345" s="4"/>
+      <c r="CA345" s="98" t="s">
+        <v>2143</v>
+      </c>
+      <c r="CB345" s="98"/>
+      <c r="CC345" s="98"/>
+      <c r="CD345" s="98"/>
+      <c r="CG345" s="9"/>
+    </row>
+    <row r="346" spans="78:85">
+      <c r="BZ346" s="4"/>
+      <c r="CA346" s="98" t="s">
+        <v>2144</v>
+      </c>
+      <c r="CB346" s="98"/>
+      <c r="CC346" s="98"/>
+      <c r="CD346" s="98"/>
+      <c r="CG346" s="9"/>
+    </row>
+    <row r="347" spans="78:85">
+      <c r="BZ347" s="4" t="s">
+        <v>2134</v>
+      </c>
+      <c r="CA347" s="98"/>
+      <c r="CB347" s="98"/>
+      <c r="CC347" s="98"/>
+      <c r="CD347" s="98"/>
+      <c r="CG347" s="9"/>
+    </row>
+    <row r="348" spans="78:85">
+      <c r="BZ348" s="4"/>
+      <c r="CA348" s="98"/>
+      <c r="CB348" s="98"/>
+      <c r="CC348" s="98"/>
+      <c r="CD348" s="98"/>
+      <c r="CG348" s="9"/>
+    </row>
+    <row r="349" spans="78:85">
+      <c r="BZ349" s="4" t="s">
+        <v>2145</v>
+      </c>
+      <c r="CA349" s="98"/>
+      <c r="CB349" s="98"/>
+      <c r="CC349" s="98"/>
+      <c r="CD349" s="98"/>
+      <c r="CG349" s="9"/>
+    </row>
+    <row r="350" spans="78:85">
+      <c r="BZ350" s="4" t="s">
+        <v>2146</v>
+      </c>
+      <c r="CA350" s="98"/>
+      <c r="CB350" s="98"/>
+      <c r="CC350" s="98"/>
+      <c r="CD350" s="98"/>
+      <c r="CG350" s="9"/>
+    </row>
+    <row r="351" spans="78:85">
+      <c r="BZ351" s="4" t="s">
+        <v>2147</v>
+      </c>
+      <c r="CA351" s="98"/>
+      <c r="CB351" s="98"/>
+      <c r="CC351" s="98"/>
+      <c r="CD351" s="98"/>
+      <c r="CG351" s="9"/>
+    </row>
+    <row r="352" spans="78:85">
+      <c r="BZ352" s="4"/>
+      <c r="CA352" s="98"/>
+      <c r="CB352" s="98"/>
+      <c r="CC352" s="98"/>
+      <c r="CD352" s="98"/>
+      <c r="CG352" s="9"/>
+    </row>
+    <row r="353" spans="78:85">
+      <c r="BZ353" s="4" t="s">
+        <v>2148</v>
+      </c>
+      <c r="CA353" s="98"/>
+      <c r="CB353" s="98"/>
+      <c r="CC353" s="98"/>
+      <c r="CD353" s="98"/>
+      <c r="CG353" s="9"/>
+    </row>
+    <row r="354" spans="78:85">
+      <c r="BZ354" s="97" t="s">
+        <v>2149</v>
+      </c>
+      <c r="CA354" s="98"/>
+      <c r="CB354" s="98"/>
+      <c r="CC354" s="98"/>
+      <c r="CD354" s="98"/>
+      <c r="CG354" s="9"/>
+    </row>
+    <row r="355" spans="78:85">
+      <c r="BZ355" s="4"/>
+      <c r="CA355" s="98"/>
+      <c r="CB355" s="98"/>
+      <c r="CC355" s="98"/>
+      <c r="CD355" s="98"/>
+      <c r="CG355" s="9"/>
+    </row>
+    <row r="356" spans="78:85">
+      <c r="BZ356" s="4" t="s">
+        <v>2150</v>
+      </c>
+      <c r="CA356" s="98"/>
+      <c r="CB356" s="98"/>
+      <c r="CC356" s="98"/>
+      <c r="CD356" s="98"/>
+      <c r="CG356" s="9"/>
+    </row>
+    <row r="357" spans="78:85">
+      <c r="BZ357" s="4" t="s">
+        <v>2151</v>
+      </c>
+      <c r="CA357" s="98"/>
+      <c r="CB357" s="98"/>
+      <c r="CC357" s="98"/>
+      <c r="CD357" s="98"/>
+      <c r="CG357" s="9"/>
+    </row>
+    <row r="358" spans="78:85">
+      <c r="BZ358" s="4" t="s">
+        <v>2152</v>
+      </c>
+      <c r="CA358" s="98"/>
+      <c r="CB358" s="98"/>
+      <c r="CC358" s="98"/>
+      <c r="CD358" s="98"/>
+      <c r="CG358" s="9"/>
+    </row>
+    <row r="359" spans="78:85">
+      <c r="BZ359" s="4"/>
+      <c r="CA359" s="98" t="s">
+        <v>2153</v>
+      </c>
+      <c r="CB359" s="98"/>
+      <c r="CC359" s="98"/>
+      <c r="CD359" s="98"/>
+      <c r="CG359" s="9"/>
+    </row>
+    <row r="360" spans="78:85">
+      <c r="BZ360" s="4"/>
+      <c r="CA360" s="98" t="s">
+        <v>2154</v>
+      </c>
+      <c r="CB360" s="98"/>
+      <c r="CC360" s="98"/>
+      <c r="CD360" s="98"/>
+      <c r="CG360" s="9"/>
+    </row>
+    <row r="361" spans="78:85">
+      <c r="BZ361" s="4" t="s">
+        <v>2087</v>
+      </c>
+      <c r="CA361" s="98"/>
+      <c r="CB361" s="98"/>
+      <c r="CC361" s="98"/>
+      <c r="CD361" s="98"/>
+      <c r="CG361" s="9"/>
+    </row>
+    <row r="362" spans="78:85">
+      <c r="BZ362" s="4"/>
+      <c r="CA362" s="98" t="s">
+        <v>2155</v>
+      </c>
+      <c r="CB362" s="98"/>
+      <c r="CC362" s="98"/>
+      <c r="CD362" s="98"/>
+      <c r="CG362" s="9"/>
+    </row>
+    <row r="363" spans="78:85">
+      <c r="BZ363" s="4"/>
+      <c r="CA363" s="98" t="s">
+        <v>2156</v>
+      </c>
+      <c r="CB363" s="98"/>
+      <c r="CC363" s="98"/>
+      <c r="CD363" s="98"/>
+      <c r="CG363" s="9"/>
+    </row>
+    <row r="364" spans="78:85">
+      <c r="BZ364" s="4" t="s">
+        <v>2157</v>
+      </c>
+      <c r="CA364" s="98"/>
+      <c r="CB364" s="98"/>
+      <c r="CC364" s="98"/>
+      <c r="CD364" s="98"/>
+      <c r="CG364" s="9"/>
+    </row>
+    <row r="365" spans="78:85">
+      <c r="BZ365" s="4"/>
+      <c r="CA365" s="98"/>
+      <c r="CB365" s="98"/>
+      <c r="CC365" s="98"/>
+      <c r="CD365" s="98"/>
+      <c r="CG365" s="9"/>
+    </row>
+    <row r="366" spans="78:85">
+      <c r="BZ366" s="97" t="s">
+        <v>2158</v>
+      </c>
+      <c r="CA366" s="98"/>
+      <c r="CB366" s="98"/>
+      <c r="CC366" s="98"/>
+      <c r="CD366" s="98"/>
+      <c r="CG366" s="9"/>
+    </row>
+    <row r="367" spans="78:85">
+      <c r="BZ367" s="97" t="s">
+        <v>2159</v>
+      </c>
+      <c r="CA367" s="98"/>
+      <c r="CB367" s="98"/>
+      <c r="CC367" s="98"/>
+      <c r="CD367" s="98"/>
+      <c r="CG367" s="9"/>
+    </row>
+    <row r="368" spans="78:85">
+      <c r="BZ368" s="4"/>
+      <c r="CA368" s="98"/>
+      <c r="CB368" s="98"/>
+      <c r="CC368" s="98"/>
+      <c r="CD368" s="98"/>
+      <c r="CG368" s="9"/>
+    </row>
+    <row r="369" spans="78:85">
+      <c r="BZ369" s="4" t="s">
+        <v>2160</v>
+      </c>
+      <c r="CA369" s="98"/>
+      <c r="CB369" s="98"/>
+      <c r="CC369" s="98"/>
+      <c r="CD369" s="98"/>
+      <c r="CG369" s="9"/>
+    </row>
+    <row r="370" spans="78:85">
+      <c r="BZ370" s="4" t="s">
+        <v>2161</v>
+      </c>
+      <c r="CA370" s="98"/>
+      <c r="CB370" s="98"/>
+      <c r="CC370" s="98"/>
+      <c r="CD370" s="98"/>
+      <c r="CG370" s="9"/>
+    </row>
+    <row r="371" spans="78:85">
+      <c r="BZ371" s="4" t="s">
+        <v>2162</v>
+      </c>
+      <c r="CA371" s="98"/>
+      <c r="CB371" s="98"/>
+      <c r="CC371" s="98"/>
+      <c r="CD371" s="98"/>
+      <c r="CG371" s="9"/>
+    </row>
+    <row r="372" spans="78:85">
+      <c r="BZ372" s="4"/>
+      <c r="CA372" s="98"/>
+      <c r="CB372" s="98"/>
+      <c r="CC372" s="98"/>
+      <c r="CD372" s="98"/>
+      <c r="CG372" s="9"/>
+    </row>
+    <row r="373" spans="78:85">
+      <c r="BZ373" s="4"/>
+      <c r="CA373" s="98" t="s">
+        <v>2163</v>
+      </c>
+      <c r="CB373" s="98"/>
+      <c r="CC373" s="98"/>
+      <c r="CD373" s="98"/>
+      <c r="CG373" s="9"/>
+    </row>
+    <row r="374" spans="78:85">
+      <c r="BZ374" s="4"/>
+      <c r="CA374" s="98" t="s">
+        <v>2164</v>
+      </c>
+      <c r="CB374" s="98"/>
+      <c r="CC374" s="98"/>
+      <c r="CD374" s="98"/>
+      <c r="CG374" s="9"/>
+    </row>
+    <row r="375" spans="78:85">
+      <c r="BZ375" s="4"/>
+      <c r="CA375" s="98" t="s">
+        <v>2165</v>
+      </c>
+      <c r="CB375" s="98"/>
+      <c r="CC375" s="98"/>
+      <c r="CD375" s="98"/>
+      <c r="CG375" s="9"/>
+    </row>
+    <row r="376" spans="78:85">
+      <c r="BZ376" s="4"/>
+      <c r="CA376" s="98" t="s">
+        <v>2166</v>
+      </c>
+      <c r="CB376" s="98"/>
+      <c r="CC376" s="98"/>
+      <c r="CD376" s="98"/>
+      <c r="CG376" s="9"/>
+    </row>
+    <row r="377" spans="78:85">
+      <c r="BZ377" s="4"/>
+      <c r="CA377" s="98" t="s">
+        <v>2167</v>
+      </c>
+      <c r="CB377" s="98"/>
+      <c r="CC377" s="98"/>
+      <c r="CD377" s="98"/>
+      <c r="CG377" s="9"/>
+    </row>
+    <row r="378" spans="78:85">
+      <c r="BZ378" s="4"/>
+      <c r="CA378" s="98" t="s">
+        <v>2168</v>
+      </c>
+      <c r="CB378" s="98"/>
+      <c r="CC378" s="98"/>
+      <c r="CD378" s="98"/>
+      <c r="CG378" s="9"/>
+    </row>
+    <row r="379" spans="78:85">
+      <c r="BZ379" s="4"/>
+      <c r="CA379" s="98" t="s">
+        <v>2169</v>
+      </c>
+      <c r="CB379" s="98"/>
+      <c r="CC379" s="98"/>
+      <c r="CD379" s="98"/>
+      <c r="CG379" s="9"/>
+    </row>
+    <row r="380" spans="78:85">
+      <c r="BZ380" s="4"/>
+      <c r="CA380" s="98" t="s">
+        <v>2170</v>
+      </c>
+      <c r="CB380" s="98"/>
+      <c r="CC380" s="98"/>
+      <c r="CD380" s="98"/>
+      <c r="CG380" s="9"/>
+    </row>
+    <row r="381" spans="78:85">
+      <c r="BZ381" s="4"/>
+      <c r="CA381" s="98" t="s">
+        <v>2171</v>
+      </c>
+      <c r="CB381" s="98"/>
+      <c r="CC381" s="98"/>
+      <c r="CD381" s="98"/>
+      <c r="CG381" s="9"/>
+    </row>
+    <row r="382" spans="78:85">
+      <c r="BZ382" s="4"/>
+      <c r="CA382" s="98" t="s">
+        <v>2172</v>
+      </c>
+      <c r="CB382" s="98"/>
+      <c r="CC382" s="98"/>
+      <c r="CD382" s="98"/>
+      <c r="CG382" s="9"/>
+    </row>
+    <row r="383" spans="78:85">
+      <c r="BZ383" s="4"/>
+      <c r="CA383" s="98" t="s">
+        <v>2173</v>
+      </c>
+      <c r="CB383" s="98"/>
+      <c r="CC383" s="98"/>
+      <c r="CD383" s="98"/>
+      <c r="CG383" s="9"/>
+    </row>
+    <row r="384" spans="78:85">
+      <c r="BZ384" s="4"/>
+      <c r="CA384" s="98" t="s">
+        <v>2174</v>
+      </c>
+      <c r="CB384" s="98"/>
+      <c r="CC384" s="98"/>
+      <c r="CD384" s="98"/>
+      <c r="CG384" s="9"/>
+    </row>
+    <row r="385" spans="78:85">
+      <c r="BZ385" s="4"/>
+      <c r="CA385" s="98" t="s">
+        <v>2175</v>
+      </c>
+      <c r="CB385" s="98"/>
+      <c r="CC385" s="98"/>
+      <c r="CD385" s="98"/>
+      <c r="CG385" s="9"/>
+    </row>
+    <row r="386" spans="78:85">
+      <c r="BZ386" s="4"/>
+      <c r="CA386" s="98" t="s">
+        <v>2176</v>
+      </c>
+      <c r="CB386" s="98"/>
+      <c r="CC386" s="98"/>
+      <c r="CD386" s="98"/>
+      <c r="CG386" s="9"/>
+    </row>
+    <row r="387" spans="78:85">
+      <c r="BZ387" s="4"/>
+      <c r="CA387" s="98" t="s">
+        <v>2177</v>
+      </c>
+      <c r="CB387" s="98"/>
+      <c r="CC387" s="98"/>
+      <c r="CD387" s="98"/>
+      <c r="CG387" s="9"/>
+    </row>
+    <row r="388" spans="78:85">
+      <c r="BZ388" s="4"/>
+      <c r="CA388" s="98" t="s">
+        <v>1989</v>
+      </c>
+      <c r="CB388" s="98"/>
+      <c r="CC388" s="98"/>
+      <c r="CD388" s="98"/>
+      <c r="CG388" s="9"/>
+    </row>
+    <row r="389" spans="78:85">
+      <c r="BZ389" s="4"/>
+      <c r="CA389" s="98" t="s">
+        <v>2178</v>
+      </c>
+      <c r="CB389" s="98"/>
+      <c r="CC389" s="98"/>
+      <c r="CD389" s="98"/>
+      <c r="CG389" s="9"/>
+    </row>
+    <row r="390" spans="78:85">
+      <c r="BZ390" s="4"/>
+      <c r="CA390" s="98" t="s">
+        <v>2179</v>
+      </c>
+      <c r="CB390" s="98"/>
+      <c r="CC390" s="98"/>
+      <c r="CD390" s="98"/>
+      <c r="CG390" s="9"/>
+    </row>
+    <row r="391" spans="78:85">
+      <c r="BZ391" s="4"/>
+      <c r="CA391" s="98"/>
+      <c r="CB391" s="98"/>
+      <c r="CC391" s="98"/>
+      <c r="CD391" s="98"/>
+      <c r="CG391" s="9"/>
+    </row>
+    <row r="392" spans="78:85">
+      <c r="BZ392" s="4"/>
+      <c r="CA392" s="98" t="s">
+        <v>2180</v>
+      </c>
+      <c r="CB392" s="98"/>
+      <c r="CC392" s="98"/>
+      <c r="CD392" s="98"/>
+      <c r="CG392" s="9"/>
+    </row>
+    <row r="393" spans="78:85">
+      <c r="BZ393" s="4"/>
+      <c r="CA393" s="98" t="s">
+        <v>2181</v>
+      </c>
+      <c r="CB393" s="98"/>
+      <c r="CC393" s="98"/>
+      <c r="CD393" s="98"/>
+      <c r="CG393" s="9"/>
+    </row>
+    <row r="394" spans="78:85">
+      <c r="BZ394" s="4"/>
+      <c r="CA394" s="98"/>
+      <c r="CB394" s="98"/>
+      <c r="CC394" s="98"/>
+      <c r="CD394" s="98"/>
+      <c r="CG394" s="9"/>
+    </row>
+    <row r="395" spans="78:85">
+      <c r="BZ395" s="4"/>
+      <c r="CA395" s="98" t="s">
+        <v>2182</v>
+      </c>
+      <c r="CB395" s="98"/>
+      <c r="CC395" s="98"/>
+      <c r="CD395" s="98"/>
+      <c r="CG395" s="9"/>
+    </row>
+    <row r="396" spans="78:85">
+      <c r="BZ396" s="4"/>
+      <c r="CA396" s="98" t="s">
+        <v>2183</v>
+      </c>
+      <c r="CB396" s="98"/>
+      <c r="CC396" s="98"/>
+      <c r="CD396" s="98"/>
+      <c r="CG396" s="9"/>
+    </row>
+    <row r="397" spans="78:85">
+      <c r="BZ397" s="4"/>
+      <c r="CA397" s="98" t="s">
+        <v>2184</v>
+      </c>
+      <c r="CB397" s="98"/>
+      <c r="CC397" s="98"/>
+      <c r="CD397" s="98"/>
+      <c r="CG397" s="9"/>
+    </row>
+    <row r="398" spans="78:85">
+      <c r="BZ398" s="4"/>
+      <c r="CA398" s="98"/>
+      <c r="CB398" s="98"/>
+      <c r="CC398" s="98"/>
+      <c r="CD398" s="98"/>
+      <c r="CG398" s="9"/>
+    </row>
+    <row r="399" spans="78:85">
+      <c r="BZ399" s="4"/>
+      <c r="CA399" s="98" t="s">
+        <v>2185</v>
+      </c>
+      <c r="CB399" s="98"/>
+      <c r="CC399" s="98"/>
+      <c r="CD399" s="98"/>
+      <c r="CG399" s="9"/>
+    </row>
+    <row r="400" spans="78:85">
+      <c r="BZ400" s="4"/>
+      <c r="CA400" s="98" t="s">
+        <v>2186</v>
+      </c>
+      <c r="CB400" s="98"/>
+      <c r="CC400" s="98"/>
+      <c r="CD400" s="98"/>
+      <c r="CG400" s="9"/>
+    </row>
+    <row r="401" spans="78:85">
+      <c r="BZ401" s="4"/>
+      <c r="CA401" s="98" t="s">
+        <v>2187</v>
+      </c>
+      <c r="CB401" s="98"/>
+      <c r="CC401" s="98"/>
+      <c r="CD401" s="98"/>
+      <c r="CG401" s="9"/>
+    </row>
+    <row r="402" spans="78:85">
+      <c r="BZ402" s="4"/>
+      <c r="CA402" s="98"/>
+      <c r="CB402" s="98"/>
+      <c r="CC402" s="98"/>
+      <c r="CD402" s="98"/>
+      <c r="CG402" s="9"/>
+    </row>
+    <row r="403" spans="78:85">
+      <c r="BZ403" s="4"/>
+      <c r="CA403" s="98" t="s">
+        <v>2188</v>
+      </c>
+      <c r="CB403" s="98"/>
+      <c r="CC403" s="98"/>
+      <c r="CD403" s="98"/>
+      <c r="CG403" s="9"/>
+    </row>
+    <row r="404" spans="78:85">
+      <c r="BZ404" s="4"/>
+      <c r="CA404" s="98" t="s">
+        <v>2189</v>
+      </c>
+      <c r="CB404" s="98"/>
+      <c r="CC404" s="98"/>
+      <c r="CD404" s="98"/>
+      <c r="CG404" s="9"/>
+    </row>
+    <row r="405" spans="78:85">
+      <c r="BZ405" s="4"/>
+      <c r="CA405" s="98"/>
+      <c r="CB405" s="98" t="s">
+        <v>2190</v>
+      </c>
+      <c r="CC405" s="98"/>
+      <c r="CD405" s="98"/>
+      <c r="CG405" s="9"/>
+    </row>
+    <row r="406" spans="78:85">
+      <c r="BZ406" s="4"/>
+      <c r="CA406" s="98"/>
+      <c r="CB406" s="98" t="s">
+        <v>2191</v>
+      </c>
+      <c r="CC406" s="98"/>
+      <c r="CD406" s="98"/>
+      <c r="CG406" s="9"/>
+    </row>
+    <row r="407" spans="78:85">
+      <c r="BZ407" s="4"/>
+      <c r="CA407" s="98"/>
+      <c r="CB407" s="98"/>
+      <c r="CC407" s="98"/>
+      <c r="CD407" s="98"/>
+      <c r="CG407" s="9"/>
+    </row>
+    <row r="408" spans="78:85">
+      <c r="BZ408" s="4"/>
+      <c r="CA408" s="98"/>
+      <c r="CB408" s="98" t="s">
+        <v>2192</v>
+      </c>
+      <c r="CC408" s="98"/>
+      <c r="CD408" s="98"/>
+      <c r="CG408" s="9"/>
+    </row>
+    <row r="409" spans="78:85">
+      <c r="BZ409" s="4"/>
+      <c r="CA409" s="98"/>
+      <c r="CB409" s="98"/>
+      <c r="CC409" s="98"/>
+      <c r="CD409" s="98"/>
+      <c r="CG409" s="9"/>
+    </row>
+    <row r="410" spans="78:85">
+      <c r="BZ410" s="4"/>
+      <c r="CA410" s="98"/>
+      <c r="CB410" s="98" t="s">
+        <v>2193</v>
+      </c>
+      <c r="CC410" s="98"/>
+      <c r="CD410" s="98"/>
+      <c r="CG410" s="9"/>
+    </row>
+    <row r="411" spans="78:85">
+      <c r="BZ411" s="4"/>
+      <c r="CA411" s="98" t="s">
+        <v>2053</v>
+      </c>
+      <c r="CB411" s="98"/>
+      <c r="CC411" s="98"/>
+      <c r="CD411" s="98"/>
+      <c r="CG411" s="9"/>
+    </row>
+    <row r="412" spans="78:85">
+      <c r="BZ412" s="4" t="s">
+        <v>2053</v>
+      </c>
+      <c r="CA412" s="98"/>
+      <c r="CB412" s="98"/>
+      <c r="CC412" s="98"/>
+      <c r="CD412" s="98"/>
+      <c r="CG412" s="9"/>
+    </row>
+    <row r="413" spans="78:85">
+      <c r="BZ413" s="4"/>
+      <c r="CA413" s="98"/>
+      <c r="CB413" s="98"/>
+      <c r="CC413" s="98"/>
+      <c r="CD413" s="98"/>
+      <c r="CG413" s="9"/>
+    </row>
+    <row r="414" spans="78:85">
+      <c r="BZ414" s="97" t="s">
+        <v>2194</v>
+      </c>
+      <c r="CA414" s="98"/>
+      <c r="CB414" s="98"/>
+      <c r="CC414" s="98"/>
+      <c r="CD414" s="98"/>
+      <c r="CG414" s="9"/>
+    </row>
+    <row r="415" spans="78:85">
+      <c r="BZ415" s="97" t="s">
+        <v>2195</v>
+      </c>
+      <c r="CA415" s="98"/>
+      <c r="CB415" s="98"/>
+      <c r="CC415" s="98"/>
+      <c r="CD415" s="98"/>
+      <c r="CG415" s="9"/>
+    </row>
+    <row r="416" spans="78:85">
+      <c r="BZ416" s="4"/>
+      <c r="CA416" s="98"/>
+      <c r="CB416" s="98"/>
+      <c r="CC416" s="98"/>
+      <c r="CD416" s="98"/>
+      <c r="CG416" s="9"/>
+    </row>
+    <row r="417" spans="78:85">
+      <c r="BZ417" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="CA417" s="98"/>
+      <c r="CB417" s="98"/>
+      <c r="CC417" s="98"/>
+      <c r="CD417" s="98"/>
+      <c r="CG417" s="9"/>
+    </row>
+    <row r="418" spans="78:85">
+      <c r="BZ418" s="4"/>
+      <c r="CA418" s="98" t="s">
+        <v>2197</v>
+      </c>
+      <c r="CB418" s="98"/>
+      <c r="CC418" s="98"/>
+      <c r="CD418" s="98"/>
+      <c r="CG418" s="9"/>
+    </row>
+    <row r="419" spans="78:85">
+      <c r="BZ419" s="4"/>
+      <c r="CA419" s="98" t="s">
+        <v>2198</v>
+      </c>
+      <c r="CB419" s="98"/>
+      <c r="CC419" s="98"/>
+      <c r="CD419" s="98"/>
+      <c r="CG419" s="9"/>
+    </row>
+    <row r="420" spans="78:85">
+      <c r="BZ420" s="4" t="s">
+        <v>2053</v>
+      </c>
+      <c r="CA420" s="98"/>
+      <c r="CB420" s="98"/>
+      <c r="CC420" s="98"/>
+      <c r="CD420" s="98"/>
+      <c r="CG420" s="9"/>
+    </row>
+    <row r="421" spans="78:85">
+      <c r="BZ421" s="4"/>
+      <c r="CA421" s="98"/>
+      <c r="CB421" s="98"/>
+      <c r="CC421" s="98"/>
+      <c r="CD421" s="98"/>
+      <c r="CG421" s="9"/>
+    </row>
+    <row r="422" spans="78:85">
+      <c r="BZ422" s="4" t="s">
+        <v>2199</v>
+      </c>
+      <c r="CA422" s="98"/>
+      <c r="CB422" s="98"/>
+      <c r="CC422" s="98"/>
+      <c r="CD422" s="98"/>
+      <c r="CG422" s="9"/>
+    </row>
+    <row r="423" spans="78:85">
+      <c r="BZ423" s="4" t="s">
+        <v>2200</v>
+      </c>
+      <c r="CA423" s="98"/>
+      <c r="CB423" s="98"/>
+      <c r="CC423" s="98"/>
+      <c r="CD423" s="98"/>
+      <c r="CG423" s="9"/>
+    </row>
+    <row r="424" spans="78:85">
+      <c r="BZ424" s="4"/>
+      <c r="CA424" s="98"/>
+      <c r="CB424" s="98"/>
+      <c r="CC424" s="98"/>
+      <c r="CD424" s="98"/>
+      <c r="CG424" s="9"/>
+    </row>
+    <row r="425" spans="78:85">
+      <c r="BZ425" s="4" t="s">
+        <v>2201</v>
+      </c>
+      <c r="CA425" s="98"/>
+      <c r="CB425" s="98"/>
+      <c r="CC425" s="98"/>
+      <c r="CD425" s="98"/>
+      <c r="CG425" s="9"/>
+    </row>
+    <row r="426" spans="78:85">
+      <c r="BZ426" s="4" t="s">
+        <v>2162</v>
+      </c>
+      <c r="CA426" s="98"/>
+      <c r="CB426" s="98"/>
+      <c r="CC426" s="98"/>
+      <c r="CD426" s="98"/>
+      <c r="CG426" s="9"/>
+    </row>
+    <row r="427" spans="78:85">
+      <c r="BZ427" s="4"/>
+      <c r="CA427" s="98" t="s">
+        <v>2202</v>
+      </c>
+      <c r="CB427" s="98"/>
+      <c r="CC427" s="98"/>
+      <c r="CD427" s="98"/>
+      <c r="CG427" s="9"/>
+    </row>
+    <row r="428" spans="78:85">
+      <c r="BZ428" s="4"/>
+      <c r="CA428" s="98"/>
+      <c r="CB428" s="98"/>
+      <c r="CC428" s="98"/>
+      <c r="CD428" s="98"/>
+      <c r="CG428" s="9"/>
+    </row>
+    <row r="429" spans="78:85">
+      <c r="BZ429" s="4"/>
+      <c r="CA429" s="98" t="s">
+        <v>2203</v>
+      </c>
+      <c r="CB429" s="98"/>
+      <c r="CC429" s="98"/>
+      <c r="CD429" s="98"/>
+      <c r="CG429" s="9"/>
+    </row>
+    <row r="430" spans="78:85">
+      <c r="BZ430" s="4"/>
+      <c r="CA430" s="98"/>
+      <c r="CB430" s="98" t="s">
+        <v>2204</v>
+      </c>
+      <c r="CC430" s="98"/>
+      <c r="CD430" s="98"/>
+      <c r="CG430" s="9"/>
+    </row>
+    <row r="431" spans="78:85">
+      <c r="BZ431" s="4"/>
+      <c r="CA431" s="98"/>
+      <c r="CB431" s="98" t="s">
+        <v>2205</v>
+      </c>
+      <c r="CC431" s="98"/>
+      <c r="CD431" s="98"/>
+      <c r="CG431" s="9"/>
+    </row>
+    <row r="432" spans="78:85">
+      <c r="BZ432" s="4"/>
+      <c r="CA432" s="98"/>
+      <c r="CB432" s="98" t="s">
+        <v>2136</v>
+      </c>
+      <c r="CC432" s="98"/>
+      <c r="CD432" s="98"/>
+      <c r="CG432" s="9"/>
+    </row>
+    <row r="433" spans="78:85">
+      <c r="BZ433" s="4"/>
+      <c r="CA433" s="98"/>
+      <c r="CB433" s="98" t="s">
+        <v>2206</v>
+      </c>
+      <c r="CC433" s="98"/>
+      <c r="CD433" s="98"/>
+      <c r="CG433" s="9"/>
+    </row>
+    <row r="434" spans="78:85">
+      <c r="BZ434" s="4"/>
+      <c r="CA434" s="98" t="s">
+        <v>2053</v>
+      </c>
+      <c r="CB434" s="98"/>
+      <c r="CC434" s="98"/>
+      <c r="CD434" s="98"/>
+      <c r="CG434" s="9"/>
+    </row>
+    <row r="435" spans="78:85">
+      <c r="BZ435" s="4" t="s">
+        <v>2053</v>
+      </c>
+      <c r="CA435" s="98"/>
+      <c r="CB435" s="98"/>
+      <c r="CC435" s="98"/>
+      <c r="CD435" s="98"/>
+      <c r="CG435" s="9"/>
+    </row>
+    <row r="436" spans="78:85">
+      <c r="BZ436" s="4"/>
+      <c r="CA436" s="98"/>
+      <c r="CB436" s="98"/>
+      <c r="CC436" s="98"/>
+      <c r="CD436" s="98"/>
+      <c r="CG436" s="9"/>
+    </row>
+    <row r="437" spans="78:85">
+      <c r="BZ437" s="4" t="s">
+        <v>2207</v>
+      </c>
+      <c r="CA437" s="98"/>
+      <c r="CB437" s="98"/>
+      <c r="CC437" s="98"/>
+      <c r="CD437" s="98"/>
+      <c r="CG437" s="9"/>
+    </row>
+    <row r="438" spans="78:85">
+      <c r="BZ438" s="4" t="s">
+        <v>2121</v>
+      </c>
+      <c r="CA438" s="98"/>
+      <c r="CB438" s="98"/>
+      <c r="CC438" s="98"/>
+      <c r="CD438" s="98"/>
+      <c r="CG438" s="9"/>
+    </row>
+    <row r="439" spans="78:85">
+      <c r="BZ439" s="5"/>
+      <c r="CG439" s="9"/>
+    </row>
+    <row r="440" spans="78:85">
+      <c r="BZ440" s="5"/>
+      <c r="CG440" s="9"/>
+    </row>
+    <row r="441" ht="16.5" spans="78:85">
+      <c r="BZ441" s="6"/>
+      <c r="CA441" s="7"/>
+      <c r="CB441" s="7"/>
+      <c r="CC441" s="7"/>
+      <c r="CD441" s="7"/>
+      <c r="CE441" s="7"/>
+      <c r="CF441" s="7"/>
+      <c r="CG441" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -29878,7 +37692,7 @@
   <sheetData>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>1938</v>
+        <v>2208</v>
       </c>
     </row>
   </sheetData>
@@ -29905,47 +37719,47 @@
     </row>
     <row r="11" spans="5:5">
       <c r="E11" t="s">
-        <v>1939</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" t="s">
-        <v>1940</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="15" spans="5:5">
       <c r="E15" t="s">
-        <v>1941</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>1942</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" t="s">
-        <v>1943</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="21" ht="20.25" spans="5:5">
       <c r="E21" s="12" t="s">
-        <v>1944</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="22" ht="21" spans="5:5">
       <c r="E22" s="13" t="s">
-        <v>1945</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="5:5">
       <c r="E23" s="14" t="s">
-        <v>1946</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="5:5">
       <c r="E24" s="15" t="s">
-        <v>1947</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="5:5">
@@ -29953,72 +37767,72 @@
     </row>
     <row r="26" ht="21.75" spans="5:5">
       <c r="E26" s="16" t="s">
-        <v>1948</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="5:5">
       <c r="E27" s="17" t="s">
-        <v>1949</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="5:5">
       <c r="E28" s="17" t="s">
-        <v>1950</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="5:5">
       <c r="E29" s="17" t="s">
-        <v>1951</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="5:5">
       <c r="E30" s="17" t="s">
-        <v>1952</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="5:5">
       <c r="E31" s="17" t="s">
-        <v>1953</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="32" ht="17.25" spans="5:5">
       <c r="E32" s="18" t="s">
-        <v>1954</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="5:5">
       <c r="E33" s="19" t="s">
-        <v>1955</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="5:5">
       <c r="E34" s="19" t="s">
-        <v>1956</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="19" t="s">
-        <v>1957</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="36" ht="20.25" spans="5:5">
       <c r="E36" s="13" t="s">
-        <v>1958</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="37" ht="17.25" spans="5:5">
       <c r="E37" s="14" t="s">
-        <v>1959</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="5:5">
       <c r="E38" s="17" t="s">
-        <v>1960</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="5:5">
       <c r="E39" s="15" t="s">
-        <v>1961</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="41" spans="5:5">
@@ -30026,17 +37840,17 @@
     </row>
     <row r="42" ht="17.25" spans="5:5">
       <c r="E42" s="15" t="s">
-        <v>1962</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="43" ht="20.25" spans="5:5">
       <c r="E43" s="13" t="s">
-        <v>1963</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="5:5">
       <c r="E44" s="17" t="s">
-        <v>1964</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="45" spans="5:5">
@@ -30071,152 +37885,152 @@
     </row>
     <row r="55" ht="17.25" spans="5:5">
       <c r="E55" s="15" t="s">
-        <v>1965</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="5:5">
       <c r="E56" s="15" t="s">
-        <v>1966</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="77" ht="17.25" spans="5:5">
       <c r="E77" s="15" t="s">
-        <v>1967</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="78" ht="17.25" spans="5:5">
       <c r="E78" s="17" t="s">
-        <v>1968</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="79" ht="17.25" spans="5:5">
       <c r="E79" s="17" t="s">
-        <v>1969</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="80" ht="17.25" spans="5:5">
       <c r="E80" s="15" t="s">
-        <v>1970</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="81" ht="17.25" spans="5:5">
       <c r="E81" s="17" t="s">
-        <v>1971</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="82" ht="17.25" spans="5:5">
       <c r="E82" s="15" t="s">
-        <v>1972</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="83" ht="17.25" spans="5:5">
       <c r="E83" s="17" t="s">
-        <v>1973</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="84" ht="17.25" spans="5:5">
       <c r="E84" s="15" t="s">
-        <v>1974</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="85" ht="17.25" spans="5:5">
       <c r="E85" s="17" t="s">
-        <v>1975</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="86" ht="17.25" spans="5:5">
       <c r="E86" s="17" t="s">
-        <v>1976</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="87" ht="20.25" spans="5:5">
       <c r="E87" s="13" t="s">
-        <v>1977</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="88" ht="17.25" spans="5:5">
       <c r="E88" s="17" t="s">
-        <v>1978</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="89" ht="17.25" spans="5:5">
       <c r="E89" s="15" t="s">
-        <v>1979</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="90" ht="21" spans="5:5">
       <c r="E90" s="13" t="s">
-        <v>1980</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="91" ht="17.25" spans="5:5">
       <c r="E91" s="17" t="s">
-        <v>1981</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="92" ht="17.25" spans="5:5">
       <c r="E92" s="17" t="s">
-        <v>1982</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="93" ht="20.25" spans="5:5">
       <c r="E93" s="13" t="s">
-        <v>1983</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="94" ht="17.25" spans="5:5">
       <c r="E94" s="17" t="s">
-        <v>1984</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="95" ht="20.25" spans="5:5">
       <c r="E95" s="13" t="s">
-        <v>1985</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="96" ht="17.25" spans="5:5">
       <c r="E96" s="17" t="s">
-        <v>1986</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="97" ht="20.25" spans="5:5">
       <c r="E97" s="13" t="s">
-        <v>1987</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="98" ht="17.25" spans="5:5">
       <c r="E98" s="17" t="s">
-        <v>1988</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="99" ht="20.25" spans="5:5">
       <c r="E99" s="13" t="s">
-        <v>1989</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="100" ht="17.25" spans="5:5">
       <c r="E100" s="17" t="s">
-        <v>1990</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="101" ht="20.25" spans="5:5">
       <c r="E101" s="13" t="s">
-        <v>1991</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="102" ht="17.25" spans="5:5">
       <c r="E102" s="17" t="s">
-        <v>1992</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="103" ht="20.25" spans="5:5">
       <c r="E103" s="13" t="s">
-        <v>1993</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="104" ht="17.25" spans="5:5">
       <c r="E104" s="17" t="s">
-        <v>1994</v>
+        <v>2264</v>
       </c>
     </row>
   </sheetData>
@@ -30239,92 +38053,92 @@
   <sheetData>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>1995</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>1996</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>1997</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" t="s">
-        <v>1998</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>1999</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="7" spans="5:5">
       <c r="E7" t="s">
-        <v>2000</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>2001</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="9" spans="5:5">
       <c r="E9" t="s">
-        <v>2002</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>2003</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>2004</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>2005</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>2006</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>2007</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>2008</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>2009</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>2010</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>2011</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>2012</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="22" spans="14:18">
@@ -30336,16 +38150,16 @@
     </row>
     <row r="23" spans="4:18">
       <c r="D23" t="s">
-        <v>2013</v>
+        <v>2283</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>2014</v>
+        <v>2284</v>
       </c>
       <c r="R23" s="9"/>
     </row>
     <row r="24" spans="4:18">
       <c r="D24" t="s">
-        <v>2015</v>
+        <v>2285</v>
       </c>
       <c r="N24" s="4">
         <v>3</v>
@@ -30354,7 +38168,7 @@
     </row>
     <row r="25" spans="4:18">
       <c r="D25" t="s">
-        <v>2016</v>
+        <v>2286</v>
       </c>
       <c r="N25" s="4">
         <v>4</v>
@@ -30363,16 +38177,16 @@
     </row>
     <row r="26" spans="4:18">
       <c r="D26" t="s">
-        <v>2017</v>
+        <v>2287</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>2018</v>
+        <v>2288</v>
       </c>
       <c r="R26" s="9"/>
     </row>
     <row r="27" spans="4:18">
       <c r="D27" t="s">
-        <v>2019</v>
+        <v>2289</v>
       </c>
       <c r="N27" s="4">
         <v>6</v>
@@ -30381,7 +38195,7 @@
     </row>
     <row r="28" spans="4:18">
       <c r="D28" t="s">
-        <v>2020</v>
+        <v>2290</v>
       </c>
       <c r="N28" s="4">
         <v>7</v>
@@ -30390,53 +38204,53 @@
     </row>
     <row r="29" spans="4:18">
       <c r="D29" t="s">
-        <v>2021</v>
+        <v>2291</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>2022</v>
+        <v>2292</v>
       </c>
       <c r="R29" s="9"/>
     </row>
     <row r="30" spans="4:18">
       <c r="D30" t="s">
-        <v>2023</v>
+        <v>2293</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>2024</v>
+        <v>2294</v>
       </c>
       <c r="R30" s="9"/>
     </row>
     <row r="31" spans="4:18">
       <c r="D31" t="s">
-        <v>2025</v>
+        <v>2295</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>2026</v>
+        <v>2296</v>
       </c>
       <c r="R31" s="9"/>
     </row>
     <row r="32" spans="4:18">
       <c r="D32" t="s">
-        <v>2027</v>
+        <v>2297</v>
       </c>
       <c r="N32" s="5"/>
       <c r="R32" s="9"/>
     </row>
     <row r="33" spans="4:18">
       <c r="D33" t="s">
-        <v>2028</v>
+        <v>2298</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>2029</v>
+        <v>2299</v>
       </c>
       <c r="R33" s="9"/>
     </row>
     <row r="34" spans="4:18">
       <c r="D34" t="s">
-        <v>2030</v>
+        <v>2300</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>2031</v>
+        <v>2301</v>
       </c>
       <c r="R34" s="9"/>
     </row>
@@ -30449,595 +38263,595 @@
     </row>
     <row r="37" spans="4:4">
       <c r="D37" t="s">
-        <v>2032</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" t="s">
-        <v>2033</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>2034</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>2035</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="41" spans="4:10">
       <c r="D41" s="1" t="s">
-        <v>2036</v>
+        <v>2306</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>2037</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" t="s">
-        <v>2038</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" s="1" t="s">
-        <v>2039</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" s="1" t="s">
-        <v>2040</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" t="s">
-        <v>2041</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>2042</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
-        <v>2043</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>2044</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="1" t="s">
-        <v>2045</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" t="s">
-        <v>2046</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" t="s">
-        <v>2047</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" t="s">
-        <v>2048</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" t="s">
-        <v>2049</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" t="s">
-        <v>2050</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" t="s">
-        <v>2051</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" t="s">
-        <v>2052</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" t="s">
-        <v>2053</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" s="1" t="s">
-        <v>2054</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61" s="1" t="s">
-        <v>2055</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" s="1" t="s">
-        <v>2056</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" t="s">
-        <v>2057</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" t="s">
-        <v>2058</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" t="s">
-        <v>2059</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" t="s">
-        <v>2060</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69" t="s">
-        <v>2061</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70" t="s">
-        <v>2062</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72" s="1" t="s">
-        <v>2063</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" t="s">
-        <v>2064</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" t="s">
-        <v>2065</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" t="s">
-        <v>2066</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="76" spans="4:4">
       <c r="D76" s="1" t="s">
-        <v>2067</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="1" t="s">
-        <v>2068</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78" t="s">
-        <v>2069</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="79" spans="4:4">
       <c r="D79" t="s">
-        <v>2070</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" t="s">
-        <v>2071</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="81" spans="4:4">
       <c r="D81" t="s">
-        <v>2072</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" t="s">
-        <v>2073</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" t="s">
-        <v>2074</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" t="s">
-        <v>2075</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="86" spans="4:4">
       <c r="D86" t="s">
-        <v>2076</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87" t="s">
-        <v>2077</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="88" spans="4:4">
       <c r="D88" t="s">
-        <v>2078</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="89" spans="4:4">
       <c r="D89" t="s">
-        <v>2079</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="91" spans="4:4">
       <c r="D91" t="s">
-        <v>2080</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="92" spans="4:4">
       <c r="D92" t="s">
-        <v>2081</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="93" spans="4:4">
       <c r="D93" t="s">
-        <v>2082</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="94" spans="4:4">
       <c r="D94" t="s">
-        <v>2083</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="95" spans="4:4">
       <c r="D95" t="s">
-        <v>2084</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="96" spans="4:4">
       <c r="D96" t="s">
-        <v>2085</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="97" spans="4:4">
       <c r="D97" t="s">
-        <v>2086</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="98" spans="4:4">
       <c r="D98" t="s">
-        <v>2087</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="99" spans="4:4">
       <c r="D99" t="s">
-        <v>2088</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="101" spans="4:4">
       <c r="D101" t="s">
-        <v>2089</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="102" spans="4:4">
       <c r="D102" t="s">
-        <v>2090</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="104" spans="4:4">
       <c r="D104" t="s">
-        <v>2091</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="106" spans="4:4">
       <c r="D106" t="s">
-        <v>2092</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="107" spans="4:4">
       <c r="D107" t="s">
-        <v>2093</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="108" spans="4:4">
       <c r="D108" t="s">
-        <v>2094</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="109" spans="4:4">
       <c r="D109" t="s">
-        <v>2095</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="110" spans="4:4">
       <c r="D110" t="s">
-        <v>2096</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="111" spans="4:4">
       <c r="D111" t="s">
-        <v>2097</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="112" spans="4:4">
       <c r="D112" t="s">
-        <v>2098</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="113" spans="4:4">
       <c r="D113" t="s">
-        <v>2099</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="114" spans="4:4">
       <c r="D114" t="s">
-        <v>2100</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="115" spans="4:4">
       <c r="D115" t="s">
-        <v>2101</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="116" spans="4:4">
       <c r="D116" t="s">
-        <v>2102</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="117" spans="4:4">
       <c r="D117" t="s">
-        <v>2103</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="118" spans="4:4">
       <c r="D118" t="s">
-        <v>2104</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="119" spans="4:4">
       <c r="D119" t="s">
-        <v>2105</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="120" spans="4:4">
       <c r="D120" t="s">
-        <v>2106</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="121" spans="4:4">
       <c r="D121" t="s">
-        <v>2107</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="122" spans="4:4">
       <c r="D122" t="s">
-        <v>2108</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="123" spans="4:4">
       <c r="D123" t="s">
-        <v>2109</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="124" spans="4:4">
       <c r="D124" t="s">
-        <v>2110</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="125" spans="4:4">
       <c r="D125" t="s">
-        <v>2111</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="126" spans="4:4">
       <c r="D126" t="s">
-        <v>2017</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="127" spans="5:5">
       <c r="E127" t="s">
-        <v>2112</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="128" spans="4:4">
       <c r="D128" t="s">
-        <v>2113</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="129" spans="4:4">
       <c r="D129" t="s">
-        <v>2114</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="130" spans="4:4">
       <c r="D130" t="s">
-        <v>2115</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="131" spans="4:4">
       <c r="D131" t="s">
-        <v>2116</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="132" spans="4:4">
       <c r="D132" t="s">
-        <v>2117</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="133" spans="4:4">
       <c r="D133" t="s">
-        <v>2118</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="134" spans="4:4">
       <c r="D134" t="s">
-        <v>2110</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="135" spans="4:4">
       <c r="D135" t="s">
-        <v>2119</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="136" spans="4:4">
       <c r="D136" t="s">
-        <v>2017</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="137" spans="5:5">
       <c r="E137" t="s">
-        <v>2112</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="138" spans="4:4">
       <c r="D138" t="s">
-        <v>2120</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="139" spans="4:4">
       <c r="D139" t="s">
-        <v>2121</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="140" spans="4:4">
       <c r="D140" t="s">
-        <v>2122</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="141" spans="4:4">
       <c r="D141" t="s">
-        <v>2123</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="142" spans="4:4">
       <c r="D142" t="s">
-        <v>2124</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="143" spans="4:4">
       <c r="D143" t="s">
-        <v>2125</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="144" spans="4:4">
       <c r="D144" t="s">
-        <v>2017</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="145" spans="5:5">
       <c r="E145" t="s">
-        <v>2112</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="146" spans="4:4">
       <c r="D146" t="s">
-        <v>2126</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="147" spans="4:4">
       <c r="D147" t="s">
-        <v>2122</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="148" spans="4:4">
       <c r="D148" t="s">
-        <v>2127</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="149" spans="4:4">
       <c r="D149" t="s">
-        <v>2124</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="150" spans="4:4">
       <c r="D150" t="s">
-        <v>2128</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="151" spans="4:4">
       <c r="D151" t="s">
-        <v>2017</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="152" spans="5:5">
       <c r="E152" t="s">
-        <v>2112</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="153" spans="4:4">
       <c r="D153" t="s">
-        <v>2129</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="154" spans="4:4">
       <c r="D154" t="s">
-        <v>2122</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="155" spans="4:4">
       <c r="D155" t="s">
-        <v>2130</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="156" spans="4:4">
       <c r="D156" t="s">
-        <v>2124</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="157" spans="4:4">
       <c r="D157" t="s">
-        <v>2128</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="158" spans="4:4">
       <c r="D158" t="s">
-        <v>2017</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="159" spans="5:5">
       <c r="E159" t="s">
-        <v>2112</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="160" spans="4:4">
       <c r="D160" t="s">
-        <v>2131</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="161" spans="4:4">
       <c r="D161" t="s">
-        <v>2069</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="165" spans="4:4">
       <c r="D165" t="s">
-        <v>2132</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="166" ht="21" spans="4:4">
       <c r="D166" s="11" t="s">
-        <v>2133</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="167" spans="4:4">
       <c r="D167" t="s">
-        <v>2134</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="170" spans="4:4">
@@ -31047,22 +38861,22 @@
     </row>
     <row r="172" spans="4:4">
       <c r="D172" t="s">
-        <v>2135</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="173" spans="4:4">
       <c r="D173" t="s">
-        <v>2136</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="174" spans="4:4">
       <c r="D174" t="s">
-        <v>2137</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="175" spans="4:4">
       <c r="D175" t="s">
-        <v>2138</v>
+        <v>2408</v>
       </c>
     </row>
   </sheetData>
@@ -31088,22 +38902,22 @@
   <sheetData>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>2139</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="1" t="s">
-        <v>2140</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>2141</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>2142</v>
+        <v>2412</v>
       </c>
     </row>
   </sheetData>

--- a/kernel_compile_framework.xlsx
+++ b/kernel_compile_framework.xlsx
@@ -8435,7 +8435,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> ==&gt;   链接生成目标</t>
+    <t xml:space="preserve"> ==&gt;   链接生成目标  init/built-in.o </t>
   </si>
   <si>
     <t xml:space="preserve">  SHIPPED arch/arm/boot/compressed/bswapsdi2.S</t>
@@ -17056,48 +17056,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>118</xdr:col>
-      <xdr:colOff>43180</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>85090</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>139</xdr:col>
-      <xdr:colOff>138430</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>161290</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="Picture 88"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="99179380" y="38813740"/>
-          <a:ext cx="17697450" cy="2781300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>107</xdr:col>
@@ -17290,6 +17248,48 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>113</xdr:col>
+      <xdr:colOff>254635</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>43180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>134</xdr:col>
+      <xdr:colOff>245110</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>109855</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="Picture 94"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95199835" y="50735230"/>
+          <a:ext cx="17592675" cy="3476625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -30240,8 +30240,8 @@
   <sheetPr/>
   <dimension ref="M6:EI441"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="DF193" workbookViewId="0">
-      <selection activeCell="DR210" sqref="DR210"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="CX219" workbookViewId="0">
+      <selection activeCell="DB248" sqref="DB248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>

--- a/kernel_compile_framework.xlsx
+++ b/kernel_compile_framework.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3464" uniqueCount="2492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="2519">
   <si>
     <t>目录/home/hpsp/rock_space/iMX6Q_files/iMX6Q_kernel/kernel_imx 下有目前买的这个板子的DTB文件： imx6q-sabresd.dtb</t>
   </si>
@@ -6800,6 +6800,9 @@
     <t xml:space="preserve"> 64 $(warning host-cmulti  = $(host-cmulti))</t>
   </si>
   <si>
+    <t>135 head-y          := arch/arm/kernel/head$(MMUEXT).o</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 65 $(warning host-cobjs   = $(host-cobjs))</t>
   </si>
   <si>
@@ -6809,24 +6812,45 @@
     <t xml:space="preserve"> 67 $(warning host-cxxobjs = $(host-cxxobjs))</t>
   </si>
   <si>
+    <t>261 export  TEXT_OFFSET GZFLAGS MMUEXT</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 68 $(warning host-objdirs = $(host-objdirs))</t>
   </si>
   <si>
     <t xml:space="preserve"> 69 $(warning obj-dirs     = $(obj-dirs))</t>
   </si>
   <si>
+    <t>263 # Do we have FASTFPE?</t>
+  </si>
+  <si>
+    <t>264 FASTFPE         :=arch/arm/fastfpe</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 71 obj-dirs += $#####</t>
   </si>
   <si>
+    <t>265 ifeq ($(FASTFPE),$(wildcard $(FASTFPE)))</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 72 # Handle options to gcc. Support building with separate output directory</t>
   </si>
   <si>
+    <t>266 FASTFPE_OBJ     :=$(FASTFPE)/</t>
+  </si>
+  <si>
+    <t>267 endif</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 74 _hostc_flags   = $(HOSTCFLAGS)   $(HOST_EXTRACFLAGS)   \</t>
   </si>
   <si>
     <t xml:space="preserve"> 75                  $(HOSTCFLAGS_$(basetarget).o)</t>
   </si>
   <si>
+    <t>269 core-$(CONFIG_FPE_NWFPE)        += arch/arm/nwfpe/</t>
+  </si>
+  <si>
     <t xml:space="preserve">scripts/Makefile.lib </t>
   </si>
   <si>
@@ -6836,24 +6860,39 @@
     <t xml:space="preserve"> 76 _hostcxx_flags = $(HOSTCXXFLAGS) $(HOST_EXTRACXXFLAGS) \</t>
   </si>
   <si>
+    <t>270 core-$(CONFIG_FPE_FASTFPE)      += $(FASTFPE_OBJ)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 77                  $(HOSTCXXFLAGS_$(basetarget).o)</t>
   </si>
   <si>
+    <t>271 core-$(CONFIG_VFP)              += arch/arm/vfp/</t>
+  </si>
+  <si>
     <t>284 quiet_cmd_dtc = DTC     $@</t>
   </si>
   <si>
+    <t>272 core-$(CONFIG_XEN)              += arch/arm/xen/</t>
+  </si>
+  <si>
     <t>285 cmd_dtc = mkdir -p $(dir ${dtc-tmp}) ; \</t>
   </si>
   <si>
     <t xml:space="preserve"> 79 ifeq ($(KBUILD_SRC),)</t>
   </si>
   <si>
+    <t>273 core-$(CONFIG_KVM_ARM_HOST)     += arch/arm/kvm/</t>
+  </si>
+  <si>
     <t>286         $(CPP) $(dtc_cpp_flags) -x assembler-with-cpp -o $(dtc-tmp) $&lt; ; \</t>
   </si>
   <si>
     <t xml:space="preserve"> 80 __hostc_flags   = $(_hostc_flags)</t>
   </si>
   <si>
+    <t>274 core-$(CONFIG_VDSO)             += arch/arm/vdso/</t>
+  </si>
+  <si>
     <t>287         $(objtree)/scripts/dtc/dtc -O dtb -o $@ -b 0 \</t>
   </si>
   <si>
@@ -6866,45 +6905,72 @@
     <t xml:space="preserve"> 82 else</t>
   </si>
   <si>
+    <t>276 # If we have a machine-specific directory, then include it in the build.</t>
+  </si>
+  <si>
     <t>289                 -d $(depfile).dtc.tmp $(dtc-tmp) ; \</t>
   </si>
   <si>
     <t xml:space="preserve"> 83 __hostc_flags   = -I$(obj) $(call flags,_hostc_flags)</t>
   </si>
   <si>
+    <t>277 core-y                          += arch/arm/kernel/ arch/arm/mm/ arch/arm/common/</t>
+  </si>
+  <si>
     <t>290         cat $(depfile).pre.tmp $(depfile).dtc.tmp &gt; $(depfile)</t>
   </si>
   <si>
     <t xml:space="preserve"> 84 __hostcxx_flags = -I$(obj) $(call flags,_hostcxx_flags)</t>
   </si>
   <si>
+    <t>278 core-y                          += arch/arm/probes/</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 85 endif</t>
   </si>
   <si>
+    <t>279 core-y                          += arch/arm/net/</t>
+  </si>
+  <si>
     <t>292 $(obj)/%.dtb: $(src)/%.dts FORCE</t>
   </si>
   <si>
+    <t>280 core-y                          += arch/arm/crypto/</t>
+  </si>
+  <si>
     <t>293         @echo "rock_dbg:Makefile.lib==&gt;d$(obj)/%.dtb--$@--$^"</t>
   </si>
   <si>
     <t xml:space="preserve"> 87 hostc_flags    = -Wp,-MD,$(depfile) $(__hostc_flags)</t>
   </si>
   <si>
+    <t>281 core-y                          += arch/arm/firmware/</t>
+  </si>
+  <si>
     <t>294         $(call if_changed_dep,  dtc)</t>
   </si>
   <si>
     <t xml:space="preserve"> 88 hostcxx_flags  = -Wp,-MD,$(depfile) $(__hostcxx_flags)</t>
   </si>
   <si>
+    <t>282 core-y                          += $(machdirs) $(platdirs)</t>
+  </si>
+  <si>
     <t>296 dtc-tmp = $(subst $(comma),_,$(dot-target).dts.tmp)</t>
   </si>
   <si>
     <t xml:space="preserve"> 90 #####</t>
   </si>
   <si>
+    <t>284 drivers-$(CONFIG_OPROFILE)      += arch/arm/oprofile/</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 91 # Compile programs on the host</t>
   </si>
   <si>
+    <t>286 libs-y                          := arch/arm/lib/ $(libs-y)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 93 # Create executable from a single .c file</t>
   </si>
   <si>
@@ -6941,12 +7007,18 @@
     <t>101 # Link an executable based on list of .o files, all plain c</t>
   </si>
   <si>
+    <t xml:space="preserve">顶层Makefile </t>
+  </si>
+  <si>
     <t>102 # host-cmulti -&gt; executable</t>
   </si>
   <si>
     <t>103 quiet_cmd_host-cmulti   = HOSTLD  $@</t>
   </si>
   <si>
+    <t xml:space="preserve"> 252 ARCH            ?= arm             </t>
+  </si>
+  <si>
     <t>104       cmd_host-cmulti   = $(HOSTCC) $(HOSTLDFLAGS) -o $@ \</t>
   </si>
   <si>
@@ -6959,46 +7031,65 @@
     <t>107 $(host-cmulti): FORCE</t>
   </si>
   <si>
+    <t xml:space="preserve"> 256 UTS_MACHINE     := $(ARCH)</t>
+  </si>
+  <si>
     <t>108         $(call if_changed,host-cmulti)</t>
   </si>
   <si>
+    <t xml:space="preserve"> 257 SRCARCH         := $(ARCH)</t>
+  </si>
+  <si>
     <t>109 $(call multi_depend, $(host-cmulti), , -objs)</t>
   </si>
   <si>
-    <t xml:space="preserve">顶层Makefile </t>
+    <r>
+      <t xml:space="preserve">540 include arch/$(SRCARCH)/Makefile   ==&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>include   arch/arm/Makefile</t>
+    </r>
   </si>
   <si>
     <t>111 # Create .o file from a single .c file</t>
   </si>
   <si>
+    <t>112 # host-cobjs -&gt; .o</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 564 init-y          := init/</t>
   </si>
   <si>
-    <t>112 # host-cobjs -&gt; .o</t>
+    <t>113 quiet_cmd_host-cobjs    = HOSTCC  $@</t>
   </si>
   <si>
     <t xml:space="preserve"> 565 drivers-y       := drivers/  sound/   firmware/</t>
   </si>
   <si>
-    <t>113 quiet_cmd_host-cobjs    = HOSTCC  $@</t>
+    <t>114       cmd_host-cobjs    = $(HOSTCC) $(hostc_flags) -c -o $@ $&lt;</t>
   </si>
   <si>
     <t xml:space="preserve"> 566 net-y           := net/</t>
   </si>
   <si>
-    <t>114       cmd_host-cobjs    = $(HOSTCC) $(hostc_flags) -c -o $@ $&lt;</t>
+    <t>115 $(host-cobjs): $(obj)/%.o: $(src)/%.c FORCE</t>
   </si>
   <si>
     <t xml:space="preserve"> 567 libs-y          := lib/</t>
   </si>
   <si>
-    <t>115 $(host-cobjs): $(obj)/%.o: $(src)/%.c FORCE</t>
+    <t>116         $(call if_changed_dep,host-cobjs)</t>
   </si>
   <si>
     <t xml:space="preserve"> 568 core-y          := usr/</t>
-  </si>
-  <si>
-    <t>116         $(call if_changed_dep,host-cobjs)</t>
   </si>
   <si>
     <t>118 # Link an executable based on list of .o files, a mixture of .c and .cc</t>
@@ -7289,15 +7380,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> :=   $(head-y)    $(init-y)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23 # so we regenerate it always.       </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 912 export   </t>
+      <t xml:space="preserve"> :=   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF60045B"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">$(head-y) </t>
     </r>
     <r>
       <rPr>
@@ -7308,7 +7402,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">KBUILD_VMLINUX_MAIN   </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -7319,24 +7413,15 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:=  $(core-y)     $(libs-y)   $(drivers-y)    $(net-y)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24 # mkcompile_h will make sure to only update the</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 924 # Include targets which we want to</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 25 # actual file if its content has changed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 925 # execute if the rest of the kernel build went well.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 913 export   </t>
+      <t xml:space="preserve">  $(init-y)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23 # so we regenerate it always.       </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 912 export   </t>
     </r>
     <r>
       <rPr>
@@ -7347,7 +7432,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">KBUILD_LDS    </t>
+      <t xml:space="preserve">KBUILD_VMLINUX_MAIN   </t>
     </r>
     <r>
       <rPr>
@@ -7358,7 +7443,24 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">:= </t>
+      <t>:=  $(core-y)     $(libs-y)   $(drivers-y)    $(net-y)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24 # mkcompile_h will make sure to only update the</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 924 # Include targets which we want to</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25 # actual file if its content has changed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 925 # execute if the rest of the kernel build went well.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 913 export   </t>
     </r>
     <r>
       <rPr>
@@ -7369,12 +7471,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>arch/$(SRCARCH)/kernel/vmlinux.lds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 926 </t>
+      <t xml:space="preserve">KBUILD_LDS    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:= </t>
     </r>
     <r>
       <rPr>
@@ -7385,6 +7493,22 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>arch/$(SRCARCH)/kernel/vmlinux.lds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 926 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>vmlinux</t>
     </r>
     <r>
@@ -7658,92 +7782,19 @@
     <t xml:space="preserve"> 941         @echo "rock_dbg:top_Makefile==&gt;vmlinux----444...."</t>
   </si>
   <si>
-    <t xml:space="preserve"> 959 $(vmlinux-dirs): prepare scripts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">317 $(BOOT_TARGETS): vmlinux       </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 942         $(Q)ln -fsn `cd $(srctree) &amp;&amp; /bin/pwd`/scripts/gdb/vmlinux-gdb.py</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 960         @echo "rock_dbg:top_Makefile==&gt;compile_sub-dir--&gt;$@ --$^....start"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">318         $(Q)$(MAKE)   $(build)=$(boot)   MACHINE=$(MACHINE)   $(boot)/$@ </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 943 endif</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 961         $(Q)$(MAKE)    $(build)=$@</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 944         @echo "rock_dbg:top_Makefile==&gt;vmlinux----cmd:$(cmd_link-vmlinux)...."</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 962         @echo "rock_dbg:top_Makefile==&gt;compile_sub-dir--&gt;$@ --$^....end"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">make   -f   $(srctree)/scripts/Makefile.build   obj=arch/arm/boot     MACHINE=$(MACHINE)     $(boot)/$@ </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 945         +$(call   if_changed,   link-vmlinux)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">==&gt;  编译 各个子目录 </t>
-  </si>
-  <si>
-    <t>最后一步骤这里生成vmlinux</t>
-  </si>
-  <si>
-    <t>scripts/link-vmlinux.sh</t>
-  </si>
-  <si>
-    <t>#!/bin/sh</t>
-  </si>
-  <si>
-    <t>实际过程的打印</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t># link vmlinux</t>
-  </si>
-  <si>
-    <t>rock_dbg:top_Makefile==&gt;vmlinux----&gt;scripts/link-vmlinux.sh arch/arm/kernel/vmlinux.lds arch/arm/kernel/head.o init/built-in.o usr/built-in.o arch/arm/vfp/built-in.o arch/arm/vdso/built-in.o arch/arm/kernel/built-in.o arch/arm/mm/built-in.o arch/arm/common/built-in.o arch/arm/probes/built-in.o arch/arm/net/built-in.o arch/arm/crypto/built-in.o arch/arm/firmware/built-in.o arch/arm/mach-imx/built-in.o kernel/built-in.o mm/built-in.o fs/built-in.o ipc/built-in.o security/built-in.o crypto/built-in.o block/built-in.o arch/arm/lib/lib.a lib/lib.a arch/arm/lib/built-in.o lib/built-in.o drivers/built-in.o sound/built-in.o firmware/built-in.o net/built-in.o FORCE....</t>
-  </si>
-  <si>
-    <t>rock_dbg:top_Makefile==&gt;vmlinux----cmd:/bin/bash scripts/link-vmlinux.sh arm-linux-gnueabihf-ld -EL  -p --no-undefined -X --pic-veneer --build-id....</t>
-  </si>
-  <si>
-    <t># vmlinux is linked from the objects selected by $(KBUILD_VMLINUX_INIT) and</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  LINK    vmlinux</t>
-  </si>
-  <si>
-    <t># $(KBUILD_VMLINUX_MAIN). Most are built-in.o files from top-level directories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  LD      vmlinux.o</t>
-  </si>
-  <si>
-    <t># in the kernel tree, others are specified in arch/$(ARCH)/Makefile.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  MODPOST vmlinux.o</t>
-  </si>
-  <si>
-    <t># Ordering when linking is important, and $(KBUILD_VMLINUX_INIT) must be first.</t>
-  </si>
-  <si>
-    <t>WARNING: modpost: Found 1 section mismatch(es).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 42 </t>
+    <r>
+      <t xml:space="preserve"> 959 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$(vmlinux-dirs)</t>
     </r>
     <r>
       <rPr>
@@ -7754,17 +7805,96 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>kbuild-dir</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> := $(if   $(filter  /%,  $(src)),    $(src), </t>
+      <t>: prepare scripts</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">317 $(BOOT_TARGETS): vmlinux       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 942         $(Q)ln -fsn `cd $(srctree) &amp;&amp; /bin/pwd`/scripts/gdb/vmlinux-gdb.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 960         @echo "rock_dbg:top_Makefile==&gt;compile_sub-dir--&gt;$@ --$^....start"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">318         $(Q)$(MAKE)   $(build)=$(boot)   MACHINE=$(MACHINE)   $(boot)/$@ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 943 endif</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 961         $(Q)$(MAKE)    $(build)=$@</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 944         @echo "rock_dbg:top_Makefile==&gt;vmlinux----cmd:$(cmd_link-vmlinux)...."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 962         @echo "rock_dbg:top_Makefile==&gt;compile_sub-dir--&gt;$@ --$^....end"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make   -f   $(srctree)/scripts/Makefile.build   obj=arch/arm/boot     MACHINE=$(MACHINE)     $(boot)/$@ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 945         +$(call   if_changed,   link-vmlinux)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">==&gt;  编译 各个子目录 </t>
+  </si>
+  <si>
+    <t>最后一步骤这里生成vmlinux</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>scripts/link-vmlinux.sh</t>
+  </si>
+  <si>
+    <t>#!/bin/sh</t>
+  </si>
+  <si>
+    <t>实际过程的打印</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t># link vmlinux</t>
+  </si>
+  <si>
+    <t>rock_dbg:top_Makefile==&gt;vmlinux----&gt;scripts/link-vmlinux.sh arch/arm/kernel/vmlinux.lds arch/arm/kernel/head.o init/built-in.o usr/built-in.o arch/arm/vfp/built-in.o arch/arm/vdso/built-in.o arch/arm/kernel/built-in.o arch/arm/mm/built-in.o arch/arm/common/built-in.o arch/arm/probes/built-in.o arch/arm/net/built-in.o arch/arm/crypto/built-in.o arch/arm/firmware/built-in.o arch/arm/mach-imx/built-in.o kernel/built-in.o mm/built-in.o fs/built-in.o ipc/built-in.o security/built-in.o crypto/built-in.o block/built-in.o arch/arm/lib/lib.a lib/lib.a arch/arm/lib/built-in.o lib/built-in.o drivers/built-in.o sound/built-in.o firmware/built-in.o net/built-in.o FORCE....</t>
+  </si>
+  <si>
+    <t>rock_dbg:top_Makefile==&gt;vmlinux----cmd:/bin/bash scripts/link-vmlinux.sh arm-linux-gnueabihf-ld -EL  -p --no-undefined -X --pic-veneer --build-id....</t>
+  </si>
+  <si>
+    <t># vmlinux is linked from the objects selected by $(KBUILD_VMLINUX_INIT) and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LINK    vmlinux</t>
+  </si>
+  <si>
+    <t># $(KBUILD_VMLINUX_MAIN). Most are built-in.o files from top-level directories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LD      vmlinux.o</t>
+  </si>
+  <si>
+    <t># in the kernel tree, others are specified in arch/$(ARCH)/Makefile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  MODPOST vmlinux.o</t>
+  </si>
+  <si>
+    <t># Ordering when linking is important, and $(KBUILD_VMLINUX_INIT) must be first.</t>
+  </si>
+  <si>
+    <t>WARNING: modpost: Found 1 section mismatch(es).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 42 </t>
     </r>
     <r>
       <rPr>
@@ -7775,7 +7905,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> $(srctree)/$(src)</t>
+      <t>kbuild-dir</t>
     </r>
     <r>
       <rPr>
@@ -7785,7 +7915,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">)  ==&gt; </t>
+      <t xml:space="preserve"> := $(if   $(filter  /%,  $(src)),    $(src), </t>
     </r>
     <r>
       <rPr>
@@ -7796,18 +7926,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> init</t>
-    </r>
-  </si>
-  <si>
-    <t>To see full details build your kernel with:</t>
-  </si>
-  <si>
-    <t># vmlinux</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 43 </t>
+      <t xml:space="preserve"> $(srctree)/$(src)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)  ==&gt; </t>
     </r>
     <r>
       <rPr>
@@ -7818,17 +7947,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">kbuild-file </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:= $(if   $(wildcard  $(kbuild-dir)/Kbuild),    $(kbuild-dir)/Kbuild,  $(kbuild-dir)/Makefile)  ==&gt;   </t>
+      <t xml:space="preserve"> init</t>
+    </r>
+  </si>
+  <si>
+    <t>To see full details build your kernel with:</t>
+  </si>
+  <si>
+    <t># vmlinux</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 43 </t>
     </r>
     <r>
       <rPr>
@@ -7839,18 +7969,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>./init/Kbuild  or  ./init/Makefile 有前者就用前者 否则用后者</t>
-    </r>
-  </si>
-  <si>
-    <t>make CONFIG_DEBUG_SECTION_MISMATCH=y'</t>
-  </si>
-  <si>
-    <t>#   ^</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 44 </t>
+      <t xml:space="preserve">kbuild-file </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:= $(if   $(wildcard  $(kbuild-dir)/Kbuild),    $(kbuild-dir)/Kbuild,  $(kbuild-dir)/Makefile)  ==&gt;   </t>
     </r>
     <r>
       <rPr>
@@ -7861,45 +7990,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">include $(kbuild-file)  ==&gt; init/Makefile </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">  GEN     .version</t>
-  </si>
-  <si>
-    <t>#   |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  CHK     include/generated/compile.h</t>
-  </si>
-  <si>
-    <t>#   +-&lt; $(KBUILD_VMLINUX_INIT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  UPD     include/generated/compile.h</t>
-  </si>
-  <si>
-    <t>#   |   +--&lt; init/version.o + more</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  CC      init/version.o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  LD      init/built-in.o</t>
-  </si>
-  <si>
-    <t>#   +--&lt; $(KBUILD_VMLINUX_MAIN)</t>
-  </si>
-  <si>
-    <t>rock_dbg:Makefile.build==&gt;__build: 1++$(if (KBUILD_BUILTIN)-1, 1.1--(builtin-target)-init/built-in.o 1.2--(lib-target)- 1.3--(extra-y)-) 2++$(if (KBUILD_MODULES)-, 2.1--(obj-m)- 2.2--(modorder-target)-init/modules.order)  3++(subdir-ym)-  4++(always)- obj=init</t>
-  </si>
-  <si>
-    <t>#   |    +--&lt; drivers/built-in.o mm/built-in.o + more</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 86 ifneq (  $(strip   </t>
+      <t>./init/Kbuild  or  ./init/Makefile 有前者就用前者 否则用后者</t>
+    </r>
+  </si>
+  <si>
+    <t>make CONFIG_DEBUG_SECTION_MISMATCH=y'</t>
+  </si>
+  <si>
+    <t>#   ^</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 44 </t>
     </r>
     <r>
       <rPr>
@@ -7910,25 +8012,45 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">$(obj-y)    $(obj-m)   $(obj-)    $(subdir-m)   $(lib-target) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  )  ,   )</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">  KSYM    .tmp_kallsyms1.o</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 87 builtin-target :=   </t>
+      <t xml:space="preserve">include $(kbuild-file)  ==&gt; init/Makefile </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  GEN     .version</t>
+  </si>
+  <si>
+    <t>#   |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CHK     include/generated/compile.h</t>
+  </si>
+  <si>
+    <t>#   +-&lt; $(KBUILD_VMLINUX_INIT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  UPD     include/generated/compile.h</t>
+  </si>
+  <si>
+    <t>#   |   +--&lt; init/version.o + more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CC      init/version.o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LD      init/built-in.o</t>
+  </si>
+  <si>
+    <t>#   +--&lt; $(KBUILD_VMLINUX_MAIN)</t>
+  </si>
+  <si>
+    <t>rock_dbg:Makefile.build==&gt;__build: 1++$(if (KBUILD_BUILTIN)-1, 1.1--(builtin-target)-init/built-in.o 1.2--(lib-target)- 1.3--(extra-y)-) 2++$(if (KBUILD_MODULES)-, 2.1--(obj-m)- 2.2--(modorder-target)-init/modules.order)  3++(subdir-ym)-  4++(always)- obj=init</t>
+  </si>
+  <si>
+    <t>#   |    +--&lt; drivers/built-in.o mm/built-in.o + more</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 86 ifneq (  $(strip   </t>
     </r>
     <r>
       <rPr>
@@ -7939,6 +8061,35 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">$(obj-y)    $(obj-m)   $(obj-)    $(subdir-m)   $(lib-target) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  )  ,   )</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  KSYM    .tmp_kallsyms1.o</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 87 builtin-target :=   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">$(obj)/built-in.o </t>
     </r>
     <r>
@@ -8435,7 +8586,20 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> ==&gt;   链接生成目标  init/built-in.o </t>
+    <r>
+      <t xml:space="preserve"> ==&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF1D41D5"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 将依赖的所有的.o 链接生成目标  init/built-in.o </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">  SHIPPED arch/arm/boot/compressed/bswapsdi2.S</t>
@@ -8657,10 +8821,10 @@
     <t>#link vmlinux.o</t>
   </si>
   <si>
-    <t>info LD vmlinux.o</t>
-  </si>
-  <si>
-    <t>modpost_link vmlinux.o</t>
+    <t>info   LD   vmlinux.o</t>
+  </si>
+  <si>
+    <t>modpost_link    vmlinux.o</t>
   </si>
   <si>
     <t># modpost vmlinux.o to check for section mismatches</t>
@@ -11915,7 +12079,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12023,6 +12187,14 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF1D41D5"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF60045B"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -12617,152 +12789,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13069,6 +13241,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -13105,43 +13334,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -13150,7 +13388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
@@ -13174,19 +13412,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -13260,10 +13507,10 @@
   <colors>
     <mruColors>
       <color rgb="004EAE04"/>
-      <color rgb="0060045B"/>
       <color rgb="0013742F"/>
       <color rgb="00BC4042"/>
       <color rgb="001D41D5"/>
+      <color rgb="0060045B"/>
     </mruColors>
   </colors>
   <extLst>
@@ -14508,7 +14755,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="69980175" y="23660100"/>
+          <a:off x="69980175" y="23650575"/>
           <a:ext cx="9544050" cy="2266950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14592,7 +14839,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="30289500" y="17487900"/>
-          <a:ext cx="15888335" cy="1828800"/>
+          <a:ext cx="15888335" cy="1819275"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -14636,8 +14883,8 @@
     <xdr:to>
       <xdr:col>60</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14654,7 +14901,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="46101000" y="19831050"/>
+          <a:off x="46101000" y="19821525"/>
           <a:ext cx="4724400" cy="1400175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14744,7 +14991,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="48589565" y="16073755"/>
-          <a:ext cx="5867400" cy="3270250"/>
+          <a:ext cx="5867400" cy="3260725"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -14793,7 +15040,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="30040580" y="16697325"/>
-          <a:ext cx="16034385" cy="5675630"/>
+          <a:ext cx="16034385" cy="5666105"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -14838,7 +15085,7 @@
       <xdr:col>75</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
       <xdr:row>149</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14855,7 +15102,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="46101000" y="25650825"/>
+          <a:off x="46101000" y="25641300"/>
           <a:ext cx="17545050" cy="4848225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14890,7 +15137,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="11433810" y="7434580"/>
-          <a:ext cx="6604635" cy="28681045"/>
+          <a:ext cx="6604635" cy="28709620"/>
           <a:chOff x="18103" y="11207"/>
           <a:chExt cx="10469" cy="43163"/>
         </a:xfrm>
@@ -14983,7 +15230,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="24800560" y="37127815"/>
+          <a:off x="24800560" y="37156390"/>
           <a:ext cx="3718560" cy="1108075"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -15032,7 +15279,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19314795" y="36466780"/>
+          <a:off x="19314795" y="36495355"/>
           <a:ext cx="2465705" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -15081,7 +15328,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="24427180" y="33271460"/>
+          <a:off x="24427180" y="33300035"/>
           <a:ext cx="4071620" cy="4228465"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -15130,7 +15377,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="31723965" y="40128190"/>
+          <a:off x="31723965" y="40156765"/>
           <a:ext cx="808355" cy="179070"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -15179,7 +15426,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="31099125" y="35044380"/>
+          <a:off x="31099125" y="35072955"/>
           <a:ext cx="12476480" cy="3989070"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -15210,59 +15457,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="Up Arrow 70"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="53701950" y="40024050"/>
-          <a:ext cx="466725" cy="962025"/>
-        </a:xfrm>
-        <a:prstGeom prst="upArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>56</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>187</xdr:row>
@@ -15281,7 +15475,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="47234475" y="38220650"/>
+          <a:off x="47234475" y="38249225"/>
           <a:ext cx="12287250" cy="1431925"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -15330,61 +15524,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipV="1">
-          <a:off x="63583820" y="37884735"/>
+          <a:off x="63583820" y="37913310"/>
           <a:ext cx="2152650" cy="2028825"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
             <a:gd name="adj1" fmla="val 50015"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>95</xdr:col>
-      <xdr:colOff>1270</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="Elbow Connector 73"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="48148875" y="35671125"/>
-          <a:ext cx="31709995" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50001"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="25400">
@@ -15428,7 +15573,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="89357200" y="31081980"/>
+          <a:off x="89357200" y="31110555"/>
           <a:ext cx="3194685" cy="6330315"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15599,9 +15744,9 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="60045B"/>
               </a:solidFill>
             </a:rPr>
             <a:t>arch/arm/kernel/head.o </a:t>
@@ -15615,9 +15760,9 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="1D41D5"/>
               </a:solidFill>
             </a:rPr>
             <a:t>init/built-in.o </a:t>
@@ -16068,8 +16213,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="86038690" y="28261310"/>
-          <a:ext cx="2927350" cy="5454015"/>
+          <a:off x="86038690" y="28270835"/>
+          <a:ext cx="2927350" cy="5473065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16456,7 +16601,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29965650" y="39328725"/>
+          <a:off x="29965650" y="39357300"/>
           <a:ext cx="238125" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -16511,7 +16656,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="87177245" y="34248725"/>
+          <a:off x="87177245" y="34277300"/>
           <a:ext cx="2179320" cy="2226310"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -16562,7 +16707,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="84562315" y="30995620"/>
+          <a:off x="84562315" y="31024195"/>
           <a:ext cx="1476375" cy="21590"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -16609,7 +16754,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="88039575" y="38509575"/>
+          <a:off x="88039575" y="38538150"/>
           <a:ext cx="2927350" cy="5482590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16746,10 +16891,18 @@
           <a:r>
             <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>vmlinux-dirs </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>vmlinux-dirs 打印出来的实际值</a:t>
+            <a:t>打印出来的实际值</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -16794,7 +16947,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="1D41D5"/>
               </a:solidFill>
             </a:rPr>
             <a:t>$(MAKE)  $(build)=</a:t>
@@ -16802,7 +16955,7 @@
           <a:r>
             <a:rPr lang="" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="1D41D5"/>
               </a:solidFill>
             </a:rPr>
             <a:t>init</a:t>
@@ -17027,7 +17180,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82886550" y="39252525"/>
+          <a:off x="82886550" y="39281100"/>
           <a:ext cx="5153025" cy="1993900"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -17076,7 +17229,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="90722450" y="39157275"/>
+          <a:off x="90722450" y="39185850"/>
           <a:ext cx="1714500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -17123,7 +17276,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="94296865" y="38900100"/>
+          <a:off x="94296865" y="38928675"/>
           <a:ext cx="5381625" cy="2009775"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -17172,7 +17325,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="97246440" y="47158910"/>
+          <a:off x="97246440" y="47254160"/>
           <a:ext cx="4603750" cy="2642870"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -17221,7 +17374,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="93522165" y="48978820"/>
+          <a:off x="93522165" y="49074070"/>
           <a:ext cx="1520825" cy="1256030"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -17278,7 +17431,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95199835" y="50735230"/>
+          <a:off x="95199835" y="50982880"/>
           <a:ext cx="17592675" cy="3476625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17290,6 +17443,984 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>658495</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="Elbow Connector 95"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipV="1">
+          <a:off x="49911000" y="39578280"/>
+          <a:ext cx="1106170" cy="972820"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3671"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>554355</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>601345</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="99" name="Group 98"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="90470355" y="32184340"/>
+          <a:ext cx="5914390" cy="18576290"/>
+          <a:chOff x="142829" y="48347"/>
+          <a:chExt cx="9339" cy="27977"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="97" name="Elbow Connector 96"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipV="1">
+            <a:off x="129540" y="61636"/>
+            <a:ext cx="27940" cy="1362"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -82"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="28575" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="98" name="Straight Arrow Connector 97"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="144210" y="76200"/>
+            <a:ext cx="7958" cy="124"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>184785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>829945</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="Text Box 99"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47851695" y="40637460"/>
+          <a:ext cx="2432050" cy="6088380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>vmlinux </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的 依赖  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>vmlinux-deps </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的 值 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>arch/arm/kernel/vmlinux.lds </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>arch/arm/kernel/head.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="1D41D5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>init/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>usr/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>arch/arm/vfp/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>arch/arm/vdso/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>arch/arm/kernel/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>arch/arm/mm/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>arch/arm/common/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>arch/arm/probes/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>arch/arm/net/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>arch/arm/crypto/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>arch/arm/firmware/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>arch/arm/mach-imx/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>kernel/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>mm/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>fs/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ipc/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>security/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>crypto/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>block/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>arch/arm/lib/lib.a </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>lib/lib.a </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>arch/arm/lib/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>lib/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>drivers/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>sound/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>firmware/built-in.o </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>net/built-in.o</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Elbow Connector 73"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="48148875" y="35699700"/>
+          <a:ext cx="31709995" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 88390"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>401002</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>30797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>254952</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>42227</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="Elbow Connector 100"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="83765390" y="26764615"/>
+          <a:ext cx="2897505" cy="1530350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49989"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>154940</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>334645</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="Elbow Connector 101"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="81016475" y="31517590"/>
+          <a:ext cx="5715635" cy="1017905"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 6852"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -17705,7 +18836,7 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="4" spans="3:3">
-      <c r="C4" s="142"/>
+      <c r="C4" s="167"/>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
@@ -26863,7 +27994,7 @@
       </c>
     </row>
     <row r="7" ht="16.5" spans="4:4">
-      <c r="D7" s="138" t="s">
+      <c r="D7" s="163" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -26918,7 +28049,7 @@
       </c>
     </row>
     <row r="35" ht="18" spans="6:6">
-      <c r="F35" s="139" t="s">
+      <c r="F35" s="164" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -26996,12 +28127,12 @@
       </c>
     </row>
     <row r="50" ht="18" spans="6:6">
-      <c r="F50" s="139" t="s">
+      <c r="F50" s="164" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="51" spans="6:6">
-      <c r="F51" s="138" t="s">
+      <c r="F51" s="163" t="s">
         <v>1206</v>
       </c>
     </row>
@@ -27041,7 +28172,7 @@
       </c>
     </row>
     <row r="60" ht="18" spans="6:6">
-      <c r="F60" s="139" t="s">
+      <c r="F60" s="164" t="s">
         <v>1214</v>
       </c>
     </row>
@@ -27051,7 +28182,7 @@
       </c>
     </row>
     <row r="63" ht="18" spans="6:6">
-      <c r="F63" s="139" t="s">
+      <c r="F63" s="164" t="s">
         <v>1216</v>
       </c>
     </row>
@@ -27081,7 +28212,7 @@
       </c>
     </row>
     <row r="70" ht="18" spans="6:6">
-      <c r="F70" s="139" t="s">
+      <c r="F70" s="164" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -27257,7 +28388,7 @@
       </c>
     </row>
     <row r="105" ht="18" spans="6:6">
-      <c r="F105" s="139" t="s">
+      <c r="F105" s="164" t="s">
         <v>1254</v>
       </c>
     </row>
@@ -27372,7 +28503,7 @@
       </c>
     </row>
     <row r="130" ht="18" spans="6:6">
-      <c r="F130" s="139" t="s">
+      <c r="F130" s="164" t="s">
         <v>1275</v>
       </c>
     </row>
@@ -27432,12 +28563,12 @@
       </c>
     </row>
     <row r="145" spans="6:6">
-      <c r="F145" s="140" t="s">
+      <c r="F145" s="165" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="146" spans="6:6">
-      <c r="F146" s="140" t="s">
+      <c r="F146" s="165" t="s">
         <v>1285</v>
       </c>
     </row>
@@ -27472,7 +28603,7 @@
       </c>
     </row>
     <row r="153" spans="6:6">
-      <c r="F153" s="140" t="s">
+      <c r="F153" s="165" t="s">
         <v>1292</v>
       </c>
     </row>
@@ -27497,17 +28628,17 @@
       </c>
     </row>
     <row r="158" spans="6:6">
-      <c r="F158" s="140" t="s">
+      <c r="F158" s="165" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="159" spans="6:6">
-      <c r="F159" s="140" t="s">
+      <c r="F159" s="165" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="160" spans="6:6">
-      <c r="F160" s="140" t="s">
+      <c r="F160" s="165" t="s">
         <v>1299</v>
       </c>
     </row>
@@ -27522,7 +28653,7 @@
       </c>
     </row>
     <row r="163" spans="6:6">
-      <c r="F163" s="140" t="s">
+      <c r="F163" s="165" t="s">
         <v>1302</v>
       </c>
     </row>
@@ -27552,12 +28683,12 @@
       </c>
     </row>
     <row r="169" spans="6:6">
-      <c r="F169" s="140" t="s">
+      <c r="F169" s="165" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="171" spans="6:6">
-      <c r="F171" s="140" t="s">
+      <c r="F171" s="165" t="s">
         <v>1309</v>
       </c>
     </row>
@@ -27567,102 +28698,102 @@
       </c>
     </row>
     <row r="173" spans="6:6">
-      <c r="F173" s="140" t="s">
+      <c r="F173" s="165" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="174" spans="6:6">
-      <c r="F174" s="140" t="s">
+      <c r="F174" s="165" t="s">
         <v>1312</v>
       </c>
     </row>
     <row r="175" spans="6:6">
-      <c r="F175" s="140" t="s">
+      <c r="F175" s="165" t="s">
         <v>1313</v>
       </c>
     </row>
     <row r="176" spans="6:6">
-      <c r="F176" s="140" t="s">
+      <c r="F176" s="165" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="177" spans="6:6">
-      <c r="F177" s="140" t="s">
+      <c r="F177" s="165" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="178" spans="6:6">
-      <c r="F178" s="140" t="s">
+      <c r="F178" s="165" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="179" spans="6:6">
-      <c r="F179" s="140" t="s">
+      <c r="F179" s="165" t="s">
         <v>1317</v>
       </c>
     </row>
     <row r="180" spans="6:6">
-      <c r="F180" s="140" t="s">
+      <c r="F180" s="165" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="181" spans="6:6">
-      <c r="F181" s="140" t="s">
+      <c r="F181" s="165" t="s">
         <v>1319</v>
       </c>
     </row>
     <row r="182" spans="6:6">
-      <c r="F182" s="140" t="s">
+      <c r="F182" s="165" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="183" spans="6:6">
-      <c r="F183" s="140" t="s">
+      <c r="F183" s="165" t="s">
         <v>1321</v>
       </c>
     </row>
     <row r="184" spans="6:6">
-      <c r="F184" s="140" t="s">
+      <c r="F184" s="165" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="185" spans="6:6">
-      <c r="F185" s="140" t="s">
+      <c r="F185" s="165" t="s">
         <v>1323</v>
       </c>
     </row>
     <row r="186" spans="6:6">
-      <c r="F186" s="140" t="s">
+      <c r="F186" s="165" t="s">
         <v>1324</v>
       </c>
     </row>
     <row r="187" spans="6:6">
-      <c r="F187" s="140" t="s">
+      <c r="F187" s="165" t="s">
         <v>1325</v>
       </c>
     </row>
     <row r="188" spans="6:6">
-      <c r="F188" s="140" t="s">
+      <c r="F188" s="165" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="189" spans="6:6">
-      <c r="F189" s="140" t="s">
+      <c r="F189" s="165" t="s">
         <v>1327</v>
       </c>
     </row>
     <row r="190" spans="6:6">
-      <c r="F190" s="140" t="s">
+      <c r="F190" s="165" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="191" spans="6:6">
-      <c r="F191" s="140" t="s">
+      <c r="F191" s="165" t="s">
         <v>1323</v>
       </c>
     </row>
     <row r="192" spans="6:6">
-      <c r="F192" s="140" t="s">
+      <c r="F192" s="165" t="s">
         <v>11</v>
       </c>
     </row>
@@ -27792,7 +28923,7 @@
       </c>
     </row>
     <row r="221" spans="6:6">
-      <c r="F221" s="140" t="s">
+      <c r="F221" s="165" t="s">
         <v>1353</v>
       </c>
     </row>
@@ -28308,7 +29439,7 @@
       </c>
     </row>
     <row r="331" ht="16.5" spans="6:6">
-      <c r="F331" s="141" t="s">
+      <c r="F331" s="166" t="s">
         <v>1424</v>
       </c>
     </row>
@@ -30219,7 +31350,7 @@
       </c>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="137"/>
+      <c r="G21" s="162"/>
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
@@ -30240,8 +31371,8 @@
   <sheetPr/>
   <dimension ref="M6:EI441"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="CX219" workbookViewId="0">
-      <selection activeCell="DB248" sqref="DB248"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="CP141" workbookViewId="0">
+      <selection activeCell="CW171" sqref="CW171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -33315,7 +34446,7 @@
       </c>
       <c r="CK91" s="9"/>
     </row>
-    <row r="92" ht="16.5" spans="25:89">
+    <row r="92" ht="16.5" spans="25:109">
       <c r="Y92" s="89"/>
       <c r="Z92" s="90"/>
       <c r="AA92" s="90"/>
@@ -33363,8 +34494,18 @@
         <v>59</v>
       </c>
       <c r="CK92" s="9"/>
-    </row>
-    <row r="93" spans="25:89">
+      <c r="CX92" s="102" t="s">
+        <v>1750</v>
+      </c>
+      <c r="CY92" s="54"/>
+      <c r="CZ92" s="54"/>
+      <c r="DA92" s="54"/>
+      <c r="DB92" s="54"/>
+      <c r="DC92" s="54"/>
+      <c r="DD92" s="54"/>
+      <c r="DE92" s="57"/>
+    </row>
+    <row r="93" spans="25:109">
       <c r="Y93" s="89"/>
       <c r="Z93" s="90"/>
       <c r="AA93" s="90"/>
@@ -33405,8 +34546,16 @@
         <v>1845</v>
       </c>
       <c r="CK93" s="9"/>
-    </row>
-    <row r="94" ht="16.5" spans="25:89">
+      <c r="CX93" s="55"/>
+      <c r="CY93" s="49"/>
+      <c r="CZ93" s="49"/>
+      <c r="DA93" s="49"/>
+      <c r="DB93" s="49"/>
+      <c r="DC93" s="49"/>
+      <c r="DD93" s="49"/>
+      <c r="DE93" s="58"/>
+    </row>
+    <row r="94" spans="25:109">
       <c r="Y94" s="91"/>
       <c r="Z94" s="90"/>
       <c r="AA94" s="90"/>
@@ -33447,8 +34596,16 @@
         <v>61</v>
       </c>
       <c r="CK94" s="9"/>
-    </row>
-    <row r="95" spans="25:89">
+      <c r="CX94" s="55"/>
+      <c r="CY94" s="49"/>
+      <c r="CZ94" s="49"/>
+      <c r="DA94" s="49"/>
+      <c r="DB94" s="49"/>
+      <c r="DC94" s="49"/>
+      <c r="DD94" s="49"/>
+      <c r="DE94" s="58"/>
+    </row>
+    <row r="95" spans="25:109">
       <c r="Y95" s="91"/>
       <c r="Z95" s="90"/>
       <c r="AA95" s="90"/>
@@ -33489,8 +34646,16 @@
         <v>62</v>
       </c>
       <c r="CK95" s="9"/>
-    </row>
-    <row r="96" ht="16.5" spans="25:89">
+      <c r="CX95" s="55"/>
+      <c r="CY95" s="49"/>
+      <c r="CZ95" s="49"/>
+      <c r="DA95" s="49"/>
+      <c r="DB95" s="49"/>
+      <c r="DC95" s="49"/>
+      <c r="DD95" s="49"/>
+      <c r="DE95" s="58"/>
+    </row>
+    <row r="96" ht="16.5" spans="25:111">
       <c r="Y96" s="89"/>
       <c r="Z96" s="90"/>
       <c r="AA96" s="90"/>
@@ -33529,8 +34694,18 @@
         <v>1850</v>
       </c>
       <c r="CK96" s="9"/>
-    </row>
-    <row r="97" ht="16.5" spans="25:89">
+      <c r="CX96" s="103"/>
+      <c r="CY96" s="104"/>
+      <c r="CZ96" s="104"/>
+      <c r="DA96" s="104"/>
+      <c r="DB96" s="104"/>
+      <c r="DC96" s="104"/>
+      <c r="DD96" s="104"/>
+      <c r="DE96" s="117"/>
+      <c r="DF96" s="98"/>
+      <c r="DG96" s="98"/>
+    </row>
+    <row r="97" ht="16.5" spans="25:111">
       <c r="Y97" s="91"/>
       <c r="Z97" s="90"/>
       <c r="AA97" s="90"/>
@@ -33549,8 +34724,20 @@
         <v>1851</v>
       </c>
       <c r="CK97" s="9"/>
-    </row>
-    <row r="98" spans="25:89">
+      <c r="CX97" s="105" t="s">
+        <v>1852</v>
+      </c>
+      <c r="CY97" s="90"/>
+      <c r="CZ97" s="90"/>
+      <c r="DA97" s="90"/>
+      <c r="DB97" s="90"/>
+      <c r="DC97" s="90"/>
+      <c r="DD97" s="90"/>
+      <c r="DE97" s="118"/>
+      <c r="DF97" s="98"/>
+      <c r="DG97" s="98"/>
+    </row>
+    <row r="98" spans="25:111">
       <c r="Y98" s="89"/>
       <c r="Z98" s="90"/>
       <c r="AA98" s="90"/>
@@ -33559,11 +34746,21 @@
       <c r="AD98" s="90"/>
       <c r="AE98" s="95"/>
       <c r="CA98" s="4" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="CK98" s="9"/>
-    </row>
-    <row r="99" spans="25:89">
+      <c r="CX98" s="55"/>
+      <c r="CY98" s="106"/>
+      <c r="CZ98" s="106"/>
+      <c r="DA98" s="106"/>
+      <c r="DB98" s="106"/>
+      <c r="DC98" s="106"/>
+      <c r="DD98" s="106"/>
+      <c r="DE98" s="119"/>
+      <c r="DF98" s="98"/>
+      <c r="DG98" s="98"/>
+    </row>
+    <row r="99" spans="25:111">
       <c r="Y99" s="93"/>
       <c r="Z99" s="73"/>
       <c r="AA99" s="73"/>
@@ -33572,59 +34769,165 @@
       <c r="AD99" s="73"/>
       <c r="AE99" s="77"/>
       <c r="CA99" s="4" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="CK99" s="9"/>
-    </row>
-    <row r="100" spans="79:89">
+      <c r="CX99" s="107"/>
+      <c r="CY99" s="106"/>
+      <c r="CZ99" s="106"/>
+      <c r="DA99" s="106"/>
+      <c r="DB99" s="106"/>
+      <c r="DC99" s="106"/>
+      <c r="DD99" s="106"/>
+      <c r="DE99" s="119"/>
+      <c r="DF99" s="98"/>
+      <c r="DG99" s="98"/>
+    </row>
+    <row r="100" spans="79:111">
       <c r="CA100" s="4" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="CK100" s="9"/>
-    </row>
-    <row r="101" ht="16.5" spans="79:89">
+      <c r="CX100" s="107" t="s">
+        <v>1856</v>
+      </c>
+      <c r="CY100" s="106"/>
+      <c r="CZ100" s="106"/>
+      <c r="DA100" s="106"/>
+      <c r="DB100" s="106"/>
+      <c r="DC100" s="106"/>
+      <c r="DD100" s="106"/>
+      <c r="DE100" s="119"/>
+      <c r="DF100" s="98"/>
+      <c r="DG100" s="98"/>
+    </row>
+    <row r="101" spans="79:111">
       <c r="CA101" s="4" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="CK101" s="9"/>
-    </row>
-    <row r="102" spans="79:89">
+      <c r="CX101" s="107">
+        <v>262</v>
+      </c>
+      <c r="CY101" s="106"/>
+      <c r="CZ101" s="106"/>
+      <c r="DA101" s="106"/>
+      <c r="DB101" s="106"/>
+      <c r="DC101" s="106"/>
+      <c r="DD101" s="106"/>
+      <c r="DE101" s="119"/>
+      <c r="DF101" s="98"/>
+      <c r="DG101" s="98"/>
+    </row>
+    <row r="102" spans="79:111">
       <c r="CA102" s="4" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="CK102" s="9"/>
-    </row>
-    <row r="103" spans="79:89">
+      <c r="CX102" s="107" t="s">
+        <v>1859</v>
+      </c>
+      <c r="CY102" s="106"/>
+      <c r="CZ102" s="106"/>
+      <c r="DA102" s="106"/>
+      <c r="DB102" s="106"/>
+      <c r="DC102" s="106"/>
+      <c r="DD102" s="106"/>
+      <c r="DE102" s="119"/>
+      <c r="DF102" s="98"/>
+      <c r="DG102" s="98"/>
+    </row>
+    <row r="103" spans="79:111">
       <c r="CA103" s="4">
         <v>70</v>
       </c>
       <c r="CK103" s="9"/>
-    </row>
-    <row r="104" spans="79:89">
+      <c r="CX103" s="107" t="s">
+        <v>1860</v>
+      </c>
+      <c r="CY103" s="106"/>
+      <c r="CZ103" s="106"/>
+      <c r="DA103" s="106"/>
+      <c r="DB103" s="106"/>
+      <c r="DC103" s="106"/>
+      <c r="DD103" s="106"/>
+      <c r="DE103" s="119"/>
+      <c r="DF103" s="98"/>
+      <c r="DG103" s="98"/>
+    </row>
+    <row r="104" spans="79:111">
       <c r="CA104" s="4" t="s">
-        <v>1857</v>
+        <v>1861</v>
       </c>
       <c r="CK104" s="9"/>
-    </row>
-    <row r="105" spans="79:89">
+      <c r="CX104" s="107" t="s">
+        <v>1862</v>
+      </c>
+      <c r="CY104" s="106"/>
+      <c r="CZ104" s="106"/>
+      <c r="DA104" s="106"/>
+      <c r="DB104" s="106"/>
+      <c r="DC104" s="106"/>
+      <c r="DD104" s="106"/>
+      <c r="DE104" s="119"/>
+      <c r="DF104" s="98"/>
+      <c r="DG104" s="98"/>
+    </row>
+    <row r="105" spans="79:111">
       <c r="CA105" s="4" t="s">
-        <v>1858</v>
+        <v>1863</v>
       </c>
       <c r="CK105" s="9"/>
-    </row>
-    <row r="106" spans="79:89">
+      <c r="CX105" s="107" t="s">
+        <v>1864</v>
+      </c>
+      <c r="CY105" s="106"/>
+      <c r="CZ105" s="106"/>
+      <c r="DA105" s="106"/>
+      <c r="DB105" s="106"/>
+      <c r="DC105" s="106"/>
+      <c r="DD105" s="106"/>
+      <c r="DE105" s="119"/>
+      <c r="DF105" s="98"/>
+      <c r="DG105" s="98"/>
+    </row>
+    <row r="106" spans="79:111">
       <c r="CA106" s="4">
         <v>73</v>
       </c>
       <c r="CK106" s="9"/>
-    </row>
-    <row r="107" spans="79:89">
+      <c r="CX106" s="107" t="s">
+        <v>1865</v>
+      </c>
+      <c r="CY106" s="106"/>
+      <c r="CZ106" s="106"/>
+      <c r="DA106" s="106"/>
+      <c r="DB106" s="106"/>
+      <c r="DC106" s="106"/>
+      <c r="DD106" s="106"/>
+      <c r="DE106" s="119"/>
+      <c r="DF106" s="98"/>
+      <c r="DG106" s="98"/>
+    </row>
+    <row r="107" ht="16.5" spans="79:111">
       <c r="CA107" s="4" t="s">
-        <v>1859</v>
+        <v>1866</v>
       </c>
       <c r="CK107" s="9"/>
-    </row>
-    <row r="108" spans="56:89">
+      <c r="CX107" s="107">
+        <v>268</v>
+      </c>
+      <c r="CY107" s="106"/>
+      <c r="CZ107" s="106"/>
+      <c r="DA107" s="106"/>
+      <c r="DB107" s="106"/>
+      <c r="DC107" s="106"/>
+      <c r="DD107" s="106"/>
+      <c r="DE107" s="119"/>
+      <c r="DF107" s="98"/>
+      <c r="DG107" s="98"/>
+    </row>
+    <row r="108" spans="56:111">
       <c r="BD108" s="2"/>
       <c r="BE108" s="3"/>
       <c r="BF108" s="3"/>
@@ -33633,44 +34936,92 @@
       <c r="BI108" s="3"/>
       <c r="BJ108" s="8"/>
       <c r="CA108" s="4" t="s">
-        <v>1860</v>
+        <v>1867</v>
       </c>
       <c r="CK108" s="9"/>
-    </row>
-    <row r="109" spans="56:89">
+      <c r="CX108" s="108" t="s">
+        <v>1868</v>
+      </c>
+      <c r="CY108" s="109"/>
+      <c r="CZ108" s="109"/>
+      <c r="DA108" s="109"/>
+      <c r="DB108" s="109"/>
+      <c r="DC108" s="109"/>
+      <c r="DD108" s="109"/>
+      <c r="DE108" s="119"/>
+      <c r="DF108" s="98"/>
+      <c r="DG108" s="98"/>
+    </row>
+    <row r="109" spans="56:111">
       <c r="BD109" s="5" t="s">
-        <v>1861</v>
+        <v>1869</v>
       </c>
       <c r="BF109" s="1" t="s">
-        <v>1862</v>
+        <v>1870</v>
       </c>
       <c r="BJ109" s="9"/>
       <c r="CA109" s="4" t="s">
-        <v>1863</v>
+        <v>1871</v>
       </c>
       <c r="CK109" s="9"/>
-    </row>
-    <row r="110" spans="56:89">
+      <c r="CX109" s="108" t="s">
+        <v>1872</v>
+      </c>
+      <c r="CY109" s="109"/>
+      <c r="CZ109" s="109"/>
+      <c r="DA109" s="109"/>
+      <c r="DB109" s="109"/>
+      <c r="DC109" s="109"/>
+      <c r="DD109" s="109"/>
+      <c r="DE109" s="119"/>
+      <c r="DF109" s="98"/>
+      <c r="DG109" s="98"/>
+    </row>
+    <row r="110" spans="56:111">
       <c r="BD110" s="5"/>
       <c r="BJ110" s="9"/>
       <c r="CA110" s="4" t="s">
-        <v>1864</v>
+        <v>1873</v>
       </c>
       <c r="CK110" s="9"/>
-    </row>
-    <row r="111" spans="56:89">
+      <c r="CX110" s="108" t="s">
+        <v>1874</v>
+      </c>
+      <c r="CY110" s="109"/>
+      <c r="CZ110" s="109"/>
+      <c r="DA110" s="109"/>
+      <c r="DB110" s="109"/>
+      <c r="DC110" s="109"/>
+      <c r="DD110" s="109"/>
+      <c r="DE110" s="119"/>
+      <c r="DF110" s="98"/>
+      <c r="DG110" s="98"/>
+    </row>
+    <row r="111" spans="56:111">
       <c r="BD111" s="4" t="s">
-        <v>1865</v>
+        <v>1875</v>
       </c>
       <c r="BJ111" s="9"/>
       <c r="CA111" s="4">
         <v>78</v>
       </c>
       <c r="CK111" s="9"/>
-    </row>
-    <row r="112" spans="56:89">
+      <c r="CX111" s="108" t="s">
+        <v>1876</v>
+      </c>
+      <c r="CY111" s="109"/>
+      <c r="CZ111" s="109"/>
+      <c r="DA111" s="109"/>
+      <c r="DB111" s="109"/>
+      <c r="DC111" s="109"/>
+      <c r="DD111" s="109"/>
+      <c r="DE111" s="119"/>
+      <c r="DF111" s="98"/>
+      <c r="DG111" s="98"/>
+    </row>
+    <row r="112" spans="56:111">
       <c r="BD112" s="97" t="s">
-        <v>1866</v>
+        <v>1877</v>
       </c>
       <c r="BE112" s="100"/>
       <c r="BF112" s="100"/>
@@ -33678,13 +35029,25 @@
       <c r="BH112" s="100"/>
       <c r="BJ112" s="9"/>
       <c r="CA112" s="4" t="s">
-        <v>1867</v>
+        <v>1878</v>
       </c>
       <c r="CK112" s="9"/>
-    </row>
-    <row r="113" spans="56:89">
+      <c r="CX112" s="108" t="s">
+        <v>1879</v>
+      </c>
+      <c r="CY112" s="109"/>
+      <c r="CZ112" s="109"/>
+      <c r="DA112" s="109"/>
+      <c r="DB112" s="109"/>
+      <c r="DC112" s="109"/>
+      <c r="DD112" s="109"/>
+      <c r="DE112" s="119"/>
+      <c r="DF112" s="98"/>
+      <c r="DG112" s="98"/>
+    </row>
+    <row r="113" spans="56:111">
       <c r="BD113" s="97" t="s">
-        <v>1868</v>
+        <v>1880</v>
       </c>
       <c r="BE113" s="100"/>
       <c r="BF113" s="100"/>
@@ -33692,13 +35055,25 @@
       <c r="BH113" s="100"/>
       <c r="BJ113" s="9"/>
       <c r="CA113" s="4" t="s">
-        <v>1869</v>
+        <v>1881</v>
       </c>
       <c r="CK113" s="9"/>
-    </row>
-    <row r="114" spans="56:89">
+      <c r="CX113" s="108" t="s">
+        <v>1882</v>
+      </c>
+      <c r="CY113" s="109"/>
+      <c r="CZ113" s="109"/>
+      <c r="DA113" s="109"/>
+      <c r="DB113" s="109"/>
+      <c r="DC113" s="109"/>
+      <c r="DD113" s="109"/>
+      <c r="DE113" s="119"/>
+      <c r="DF113" s="98"/>
+      <c r="DG113" s="98"/>
+    </row>
+    <row r="114" spans="56:111">
       <c r="BD114" s="97" t="s">
-        <v>1870</v>
+        <v>1883</v>
       </c>
       <c r="BE114" s="100"/>
       <c r="BF114" s="100"/>
@@ -33706,13 +35081,25 @@
       <c r="BH114" s="100"/>
       <c r="BJ114" s="9"/>
       <c r="CA114" s="4" t="s">
-        <v>1871</v>
+        <v>1884</v>
       </c>
       <c r="CK114" s="9"/>
-    </row>
-    <row r="115" spans="56:89">
+      <c r="CX114" s="110">
+        <v>275</v>
+      </c>
+      <c r="CY114" s="109"/>
+      <c r="CZ114" s="109"/>
+      <c r="DA114" s="109"/>
+      <c r="DB114" s="109"/>
+      <c r="DC114" s="109"/>
+      <c r="DD114" s="109"/>
+      <c r="DE114" s="119"/>
+      <c r="DF114" s="98"/>
+      <c r="DG114" s="98"/>
+    </row>
+    <row r="115" spans="56:111">
       <c r="BD115" s="97" t="s">
-        <v>1872</v>
+        <v>1885</v>
       </c>
       <c r="BE115" s="100"/>
       <c r="BF115" s="100"/>
@@ -33720,13 +35107,25 @@
       <c r="BH115" s="100"/>
       <c r="BJ115" s="9"/>
       <c r="CA115" s="4" t="s">
-        <v>1873</v>
+        <v>1886</v>
       </c>
       <c r="CK115" s="9"/>
-    </row>
-    <row r="116" spans="56:89">
+      <c r="CX115" s="108" t="s">
+        <v>1887</v>
+      </c>
+      <c r="CY115" s="109"/>
+      <c r="CZ115" s="109"/>
+      <c r="DA115" s="109"/>
+      <c r="DB115" s="109"/>
+      <c r="DC115" s="109"/>
+      <c r="DD115" s="109"/>
+      <c r="DE115" s="119"/>
+      <c r="DF115" s="98"/>
+      <c r="DG115" s="98"/>
+    </row>
+    <row r="116" spans="56:111">
       <c r="BD116" s="97" t="s">
-        <v>1874</v>
+        <v>1888</v>
       </c>
       <c r="BE116" s="100"/>
       <c r="BF116" s="100"/>
@@ -33734,13 +35133,25 @@
       <c r="BH116" s="100"/>
       <c r="BJ116" s="9"/>
       <c r="CA116" s="4" t="s">
-        <v>1875</v>
+        <v>1889</v>
       </c>
       <c r="CK116" s="9"/>
-    </row>
-    <row r="117" spans="56:89">
+      <c r="CX116" s="108" t="s">
+        <v>1890</v>
+      </c>
+      <c r="CY116" s="109"/>
+      <c r="CZ116" s="109"/>
+      <c r="DA116" s="109"/>
+      <c r="DB116" s="109"/>
+      <c r="DC116" s="109"/>
+      <c r="DD116" s="109"/>
+      <c r="DE116" s="119"/>
+      <c r="DF116" s="98"/>
+      <c r="DG116" s="98"/>
+    </row>
+    <row r="117" spans="56:111">
       <c r="BD117" s="97" t="s">
-        <v>1876</v>
+        <v>1891</v>
       </c>
       <c r="BE117" s="100"/>
       <c r="BF117" s="100"/>
@@ -33748,51 +35159,111 @@
       <c r="BH117" s="100"/>
       <c r="BJ117" s="9"/>
       <c r="CA117" s="4" t="s">
-        <v>1877</v>
+        <v>1892</v>
       </c>
       <c r="CK117" s="9"/>
-    </row>
-    <row r="118" spans="56:89">
+      <c r="CX117" s="108" t="s">
+        <v>1893</v>
+      </c>
+      <c r="CY117" s="109"/>
+      <c r="CZ117" s="109"/>
+      <c r="DA117" s="109"/>
+      <c r="DB117" s="109"/>
+      <c r="DC117" s="109"/>
+      <c r="DD117" s="109"/>
+      <c r="DE117" s="119"/>
+      <c r="DF117" s="98"/>
+      <c r="DG117" s="98"/>
+    </row>
+    <row r="118" spans="56:111">
       <c r="BD118" s="4">
         <v>291</v>
       </c>
       <c r="BJ118" s="9"/>
       <c r="CA118" s="4" t="s">
-        <v>1878</v>
+        <v>1894</v>
       </c>
       <c r="CK118" s="9"/>
-    </row>
-    <row r="119" spans="56:89">
+      <c r="CX118" s="108" t="s">
+        <v>1895</v>
+      </c>
+      <c r="CY118" s="109"/>
+      <c r="CZ118" s="109"/>
+      <c r="DA118" s="109"/>
+      <c r="DB118" s="109"/>
+      <c r="DC118" s="109"/>
+      <c r="DD118" s="109"/>
+      <c r="DE118" s="119"/>
+      <c r="DF118" s="98"/>
+      <c r="DG118" s="98"/>
+    </row>
+    <row r="119" spans="56:111">
       <c r="BD119" s="97" t="s">
-        <v>1879</v>
+        <v>1896</v>
       </c>
       <c r="BJ119" s="9"/>
       <c r="CA119" s="4">
         <v>86</v>
       </c>
       <c r="CK119" s="9"/>
-    </row>
-    <row r="120" spans="56:89">
+      <c r="CX119" s="108" t="s">
+        <v>1897</v>
+      </c>
+      <c r="CY119" s="109"/>
+      <c r="CZ119" s="109"/>
+      <c r="DA119" s="109"/>
+      <c r="DB119" s="109"/>
+      <c r="DC119" s="109"/>
+      <c r="DD119" s="109"/>
+      <c r="DE119" s="119"/>
+      <c r="DF119" s="98"/>
+      <c r="DG119" s="98"/>
+    </row>
+    <row r="120" spans="56:111">
       <c r="BD120" s="4" t="s">
-        <v>1880</v>
+        <v>1898</v>
       </c>
       <c r="BJ120" s="9"/>
       <c r="CA120" s="4" t="s">
-        <v>1881</v>
+        <v>1899</v>
       </c>
       <c r="CK120" s="9"/>
-    </row>
-    <row r="121" spans="56:89">
+      <c r="CX120" s="108" t="s">
+        <v>1900</v>
+      </c>
+      <c r="CY120" s="109"/>
+      <c r="CZ120" s="109"/>
+      <c r="DA120" s="109"/>
+      <c r="DB120" s="109"/>
+      <c r="DC120" s="109"/>
+      <c r="DD120" s="109"/>
+      <c r="DE120" s="119"/>
+      <c r="DF120" s="98"/>
+      <c r="DG120" s="98"/>
+    </row>
+    <row r="121" spans="56:111">
       <c r="BD121" s="4" t="s">
-        <v>1882</v>
+        <v>1901</v>
       </c>
       <c r="BJ121" s="9"/>
       <c r="CA121" s="4" t="s">
-        <v>1883</v>
+        <v>1902</v>
       </c>
       <c r="CK121" s="9"/>
-    </row>
-    <row r="122" spans="56:89">
+      <c r="CX121" s="108" t="s">
+        <v>1903</v>
+      </c>
+      <c r="CY121" s="109"/>
+      <c r="CZ121" s="109"/>
+      <c r="DA121" s="109"/>
+      <c r="DB121" s="109"/>
+      <c r="DC121" s="109"/>
+      <c r="DD121" s="109"/>
+      <c r="DE121" s="119"/>
+      <c r="DF121" s="98"/>
+      <c r="DG121" s="98"/>
+    </row>
+    <row r="122" spans="56:111">
       <c r="BD122" s="4">
         <v>295</v>
       </c>
@@ -33801,26 +35272,62 @@
         <v>89</v>
       </c>
       <c r="CK122" s="9"/>
-    </row>
-    <row r="123" spans="56:89">
+      <c r="CX122" s="107">
+        <v>283</v>
+      </c>
+      <c r="CY122" s="106"/>
+      <c r="CZ122" s="106"/>
+      <c r="DA122" s="106"/>
+      <c r="DB122" s="106"/>
+      <c r="DC122" s="106"/>
+      <c r="DD122" s="106"/>
+      <c r="DE122" s="119"/>
+      <c r="DF122" s="98"/>
+      <c r="DG122" s="98"/>
+    </row>
+    <row r="123" spans="56:111">
       <c r="BD123" s="4" t="s">
-        <v>1884</v>
+        <v>1904</v>
       </c>
       <c r="BJ123" s="9"/>
       <c r="CA123" s="4" t="s">
-        <v>1885</v>
+        <v>1905</v>
       </c>
       <c r="CK123" s="9"/>
-    </row>
-    <row r="124" spans="56:89">
+      <c r="CX123" s="107" t="s">
+        <v>1906</v>
+      </c>
+      <c r="CY123" s="106"/>
+      <c r="CZ123" s="106"/>
+      <c r="DA123" s="106"/>
+      <c r="DB123" s="106"/>
+      <c r="DC123" s="106"/>
+      <c r="DD123" s="106"/>
+      <c r="DE123" s="119"/>
+      <c r="DF123" s="98"/>
+      <c r="DG123" s="98"/>
+    </row>
+    <row r="124" spans="56:111">
       <c r="BD124" s="5"/>
       <c r="BJ124" s="9"/>
       <c r="CA124" s="4" t="s">
-        <v>1886</v>
+        <v>1907</v>
       </c>
       <c r="CK124" s="9"/>
-    </row>
-    <row r="125" ht="16.5" spans="56:89">
+      <c r="CX124" s="107">
+        <v>285</v>
+      </c>
+      <c r="CY124" s="106"/>
+      <c r="CZ124" s="106"/>
+      <c r="DA124" s="106"/>
+      <c r="DB124" s="106"/>
+      <c r="DC124" s="106"/>
+      <c r="DD124" s="106"/>
+      <c r="DE124" s="119"/>
+      <c r="DF124" s="98"/>
+      <c r="DG124" s="98"/>
+    </row>
+    <row r="125" ht="16.5" spans="56:111">
       <c r="BD125" s="6"/>
       <c r="BE125" s="7"/>
       <c r="BF125" s="7"/>
@@ -33832,146 +35339,298 @@
         <v>92</v>
       </c>
       <c r="CK125" s="9"/>
-    </row>
-    <row r="126" spans="79:89">
+      <c r="CX125" s="111" t="s">
+        <v>1908</v>
+      </c>
+      <c r="CY125" s="112"/>
+      <c r="CZ125" s="113"/>
+      <c r="DA125" s="106"/>
+      <c r="DB125" s="106"/>
+      <c r="DC125" s="106"/>
+      <c r="DD125" s="106"/>
+      <c r="DE125" s="119"/>
+      <c r="DF125" s="98"/>
+      <c r="DG125" s="98"/>
+    </row>
+    <row r="126" spans="79:111">
       <c r="CA126" s="4" t="s">
-        <v>1887</v>
+        <v>1909</v>
       </c>
       <c r="CK126" s="9"/>
-    </row>
-    <row r="127" spans="79:89">
+      <c r="CX126" s="107">
+        <v>287</v>
+      </c>
+      <c r="CY126" s="106"/>
+      <c r="CZ126" s="114"/>
+      <c r="DA126" s="106"/>
+      <c r="DB126" s="106"/>
+      <c r="DC126" s="106"/>
+      <c r="DD126" s="106"/>
+      <c r="DE126" s="119"/>
+      <c r="DF126" s="98"/>
+      <c r="DG126" s="98"/>
+    </row>
+    <row r="127" spans="79:111">
       <c r="CA127" s="4" t="s">
-        <v>1888</v>
+        <v>1910</v>
       </c>
       <c r="CK127" s="9"/>
-    </row>
-    <row r="128" spans="79:89">
+      <c r="CX127" s="56"/>
+      <c r="CY127" s="90"/>
+      <c r="CZ127" s="90"/>
+      <c r="DA127" s="90"/>
+      <c r="DB127" s="90"/>
+      <c r="DC127" s="90"/>
+      <c r="DD127" s="90"/>
+      <c r="DE127" s="118"/>
+      <c r="DF127" s="98"/>
+      <c r="DG127" s="98"/>
+    </row>
+    <row r="128" ht="16.5" spans="79:111">
       <c r="CA128" s="97" t="s">
-        <v>1889</v>
+        <v>1911</v>
       </c>
       <c r="CK128" s="9"/>
-    </row>
-    <row r="129" spans="79:89">
+      <c r="CX128" s="115"/>
+      <c r="CY128" s="116"/>
+      <c r="CZ128" s="116"/>
+      <c r="DA128" s="116"/>
+      <c r="DB128" s="116"/>
+      <c r="DC128" s="116"/>
+      <c r="DD128" s="116"/>
+      <c r="DE128" s="120"/>
+      <c r="DF128" s="98"/>
+      <c r="DG128" s="98"/>
+    </row>
+    <row r="129" spans="79:111">
       <c r="CA129" s="97" t="s">
-        <v>1890</v>
-      </c>
-      <c r="CG129" s="143" t="s">
-        <v>1891</v>
+        <v>1912</v>
+      </c>
+      <c r="CG129" s="168" t="s">
+        <v>1913</v>
       </c>
       <c r="CK129" s="9"/>
-    </row>
-    <row r="130" spans="79:89">
+      <c r="CX129" s="141"/>
+      <c r="CY129" s="142"/>
+      <c r="CZ129" s="142"/>
+      <c r="DA129" s="142"/>
+      <c r="DB129" s="142"/>
+      <c r="DC129" s="142"/>
+      <c r="DD129" s="142"/>
+      <c r="DE129" s="146"/>
+      <c r="DF129" s="98"/>
+      <c r="DG129" s="98"/>
+    </row>
+    <row r="130" spans="79:111">
       <c r="CA130" s="97" t="s">
-        <v>1892</v>
+        <v>1914</v>
       </c>
       <c r="CK130" s="9"/>
+      <c r="CX130" s="90"/>
+      <c r="CY130" s="90"/>
+      <c r="CZ130" s="90"/>
+      <c r="DA130" s="90"/>
+      <c r="DB130" s="90"/>
+      <c r="DC130" s="90"/>
+      <c r="DD130" s="90"/>
+      <c r="DE130" s="90"/>
+      <c r="DF130" s="98"/>
+      <c r="DG130" s="98"/>
     </row>
     <row r="131" spans="79:89">
       <c r="CA131" s="97" t="s">
-        <v>1893</v>
+        <v>1915</v>
       </c>
       <c r="CB131" s="100"/>
       <c r="CC131" s="100"/>
       <c r="CD131" s="100"/>
       <c r="CE131" s="100"/>
       <c r="CF131" s="1" t="s">
-        <v>1894</v>
+        <v>1916</v>
       </c>
       <c r="CK131" s="9"/>
     </row>
-    <row r="132" spans="79:89">
+    <row r="132" spans="79:101">
       <c r="CA132" s="97" t="s">
-        <v>1895</v>
+        <v>1917</v>
       </c>
       <c r="CB132" s="100"/>
       <c r="CC132" s="100"/>
       <c r="CD132" s="100"/>
       <c r="CE132" s="100"/>
       <c r="CF132" s="1" t="s">
-        <v>1896</v>
+        <v>1918</v>
       </c>
       <c r="CK132" s="9"/>
-    </row>
-    <row r="133" ht="21" spans="79:89">
+      <c r="CV132" s="98"/>
+      <c r="CW132" s="98"/>
+    </row>
+    <row r="133" ht="21.75" spans="79:101">
       <c r="CA133" s="4">
         <v>100</v>
       </c>
-      <c r="CF133" s="115" t="s">
-        <v>1897</v>
+      <c r="CF133" s="134" t="s">
+        <v>1919</v>
       </c>
       <c r="CK133" s="9"/>
-    </row>
-    <row r="134" spans="79:89">
+      <c r="CV133" s="98"/>
+      <c r="CW133" s="98"/>
+    </row>
+    <row r="134" spans="79:104">
       <c r="CA134" s="4" t="s">
-        <v>1898</v>
+        <v>1920</v>
       </c>
       <c r="CK134" s="9"/>
-    </row>
-    <row r="135" spans="79:89">
+      <c r="CR134" s="53" t="s">
+        <v>1921</v>
+      </c>
+      <c r="CS134" s="54"/>
+      <c r="CT134" s="54"/>
+      <c r="CU134" s="54"/>
+      <c r="CV134" s="138"/>
+      <c r="CW134" s="138"/>
+      <c r="CX134" s="3"/>
+      <c r="CY134" s="3"/>
+      <c r="CZ134" s="8"/>
+    </row>
+    <row r="135" spans="79:104">
       <c r="CA135" s="4" t="s">
-        <v>1899</v>
+        <v>1922</v>
       </c>
       <c r="CK135" s="9"/>
-    </row>
-    <row r="136" spans="79:89">
+      <c r="CR135" s="55"/>
+      <c r="CS135" s="49"/>
+      <c r="CT135" s="49"/>
+      <c r="CU135" s="49"/>
+      <c r="CV135" s="90"/>
+      <c r="CW135" s="90"/>
+      <c r="CZ135" s="9"/>
+    </row>
+    <row r="136" spans="79:104">
       <c r="CA136" s="4" t="s">
-        <v>1900</v>
+        <v>1923</v>
       </c>
       <c r="CK136" s="9"/>
-    </row>
-    <row r="137" spans="79:89">
+      <c r="CR136" s="68" t="s">
+        <v>1924</v>
+      </c>
+      <c r="CS136" s="49"/>
+      <c r="CT136" s="49"/>
+      <c r="CU136" s="49"/>
+      <c r="CV136" s="90"/>
+      <c r="CW136" s="90"/>
+      <c r="CX136" s="90"/>
+      <c r="CY136" s="49"/>
+      <c r="CZ136" s="58"/>
+    </row>
+    <row r="137" spans="79:104">
       <c r="CA137" s="4" t="s">
-        <v>1901</v>
+        <v>1925</v>
       </c>
       <c r="CK137" s="9"/>
-    </row>
-    <row r="138" spans="79:89">
+      <c r="CR137" s="56" t="s">
+        <v>1713</v>
+      </c>
+      <c r="CS137" s="49"/>
+      <c r="CT137" s="49"/>
+      <c r="CU137" s="49"/>
+      <c r="CV137" s="90"/>
+      <c r="CW137" s="90"/>
+      <c r="CX137" s="90"/>
+      <c r="CY137" s="49"/>
+      <c r="CZ137" s="58"/>
+    </row>
+    <row r="138" spans="79:104">
       <c r="CA138" s="4" t="s">
-        <v>1902</v>
+        <v>1926</v>
       </c>
       <c r="CK138" s="9"/>
-    </row>
-    <row r="139" spans="79:89">
+      <c r="CR138" s="56">
+        <v>254</v>
+      </c>
+      <c r="CS138" s="49"/>
+      <c r="CT138" s="49"/>
+      <c r="CU138" s="49"/>
+      <c r="CV138" s="49"/>
+      <c r="CW138" s="49"/>
+      <c r="CX138" s="49"/>
+      <c r="CY138" s="49"/>
+      <c r="CZ138" s="58"/>
+    </row>
+    <row r="139" spans="79:104">
       <c r="CA139" s="4" t="s">
-        <v>1903</v>
+        <v>1927</v>
       </c>
       <c r="CK139" s="9"/>
-    </row>
-    <row r="140" spans="79:89">
+      <c r="CR139" s="56" t="s">
+        <v>1720</v>
+      </c>
+      <c r="CS139" s="49"/>
+      <c r="CT139" s="49"/>
+      <c r="CU139" s="49"/>
+      <c r="CV139" s="49"/>
+      <c r="CW139" s="49"/>
+      <c r="CX139" s="49"/>
+      <c r="CY139" s="49"/>
+      <c r="CZ139" s="58"/>
+    </row>
+    <row r="140" spans="79:104">
       <c r="CA140" s="4" t="s">
-        <v>1904</v>
+        <v>1928</v>
       </c>
       <c r="CK140" s="9"/>
-    </row>
-    <row r="141" spans="79:89">
+      <c r="CR140" s="56" t="s">
+        <v>1929</v>
+      </c>
+      <c r="CS140" s="49"/>
+      <c r="CT140" s="49"/>
+      <c r="CU140" s="49"/>
+      <c r="CV140" s="49"/>
+      <c r="CW140" s="49"/>
+      <c r="CX140" s="49"/>
+      <c r="CY140" s="49"/>
+      <c r="CZ140" s="58"/>
+    </row>
+    <row r="141" ht="16.5" spans="79:104">
       <c r="CA141" s="4" t="s">
-        <v>1905</v>
+        <v>1930</v>
       </c>
       <c r="CK141" s="9"/>
+      <c r="CR141" s="56" t="s">
+        <v>1931</v>
+      </c>
+      <c r="CS141" s="49"/>
+      <c r="CT141" s="49"/>
+      <c r="CU141" s="49"/>
+      <c r="CV141" s="49"/>
+      <c r="CW141" s="49"/>
+      <c r="CX141" s="49"/>
+      <c r="CY141" s="49"/>
+      <c r="CZ141" s="58"/>
     </row>
     <row r="142" spans="79:104">
       <c r="CA142" s="4" t="s">
-        <v>1906</v>
+        <v>1932</v>
       </c>
       <c r="CK142" s="9"/>
-      <c r="CR142" s="53" t="s">
-        <v>1907</v>
-      </c>
-      <c r="CS142" s="54"/>
-      <c r="CT142" s="54"/>
-      <c r="CU142" s="54"/>
-      <c r="CV142" s="54"/>
-      <c r="CW142" s="54"/>
-      <c r="CX142" s="54"/>
-      <c r="CY142" s="54"/>
-      <c r="CZ142" s="57"/>
+      <c r="CR142" s="55"/>
+      <c r="CS142" s="87"/>
+      <c r="CT142" s="87"/>
+      <c r="CU142" s="87"/>
+      <c r="CV142" s="87"/>
+      <c r="CW142" s="87"/>
+      <c r="CX142" s="87"/>
+      <c r="CY142" s="87"/>
+      <c r="CZ142" s="143"/>
     </row>
     <row r="143" spans="79:104">
       <c r="CA143" s="4">
         <v>110</v>
       </c>
       <c r="CK143" s="9"/>
-      <c r="CR143" s="55"/>
+      <c r="CR143" s="71" t="s">
+        <v>1933</v>
+      </c>
       <c r="CS143" s="49"/>
       <c r="CT143" s="49"/>
       <c r="CU143" s="49"/>
@@ -33983,16 +35642,14 @@
     </row>
     <row r="144" spans="79:104">
       <c r="CA144" s="4" t="s">
-        <v>1908</v>
+        <v>1934</v>
       </c>
       <c r="CK144" s="9"/>
-      <c r="CR144" s="116" t="s">
-        <v>1909</v>
-      </c>
-      <c r="CS144" s="119"/>
-      <c r="CT144" s="119"/>
-      <c r="CU144" s="119"/>
-      <c r="CV144" s="119"/>
+      <c r="CR144" s="55"/>
+      <c r="CS144" s="139"/>
+      <c r="CT144" s="139"/>
+      <c r="CU144" s="139"/>
+      <c r="CV144" s="139"/>
       <c r="CW144" s="49"/>
       <c r="CX144" s="49"/>
       <c r="CY144" s="49"/>
@@ -34000,16 +35657,16 @@
     </row>
     <row r="145" spans="79:104">
       <c r="CA145" s="4" t="s">
-        <v>1910</v>
+        <v>1935</v>
       </c>
       <c r="CK145" s="9"/>
-      <c r="CR145" s="116" t="s">
-        <v>1911</v>
-      </c>
-      <c r="CS145" s="119"/>
-      <c r="CT145" s="119"/>
-      <c r="CU145" s="119"/>
-      <c r="CV145" s="119"/>
+      <c r="CR145" s="135" t="s">
+        <v>1936</v>
+      </c>
+      <c r="CS145" s="139"/>
+      <c r="CT145" s="139"/>
+      <c r="CU145" s="139"/>
+      <c r="CV145" s="139"/>
       <c r="CW145" s="49"/>
       <c r="CX145" s="49"/>
       <c r="CY145" s="49"/>
@@ -34017,16 +35674,16 @@
     </row>
     <row r="146" spans="79:104">
       <c r="CA146" s="4" t="s">
-        <v>1912</v>
+        <v>1937</v>
       </c>
       <c r="CK146" s="9"/>
-      <c r="CR146" s="116" t="s">
-        <v>1913</v>
-      </c>
-      <c r="CS146" s="119"/>
-      <c r="CT146" s="119"/>
-      <c r="CU146" s="119"/>
-      <c r="CV146" s="119"/>
+      <c r="CR146" s="135" t="s">
+        <v>1938</v>
+      </c>
+      <c r="CS146" s="139"/>
+      <c r="CT146" s="139"/>
+      <c r="CU146" s="139"/>
+      <c r="CV146" s="139"/>
       <c r="CW146" s="49"/>
       <c r="CX146" s="49"/>
       <c r="CY146" s="49"/>
@@ -34034,16 +35691,16 @@
     </row>
     <row r="147" spans="79:104">
       <c r="CA147" s="4" t="s">
-        <v>1914</v>
+        <v>1939</v>
       </c>
       <c r="CK147" s="9"/>
-      <c r="CR147" s="116" t="s">
-        <v>1915</v>
-      </c>
-      <c r="CS147" s="119"/>
-      <c r="CT147" s="119"/>
-      <c r="CU147" s="119"/>
-      <c r="CV147" s="119"/>
+      <c r="CR147" s="135" t="s">
+        <v>1940</v>
+      </c>
+      <c r="CS147" s="139"/>
+      <c r="CT147" s="139"/>
+      <c r="CU147" s="139"/>
+      <c r="CV147" s="139"/>
       <c r="CW147" s="49"/>
       <c r="CX147" s="49"/>
       <c r="CY147" s="49"/>
@@ -34051,16 +35708,16 @@
     </row>
     <row r="148" spans="79:104">
       <c r="CA148" s="4" t="s">
-        <v>1916</v>
+        <v>1941</v>
       </c>
       <c r="CK148" s="9"/>
-      <c r="CR148" s="116" t="s">
-        <v>1917</v>
-      </c>
-      <c r="CS148" s="119"/>
-      <c r="CT148" s="119"/>
-      <c r="CU148" s="119"/>
-      <c r="CV148" s="119"/>
+      <c r="CR148" s="135" t="s">
+        <v>1942</v>
+      </c>
+      <c r="CS148" s="139"/>
+      <c r="CT148" s="139"/>
+      <c r="CU148" s="139"/>
+      <c r="CV148" s="139"/>
       <c r="CW148" s="49"/>
       <c r="CX148" s="49"/>
       <c r="CY148" s="49"/>
@@ -34068,10 +35725,12 @@
     </row>
     <row r="149" spans="79:104">
       <c r="CA149" s="4" t="s">
-        <v>1918</v>
+        <v>1943</v>
       </c>
       <c r="CK149" s="9"/>
-      <c r="CR149" s="55"/>
+      <c r="CR149" s="135" t="s">
+        <v>1944</v>
+      </c>
       <c r="CS149" s="49"/>
       <c r="CT149" s="49"/>
       <c r="CU149" s="49"/>
@@ -34081,7 +35740,7 @@
       <c r="CY149" s="49"/>
       <c r="CZ149" s="58"/>
     </row>
-    <row r="150" spans="79:104">
+    <row r="150" ht="16.5" spans="79:104">
       <c r="CA150" s="4">
         <v>117</v>
       </c>
@@ -34098,11 +35757,11 @@
     </row>
     <row r="151" spans="79:121">
       <c r="CA151" s="4" t="s">
-        <v>1919</v>
+        <v>1945</v>
       </c>
       <c r="CK151" s="9"/>
-      <c r="CR151" s="117" t="s">
-        <v>1920</v>
+      <c r="CR151" s="136" t="s">
+        <v>1946</v>
       </c>
       <c r="CS151" s="90"/>
       <c r="CT151" s="90"/>
@@ -34124,10 +35783,10 @@
     </row>
     <row r="152" spans="56:121">
       <c r="BD152" t="s">
-        <v>1921</v>
+        <v>1947</v>
       </c>
       <c r="CA152" s="4" t="s">
-        <v>1922</v>
+        <v>1948</v>
       </c>
       <c r="CK152" s="9"/>
       <c r="CR152" s="56">
@@ -34141,8 +35800,8 @@
       <c r="CX152" s="49"/>
       <c r="CY152" s="49"/>
       <c r="CZ152" s="58"/>
-      <c r="DI152" s="125" t="s">
-        <v>1923</v>
+      <c r="DI152" s="147" t="s">
+        <v>1949</v>
       </c>
       <c r="DJ152" s="49"/>
       <c r="DK152" s="49"/>
@@ -34155,14 +35814,14 @@
     </row>
     <row r="153" spans="56:121">
       <c r="BD153" t="s">
-        <v>1924</v>
+        <v>1950</v>
       </c>
       <c r="CA153" s="4" t="s">
-        <v>1925</v>
+        <v>1951</v>
       </c>
       <c r="CK153" s="9"/>
       <c r="CR153" s="69" t="s">
-        <v>1926</v>
+        <v>1952</v>
       </c>
       <c r="CS153" s="90"/>
       <c r="CT153" s="90"/>
@@ -34180,18 +35839,18 @@
       <c r="DN153" s="87"/>
       <c r="DO153" s="87"/>
       <c r="DP153" s="87"/>
-      <c r="DQ153" s="121"/>
+      <c r="DQ153" s="143"/>
     </row>
     <row r="154" spans="56:121">
       <c r="BD154" s="40" t="s">
-        <v>1927</v>
+        <v>1953</v>
       </c>
       <c r="CA154" s="4" t="s">
-        <v>1928</v>
+        <v>1954</v>
       </c>
       <c r="CK154" s="9"/>
       <c r="CR154" s="56" t="s">
-        <v>1929</v>
+        <v>1955</v>
       </c>
       <c r="CS154" s="90"/>
       <c r="CT154" s="90"/>
@@ -34201,28 +35860,28 @@
       <c r="CX154" s="49"/>
       <c r="CY154" s="49"/>
       <c r="CZ154" s="58"/>
-      <c r="DI154" s="117" t="s">
-        <v>1930</v>
-      </c>
-      <c r="DJ154" s="119"/>
-      <c r="DK154" s="119"/>
-      <c r="DL154" s="119"/>
-      <c r="DM154" s="119"/>
-      <c r="DN154" s="119"/>
+      <c r="DI154" s="136" t="s">
+        <v>1956</v>
+      </c>
+      <c r="DJ154" s="139"/>
+      <c r="DK154" s="139"/>
+      <c r="DL154" s="139"/>
+      <c r="DM154" s="139"/>
+      <c r="DN154" s="139"/>
       <c r="DO154" s="49"/>
       <c r="DP154" s="49"/>
       <c r="DQ154" s="58"/>
     </row>
     <row r="155" spans="57:121">
       <c r="BE155" t="s">
-        <v>1931</v>
+        <v>1957</v>
       </c>
       <c r="CA155" s="4" t="s">
-        <v>1932</v>
+        <v>1958</v>
       </c>
       <c r="CK155" s="9"/>
       <c r="CR155" s="56" t="s">
-        <v>1933</v>
+        <v>1959</v>
       </c>
       <c r="CS155" s="90"/>
       <c r="CT155" s="90"/>
@@ -34232,29 +35891,29 @@
       <c r="CX155" s="49"/>
       <c r="CY155" s="49"/>
       <c r="CZ155" s="58"/>
-      <c r="DI155" s="117" t="s">
-        <v>1934</v>
-      </c>
-      <c r="DJ155" s="119"/>
-      <c r="DK155" s="119"/>
-      <c r="DL155" s="119"/>
-      <c r="DM155" s="119"/>
-      <c r="DN155" s="119"/>
+      <c r="DI155" s="136" t="s">
+        <v>1960</v>
+      </c>
+      <c r="DJ155" s="139"/>
+      <c r="DK155" s="139"/>
+      <c r="DL155" s="139"/>
+      <c r="DM155" s="139"/>
+      <c r="DN155" s="139"/>
       <c r="DO155" s="49"/>
       <c r="DP155" s="49"/>
       <c r="DQ155" s="58"/>
     </row>
     <row r="156" spans="56:121">
       <c r="BD156" s="40" t="s">
-        <v>1935</v>
+        <v>1961</v>
       </c>
       <c r="CA156" s="4" t="s">
-        <v>1936</v>
+        <v>1962</v>
       </c>
       <c r="CK156" s="9"/>
       <c r="CR156" s="56"/>
-      <c r="CS156" s="144" t="s">
-        <v>1937</v>
+      <c r="CS156" s="169" t="s">
+        <v>1963</v>
       </c>
       <c r="CT156" s="90"/>
       <c r="CU156" s="90"/>
@@ -34263,24 +35922,24 @@
       <c r="CX156" s="49"/>
       <c r="CY156" s="49"/>
       <c r="CZ156" s="58"/>
-      <c r="DI156" s="117" t="s">
-        <v>1938</v>
-      </c>
-      <c r="DJ156" s="119"/>
-      <c r="DK156" s="119"/>
-      <c r="DL156" s="119"/>
-      <c r="DM156" s="119"/>
-      <c r="DN156" s="119"/>
+      <c r="DI156" s="136" t="s">
+        <v>1964</v>
+      </c>
+      <c r="DJ156" s="139"/>
+      <c r="DK156" s="139"/>
+      <c r="DL156" s="139"/>
+      <c r="DM156" s="139"/>
+      <c r="DN156" s="139"/>
       <c r="DO156" s="49"/>
       <c r="DP156" s="49"/>
       <c r="DQ156" s="58"/>
     </row>
     <row r="157" spans="56:121">
       <c r="BD157" t="s">
-        <v>1939</v>
+        <v>1965</v>
       </c>
       <c r="CA157" s="4" t="s">
-        <v>1940</v>
+        <v>1966</v>
       </c>
       <c r="CK157" s="9"/>
       <c r="CR157" s="55"/>
@@ -34292,14 +35951,14 @@
       <c r="CX157" s="49"/>
       <c r="CY157" s="49"/>
       <c r="CZ157" s="58"/>
-      <c r="DI157" s="117" t="s">
-        <v>1941</v>
-      </c>
-      <c r="DJ157" s="119"/>
-      <c r="DK157" s="119"/>
-      <c r="DL157" s="119"/>
-      <c r="DM157" s="119"/>
-      <c r="DN157" s="119"/>
+      <c r="DI157" s="136" t="s">
+        <v>1967</v>
+      </c>
+      <c r="DJ157" s="139"/>
+      <c r="DK157" s="139"/>
+      <c r="DL157" s="139"/>
+      <c r="DM157" s="139"/>
+      <c r="DN157" s="139"/>
       <c r="DO157" s="49"/>
       <c r="DP157" s="49"/>
       <c r="DQ157" s="58"/>
@@ -34309,11 +35968,11 @@
         <v>1179</v>
       </c>
       <c r="CA158" s="4" t="s">
-        <v>1942</v>
+        <v>1968</v>
       </c>
       <c r="CK158" s="9"/>
       <c r="CR158" s="69" t="s">
-        <v>1943</v>
+        <v>1969</v>
       </c>
       <c r="CS158" s="90"/>
       <c r="CT158" s="90"/>
@@ -34342,14 +36001,14 @@
       <c r="AL159" s="37"/>
       <c r="AM159" s="38"/>
       <c r="BD159" t="s">
-        <v>1944</v>
+        <v>1970</v>
       </c>
       <c r="CA159" s="4" t="s">
-        <v>1945</v>
+        <v>1971</v>
       </c>
       <c r="CK159" s="9"/>
       <c r="CR159" s="56" t="s">
-        <v>1946</v>
+        <v>1972</v>
       </c>
       <c r="CS159" s="49"/>
       <c r="CT159" s="49"/>
@@ -34360,7 +36019,7 @@
       <c r="CY159" s="49"/>
       <c r="CZ159" s="58"/>
       <c r="DI159" s="56" t="s">
-        <v>1947</v>
+        <v>1973</v>
       </c>
       <c r="DJ159" s="49"/>
       <c r="DK159" s="49"/>
@@ -34377,15 +36036,15 @@
       </c>
       <c r="AM160" s="41"/>
       <c r="BD160" t="s">
-        <v>1948</v>
+        <v>1974</v>
       </c>
       <c r="CA160" s="4" t="s">
-        <v>1949</v>
+        <v>1975</v>
       </c>
       <c r="CK160" s="9"/>
       <c r="CR160" s="55"/>
-      <c r="CS160" s="144" t="s">
-        <v>1950</v>
+      <c r="CS160" s="169" t="s">
+        <v>1976</v>
       </c>
       <c r="CT160" s="49"/>
       <c r="CU160" s="49"/>
@@ -34394,8 +36053,8 @@
       <c r="CX160" s="49"/>
       <c r="CY160" s="49"/>
       <c r="CZ160" s="58"/>
-      <c r="DI160" s="117" t="s">
-        <v>1951</v>
+      <c r="DI160" s="136" t="s">
+        <v>1977</v>
       </c>
       <c r="DJ160" s="49"/>
       <c r="DK160" s="49"/>
@@ -34423,7 +36082,7 @@
       <c r="CY161" s="49"/>
       <c r="CZ161" s="58"/>
       <c r="DI161" s="56" t="s">
-        <v>1952</v>
+        <v>1978</v>
       </c>
       <c r="DJ161" s="49"/>
       <c r="DK161" s="49"/>
@@ -34440,11 +36099,11 @@
       </c>
       <c r="AM162" s="41"/>
       <c r="CA162" s="4" t="s">
-        <v>1953</v>
+        <v>1979</v>
       </c>
       <c r="CK162" s="9"/>
       <c r="CR162" s="55" t="s">
-        <v>1954</v>
+        <v>1980</v>
       </c>
       <c r="CS162" s="49"/>
       <c r="CT162" s="49"/>
@@ -34470,11 +36129,11 @@
       <c r="AI163" s="39"/>
       <c r="AM163" s="41"/>
       <c r="CA163" s="4" t="s">
-        <v>1955</v>
+        <v>1981</v>
       </c>
       <c r="CK163" s="9"/>
       <c r="CR163" s="55" t="s">
-        <v>1956</v>
+        <v>1982</v>
       </c>
       <c r="CS163" s="49"/>
       <c r="CT163" s="49"/>
@@ -34484,15 +36143,15 @@
       <c r="CX163" s="49"/>
       <c r="CY163" s="49"/>
       <c r="CZ163" s="58"/>
-      <c r="DI163" s="117" t="s">
-        <v>1957</v>
-      </c>
-      <c r="DJ163" s="119"/>
-      <c r="DK163" s="119"/>
-      <c r="DL163" s="119"/>
-      <c r="DM163" s="119"/>
-      <c r="DN163" s="119"/>
-      <c r="DO163" s="119"/>
+      <c r="DI163" s="136" t="s">
+        <v>1983</v>
+      </c>
+      <c r="DJ163" s="139"/>
+      <c r="DK163" s="139"/>
+      <c r="DL163" s="139"/>
+      <c r="DM163" s="139"/>
+      <c r="DN163" s="139"/>
+      <c r="DO163" s="139"/>
       <c r="DP163" s="49"/>
       <c r="DQ163" s="58"/>
     </row>
@@ -34503,11 +36162,11 @@
       <c r="AL164" s="43"/>
       <c r="AM164" s="44"/>
       <c r="CA164" s="4" t="s">
-        <v>1958</v>
+        <v>1984</v>
       </c>
       <c r="CK164" s="9"/>
       <c r="CR164" s="55" t="s">
-        <v>1959</v>
+        <v>1985</v>
       </c>
       <c r="CS164" s="49"/>
       <c r="CT164" s="49"/>
@@ -34517,25 +36176,25 @@
       <c r="CX164" s="49"/>
       <c r="CY164" s="49"/>
       <c r="CZ164" s="58"/>
-      <c r="DI164" s="117" t="s">
-        <v>1960</v>
-      </c>
-      <c r="DJ164" s="119"/>
-      <c r="DK164" s="119"/>
-      <c r="DL164" s="119"/>
-      <c r="DM164" s="119"/>
-      <c r="DN164" s="119"/>
-      <c r="DO164" s="119"/>
+      <c r="DI164" s="136" t="s">
+        <v>1986</v>
+      </c>
+      <c r="DJ164" s="139"/>
+      <c r="DK164" s="139"/>
+      <c r="DL164" s="139"/>
+      <c r="DM164" s="139"/>
+      <c r="DN164" s="139"/>
+      <c r="DO164" s="139"/>
       <c r="DP164" s="49"/>
       <c r="DQ164" s="58"/>
     </row>
     <row r="165" ht="16.5" spans="79:121">
       <c r="CA165" s="4" t="s">
-        <v>1961</v>
+        <v>1987</v>
       </c>
       <c r="CK165" s="9"/>
       <c r="CR165" s="55" t="s">
-        <v>1962</v>
+        <v>1988</v>
       </c>
       <c r="CS165" s="49"/>
       <c r="CT165" s="49"/>
@@ -34545,15 +36204,15 @@
       <c r="CX165" s="49"/>
       <c r="CY165" s="49"/>
       <c r="CZ165" s="58"/>
-      <c r="DI165" s="117" t="s">
-        <v>1963</v>
-      </c>
-      <c r="DJ165" s="119"/>
-      <c r="DK165" s="119"/>
-      <c r="DL165" s="119"/>
-      <c r="DM165" s="119"/>
-      <c r="DN165" s="119"/>
-      <c r="DO165" s="119"/>
+      <c r="DI165" s="136" t="s">
+        <v>1989</v>
+      </c>
+      <c r="DJ165" s="139"/>
+      <c r="DK165" s="139"/>
+      <c r="DL165" s="139"/>
+      <c r="DM165" s="139"/>
+      <c r="DN165" s="139"/>
+      <c r="DO165" s="139"/>
       <c r="DP165" s="49"/>
       <c r="DQ165" s="58"/>
     </row>
@@ -34567,11 +36226,11 @@
       <c r="BG166" s="3"/>
       <c r="BH166" s="8"/>
       <c r="CA166" s="4" t="s">
-        <v>1964</v>
+        <v>1990</v>
       </c>
       <c r="CK166" s="9"/>
       <c r="CR166" s="55" t="s">
-        <v>1965</v>
+        <v>1991</v>
       </c>
       <c r="CS166" s="49"/>
       <c r="CT166" s="49"/>
@@ -34581,15 +36240,15 @@
       <c r="CX166" s="49"/>
       <c r="CY166" s="49"/>
       <c r="CZ166" s="58"/>
-      <c r="DI166" s="117" t="s">
-        <v>1966</v>
-      </c>
-      <c r="DJ166" s="119"/>
-      <c r="DK166" s="119"/>
-      <c r="DL166" s="119"/>
-      <c r="DM166" s="119"/>
-      <c r="DN166" s="119"/>
-      <c r="DO166" s="119"/>
+      <c r="DI166" s="136" t="s">
+        <v>1992</v>
+      </c>
+      <c r="DJ166" s="139"/>
+      <c r="DK166" s="139"/>
+      <c r="DL166" s="139"/>
+      <c r="DM166" s="139"/>
+      <c r="DN166" s="139"/>
+      <c r="DO166" s="139"/>
       <c r="DP166" s="49"/>
       <c r="DQ166" s="58"/>
     </row>
@@ -34601,7 +36260,7 @@
       </c>
       <c r="CK167" s="9"/>
       <c r="CR167" s="55" t="s">
-        <v>1967</v>
+        <v>1993</v>
       </c>
       <c r="CS167" s="49"/>
       <c r="CT167" s="49"/>
@@ -34611,29 +36270,29 @@
       <c r="CX167" s="49"/>
       <c r="CY167" s="49"/>
       <c r="CZ167" s="58"/>
-      <c r="DI167" s="126">
+      <c r="DI167" s="148">
         <v>18</v>
       </c>
-      <c r="DJ167" s="119"/>
-      <c r="DK167" s="119"/>
-      <c r="DL167" s="119"/>
-      <c r="DM167" s="119"/>
-      <c r="DN167" s="119"/>
-      <c r="DO167" s="119"/>
+      <c r="DJ167" s="139"/>
+      <c r="DK167" s="139"/>
+      <c r="DL167" s="139"/>
+      <c r="DM167" s="139"/>
+      <c r="DN167" s="139"/>
+      <c r="DO167" s="139"/>
       <c r="DP167" s="49"/>
       <c r="DQ167" s="58"/>
     </row>
     <row r="168" spans="53:121">
       <c r="BA168" s="5" t="s">
-        <v>1907</v>
+        <v>1921</v>
       </c>
       <c r="BH168" s="9"/>
       <c r="CA168" s="4" t="s">
-        <v>1968</v>
+        <v>1994</v>
       </c>
       <c r="CK168" s="9"/>
       <c r="CR168" s="55" t="s">
-        <v>1969</v>
+        <v>1995</v>
       </c>
       <c r="CS168" s="49"/>
       <c r="CT168" s="49"/>
@@ -34644,7 +36303,7 @@
       <c r="CY168" s="49"/>
       <c r="CZ168" s="58"/>
       <c r="DI168" s="56" t="s">
-        <v>1970</v>
+        <v>1996</v>
       </c>
       <c r="DJ168" s="49"/>
       <c r="DK168" s="49"/>
@@ -34659,12 +36318,12 @@
       <c r="BA169" s="5"/>
       <c r="BH169" s="9"/>
       <c r="CA169" s="4" t="s">
-        <v>1971</v>
+        <v>1997</v>
       </c>
       <c r="CK169" s="9"/>
       <c r="CR169" s="55"/>
-      <c r="CS169" s="144" t="s">
-        <v>1972</v>
+      <c r="CS169" s="169" t="s">
+        <v>1998</v>
       </c>
       <c r="CT169" s="49"/>
       <c r="CU169" s="49"/>
@@ -34674,7 +36333,7 @@
       <c r="CY169" s="49"/>
       <c r="CZ169" s="58"/>
       <c r="DI169" s="56" t="s">
-        <v>1973</v>
+        <v>1999</v>
       </c>
       <c r="DJ169" s="49"/>
       <c r="DK169" s="49"/>
@@ -34687,7 +36346,7 @@
     </row>
     <row r="170" ht="16.5" spans="53:121">
       <c r="BA170" s="4" t="s">
-        <v>1974</v>
+        <v>2000</v>
       </c>
       <c r="BH170" s="9"/>
       <c r="CA170" s="6"/>
@@ -34730,7 +36389,7 @@
       <c r="AE171" s="37"/>
       <c r="AF171" s="38"/>
       <c r="BA171" s="97" t="s">
-        <v>1975</v>
+        <v>2001</v>
       </c>
       <c r="BH171" s="9"/>
       <c r="CR171" s="55"/>
@@ -34741,9 +36400,9 @@
       <c r="CW171" s="87"/>
       <c r="CX171" s="87"/>
       <c r="CY171" s="87"/>
-      <c r="CZ171" s="121"/>
+      <c r="CZ171" s="143"/>
       <c r="DI171" s="56" t="s">
-        <v>1976</v>
+        <v>2002</v>
       </c>
       <c r="DJ171" s="49"/>
       <c r="DK171" s="49"/>
@@ -34764,11 +36423,11 @@
       <c r="AE172" s="20"/>
       <c r="AF172" s="41"/>
       <c r="BA172" s="4" t="s">
-        <v>1977</v>
+        <v>2003</v>
       </c>
       <c r="BH172" s="9"/>
       <c r="CR172" s="71" t="s">
-        <v>1978</v>
+        <v>2004</v>
       </c>
       <c r="CS172" s="49"/>
       <c r="CT172" s="49"/>
@@ -34779,7 +36438,7 @@
       <c r="CY172" s="49"/>
       <c r="CZ172" s="58"/>
       <c r="DI172" s="56" t="s">
-        <v>1979</v>
+        <v>2005</v>
       </c>
       <c r="DJ172" s="49"/>
       <c r="DK172" s="49"/>
@@ -34802,7 +36461,7 @@
       </c>
       <c r="BH173" s="9"/>
       <c r="CR173" s="71" t="s">
-        <v>1980</v>
+        <v>2006</v>
       </c>
       <c r="CS173" s="49"/>
       <c r="CT173" s="49"/>
@@ -34813,7 +36472,7 @@
       <c r="CY173" s="49"/>
       <c r="CZ173" s="58"/>
       <c r="DI173" s="56" t="s">
-        <v>1981</v>
+        <v>2007</v>
       </c>
       <c r="DJ173" s="49"/>
       <c r="DK173" s="49"/>
@@ -34834,10 +36493,10 @@
       <c r="AE174" s="20"/>
       <c r="AF174" s="41"/>
       <c r="BA174" s="4" t="s">
-        <v>1982</v>
+        <v>2008</v>
       </c>
       <c r="BH174" s="9"/>
-      <c r="CR174" s="118"/>
+      <c r="CR174" s="137"/>
       <c r="CS174" s="49"/>
       <c r="CT174" s="49"/>
       <c r="CU174" s="49"/>
@@ -34847,7 +36506,7 @@
       <c r="CY174" s="49"/>
       <c r="CZ174" s="58"/>
       <c r="DI174" s="56" t="s">
-        <v>1983</v>
+        <v>2009</v>
       </c>
       <c r="DJ174" s="49"/>
       <c r="DK174" s="49"/>
@@ -34869,11 +36528,11 @@
       <c r="AE175" s="20"/>
       <c r="AF175" s="41"/>
       <c r="BA175" s="4" t="s">
-        <v>1984</v>
+        <v>2010</v>
       </c>
       <c r="BH175" s="9"/>
       <c r="CR175" s="71" t="s">
-        <v>1985</v>
+        <v>2011</v>
       </c>
       <c r="CS175" s="49"/>
       <c r="CT175" s="49"/>
@@ -34906,7 +36565,7 @@
       <c r="AE176" s="20"/>
       <c r="AF176" s="41"/>
       <c r="BA176" s="97" t="s">
-        <v>1986</v>
+        <v>2012</v>
       </c>
       <c r="BH176" s="9"/>
       <c r="CR176" s="55"/>
@@ -34919,7 +36578,7 @@
       <c r="CY176" s="49"/>
       <c r="CZ176" s="58"/>
       <c r="DI176" s="56" t="s">
-        <v>1987</v>
+        <v>2013</v>
       </c>
       <c r="DJ176" s="49"/>
       <c r="DK176" s="49"/>
@@ -34941,7 +36600,7 @@
       <c r="AE177" s="20"/>
       <c r="AF177" s="41"/>
       <c r="BA177" s="97" t="s">
-        <v>1988</v>
+        <v>2014</v>
       </c>
       <c r="BH177" s="9"/>
       <c r="CR177" s="55"/>
@@ -34954,7 +36613,7 @@
       <c r="CY177" s="49"/>
       <c r="CZ177" s="58"/>
       <c r="DI177" s="56" t="s">
-        <v>1989</v>
+        <v>2015</v>
       </c>
       <c r="DJ177" s="49"/>
       <c r="DK177" s="49"/>
@@ -34976,7 +36635,7 @@
       <c r="AE178" s="20"/>
       <c r="AF178" s="41"/>
       <c r="BA178" s="4" t="s">
-        <v>1990</v>
+        <v>2016</v>
       </c>
       <c r="BH178" s="9"/>
       <c r="CR178" s="55"/>
@@ -34989,7 +36648,7 @@
       <c r="CY178" s="49"/>
       <c r="CZ178" s="58"/>
       <c r="DI178" s="56" t="s">
-        <v>1991</v>
+        <v>2017</v>
       </c>
       <c r="DJ178" s="49"/>
       <c r="DK178" s="49"/>
@@ -35014,7 +36673,7 @@
       <c r="AE179" s="20"/>
       <c r="AF179" s="41"/>
       <c r="BA179" s="4" t="s">
-        <v>1992</v>
+        <v>2018</v>
       </c>
       <c r="BH179" s="9"/>
       <c r="CR179" s="56"/>
@@ -35025,9 +36684,9 @@
       <c r="CW179" s="90"/>
       <c r="CX179" s="90"/>
       <c r="CY179" s="90"/>
-      <c r="CZ179" s="122"/>
+      <c r="CZ179" s="118"/>
       <c r="DI179" s="56" t="s">
-        <v>1993</v>
+        <v>2019</v>
       </c>
       <c r="DJ179" s="49"/>
       <c r="DK179" s="49"/>
@@ -35042,7 +36701,7 @@
     <row r="180" spans="21:139">
       <c r="U180" s="39"/>
       <c r="V180" s="40" t="s">
-        <v>1994</v>
+        <v>2020</v>
       </c>
       <c r="W180" s="41"/>
       <c r="AA180" s="39"/>
@@ -35052,11 +36711,11 @@
       <c r="AE180" s="20"/>
       <c r="AF180" s="41"/>
       <c r="BA180" s="4" t="s">
-        <v>1995</v>
+        <v>2021</v>
       </c>
       <c r="BH180" s="9"/>
       <c r="CR180" s="68" t="s">
-        <v>1996</v>
+        <v>2022</v>
       </c>
       <c r="CS180" s="90"/>
       <c r="CT180" s="90"/>
@@ -35065,8 +36724,8 @@
       <c r="CW180" s="90"/>
       <c r="CX180" s="90"/>
       <c r="CY180" s="90"/>
-      <c r="CZ180" s="122"/>
-      <c r="DB180" s="123"/>
+      <c r="CZ180" s="118"/>
+      <c r="DB180" s="144"/>
       <c r="DC180" s="87"/>
       <c r="DD180" s="87"/>
       <c r="DE180" s="87"/>
@@ -35074,7 +36733,7 @@
       <c r="DG180" s="87"/>
       <c r="DH180" s="94"/>
       <c r="DI180" s="56" t="s">
-        <v>1997</v>
+        <v>2023</v>
       </c>
       <c r="DJ180" s="49"/>
       <c r="DK180" s="49"/>
@@ -35097,7 +36756,7 @@
       <c r="AE181" s="20"/>
       <c r="AF181" s="41"/>
       <c r="BA181" s="4" t="s">
-        <v>1998</v>
+        <v>2024</v>
       </c>
       <c r="BH181" s="9"/>
       <c r="BT181" s="88"/>
@@ -35121,7 +36780,7 @@
       <c r="CW181" s="90"/>
       <c r="CX181" s="90"/>
       <c r="CY181" s="90"/>
-      <c r="CZ181" s="122"/>
+      <c r="CZ181" s="118"/>
       <c r="DB181" s="88"/>
       <c r="DC181" s="49"/>
       <c r="DD181" s="49"/>
@@ -35130,7 +36789,7 @@
       <c r="DG181" s="49"/>
       <c r="DH181" s="76"/>
       <c r="DI181" s="56" t="s">
-        <v>1999</v>
+        <v>2025</v>
       </c>
       <c r="DJ181" s="49"/>
       <c r="DK181" s="49"/>
@@ -35150,7 +36809,7 @@
       <c r="AE182" s="20"/>
       <c r="AF182" s="41"/>
       <c r="BA182" s="4" t="s">
-        <v>2000</v>
+        <v>2026</v>
       </c>
       <c r="BH182" s="9"/>
       <c r="BT182" s="88"/>
@@ -35172,7 +36831,7 @@
       <c r="CW182" s="90"/>
       <c r="CX182" s="90"/>
       <c r="CY182" s="90"/>
-      <c r="CZ182" s="122"/>
+      <c r="CZ182" s="118"/>
       <c r="DB182" s="88"/>
       <c r="DC182" s="49"/>
       <c r="DD182" s="49"/>
@@ -35181,7 +36840,7 @@
       <c r="DG182" s="49"/>
       <c r="DH182" s="76"/>
       <c r="DI182" s="56" t="s">
-        <v>2001</v>
+        <v>2027</v>
       </c>
       <c r="DJ182" s="49"/>
       <c r="DK182" s="49"/>
@@ -35202,15 +36861,15 @@
       <c r="AD183" s="20"/>
       <c r="AE183" s="20"/>
       <c r="AF183" s="41"/>
-      <c r="AI183" s="102" t="s">
+      <c r="AI183" s="121" t="s">
         <v>1750</v>
       </c>
-      <c r="AJ183" s="103"/>
-      <c r="AK183" s="103"/>
-      <c r="AL183" s="103"/>
-      <c r="AM183" s="103"/>
-      <c r="AN183" s="111"/>
-      <c r="AO183" s="111"/>
+      <c r="AJ183" s="122"/>
+      <c r="AK183" s="122"/>
+      <c r="AL183" s="122"/>
+      <c r="AM183" s="122"/>
+      <c r="AN183" s="130"/>
+      <c r="AO183" s="130"/>
       <c r="AP183" s="54"/>
       <c r="AQ183" s="54"/>
       <c r="AR183" s="54"/>
@@ -35220,7 +36879,7 @@
       <c r="AV183" s="54"/>
       <c r="AW183" s="57"/>
       <c r="BA183" s="4" t="s">
-        <v>2002</v>
+        <v>2028</v>
       </c>
       <c r="BH183" s="9"/>
       <c r="BT183" s="53"/>
@@ -35279,12 +36938,12 @@
       <c r="AE184" s="20"/>
       <c r="AF184" s="41"/>
       <c r="AI184" s="55"/>
-      <c r="AJ184" s="104"/>
-      <c r="AK184" s="104"/>
-      <c r="AL184" s="104"/>
-      <c r="AM184" s="107"/>
-      <c r="AN184" s="112"/>
-      <c r="AO184" s="112"/>
+      <c r="AJ184" s="123"/>
+      <c r="AK184" s="123"/>
+      <c r="AL184" s="123"/>
+      <c r="AM184" s="126"/>
+      <c r="AN184" s="131"/>
+      <c r="AO184" s="131"/>
       <c r="AP184" s="49"/>
       <c r="AQ184" s="49"/>
       <c r="AR184" s="49"/>
@@ -35294,11 +36953,11 @@
       <c r="AV184" s="49"/>
       <c r="AW184" s="58"/>
       <c r="BA184" s="4" t="s">
-        <v>2003</v>
+        <v>2029</v>
       </c>
       <c r="BH184" s="9"/>
       <c r="BT184" s="71" t="s">
-        <v>2004</v>
+        <v>2030</v>
       </c>
       <c r="BU184" s="49"/>
       <c r="BV184" s="49"/>
@@ -35319,7 +36978,7 @@
       <c r="CK184" s="49"/>
       <c r="CL184" s="58"/>
       <c r="CR184" s="55" t="s">
-        <v>2005</v>
+        <v>2031</v>
       </c>
       <c r="CS184" s="49"/>
       <c r="CT184" s="49"/>
@@ -35330,7 +36989,7 @@
       <c r="CY184" s="49"/>
       <c r="CZ184" s="58"/>
       <c r="DB184" s="93"/>
-      <c r="DC184" s="124"/>
+      <c r="DC184" s="145"/>
       <c r="DD184" s="73"/>
       <c r="DE184" s="73"/>
       <c r="DF184" s="73"/>
@@ -35348,15 +37007,15 @@
       <c r="AD185" s="20"/>
       <c r="AE185" s="20"/>
       <c r="AF185" s="41"/>
-      <c r="AI185" s="105" t="s">
-        <v>2006</v>
-      </c>
-      <c r="AJ185" s="104"/>
-      <c r="AK185" s="104"/>
-      <c r="AL185" s="104"/>
-      <c r="AM185" s="107"/>
-      <c r="AN185" s="112"/>
-      <c r="AO185" s="112"/>
+      <c r="AI185" s="124" t="s">
+        <v>2032</v>
+      </c>
+      <c r="AJ185" s="123"/>
+      <c r="AK185" s="123"/>
+      <c r="AL185" s="123"/>
+      <c r="AM185" s="126"/>
+      <c r="AN185" s="131"/>
+      <c r="AO185" s="131"/>
       <c r="AP185" s="49"/>
       <c r="AQ185" s="49"/>
       <c r="AR185" s="49"/>
@@ -35366,7 +37025,7 @@
       <c r="AV185" s="49"/>
       <c r="AW185" s="58"/>
       <c r="BA185" s="4" t="s">
-        <v>2007</v>
+        <v>2033</v>
       </c>
       <c r="BH185" s="9"/>
       <c r="BT185" s="55"/>
@@ -35389,7 +37048,7 @@
       <c r="CK185" s="49"/>
       <c r="CL185" s="58"/>
       <c r="CR185" s="55" t="s">
-        <v>2008</v>
+        <v>2034</v>
       </c>
       <c r="CS185" s="49"/>
       <c r="CT185" s="49"/>
@@ -35409,12 +37068,12 @@
       <c r="AE186" s="20"/>
       <c r="AF186" s="41"/>
       <c r="AI186" s="55"/>
-      <c r="AJ186" s="104"/>
-      <c r="AK186" s="104"/>
-      <c r="AL186" s="104"/>
-      <c r="AM186" s="107"/>
-      <c r="AN186" s="112"/>
-      <c r="AO186" s="112"/>
+      <c r="AJ186" s="123"/>
+      <c r="AK186" s="123"/>
+      <c r="AL186" s="123"/>
+      <c r="AM186" s="126"/>
+      <c r="AN186" s="131"/>
+      <c r="AO186" s="131"/>
       <c r="AP186" s="49"/>
       <c r="AQ186" s="49"/>
       <c r="AR186" s="49"/>
@@ -35424,11 +37083,11 @@
       <c r="AV186" s="49"/>
       <c r="AW186" s="58"/>
       <c r="BA186" s="4" t="s">
-        <v>2009</v>
+        <v>2035</v>
       </c>
       <c r="BH186" s="9"/>
-      <c r="BT186" s="114" t="s">
-        <v>2010</v>
+      <c r="BT186" s="133" t="s">
+        <v>2036</v>
       </c>
       <c r="BU186" s="49"/>
       <c r="BV186" s="49"/>
@@ -35449,7 +37108,7 @@
       <c r="CK186" s="49"/>
       <c r="CL186" s="58"/>
       <c r="CR186" s="71" t="s">
-        <v>2011</v>
+        <v>2037</v>
       </c>
       <c r="CS186" s="49"/>
       <c r="CT186" s="49"/>
@@ -35468,15 +37127,15 @@
       <c r="AD187" s="20"/>
       <c r="AE187" s="20"/>
       <c r="AF187" s="41"/>
-      <c r="AI187" s="105" t="s">
-        <v>2012</v>
-      </c>
-      <c r="AJ187" s="104"/>
-      <c r="AK187" s="104"/>
-      <c r="AL187" s="104"/>
-      <c r="AM187" s="107"/>
-      <c r="AN187" s="112"/>
-      <c r="AO187" s="112"/>
+      <c r="AI187" s="124" t="s">
+        <v>2038</v>
+      </c>
+      <c r="AJ187" s="123"/>
+      <c r="AK187" s="123"/>
+      <c r="AL187" s="123"/>
+      <c r="AM187" s="126"/>
+      <c r="AN187" s="131"/>
+      <c r="AO187" s="131"/>
       <c r="AP187" s="49"/>
       <c r="AQ187" s="49"/>
       <c r="AR187" s="49"/>
@@ -35486,7 +37145,7 @@
       <c r="AV187" s="49"/>
       <c r="AW187" s="58"/>
       <c r="BA187" s="4" t="s">
-        <v>2013</v>
+        <v>2039</v>
       </c>
       <c r="BH187" s="9"/>
       <c r="BT187" s="55"/>
@@ -35510,7 +37169,7 @@
       <c r="CL187" s="58"/>
       <c r="CR187" s="55"/>
       <c r="CS187" s="74" t="s">
-        <v>2014</v>
+        <v>2040</v>
       </c>
       <c r="CT187" s="49"/>
       <c r="CU187" s="49"/>
@@ -35520,7 +37179,7 @@
       <c r="CY187" s="49"/>
       <c r="CZ187" s="58"/>
       <c r="DC187" t="s">
-        <v>2014</v>
+        <v>2040</v>
       </c>
       <c r="EI187" s="76"/>
     </row>
@@ -35533,15 +37192,15 @@
       <c r="AD188" s="20"/>
       <c r="AE188" s="20"/>
       <c r="AF188" s="41"/>
-      <c r="AI188" s="106" t="s">
-        <v>2015</v>
-      </c>
-      <c r="AJ188" s="104"/>
-      <c r="AK188" s="104"/>
-      <c r="AL188" s="104"/>
-      <c r="AM188" s="107"/>
-      <c r="AN188" s="112"/>
-      <c r="AO188" s="112"/>
+      <c r="AI188" s="125" t="s">
+        <v>2041</v>
+      </c>
+      <c r="AJ188" s="123"/>
+      <c r="AK188" s="123"/>
+      <c r="AL188" s="123"/>
+      <c r="AM188" s="126"/>
+      <c r="AN188" s="131"/>
+      <c r="AO188" s="131"/>
       <c r="AP188" s="49"/>
       <c r="AQ188" s="49"/>
       <c r="AR188" s="49"/>
@@ -35551,7 +37210,7 @@
       <c r="AV188" s="49"/>
       <c r="AW188" s="58"/>
       <c r="BA188" s="4" t="s">
-        <v>2016</v>
+        <v>2042</v>
       </c>
       <c r="BH188" s="9"/>
       <c r="BT188" s="55"/>
@@ -35591,15 +37250,15 @@
       <c r="AD189" s="20"/>
       <c r="AE189" s="20"/>
       <c r="AF189" s="41"/>
-      <c r="AI189" s="106">
+      <c r="AI189" s="125">
         <v>314</v>
       </c>
-      <c r="AJ189" s="107"/>
-      <c r="AK189" s="107"/>
-      <c r="AL189" s="107"/>
-      <c r="AM189" s="107"/>
-      <c r="AN189" s="112"/>
-      <c r="AO189" s="112"/>
+      <c r="AJ189" s="126"/>
+      <c r="AK189" s="126"/>
+      <c r="AL189" s="126"/>
+      <c r="AM189" s="126"/>
+      <c r="AN189" s="131"/>
+      <c r="AO189" s="131"/>
       <c r="AP189" s="49"/>
       <c r="AQ189" s="49"/>
       <c r="AR189" s="49"/>
@@ -35609,7 +37268,7 @@
       <c r="AV189" s="49"/>
       <c r="AW189" s="58"/>
       <c r="BA189" s="4" t="s">
-        <v>2017</v>
+        <v>2043</v>
       </c>
       <c r="BH189" s="9"/>
       <c r="BT189" s="51"/>
@@ -35649,15 +37308,15 @@
       <c r="AD190" s="43"/>
       <c r="AE190" s="43"/>
       <c r="AF190" s="44"/>
-      <c r="AI190" s="106" t="s">
-        <v>2018</v>
-      </c>
-      <c r="AJ190" s="104"/>
-      <c r="AK190" s="104"/>
-      <c r="AL190" s="104"/>
-      <c r="AM190" s="104"/>
-      <c r="AN190" s="112"/>
-      <c r="AO190" s="112"/>
+      <c r="AI190" s="125" t="s">
+        <v>2044</v>
+      </c>
+      <c r="AJ190" s="123"/>
+      <c r="AK190" s="123"/>
+      <c r="AL190" s="123"/>
+      <c r="AM190" s="123"/>
+      <c r="AN190" s="131"/>
+      <c r="AO190" s="131"/>
       <c r="AP190" s="49"/>
       <c r="AQ190" s="49"/>
       <c r="AR190" s="49"/>
@@ -35667,7 +37326,7 @@
       <c r="AV190" s="49"/>
       <c r="AW190" s="58"/>
       <c r="BA190" s="4" t="s">
-        <v>2019</v>
+        <v>2045</v>
       </c>
       <c r="BH190" s="9"/>
       <c r="BT190" s="88"/>
@@ -35681,9 +37340,11 @@
       <c r="CB190" s="49"/>
       <c r="CC190" s="49"/>
       <c r="CD190" s="76"/>
-      <c r="CR190" s="5" t="s">
-        <v>2020</v>
-      </c>
+      <c r="CR190" s="55" t="s">
+        <v>2046</v>
+      </c>
+      <c r="CS190" s="49"/>
+      <c r="CT190" s="49"/>
       <c r="CU190" s="49"/>
       <c r="CV190" s="49"/>
       <c r="CW190" s="49"/>
@@ -35710,15 +37371,15 @@
       <c r="EI190" s="76"/>
     </row>
     <row r="191" spans="35:139">
-      <c r="AI191" s="108">
+      <c r="AI191" s="127">
         <v>316</v>
       </c>
-      <c r="AJ191" s="109"/>
-      <c r="AK191" s="109"/>
-      <c r="AL191" s="109"/>
-      <c r="AM191" s="109"/>
-      <c r="AN191" s="113"/>
-      <c r="AO191" s="112"/>
+      <c r="AJ191" s="128"/>
+      <c r="AK191" s="128"/>
+      <c r="AL191" s="128"/>
+      <c r="AM191" s="128"/>
+      <c r="AN191" s="132"/>
+      <c r="AO191" s="131"/>
       <c r="AP191" s="49"/>
       <c r="AQ191" s="49"/>
       <c r="AR191" s="49"/>
@@ -35728,7 +37389,7 @@
       <c r="AV191" s="49"/>
       <c r="AW191" s="58"/>
       <c r="BA191" s="4" t="s">
-        <v>2021</v>
+        <v>2047</v>
       </c>
       <c r="BH191" s="9"/>
       <c r="BT191" s="88"/>
@@ -35742,9 +37403,11 @@
       <c r="CB191" s="49"/>
       <c r="CC191" s="49"/>
       <c r="CD191" s="76"/>
-      <c r="CR191" s="63" t="s">
-        <v>2022</v>
-      </c>
+      <c r="CR191" s="71" t="s">
+        <v>2048</v>
+      </c>
+      <c r="CS191" s="49"/>
+      <c r="CT191" s="49"/>
       <c r="CU191" s="49"/>
       <c r="CV191" s="49"/>
       <c r="CW191" s="49"/>
@@ -35773,15 +37436,15 @@
       <c r="EI191" s="76"/>
     </row>
     <row r="192" spans="35:139">
-      <c r="AI192" s="110" t="s">
-        <v>2023</v>
-      </c>
-      <c r="AJ192" s="104"/>
-      <c r="AK192" s="104"/>
-      <c r="AL192" s="104"/>
-      <c r="AM192" s="104"/>
-      <c r="AN192" s="104"/>
-      <c r="AO192" s="112"/>
+      <c r="AI192" s="129" t="s">
+        <v>2049</v>
+      </c>
+      <c r="AJ192" s="123"/>
+      <c r="AK192" s="123"/>
+      <c r="AL192" s="123"/>
+      <c r="AM192" s="123"/>
+      <c r="AN192" s="123"/>
+      <c r="AO192" s="131"/>
       <c r="AP192" s="49"/>
       <c r="AQ192" s="49"/>
       <c r="AR192" s="49"/>
@@ -35791,7 +37454,7 @@
       <c r="AV192" s="49"/>
       <c r="AW192" s="58"/>
       <c r="BA192" s="4" t="s">
-        <v>2024</v>
+        <v>2050</v>
       </c>
       <c r="BH192" s="9"/>
       <c r="BT192" s="88"/>
@@ -35805,9 +37468,11 @@
       <c r="CB192" s="49"/>
       <c r="CC192" s="49"/>
       <c r="CD192" s="76"/>
-      <c r="CR192" s="5" t="s">
-        <v>2025</v>
-      </c>
+      <c r="CR192" s="55" t="s">
+        <v>2051</v>
+      </c>
+      <c r="CS192" s="49"/>
+      <c r="CT192" s="49"/>
       <c r="CU192" s="49"/>
       <c r="CV192" s="49"/>
       <c r="CW192" s="49"/>
@@ -35834,15 +37499,15 @@
       <c r="EI192" s="76"/>
     </row>
     <row r="193" spans="35:139">
-      <c r="AI193" s="127" t="s">
-        <v>2026</v>
-      </c>
-      <c r="AJ193" s="109"/>
-      <c r="AK193" s="109"/>
-      <c r="AL193" s="109"/>
-      <c r="AM193" s="109"/>
-      <c r="AN193" s="109"/>
-      <c r="AO193" s="113"/>
+      <c r="AI193" s="149" t="s">
+        <v>2052</v>
+      </c>
+      <c r="AJ193" s="128"/>
+      <c r="AK193" s="128"/>
+      <c r="AL193" s="128"/>
+      <c r="AM193" s="128"/>
+      <c r="AN193" s="128"/>
+      <c r="AO193" s="132"/>
       <c r="AP193" s="49"/>
       <c r="AQ193" s="49"/>
       <c r="AR193" s="49"/>
@@ -35852,7 +37517,7 @@
       <c r="AV193" s="49"/>
       <c r="AW193" s="58"/>
       <c r="BA193" s="4" t="s">
-        <v>2027</v>
+        <v>2053</v>
       </c>
       <c r="BH193" s="9"/>
       <c r="BT193" s="88"/>
@@ -35866,9 +37531,11 @@
       <c r="CB193" s="49"/>
       <c r="CC193" s="49"/>
       <c r="CD193" s="76"/>
-      <c r="CR193" s="63" t="s">
-        <v>2028</v>
-      </c>
+      <c r="CR193" s="71" t="s">
+        <v>2054</v>
+      </c>
+      <c r="CS193" s="49"/>
+      <c r="CT193" s="49"/>
       <c r="CU193" s="49"/>
       <c r="CV193" s="49"/>
       <c r="CW193" s="49"/>
@@ -35897,13 +37564,13 @@
       <c r="EI193" s="76"/>
     </row>
     <row r="194" spans="35:139">
-      <c r="AI194" s="128"/>
-      <c r="AJ194" s="104"/>
-      <c r="AK194" s="104"/>
-      <c r="AL194" s="104"/>
-      <c r="AM194" s="104"/>
-      <c r="AN194" s="104"/>
-      <c r="AO194" s="112"/>
+      <c r="AI194" s="150"/>
+      <c r="AJ194" s="123"/>
+      <c r="AK194" s="123"/>
+      <c r="AL194" s="123"/>
+      <c r="AM194" s="123"/>
+      <c r="AN194" s="123"/>
+      <c r="AO194" s="131"/>
       <c r="AP194" s="49"/>
       <c r="AQ194" s="49"/>
       <c r="AR194" s="49"/>
@@ -35913,7 +37580,7 @@
       <c r="AV194" s="49"/>
       <c r="AW194" s="58"/>
       <c r="BA194" s="97" t="s">
-        <v>2029</v>
+        <v>2055</v>
       </c>
       <c r="BH194" s="9"/>
       <c r="BT194" s="88"/>
@@ -35927,9 +37594,11 @@
       <c r="CB194" s="49"/>
       <c r="CC194" s="49"/>
       <c r="CD194" s="76"/>
-      <c r="CR194" s="5" t="s">
-        <v>2030</v>
-      </c>
+      <c r="CR194" s="55" t="s">
+        <v>2056</v>
+      </c>
+      <c r="CS194" s="49"/>
+      <c r="CT194" s="49"/>
       <c r="CU194" s="49"/>
       <c r="CV194" s="49"/>
       <c r="CW194" s="49"/>
@@ -35958,8 +37627,8 @@
       <c r="EI194" s="76"/>
     </row>
     <row r="195" ht="21" spans="35:139">
-      <c r="AI195" s="129" t="s">
-        <v>2031</v>
+      <c r="AI195" s="151" t="s">
+        <v>2057</v>
       </c>
       <c r="AJ195" s="73"/>
       <c r="AK195" s="73"/>
@@ -35976,7 +37645,7 @@
       <c r="AV195" s="49"/>
       <c r="AW195" s="58"/>
       <c r="BA195" s="97" t="s">
-        <v>2032</v>
+        <v>2058</v>
       </c>
       <c r="BH195" s="9"/>
       <c r="BT195" s="88"/>
@@ -35990,10 +37659,11 @@
       <c r="CB195" s="49"/>
       <c r="CC195" s="49"/>
       <c r="CD195" s="76"/>
-      <c r="CR195" s="5"/>
-      <c r="CS195" s="145" t="s">
-        <v>2033</v>
-      </c>
+      <c r="CR195" s="55"/>
+      <c r="CS195" s="170" t="s">
+        <v>2059</v>
+      </c>
+      <c r="CT195" s="49"/>
       <c r="CU195" s="49"/>
       <c r="CV195" s="49"/>
       <c r="CW195" s="49"/>
@@ -36038,8 +37708,8 @@
       <c r="AV196" s="52"/>
       <c r="AW196" s="59"/>
       <c r="BA196" s="6"/>
-      <c r="BB196" s="130" t="s">
-        <v>2034</v>
+      <c r="BB196" s="152" t="s">
+        <v>2060</v>
       </c>
       <c r="BC196" s="7"/>
       <c r="BD196" s="7"/>
@@ -36047,6 +37717,9 @@
       <c r="BF196" s="7"/>
       <c r="BG196" s="7"/>
       <c r="BH196" s="10"/>
+      <c r="BM196" t="s">
+        <v>2061</v>
+      </c>
       <c r="BT196" s="88"/>
       <c r="BU196" s="49"/>
       <c r="BV196" s="49"/>
@@ -36096,7 +37769,7 @@
       <c r="BX197" s="49"/>
       <c r="BY197" s="49"/>
       <c r="BZ197" s="53" t="s">
-        <v>2035</v>
+        <v>2062</v>
       </c>
       <c r="CA197" s="54"/>
       <c r="CB197" s="54"/>
@@ -36178,7 +37851,7 @@
     </row>
     <row r="199" ht="16.5" spans="78:139">
       <c r="BZ199" s="4" t="s">
-        <v>2036</v>
+        <v>2063</v>
       </c>
       <c r="CA199" s="98"/>
       <c r="CB199" s="98"/>
@@ -36225,22 +37898,22 @@
       <c r="AX200" s="54"/>
       <c r="AY200" s="54"/>
       <c r="AZ200" s="57"/>
-      <c r="BI200" s="131" t="s">
-        <v>2037</v>
-      </c>
-      <c r="BJ200" s="132"/>
-      <c r="BK200" s="132"/>
-      <c r="BL200" s="132"/>
-      <c r="BM200" s="132"/>
-      <c r="BN200" s="132"/>
-      <c r="BO200" s="132"/>
-      <c r="BP200" s="132"/>
-      <c r="BQ200" s="132"/>
-      <c r="BR200" s="132"/>
-      <c r="BS200" s="132"/>
-      <c r="BT200" s="135"/>
+      <c r="BI200" s="153" t="s">
+        <v>2064</v>
+      </c>
+      <c r="BJ200" s="154"/>
+      <c r="BK200" s="154"/>
+      <c r="BL200" s="154"/>
+      <c r="BM200" s="154"/>
+      <c r="BN200" s="154"/>
+      <c r="BO200" s="154"/>
+      <c r="BP200" s="154"/>
+      <c r="BQ200" s="154"/>
+      <c r="BR200" s="154"/>
+      <c r="BS200" s="154"/>
+      <c r="BT200" s="157"/>
       <c r="BZ200" s="4" t="s">
-        <v>2038</v>
+        <v>2065</v>
       </c>
       <c r="CA200" s="98"/>
       <c r="CB200" s="98"/>
@@ -36302,7 +37975,7 @@
       <c r="BS201" s="98"/>
       <c r="BT201" s="101"/>
       <c r="BZ201" s="4" t="s">
-        <v>2039</v>
+        <v>2066</v>
       </c>
       <c r="CA201" s="98"/>
       <c r="CB201" s="98"/>
@@ -36350,7 +38023,7 @@
       <c r="AY202" s="49"/>
       <c r="AZ202" s="58"/>
       <c r="BI202" s="97" t="s">
-        <v>2040</v>
+        <v>2067</v>
       </c>
       <c r="BJ202" s="98"/>
       <c r="BK202" s="98"/>
@@ -36364,7 +38037,7 @@
       <c r="BS202" s="98"/>
       <c r="BT202" s="101"/>
       <c r="BZ202" s="4" t="s">
-        <v>2038</v>
+        <v>2065</v>
       </c>
       <c r="CA202" s="98"/>
       <c r="CB202" s="98"/>
@@ -36414,7 +38087,7 @@
       <c r="AY203" s="49"/>
       <c r="AZ203" s="58"/>
       <c r="BI203" s="97" t="s">
-        <v>2041</v>
+        <v>2068</v>
       </c>
       <c r="BJ203" s="98"/>
       <c r="BK203" s="98"/>
@@ -36428,7 +38101,7 @@
       <c r="BS203" s="98"/>
       <c r="BT203" s="101"/>
       <c r="BZ203" s="4" t="s">
-        <v>2042</v>
+        <v>2069</v>
       </c>
       <c r="CA203" s="98"/>
       <c r="CB203" s="98"/>
@@ -36478,7 +38151,7 @@
       <c r="AY204" s="49"/>
       <c r="AZ204" s="58"/>
       <c r="BI204" s="4" t="s">
-        <v>2043</v>
+        <v>2070</v>
       </c>
       <c r="BJ204" s="98"/>
       <c r="BK204" s="98"/>
@@ -36492,7 +38165,7 @@
       <c r="BS204" s="98"/>
       <c r="BT204" s="101"/>
       <c r="BZ204" s="4" t="s">
-        <v>2044</v>
+        <v>2071</v>
       </c>
       <c r="CA204" s="98"/>
       <c r="CB204" s="98"/>
@@ -36542,7 +38215,7 @@
       <c r="AY205" s="49"/>
       <c r="AZ205" s="58"/>
       <c r="BI205" s="4" t="s">
-        <v>2045</v>
+        <v>2072</v>
       </c>
       <c r="BJ205" s="98"/>
       <c r="BK205" s="98"/>
@@ -36556,7 +38229,7 @@
       <c r="BS205" s="98"/>
       <c r="BT205" s="101"/>
       <c r="BZ205" s="4" t="s">
-        <v>2046</v>
+        <v>2073</v>
       </c>
       <c r="CA205" s="98"/>
       <c r="CB205" s="98"/>
@@ -36617,7 +38290,7 @@
       <c r="AY206" s="49"/>
       <c r="AZ206" s="58"/>
       <c r="BI206" s="4" t="s">
-        <v>2047</v>
+        <v>2074</v>
       </c>
       <c r="BJ206" s="98"/>
       <c r="BK206" s="98"/>
@@ -36631,7 +38304,7 @@
       <c r="BS206" s="98"/>
       <c r="BT206" s="101"/>
       <c r="BZ206" s="4" t="s">
-        <v>2048</v>
+        <v>2075</v>
       </c>
       <c r="CA206" s="98"/>
       <c r="CB206" s="98"/>
@@ -36690,7 +38363,7 @@
       <c r="AY207" s="49"/>
       <c r="AZ207" s="58"/>
       <c r="BI207" s="4" t="s">
-        <v>2049</v>
+        <v>2076</v>
       </c>
       <c r="BJ207" s="98"/>
       <c r="BK207" s="98"/>
@@ -36704,7 +38377,7 @@
       <c r="BS207" s="98"/>
       <c r="BT207" s="101"/>
       <c r="BZ207" s="4" t="s">
-        <v>2038</v>
+        <v>2065</v>
       </c>
       <c r="CA207" s="98"/>
       <c r="CB207" s="98"/>
@@ -36712,7 +38385,7 @@
       <c r="CD207" s="98"/>
       <c r="CG207" s="9"/>
       <c r="DG207" s="69" t="s">
-        <v>2050</v>
+        <v>2077</v>
       </c>
       <c r="DH207" s="49"/>
       <c r="DI207" s="49"/>
@@ -36765,7 +38438,7 @@
       <c r="AY208" s="49"/>
       <c r="AZ208" s="58"/>
       <c r="BI208" s="4" t="s">
-        <v>2051</v>
+        <v>2078</v>
       </c>
       <c r="BJ208" s="98"/>
       <c r="BK208" s="98"/>
@@ -36779,7 +38452,7 @@
       <c r="BS208" s="98"/>
       <c r="BT208" s="101"/>
       <c r="BZ208" s="97" t="s">
-        <v>2052</v>
+        <v>2079</v>
       </c>
       <c r="CA208" s="99"/>
       <c r="CB208" s="99"/>
@@ -36788,7 +38461,7 @@
       <c r="CE208" s="100"/>
       <c r="CG208" s="9"/>
       <c r="DG208" s="69" t="s">
-        <v>2053</v>
+        <v>2080</v>
       </c>
       <c r="DH208" s="49"/>
       <c r="DI208" s="49"/>
@@ -36840,8 +38513,8 @@
       <c r="AX209" s="49"/>
       <c r="AY209" s="49"/>
       <c r="AZ209" s="58"/>
-      <c r="BI209" s="146" t="s">
-        <v>2054</v>
+      <c r="BI209" s="171" t="s">
+        <v>2081</v>
       </c>
       <c r="BJ209" s="98"/>
       <c r="BK209" s="98"/>
@@ -36855,7 +38528,7 @@
       <c r="BS209" s="98"/>
       <c r="BT209" s="101"/>
       <c r="BZ209" s="97" t="s">
-        <v>2055</v>
+        <v>2082</v>
       </c>
       <c r="CA209" s="99"/>
       <c r="CB209" s="99"/>
@@ -36864,7 +38537,7 @@
       <c r="CE209" s="100"/>
       <c r="CG209" s="9"/>
       <c r="DG209" s="69" t="s">
-        <v>2056</v>
+        <v>2083</v>
       </c>
       <c r="DH209" s="49"/>
       <c r="DI209" s="49"/>
@@ -36917,7 +38590,7 @@
       <c r="AY210" s="49"/>
       <c r="AZ210" s="58"/>
       <c r="BI210" s="4" t="s">
-        <v>2057</v>
+        <v>2084</v>
       </c>
       <c r="BJ210" s="98"/>
       <c r="BK210" s="98"/>
@@ -36931,7 +38604,7 @@
       <c r="BS210" s="98"/>
       <c r="BT210" s="101"/>
       <c r="BZ210" s="97" t="s">
-        <v>2058</v>
+        <v>2085</v>
       </c>
       <c r="CA210" s="99"/>
       <c r="CB210" s="99"/>
@@ -36979,7 +38652,7 @@
       <c r="AY211" s="49"/>
       <c r="AZ211" s="58"/>
       <c r="BI211" s="4" t="s">
-        <v>2059</v>
+        <v>2086</v>
       </c>
       <c r="BJ211" s="98"/>
       <c r="BK211" s="98"/>
@@ -36993,7 +38666,7 @@
       <c r="BS211" s="98"/>
       <c r="BT211" s="101"/>
       <c r="BZ211" s="97" t="s">
-        <v>2060</v>
+        <v>2087</v>
       </c>
       <c r="CA211" s="99"/>
       <c r="CB211" s="99"/>
@@ -37043,7 +38716,7 @@
       <c r="AY212" s="49"/>
       <c r="AZ212" s="58"/>
       <c r="BI212" s="4" t="s">
-        <v>2061</v>
+        <v>2088</v>
       </c>
       <c r="BJ212" s="98"/>
       <c r="BK212" s="98"/>
@@ -37057,7 +38730,7 @@
       <c r="BS212" s="98"/>
       <c r="BT212" s="101"/>
       <c r="BZ212" s="97" t="s">
-        <v>2062</v>
+        <v>2089</v>
       </c>
       <c r="CA212" s="99"/>
       <c r="CB212" s="99"/>
@@ -37105,7 +38778,7 @@
       <c r="AY213" s="49"/>
       <c r="AZ213" s="58"/>
       <c r="BI213" s="4" t="s">
-        <v>2063</v>
+        <v>2090</v>
       </c>
       <c r="BJ213" s="98"/>
       <c r="BK213" s="98"/>
@@ -37119,7 +38792,7 @@
       <c r="BS213" s="98"/>
       <c r="BT213" s="101"/>
       <c r="BZ213" s="97" t="s">
-        <v>2058</v>
+        <v>2085</v>
       </c>
       <c r="CA213" s="99"/>
       <c r="CB213" s="99"/>
@@ -37167,7 +38840,7 @@
       <c r="AY214" s="49"/>
       <c r="AZ214" s="58"/>
       <c r="BI214" s="4" t="s">
-        <v>2064</v>
+        <v>2091</v>
       </c>
       <c r="BJ214" s="98"/>
       <c r="BK214" s="98"/>
@@ -37181,7 +38854,7 @@
       <c r="BS214" s="98"/>
       <c r="BT214" s="101"/>
       <c r="BZ214" s="97" t="s">
-        <v>2065</v>
+        <v>2092</v>
       </c>
       <c r="CA214" s="99"/>
       <c r="CB214" s="99"/>
@@ -37229,7 +38902,7 @@
       <c r="AY215" s="49"/>
       <c r="AZ215" s="58"/>
       <c r="BI215" s="4" t="s">
-        <v>2066</v>
+        <v>2093</v>
       </c>
       <c r="BJ215" s="98"/>
       <c r="BK215" s="98"/>
@@ -37243,7 +38916,7 @@
       <c r="BS215" s="98"/>
       <c r="BT215" s="101"/>
       <c r="BZ215" s="97" t="s">
-        <v>2067</v>
+        <v>2094</v>
       </c>
       <c r="CA215" s="99"/>
       <c r="CB215" s="99"/>
@@ -37252,7 +38925,7 @@
       <c r="CE215" s="100"/>
       <c r="CG215" s="9"/>
       <c r="DG215" s="72" t="s">
-        <v>2068</v>
+        <v>2095</v>
       </c>
       <c r="DH215" s="49"/>
       <c r="DI215" s="49"/>
@@ -37293,7 +38966,7 @@
       <c r="AY216" s="49"/>
       <c r="AZ216" s="58"/>
       <c r="BI216" s="4" t="s">
-        <v>2069</v>
+        <v>2096</v>
       </c>
       <c r="BJ216" s="98"/>
       <c r="BK216" s="98"/>
@@ -37307,7 +38980,7 @@
       <c r="BS216" s="98"/>
       <c r="BT216" s="101"/>
       <c r="BZ216" s="97" t="s">
-        <v>2058</v>
+        <v>2085</v>
       </c>
       <c r="CA216" s="99"/>
       <c r="CB216" s="99"/>
@@ -37316,7 +38989,7 @@
       <c r="CE216" s="100"/>
       <c r="CG216" s="9"/>
       <c r="DG216" s="50" t="s">
-        <v>2070</v>
+        <v>2097</v>
       </c>
       <c r="DH216" s="49"/>
       <c r="DI216" s="49"/>
@@ -37337,7 +39010,7 @@
     </row>
     <row r="217" spans="35:127">
       <c r="AI217" s="69" t="s">
-        <v>2071</v>
+        <v>2098</v>
       </c>
       <c r="AJ217" s="49"/>
       <c r="AK217" s="49"/>
@@ -37357,7 +39030,7 @@
       <c r="AY217" s="49"/>
       <c r="AZ217" s="58"/>
       <c r="BI217" s="4" t="s">
-        <v>2072</v>
+        <v>2099</v>
       </c>
       <c r="BJ217" s="98"/>
       <c r="BK217" s="98"/>
@@ -37371,7 +39044,7 @@
       <c r="BS217" s="98"/>
       <c r="BT217" s="101"/>
       <c r="BZ217" s="97" t="s">
-        <v>2073</v>
+        <v>2100</v>
       </c>
       <c r="CA217" s="99"/>
       <c r="CB217" s="99"/>
@@ -37380,7 +39053,7 @@
       <c r="CE217" s="100"/>
       <c r="CG217" s="9"/>
       <c r="DG217" s="55" t="s">
-        <v>2074</v>
+        <v>2101</v>
       </c>
       <c r="DH217" s="49"/>
       <c r="DI217" s="49"/>
@@ -37401,7 +39074,7 @@
     </row>
     <row r="218" ht="16.5" spans="35:127">
       <c r="AI218" s="69" t="s">
-        <v>2075</v>
+        <v>2102</v>
       </c>
       <c r="AJ218" s="49"/>
       <c r="AK218" s="49"/>
@@ -37421,7 +39094,7 @@
       <c r="AY218" s="49"/>
       <c r="AZ218" s="58"/>
       <c r="BI218" s="4" t="s">
-        <v>2076</v>
+        <v>2103</v>
       </c>
       <c r="BJ218" s="98"/>
       <c r="BK218" s="98"/>
@@ -37435,7 +39108,7 @@
       <c r="BS218" s="98"/>
       <c r="BT218" s="101"/>
       <c r="BZ218" s="4" t="s">
-        <v>2038</v>
+        <v>2065</v>
       </c>
       <c r="CA218" s="98"/>
       <c r="CB218" s="98"/>
@@ -37462,7 +39135,7 @@
     </row>
     <row r="219" spans="35:127">
       <c r="AI219" s="69" t="s">
-        <v>2077</v>
+        <v>2104</v>
       </c>
       <c r="AJ219" s="49"/>
       <c r="AK219" s="49"/>
@@ -37482,7 +39155,7 @@
       <c r="AY219" s="49"/>
       <c r="AZ219" s="58"/>
       <c r="BI219" s="4" t="s">
-        <v>2078</v>
+        <v>2105</v>
       </c>
       <c r="BJ219" s="98"/>
       <c r="BK219" s="98"/>
@@ -37496,7 +39169,7 @@
       <c r="BS219" s="98"/>
       <c r="BT219" s="101"/>
       <c r="BZ219" s="4" t="s">
-        <v>2079</v>
+        <v>2106</v>
       </c>
       <c r="CA219" s="98"/>
       <c r="CB219" s="98"/>
@@ -37541,7 +39214,7 @@
       <c r="AY220" s="49"/>
       <c r="AZ220" s="58"/>
       <c r="BI220" s="4" t="s">
-        <v>2080</v>
+        <v>2107</v>
       </c>
       <c r="BJ220" s="98"/>
       <c r="BK220" s="98"/>
@@ -37555,7 +39228,7 @@
       <c r="BS220" s="98"/>
       <c r="BT220" s="101"/>
       <c r="BZ220" s="4" t="s">
-        <v>2081</v>
+        <v>2108</v>
       </c>
       <c r="CA220" s="98"/>
       <c r="CB220" s="98"/>
@@ -37563,7 +39236,7 @@
       <c r="CD220" s="98"/>
       <c r="CG220" s="9"/>
       <c r="DG220" s="72" t="s">
-        <v>2082</v>
+        <v>2109</v>
       </c>
       <c r="DH220" s="49"/>
       <c r="DI220" s="49"/>
@@ -37573,7 +39246,7 @@
       <c r="DM220" s="49"/>
       <c r="DN220" s="49"/>
       <c r="DO220" s="74" t="s">
-        <v>2083</v>
+        <v>2110</v>
       </c>
       <c r="DP220" s="49"/>
       <c r="DQ220" s="49"/>
@@ -37590,7 +39263,7 @@
       </c>
       <c r="AZ221" s="9"/>
       <c r="BI221" s="4" t="s">
-        <v>2084</v>
+        <v>2111</v>
       </c>
       <c r="BJ221" s="98"/>
       <c r="BK221" s="98"/>
@@ -37604,7 +39277,7 @@
       <c r="BS221" s="98"/>
       <c r="BT221" s="101"/>
       <c r="BZ221" s="4" t="s">
-        <v>2085</v>
+        <v>2112</v>
       </c>
       <c r="CA221" s="98"/>
       <c r="CB221" s="98"/>
@@ -37635,7 +39308,7 @@
       <c r="AI222" s="5"/>
       <c r="AZ222" s="9"/>
       <c r="BI222" s="4" t="s">
-        <v>2086</v>
+        <v>2113</v>
       </c>
       <c r="BJ222" s="98"/>
       <c r="BK222" s="98"/>
@@ -37649,7 +39322,7 @@
       <c r="BS222" s="98"/>
       <c r="BT222" s="101"/>
       <c r="BZ222" s="4" t="s">
-        <v>2087</v>
+        <v>2114</v>
       </c>
       <c r="CA222" s="98"/>
       <c r="CB222" s="98"/>
@@ -37700,7 +39373,7 @@
       <c r="AY223" s="49"/>
       <c r="AZ223" s="58"/>
       <c r="BI223" s="4" t="s">
-        <v>2088</v>
+        <v>2115</v>
       </c>
       <c r="BJ223" s="98"/>
       <c r="BK223" s="98"/>
@@ -37714,7 +39387,7 @@
       <c r="BS223" s="98"/>
       <c r="BT223" s="101"/>
       <c r="BZ223" s="4" t="s">
-        <v>2038</v>
+        <v>2065</v>
       </c>
       <c r="CA223" s="98"/>
       <c r="CB223" s="98"/>
@@ -37763,7 +39436,7 @@
       <c r="AY224" s="49"/>
       <c r="AZ224" s="58"/>
       <c r="BI224" s="4" t="s">
-        <v>2089</v>
+        <v>2116</v>
       </c>
       <c r="BJ224" s="98"/>
       <c r="BK224" s="98"/>
@@ -37777,7 +39450,7 @@
       <c r="BS224" s="98"/>
       <c r="BT224" s="101"/>
       <c r="BZ224" s="4" t="s">
-        <v>2090</v>
+        <v>2117</v>
       </c>
       <c r="CA224" s="98"/>
       <c r="CB224" s="98"/>
@@ -37826,7 +39499,7 @@
       <c r="AY225" s="49"/>
       <c r="AZ225" s="58"/>
       <c r="BI225" s="4" t="s">
-        <v>2091</v>
+        <v>2118</v>
       </c>
       <c r="BJ225" s="98"/>
       <c r="BK225" s="98"/>
@@ -37885,7 +39558,7 @@
       <c r="AY226" s="49"/>
       <c r="AZ226" s="58"/>
       <c r="BI226" s="4" t="s">
-        <v>2092</v>
+        <v>2119</v>
       </c>
       <c r="BJ226" s="98"/>
       <c r="BK226" s="98"/>
@@ -37899,7 +39572,7 @@
       <c r="BS226" s="98"/>
       <c r="BT226" s="101"/>
       <c r="BZ226" s="4" t="s">
-        <v>2093</v>
+        <v>2120</v>
       </c>
       <c r="CA226" s="98"/>
       <c r="CB226" s="98"/>
@@ -37924,7 +39597,7 @@
       <c r="DV226" s="49"/>
       <c r="DW226" s="58"/>
     </row>
-    <row r="227" spans="35:127">
+    <row r="227" ht="21" spans="35:127">
       <c r="AI227" s="55" t="s">
         <v>1783</v>
       </c>
@@ -37946,7 +39619,7 @@
       <c r="AY227" s="49"/>
       <c r="AZ227" s="58"/>
       <c r="BI227" s="4" t="s">
-        <v>2094</v>
+        <v>2121</v>
       </c>
       <c r="BJ227" s="98"/>
       <c r="BK227" s="98"/>
@@ -37960,7 +39633,7 @@
       <c r="BS227" s="98"/>
       <c r="BT227" s="101"/>
       <c r="BZ227" s="4" t="s">
-        <v>2095</v>
+        <v>2122</v>
       </c>
       <c r="CA227" s="98"/>
       <c r="CB227" s="98"/>
@@ -37968,15 +39641,15 @@
       <c r="CD227" s="98"/>
       <c r="CG227" s="9"/>
       <c r="DG227" s="69" t="s">
-        <v>2096</v>
+        <v>2123</v>
       </c>
       <c r="DH227" s="49"/>
       <c r="DI227" s="49"/>
       <c r="DJ227" s="49"/>
       <c r="DK227" s="49"/>
       <c r="DL227" s="49"/>
-      <c r="DM227" s="74" t="s">
-        <v>2097</v>
+      <c r="DM227" s="159" t="s">
+        <v>2124</v>
       </c>
       <c r="DN227" s="49"/>
       <c r="DO227" s="49"/>
@@ -38009,7 +39682,7 @@
       <c r="AY228" s="73"/>
       <c r="AZ228" s="78"/>
       <c r="BI228" s="4" t="s">
-        <v>2098</v>
+        <v>2125</v>
       </c>
       <c r="BJ228" s="98"/>
       <c r="BK228" s="98"/>
@@ -38066,7 +39739,7 @@
       <c r="AY229" s="49"/>
       <c r="AZ229" s="58"/>
       <c r="BI229" s="4" t="s">
-        <v>2099</v>
+        <v>2126</v>
       </c>
       <c r="BJ229" s="98"/>
       <c r="BK229" s="98"/>
@@ -38080,7 +39753,7 @@
       <c r="BS229" s="98"/>
       <c r="BT229" s="101"/>
       <c r="BZ229" s="4" t="s">
-        <v>2100</v>
+        <v>2127</v>
       </c>
       <c r="CA229" s="98"/>
       <c r="CB229" s="98"/>
@@ -38125,7 +39798,7 @@
       <c r="AY230" s="49"/>
       <c r="AZ230" s="58"/>
       <c r="BI230" s="4" t="s">
-        <v>2101</v>
+        <v>2128</v>
       </c>
       <c r="BJ230" s="98"/>
       <c r="BK230" s="98"/>
@@ -38139,7 +39812,7 @@
       <c r="BS230" s="98"/>
       <c r="BT230" s="101"/>
       <c r="BZ230" s="4" t="s">
-        <v>2102</v>
+        <v>2129</v>
       </c>
       <c r="CA230" s="98"/>
       <c r="CB230" s="98"/>
@@ -38186,7 +39859,7 @@
       <c r="AY231" s="73"/>
       <c r="AZ231" s="78"/>
       <c r="BI231" s="4" t="s">
-        <v>2103</v>
+        <v>2130</v>
       </c>
       <c r="BJ231" s="98"/>
       <c r="BK231" s="98"/>
@@ -38200,7 +39873,7 @@
       <c r="BS231" s="98"/>
       <c r="BT231" s="101"/>
       <c r="BZ231" s="4" t="s">
-        <v>2104</v>
+        <v>2131</v>
       </c>
       <c r="CA231" s="98"/>
       <c r="CB231" s="98"/>
@@ -38208,7 +39881,7 @@
       <c r="CD231" s="98"/>
       <c r="CG231" s="9"/>
       <c r="DG231" s="56" t="s">
-        <v>2105</v>
+        <v>2132</v>
       </c>
       <c r="DH231" s="49"/>
       <c r="DI231" s="49"/>
@@ -38247,7 +39920,7 @@
       <c r="AY232" s="49"/>
       <c r="AZ232" s="58"/>
       <c r="BI232" s="4" t="s">
-        <v>2106</v>
+        <v>2133</v>
       </c>
       <c r="BJ232" s="98"/>
       <c r="BK232" s="98"/>
@@ -38261,7 +39934,7 @@
       <c r="BS232" s="98"/>
       <c r="BT232" s="101"/>
       <c r="BZ232" s="4" t="s">
-        <v>2107</v>
+        <v>2134</v>
       </c>
       <c r="CA232" s="98"/>
       <c r="CB232" s="98"/>
@@ -38269,7 +39942,7 @@
       <c r="CD232" s="98"/>
       <c r="CG232" s="9"/>
       <c r="DG232" s="68" t="s">
-        <v>2108</v>
+        <v>2135</v>
       </c>
       <c r="DH232" s="49"/>
       <c r="DI232" s="49"/>
@@ -38308,7 +39981,7 @@
       <c r="AY233" s="49"/>
       <c r="AZ233" s="58"/>
       <c r="BI233" s="4" t="s">
-        <v>2109</v>
+        <v>2136</v>
       </c>
       <c r="BJ233" s="98"/>
       <c r="BK233" s="98"/>
@@ -38323,14 +39996,14 @@
       <c r="BT233" s="101"/>
       <c r="BZ233" s="4"/>
       <c r="CA233" s="98" t="s">
-        <v>2110</v>
+        <v>2137</v>
       </c>
       <c r="CB233" s="98"/>
       <c r="CC233" s="98"/>
       <c r="CD233" s="98"/>
       <c r="CG233" s="9"/>
       <c r="DG233" s="68" t="s">
-        <v>2111</v>
+        <v>2138</v>
       </c>
       <c r="DH233" s="49"/>
       <c r="DI233" s="49"/>
@@ -38369,7 +40042,7 @@
       <c r="AY234" s="49"/>
       <c r="AZ234" s="58"/>
       <c r="BI234" s="4" t="s">
-        <v>2112</v>
+        <v>2139</v>
       </c>
       <c r="BJ234" s="98"/>
       <c r="BK234" s="98"/>
@@ -38385,13 +40058,13 @@
       <c r="BZ234" s="4"/>
       <c r="CA234" s="98"/>
       <c r="CB234" s="98" t="s">
-        <v>2113</v>
+        <v>2140</v>
       </c>
       <c r="CC234" s="98"/>
       <c r="CD234" s="98"/>
       <c r="CG234" s="9"/>
       <c r="DG234" s="68" t="s">
-        <v>2114</v>
+        <v>2141</v>
       </c>
       <c r="DH234" s="49"/>
       <c r="DI234" s="49"/>
@@ -38430,7 +40103,7 @@
       <c r="AY235" s="52"/>
       <c r="AZ235" s="59"/>
       <c r="BI235" s="4" t="s">
-        <v>2115</v>
+        <v>2142</v>
       </c>
       <c r="BJ235" s="98"/>
       <c r="BK235" s="98"/>
@@ -38445,7 +40118,7 @@
       <c r="BT235" s="101"/>
       <c r="BZ235" s="4"/>
       <c r="CA235" s="98" t="s">
-        <v>2116</v>
+        <v>2143</v>
       </c>
       <c r="CB235" s="98"/>
       <c r="CC235" s="98"/>
@@ -38471,7 +40144,7 @@
     </row>
     <row r="236" spans="61:127">
       <c r="BI236" s="4" t="s">
-        <v>2117</v>
+        <v>2144</v>
       </c>
       <c r="BJ236" s="98"/>
       <c r="BK236" s="98"/>
@@ -38485,7 +40158,7 @@
       <c r="BS236" s="98"/>
       <c r="BT236" s="101"/>
       <c r="BZ236" s="4" t="s">
-        <v>2118</v>
+        <v>2145</v>
       </c>
       <c r="CA236" s="98"/>
       <c r="CB236" s="98"/>
@@ -38512,7 +40185,7 @@
     </row>
     <row r="237" spans="61:127">
       <c r="BI237" s="4" t="s">
-        <v>2119</v>
+        <v>2146</v>
       </c>
       <c r="BJ237" s="98"/>
       <c r="BK237" s="98"/>
@@ -38532,7 +40205,7 @@
       <c r="CD237" s="98"/>
       <c r="CG237" s="9"/>
       <c r="DG237" s="56" t="s">
-        <v>2120</v>
+        <v>2147</v>
       </c>
       <c r="DH237" s="49"/>
       <c r="DI237" s="49"/>
@@ -38553,7 +40226,7 @@
     </row>
     <row r="238" spans="61:127">
       <c r="BI238" s="4" t="s">
-        <v>2121</v>
+        <v>2148</v>
       </c>
       <c r="BJ238" s="98"/>
       <c r="BK238" s="98"/>
@@ -38567,7 +40240,7 @@
       <c r="BS238" s="98"/>
       <c r="BT238" s="101"/>
       <c r="BZ238" s="4" t="s">
-        <v>2122</v>
+        <v>2149</v>
       </c>
       <c r="CA238" s="98"/>
       <c r="CB238" s="98"/>
@@ -38575,7 +40248,7 @@
       <c r="CD238" s="98"/>
       <c r="CG238" s="9"/>
       <c r="DG238" s="56" t="s">
-        <v>2123</v>
+        <v>2150</v>
       </c>
       <c r="DH238" s="49"/>
       <c r="DI238" s="49"/>
@@ -38596,7 +40269,7 @@
     </row>
     <row r="239" spans="61:127">
       <c r="BI239" s="4" t="s">
-        <v>2124</v>
+        <v>2151</v>
       </c>
       <c r="BJ239" s="98"/>
       <c r="BK239" s="98"/>
@@ -38610,7 +40283,7 @@
       <c r="BS239" s="98"/>
       <c r="BT239" s="101"/>
       <c r="BZ239" s="4" t="s">
-        <v>2125</v>
+        <v>2152</v>
       </c>
       <c r="CA239" s="98"/>
       <c r="CB239" s="98"/>
@@ -38618,7 +40291,7 @@
       <c r="CD239" s="98"/>
       <c r="CG239" s="9"/>
       <c r="DG239" s="56" t="s">
-        <v>2126</v>
+        <v>2153</v>
       </c>
       <c r="DH239" s="49"/>
       <c r="DI239" s="49"/>
@@ -38639,7 +40312,7 @@
     </row>
     <row r="240" spans="61:127">
       <c r="BI240" s="4" t="s">
-        <v>2127</v>
+        <v>2154</v>
       </c>
       <c r="BJ240" s="98"/>
       <c r="BK240" s="98"/>
@@ -38653,7 +40326,7 @@
       <c r="BS240" s="98"/>
       <c r="BT240" s="101"/>
       <c r="BZ240" s="4" t="s">
-        <v>2128</v>
+        <v>2155</v>
       </c>
       <c r="CA240" s="98"/>
       <c r="CB240" s="98"/>
@@ -38661,7 +40334,7 @@
       <c r="CD240" s="98"/>
       <c r="CG240" s="9"/>
       <c r="DG240" s="68" t="s">
-        <v>2129</v>
+        <v>2156</v>
       </c>
       <c r="DH240" s="49"/>
       <c r="DI240" s="49"/>
@@ -38682,7 +40355,7 @@
     </row>
     <row r="241" spans="61:127">
       <c r="BI241" s="4" t="s">
-        <v>2130</v>
+        <v>2157</v>
       </c>
       <c r="BJ241" s="98"/>
       <c r="BK241" s="98"/>
@@ -38696,7 +40369,7 @@
       <c r="BS241" s="98"/>
       <c r="BT241" s="101"/>
       <c r="BZ241" s="4" t="s">
-        <v>2107</v>
+        <v>2134</v>
       </c>
       <c r="CA241" s="98"/>
       <c r="CB241" s="98"/>
@@ -38704,7 +40377,7 @@
       <c r="CD241" s="98"/>
       <c r="CG241" s="9"/>
       <c r="DG241" s="56" t="s">
-        <v>2131</v>
+        <v>2158</v>
       </c>
       <c r="DH241" s="49"/>
       <c r="DI241" s="49"/>
@@ -38725,7 +40398,7 @@
     </row>
     <row r="242" spans="61:127">
       <c r="BI242" s="4" t="s">
-        <v>2132</v>
+        <v>2159</v>
       </c>
       <c r="BJ242" s="98"/>
       <c r="BK242" s="98"/>
@@ -38740,14 +40413,14 @@
       <c r="BT242" s="101"/>
       <c r="BZ242" s="4"/>
       <c r="CA242" s="98" t="s">
-        <v>2133</v>
+        <v>2160</v>
       </c>
       <c r="CB242" s="98"/>
       <c r="CC242" s="98"/>
       <c r="CD242" s="98"/>
       <c r="CG242" s="9"/>
       <c r="DG242" s="56" t="s">
-        <v>2134</v>
+        <v>2161</v>
       </c>
       <c r="DH242" s="49"/>
       <c r="DI242" s="49"/>
@@ -38768,7 +40441,7 @@
     </row>
     <row r="243" spans="61:127">
       <c r="BI243" s="4" t="s">
-        <v>2135</v>
+        <v>2162</v>
       </c>
       <c r="BJ243" s="98"/>
       <c r="BK243" s="98"/>
@@ -38784,13 +40457,13 @@
       <c r="BZ243" s="4"/>
       <c r="CA243" s="98"/>
       <c r="CB243" s="98" t="s">
-        <v>2136</v>
+        <v>2163</v>
       </c>
       <c r="CC243" s="98"/>
       <c r="CD243" s="98"/>
       <c r="CG243" s="9"/>
       <c r="DG243" s="56" t="s">
-        <v>2137</v>
+        <v>2164</v>
       </c>
       <c r="DH243" s="49"/>
       <c r="DI243" s="49"/>
@@ -38811,7 +40484,7 @@
     </row>
     <row r="244" spans="61:127">
       <c r="BI244" s="4" t="s">
-        <v>2138</v>
+        <v>2165</v>
       </c>
       <c r="BJ244" s="98"/>
       <c r="BK244" s="98"/>
@@ -38825,7 +40498,7 @@
       <c r="BS244" s="98"/>
       <c r="BT244" s="101"/>
       <c r="BZ244" s="4" t="s">
-        <v>2118</v>
+        <v>2145</v>
       </c>
       <c r="CA244" s="98"/>
       <c r="CB244" s="98"/>
@@ -38854,7 +40527,7 @@
     </row>
     <row r="245" spans="61:127">
       <c r="BI245" s="4" t="s">
-        <v>2139</v>
+        <v>2166</v>
       </c>
       <c r="BJ245" s="98"/>
       <c r="BK245" s="98"/>
@@ -38874,13 +40547,13 @@
       <c r="CD245" s="98"/>
       <c r="CG245" s="9"/>
       <c r="DG245" s="68" t="s">
-        <v>2140</v>
+        <v>2167</v>
       </c>
       <c r="DH245" s="49"/>
       <c r="DI245" s="49"/>
       <c r="DJ245" s="49"/>
       <c r="DK245" s="74" t="s">
-        <v>2141</v>
+        <v>2168</v>
       </c>
       <c r="DL245" s="49"/>
       <c r="DM245" s="49"/>
@@ -38897,7 +40570,7 @@
     </row>
     <row r="246" spans="61:127">
       <c r="BI246" s="4" t="s">
-        <v>2142</v>
+        <v>2169</v>
       </c>
       <c r="BJ246" s="98"/>
       <c r="BK246" s="98"/>
@@ -38911,7 +40584,7 @@
       <c r="BS246" s="98"/>
       <c r="BT246" s="101"/>
       <c r="BZ246" s="4" t="s">
-        <v>2143</v>
+        <v>2170</v>
       </c>
       <c r="CA246" s="98"/>
       <c r="CB246" s="98"/>
@@ -38919,7 +40592,7 @@
       <c r="CD246" s="98"/>
       <c r="CG246" s="9"/>
       <c r="DG246" s="56" t="s">
-        <v>2144</v>
+        <v>2171</v>
       </c>
       <c r="DH246" s="49"/>
       <c r="DI246" s="49"/>
@@ -38940,7 +40613,7 @@
     </row>
     <row r="247" spans="61:127">
       <c r="BI247" s="4" t="s">
-        <v>2145</v>
+        <v>2172</v>
       </c>
       <c r="BJ247" s="98"/>
       <c r="BK247" s="98"/>
@@ -38954,7 +40627,7 @@
       <c r="BS247" s="98"/>
       <c r="BT247" s="101"/>
       <c r="BZ247" s="4" t="s">
-        <v>2146</v>
+        <v>2173</v>
       </c>
       <c r="CA247" s="98"/>
       <c r="CB247" s="98"/>
@@ -38962,7 +40635,7 @@
       <c r="CD247" s="98"/>
       <c r="CG247" s="9"/>
       <c r="DG247" s="56" t="s">
-        <v>2147</v>
+        <v>2174</v>
       </c>
       <c r="DH247" s="49"/>
       <c r="DI247" s="49"/>
@@ -38981,9 +40654,9 @@
       <c r="DV247" s="49"/>
       <c r="DW247" s="58"/>
     </row>
-    <row r="248" spans="61:127">
+    <row r="248" ht="27.75" spans="61:127">
       <c r="BI248" s="4" t="s">
-        <v>2148</v>
+        <v>2175</v>
       </c>
       <c r="BJ248" s="98"/>
       <c r="BK248" s="98"/>
@@ -38997,21 +40670,21 @@
       <c r="BS248" s="98"/>
       <c r="BT248" s="101"/>
       <c r="BZ248" s="4" t="s">
-        <v>2149</v>
+        <v>2176</v>
       </c>
       <c r="CA248" s="98"/>
       <c r="CB248" s="98"/>
       <c r="CC248" s="98"/>
       <c r="CD248" s="98"/>
       <c r="CG248" s="9"/>
-      <c r="DG248" s="110" t="s">
-        <v>2150</v>
+      <c r="DG248" s="129" t="s">
+        <v>2177</v>
       </c>
       <c r="DH248" s="49"/>
       <c r="DI248" s="49"/>
       <c r="DJ248" s="49"/>
       <c r="DK248" s="74" t="s">
-        <v>2151</v>
+        <v>2178</v>
       </c>
       <c r="DL248" s="49"/>
       <c r="DM248" s="49"/>
@@ -39028,7 +40701,7 @@
     </row>
     <row r="249" spans="61:127">
       <c r="BI249" s="4" t="s">
-        <v>2152</v>
+        <v>2179</v>
       </c>
       <c r="BJ249" s="98"/>
       <c r="BK249" s="98"/>
@@ -39042,7 +40715,7 @@
       <c r="BS249" s="98"/>
       <c r="BT249" s="101"/>
       <c r="BZ249" s="4" t="s">
-        <v>2153</v>
+        <v>2180</v>
       </c>
       <c r="CA249" s="98"/>
       <c r="CB249" s="98"/>
@@ -39050,7 +40723,7 @@
       <c r="CD249" s="98"/>
       <c r="CG249" s="9"/>
       <c r="DG249" s="56" t="s">
-        <v>2154</v>
+        <v>2181</v>
       </c>
       <c r="DH249" s="49"/>
       <c r="DI249" s="49"/>
@@ -39071,7 +40744,7 @@
     </row>
     <row r="250" spans="61:127">
       <c r="BI250" s="4" t="s">
-        <v>2155</v>
+        <v>2182</v>
       </c>
       <c r="BJ250" s="98"/>
       <c r="BK250" s="98"/>
@@ -39085,7 +40758,7 @@
       <c r="BS250" s="98"/>
       <c r="BT250" s="101"/>
       <c r="BZ250" s="4" t="s">
-        <v>2107</v>
+        <v>2134</v>
       </c>
       <c r="CA250" s="98"/>
       <c r="CB250" s="98"/>
@@ -39114,7 +40787,7 @@
     </row>
     <row r="251" spans="61:127">
       <c r="BI251" s="4" t="s">
-        <v>2156</v>
+        <v>2183</v>
       </c>
       <c r="BJ251" s="98"/>
       <c r="BK251" s="98"/>
@@ -39129,14 +40802,14 @@
       <c r="BT251" s="101"/>
       <c r="BZ251" s="4"/>
       <c r="CA251" s="98" t="s">
-        <v>2157</v>
+        <v>2184</v>
       </c>
       <c r="CB251" s="98"/>
       <c r="CC251" s="98"/>
       <c r="CD251" s="98"/>
       <c r="CG251" s="9"/>
       <c r="DG251" s="68" t="s">
-        <v>2158</v>
+        <v>2185</v>
       </c>
       <c r="DH251" s="49"/>
       <c r="DI251" s="49"/>
@@ -39157,7 +40830,7 @@
     </row>
     <row r="252" spans="61:127">
       <c r="BI252" s="4" t="s">
-        <v>2159</v>
+        <v>2186</v>
       </c>
       <c r="BJ252" s="98"/>
       <c r="BK252" s="98"/>
@@ -39177,7 +40850,7 @@
       <c r="CD252" s="98"/>
       <c r="CG252" s="9"/>
       <c r="DG252" s="56" t="s">
-        <v>2160</v>
+        <v>2187</v>
       </c>
       <c r="DH252" s="49"/>
       <c r="DI252" s="49"/>
@@ -39198,7 +40871,7 @@
     </row>
     <row r="253" spans="61:127">
       <c r="BI253" s="4" t="s">
-        <v>2161</v>
+        <v>2188</v>
       </c>
       <c r="BJ253" s="98"/>
       <c r="BK253" s="98"/>
@@ -39213,7 +40886,7 @@
       <c r="BT253" s="101"/>
       <c r="BZ253" s="4"/>
       <c r="CA253" s="98" t="s">
-        <v>2162</v>
+        <v>2189</v>
       </c>
       <c r="CB253" s="98"/>
       <c r="CC253" s="98"/>
@@ -39238,22 +40911,22 @@
       <c r="DW253" s="58"/>
     </row>
     <row r="254" ht="16.5" spans="61:127">
-      <c r="BI254" s="133"/>
-      <c r="BJ254" s="134"/>
-      <c r="BK254" s="134"/>
-      <c r="BL254" s="134"/>
-      <c r="BM254" s="134"/>
-      <c r="BN254" s="134"/>
-      <c r="BO254" s="134"/>
-      <c r="BP254" s="134"/>
-      <c r="BQ254" s="134"/>
-      <c r="BR254" s="134"/>
-      <c r="BS254" s="134"/>
-      <c r="BT254" s="136"/>
+      <c r="BI254" s="155"/>
+      <c r="BJ254" s="156"/>
+      <c r="BK254" s="156"/>
+      <c r="BL254" s="156"/>
+      <c r="BM254" s="156"/>
+      <c r="BN254" s="156"/>
+      <c r="BO254" s="156"/>
+      <c r="BP254" s="156"/>
+      <c r="BQ254" s="156"/>
+      <c r="BR254" s="156"/>
+      <c r="BS254" s="156"/>
+      <c r="BT254" s="158"/>
       <c r="BZ254" s="4"/>
       <c r="CA254" s="98"/>
       <c r="CB254" s="98" t="s">
-        <v>2163</v>
+        <v>2190</v>
       </c>
       <c r="CC254" s="98"/>
       <c r="CD254" s="98"/>
@@ -39281,7 +40954,7 @@
       <c r="CA255" s="98"/>
       <c r="CB255" s="98"/>
       <c r="CC255" s="98" t="s">
-        <v>2164</v>
+        <v>2191</v>
       </c>
       <c r="CD255" s="98"/>
       <c r="CG255" s="9"/>
@@ -39291,7 +40964,7 @@
       <c r="CA256" s="98"/>
       <c r="CB256" s="98"/>
       <c r="CC256" s="98" t="s">
-        <v>2165</v>
+        <v>2192</v>
       </c>
       <c r="CD256" s="98"/>
       <c r="CG256" s="9"/>
@@ -39299,7 +40972,7 @@
     <row r="257" spans="78:85">
       <c r="BZ257" s="4"/>
       <c r="CA257" s="98" t="s">
-        <v>2166</v>
+        <v>2193</v>
       </c>
       <c r="CB257" s="98"/>
       <c r="CC257" s="98"/>
@@ -39310,7 +40983,7 @@
       <c r="BZ258" s="4"/>
       <c r="CA258" s="98"/>
       <c r="CB258" s="98" t="s">
-        <v>2167</v>
+        <v>2194</v>
       </c>
       <c r="CC258" s="98"/>
       <c r="CD258" s="98"/>
@@ -39321,7 +40994,7 @@
       <c r="CA259" s="98"/>
       <c r="CB259" s="98"/>
       <c r="CC259" s="98" t="s">
-        <v>2168</v>
+        <v>2195</v>
       </c>
       <c r="CD259" s="98"/>
       <c r="CG259" s="9"/>
@@ -39331,7 +41004,7 @@
       <c r="CA260" s="98"/>
       <c r="CB260" s="98"/>
       <c r="CC260" s="98" t="s">
-        <v>2169</v>
+        <v>2196</v>
       </c>
       <c r="CD260" s="98"/>
       <c r="CG260" s="9"/>
@@ -39342,7 +41015,7 @@
       <c r="CB261" s="98"/>
       <c r="CC261" s="98"/>
       <c r="CD261" s="98" t="s">
-        <v>2170</v>
+        <v>2197</v>
       </c>
       <c r="CG261" s="9"/>
     </row>
@@ -39351,7 +41024,7 @@
       <c r="CA262" s="98"/>
       <c r="CB262" s="98"/>
       <c r="CC262" s="98" t="s">
-        <v>2171</v>
+        <v>2198</v>
       </c>
       <c r="CD262" s="98"/>
       <c r="CG262" s="9"/>
@@ -39361,7 +41034,7 @@
       <c r="CA263" s="98"/>
       <c r="CB263" s="98"/>
       <c r="CC263" s="98" t="s">
-        <v>2172</v>
+        <v>2199</v>
       </c>
       <c r="CD263" s="98"/>
       <c r="CG263" s="9"/>
@@ -39370,7 +41043,7 @@
       <c r="BZ264" s="4"/>
       <c r="CA264" s="98"/>
       <c r="CB264" s="98" t="s">
-        <v>2173</v>
+        <v>2200</v>
       </c>
       <c r="CC264" s="98"/>
       <c r="CD264" s="98"/>
@@ -39379,7 +41052,7 @@
     <row r="265" spans="78:85">
       <c r="BZ265" s="4"/>
       <c r="CA265" s="98" t="s">
-        <v>2116</v>
+        <v>2143</v>
       </c>
       <c r="CB265" s="98"/>
       <c r="CC265" s="98"/>
@@ -39388,7 +41061,7 @@
     </row>
     <row r="266" spans="78:85">
       <c r="BZ266" s="4" t="s">
-        <v>2118</v>
+        <v>2145</v>
       </c>
       <c r="CA266" s="98"/>
       <c r="CB266" s="98"/>
@@ -39414,7 +41087,7 @@
     </row>
     <row r="269" spans="78:85">
       <c r="BZ269" s="4" t="s">
-        <v>2174</v>
+        <v>2201</v>
       </c>
       <c r="CA269" s="98"/>
       <c r="CB269" s="98"/>
@@ -39424,7 +41097,7 @@
     </row>
     <row r="270" spans="78:85">
       <c r="BZ270" s="4" t="s">
-        <v>2175</v>
+        <v>2202</v>
       </c>
       <c r="CA270" s="98"/>
       <c r="CB270" s="98"/>
@@ -39434,7 +41107,7 @@
     </row>
     <row r="271" spans="78:85">
       <c r="BZ271" s="4" t="s">
-        <v>2107</v>
+        <v>2134</v>
       </c>
       <c r="CA271" s="98"/>
       <c r="CB271" s="98"/>
@@ -39445,7 +41118,7 @@
     <row r="272" spans="78:85">
       <c r="BZ272" s="4"/>
       <c r="CA272" s="98" t="s">
-        <v>2176</v>
+        <v>2203</v>
       </c>
       <c r="CB272" s="98"/>
       <c r="CC272" s="98"/>
@@ -39455,7 +41128,7 @@
     <row r="273" spans="78:85">
       <c r="BZ273" s="4"/>
       <c r="CA273" s="98" t="s">
-        <v>2177</v>
+        <v>2204</v>
       </c>
       <c r="CB273" s="98"/>
       <c r="CC273" s="98"/>
@@ -39473,7 +41146,7 @@
     <row r="275" spans="78:85">
       <c r="BZ275" s="4"/>
       <c r="CA275" s="98" t="s">
-        <v>2178</v>
+        <v>2205</v>
       </c>
       <c r="CB275" s="98"/>
       <c r="CC275" s="98"/>
@@ -39484,7 +41157,7 @@
       <c r="BZ276" s="4"/>
       <c r="CA276" s="98"/>
       <c r="CB276" s="98" t="s">
-        <v>2179</v>
+        <v>2206</v>
       </c>
       <c r="CC276" s="98"/>
       <c r="CD276" s="98"/>
@@ -39493,7 +41166,7 @@
     <row r="277" spans="78:85">
       <c r="BZ277" s="4"/>
       <c r="CA277" s="98" t="s">
-        <v>2116</v>
+        <v>2143</v>
       </c>
       <c r="CB277" s="98"/>
       <c r="CC277" s="98"/>
@@ -39511,7 +41184,7 @@
     <row r="279" spans="78:85">
       <c r="BZ279" s="4"/>
       <c r="CA279" s="98" t="s">
-        <v>2180</v>
+        <v>2207</v>
       </c>
       <c r="CB279" s="98"/>
       <c r="CC279" s="98"/>
@@ -39522,7 +41195,7 @@
       <c r="BZ280" s="4"/>
       <c r="CA280" s="98"/>
       <c r="CB280" s="98" t="s">
-        <v>2181</v>
+        <v>2208</v>
       </c>
       <c r="CC280" s="98"/>
       <c r="CD280" s="98"/>
@@ -39531,7 +41204,7 @@
     <row r="281" spans="78:85">
       <c r="BZ281" s="4"/>
       <c r="CA281" s="98" t="s">
-        <v>2116</v>
+        <v>2143</v>
       </c>
       <c r="CB281" s="98"/>
       <c r="CC281" s="98"/>
@@ -39549,7 +41222,7 @@
     <row r="283" spans="78:85">
       <c r="BZ283" s="4"/>
       <c r="CA283" s="98" t="s">
-        <v>2182</v>
+        <v>2209</v>
       </c>
       <c r="CB283" s="98"/>
       <c r="CC283" s="98"/>
@@ -39560,7 +41233,7 @@
       <c r="BZ284" s="4"/>
       <c r="CA284" s="98"/>
       <c r="CB284" s="98" t="s">
-        <v>2183</v>
+        <v>2210</v>
       </c>
       <c r="CC284" s="98"/>
       <c r="CD284" s="98"/>
@@ -39569,7 +41242,7 @@
     <row r="285" spans="78:85">
       <c r="BZ285" s="4"/>
       <c r="CA285" s="98" t="s">
-        <v>2116</v>
+        <v>2143</v>
       </c>
       <c r="CB285" s="98"/>
       <c r="CC285" s="98"/>
@@ -39587,7 +41260,7 @@
     <row r="287" spans="78:85">
       <c r="BZ287" s="4"/>
       <c r="CA287" s="98" t="s">
-        <v>2184</v>
+        <v>2211</v>
       </c>
       <c r="CB287" s="98"/>
       <c r="CC287" s="98"/>
@@ -39598,7 +41271,7 @@
       <c r="BZ288" s="4"/>
       <c r="CA288" s="98"/>
       <c r="CB288" s="98" t="s">
-        <v>2185</v>
+        <v>2212</v>
       </c>
       <c r="CC288" s="98"/>
       <c r="CD288" s="98"/>
@@ -39607,7 +41280,7 @@
     <row r="289" spans="78:85">
       <c r="BZ289" s="4"/>
       <c r="CA289" s="98" t="s">
-        <v>2116</v>
+        <v>2143</v>
       </c>
       <c r="CB289" s="98"/>
       <c r="CC289" s="98"/>
@@ -39625,7 +41298,7 @@
     <row r="291" spans="78:85">
       <c r="BZ291" s="4"/>
       <c r="CA291" s="98" t="s">
-        <v>2186</v>
+        <v>2213</v>
       </c>
       <c r="CB291" s="98"/>
       <c r="CC291" s="98"/>
@@ -39636,7 +41309,7 @@
       <c r="BZ292" s="4"/>
       <c r="CA292" s="98"/>
       <c r="CB292" s="98" t="s">
-        <v>2187</v>
+        <v>2214</v>
       </c>
       <c r="CC292" s="98"/>
       <c r="CD292" s="98"/>
@@ -39653,7 +41326,7 @@
     <row r="294" spans="78:85">
       <c r="BZ294" s="4"/>
       <c r="CA294" s="98" t="s">
-        <v>2188</v>
+        <v>2215</v>
       </c>
       <c r="CB294" s="98"/>
       <c r="CC294" s="98"/>
@@ -39664,7 +41337,7 @@
       <c r="BZ295" s="4"/>
       <c r="CA295" s="98"/>
       <c r="CB295" s="98" t="s">
-        <v>2189</v>
+        <v>2216</v>
       </c>
       <c r="CC295" s="98"/>
       <c r="CD295" s="98"/>
@@ -39674,7 +41347,7 @@
       <c r="BZ296" s="4"/>
       <c r="CA296" s="98"/>
       <c r="CB296" s="98" t="s">
-        <v>2190</v>
+        <v>2217</v>
       </c>
       <c r="CC296" s="98"/>
       <c r="CD296" s="98"/>
@@ -39682,7 +41355,7 @@
     </row>
     <row r="297" spans="78:85">
       <c r="BZ297" s="4" t="s">
-        <v>2118</v>
+        <v>2145</v>
       </c>
       <c r="CA297" s="98"/>
       <c r="CB297" s="98"/>
@@ -39700,7 +41373,7 @@
     </row>
     <row r="299" spans="78:85">
       <c r="BZ299" s="4" t="s">
-        <v>2191</v>
+        <v>2218</v>
       </c>
       <c r="CA299" s="98"/>
       <c r="CB299" s="98"/>
@@ -39710,7 +41383,7 @@
     </row>
     <row r="300" spans="78:85">
       <c r="BZ300" s="4" t="s">
-        <v>2192</v>
+        <v>2219</v>
       </c>
       <c r="CA300" s="98"/>
       <c r="CB300" s="98"/>
@@ -39720,7 +41393,7 @@
     </row>
     <row r="301" spans="78:85">
       <c r="BZ301" s="4" t="s">
-        <v>2193</v>
+        <v>2220</v>
       </c>
       <c r="CA301" s="98"/>
       <c r="CB301" s="98"/>
@@ -39730,7 +41403,7 @@
     </row>
     <row r="302" spans="78:85">
       <c r="BZ302" s="4" t="s">
-        <v>2107</v>
+        <v>2134</v>
       </c>
       <c r="CA302" s="98"/>
       <c r="CB302" s="98"/>
@@ -39741,7 +41414,7 @@
     <row r="303" spans="78:85">
       <c r="BZ303" s="4"/>
       <c r="CA303" s="98" t="s">
-        <v>2194</v>
+        <v>2221</v>
       </c>
       <c r="CB303" s="98"/>
       <c r="CC303" s="98"/>
@@ -39750,7 +41423,7 @@
     </row>
     <row r="304" spans="78:85">
       <c r="BZ304" s="4" t="s">
-        <v>2118</v>
+        <v>2145</v>
       </c>
       <c r="CA304" s="98"/>
       <c r="CB304" s="98"/>
@@ -39768,7 +41441,7 @@
     </row>
     <row r="306" spans="78:85">
       <c r="BZ306" s="4" t="s">
-        <v>2195</v>
+        <v>2222</v>
       </c>
       <c r="CA306" s="98"/>
       <c r="CB306" s="98"/>
@@ -39778,7 +41451,7 @@
     </row>
     <row r="307" spans="78:85">
       <c r="BZ307" s="4" t="s">
-        <v>2107</v>
+        <v>2134</v>
       </c>
       <c r="CA307" s="98"/>
       <c r="CB307" s="98"/>
@@ -39789,7 +41462,7 @@
     <row r="308" spans="78:85">
       <c r="BZ308" s="4"/>
       <c r="CA308" s="98" t="s">
-        <v>2196</v>
+        <v>2223</v>
       </c>
       <c r="CB308" s="98"/>
       <c r="CC308" s="98"/>
@@ -39798,7 +41471,7 @@
     </row>
     <row r="309" spans="78:85">
       <c r="BZ309" s="4" t="s">
-        <v>2118</v>
+        <v>2145</v>
       </c>
       <c r="CA309" s="98"/>
       <c r="CB309" s="98"/>
@@ -39816,7 +41489,7 @@
     </row>
     <row r="311" spans="78:85">
       <c r="BZ311" s="4" t="s">
-        <v>2197</v>
+        <v>2224</v>
       </c>
       <c r="CA311" s="98"/>
       <c r="CB311" s="98"/>
@@ -39826,7 +41499,7 @@
     </row>
     <row r="312" spans="78:85">
       <c r="BZ312" s="4" t="s">
-        <v>2198</v>
+        <v>2225</v>
       </c>
       <c r="CA312" s="98"/>
       <c r="CB312" s="98"/>
@@ -39836,7 +41509,7 @@
     </row>
     <row r="313" spans="78:85">
       <c r="BZ313" s="4" t="s">
-        <v>2199</v>
+        <v>2226</v>
       </c>
       <c r="CA313" s="98"/>
       <c r="CB313" s="98"/>
@@ -39846,7 +41519,7 @@
     </row>
     <row r="314" spans="78:85">
       <c r="BZ314" s="4" t="s">
-        <v>2107</v>
+        <v>2134</v>
       </c>
       <c r="CA314" s="98"/>
       <c r="CB314" s="98"/>
@@ -39857,7 +41530,7 @@
     <row r="315" spans="78:85">
       <c r="BZ315" s="4"/>
       <c r="CA315" s="98" t="s">
-        <v>2200</v>
+        <v>2227</v>
       </c>
       <c r="CB315" s="98"/>
       <c r="CC315" s="98"/>
@@ -39867,7 +41540,7 @@
     <row r="316" spans="78:85">
       <c r="BZ316" s="4"/>
       <c r="CA316" s="98" t="s">
-        <v>2201</v>
+        <v>2228</v>
       </c>
       <c r="CB316" s="98"/>
       <c r="CC316" s="98"/>
@@ -39877,7 +41550,7 @@
     <row r="317" spans="78:85">
       <c r="BZ317" s="4"/>
       <c r="CA317" s="98" t="s">
-        <v>2202</v>
+        <v>2229</v>
       </c>
       <c r="CB317" s="98"/>
       <c r="CC317" s="98"/>
@@ -39887,7 +41560,7 @@
     <row r="318" spans="78:85">
       <c r="BZ318" s="4"/>
       <c r="CA318" s="98" t="s">
-        <v>2203</v>
+        <v>2230</v>
       </c>
       <c r="CB318" s="98"/>
       <c r="CC318" s="98"/>
@@ -39897,7 +41570,7 @@
     <row r="319" spans="78:85">
       <c r="BZ319" s="4"/>
       <c r="CA319" s="98" t="s">
-        <v>2204</v>
+        <v>2231</v>
       </c>
       <c r="CB319" s="98"/>
       <c r="CC319" s="98"/>
@@ -39907,7 +41580,7 @@
     <row r="320" spans="78:85">
       <c r="BZ320" s="4"/>
       <c r="CA320" s="98" t="s">
-        <v>2205</v>
+        <v>2232</v>
       </c>
       <c r="CB320" s="98"/>
       <c r="CC320" s="98"/>
@@ -39917,7 +41590,7 @@
     <row r="321" spans="78:85">
       <c r="BZ321" s="4"/>
       <c r="CA321" s="98" t="s">
-        <v>2206</v>
+        <v>2233</v>
       </c>
       <c r="CB321" s="98"/>
       <c r="CC321" s="98"/>
@@ -39927,7 +41600,7 @@
     <row r="322" spans="78:85">
       <c r="BZ322" s="4"/>
       <c r="CA322" s="98" t="s">
-        <v>2207</v>
+        <v>2234</v>
       </c>
       <c r="CB322" s="98"/>
       <c r="CC322" s="98"/>
@@ -39936,7 +41609,7 @@
     </row>
     <row r="323" spans="78:85">
       <c r="BZ323" s="4" t="s">
-        <v>2118</v>
+        <v>2145</v>
       </c>
       <c r="CA323" s="98"/>
       <c r="CB323" s="98"/>
@@ -39954,7 +41627,7 @@
     </row>
     <row r="325" spans="78:85">
       <c r="BZ325" s="4" t="s">
-        <v>2038</v>
+        <v>2065</v>
       </c>
       <c r="CA325" s="98"/>
       <c r="CB325" s="98"/>
@@ -39964,7 +41637,7 @@
     </row>
     <row r="326" spans="78:85">
       <c r="BZ326" s="4" t="s">
-        <v>2038</v>
+        <v>2065</v>
       </c>
       <c r="CA326" s="98"/>
       <c r="CB326" s="98"/>
@@ -39973,30 +41646,30 @@
       <c r="CG326" s="9"/>
     </row>
     <row r="327" spans="78:85">
-      <c r="BZ327" s="4" t="s">
-        <v>2208</v>
-      </c>
-      <c r="CA327" s="98"/>
+      <c r="BZ327" s="85" t="s">
+        <v>2235</v>
+      </c>
+      <c r="CA327" s="160"/>
       <c r="CB327" s="98"/>
       <c r="CC327" s="98"/>
       <c r="CD327" s="98"/>
       <c r="CG327" s="9"/>
     </row>
     <row r="328" spans="78:85">
-      <c r="BZ328" s="97" t="s">
-        <v>2209</v>
-      </c>
-      <c r="CA328" s="98"/>
+      <c r="BZ328" s="85" t="s">
+        <v>2236</v>
+      </c>
+      <c r="CA328" s="160"/>
       <c r="CB328" s="98"/>
       <c r="CC328" s="98"/>
       <c r="CD328" s="98"/>
       <c r="CG328" s="9"/>
     </row>
     <row r="329" spans="78:85">
-      <c r="BZ329" s="97" t="s">
-        <v>2210</v>
-      </c>
-      <c r="CA329" s="98"/>
+      <c r="BZ329" s="85" t="s">
+        <v>2237</v>
+      </c>
+      <c r="CA329" s="160"/>
       <c r="CB329" s="98"/>
       <c r="CC329" s="98"/>
       <c r="CD329" s="98"/>
@@ -40005,7 +41678,7 @@
     <row r="330" spans="78:85">
       <c r="BZ330" s="4"/>
       <c r="CA330" s="98" t="s">
-        <v>2211</v>
+        <v>2238</v>
       </c>
       <c r="CB330" s="98"/>
       <c r="CC330" s="98"/>
@@ -40015,7 +41688,7 @@
     <row r="331" spans="78:85">
       <c r="BZ331" s="4"/>
       <c r="CA331" s="98" t="s">
-        <v>2212</v>
+        <v>2239</v>
       </c>
       <c r="CB331" s="98"/>
       <c r="CC331" s="98"/>
@@ -40024,7 +41697,7 @@
     </row>
     <row r="332" spans="78:85">
       <c r="BZ332" s="4" t="s">
-        <v>2213</v>
+        <v>2240</v>
       </c>
       <c r="CA332" s="98"/>
       <c r="CB332" s="98"/>
@@ -40042,7 +41715,7 @@
     </row>
     <row r="334" spans="78:85">
       <c r="BZ334" s="4" t="s">
-        <v>2214</v>
+        <v>2241</v>
       </c>
       <c r="CA334" s="98"/>
       <c r="CB334" s="98"/>
@@ -40053,7 +41726,7 @@
     <row r="335" spans="78:85">
       <c r="BZ335" s="4"/>
       <c r="CA335" s="98" t="s">
-        <v>2215</v>
+        <v>2242</v>
       </c>
       <c r="CB335" s="98"/>
       <c r="CC335" s="98"/>
@@ -40063,7 +41736,7 @@
     <row r="336" spans="78:85">
       <c r="BZ336" s="4"/>
       <c r="CA336" s="98" t="s">
-        <v>2216</v>
+        <v>2243</v>
       </c>
       <c r="CB336" s="98"/>
       <c r="CC336" s="98"/>
@@ -40072,7 +41745,7 @@
     </row>
     <row r="337" spans="78:85">
       <c r="BZ337" s="4" t="s">
-        <v>2116</v>
+        <v>2143</v>
       </c>
       <c r="CA337" s="98"/>
       <c r="CB337" s="98"/>
@@ -40089,8 +41762,8 @@
       <c r="CG338" s="9"/>
     </row>
     <row r="339" spans="78:85">
-      <c r="BZ339" s="4" t="s">
-        <v>2217</v>
+      <c r="BZ339" s="85" t="s">
+        <v>2244</v>
       </c>
       <c r="CA339" s="98"/>
       <c r="CB339" s="98"/>
@@ -40099,8 +41772,8 @@
       <c r="CG339" s="9"/>
     </row>
     <row r="340" spans="78:85">
-      <c r="BZ340" s="97" t="s">
-        <v>2218</v>
+      <c r="BZ340" s="85" t="s">
+        <v>2245</v>
       </c>
       <c r="CA340" s="98"/>
       <c r="CB340" s="98"/>
@@ -40109,8 +41782,8 @@
       <c r="CG340" s="9"/>
     </row>
     <row r="341" spans="78:85">
-      <c r="BZ341" s="97" t="s">
-        <v>2219</v>
+      <c r="BZ341" s="85" t="s">
+        <v>2246</v>
       </c>
       <c r="CA341" s="98"/>
       <c r="CB341" s="98"/>
@@ -40119,9 +41792,9 @@
       <c r="CG341" s="9"/>
     </row>
     <row r="342" spans="78:85">
-      <c r="BZ342" s="4"/>
+      <c r="BZ342" s="161"/>
       <c r="CA342" s="98" t="s">
-        <v>2220</v>
+        <v>2247</v>
       </c>
       <c r="CB342" s="98"/>
       <c r="CC342" s="98"/>
@@ -40129,9 +41802,9 @@
       <c r="CG342" s="9"/>
     </row>
     <row r="343" spans="78:85">
-      <c r="BZ343" s="4"/>
+      <c r="BZ343" s="161"/>
       <c r="CA343" s="98" t="s">
-        <v>2212</v>
+        <v>2239</v>
       </c>
       <c r="CB343" s="98"/>
       <c r="CC343" s="98"/>
@@ -40139,8 +41812,8 @@
       <c r="CG343" s="9"/>
     </row>
     <row r="344" spans="78:85">
-      <c r="BZ344" s="97" t="s">
-        <v>2221</v>
+      <c r="BZ344" s="85" t="s">
+        <v>2248</v>
       </c>
       <c r="CA344" s="98"/>
       <c r="CB344" s="98"/>
@@ -40151,7 +41824,7 @@
     <row r="345" spans="78:85">
       <c r="BZ345" s="4"/>
       <c r="CA345" s="98" t="s">
-        <v>2222</v>
+        <v>2249</v>
       </c>
       <c r="CB345" s="98"/>
       <c r="CC345" s="98"/>
@@ -40161,7 +41834,7 @@
     <row r="346" spans="78:85">
       <c r="BZ346" s="4"/>
       <c r="CA346" s="98" t="s">
-        <v>2223</v>
+        <v>2250</v>
       </c>
       <c r="CB346" s="98"/>
       <c r="CC346" s="98"/>
@@ -40170,7 +41843,7 @@
     </row>
     <row r="347" spans="78:85">
       <c r="BZ347" s="4" t="s">
-        <v>2213</v>
+        <v>2240</v>
       </c>
       <c r="CA347" s="98"/>
       <c r="CB347" s="98"/>
@@ -40188,7 +41861,7 @@
     </row>
     <row r="349" spans="78:85">
       <c r="BZ349" s="4" t="s">
-        <v>2224</v>
+        <v>2251</v>
       </c>
       <c r="CA349" s="98"/>
       <c r="CB349" s="98"/>
@@ -40198,7 +41871,7 @@
     </row>
     <row r="350" spans="78:85">
       <c r="BZ350" s="4" t="s">
-        <v>2225</v>
+        <v>2252</v>
       </c>
       <c r="CA350" s="98"/>
       <c r="CB350" s="98"/>
@@ -40208,7 +41881,7 @@
     </row>
     <row r="351" spans="78:85">
       <c r="BZ351" s="4" t="s">
-        <v>2226</v>
+        <v>2253</v>
       </c>
       <c r="CA351" s="98"/>
       <c r="CB351" s="98"/>
@@ -40226,7 +41899,7 @@
     </row>
     <row r="353" spans="78:85">
       <c r="BZ353" s="4" t="s">
-        <v>2227</v>
+        <v>2254</v>
       </c>
       <c r="CA353" s="98"/>
       <c r="CB353" s="98"/>
@@ -40236,7 +41909,7 @@
     </row>
     <row r="354" spans="78:85">
       <c r="BZ354" s="97" t="s">
-        <v>2228</v>
+        <v>2255</v>
       </c>
       <c r="CA354" s="98"/>
       <c r="CB354" s="98"/>
@@ -40254,7 +41927,7 @@
     </row>
     <row r="356" spans="78:85">
       <c r="BZ356" s="4" t="s">
-        <v>2229</v>
+        <v>2256</v>
       </c>
       <c r="CA356" s="98"/>
       <c r="CB356" s="98"/>
@@ -40264,7 +41937,7 @@
     </row>
     <row r="357" spans="78:85">
       <c r="BZ357" s="4" t="s">
-        <v>2230</v>
+        <v>2257</v>
       </c>
       <c r="CA357" s="98"/>
       <c r="CB357" s="98"/>
@@ -40274,7 +41947,7 @@
     </row>
     <row r="358" spans="78:85">
       <c r="BZ358" s="4" t="s">
-        <v>2231</v>
+        <v>2258</v>
       </c>
       <c r="CA358" s="98"/>
       <c r="CB358" s="98"/>
@@ -40285,7 +41958,7 @@
     <row r="359" spans="78:85">
       <c r="BZ359" s="4"/>
       <c r="CA359" s="98" t="s">
-        <v>2232</v>
+        <v>2259</v>
       </c>
       <c r="CB359" s="98"/>
       <c r="CC359" s="98"/>
@@ -40295,7 +41968,7 @@
     <row r="360" spans="78:85">
       <c r="BZ360" s="4"/>
       <c r="CA360" s="98" t="s">
-        <v>2233</v>
+        <v>2260</v>
       </c>
       <c r="CB360" s="98"/>
       <c r="CC360" s="98"/>
@@ -40304,7 +41977,7 @@
     </row>
     <row r="361" spans="78:85">
       <c r="BZ361" s="4" t="s">
-        <v>2166</v>
+        <v>2193</v>
       </c>
       <c r="CA361" s="98"/>
       <c r="CB361" s="98"/>
@@ -40315,7 +41988,7 @@
     <row r="362" spans="78:85">
       <c r="BZ362" s="4"/>
       <c r="CA362" s="98" t="s">
-        <v>2234</v>
+        <v>2261</v>
       </c>
       <c r="CB362" s="98"/>
       <c r="CC362" s="98"/>
@@ -40325,7 +41998,7 @@
     <row r="363" spans="78:85">
       <c r="BZ363" s="4"/>
       <c r="CA363" s="98" t="s">
-        <v>2235</v>
+        <v>2262</v>
       </c>
       <c r="CB363" s="98"/>
       <c r="CC363" s="98"/>
@@ -40334,7 +42007,7 @@
     </row>
     <row r="364" spans="78:85">
       <c r="BZ364" s="4" t="s">
-        <v>2236</v>
+        <v>2263</v>
       </c>
       <c r="CA364" s="98"/>
       <c r="CB364" s="98"/>
@@ -40352,7 +42025,7 @@
     </row>
     <row r="366" spans="78:85">
       <c r="BZ366" s="97" t="s">
-        <v>2237</v>
+        <v>2264</v>
       </c>
       <c r="CA366" s="98"/>
       <c r="CB366" s="98"/>
@@ -40362,7 +42035,7 @@
     </row>
     <row r="367" spans="78:85">
       <c r="BZ367" s="97" t="s">
-        <v>2238</v>
+        <v>2265</v>
       </c>
       <c r="CA367" s="98"/>
       <c r="CB367" s="98"/>
@@ -40380,7 +42053,7 @@
     </row>
     <row r="369" spans="78:85">
       <c r="BZ369" s="4" t="s">
-        <v>2239</v>
+        <v>2266</v>
       </c>
       <c r="CA369" s="98"/>
       <c r="CB369" s="98"/>
@@ -40390,7 +42063,7 @@
     </row>
     <row r="370" spans="78:85">
       <c r="BZ370" s="4" t="s">
-        <v>2240</v>
+        <v>2267</v>
       </c>
       <c r="CA370" s="98"/>
       <c r="CB370" s="98"/>
@@ -40400,7 +42073,7 @@
     </row>
     <row r="371" spans="78:85">
       <c r="BZ371" s="4" t="s">
-        <v>2241</v>
+        <v>2268</v>
       </c>
       <c r="CA371" s="98"/>
       <c r="CB371" s="98"/>
@@ -40419,7 +42092,7 @@
     <row r="373" spans="78:85">
       <c r="BZ373" s="4"/>
       <c r="CA373" s="98" t="s">
-        <v>2242</v>
+        <v>2269</v>
       </c>
       <c r="CB373" s="98"/>
       <c r="CC373" s="98"/>
@@ -40429,7 +42102,7 @@
     <row r="374" spans="78:85">
       <c r="BZ374" s="4"/>
       <c r="CA374" s="98" t="s">
-        <v>2243</v>
+        <v>2270</v>
       </c>
       <c r="CB374" s="98"/>
       <c r="CC374" s="98"/>
@@ -40439,7 +42112,7 @@
     <row r="375" spans="78:85">
       <c r="BZ375" s="4"/>
       <c r="CA375" s="98" t="s">
-        <v>2244</v>
+        <v>2271</v>
       </c>
       <c r="CB375" s="98"/>
       <c r="CC375" s="98"/>
@@ -40449,7 +42122,7 @@
     <row r="376" spans="78:85">
       <c r="BZ376" s="4"/>
       <c r="CA376" s="98" t="s">
-        <v>2245</v>
+        <v>2272</v>
       </c>
       <c r="CB376" s="98"/>
       <c r="CC376" s="98"/>
@@ -40459,7 +42132,7 @@
     <row r="377" spans="78:85">
       <c r="BZ377" s="4"/>
       <c r="CA377" s="98" t="s">
-        <v>2246</v>
+        <v>2273</v>
       </c>
       <c r="CB377" s="98"/>
       <c r="CC377" s="98"/>
@@ -40469,7 +42142,7 @@
     <row r="378" spans="78:85">
       <c r="BZ378" s="4"/>
       <c r="CA378" s="98" t="s">
-        <v>2247</v>
+        <v>2274</v>
       </c>
       <c r="CB378" s="98"/>
       <c r="CC378" s="98"/>
@@ -40479,7 +42152,7 @@
     <row r="379" spans="78:85">
       <c r="BZ379" s="4"/>
       <c r="CA379" s="98" t="s">
-        <v>2248</v>
+        <v>2275</v>
       </c>
       <c r="CB379" s="98"/>
       <c r="CC379" s="98"/>
@@ -40489,7 +42162,7 @@
     <row r="380" spans="78:85">
       <c r="BZ380" s="4"/>
       <c r="CA380" s="98" t="s">
-        <v>2249</v>
+        <v>2276</v>
       </c>
       <c r="CB380" s="98"/>
       <c r="CC380" s="98"/>
@@ -40499,7 +42172,7 @@
     <row r="381" spans="78:85">
       <c r="BZ381" s="4"/>
       <c r="CA381" s="98" t="s">
-        <v>2250</v>
+        <v>2277</v>
       </c>
       <c r="CB381" s="98"/>
       <c r="CC381" s="98"/>
@@ -40509,7 +42182,7 @@
     <row r="382" spans="78:85">
       <c r="BZ382" s="4"/>
       <c r="CA382" s="98" t="s">
-        <v>2251</v>
+        <v>2278</v>
       </c>
       <c r="CB382" s="98"/>
       <c r="CC382" s="98"/>
@@ -40519,7 +42192,7 @@
     <row r="383" spans="78:85">
       <c r="BZ383" s="4"/>
       <c r="CA383" s="98" t="s">
-        <v>2252</v>
+        <v>2279</v>
       </c>
       <c r="CB383" s="98"/>
       <c r="CC383" s="98"/>
@@ -40529,7 +42202,7 @@
     <row r="384" spans="78:85">
       <c r="BZ384" s="4"/>
       <c r="CA384" s="98" t="s">
-        <v>2253</v>
+        <v>2280</v>
       </c>
       <c r="CB384" s="98"/>
       <c r="CC384" s="98"/>
@@ -40539,7 +42212,7 @@
     <row r="385" spans="78:85">
       <c r="BZ385" s="4"/>
       <c r="CA385" s="98" t="s">
-        <v>2254</v>
+        <v>2281</v>
       </c>
       <c r="CB385" s="98"/>
       <c r="CC385" s="98"/>
@@ -40549,7 +42222,7 @@
     <row r="386" spans="78:85">
       <c r="BZ386" s="4"/>
       <c r="CA386" s="98" t="s">
-        <v>2255</v>
+        <v>2282</v>
       </c>
       <c r="CB386" s="98"/>
       <c r="CC386" s="98"/>
@@ -40559,7 +42232,7 @@
     <row r="387" spans="78:85">
       <c r="BZ387" s="4"/>
       <c r="CA387" s="98" t="s">
-        <v>2256</v>
+        <v>2283</v>
       </c>
       <c r="CB387" s="98"/>
       <c r="CC387" s="98"/>
@@ -40569,7 +42242,7 @@
     <row r="388" spans="78:85">
       <c r="BZ388" s="4"/>
       <c r="CA388" s="98" t="s">
-        <v>2038</v>
+        <v>2065</v>
       </c>
       <c r="CB388" s="98"/>
       <c r="CC388" s="98"/>
@@ -40579,7 +42252,7 @@
     <row r="389" spans="78:85">
       <c r="BZ389" s="4"/>
       <c r="CA389" s="98" t="s">
-        <v>2257</v>
+        <v>2284</v>
       </c>
       <c r="CB389" s="98"/>
       <c r="CC389" s="98"/>
@@ -40589,7 +42262,7 @@
     <row r="390" spans="78:85">
       <c r="BZ390" s="4"/>
       <c r="CA390" s="98" t="s">
-        <v>2258</v>
+        <v>2285</v>
       </c>
       <c r="CB390" s="98"/>
       <c r="CC390" s="98"/>
@@ -40607,7 +42280,7 @@
     <row r="392" spans="78:85">
       <c r="BZ392" s="4"/>
       <c r="CA392" s="98" t="s">
-        <v>2259</v>
+        <v>2286</v>
       </c>
       <c r="CB392" s="98"/>
       <c r="CC392" s="98"/>
@@ -40617,7 +42290,7 @@
     <row r="393" spans="78:85">
       <c r="BZ393" s="4"/>
       <c r="CA393" s="98" t="s">
-        <v>2260</v>
+        <v>2287</v>
       </c>
       <c r="CB393" s="98"/>
       <c r="CC393" s="98"/>
@@ -40635,7 +42308,7 @@
     <row r="395" spans="78:85">
       <c r="BZ395" s="4"/>
       <c r="CA395" s="98" t="s">
-        <v>2261</v>
+        <v>2288</v>
       </c>
       <c r="CB395" s="98"/>
       <c r="CC395" s="98"/>
@@ -40645,7 +42318,7 @@
     <row r="396" spans="78:85">
       <c r="BZ396" s="4"/>
       <c r="CA396" s="98" t="s">
-        <v>2262</v>
+        <v>2289</v>
       </c>
       <c r="CB396" s="98"/>
       <c r="CC396" s="98"/>
@@ -40655,7 +42328,7 @@
     <row r="397" spans="78:85">
       <c r="BZ397" s="4"/>
       <c r="CA397" s="98" t="s">
-        <v>2263</v>
+        <v>2290</v>
       </c>
       <c r="CB397" s="98"/>
       <c r="CC397" s="98"/>
@@ -40673,7 +42346,7 @@
     <row r="399" spans="78:85">
       <c r="BZ399" s="4"/>
       <c r="CA399" s="98" t="s">
-        <v>2264</v>
+        <v>2291</v>
       </c>
       <c r="CB399" s="98"/>
       <c r="CC399" s="98"/>
@@ -40683,7 +42356,7 @@
     <row r="400" spans="78:85">
       <c r="BZ400" s="4"/>
       <c r="CA400" s="98" t="s">
-        <v>2265</v>
+        <v>2292</v>
       </c>
       <c r="CB400" s="98"/>
       <c r="CC400" s="98"/>
@@ -40693,7 +42366,7 @@
     <row r="401" spans="78:85">
       <c r="BZ401" s="4"/>
       <c r="CA401" s="98" t="s">
-        <v>2266</v>
+        <v>2293</v>
       </c>
       <c r="CB401" s="98"/>
       <c r="CC401" s="98"/>
@@ -40711,7 +42384,7 @@
     <row r="403" spans="78:85">
       <c r="BZ403" s="4"/>
       <c r="CA403" s="98" t="s">
-        <v>2267</v>
+        <v>2294</v>
       </c>
       <c r="CB403" s="98"/>
       <c r="CC403" s="98"/>
@@ -40721,7 +42394,7 @@
     <row r="404" spans="78:85">
       <c r="BZ404" s="4"/>
       <c r="CA404" s="98" t="s">
-        <v>2268</v>
+        <v>2295</v>
       </c>
       <c r="CB404" s="98"/>
       <c r="CC404" s="98"/>
@@ -40732,7 +42405,7 @@
       <c r="BZ405" s="4"/>
       <c r="CA405" s="98"/>
       <c r="CB405" s="98" t="s">
-        <v>2269</v>
+        <v>2296</v>
       </c>
       <c r="CC405" s="98"/>
       <c r="CD405" s="98"/>
@@ -40742,7 +42415,7 @@
       <c r="BZ406" s="4"/>
       <c r="CA406" s="98"/>
       <c r="CB406" s="98" t="s">
-        <v>2270</v>
+        <v>2297</v>
       </c>
       <c r="CC406" s="98"/>
       <c r="CD406" s="98"/>
@@ -40760,7 +42433,7 @@
       <c r="BZ408" s="4"/>
       <c r="CA408" s="98"/>
       <c r="CB408" s="98" t="s">
-        <v>2271</v>
+        <v>2298</v>
       </c>
       <c r="CC408" s="98"/>
       <c r="CD408" s="98"/>
@@ -40778,7 +42451,7 @@
       <c r="BZ410" s="4"/>
       <c r="CA410" s="98"/>
       <c r="CB410" s="98" t="s">
-        <v>2272</v>
+        <v>2299</v>
       </c>
       <c r="CC410" s="98"/>
       <c r="CD410" s="98"/>
@@ -40787,7 +42460,7 @@
     <row r="411" spans="78:85">
       <c r="BZ411" s="4"/>
       <c r="CA411" s="98" t="s">
-        <v>2116</v>
+        <v>2143</v>
       </c>
       <c r="CB411" s="98"/>
       <c r="CC411" s="98"/>
@@ -40796,7 +42469,7 @@
     </row>
     <row r="412" spans="78:85">
       <c r="BZ412" s="4" t="s">
-        <v>2116</v>
+        <v>2143</v>
       </c>
       <c r="CA412" s="98"/>
       <c r="CB412" s="98"/>
@@ -40814,7 +42487,7 @@
     </row>
     <row r="414" spans="78:85">
       <c r="BZ414" s="97" t="s">
-        <v>2273</v>
+        <v>2300</v>
       </c>
       <c r="CA414" s="98"/>
       <c r="CB414" s="98"/>
@@ -40824,7 +42497,7 @@
     </row>
     <row r="415" spans="78:85">
       <c r="BZ415" s="97" t="s">
-        <v>2274</v>
+        <v>2301</v>
       </c>
       <c r="CA415" s="98"/>
       <c r="CB415" s="98"/>
@@ -40842,7 +42515,7 @@
     </row>
     <row r="417" spans="78:85">
       <c r="BZ417" s="4" t="s">
-        <v>2275</v>
+        <v>2302</v>
       </c>
       <c r="CA417" s="98"/>
       <c r="CB417" s="98"/>
@@ -40853,7 +42526,7 @@
     <row r="418" spans="78:85">
       <c r="BZ418" s="4"/>
       <c r="CA418" s="98" t="s">
-        <v>2276</v>
+        <v>2303</v>
       </c>
       <c r="CB418" s="98"/>
       <c r="CC418" s="98"/>
@@ -40863,7 +42536,7 @@
     <row r="419" spans="78:85">
       <c r="BZ419" s="4"/>
       <c r="CA419" s="98" t="s">
-        <v>2277</v>
+        <v>2304</v>
       </c>
       <c r="CB419" s="98"/>
       <c r="CC419" s="98"/>
@@ -40872,7 +42545,7 @@
     </row>
     <row r="420" spans="78:85">
       <c r="BZ420" s="4" t="s">
-        <v>2116</v>
+        <v>2143</v>
       </c>
       <c r="CA420" s="98"/>
       <c r="CB420" s="98"/>
@@ -40890,7 +42563,7 @@
     </row>
     <row r="422" spans="78:85">
       <c r="BZ422" s="4" t="s">
-        <v>2278</v>
+        <v>2305</v>
       </c>
       <c r="CA422" s="98"/>
       <c r="CB422" s="98"/>
@@ -40900,7 +42573,7 @@
     </row>
     <row r="423" spans="78:85">
       <c r="BZ423" s="4" t="s">
-        <v>2279</v>
+        <v>2306</v>
       </c>
       <c r="CA423" s="98"/>
       <c r="CB423" s="98"/>
@@ -40918,7 +42591,7 @@
     </row>
     <row r="425" spans="78:85">
       <c r="BZ425" s="4" t="s">
-        <v>2280</v>
+        <v>2307</v>
       </c>
       <c r="CA425" s="98"/>
       <c r="CB425" s="98"/>
@@ -40928,7 +42601,7 @@
     </row>
     <row r="426" spans="78:85">
       <c r="BZ426" s="4" t="s">
-        <v>2241</v>
+        <v>2268</v>
       </c>
       <c r="CA426" s="98"/>
       <c r="CB426" s="98"/>
@@ -40939,7 +42612,7 @@
     <row r="427" spans="78:85">
       <c r="BZ427" s="4"/>
       <c r="CA427" s="98" t="s">
-        <v>2281</v>
+        <v>2308</v>
       </c>
       <c r="CB427" s="98"/>
       <c r="CC427" s="98"/>
@@ -40957,7 +42630,7 @@
     <row r="429" spans="78:85">
       <c r="BZ429" s="4"/>
       <c r="CA429" s="98" t="s">
-        <v>2282</v>
+        <v>2309</v>
       </c>
       <c r="CB429" s="98"/>
       <c r="CC429" s="98"/>
@@ -40968,7 +42641,7 @@
       <c r="BZ430" s="4"/>
       <c r="CA430" s="98"/>
       <c r="CB430" s="98" t="s">
-        <v>2283</v>
+        <v>2310</v>
       </c>
       <c r="CC430" s="98"/>
       <c r="CD430" s="98"/>
@@ -40978,7 +42651,7 @@
       <c r="BZ431" s="4"/>
       <c r="CA431" s="98"/>
       <c r="CB431" s="98" t="s">
-        <v>2284</v>
+        <v>2311</v>
       </c>
       <c r="CC431" s="98"/>
       <c r="CD431" s="98"/>
@@ -40988,7 +42661,7 @@
       <c r="BZ432" s="4"/>
       <c r="CA432" s="98"/>
       <c r="CB432" s="98" t="s">
-        <v>2215</v>
+        <v>2242</v>
       </c>
       <c r="CC432" s="98"/>
       <c r="CD432" s="98"/>
@@ -40998,7 +42671,7 @@
       <c r="BZ433" s="4"/>
       <c r="CA433" s="98"/>
       <c r="CB433" s="98" t="s">
-        <v>2285</v>
+        <v>2312</v>
       </c>
       <c r="CC433" s="98"/>
       <c r="CD433" s="98"/>
@@ -41007,7 +42680,7 @@
     <row r="434" spans="78:85">
       <c r="BZ434" s="4"/>
       <c r="CA434" s="98" t="s">
-        <v>2116</v>
+        <v>2143</v>
       </c>
       <c r="CB434" s="98"/>
       <c r="CC434" s="98"/>
@@ -41016,7 +42689,7 @@
     </row>
     <row r="435" spans="78:85">
       <c r="BZ435" s="4" t="s">
-        <v>2116</v>
+        <v>2143</v>
       </c>
       <c r="CA435" s="98"/>
       <c r="CB435" s="98"/>
@@ -41034,7 +42707,7 @@
     </row>
     <row r="437" spans="78:85">
       <c r="BZ437" s="4" t="s">
-        <v>2286</v>
+        <v>2313</v>
       </c>
       <c r="CA437" s="98"/>
       <c r="CB437" s="98"/>
@@ -41044,7 +42717,7 @@
     </row>
     <row r="438" spans="78:85">
       <c r="BZ438" s="4" t="s">
-        <v>2200</v>
+        <v>2227</v>
       </c>
       <c r="CA438" s="98"/>
       <c r="CB438" s="98"/>
@@ -41090,7 +42763,7 @@
   <sheetData>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>2287</v>
+        <v>2314</v>
       </c>
     </row>
   </sheetData>
@@ -41117,47 +42790,47 @@
     </row>
     <row r="11" spans="5:5">
       <c r="E11" t="s">
-        <v>2288</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" t="s">
-        <v>2289</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="15" spans="5:5">
       <c r="E15" t="s">
-        <v>2290</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>2291</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" t="s">
-        <v>2292</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="21" ht="20.25" spans="5:5">
       <c r="E21" s="12" t="s">
-        <v>2293</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="22" ht="21" spans="5:5">
       <c r="E22" s="13" t="s">
-        <v>2294</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="5:5">
       <c r="E23" s="14" t="s">
-        <v>2295</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="5:5">
       <c r="E24" s="15" t="s">
-        <v>2296</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="5:5">
@@ -41165,72 +42838,72 @@
     </row>
     <row r="26" ht="21.75" spans="5:5">
       <c r="E26" s="16" t="s">
-        <v>2297</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="5:5">
       <c r="E27" s="17" t="s">
-        <v>2298</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="5:5">
       <c r="E28" s="17" t="s">
-        <v>2299</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="5:5">
       <c r="E29" s="17" t="s">
-        <v>2300</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="5:5">
       <c r="E30" s="17" t="s">
-        <v>2301</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="5:5">
       <c r="E31" s="17" t="s">
-        <v>2302</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="32" ht="17.25" spans="5:5">
       <c r="E32" s="18" t="s">
-        <v>2303</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="5:5">
       <c r="E33" s="19" t="s">
-        <v>2304</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="5:5">
       <c r="E34" s="19" t="s">
-        <v>2305</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="19" t="s">
-        <v>2306</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="36" ht="20.25" spans="5:5">
       <c r="E36" s="13" t="s">
-        <v>2307</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="37" ht="17.25" spans="5:5">
       <c r="E37" s="14" t="s">
-        <v>2308</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="5:5">
       <c r="E38" s="17" t="s">
-        <v>2309</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="5:5">
       <c r="E39" s="15" t="s">
-        <v>2310</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="41" spans="5:5">
@@ -41238,17 +42911,17 @@
     </row>
     <row r="42" ht="17.25" spans="5:5">
       <c r="E42" s="15" t="s">
-        <v>2311</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="43" ht="20.25" spans="5:5">
       <c r="E43" s="13" t="s">
-        <v>2312</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="5:5">
       <c r="E44" s="17" t="s">
-        <v>2313</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="45" spans="5:5">
@@ -41283,152 +42956,152 @@
     </row>
     <row r="55" ht="17.25" spans="5:5">
       <c r="E55" s="15" t="s">
-        <v>2314</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="5:5">
       <c r="E56" s="15" t="s">
-        <v>2315</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="77" ht="17.25" spans="5:5">
       <c r="E77" s="15" t="s">
-        <v>2316</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="78" ht="17.25" spans="5:5">
       <c r="E78" s="17" t="s">
-        <v>2317</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="79" ht="17.25" spans="5:5">
       <c r="E79" s="17" t="s">
-        <v>2318</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="80" ht="17.25" spans="5:5">
       <c r="E80" s="15" t="s">
-        <v>2319</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="81" ht="17.25" spans="5:5">
       <c r="E81" s="17" t="s">
-        <v>2320</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="82" ht="17.25" spans="5:5">
       <c r="E82" s="15" t="s">
-        <v>2321</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="83" ht="17.25" spans="5:5">
       <c r="E83" s="17" t="s">
-        <v>2322</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="84" ht="17.25" spans="5:5">
       <c r="E84" s="15" t="s">
-        <v>2323</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="85" ht="17.25" spans="5:5">
       <c r="E85" s="17" t="s">
-        <v>2324</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="86" ht="17.25" spans="5:5">
       <c r="E86" s="17" t="s">
-        <v>2325</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="87" ht="20.25" spans="5:5">
       <c r="E87" s="13" t="s">
-        <v>2326</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="88" ht="17.25" spans="5:5">
       <c r="E88" s="17" t="s">
-        <v>2327</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="89" ht="17.25" spans="5:5">
       <c r="E89" s="15" t="s">
-        <v>2328</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="90" ht="21" spans="5:5">
       <c r="E90" s="13" t="s">
-        <v>2329</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="91" ht="17.25" spans="5:5">
       <c r="E91" s="17" t="s">
-        <v>2330</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="92" ht="17.25" spans="5:5">
       <c r="E92" s="17" t="s">
-        <v>2331</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="93" ht="20.25" spans="5:5">
       <c r="E93" s="13" t="s">
-        <v>2332</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="94" ht="17.25" spans="5:5">
       <c r="E94" s="17" t="s">
-        <v>2333</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="95" ht="20.25" spans="5:5">
       <c r="E95" s="13" t="s">
-        <v>2334</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="96" ht="17.25" spans="5:5">
       <c r="E96" s="17" t="s">
-        <v>2335</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="97" ht="20.25" spans="5:5">
       <c r="E97" s="13" t="s">
-        <v>2336</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="98" ht="17.25" spans="5:5">
       <c r="E98" s="17" t="s">
-        <v>2337</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="99" ht="20.25" spans="5:5">
       <c r="E99" s="13" t="s">
-        <v>2338</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="100" ht="17.25" spans="5:5">
       <c r="E100" s="17" t="s">
-        <v>2339</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="101" ht="20.25" spans="5:5">
       <c r="E101" s="13" t="s">
-        <v>2340</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="102" ht="17.25" spans="5:5">
       <c r="E102" s="17" t="s">
-        <v>2341</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="103" ht="20.25" spans="5:5">
       <c r="E103" s="13" t="s">
-        <v>2342</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="104" ht="17.25" spans="5:5">
       <c r="E104" s="17" t="s">
-        <v>2343</v>
+        <v>2370</v>
       </c>
     </row>
   </sheetData>
@@ -41451,92 +43124,92 @@
   <sheetData>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>2344</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>2345</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>2346</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" t="s">
-        <v>2347</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>2348</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="7" spans="5:5">
       <c r="E7" t="s">
-        <v>2349</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>2350</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="9" spans="5:5">
       <c r="E9" t="s">
-        <v>2351</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>2352</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>2353</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>2354</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>2355</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>2356</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>2357</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>2358</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>2359</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>2360</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>2361</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="22" spans="14:18">
@@ -41548,16 +43221,16 @@
     </row>
     <row r="23" spans="4:18">
       <c r="D23" t="s">
-        <v>2362</v>
+        <v>2389</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>2363</v>
+        <v>2390</v>
       </c>
       <c r="R23" s="9"/>
     </row>
     <row r="24" spans="4:18">
       <c r="D24" t="s">
-        <v>2364</v>
+        <v>2391</v>
       </c>
       <c r="N24" s="4">
         <v>3</v>
@@ -41566,7 +43239,7 @@
     </row>
     <row r="25" spans="4:18">
       <c r="D25" t="s">
-        <v>2365</v>
+        <v>2392</v>
       </c>
       <c r="N25" s="4">
         <v>4</v>
@@ -41575,16 +43248,16 @@
     </row>
     <row r="26" spans="4:18">
       <c r="D26" t="s">
-        <v>2366</v>
+        <v>2393</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>2367</v>
+        <v>2394</v>
       </c>
       <c r="R26" s="9"/>
     </row>
     <row r="27" spans="4:18">
       <c r="D27" t="s">
-        <v>2368</v>
+        <v>2395</v>
       </c>
       <c r="N27" s="4">
         <v>6</v>
@@ -41593,7 +43266,7 @@
     </row>
     <row r="28" spans="4:18">
       <c r="D28" t="s">
-        <v>2369</v>
+        <v>2396</v>
       </c>
       <c r="N28" s="4">
         <v>7</v>
@@ -41602,53 +43275,53 @@
     </row>
     <row r="29" spans="4:18">
       <c r="D29" t="s">
-        <v>2370</v>
+        <v>2397</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>2371</v>
+        <v>2398</v>
       </c>
       <c r="R29" s="9"/>
     </row>
     <row r="30" spans="4:18">
       <c r="D30" t="s">
-        <v>2372</v>
+        <v>2399</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>2373</v>
+        <v>2400</v>
       </c>
       <c r="R30" s="9"/>
     </row>
     <row r="31" spans="4:18">
       <c r="D31" t="s">
-        <v>2374</v>
+        <v>2401</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>2375</v>
+        <v>2402</v>
       </c>
       <c r="R31" s="9"/>
     </row>
     <row r="32" spans="4:18">
       <c r="D32" t="s">
-        <v>2376</v>
+        <v>2403</v>
       </c>
       <c r="N32" s="5"/>
       <c r="R32" s="9"/>
     </row>
     <row r="33" spans="4:18">
       <c r="D33" t="s">
-        <v>2377</v>
+        <v>2404</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>2378</v>
+        <v>2405</v>
       </c>
       <c r="R33" s="9"/>
     </row>
     <row r="34" spans="4:18">
       <c r="D34" t="s">
-        <v>2379</v>
+        <v>2406</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>2380</v>
+        <v>2407</v>
       </c>
       <c r="R34" s="9"/>
     </row>
@@ -41661,595 +43334,595 @@
     </row>
     <row r="37" spans="4:4">
       <c r="D37" t="s">
-        <v>2381</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" t="s">
-        <v>2382</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>2383</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>2384</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="41" spans="4:10">
       <c r="D41" s="1" t="s">
-        <v>2385</v>
+        <v>2412</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>2386</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" t="s">
-        <v>2387</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" s="1" t="s">
-        <v>2388</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" s="1" t="s">
-        <v>2389</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" t="s">
-        <v>2390</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>2391</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
-        <v>2392</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>2393</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="1" t="s">
-        <v>2394</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" t="s">
-        <v>2395</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" t="s">
-        <v>2396</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" t="s">
-        <v>2397</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" t="s">
-        <v>2398</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" t="s">
-        <v>2399</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" t="s">
-        <v>2400</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" t="s">
-        <v>2401</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" t="s">
-        <v>2402</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" s="1" t="s">
-        <v>2403</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61" s="1" t="s">
-        <v>2404</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" s="1" t="s">
-        <v>2405</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" t="s">
-        <v>2406</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" t="s">
-        <v>2407</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" t="s">
-        <v>2408</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" t="s">
-        <v>2409</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69" t="s">
-        <v>2410</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70" t="s">
-        <v>2411</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72" s="1" t="s">
-        <v>2412</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" t="s">
-        <v>2413</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" t="s">
-        <v>2414</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" t="s">
-        <v>2415</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="76" spans="4:4">
       <c r="D76" s="1" t="s">
-        <v>2416</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="1" t="s">
-        <v>2417</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78" t="s">
-        <v>2418</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="79" spans="4:4">
       <c r="D79" t="s">
-        <v>2419</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" t="s">
-        <v>2420</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="81" spans="4:4">
       <c r="D81" t="s">
-        <v>2421</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" t="s">
-        <v>2422</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" t="s">
-        <v>2423</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" t="s">
-        <v>2424</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="86" spans="4:4">
       <c r="D86" t="s">
-        <v>2425</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87" t="s">
-        <v>2426</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="88" spans="4:4">
       <c r="D88" t="s">
-        <v>2427</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="89" spans="4:4">
       <c r="D89" t="s">
-        <v>2428</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="91" spans="4:4">
       <c r="D91" t="s">
-        <v>2429</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="92" spans="4:4">
       <c r="D92" t="s">
-        <v>2430</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="93" spans="4:4">
       <c r="D93" t="s">
-        <v>2431</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="94" spans="4:4">
       <c r="D94" t="s">
-        <v>2432</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="95" spans="4:4">
       <c r="D95" t="s">
-        <v>2433</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="96" spans="4:4">
       <c r="D96" t="s">
-        <v>2434</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="97" spans="4:4">
       <c r="D97" t="s">
-        <v>2435</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="98" spans="4:4">
       <c r="D98" t="s">
-        <v>2436</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="99" spans="4:4">
       <c r="D99" t="s">
-        <v>2437</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="101" spans="4:4">
       <c r="D101" t="s">
-        <v>2438</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="102" spans="4:4">
       <c r="D102" t="s">
-        <v>2439</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="104" spans="4:4">
       <c r="D104" t="s">
-        <v>2440</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="106" spans="4:4">
       <c r="D106" t="s">
-        <v>2441</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="107" spans="4:4">
       <c r="D107" t="s">
-        <v>2442</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="108" spans="4:4">
       <c r="D108" t="s">
-        <v>2443</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="109" spans="4:4">
       <c r="D109" t="s">
-        <v>2444</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="110" spans="4:4">
       <c r="D110" t="s">
-        <v>2445</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="111" spans="4:4">
       <c r="D111" t="s">
-        <v>2446</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="112" spans="4:4">
       <c r="D112" t="s">
-        <v>2447</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="113" spans="4:4">
       <c r="D113" t="s">
-        <v>2448</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="114" spans="4:4">
       <c r="D114" t="s">
-        <v>2449</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="115" spans="4:4">
       <c r="D115" t="s">
-        <v>2450</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="116" spans="4:4">
       <c r="D116" t="s">
-        <v>2451</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="117" spans="4:4">
       <c r="D117" t="s">
-        <v>2452</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="118" spans="4:4">
       <c r="D118" t="s">
-        <v>2453</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="119" spans="4:4">
       <c r="D119" t="s">
-        <v>2454</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="120" spans="4:4">
       <c r="D120" t="s">
-        <v>2455</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="121" spans="4:4">
       <c r="D121" t="s">
-        <v>2456</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="122" spans="4:4">
       <c r="D122" t="s">
-        <v>2457</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="123" spans="4:4">
       <c r="D123" t="s">
-        <v>2458</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="124" spans="4:4">
       <c r="D124" t="s">
-        <v>2459</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="125" spans="4:4">
       <c r="D125" t="s">
-        <v>2460</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="126" spans="4:4">
       <c r="D126" t="s">
-        <v>2366</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="127" spans="5:5">
       <c r="E127" t="s">
-        <v>2461</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="128" spans="4:4">
       <c r="D128" t="s">
-        <v>2462</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="129" spans="4:4">
       <c r="D129" t="s">
-        <v>2463</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="130" spans="4:4">
       <c r="D130" t="s">
-        <v>2464</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="131" spans="4:4">
       <c r="D131" t="s">
-        <v>2465</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="132" spans="4:4">
       <c r="D132" t="s">
-        <v>2466</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="133" spans="4:4">
       <c r="D133" t="s">
-        <v>2467</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="134" spans="4:4">
       <c r="D134" t="s">
-        <v>2459</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="135" spans="4:4">
       <c r="D135" t="s">
-        <v>2468</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="136" spans="4:4">
       <c r="D136" t="s">
-        <v>2366</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="137" spans="5:5">
       <c r="E137" t="s">
-        <v>2461</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="138" spans="4:4">
       <c r="D138" t="s">
-        <v>2469</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="139" spans="4:4">
       <c r="D139" t="s">
-        <v>2470</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="140" spans="4:4">
       <c r="D140" t="s">
-        <v>2471</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="141" spans="4:4">
       <c r="D141" t="s">
-        <v>2472</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="142" spans="4:4">
       <c r="D142" t="s">
-        <v>2473</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="143" spans="4:4">
       <c r="D143" t="s">
-        <v>2474</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="144" spans="4:4">
       <c r="D144" t="s">
-        <v>2366</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="145" spans="5:5">
       <c r="E145" t="s">
-        <v>2461</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="146" spans="4:4">
       <c r="D146" t="s">
-        <v>2475</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="147" spans="4:4">
       <c r="D147" t="s">
-        <v>2471</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="148" spans="4:4">
       <c r="D148" t="s">
-        <v>2476</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="149" spans="4:4">
       <c r="D149" t="s">
-        <v>2473</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="150" spans="4:4">
       <c r="D150" t="s">
-        <v>2477</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="151" spans="4:4">
       <c r="D151" t="s">
-        <v>2366</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="152" spans="5:5">
       <c r="E152" t="s">
-        <v>2461</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="153" spans="4:4">
       <c r="D153" t="s">
-        <v>2478</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="154" spans="4:4">
       <c r="D154" t="s">
-        <v>2471</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="155" spans="4:4">
       <c r="D155" t="s">
-        <v>2479</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="156" spans="4:4">
       <c r="D156" t="s">
-        <v>2473</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="157" spans="4:4">
       <c r="D157" t="s">
-        <v>2477</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="158" spans="4:4">
       <c r="D158" t="s">
-        <v>2366</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="159" spans="5:5">
       <c r="E159" t="s">
-        <v>2461</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="160" spans="4:4">
       <c r="D160" t="s">
-        <v>2480</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="161" spans="4:4">
       <c r="D161" t="s">
-        <v>2418</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="165" spans="4:4">
       <c r="D165" t="s">
-        <v>2481</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="166" ht="21" spans="4:4">
       <c r="D166" s="11" t="s">
-        <v>2482</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="167" spans="4:4">
       <c r="D167" t="s">
-        <v>2483</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="170" spans="4:4">
@@ -42259,22 +43932,22 @@
     </row>
     <row r="172" spans="4:4">
       <c r="D172" t="s">
-        <v>2484</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="173" spans="4:4">
       <c r="D173" t="s">
-        <v>2485</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="174" spans="4:4">
       <c r="D174" t="s">
-        <v>2486</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="175" spans="4:4">
       <c r="D175" t="s">
-        <v>2487</v>
+        <v>2514</v>
       </c>
     </row>
   </sheetData>
@@ -42300,22 +43973,22 @@
   <sheetData>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>2488</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="1" t="s">
-        <v>2489</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>2490</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>2491</v>
+        <v>2518</v>
       </c>
     </row>
   </sheetData>

--- a/kernel_compile_framework.xlsx
+++ b/kernel_compile_framework.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="2519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3501" uniqueCount="2525">
   <si>
     <t>目录/home/hpsp/rock_space/iMX6Q_files/iMX6Q_kernel/kernel_imx 下有目前买的这个板子的DTB文件： imx6q-sabresd.dtb</t>
   </si>
@@ -7068,16 +7068,25 @@
     <t xml:space="preserve"> 564 init-y          := init/</t>
   </si>
   <si>
+    <t>rock_dbg:top_Makefile==&gt;vmlinux----&gt;KBUILD_LDS=arch/arm/kernel/vmlinux.lds....</t>
+  </si>
+  <si>
     <t>113 quiet_cmd_host-cobjs    = HOSTCC  $@</t>
   </si>
   <si>
     <t xml:space="preserve"> 565 drivers-y       := drivers/  sound/   firmware/</t>
   </si>
   <si>
+    <t>rock_dbg:top_Makefile==&gt;vmlinux----&gt;KBUILD_VMLINUX_INIT=arch/arm/kernel/head.o  init/built-in.o....</t>
+  </si>
+  <si>
     <t>114       cmd_host-cobjs    = $(HOSTCC) $(hostc_flags) -c -o $@ $&lt;</t>
   </si>
   <si>
     <t xml:space="preserve"> 566 net-y           := net/</t>
+  </si>
+  <si>
+    <t>rock_dbg:top_Makefile==&gt;vmlinux----&gt;KBUILD_VMLINUX_MAIN= usr/built-in.o  arch/arm/vfp/built-in.o  arch/arm/vdso/built-in.o  arch/arm/kernel/built-in.o  arch/arm/mm/built-in.o  arch/arm/common/built-in.o  arch/arm/probes/built-in.o  arch/arm/net/built-in.o  arch/arm/crypto/built-in.o  arch/arm/firmware/built-in.o  arch/arm/mach-imx/built-in.o  kernel/built-in.o  mm/built-in.o  fs/built-in.o  ipc/built-in.o  security/built-in.o  crypto/built-in.o  block/built-in.o  arch/arm/lib/lib.a  lib/lib.a  arch/arm/lib/built-in.o  lib/built-in.o  drivers/built-in.o  sound/built-in.o  firmware/built-in.o  net/built-in.o....</t>
   </si>
   <si>
     <t>115 $(host-cobjs): $(obj)/%.o: $(src)/%.c FORCE</t>
@@ -7315,6 +7324,9 @@
     <t xml:space="preserve"> 16 mounts-$(CONFIG_BLK_DEV_INITRD) += do_mounts_initrd.o</t>
   </si>
   <si>
+    <t xml:space="preserve"> 920 # Final link of vmlinux   </t>
+  </si>
+  <si>
     <t>133         $(call if_changed_dep,host-cxxobjs)</t>
   </si>
   <si>
@@ -7324,9 +7336,15 @@
     <t xml:space="preserve"> 17 mounts-$(CONFIG_BLK_DEV_MD)     += do_mounts_md.o</t>
   </si>
   <si>
+    <t xml:space="preserve"> 921       cmd_link-vmlinux = $(CONFIG_SHELL) $&lt; $(LD) $(LDFLAGS) $(LDFLAGS_vmlinux)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 907 libs-y2         := $(patsubst %/, %/built-in.o, $(libs-y))</t>
   </si>
   <si>
+    <t xml:space="preserve"> 922 quiet_cmd_link-vmlinux = LINK    $@</t>
+  </si>
+  <si>
     <t>135 targets += $(host-csingle)  $(host-cmulti) $(host-cobjs)\</t>
   </si>
   <si>
@@ -7345,16 +7363,16 @@
     <t xml:space="preserve"> 20 $(obj)/version.o: include/generated/compile.h</t>
   </si>
   <si>
-    <t xml:space="preserve"> 920 # Final link of vmlinux   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 921       cmd_link-vmlinux = $(CONFIG_SHELL) $&lt; $(LD) $(LDFLAGS) $(LDFLAGS_vmlinux)</t>
+    <t xml:space="preserve"> 924 # Include targets which we want to</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 925 # execute if the rest of the kernel build went well.</t>
   </si>
   <si>
     <t xml:space="preserve"> 22 # compile.h changes depending on hostname, generation number, etc,</t>
   </si>
   <si>
-    <t xml:space="preserve"> 922 quiet_cmd_link-vmlinux = LINK    $@</t>
+    <t xml:space="preserve"> 926 vmlinux:   scripts/link-vmlinux.sh    $(vmlinux-deps) FORCE</t>
   </si>
   <si>
     <r>
@@ -7420,6 +7438,9 @@
     <t xml:space="preserve"> 23 # so we regenerate it always.       </t>
   </si>
   <si>
+    <t xml:space="preserve"> 927         @echo "rock_dbg:top_Makefile==&gt;vmlinux----&gt;$^...."</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"> 912 export   </t>
     </r>
@@ -7450,13 +7471,13 @@
     <t xml:space="preserve"> 24 # mkcompile_h will make sure to only update the</t>
   </si>
   <si>
-    <t xml:space="preserve"> 924 # Include targets which we want to</t>
+    <t xml:space="preserve"> 928         @echo "rock_dbg:top_Makefile==&gt;vmlinux----&gt;KBUILD_LDS=$(KBUILD_LDS)...."</t>
   </si>
   <si>
     <t xml:space="preserve"> 25 # actual file if its content has changed.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 925 # execute if the rest of the kernel build went well.</t>
+    <t xml:space="preserve"> 929         @echo "rock_dbg:top_Makefile==&gt;vmlinux----&gt;KBUILD_VMLINUX_INIT=$(KBUILD_VMLINUX_INIT)...."</t>
   </si>
   <si>
     <r>
@@ -7497,59 +7518,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> 926 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1D41D5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vmlinux</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:    scripts/link-vmlinux.sh  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1D41D5"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> $(vmlinux-deps) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   FORCE</t>
-    </r>
+    <t xml:space="preserve"> 930         @echo "rock_dbg:top_Makefile==&gt;vmlinux----&gt;KBUILD_VMLINUX_MAIN=$(KBUILD_VMLINUX_MAIN)...."</t>
   </si>
   <si>
     <t xml:space="preserve"> 27        chk_compile.h = :            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 927         @echo "rock_dbg:top_Makefile==&gt;vmlinux----&gt;$^...."</t>
   </si>
   <si>
     <t xml:space="preserve"> 28  quiet_chk_compile.h = echo '  CHK     $@'</t>
@@ -12934,7 +12906,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13367,6 +13339,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -13431,9 +13409,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -15137,7 +15112,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="11433810" y="7434580"/>
-          <a:ext cx="6604635" cy="28709620"/>
+          <a:ext cx="6604635" cy="28700095"/>
           <a:chOff x="18103" y="11207"/>
           <a:chExt cx="10469" cy="43163"/>
         </a:xfrm>
@@ -15230,7 +15205,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="24800560" y="37156390"/>
+          <a:off x="24800560" y="37146865"/>
           <a:ext cx="3718560" cy="1108075"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -15279,7 +15254,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19314795" y="36495355"/>
+          <a:off x="19314795" y="36485830"/>
           <a:ext cx="2465705" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -15329,7 +15304,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="24427180" y="33300035"/>
-          <a:ext cx="4071620" cy="4228465"/>
+          <a:ext cx="4071620" cy="4218940"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -15377,7 +15352,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="31723965" y="40156765"/>
+          <a:off x="31723965" y="40147240"/>
           <a:ext cx="808355" cy="179070"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -15427,7 +15402,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="31099125" y="35072955"/>
-          <a:ext cx="12476480" cy="3989070"/>
+          <a:ext cx="12476480" cy="3979545"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -15475,7 +15450,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="47234475" y="38249225"/>
+          <a:off x="47234475" y="38239700"/>
           <a:ext cx="12287250" cy="1431925"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -15524,7 +15499,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipV="1">
-          <a:off x="63583820" y="37913310"/>
+          <a:off x="63583820" y="37903785"/>
           <a:ext cx="2152650" cy="2028825"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -15574,7 +15549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="89357200" y="31110555"/>
-          <a:ext cx="3194685" cy="6330315"/>
+          <a:ext cx="3194685" cy="6320790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16189,6 +16164,30 @@
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -16601,7 +16600,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29965650" y="39357300"/>
+          <a:off x="29965650" y="39347775"/>
           <a:ext cx="238125" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -16657,7 +16656,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="87177245" y="34277300"/>
-          <a:ext cx="2179320" cy="2226310"/>
+          <a:ext cx="2179320" cy="2216785"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -16754,7 +16753,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="88039575" y="38538150"/>
+          <a:off x="88039575" y="38528625"/>
           <a:ext cx="2927350" cy="5482590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17180,7 +17179,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82886550" y="39281100"/>
+          <a:off x="82886550" y="39271575"/>
           <a:ext cx="5153025" cy="1993900"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -17229,7 +17228,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="90722450" y="39185850"/>
+          <a:off x="90722450" y="39176325"/>
           <a:ext cx="1714500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -17276,7 +17275,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="94296865" y="38928675"/>
+          <a:off x="94296865" y="38919150"/>
           <a:ext cx="5381625" cy="2009775"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -17325,7 +17324,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="97246440" y="47254160"/>
+          <a:off x="97246440" y="47244635"/>
           <a:ext cx="4603750" cy="2642870"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -17374,7 +17373,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="93522165" y="49074070"/>
+          <a:off x="93522165" y="49064545"/>
           <a:ext cx="1520825" cy="1256030"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -17431,7 +17430,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95199835" y="50982880"/>
+          <a:off x="95199835" y="50973355"/>
           <a:ext cx="17592675" cy="3476625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17465,7 +17464,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipV="1">
-          <a:off x="49911000" y="39578280"/>
+          <a:off x="49911000" y="39568755"/>
           <a:ext cx="1106170" cy="972820"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -17515,7 +17514,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="90470355" y="32184340"/>
-          <a:ext cx="5914390" cy="18576290"/>
+          <a:ext cx="5914390" cy="18566765"/>
           <a:chOff x="142829" y="48347"/>
           <a:chExt cx="9339" cy="27977"/>
         </a:xfrm>
@@ -17621,7 +17620,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47851695" y="40637460"/>
+          <a:off x="47851695" y="40627935"/>
           <a:ext cx="2432050" cy="6088380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18273,15 +18272,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>57</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>558165</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>109855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>95</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
       <xdr:row>179</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104140</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -18290,12 +18289,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="48148875" y="35699700"/>
-          <a:ext cx="31709995" cy="809625"/>
+          <a:off x="48335565" y="34895155"/>
+          <a:ext cx="31523305" cy="1604010"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 88390"/>
+            <a:gd name="adj1" fmla="val 50002"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="25400">
@@ -18421,6 +18420,197 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>266065</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>89535</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>175895</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="Up Arrow 102"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="90182065" y="29880560"/>
+          <a:ext cx="661670" cy="1242060"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>788670</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>122555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>372745</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="Text Box 103"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="52757070" y="35107880"/>
+          <a:ext cx="10480675" cy="1470025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>rock_dbg:top_Makefile==&gt;vmlinux----&gt;KBUILD_LDS=arch/arm/kernel/vmlinux.lds....	</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>rock_dbg:top_Makefile==&gt;vmlinux----&gt;KBUILD_VMLINUX_INIT=arch/arm/kernel/head.o  init/built-in.o....	</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>rock_dbg:top_Makefile==&gt;vmlinux----&gt;KBUILD_VMLINUX_MAIN= usr/built-in.o  arch/arm/vfp/built-in.o  arch/arm/vdso/built-in.o  arch/arm/kernel/built-in.o  arch/arm/mm/built-in.o  arch/arm/common/built-in.o  arch/arm/probes/built-in.o  arch/arm/net/built-in.o  arch/arm/crypto/built-in.o  arch/arm/firmware/built-in.o  arch/arm/mach-imx/built-in.o  kernel/built-in.o  mm/built-in.o  fs/built-in.o  ipc/built-in.o  security/built-in.o  crypto/built-in.o  block/built-in.o  arch/arm/lib/lib.a  lib/lib.a  arch/arm/lib/built-in.o  lib/built-in.o  drivers/built-in.o  sound/built-in.o  firmware/built-in.o  net/built-in.o....	</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="Right Arrow 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="51381660" y="35332670"/>
+          <a:ext cx="1323340" cy="382905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -18836,7 +19026,7 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="4" spans="3:3">
-      <c r="C4" s="167"/>
+      <c r="C4" s="168"/>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
@@ -27994,7 +28184,7 @@
       </c>
     </row>
     <row r="7" ht="16.5" spans="4:4">
-      <c r="D7" s="163" t="s">
+      <c r="D7" s="165" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -28049,7 +28239,7 @@
       </c>
     </row>
     <row r="35" ht="18" spans="6:6">
-      <c r="F35" s="164" t="s">
+      <c r="F35" s="166" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -28127,12 +28317,12 @@
       </c>
     </row>
     <row r="50" ht="18" spans="6:6">
-      <c r="F50" s="164" t="s">
+      <c r="F50" s="166" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="51" spans="6:6">
-      <c r="F51" s="163" t="s">
+      <c r="F51" s="165" t="s">
         <v>1206</v>
       </c>
     </row>
@@ -28172,7 +28362,7 @@
       </c>
     </row>
     <row r="60" ht="18" spans="6:6">
-      <c r="F60" s="164" t="s">
+      <c r="F60" s="166" t="s">
         <v>1214</v>
       </c>
     </row>
@@ -28182,7 +28372,7 @@
       </c>
     </row>
     <row r="63" ht="18" spans="6:6">
-      <c r="F63" s="164" t="s">
+      <c r="F63" s="166" t="s">
         <v>1216</v>
       </c>
     </row>
@@ -28212,7 +28402,7 @@
       </c>
     </row>
     <row r="70" ht="18" spans="6:6">
-      <c r="F70" s="164" t="s">
+      <c r="F70" s="166" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -28388,7 +28578,7 @@
       </c>
     </row>
     <row r="105" ht="18" spans="6:6">
-      <c r="F105" s="164" t="s">
+      <c r="F105" s="166" t="s">
         <v>1254</v>
       </c>
     </row>
@@ -28503,7 +28693,7 @@
       </c>
     </row>
     <row r="130" ht="18" spans="6:6">
-      <c r="F130" s="164" t="s">
+      <c r="F130" s="166" t="s">
         <v>1275</v>
       </c>
     </row>
@@ -28563,12 +28753,12 @@
       </c>
     </row>
     <row r="145" spans="6:6">
-      <c r="F145" s="165" t="s">
+      <c r="F145" s="167" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="146" spans="6:6">
-      <c r="F146" s="165" t="s">
+      <c r="F146" s="167" t="s">
         <v>1285</v>
       </c>
     </row>
@@ -28603,7 +28793,7 @@
       </c>
     </row>
     <row r="153" spans="6:6">
-      <c r="F153" s="165" t="s">
+      <c r="F153" s="167" t="s">
         <v>1292</v>
       </c>
     </row>
@@ -28628,17 +28818,17 @@
       </c>
     </row>
     <row r="158" spans="6:6">
-      <c r="F158" s="165" t="s">
+      <c r="F158" s="167" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="159" spans="6:6">
-      <c r="F159" s="165" t="s">
+      <c r="F159" s="167" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="160" spans="6:6">
-      <c r="F160" s="165" t="s">
+      <c r="F160" s="167" t="s">
         <v>1299</v>
       </c>
     </row>
@@ -28653,7 +28843,7 @@
       </c>
     </row>
     <row r="163" spans="6:6">
-      <c r="F163" s="165" t="s">
+      <c r="F163" s="167" t="s">
         <v>1302</v>
       </c>
     </row>
@@ -28683,12 +28873,12 @@
       </c>
     </row>
     <row r="169" spans="6:6">
-      <c r="F169" s="165" t="s">
+      <c r="F169" s="167" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="171" spans="6:6">
-      <c r="F171" s="165" t="s">
+      <c r="F171" s="167" t="s">
         <v>1309</v>
       </c>
     </row>
@@ -28698,102 +28888,102 @@
       </c>
     </row>
     <row r="173" spans="6:6">
-      <c r="F173" s="165" t="s">
+      <c r="F173" s="167" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="174" spans="6:6">
-      <c r="F174" s="165" t="s">
+      <c r="F174" s="167" t="s">
         <v>1312</v>
       </c>
     </row>
     <row r="175" spans="6:6">
-      <c r="F175" s="165" t="s">
+      <c r="F175" s="167" t="s">
         <v>1313</v>
       </c>
     </row>
     <row r="176" spans="6:6">
-      <c r="F176" s="165" t="s">
+      <c r="F176" s="167" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="177" spans="6:6">
-      <c r="F177" s="165" t="s">
+      <c r="F177" s="167" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="178" spans="6:6">
-      <c r="F178" s="165" t="s">
+      <c r="F178" s="167" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="179" spans="6:6">
-      <c r="F179" s="165" t="s">
+      <c r="F179" s="167" t="s">
         <v>1317</v>
       </c>
     </row>
     <row r="180" spans="6:6">
-      <c r="F180" s="165" t="s">
+      <c r="F180" s="167" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="181" spans="6:6">
-      <c r="F181" s="165" t="s">
+      <c r="F181" s="167" t="s">
         <v>1319</v>
       </c>
     </row>
     <row r="182" spans="6:6">
-      <c r="F182" s="165" t="s">
+      <c r="F182" s="167" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="183" spans="6:6">
-      <c r="F183" s="165" t="s">
+      <c r="F183" s="167" t="s">
         <v>1321</v>
       </c>
     </row>
     <row r="184" spans="6:6">
-      <c r="F184" s="165" t="s">
+      <c r="F184" s="167" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="185" spans="6:6">
-      <c r="F185" s="165" t="s">
+      <c r="F185" s="167" t="s">
         <v>1323</v>
       </c>
     </row>
     <row r="186" spans="6:6">
-      <c r="F186" s="165" t="s">
+      <c r="F186" s="167" t="s">
         <v>1324</v>
       </c>
     </row>
     <row r="187" spans="6:6">
-      <c r="F187" s="165" t="s">
+      <c r="F187" s="167" t="s">
         <v>1325</v>
       </c>
     </row>
     <row r="188" spans="6:6">
-      <c r="F188" s="165" t="s">
+      <c r="F188" s="167" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="189" spans="6:6">
-      <c r="F189" s="165" t="s">
+      <c r="F189" s="167" t="s">
         <v>1327</v>
       </c>
     </row>
     <row r="190" spans="6:6">
-      <c r="F190" s="165" t="s">
+      <c r="F190" s="167" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="191" spans="6:6">
-      <c r="F191" s="165" t="s">
+      <c r="F191" s="167" t="s">
         <v>1323</v>
       </c>
     </row>
     <row r="192" spans="6:6">
-      <c r="F192" s="165" t="s">
+      <c r="F192" s="167" t="s">
         <v>11</v>
       </c>
     </row>
@@ -28923,7 +29113,7 @@
       </c>
     </row>
     <row r="221" spans="6:6">
-      <c r="F221" s="165" t="s">
+      <c r="F221" s="167" t="s">
         <v>1353</v>
       </c>
     </row>
@@ -29439,7 +29629,7 @@
       </c>
     </row>
     <row r="331" ht="16.5" spans="6:6">
-      <c r="F331" s="166" t="s">
+      <c r="F331" s="144" t="s">
         <v>1424</v>
       </c>
     </row>
@@ -31350,7 +31540,7 @@
       </c>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="162"/>
+      <c r="G21" s="164"/>
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
@@ -31371,8 +31561,8 @@
   <sheetPr/>
   <dimension ref="M6:EI441"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="CP141" workbookViewId="0">
-      <selection activeCell="CW171" sqref="CW171"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="AZ133" workbookViewId="0">
+      <selection activeCell="BO184" sqref="BO184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -35406,7 +35596,7 @@
       <c r="CA129" s="97" t="s">
         <v>1912</v>
       </c>
-      <c r="CG129" s="168" t="s">
+      <c r="CG129" s="169" t="s">
         <v>1913</v>
       </c>
       <c r="CK129" s="9"/>
@@ -35417,7 +35607,7 @@
       <c r="DB129" s="142"/>
       <c r="DC129" s="142"/>
       <c r="DD129" s="142"/>
-      <c r="DE129" s="146"/>
+      <c r="DE129" s="148"/>
       <c r="DF129" s="98"/>
       <c r="DG129" s="98"/>
     </row>
@@ -35655,7 +35845,7 @@
       <c r="CY144" s="49"/>
       <c r="CZ144" s="58"/>
     </row>
-    <row r="145" spans="79:104">
+    <row r="145" spans="79:112">
       <c r="CA145" s="4" t="s">
         <v>1935</v>
       </c>
@@ -35671,14 +35861,22 @@
       <c r="CX145" s="49"/>
       <c r="CY145" s="49"/>
       <c r="CZ145" s="58"/>
-    </row>
-    <row r="146" spans="79:104">
+      <c r="DC145" s="144" t="s">
+        <v>1937</v>
+      </c>
+      <c r="DD145" s="145"/>
+      <c r="DE145" s="145"/>
+      <c r="DF145" s="145"/>
+      <c r="DG145" s="145"/>
+      <c r="DH145" s="145"/>
+    </row>
+    <row r="146" spans="79:112">
       <c r="CA146" s="4" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="CK146" s="9"/>
       <c r="CR146" s="135" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="CS146" s="139"/>
       <c r="CT146" s="139"/>
@@ -35688,14 +35886,22 @@
       <c r="CX146" s="49"/>
       <c r="CY146" s="49"/>
       <c r="CZ146" s="58"/>
-    </row>
-    <row r="147" spans="79:104">
+      <c r="DC146" s="144" t="s">
+        <v>1940</v>
+      </c>
+      <c r="DD146" s="145"/>
+      <c r="DE146" s="145"/>
+      <c r="DF146" s="145"/>
+      <c r="DG146" s="145"/>
+      <c r="DH146" s="145"/>
+    </row>
+    <row r="147" spans="79:112">
       <c r="CA147" s="4" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="CK147" s="9"/>
       <c r="CR147" s="135" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="CS147" s="139"/>
       <c r="CT147" s="139"/>
@@ -35705,14 +35911,22 @@
       <c r="CX147" s="49"/>
       <c r="CY147" s="49"/>
       <c r="CZ147" s="58"/>
+      <c r="DC147" s="144" t="s">
+        <v>1943</v>
+      </c>
+      <c r="DD147" s="145"/>
+      <c r="DE147" s="145"/>
+      <c r="DF147" s="145"/>
+      <c r="DG147" s="145"/>
+      <c r="DH147" s="145"/>
     </row>
     <row r="148" spans="79:104">
       <c r="CA148" s="4" t="s">
-        <v>1941</v>
+        <v>1944</v>
       </c>
       <c r="CK148" s="9"/>
       <c r="CR148" s="135" t="s">
-        <v>1942</v>
+        <v>1945</v>
       </c>
       <c r="CS148" s="139"/>
       <c r="CT148" s="139"/>
@@ -35725,11 +35939,11 @@
     </row>
     <row r="149" spans="79:104">
       <c r="CA149" s="4" t="s">
-        <v>1943</v>
+        <v>1946</v>
       </c>
       <c r="CK149" s="9"/>
       <c r="CR149" s="135" t="s">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="CS149" s="49"/>
       <c r="CT149" s="49"/>
@@ -35757,11 +35971,11 @@
     </row>
     <row r="151" spans="79:121">
       <c r="CA151" s="4" t="s">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="CK151" s="9"/>
       <c r="CR151" s="136" t="s">
-        <v>1946</v>
+        <v>1949</v>
       </c>
       <c r="CS151" s="90"/>
       <c r="CT151" s="90"/>
@@ -35783,10 +35997,10 @@
     </row>
     <row r="152" spans="56:121">
       <c r="BD152" t="s">
-        <v>1947</v>
+        <v>1950</v>
       </c>
       <c r="CA152" s="4" t="s">
-        <v>1948</v>
+        <v>1951</v>
       </c>
       <c r="CK152" s="9"/>
       <c r="CR152" s="56">
@@ -35800,8 +36014,8 @@
       <c r="CX152" s="49"/>
       <c r="CY152" s="49"/>
       <c r="CZ152" s="58"/>
-      <c r="DI152" s="147" t="s">
-        <v>1949</v>
+      <c r="DI152" s="149" t="s">
+        <v>1952</v>
       </c>
       <c r="DJ152" s="49"/>
       <c r="DK152" s="49"/>
@@ -35814,14 +36028,14 @@
     </row>
     <row r="153" spans="56:121">
       <c r="BD153" t="s">
-        <v>1950</v>
+        <v>1953</v>
       </c>
       <c r="CA153" s="4" t="s">
-        <v>1951</v>
+        <v>1954</v>
       </c>
       <c r="CK153" s="9"/>
       <c r="CR153" s="69" t="s">
-        <v>1952</v>
+        <v>1955</v>
       </c>
       <c r="CS153" s="90"/>
       <c r="CT153" s="90"/>
@@ -35843,14 +36057,14 @@
     </row>
     <row r="154" spans="56:121">
       <c r="BD154" s="40" t="s">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="CA154" s="4" t="s">
-        <v>1954</v>
+        <v>1957</v>
       </c>
       <c r="CK154" s="9"/>
       <c r="CR154" s="56" t="s">
-        <v>1955</v>
+        <v>1958</v>
       </c>
       <c r="CS154" s="90"/>
       <c r="CT154" s="90"/>
@@ -35861,7 +36075,7 @@
       <c r="CY154" s="49"/>
       <c r="CZ154" s="58"/>
       <c r="DI154" s="136" t="s">
-        <v>1956</v>
+        <v>1959</v>
       </c>
       <c r="DJ154" s="139"/>
       <c r="DK154" s="139"/>
@@ -35874,14 +36088,14 @@
     </row>
     <row r="155" spans="57:121">
       <c r="BE155" t="s">
-        <v>1957</v>
+        <v>1960</v>
       </c>
       <c r="CA155" s="4" t="s">
-        <v>1958</v>
+        <v>1961</v>
       </c>
       <c r="CK155" s="9"/>
       <c r="CR155" s="56" t="s">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="CS155" s="90"/>
       <c r="CT155" s="90"/>
@@ -35892,7 +36106,7 @@
       <c r="CY155" s="49"/>
       <c r="CZ155" s="58"/>
       <c r="DI155" s="136" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
       <c r="DJ155" s="139"/>
       <c r="DK155" s="139"/>
@@ -35905,15 +36119,15 @@
     </row>
     <row r="156" spans="56:121">
       <c r="BD156" s="40" t="s">
-        <v>1961</v>
+        <v>1964</v>
       </c>
       <c r="CA156" s="4" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="CK156" s="9"/>
       <c r="CR156" s="56"/>
-      <c r="CS156" s="169" t="s">
-        <v>1963</v>
+      <c r="CS156" s="170" t="s">
+        <v>1966</v>
       </c>
       <c r="CT156" s="90"/>
       <c r="CU156" s="90"/>
@@ -35923,7 +36137,7 @@
       <c r="CY156" s="49"/>
       <c r="CZ156" s="58"/>
       <c r="DI156" s="136" t="s">
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="DJ156" s="139"/>
       <c r="DK156" s="139"/>
@@ -35936,10 +36150,10 @@
     </row>
     <row r="157" spans="56:121">
       <c r="BD157" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
       <c r="CA157" s="4" t="s">
-        <v>1966</v>
+        <v>1969</v>
       </c>
       <c r="CK157" s="9"/>
       <c r="CR157" s="55"/>
@@ -35952,7 +36166,7 @@
       <c r="CY157" s="49"/>
       <c r="CZ157" s="58"/>
       <c r="DI157" s="136" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="DJ157" s="139"/>
       <c r="DK157" s="139"/>
@@ -35968,11 +36182,11 @@
         <v>1179</v>
       </c>
       <c r="CA158" s="4" t="s">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="CK158" s="9"/>
       <c r="CR158" s="69" t="s">
-        <v>1969</v>
+        <v>1972</v>
       </c>
       <c r="CS158" s="90"/>
       <c r="CT158" s="90"/>
@@ -36001,14 +36215,14 @@
       <c r="AL159" s="37"/>
       <c r="AM159" s="38"/>
       <c r="BD159" t="s">
-        <v>1970</v>
+        <v>1973</v>
       </c>
       <c r="CA159" s="4" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="CK159" s="9"/>
       <c r="CR159" s="56" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="CS159" s="49"/>
       <c r="CT159" s="49"/>
@@ -36019,7 +36233,7 @@
       <c r="CY159" s="49"/>
       <c r="CZ159" s="58"/>
       <c r="DI159" s="56" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="DJ159" s="49"/>
       <c r="DK159" s="49"/>
@@ -36036,15 +36250,15 @@
       </c>
       <c r="AM160" s="41"/>
       <c r="BD160" t="s">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="CA160" s="4" t="s">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="CK160" s="9"/>
       <c r="CR160" s="55"/>
-      <c r="CS160" s="169" t="s">
-        <v>1976</v>
+      <c r="CS160" s="170" t="s">
+        <v>1979</v>
       </c>
       <c r="CT160" s="49"/>
       <c r="CU160" s="49"/>
@@ -36054,7 +36268,7 @@
       <c r="CY160" s="49"/>
       <c r="CZ160" s="58"/>
       <c r="DI160" s="136" t="s">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="DJ160" s="49"/>
       <c r="DK160" s="49"/>
@@ -36082,7 +36296,7 @@
       <c r="CY161" s="49"/>
       <c r="CZ161" s="58"/>
       <c r="DI161" s="56" t="s">
-        <v>1978</v>
+        <v>1981</v>
       </c>
       <c r="DJ161" s="49"/>
       <c r="DK161" s="49"/>
@@ -36098,12 +36312,20 @@
         <v>1685</v>
       </c>
       <c r="AM162" s="41"/>
+      <c r="BA162" s="2"/>
+      <c r="BB162" s="3"/>
+      <c r="BC162" s="3"/>
+      <c r="BD162" s="3"/>
+      <c r="BE162" s="3"/>
+      <c r="BF162" s="3"/>
+      <c r="BG162" s="3"/>
+      <c r="BH162" s="8"/>
       <c r="CA162" s="4" t="s">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="CK162" s="9"/>
       <c r="CR162" s="55" t="s">
-        <v>1980</v>
+        <v>1983</v>
       </c>
       <c r="CS162" s="49"/>
       <c r="CT162" s="49"/>
@@ -36128,12 +36350,14 @@
     <row r="163" spans="35:121">
       <c r="AI163" s="39"/>
       <c r="AM163" s="41"/>
+      <c r="BA163" s="5"/>
+      <c r="BH163" s="9"/>
       <c r="CA163" s="4" t="s">
-        <v>1981</v>
+        <v>1984</v>
       </c>
       <c r="CK163" s="9"/>
       <c r="CR163" s="55" t="s">
-        <v>1982</v>
+        <v>1985</v>
       </c>
       <c r="CS163" s="49"/>
       <c r="CT163" s="49"/>
@@ -36144,7 +36368,7 @@
       <c r="CY163" s="49"/>
       <c r="CZ163" s="58"/>
       <c r="DI163" s="136" t="s">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="DJ163" s="139"/>
       <c r="DK163" s="139"/>
@@ -36161,12 +36385,16 @@
       <c r="AK164" s="43"/>
       <c r="AL164" s="43"/>
       <c r="AM164" s="44"/>
+      <c r="BA164" s="5" t="s">
+        <v>1921</v>
+      </c>
+      <c r="BH164" s="9"/>
       <c r="CA164" s="4" t="s">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="CK164" s="9"/>
       <c r="CR164" s="55" t="s">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="CS164" s="49"/>
       <c r="CT164" s="49"/>
@@ -36177,7 +36405,7 @@
       <c r="CY164" s="49"/>
       <c r="CZ164" s="58"/>
       <c r="DI164" s="136" t="s">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="DJ164" s="139"/>
       <c r="DK164" s="139"/>
@@ -36188,13 +36416,15 @@
       <c r="DP164" s="49"/>
       <c r="DQ164" s="58"/>
     </row>
-    <row r="165" ht="16.5" spans="79:121">
+    <row r="165" ht="16.5" spans="53:121">
+      <c r="BA165" s="5"/>
+      <c r="BH165" s="9"/>
       <c r="CA165" s="4" t="s">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="CK165" s="9"/>
       <c r="CR165" s="55" t="s">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="CS165" s="49"/>
       <c r="CT165" s="49"/>
@@ -36205,7 +36435,7 @@
       <c r="CY165" s="49"/>
       <c r="CZ165" s="58"/>
       <c r="DI165" s="136" t="s">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="DJ165" s="139"/>
       <c r="DK165" s="139"/>
@@ -36217,20 +36447,16 @@
       <c r="DQ165" s="58"/>
     </row>
     <row r="166" spans="53:121">
-      <c r="BA166" s="2"/>
-      <c r="BB166" s="3"/>
-      <c r="BC166" s="3"/>
-      <c r="BD166" s="3"/>
-      <c r="BE166" s="3"/>
-      <c r="BF166" s="3"/>
-      <c r="BG166" s="3"/>
-      <c r="BH166" s="8"/>
+      <c r="BA166" s="4" t="s">
+        <v>1993</v>
+      </c>
+      <c r="BH166" s="9"/>
       <c r="CA166" s="4" t="s">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="CK166" s="9"/>
       <c r="CR166" s="55" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="CS166" s="49"/>
       <c r="CT166" s="49"/>
@@ -36241,7 +36467,7 @@
       <c r="CY166" s="49"/>
       <c r="CZ166" s="58"/>
       <c r="DI166" s="136" t="s">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="DJ166" s="139"/>
       <c r="DK166" s="139"/>
@@ -36253,14 +36479,16 @@
       <c r="DQ166" s="58"/>
     </row>
     <row r="167" spans="53:121">
-      <c r="BA167" s="5"/>
+      <c r="BA167" s="97" t="s">
+        <v>1997</v>
+      </c>
       <c r="BH167" s="9"/>
       <c r="CA167" s="4">
         <v>134</v>
       </c>
       <c r="CK167" s="9"/>
       <c r="CR167" s="55" t="s">
-        <v>1993</v>
+        <v>1998</v>
       </c>
       <c r="CS167" s="49"/>
       <c r="CT167" s="49"/>
@@ -36270,7 +36498,7 @@
       <c r="CX167" s="49"/>
       <c r="CY167" s="49"/>
       <c r="CZ167" s="58"/>
-      <c r="DI167" s="148">
+      <c r="DI167" s="150">
         <v>18</v>
       </c>
       <c r="DJ167" s="139"/>
@@ -36283,16 +36511,16 @@
       <c r="DQ167" s="58"/>
     </row>
     <row r="168" spans="53:121">
-      <c r="BA168" s="5" t="s">
-        <v>1921</v>
+      <c r="BA168" s="4" t="s">
+        <v>1999</v>
       </c>
       <c r="BH168" s="9"/>
       <c r="CA168" s="4" t="s">
-        <v>1994</v>
+        <v>2000</v>
       </c>
       <c r="CK168" s="9"/>
       <c r="CR168" s="55" t="s">
-        <v>1995</v>
+        <v>2001</v>
       </c>
       <c r="CS168" s="49"/>
       <c r="CT168" s="49"/>
@@ -36303,7 +36531,7 @@
       <c r="CY168" s="49"/>
       <c r="CZ168" s="58"/>
       <c r="DI168" s="56" t="s">
-        <v>1996</v>
+        <v>2002</v>
       </c>
       <c r="DJ168" s="49"/>
       <c r="DK168" s="49"/>
@@ -36315,15 +36543,17 @@
       <c r="DQ168" s="58"/>
     </row>
     <row r="169" spans="53:121">
-      <c r="BA169" s="5"/>
+      <c r="BA169" s="4">
+        <v>923</v>
+      </c>
       <c r="BH169" s="9"/>
       <c r="CA169" s="4" t="s">
-        <v>1997</v>
+        <v>2003</v>
       </c>
       <c r="CK169" s="9"/>
       <c r="CR169" s="55"/>
-      <c r="CS169" s="169" t="s">
-        <v>1998</v>
+      <c r="CS169" s="170" t="s">
+        <v>2004</v>
       </c>
       <c r="CT169" s="49"/>
       <c r="CU169" s="49"/>
@@ -36333,7 +36563,7 @@
       <c r="CY169" s="49"/>
       <c r="CZ169" s="58"/>
       <c r="DI169" s="56" t="s">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="DJ169" s="49"/>
       <c r="DK169" s="49"/>
@@ -36346,7 +36576,7 @@
     </row>
     <row r="170" ht="16.5" spans="53:121">
       <c r="BA170" s="4" t="s">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="BH170" s="9"/>
       <c r="CA170" s="6"/>
@@ -36388,8 +36618,8 @@
       <c r="AD171" s="37"/>
       <c r="AE171" s="37"/>
       <c r="AF171" s="38"/>
-      <c r="BA171" s="97" t="s">
-        <v>2001</v>
+      <c r="BA171" s="4" t="s">
+        <v>2007</v>
       </c>
       <c r="BH171" s="9"/>
       <c r="CR171" s="55"/>
@@ -36402,7 +36632,7 @@
       <c r="CY171" s="87"/>
       <c r="CZ171" s="143"/>
       <c r="DI171" s="56" t="s">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="DJ171" s="49"/>
       <c r="DK171" s="49"/>
@@ -36422,12 +36652,12 @@
       <c r="AD172" s="20"/>
       <c r="AE172" s="20"/>
       <c r="AF172" s="41"/>
-      <c r="BA172" s="4" t="s">
-        <v>2003</v>
+      <c r="BA172" s="63" t="s">
+        <v>2009</v>
       </c>
       <c r="BH172" s="9"/>
       <c r="CR172" s="71" t="s">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="CS172" s="49"/>
       <c r="CT172" s="49"/>
@@ -36438,7 +36668,7 @@
       <c r="CY172" s="49"/>
       <c r="CZ172" s="58"/>
       <c r="DI172" s="56" t="s">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="DJ172" s="49"/>
       <c r="DK172" s="49"/>
@@ -36449,19 +36679,19 @@
       <c r="DP172" s="49"/>
       <c r="DQ172" s="58"/>
     </row>
-    <row r="173" ht="16.5" spans="27:121">
+    <row r="173" spans="27:121">
       <c r="AA173" s="39"/>
       <c r="AB173" s="20"/>
       <c r="AC173" s="20"/>
       <c r="AD173" s="20"/>
       <c r="AE173" s="20"/>
       <c r="AF173" s="41"/>
-      <c r="BA173" s="4">
-        <v>923</v>
+      <c r="BA173" s="5" t="s">
+        <v>2012</v>
       </c>
       <c r="BH173" s="9"/>
       <c r="CR173" s="71" t="s">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="CS173" s="49"/>
       <c r="CT173" s="49"/>
@@ -36472,7 +36702,7 @@
       <c r="CY173" s="49"/>
       <c r="CZ173" s="58"/>
       <c r="DI173" s="56" t="s">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="DJ173" s="49"/>
       <c r="DK173" s="49"/>
@@ -36492,8 +36722,8 @@
       <c r="AD174" s="20"/>
       <c r="AE174" s="20"/>
       <c r="AF174" s="41"/>
-      <c r="BA174" s="4" t="s">
-        <v>2008</v>
+      <c r="BA174" s="5" t="s">
+        <v>2015</v>
       </c>
       <c r="BH174" s="9"/>
       <c r="CR174" s="137"/>
@@ -36506,7 +36736,7 @@
       <c r="CY174" s="49"/>
       <c r="CZ174" s="58"/>
       <c r="DI174" s="56" t="s">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="DJ174" s="49"/>
       <c r="DK174" s="49"/>
@@ -36527,12 +36757,12 @@
       <c r="AD175" s="20"/>
       <c r="AE175" s="20"/>
       <c r="AF175" s="41"/>
-      <c r="BA175" s="4" t="s">
-        <v>2010</v>
+      <c r="BA175" s="5" t="s">
+        <v>2017</v>
       </c>
       <c r="BH175" s="9"/>
       <c r="CR175" s="71" t="s">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="CS175" s="49"/>
       <c r="CT175" s="49"/>
@@ -36564,8 +36794,8 @@
       <c r="AD176" s="20"/>
       <c r="AE176" s="20"/>
       <c r="AF176" s="41"/>
-      <c r="BA176" s="97" t="s">
-        <v>2012</v>
+      <c r="BA176" s="5" t="s">
+        <v>2019</v>
       </c>
       <c r="BH176" s="9"/>
       <c r="CR176" s="55"/>
@@ -36578,7 +36808,7 @@
       <c r="CY176" s="49"/>
       <c r="CZ176" s="58"/>
       <c r="DI176" s="56" t="s">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="DJ176" s="49"/>
       <c r="DK176" s="49"/>
@@ -36600,7 +36830,7 @@
       <c r="AE177" s="20"/>
       <c r="AF177" s="41"/>
       <c r="BA177" s="97" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="BH177" s="9"/>
       <c r="CR177" s="55"/>
@@ -36613,7 +36843,7 @@
       <c r="CY177" s="49"/>
       <c r="CZ177" s="58"/>
       <c r="DI177" s="56" t="s">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="DJ177" s="49"/>
       <c r="DK177" s="49"/>
@@ -36635,7 +36865,7 @@
       <c r="AE178" s="20"/>
       <c r="AF178" s="41"/>
       <c r="BA178" s="4" t="s">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="BH178" s="9"/>
       <c r="CR178" s="55"/>
@@ -36648,7 +36878,7 @@
       <c r="CY178" s="49"/>
       <c r="CZ178" s="58"/>
       <c r="DI178" s="56" t="s">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="DJ178" s="49"/>
       <c r="DK178" s="49"/>
@@ -36673,7 +36903,7 @@
       <c r="AE179" s="20"/>
       <c r="AF179" s="41"/>
       <c r="BA179" s="4" t="s">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="BH179" s="9"/>
       <c r="CR179" s="56"/>
@@ -36686,7 +36916,7 @@
       <c r="CY179" s="90"/>
       <c r="CZ179" s="118"/>
       <c r="DI179" s="56" t="s">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="DJ179" s="49"/>
       <c r="DK179" s="49"/>
@@ -36701,7 +36931,7 @@
     <row r="180" spans="21:139">
       <c r="U180" s="39"/>
       <c r="V180" s="40" t="s">
-        <v>2020</v>
+        <v>2026</v>
       </c>
       <c r="W180" s="41"/>
       <c r="AA180" s="39"/>
@@ -36711,11 +36941,11 @@
       <c r="AE180" s="20"/>
       <c r="AF180" s="41"/>
       <c r="BA180" s="4" t="s">
-        <v>2021</v>
+        <v>2027</v>
       </c>
       <c r="BH180" s="9"/>
       <c r="CR180" s="68" t="s">
-        <v>2022</v>
+        <v>2028</v>
       </c>
       <c r="CS180" s="90"/>
       <c r="CT180" s="90"/>
@@ -36725,7 +36955,7 @@
       <c r="CX180" s="90"/>
       <c r="CY180" s="90"/>
       <c r="CZ180" s="118"/>
-      <c r="DB180" s="144"/>
+      <c r="DB180" s="146"/>
       <c r="DC180" s="87"/>
       <c r="DD180" s="87"/>
       <c r="DE180" s="87"/>
@@ -36733,7 +36963,7 @@
       <c r="DG180" s="87"/>
       <c r="DH180" s="94"/>
       <c r="DI180" s="56" t="s">
-        <v>2023</v>
+        <v>2029</v>
       </c>
       <c r="DJ180" s="49"/>
       <c r="DK180" s="49"/>
@@ -36756,7 +36986,7 @@
       <c r="AE181" s="20"/>
       <c r="AF181" s="41"/>
       <c r="BA181" s="4" t="s">
-        <v>2024</v>
+        <v>2030</v>
       </c>
       <c r="BH181" s="9"/>
       <c r="BT181" s="88"/>
@@ -36789,7 +37019,7 @@
       <c r="DG181" s="49"/>
       <c r="DH181" s="76"/>
       <c r="DI181" s="56" t="s">
-        <v>2025</v>
+        <v>2031</v>
       </c>
       <c r="DJ181" s="49"/>
       <c r="DK181" s="49"/>
@@ -36809,7 +37039,7 @@
       <c r="AE182" s="20"/>
       <c r="AF182" s="41"/>
       <c r="BA182" s="4" t="s">
-        <v>2026</v>
+        <v>2032</v>
       </c>
       <c r="BH182" s="9"/>
       <c r="BT182" s="88"/>
@@ -36840,7 +37070,7 @@
       <c r="DG182" s="49"/>
       <c r="DH182" s="76"/>
       <c r="DI182" s="56" t="s">
-        <v>2027</v>
+        <v>2033</v>
       </c>
       <c r="DJ182" s="49"/>
       <c r="DK182" s="49"/>
@@ -36879,7 +37109,7 @@
       <c r="AV183" s="54"/>
       <c r="AW183" s="57"/>
       <c r="BA183" s="4" t="s">
-        <v>2028</v>
+        <v>2034</v>
       </c>
       <c r="BH183" s="9"/>
       <c r="BT183" s="53"/>
@@ -36953,11 +37183,11 @@
       <c r="AV184" s="49"/>
       <c r="AW184" s="58"/>
       <c r="BA184" s="4" t="s">
-        <v>2029</v>
+        <v>2035</v>
       </c>
       <c r="BH184" s="9"/>
       <c r="BT184" s="71" t="s">
-        <v>2030</v>
+        <v>2036</v>
       </c>
       <c r="BU184" s="49"/>
       <c r="BV184" s="49"/>
@@ -36978,7 +37208,7 @@
       <c r="CK184" s="49"/>
       <c r="CL184" s="58"/>
       <c r="CR184" s="55" t="s">
-        <v>2031</v>
+        <v>2037</v>
       </c>
       <c r="CS184" s="49"/>
       <c r="CT184" s="49"/>
@@ -36989,7 +37219,7 @@
       <c r="CY184" s="49"/>
       <c r="CZ184" s="58"/>
       <c r="DB184" s="93"/>
-      <c r="DC184" s="145"/>
+      <c r="DC184" s="147"/>
       <c r="DD184" s="73"/>
       <c r="DE184" s="73"/>
       <c r="DF184" s="73"/>
@@ -37008,7 +37238,7 @@
       <c r="AE185" s="20"/>
       <c r="AF185" s="41"/>
       <c r="AI185" s="124" t="s">
-        <v>2032</v>
+        <v>2038</v>
       </c>
       <c r="AJ185" s="123"/>
       <c r="AK185" s="123"/>
@@ -37025,7 +37255,7 @@
       <c r="AV185" s="49"/>
       <c r="AW185" s="58"/>
       <c r="BA185" s="4" t="s">
-        <v>2033</v>
+        <v>2039</v>
       </c>
       <c r="BH185" s="9"/>
       <c r="BT185" s="55"/>
@@ -37048,7 +37278,7 @@
       <c r="CK185" s="49"/>
       <c r="CL185" s="58"/>
       <c r="CR185" s="55" t="s">
-        <v>2034</v>
+        <v>2040</v>
       </c>
       <c r="CS185" s="49"/>
       <c r="CT185" s="49"/>
@@ -37083,11 +37313,11 @@
       <c r="AV186" s="49"/>
       <c r="AW186" s="58"/>
       <c r="BA186" s="4" t="s">
-        <v>2035</v>
+        <v>2041</v>
       </c>
       <c r="BH186" s="9"/>
       <c r="BT186" s="133" t="s">
-        <v>2036</v>
+        <v>2042</v>
       </c>
       <c r="BU186" s="49"/>
       <c r="BV186" s="49"/>
@@ -37108,7 +37338,7 @@
       <c r="CK186" s="49"/>
       <c r="CL186" s="58"/>
       <c r="CR186" s="71" t="s">
-        <v>2037</v>
+        <v>2043</v>
       </c>
       <c r="CS186" s="49"/>
       <c r="CT186" s="49"/>
@@ -37128,7 +37358,7 @@
       <c r="AE187" s="20"/>
       <c r="AF187" s="41"/>
       <c r="AI187" s="124" t="s">
-        <v>2038</v>
+        <v>2044</v>
       </c>
       <c r="AJ187" s="123"/>
       <c r="AK187" s="123"/>
@@ -37145,7 +37375,7 @@
       <c r="AV187" s="49"/>
       <c r="AW187" s="58"/>
       <c r="BA187" s="4" t="s">
-        <v>2039</v>
+        <v>2045</v>
       </c>
       <c r="BH187" s="9"/>
       <c r="BT187" s="55"/>
@@ -37169,7 +37399,7 @@
       <c r="CL187" s="58"/>
       <c r="CR187" s="55"/>
       <c r="CS187" s="74" t="s">
-        <v>2040</v>
+        <v>2046</v>
       </c>
       <c r="CT187" s="49"/>
       <c r="CU187" s="49"/>
@@ -37179,7 +37409,7 @@
       <c r="CY187" s="49"/>
       <c r="CZ187" s="58"/>
       <c r="DC187" t="s">
-        <v>2040</v>
+        <v>2046</v>
       </c>
       <c r="EI187" s="76"/>
     </row>
@@ -37193,7 +37423,7 @@
       <c r="AE188" s="20"/>
       <c r="AF188" s="41"/>
       <c r="AI188" s="125" t="s">
-        <v>2041</v>
+        <v>2047</v>
       </c>
       <c r="AJ188" s="123"/>
       <c r="AK188" s="123"/>
@@ -37210,7 +37440,7 @@
       <c r="AV188" s="49"/>
       <c r="AW188" s="58"/>
       <c r="BA188" s="4" t="s">
-        <v>2042</v>
+        <v>2048</v>
       </c>
       <c r="BH188" s="9"/>
       <c r="BT188" s="55"/>
@@ -37268,7 +37498,7 @@
       <c r="AV189" s="49"/>
       <c r="AW189" s="58"/>
       <c r="BA189" s="4" t="s">
-        <v>2043</v>
+        <v>2049</v>
       </c>
       <c r="BH189" s="9"/>
       <c r="BT189" s="51"/>
@@ -37309,7 +37539,7 @@
       <c r="AE190" s="43"/>
       <c r="AF190" s="44"/>
       <c r="AI190" s="125" t="s">
-        <v>2044</v>
+        <v>2050</v>
       </c>
       <c r="AJ190" s="123"/>
       <c r="AK190" s="123"/>
@@ -37326,7 +37556,7 @@
       <c r="AV190" s="49"/>
       <c r="AW190" s="58"/>
       <c r="BA190" s="4" t="s">
-        <v>2045</v>
+        <v>2051</v>
       </c>
       <c r="BH190" s="9"/>
       <c r="BT190" s="88"/>
@@ -37341,7 +37571,7 @@
       <c r="CC190" s="49"/>
       <c r="CD190" s="76"/>
       <c r="CR190" s="55" t="s">
-        <v>2046</v>
+        <v>2052</v>
       </c>
       <c r="CS190" s="49"/>
       <c r="CT190" s="49"/>
@@ -37389,7 +37619,7 @@
       <c r="AV191" s="49"/>
       <c r="AW191" s="58"/>
       <c r="BA191" s="4" t="s">
-        <v>2047</v>
+        <v>2053</v>
       </c>
       <c r="BH191" s="9"/>
       <c r="BT191" s="88"/>
@@ -37404,7 +37634,7 @@
       <c r="CC191" s="49"/>
       <c r="CD191" s="76"/>
       <c r="CR191" s="71" t="s">
-        <v>2048</v>
+        <v>2054</v>
       </c>
       <c r="CS191" s="49"/>
       <c r="CT191" s="49"/>
@@ -37437,7 +37667,7 @@
     </row>
     <row r="192" spans="35:139">
       <c r="AI192" s="129" t="s">
-        <v>2049</v>
+        <v>2055</v>
       </c>
       <c r="AJ192" s="123"/>
       <c r="AK192" s="123"/>
@@ -37454,7 +37684,7 @@
       <c r="AV192" s="49"/>
       <c r="AW192" s="58"/>
       <c r="BA192" s="4" t="s">
-        <v>2050</v>
+        <v>2056</v>
       </c>
       <c r="BH192" s="9"/>
       <c r="BT192" s="88"/>
@@ -37469,7 +37699,7 @@
       <c r="CC192" s="49"/>
       <c r="CD192" s="76"/>
       <c r="CR192" s="55" t="s">
-        <v>2051</v>
+        <v>2057</v>
       </c>
       <c r="CS192" s="49"/>
       <c r="CT192" s="49"/>
@@ -37499,8 +37729,8 @@
       <c r="EI192" s="76"/>
     </row>
     <row r="193" spans="35:139">
-      <c r="AI193" s="149" t="s">
-        <v>2052</v>
+      <c r="AI193" s="151" t="s">
+        <v>2058</v>
       </c>
       <c r="AJ193" s="128"/>
       <c r="AK193" s="128"/>
@@ -37517,7 +37747,7 @@
       <c r="AV193" s="49"/>
       <c r="AW193" s="58"/>
       <c r="BA193" s="4" t="s">
-        <v>2053</v>
+        <v>2059</v>
       </c>
       <c r="BH193" s="9"/>
       <c r="BT193" s="88"/>
@@ -37532,7 +37762,7 @@
       <c r="CC193" s="49"/>
       <c r="CD193" s="76"/>
       <c r="CR193" s="71" t="s">
-        <v>2054</v>
+        <v>2060</v>
       </c>
       <c r="CS193" s="49"/>
       <c r="CT193" s="49"/>
@@ -37564,7 +37794,7 @@
       <c r="EI193" s="76"/>
     </row>
     <row r="194" spans="35:139">
-      <c r="AI194" s="150"/>
+      <c r="AI194" s="152"/>
       <c r="AJ194" s="123"/>
       <c r="AK194" s="123"/>
       <c r="AL194" s="123"/>
@@ -37580,7 +37810,7 @@
       <c r="AV194" s="49"/>
       <c r="AW194" s="58"/>
       <c r="BA194" s="97" t="s">
-        <v>2055</v>
+        <v>2061</v>
       </c>
       <c r="BH194" s="9"/>
       <c r="BT194" s="88"/>
@@ -37595,7 +37825,7 @@
       <c r="CC194" s="49"/>
       <c r="CD194" s="76"/>
       <c r="CR194" s="55" t="s">
-        <v>2056</v>
+        <v>2062</v>
       </c>
       <c r="CS194" s="49"/>
       <c r="CT194" s="49"/>
@@ -37627,8 +37857,8 @@
       <c r="EI194" s="76"/>
     </row>
     <row r="195" ht="21" spans="35:139">
-      <c r="AI195" s="151" t="s">
-        <v>2057</v>
+      <c r="AI195" s="153" t="s">
+        <v>2063</v>
       </c>
       <c r="AJ195" s="73"/>
       <c r="AK195" s="73"/>
@@ -37645,7 +37875,7 @@
       <c r="AV195" s="49"/>
       <c r="AW195" s="58"/>
       <c r="BA195" s="97" t="s">
-        <v>2058</v>
+        <v>2064</v>
       </c>
       <c r="BH195" s="9"/>
       <c r="BT195" s="88"/>
@@ -37660,8 +37890,8 @@
       <c r="CC195" s="49"/>
       <c r="CD195" s="76"/>
       <c r="CR195" s="55"/>
-      <c r="CS195" s="170" t="s">
-        <v>2059</v>
+      <c r="CS195" s="171" t="s">
+        <v>2065</v>
       </c>
       <c r="CT195" s="49"/>
       <c r="CU195" s="49"/>
@@ -37708,8 +37938,8 @@
       <c r="AV196" s="52"/>
       <c r="AW196" s="59"/>
       <c r="BA196" s="6"/>
-      <c r="BB196" s="152" t="s">
-        <v>2060</v>
+      <c r="BB196" s="154" t="s">
+        <v>2066</v>
       </c>
       <c r="BC196" s="7"/>
       <c r="BD196" s="7"/>
@@ -37718,7 +37948,7 @@
       <c r="BG196" s="7"/>
       <c r="BH196" s="10"/>
       <c r="BM196" t="s">
-        <v>2061</v>
+        <v>2067</v>
       </c>
       <c r="BT196" s="88"/>
       <c r="BU196" s="49"/>
@@ -37769,7 +37999,7 @@
       <c r="BX197" s="49"/>
       <c r="BY197" s="49"/>
       <c r="BZ197" s="53" t="s">
-        <v>2062</v>
+        <v>2068</v>
       </c>
       <c r="CA197" s="54"/>
       <c r="CB197" s="54"/>
@@ -37851,7 +38081,7 @@
     </row>
     <row r="199" ht="16.5" spans="78:139">
       <c r="BZ199" s="4" t="s">
-        <v>2063</v>
+        <v>2069</v>
       </c>
       <c r="CA199" s="98"/>
       <c r="CB199" s="98"/>
@@ -37898,22 +38128,22 @@
       <c r="AX200" s="54"/>
       <c r="AY200" s="54"/>
       <c r="AZ200" s="57"/>
-      <c r="BI200" s="153" t="s">
-        <v>2064</v>
-      </c>
-      <c r="BJ200" s="154"/>
-      <c r="BK200" s="154"/>
-      <c r="BL200" s="154"/>
-      <c r="BM200" s="154"/>
-      <c r="BN200" s="154"/>
-      <c r="BO200" s="154"/>
-      <c r="BP200" s="154"/>
-      <c r="BQ200" s="154"/>
-      <c r="BR200" s="154"/>
-      <c r="BS200" s="154"/>
-      <c r="BT200" s="157"/>
+      <c r="BI200" s="155" t="s">
+        <v>2070</v>
+      </c>
+      <c r="BJ200" s="156"/>
+      <c r="BK200" s="156"/>
+      <c r="BL200" s="156"/>
+      <c r="BM200" s="156"/>
+      <c r="BN200" s="156"/>
+      <c r="BO200" s="156"/>
+      <c r="BP200" s="156"/>
+      <c r="BQ200" s="156"/>
+      <c r="BR200" s="156"/>
+      <c r="BS200" s="156"/>
+      <c r="BT200" s="159"/>
       <c r="BZ200" s="4" t="s">
-        <v>2065</v>
+        <v>2071</v>
       </c>
       <c r="CA200" s="98"/>
       <c r="CB200" s="98"/>
@@ -37975,7 +38205,7 @@
       <c r="BS201" s="98"/>
       <c r="BT201" s="101"/>
       <c r="BZ201" s="4" t="s">
-        <v>2066</v>
+        <v>2072</v>
       </c>
       <c r="CA201" s="98"/>
       <c r="CB201" s="98"/>
@@ -38023,7 +38253,7 @@
       <c r="AY202" s="49"/>
       <c r="AZ202" s="58"/>
       <c r="BI202" s="97" t="s">
-        <v>2067</v>
+        <v>2073</v>
       </c>
       <c r="BJ202" s="98"/>
       <c r="BK202" s="98"/>
@@ -38037,7 +38267,7 @@
       <c r="BS202" s="98"/>
       <c r="BT202" s="101"/>
       <c r="BZ202" s="4" t="s">
-        <v>2065</v>
+        <v>2071</v>
       </c>
       <c r="CA202" s="98"/>
       <c r="CB202" s="98"/>
@@ -38087,7 +38317,7 @@
       <c r="AY203" s="49"/>
       <c r="AZ203" s="58"/>
       <c r="BI203" s="97" t="s">
-        <v>2068</v>
+        <v>2074</v>
       </c>
       <c r="BJ203" s="98"/>
       <c r="BK203" s="98"/>
@@ -38101,7 +38331,7 @@
       <c r="BS203" s="98"/>
       <c r="BT203" s="101"/>
       <c r="BZ203" s="4" t="s">
-        <v>2069</v>
+        <v>2075</v>
       </c>
       <c r="CA203" s="98"/>
       <c r="CB203" s="98"/>
@@ -38151,7 +38381,7 @@
       <c r="AY204" s="49"/>
       <c r="AZ204" s="58"/>
       <c r="BI204" s="4" t="s">
-        <v>2070</v>
+        <v>2076</v>
       </c>
       <c r="BJ204" s="98"/>
       <c r="BK204" s="98"/>
@@ -38165,7 +38395,7 @@
       <c r="BS204" s="98"/>
       <c r="BT204" s="101"/>
       <c r="BZ204" s="4" t="s">
-        <v>2071</v>
+        <v>2077</v>
       </c>
       <c r="CA204" s="98"/>
       <c r="CB204" s="98"/>
@@ -38215,7 +38445,7 @@
       <c r="AY205" s="49"/>
       <c r="AZ205" s="58"/>
       <c r="BI205" s="4" t="s">
-        <v>2072</v>
+        <v>2078</v>
       </c>
       <c r="BJ205" s="98"/>
       <c r="BK205" s="98"/>
@@ -38229,7 +38459,7 @@
       <c r="BS205" s="98"/>
       <c r="BT205" s="101"/>
       <c r="BZ205" s="4" t="s">
-        <v>2073</v>
+        <v>2079</v>
       </c>
       <c r="CA205" s="98"/>
       <c r="CB205" s="98"/>
@@ -38290,7 +38520,7 @@
       <c r="AY206" s="49"/>
       <c r="AZ206" s="58"/>
       <c r="BI206" s="4" t="s">
-        <v>2074</v>
+        <v>2080</v>
       </c>
       <c r="BJ206" s="98"/>
       <c r="BK206" s="98"/>
@@ -38304,7 +38534,7 @@
       <c r="BS206" s="98"/>
       <c r="BT206" s="101"/>
       <c r="BZ206" s="4" t="s">
-        <v>2075</v>
+        <v>2081</v>
       </c>
       <c r="CA206" s="98"/>
       <c r="CB206" s="98"/>
@@ -38363,7 +38593,7 @@
       <c r="AY207" s="49"/>
       <c r="AZ207" s="58"/>
       <c r="BI207" s="4" t="s">
-        <v>2076</v>
+        <v>2082</v>
       </c>
       <c r="BJ207" s="98"/>
       <c r="BK207" s="98"/>
@@ -38377,7 +38607,7 @@
       <c r="BS207" s="98"/>
       <c r="BT207" s="101"/>
       <c r="BZ207" s="4" t="s">
-        <v>2065</v>
+        <v>2071</v>
       </c>
       <c r="CA207" s="98"/>
       <c r="CB207" s="98"/>
@@ -38385,7 +38615,7 @@
       <c r="CD207" s="98"/>
       <c r="CG207" s="9"/>
       <c r="DG207" s="69" t="s">
-        <v>2077</v>
+        <v>2083</v>
       </c>
       <c r="DH207" s="49"/>
       <c r="DI207" s="49"/>
@@ -38438,7 +38668,7 @@
       <c r="AY208" s="49"/>
       <c r="AZ208" s="58"/>
       <c r="BI208" s="4" t="s">
-        <v>2078</v>
+        <v>2084</v>
       </c>
       <c r="BJ208" s="98"/>
       <c r="BK208" s="98"/>
@@ -38452,7 +38682,7 @@
       <c r="BS208" s="98"/>
       <c r="BT208" s="101"/>
       <c r="BZ208" s="97" t="s">
-        <v>2079</v>
+        <v>2085</v>
       </c>
       <c r="CA208" s="99"/>
       <c r="CB208" s="99"/>
@@ -38461,7 +38691,7 @@
       <c r="CE208" s="100"/>
       <c r="CG208" s="9"/>
       <c r="DG208" s="69" t="s">
-        <v>2080</v>
+        <v>2086</v>
       </c>
       <c r="DH208" s="49"/>
       <c r="DI208" s="49"/>
@@ -38513,8 +38743,8 @@
       <c r="AX209" s="49"/>
       <c r="AY209" s="49"/>
       <c r="AZ209" s="58"/>
-      <c r="BI209" s="171" t="s">
-        <v>2081</v>
+      <c r="BI209" s="172" t="s">
+        <v>2087</v>
       </c>
       <c r="BJ209" s="98"/>
       <c r="BK209" s="98"/>
@@ -38528,7 +38758,7 @@
       <c r="BS209" s="98"/>
       <c r="BT209" s="101"/>
       <c r="BZ209" s="97" t="s">
-        <v>2082</v>
+        <v>2088</v>
       </c>
       <c r="CA209" s="99"/>
       <c r="CB209" s="99"/>
@@ -38537,7 +38767,7 @@
       <c r="CE209" s="100"/>
       <c r="CG209" s="9"/>
       <c r="DG209" s="69" t="s">
-        <v>2083</v>
+        <v>2089</v>
       </c>
       <c r="DH209" s="49"/>
       <c r="DI209" s="49"/>
@@ -38590,7 +38820,7 @@
       <c r="AY210" s="49"/>
       <c r="AZ210" s="58"/>
       <c r="BI210" s="4" t="s">
-        <v>2084</v>
+        <v>2090</v>
       </c>
       <c r="BJ210" s="98"/>
       <c r="BK210" s="98"/>
@@ -38604,7 +38834,7 @@
       <c r="BS210" s="98"/>
       <c r="BT210" s="101"/>
       <c r="BZ210" s="97" t="s">
-        <v>2085</v>
+        <v>2091</v>
       </c>
       <c r="CA210" s="99"/>
       <c r="CB210" s="99"/>
@@ -38652,7 +38882,7 @@
       <c r="AY211" s="49"/>
       <c r="AZ211" s="58"/>
       <c r="BI211" s="4" t="s">
-        <v>2086</v>
+        <v>2092</v>
       </c>
       <c r="BJ211" s="98"/>
       <c r="BK211" s="98"/>
@@ -38666,7 +38896,7 @@
       <c r="BS211" s="98"/>
       <c r="BT211" s="101"/>
       <c r="BZ211" s="97" t="s">
-        <v>2087</v>
+        <v>2093</v>
       </c>
       <c r="CA211" s="99"/>
       <c r="CB211" s="99"/>
@@ -38716,7 +38946,7 @@
       <c r="AY212" s="49"/>
       <c r="AZ212" s="58"/>
       <c r="BI212" s="4" t="s">
-        <v>2088</v>
+        <v>2094</v>
       </c>
       <c r="BJ212" s="98"/>
       <c r="BK212" s="98"/>
@@ -38730,7 +38960,7 @@
       <c r="BS212" s="98"/>
       <c r="BT212" s="101"/>
       <c r="BZ212" s="97" t="s">
-        <v>2089</v>
+        <v>2095</v>
       </c>
       <c r="CA212" s="99"/>
       <c r="CB212" s="99"/>
@@ -38778,7 +39008,7 @@
       <c r="AY213" s="49"/>
       <c r="AZ213" s="58"/>
       <c r="BI213" s="4" t="s">
-        <v>2090</v>
+        <v>2096</v>
       </c>
       <c r="BJ213" s="98"/>
       <c r="BK213" s="98"/>
@@ -38792,7 +39022,7 @@
       <c r="BS213" s="98"/>
       <c r="BT213" s="101"/>
       <c r="BZ213" s="97" t="s">
-        <v>2085</v>
+        <v>2091</v>
       </c>
       <c r="CA213" s="99"/>
       <c r="CB213" s="99"/>
@@ -38840,7 +39070,7 @@
       <c r="AY214" s="49"/>
       <c r="AZ214" s="58"/>
       <c r="BI214" s="4" t="s">
-        <v>2091</v>
+        <v>2097</v>
       </c>
       <c r="BJ214" s="98"/>
       <c r="BK214" s="98"/>
@@ -38854,7 +39084,7 @@
       <c r="BS214" s="98"/>
       <c r="BT214" s="101"/>
       <c r="BZ214" s="97" t="s">
-        <v>2092</v>
+        <v>2098</v>
       </c>
       <c r="CA214" s="99"/>
       <c r="CB214" s="99"/>
@@ -38902,7 +39132,7 @@
       <c r="AY215" s="49"/>
       <c r="AZ215" s="58"/>
       <c r="BI215" s="4" t="s">
-        <v>2093</v>
+        <v>2099</v>
       </c>
       <c r="BJ215" s="98"/>
       <c r="BK215" s="98"/>
@@ -38916,7 +39146,7 @@
       <c r="BS215" s="98"/>
       <c r="BT215" s="101"/>
       <c r="BZ215" s="97" t="s">
-        <v>2094</v>
+        <v>2100</v>
       </c>
       <c r="CA215" s="99"/>
       <c r="CB215" s="99"/>
@@ -38925,7 +39155,7 @@
       <c r="CE215" s="100"/>
       <c r="CG215" s="9"/>
       <c r="DG215" s="72" t="s">
-        <v>2095</v>
+        <v>2101</v>
       </c>
       <c r="DH215" s="49"/>
       <c r="DI215" s="49"/>
@@ -38966,7 +39196,7 @@
       <c r="AY216" s="49"/>
       <c r="AZ216" s="58"/>
       <c r="BI216" s="4" t="s">
-        <v>2096</v>
+        <v>2102</v>
       </c>
       <c r="BJ216" s="98"/>
       <c r="BK216" s="98"/>
@@ -38980,7 +39210,7 @@
       <c r="BS216" s="98"/>
       <c r="BT216" s="101"/>
       <c r="BZ216" s="97" t="s">
-        <v>2085</v>
+        <v>2091</v>
       </c>
       <c r="CA216" s="99"/>
       <c r="CB216" s="99"/>
@@ -38989,7 +39219,7 @@
       <c r="CE216" s="100"/>
       <c r="CG216" s="9"/>
       <c r="DG216" s="50" t="s">
-        <v>2097</v>
+        <v>2103</v>
       </c>
       <c r="DH216" s="49"/>
       <c r="DI216" s="49"/>
@@ -39010,7 +39240,7 @@
     </row>
     <row r="217" spans="35:127">
       <c r="AI217" s="69" t="s">
-        <v>2098</v>
+        <v>2104</v>
       </c>
       <c r="AJ217" s="49"/>
       <c r="AK217" s="49"/>
@@ -39030,7 +39260,7 @@
       <c r="AY217" s="49"/>
       <c r="AZ217" s="58"/>
       <c r="BI217" s="4" t="s">
-        <v>2099</v>
+        <v>2105</v>
       </c>
       <c r="BJ217" s="98"/>
       <c r="BK217" s="98"/>
@@ -39044,7 +39274,7 @@
       <c r="BS217" s="98"/>
       <c r="BT217" s="101"/>
       <c r="BZ217" s="97" t="s">
-        <v>2100</v>
+        <v>2106</v>
       </c>
       <c r="CA217" s="99"/>
       <c r="CB217" s="99"/>
@@ -39053,7 +39283,7 @@
       <c r="CE217" s="100"/>
       <c r="CG217" s="9"/>
       <c r="DG217" s="55" t="s">
-        <v>2101</v>
+        <v>2107</v>
       </c>
       <c r="DH217" s="49"/>
       <c r="DI217" s="49"/>
@@ -39074,7 +39304,7 @@
     </row>
     <row r="218" ht="16.5" spans="35:127">
       <c r="AI218" s="69" t="s">
-        <v>2102</v>
+        <v>2108</v>
       </c>
       <c r="AJ218" s="49"/>
       <c r="AK218" s="49"/>
@@ -39094,7 +39324,7 @@
       <c r="AY218" s="49"/>
       <c r="AZ218" s="58"/>
       <c r="BI218" s="4" t="s">
-        <v>2103</v>
+        <v>2109</v>
       </c>
       <c r="BJ218" s="98"/>
       <c r="BK218" s="98"/>
@@ -39108,7 +39338,7 @@
       <c r="BS218" s="98"/>
       <c r="BT218" s="101"/>
       <c r="BZ218" s="4" t="s">
-        <v>2065</v>
+        <v>2071</v>
       </c>
       <c r="CA218" s="98"/>
       <c r="CB218" s="98"/>
@@ -39135,7 +39365,7 @@
     </row>
     <row r="219" spans="35:127">
       <c r="AI219" s="69" t="s">
-        <v>2104</v>
+        <v>2110</v>
       </c>
       <c r="AJ219" s="49"/>
       <c r="AK219" s="49"/>
@@ -39155,7 +39385,7 @@
       <c r="AY219" s="49"/>
       <c r="AZ219" s="58"/>
       <c r="BI219" s="4" t="s">
-        <v>2105</v>
+        <v>2111</v>
       </c>
       <c r="BJ219" s="98"/>
       <c r="BK219" s="98"/>
@@ -39169,7 +39399,7 @@
       <c r="BS219" s="98"/>
       <c r="BT219" s="101"/>
       <c r="BZ219" s="4" t="s">
-        <v>2106</v>
+        <v>2112</v>
       </c>
       <c r="CA219" s="98"/>
       <c r="CB219" s="98"/>
@@ -39214,7 +39444,7 @@
       <c r="AY220" s="49"/>
       <c r="AZ220" s="58"/>
       <c r="BI220" s="4" t="s">
-        <v>2107</v>
+        <v>2113</v>
       </c>
       <c r="BJ220" s="98"/>
       <c r="BK220" s="98"/>
@@ -39228,7 +39458,7 @@
       <c r="BS220" s="98"/>
       <c r="BT220" s="101"/>
       <c r="BZ220" s="4" t="s">
-        <v>2108</v>
+        <v>2114</v>
       </c>
       <c r="CA220" s="98"/>
       <c r="CB220" s="98"/>
@@ -39236,7 +39466,7 @@
       <c r="CD220" s="98"/>
       <c r="CG220" s="9"/>
       <c r="DG220" s="72" t="s">
-        <v>2109</v>
+        <v>2115</v>
       </c>
       <c r="DH220" s="49"/>
       <c r="DI220" s="49"/>
@@ -39246,7 +39476,7 @@
       <c r="DM220" s="49"/>
       <c r="DN220" s="49"/>
       <c r="DO220" s="74" t="s">
-        <v>2110</v>
+        <v>2116</v>
       </c>
       <c r="DP220" s="49"/>
       <c r="DQ220" s="49"/>
@@ -39263,7 +39493,7 @@
       </c>
       <c r="AZ221" s="9"/>
       <c r="BI221" s="4" t="s">
-        <v>2111</v>
+        <v>2117</v>
       </c>
       <c r="BJ221" s="98"/>
       <c r="BK221" s="98"/>
@@ -39277,7 +39507,7 @@
       <c r="BS221" s="98"/>
       <c r="BT221" s="101"/>
       <c r="BZ221" s="4" t="s">
-        <v>2112</v>
+        <v>2118</v>
       </c>
       <c r="CA221" s="98"/>
       <c r="CB221" s="98"/>
@@ -39308,7 +39538,7 @@
       <c r="AI222" s="5"/>
       <c r="AZ222" s="9"/>
       <c r="BI222" s="4" t="s">
-        <v>2113</v>
+        <v>2119</v>
       </c>
       <c r="BJ222" s="98"/>
       <c r="BK222" s="98"/>
@@ -39322,7 +39552,7 @@
       <c r="BS222" s="98"/>
       <c r="BT222" s="101"/>
       <c r="BZ222" s="4" t="s">
-        <v>2114</v>
+        <v>2120</v>
       </c>
       <c r="CA222" s="98"/>
       <c r="CB222" s="98"/>
@@ -39373,7 +39603,7 @@
       <c r="AY223" s="49"/>
       <c r="AZ223" s="58"/>
       <c r="BI223" s="4" t="s">
-        <v>2115</v>
+        <v>2121</v>
       </c>
       <c r="BJ223" s="98"/>
       <c r="BK223" s="98"/>
@@ -39387,7 +39617,7 @@
       <c r="BS223" s="98"/>
       <c r="BT223" s="101"/>
       <c r="BZ223" s="4" t="s">
-        <v>2065</v>
+        <v>2071</v>
       </c>
       <c r="CA223" s="98"/>
       <c r="CB223" s="98"/>
@@ -39436,7 +39666,7 @@
       <c r="AY224" s="49"/>
       <c r="AZ224" s="58"/>
       <c r="BI224" s="4" t="s">
-        <v>2116</v>
+        <v>2122</v>
       </c>
       <c r="BJ224" s="98"/>
       <c r="BK224" s="98"/>
@@ -39450,7 +39680,7 @@
       <c r="BS224" s="98"/>
       <c r="BT224" s="101"/>
       <c r="BZ224" s="4" t="s">
-        <v>2117</v>
+        <v>2123</v>
       </c>
       <c r="CA224" s="98"/>
       <c r="CB224" s="98"/>
@@ -39499,7 +39729,7 @@
       <c r="AY225" s="49"/>
       <c r="AZ225" s="58"/>
       <c r="BI225" s="4" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="BJ225" s="98"/>
       <c r="BK225" s="98"/>
@@ -39558,7 +39788,7 @@
       <c r="AY226" s="49"/>
       <c r="AZ226" s="58"/>
       <c r="BI226" s="4" t="s">
-        <v>2119</v>
+        <v>2125</v>
       </c>
       <c r="BJ226" s="98"/>
       <c r="BK226" s="98"/>
@@ -39572,7 +39802,7 @@
       <c r="BS226" s="98"/>
       <c r="BT226" s="101"/>
       <c r="BZ226" s="4" t="s">
-        <v>2120</v>
+        <v>2126</v>
       </c>
       <c r="CA226" s="98"/>
       <c r="CB226" s="98"/>
@@ -39619,7 +39849,7 @@
       <c r="AY227" s="49"/>
       <c r="AZ227" s="58"/>
       <c r="BI227" s="4" t="s">
-        <v>2121</v>
+        <v>2127</v>
       </c>
       <c r="BJ227" s="98"/>
       <c r="BK227" s="98"/>
@@ -39633,7 +39863,7 @@
       <c r="BS227" s="98"/>
       <c r="BT227" s="101"/>
       <c r="BZ227" s="4" t="s">
-        <v>2122</v>
+        <v>2128</v>
       </c>
       <c r="CA227" s="98"/>
       <c r="CB227" s="98"/>
@@ -39641,15 +39871,15 @@
       <c r="CD227" s="98"/>
       <c r="CG227" s="9"/>
       <c r="DG227" s="69" t="s">
-        <v>2123</v>
+        <v>2129</v>
       </c>
       <c r="DH227" s="49"/>
       <c r="DI227" s="49"/>
       <c r="DJ227" s="49"/>
       <c r="DK227" s="49"/>
       <c r="DL227" s="49"/>
-      <c r="DM227" s="159" t="s">
-        <v>2124</v>
+      <c r="DM227" s="161" t="s">
+        <v>2130</v>
       </c>
       <c r="DN227" s="49"/>
       <c r="DO227" s="49"/>
@@ -39682,7 +39912,7 @@
       <c r="AY228" s="73"/>
       <c r="AZ228" s="78"/>
       <c r="BI228" s="4" t="s">
-        <v>2125</v>
+        <v>2131</v>
       </c>
       <c r="BJ228" s="98"/>
       <c r="BK228" s="98"/>
@@ -39739,7 +39969,7 @@
       <c r="AY229" s="49"/>
       <c r="AZ229" s="58"/>
       <c r="BI229" s="4" t="s">
-        <v>2126</v>
+        <v>2132</v>
       </c>
       <c r="BJ229" s="98"/>
       <c r="BK229" s="98"/>
@@ -39753,7 +39983,7 @@
       <c r="BS229" s="98"/>
       <c r="BT229" s="101"/>
       <c r="BZ229" s="4" t="s">
-        <v>2127</v>
+        <v>2133</v>
       </c>
       <c r="CA229" s="98"/>
       <c r="CB229" s="98"/>
@@ -39798,7 +40028,7 @@
       <c r="AY230" s="49"/>
       <c r="AZ230" s="58"/>
       <c r="BI230" s="4" t="s">
-        <v>2128</v>
+        <v>2134</v>
       </c>
       <c r="BJ230" s="98"/>
       <c r="BK230" s="98"/>
@@ -39812,7 +40042,7 @@
       <c r="BS230" s="98"/>
       <c r="BT230" s="101"/>
       <c r="BZ230" s="4" t="s">
-        <v>2129</v>
+        <v>2135</v>
       </c>
       <c r="CA230" s="98"/>
       <c r="CB230" s="98"/>
@@ -39859,7 +40089,7 @@
       <c r="AY231" s="73"/>
       <c r="AZ231" s="78"/>
       <c r="BI231" s="4" t="s">
-        <v>2130</v>
+        <v>2136</v>
       </c>
       <c r="BJ231" s="98"/>
       <c r="BK231" s="98"/>
@@ -39873,7 +40103,7 @@
       <c r="BS231" s="98"/>
       <c r="BT231" s="101"/>
       <c r="BZ231" s="4" t="s">
-        <v>2131</v>
+        <v>2137</v>
       </c>
       <c r="CA231" s="98"/>
       <c r="CB231" s="98"/>
@@ -39881,7 +40111,7 @@
       <c r="CD231" s="98"/>
       <c r="CG231" s="9"/>
       <c r="DG231" s="56" t="s">
-        <v>2132</v>
+        <v>2138</v>
       </c>
       <c r="DH231" s="49"/>
       <c r="DI231" s="49"/>
@@ -39920,7 +40150,7 @@
       <c r="AY232" s="49"/>
       <c r="AZ232" s="58"/>
       <c r="BI232" s="4" t="s">
-        <v>2133</v>
+        <v>2139</v>
       </c>
       <c r="BJ232" s="98"/>
       <c r="BK232" s="98"/>
@@ -39934,7 +40164,7 @@
       <c r="BS232" s="98"/>
       <c r="BT232" s="101"/>
       <c r="BZ232" s="4" t="s">
-        <v>2134</v>
+        <v>2140</v>
       </c>
       <c r="CA232" s="98"/>
       <c r="CB232" s="98"/>
@@ -39942,7 +40172,7 @@
       <c r="CD232" s="98"/>
       <c r="CG232" s="9"/>
       <c r="DG232" s="68" t="s">
-        <v>2135</v>
+        <v>2141</v>
       </c>
       <c r="DH232" s="49"/>
       <c r="DI232" s="49"/>
@@ -39981,7 +40211,7 @@
       <c r="AY233" s="49"/>
       <c r="AZ233" s="58"/>
       <c r="BI233" s="4" t="s">
-        <v>2136</v>
+        <v>2142</v>
       </c>
       <c r="BJ233" s="98"/>
       <c r="BK233" s="98"/>
@@ -39996,14 +40226,14 @@
       <c r="BT233" s="101"/>
       <c r="BZ233" s="4"/>
       <c r="CA233" s="98" t="s">
-        <v>2137</v>
+        <v>2143</v>
       </c>
       <c r="CB233" s="98"/>
       <c r="CC233" s="98"/>
       <c r="CD233" s="98"/>
       <c r="CG233" s="9"/>
       <c r="DG233" s="68" t="s">
-        <v>2138</v>
+        <v>2144</v>
       </c>
       <c r="DH233" s="49"/>
       <c r="DI233" s="49"/>
@@ -40042,7 +40272,7 @@
       <c r="AY234" s="49"/>
       <c r="AZ234" s="58"/>
       <c r="BI234" s="4" t="s">
-        <v>2139</v>
+        <v>2145</v>
       </c>
       <c r="BJ234" s="98"/>
       <c r="BK234" s="98"/>
@@ -40058,13 +40288,13 @@
       <c r="BZ234" s="4"/>
       <c r="CA234" s="98"/>
       <c r="CB234" s="98" t="s">
-        <v>2140</v>
+        <v>2146</v>
       </c>
       <c r="CC234" s="98"/>
       <c r="CD234" s="98"/>
       <c r="CG234" s="9"/>
       <c r="DG234" s="68" t="s">
-        <v>2141</v>
+        <v>2147</v>
       </c>
       <c r="DH234" s="49"/>
       <c r="DI234" s="49"/>
@@ -40103,7 +40333,7 @@
       <c r="AY235" s="52"/>
       <c r="AZ235" s="59"/>
       <c r="BI235" s="4" t="s">
-        <v>2142</v>
+        <v>2148</v>
       </c>
       <c r="BJ235" s="98"/>
       <c r="BK235" s="98"/>
@@ -40118,7 +40348,7 @@
       <c r="BT235" s="101"/>
       <c r="BZ235" s="4"/>
       <c r="CA235" s="98" t="s">
-        <v>2143</v>
+        <v>2149</v>
       </c>
       <c r="CB235" s="98"/>
       <c r="CC235" s="98"/>
@@ -40144,7 +40374,7 @@
     </row>
     <row r="236" spans="61:127">
       <c r="BI236" s="4" t="s">
-        <v>2144</v>
+        <v>2150</v>
       </c>
       <c r="BJ236" s="98"/>
       <c r="BK236" s="98"/>
@@ -40158,7 +40388,7 @@
       <c r="BS236" s="98"/>
       <c r="BT236" s="101"/>
       <c r="BZ236" s="4" t="s">
-        <v>2145</v>
+        <v>2151</v>
       </c>
       <c r="CA236" s="98"/>
       <c r="CB236" s="98"/>
@@ -40185,7 +40415,7 @@
     </row>
     <row r="237" spans="61:127">
       <c r="BI237" s="4" t="s">
-        <v>2146</v>
+        <v>2152</v>
       </c>
       <c r="BJ237" s="98"/>
       <c r="BK237" s="98"/>
@@ -40205,7 +40435,7 @@
       <c r="CD237" s="98"/>
       <c r="CG237" s="9"/>
       <c r="DG237" s="56" t="s">
-        <v>2147</v>
+        <v>2153</v>
       </c>
       <c r="DH237" s="49"/>
       <c r="DI237" s="49"/>
@@ -40226,7 +40456,7 @@
     </row>
     <row r="238" spans="61:127">
       <c r="BI238" s="4" t="s">
-        <v>2148</v>
+        <v>2154</v>
       </c>
       <c r="BJ238" s="98"/>
       <c r="BK238" s="98"/>
@@ -40240,7 +40470,7 @@
       <c r="BS238" s="98"/>
       <c r="BT238" s="101"/>
       <c r="BZ238" s="4" t="s">
-        <v>2149</v>
+        <v>2155</v>
       </c>
       <c r="CA238" s="98"/>
       <c r="CB238" s="98"/>
@@ -40248,7 +40478,7 @@
       <c r="CD238" s="98"/>
       <c r="CG238" s="9"/>
       <c r="DG238" s="56" t="s">
-        <v>2150</v>
+        <v>2156</v>
       </c>
       <c r="DH238" s="49"/>
       <c r="DI238" s="49"/>
@@ -40269,7 +40499,7 @@
     </row>
     <row r="239" spans="61:127">
       <c r="BI239" s="4" t="s">
-        <v>2151</v>
+        <v>2157</v>
       </c>
       <c r="BJ239" s="98"/>
       <c r="BK239" s="98"/>
@@ -40283,7 +40513,7 @@
       <c r="BS239" s="98"/>
       <c r="BT239" s="101"/>
       <c r="BZ239" s="4" t="s">
-        <v>2152</v>
+        <v>2158</v>
       </c>
       <c r="CA239" s="98"/>
       <c r="CB239" s="98"/>
@@ -40291,7 +40521,7 @@
       <c r="CD239" s="98"/>
       <c r="CG239" s="9"/>
       <c r="DG239" s="56" t="s">
-        <v>2153</v>
+        <v>2159</v>
       </c>
       <c r="DH239" s="49"/>
       <c r="DI239" s="49"/>
@@ -40312,7 +40542,7 @@
     </row>
     <row r="240" spans="61:127">
       <c r="BI240" s="4" t="s">
-        <v>2154</v>
+        <v>2160</v>
       </c>
       <c r="BJ240" s="98"/>
       <c r="BK240" s="98"/>
@@ -40326,7 +40556,7 @@
       <c r="BS240" s="98"/>
       <c r="BT240" s="101"/>
       <c r="BZ240" s="4" t="s">
-        <v>2155</v>
+        <v>2161</v>
       </c>
       <c r="CA240" s="98"/>
       <c r="CB240" s="98"/>
@@ -40334,7 +40564,7 @@
       <c r="CD240" s="98"/>
       <c r="CG240" s="9"/>
       <c r="DG240" s="68" t="s">
-        <v>2156</v>
+        <v>2162</v>
       </c>
       <c r="DH240" s="49"/>
       <c r="DI240" s="49"/>
@@ -40355,7 +40585,7 @@
     </row>
     <row r="241" spans="61:127">
       <c r="BI241" s="4" t="s">
-        <v>2157</v>
+        <v>2163</v>
       </c>
       <c r="BJ241" s="98"/>
       <c r="BK241" s="98"/>
@@ -40369,7 +40599,7 @@
       <c r="BS241" s="98"/>
       <c r="BT241" s="101"/>
       <c r="BZ241" s="4" t="s">
-        <v>2134</v>
+        <v>2140</v>
       </c>
       <c r="CA241" s="98"/>
       <c r="CB241" s="98"/>
@@ -40377,7 +40607,7 @@
       <c r="CD241" s="98"/>
       <c r="CG241" s="9"/>
       <c r="DG241" s="56" t="s">
-        <v>2158</v>
+        <v>2164</v>
       </c>
       <c r="DH241" s="49"/>
       <c r="DI241" s="49"/>
@@ -40398,7 +40628,7 @@
     </row>
     <row r="242" spans="61:127">
       <c r="BI242" s="4" t="s">
-        <v>2159</v>
+        <v>2165</v>
       </c>
       <c r="BJ242" s="98"/>
       <c r="BK242" s="98"/>
@@ -40413,14 +40643,14 @@
       <c r="BT242" s="101"/>
       <c r="BZ242" s="4"/>
       <c r="CA242" s="98" t="s">
-        <v>2160</v>
+        <v>2166</v>
       </c>
       <c r="CB242" s="98"/>
       <c r="CC242" s="98"/>
       <c r="CD242" s="98"/>
       <c r="CG242" s="9"/>
       <c r="DG242" s="56" t="s">
-        <v>2161</v>
+        <v>2167</v>
       </c>
       <c r="DH242" s="49"/>
       <c r="DI242" s="49"/>
@@ -40441,7 +40671,7 @@
     </row>
     <row r="243" spans="61:127">
       <c r="BI243" s="4" t="s">
-        <v>2162</v>
+        <v>2168</v>
       </c>
       <c r="BJ243" s="98"/>
       <c r="BK243" s="98"/>
@@ -40457,13 +40687,13 @@
       <c r="BZ243" s="4"/>
       <c r="CA243" s="98"/>
       <c r="CB243" s="98" t="s">
-        <v>2163</v>
+        <v>2169</v>
       </c>
       <c r="CC243" s="98"/>
       <c r="CD243" s="98"/>
       <c r="CG243" s="9"/>
       <c r="DG243" s="56" t="s">
-        <v>2164</v>
+        <v>2170</v>
       </c>
       <c r="DH243" s="49"/>
       <c r="DI243" s="49"/>
@@ -40484,7 +40714,7 @@
     </row>
     <row r="244" spans="61:127">
       <c r="BI244" s="4" t="s">
-        <v>2165</v>
+        <v>2171</v>
       </c>
       <c r="BJ244" s="98"/>
       <c r="BK244" s="98"/>
@@ -40498,7 +40728,7 @@
       <c r="BS244" s="98"/>
       <c r="BT244" s="101"/>
       <c r="BZ244" s="4" t="s">
-        <v>2145</v>
+        <v>2151</v>
       </c>
       <c r="CA244" s="98"/>
       <c r="CB244" s="98"/>
@@ -40527,7 +40757,7 @@
     </row>
     <row r="245" spans="61:127">
       <c r="BI245" s="4" t="s">
-        <v>2166</v>
+        <v>2172</v>
       </c>
       <c r="BJ245" s="98"/>
       <c r="BK245" s="98"/>
@@ -40547,13 +40777,13 @@
       <c r="CD245" s="98"/>
       <c r="CG245" s="9"/>
       <c r="DG245" s="68" t="s">
-        <v>2167</v>
+        <v>2173</v>
       </c>
       <c r="DH245" s="49"/>
       <c r="DI245" s="49"/>
       <c r="DJ245" s="49"/>
       <c r="DK245" s="74" t="s">
-        <v>2168</v>
+        <v>2174</v>
       </c>
       <c r="DL245" s="49"/>
       <c r="DM245" s="49"/>
@@ -40570,7 +40800,7 @@
     </row>
     <row r="246" spans="61:127">
       <c r="BI246" s="4" t="s">
-        <v>2169</v>
+        <v>2175</v>
       </c>
       <c r="BJ246" s="98"/>
       <c r="BK246" s="98"/>
@@ -40584,7 +40814,7 @@
       <c r="BS246" s="98"/>
       <c r="BT246" s="101"/>
       <c r="BZ246" s="4" t="s">
-        <v>2170</v>
+        <v>2176</v>
       </c>
       <c r="CA246" s="98"/>
       <c r="CB246" s="98"/>
@@ -40592,7 +40822,7 @@
       <c r="CD246" s="98"/>
       <c r="CG246" s="9"/>
       <c r="DG246" s="56" t="s">
-        <v>2171</v>
+        <v>2177</v>
       </c>
       <c r="DH246" s="49"/>
       <c r="DI246" s="49"/>
@@ -40613,7 +40843,7 @@
     </row>
     <row r="247" spans="61:127">
       <c r="BI247" s="4" t="s">
-        <v>2172</v>
+        <v>2178</v>
       </c>
       <c r="BJ247" s="98"/>
       <c r="BK247" s="98"/>
@@ -40627,7 +40857,7 @@
       <c r="BS247" s="98"/>
       <c r="BT247" s="101"/>
       <c r="BZ247" s="4" t="s">
-        <v>2173</v>
+        <v>2179</v>
       </c>
       <c r="CA247" s="98"/>
       <c r="CB247" s="98"/>
@@ -40635,7 +40865,7 @@
       <c r="CD247" s="98"/>
       <c r="CG247" s="9"/>
       <c r="DG247" s="56" t="s">
-        <v>2174</v>
+        <v>2180</v>
       </c>
       <c r="DH247" s="49"/>
       <c r="DI247" s="49"/>
@@ -40656,7 +40886,7 @@
     </row>
     <row r="248" ht="27.75" spans="61:127">
       <c r="BI248" s="4" t="s">
-        <v>2175</v>
+        <v>2181</v>
       </c>
       <c r="BJ248" s="98"/>
       <c r="BK248" s="98"/>
@@ -40670,7 +40900,7 @@
       <c r="BS248" s="98"/>
       <c r="BT248" s="101"/>
       <c r="BZ248" s="4" t="s">
-        <v>2176</v>
+        <v>2182</v>
       </c>
       <c r="CA248" s="98"/>
       <c r="CB248" s="98"/>
@@ -40678,13 +40908,13 @@
       <c r="CD248" s="98"/>
       <c r="CG248" s="9"/>
       <c r="DG248" s="129" t="s">
-        <v>2177</v>
+        <v>2183</v>
       </c>
       <c r="DH248" s="49"/>
       <c r="DI248" s="49"/>
       <c r="DJ248" s="49"/>
       <c r="DK248" s="74" t="s">
-        <v>2178</v>
+        <v>2184</v>
       </c>
       <c r="DL248" s="49"/>
       <c r="DM248" s="49"/>
@@ -40701,7 +40931,7 @@
     </row>
     <row r="249" spans="61:127">
       <c r="BI249" s="4" t="s">
-        <v>2179</v>
+        <v>2185</v>
       </c>
       <c r="BJ249" s="98"/>
       <c r="BK249" s="98"/>
@@ -40715,7 +40945,7 @@
       <c r="BS249" s="98"/>
       <c r="BT249" s="101"/>
       <c r="BZ249" s="4" t="s">
-        <v>2180</v>
+        <v>2186</v>
       </c>
       <c r="CA249" s="98"/>
       <c r="CB249" s="98"/>
@@ -40723,7 +40953,7 @@
       <c r="CD249" s="98"/>
       <c r="CG249" s="9"/>
       <c r="DG249" s="56" t="s">
-        <v>2181</v>
+        <v>2187</v>
       </c>
       <c r="DH249" s="49"/>
       <c r="DI249" s="49"/>
@@ -40744,7 +40974,7 @@
     </row>
     <row r="250" spans="61:127">
       <c r="BI250" s="4" t="s">
-        <v>2182</v>
+        <v>2188</v>
       </c>
       <c r="BJ250" s="98"/>
       <c r="BK250" s="98"/>
@@ -40758,7 +40988,7 @@
       <c r="BS250" s="98"/>
       <c r="BT250" s="101"/>
       <c r="BZ250" s="4" t="s">
-        <v>2134</v>
+        <v>2140</v>
       </c>
       <c r="CA250" s="98"/>
       <c r="CB250" s="98"/>
@@ -40787,7 +41017,7 @@
     </row>
     <row r="251" spans="61:127">
       <c r="BI251" s="4" t="s">
-        <v>2183</v>
+        <v>2189</v>
       </c>
       <c r="BJ251" s="98"/>
       <c r="BK251" s="98"/>
@@ -40802,14 +41032,14 @@
       <c r="BT251" s="101"/>
       <c r="BZ251" s="4"/>
       <c r="CA251" s="98" t="s">
-        <v>2184</v>
+        <v>2190</v>
       </c>
       <c r="CB251" s="98"/>
       <c r="CC251" s="98"/>
       <c r="CD251" s="98"/>
       <c r="CG251" s="9"/>
       <c r="DG251" s="68" t="s">
-        <v>2185</v>
+        <v>2191</v>
       </c>
       <c r="DH251" s="49"/>
       <c r="DI251" s="49"/>
@@ -40830,7 +41060,7 @@
     </row>
     <row r="252" spans="61:127">
       <c r="BI252" s="4" t="s">
-        <v>2186</v>
+        <v>2192</v>
       </c>
       <c r="BJ252" s="98"/>
       <c r="BK252" s="98"/>
@@ -40850,7 +41080,7 @@
       <c r="CD252" s="98"/>
       <c r="CG252" s="9"/>
       <c r="DG252" s="56" t="s">
-        <v>2187</v>
+        <v>2193</v>
       </c>
       <c r="DH252" s="49"/>
       <c r="DI252" s="49"/>
@@ -40871,7 +41101,7 @@
     </row>
     <row r="253" spans="61:127">
       <c r="BI253" s="4" t="s">
-        <v>2188</v>
+        <v>2194</v>
       </c>
       <c r="BJ253" s="98"/>
       <c r="BK253" s="98"/>
@@ -40886,7 +41116,7 @@
       <c r="BT253" s="101"/>
       <c r="BZ253" s="4"/>
       <c r="CA253" s="98" t="s">
-        <v>2189</v>
+        <v>2195</v>
       </c>
       <c r="CB253" s="98"/>
       <c r="CC253" s="98"/>
@@ -40911,22 +41141,22 @@
       <c r="DW253" s="58"/>
     </row>
     <row r="254" ht="16.5" spans="61:127">
-      <c r="BI254" s="155"/>
-      <c r="BJ254" s="156"/>
-      <c r="BK254" s="156"/>
-      <c r="BL254" s="156"/>
-      <c r="BM254" s="156"/>
-      <c r="BN254" s="156"/>
-      <c r="BO254" s="156"/>
-      <c r="BP254" s="156"/>
-      <c r="BQ254" s="156"/>
-      <c r="BR254" s="156"/>
-      <c r="BS254" s="156"/>
-      <c r="BT254" s="158"/>
+      <c r="BI254" s="157"/>
+      <c r="BJ254" s="158"/>
+      <c r="BK254" s="158"/>
+      <c r="BL254" s="158"/>
+      <c r="BM254" s="158"/>
+      <c r="BN254" s="158"/>
+      <c r="BO254" s="158"/>
+      <c r="BP254" s="158"/>
+      <c r="BQ254" s="158"/>
+      <c r="BR254" s="158"/>
+      <c r="BS254" s="158"/>
+      <c r="BT254" s="160"/>
       <c r="BZ254" s="4"/>
       <c r="CA254" s="98"/>
       <c r="CB254" s="98" t="s">
-        <v>2190</v>
+        <v>2196</v>
       </c>
       <c r="CC254" s="98"/>
       <c r="CD254" s="98"/>
@@ -40954,7 +41184,7 @@
       <c r="CA255" s="98"/>
       <c r="CB255" s="98"/>
       <c r="CC255" s="98" t="s">
-        <v>2191</v>
+        <v>2197</v>
       </c>
       <c r="CD255" s="98"/>
       <c r="CG255" s="9"/>
@@ -40964,7 +41194,7 @@
       <c r="CA256" s="98"/>
       <c r="CB256" s="98"/>
       <c r="CC256" s="98" t="s">
-        <v>2192</v>
+        <v>2198</v>
       </c>
       <c r="CD256" s="98"/>
       <c r="CG256" s="9"/>
@@ -40972,7 +41202,7 @@
     <row r="257" spans="78:85">
       <c r="BZ257" s="4"/>
       <c r="CA257" s="98" t="s">
-        <v>2193</v>
+        <v>2199</v>
       </c>
       <c r="CB257" s="98"/>
       <c r="CC257" s="98"/>
@@ -40983,7 +41213,7 @@
       <c r="BZ258" s="4"/>
       <c r="CA258" s="98"/>
       <c r="CB258" s="98" t="s">
-        <v>2194</v>
+        <v>2200</v>
       </c>
       <c r="CC258" s="98"/>
       <c r="CD258" s="98"/>
@@ -40994,7 +41224,7 @@
       <c r="CA259" s="98"/>
       <c r="CB259" s="98"/>
       <c r="CC259" s="98" t="s">
-        <v>2195</v>
+        <v>2201</v>
       </c>
       <c r="CD259" s="98"/>
       <c r="CG259" s="9"/>
@@ -41004,7 +41234,7 @@
       <c r="CA260" s="98"/>
       <c r="CB260" s="98"/>
       <c r="CC260" s="98" t="s">
-        <v>2196</v>
+        <v>2202</v>
       </c>
       <c r="CD260" s="98"/>
       <c r="CG260" s="9"/>
@@ -41015,7 +41245,7 @@
       <c r="CB261" s="98"/>
       <c r="CC261" s="98"/>
       <c r="CD261" s="98" t="s">
-        <v>2197</v>
+        <v>2203</v>
       </c>
       <c r="CG261" s="9"/>
     </row>
@@ -41024,7 +41254,7 @@
       <c r="CA262" s="98"/>
       <c r="CB262" s="98"/>
       <c r="CC262" s="98" t="s">
-        <v>2198</v>
+        <v>2204</v>
       </c>
       <c r="CD262" s="98"/>
       <c r="CG262" s="9"/>
@@ -41034,7 +41264,7 @@
       <c r="CA263" s="98"/>
       <c r="CB263" s="98"/>
       <c r="CC263" s="98" t="s">
-        <v>2199</v>
+        <v>2205</v>
       </c>
       <c r="CD263" s="98"/>
       <c r="CG263" s="9"/>
@@ -41043,7 +41273,7 @@
       <c r="BZ264" s="4"/>
       <c r="CA264" s="98"/>
       <c r="CB264" s="98" t="s">
-        <v>2200</v>
+        <v>2206</v>
       </c>
       <c r="CC264" s="98"/>
       <c r="CD264" s="98"/>
@@ -41052,7 +41282,7 @@
     <row r="265" spans="78:85">
       <c r="BZ265" s="4"/>
       <c r="CA265" s="98" t="s">
-        <v>2143</v>
+        <v>2149</v>
       </c>
       <c r="CB265" s="98"/>
       <c r="CC265" s="98"/>
@@ -41061,7 +41291,7 @@
     </row>
     <row r="266" spans="78:85">
       <c r="BZ266" s="4" t="s">
-        <v>2145</v>
+        <v>2151</v>
       </c>
       <c r="CA266" s="98"/>
       <c r="CB266" s="98"/>
@@ -41087,7 +41317,7 @@
     </row>
     <row r="269" spans="78:85">
       <c r="BZ269" s="4" t="s">
-        <v>2201</v>
+        <v>2207</v>
       </c>
       <c r="CA269" s="98"/>
       <c r="CB269" s="98"/>
@@ -41097,7 +41327,7 @@
     </row>
     <row r="270" spans="78:85">
       <c r="BZ270" s="4" t="s">
-        <v>2202</v>
+        <v>2208</v>
       </c>
       <c r="CA270" s="98"/>
       <c r="CB270" s="98"/>
@@ -41107,7 +41337,7 @@
     </row>
     <row r="271" spans="78:85">
       <c r="BZ271" s="4" t="s">
-        <v>2134</v>
+        <v>2140</v>
       </c>
       <c r="CA271" s="98"/>
       <c r="CB271" s="98"/>
@@ -41118,7 +41348,7 @@
     <row r="272" spans="78:85">
       <c r="BZ272" s="4"/>
       <c r="CA272" s="98" t="s">
-        <v>2203</v>
+        <v>2209</v>
       </c>
       <c r="CB272" s="98"/>
       <c r="CC272" s="98"/>
@@ -41128,7 +41358,7 @@
     <row r="273" spans="78:85">
       <c r="BZ273" s="4"/>
       <c r="CA273" s="98" t="s">
-        <v>2204</v>
+        <v>2210</v>
       </c>
       <c r="CB273" s="98"/>
       <c r="CC273" s="98"/>
@@ -41146,7 +41376,7 @@
     <row r="275" spans="78:85">
       <c r="BZ275" s="4"/>
       <c r="CA275" s="98" t="s">
-        <v>2205</v>
+        <v>2211</v>
       </c>
       <c r="CB275" s="98"/>
       <c r="CC275" s="98"/>
@@ -41157,7 +41387,7 @@
       <c r="BZ276" s="4"/>
       <c r="CA276" s="98"/>
       <c r="CB276" s="98" t="s">
-        <v>2206</v>
+        <v>2212</v>
       </c>
       <c r="CC276" s="98"/>
       <c r="CD276" s="98"/>
@@ -41166,7 +41396,7 @@
     <row r="277" spans="78:85">
       <c r="BZ277" s="4"/>
       <c r="CA277" s="98" t="s">
-        <v>2143</v>
+        <v>2149</v>
       </c>
       <c r="CB277" s="98"/>
       <c r="CC277" s="98"/>
@@ -41184,7 +41414,7 @@
     <row r="279" spans="78:85">
       <c r="BZ279" s="4"/>
       <c r="CA279" s="98" t="s">
-        <v>2207</v>
+        <v>2213</v>
       </c>
       <c r="CB279" s="98"/>
       <c r="CC279" s="98"/>
@@ -41195,7 +41425,7 @@
       <c r="BZ280" s="4"/>
       <c r="CA280" s="98"/>
       <c r="CB280" s="98" t="s">
-        <v>2208</v>
+        <v>2214</v>
       </c>
       <c r="CC280" s="98"/>
       <c r="CD280" s="98"/>
@@ -41204,7 +41434,7 @@
     <row r="281" spans="78:85">
       <c r="BZ281" s="4"/>
       <c r="CA281" s="98" t="s">
-        <v>2143</v>
+        <v>2149</v>
       </c>
       <c r="CB281" s="98"/>
       <c r="CC281" s="98"/>
@@ -41222,7 +41452,7 @@
     <row r="283" spans="78:85">
       <c r="BZ283" s="4"/>
       <c r="CA283" s="98" t="s">
-        <v>2209</v>
+        <v>2215</v>
       </c>
       <c r="CB283" s="98"/>
       <c r="CC283" s="98"/>
@@ -41233,7 +41463,7 @@
       <c r="BZ284" s="4"/>
       <c r="CA284" s="98"/>
       <c r="CB284" s="98" t="s">
-        <v>2210</v>
+        <v>2216</v>
       </c>
       <c r="CC284" s="98"/>
       <c r="CD284" s="98"/>
@@ -41242,7 +41472,7 @@
     <row r="285" spans="78:85">
       <c r="BZ285" s="4"/>
       <c r="CA285" s="98" t="s">
-        <v>2143</v>
+        <v>2149</v>
       </c>
       <c r="CB285" s="98"/>
       <c r="CC285" s="98"/>
@@ -41260,7 +41490,7 @@
     <row r="287" spans="78:85">
       <c r="BZ287" s="4"/>
       <c r="CA287" s="98" t="s">
-        <v>2211</v>
+        <v>2217</v>
       </c>
       <c r="CB287" s="98"/>
       <c r="CC287" s="98"/>
@@ -41271,7 +41501,7 @@
       <c r="BZ288" s="4"/>
       <c r="CA288" s="98"/>
       <c r="CB288" s="98" t="s">
-        <v>2212</v>
+        <v>2218</v>
       </c>
       <c r="CC288" s="98"/>
       <c r="CD288" s="98"/>
@@ -41280,7 +41510,7 @@
     <row r="289" spans="78:85">
       <c r="BZ289" s="4"/>
       <c r="CA289" s="98" t="s">
-        <v>2143</v>
+        <v>2149</v>
       </c>
       <c r="CB289" s="98"/>
       <c r="CC289" s="98"/>
@@ -41298,7 +41528,7 @@
     <row r="291" spans="78:85">
       <c r="BZ291" s="4"/>
       <c r="CA291" s="98" t="s">
-        <v>2213</v>
+        <v>2219</v>
       </c>
       <c r="CB291" s="98"/>
       <c r="CC291" s="98"/>
@@ -41309,7 +41539,7 @@
       <c r="BZ292" s="4"/>
       <c r="CA292" s="98"/>
       <c r="CB292" s="98" t="s">
-        <v>2214</v>
+        <v>2220</v>
       </c>
       <c r="CC292" s="98"/>
       <c r="CD292" s="98"/>
@@ -41326,7 +41556,7 @@
     <row r="294" spans="78:85">
       <c r="BZ294" s="4"/>
       <c r="CA294" s="98" t="s">
-        <v>2215</v>
+        <v>2221</v>
       </c>
       <c r="CB294" s="98"/>
       <c r="CC294" s="98"/>
@@ -41337,7 +41567,7 @@
       <c r="BZ295" s="4"/>
       <c r="CA295" s="98"/>
       <c r="CB295" s="98" t="s">
-        <v>2216</v>
+        <v>2222</v>
       </c>
       <c r="CC295" s="98"/>
       <c r="CD295" s="98"/>
@@ -41347,7 +41577,7 @@
       <c r="BZ296" s="4"/>
       <c r="CA296" s="98"/>
       <c r="CB296" s="98" t="s">
-        <v>2217</v>
+        <v>2223</v>
       </c>
       <c r="CC296" s="98"/>
       <c r="CD296" s="98"/>
@@ -41355,7 +41585,7 @@
     </row>
     <row r="297" spans="78:85">
       <c r="BZ297" s="4" t="s">
-        <v>2145</v>
+        <v>2151</v>
       </c>
       <c r="CA297" s="98"/>
       <c r="CB297" s="98"/>
@@ -41373,7 +41603,7 @@
     </row>
     <row r="299" spans="78:85">
       <c r="BZ299" s="4" t="s">
-        <v>2218</v>
+        <v>2224</v>
       </c>
       <c r="CA299" s="98"/>
       <c r="CB299" s="98"/>
@@ -41383,7 +41613,7 @@
     </row>
     <row r="300" spans="78:85">
       <c r="BZ300" s="4" t="s">
-        <v>2219</v>
+        <v>2225</v>
       </c>
       <c r="CA300" s="98"/>
       <c r="CB300" s="98"/>
@@ -41393,7 +41623,7 @@
     </row>
     <row r="301" spans="78:85">
       <c r="BZ301" s="4" t="s">
-        <v>2220</v>
+        <v>2226</v>
       </c>
       <c r="CA301" s="98"/>
       <c r="CB301" s="98"/>
@@ -41403,7 +41633,7 @@
     </row>
     <row r="302" spans="78:85">
       <c r="BZ302" s="4" t="s">
-        <v>2134</v>
+        <v>2140</v>
       </c>
       <c r="CA302" s="98"/>
       <c r="CB302" s="98"/>
@@ -41414,7 +41644,7 @@
     <row r="303" spans="78:85">
       <c r="BZ303" s="4"/>
       <c r="CA303" s="98" t="s">
-        <v>2221</v>
+        <v>2227</v>
       </c>
       <c r="CB303" s="98"/>
       <c r="CC303" s="98"/>
@@ -41423,7 +41653,7 @@
     </row>
     <row r="304" spans="78:85">
       <c r="BZ304" s="4" t="s">
-        <v>2145</v>
+        <v>2151</v>
       </c>
       <c r="CA304" s="98"/>
       <c r="CB304" s="98"/>
@@ -41441,7 +41671,7 @@
     </row>
     <row r="306" spans="78:85">
       <c r="BZ306" s="4" t="s">
-        <v>2222</v>
+        <v>2228</v>
       </c>
       <c r="CA306" s="98"/>
       <c r="CB306" s="98"/>
@@ -41451,7 +41681,7 @@
     </row>
     <row r="307" spans="78:85">
       <c r="BZ307" s="4" t="s">
-        <v>2134</v>
+        <v>2140</v>
       </c>
       <c r="CA307" s="98"/>
       <c r="CB307" s="98"/>
@@ -41462,7 +41692,7 @@
     <row r="308" spans="78:85">
       <c r="BZ308" s="4"/>
       <c r="CA308" s="98" t="s">
-        <v>2223</v>
+        <v>2229</v>
       </c>
       <c r="CB308" s="98"/>
       <c r="CC308" s="98"/>
@@ -41471,7 +41701,7 @@
     </row>
     <row r="309" spans="78:85">
       <c r="BZ309" s="4" t="s">
-        <v>2145</v>
+        <v>2151</v>
       </c>
       <c r="CA309" s="98"/>
       <c r="CB309" s="98"/>
@@ -41489,7 +41719,7 @@
     </row>
     <row r="311" spans="78:85">
       <c r="BZ311" s="4" t="s">
-        <v>2224</v>
+        <v>2230</v>
       </c>
       <c r="CA311" s="98"/>
       <c r="CB311" s="98"/>
@@ -41499,7 +41729,7 @@
     </row>
     <row r="312" spans="78:85">
       <c r="BZ312" s="4" t="s">
-        <v>2225</v>
+        <v>2231</v>
       </c>
       <c r="CA312" s="98"/>
       <c r="CB312" s="98"/>
@@ -41509,7 +41739,7 @@
     </row>
     <row r="313" spans="78:85">
       <c r="BZ313" s="4" t="s">
-        <v>2226</v>
+        <v>2232</v>
       </c>
       <c r="CA313" s="98"/>
       <c r="CB313" s="98"/>
@@ -41519,7 +41749,7 @@
     </row>
     <row r="314" spans="78:85">
       <c r="BZ314" s="4" t="s">
-        <v>2134</v>
+        <v>2140</v>
       </c>
       <c r="CA314" s="98"/>
       <c r="CB314" s="98"/>
@@ -41530,7 +41760,7 @@
     <row r="315" spans="78:85">
       <c r="BZ315" s="4"/>
       <c r="CA315" s="98" t="s">
-        <v>2227</v>
+        <v>2233</v>
       </c>
       <c r="CB315" s="98"/>
       <c r="CC315" s="98"/>
@@ -41540,7 +41770,7 @@
     <row r="316" spans="78:85">
       <c r="BZ316" s="4"/>
       <c r="CA316" s="98" t="s">
-        <v>2228</v>
+        <v>2234</v>
       </c>
       <c r="CB316" s="98"/>
       <c r="CC316" s="98"/>
@@ -41550,7 +41780,7 @@
     <row r="317" spans="78:85">
       <c r="BZ317" s="4"/>
       <c r="CA317" s="98" t="s">
-        <v>2229</v>
+        <v>2235</v>
       </c>
       <c r="CB317" s="98"/>
       <c r="CC317" s="98"/>
@@ -41560,7 +41790,7 @@
     <row r="318" spans="78:85">
       <c r="BZ318" s="4"/>
       <c r="CA318" s="98" t="s">
-        <v>2230</v>
+        <v>2236</v>
       </c>
       <c r="CB318" s="98"/>
       <c r="CC318" s="98"/>
@@ -41570,7 +41800,7 @@
     <row r="319" spans="78:85">
       <c r="BZ319" s="4"/>
       <c r="CA319" s="98" t="s">
-        <v>2231</v>
+        <v>2237</v>
       </c>
       <c r="CB319" s="98"/>
       <c r="CC319" s="98"/>
@@ -41580,7 +41810,7 @@
     <row r="320" spans="78:85">
       <c r="BZ320" s="4"/>
       <c r="CA320" s="98" t="s">
-        <v>2232</v>
+        <v>2238</v>
       </c>
       <c r="CB320" s="98"/>
       <c r="CC320" s="98"/>
@@ -41590,7 +41820,7 @@
     <row r="321" spans="78:85">
       <c r="BZ321" s="4"/>
       <c r="CA321" s="98" t="s">
-        <v>2233</v>
+        <v>2239</v>
       </c>
       <c r="CB321" s="98"/>
       <c r="CC321" s="98"/>
@@ -41600,7 +41830,7 @@
     <row r="322" spans="78:85">
       <c r="BZ322" s="4"/>
       <c r="CA322" s="98" t="s">
-        <v>2234</v>
+        <v>2240</v>
       </c>
       <c r="CB322" s="98"/>
       <c r="CC322" s="98"/>
@@ -41609,7 +41839,7 @@
     </row>
     <row r="323" spans="78:85">
       <c r="BZ323" s="4" t="s">
-        <v>2145</v>
+        <v>2151</v>
       </c>
       <c r="CA323" s="98"/>
       <c r="CB323" s="98"/>
@@ -41627,7 +41857,7 @@
     </row>
     <row r="325" spans="78:85">
       <c r="BZ325" s="4" t="s">
-        <v>2065</v>
+        <v>2071</v>
       </c>
       <c r="CA325" s="98"/>
       <c r="CB325" s="98"/>
@@ -41637,7 +41867,7 @@
     </row>
     <row r="326" spans="78:85">
       <c r="BZ326" s="4" t="s">
-        <v>2065</v>
+        <v>2071</v>
       </c>
       <c r="CA326" s="98"/>
       <c r="CB326" s="98"/>
@@ -41647,9 +41877,9 @@
     </row>
     <row r="327" spans="78:85">
       <c r="BZ327" s="85" t="s">
-        <v>2235</v>
-      </c>
-      <c r="CA327" s="160"/>
+        <v>2241</v>
+      </c>
+      <c r="CA327" s="162"/>
       <c r="CB327" s="98"/>
       <c r="CC327" s="98"/>
       <c r="CD327" s="98"/>
@@ -41657,9 +41887,9 @@
     </row>
     <row r="328" spans="78:85">
       <c r="BZ328" s="85" t="s">
-        <v>2236</v>
-      </c>
-      <c r="CA328" s="160"/>
+        <v>2242</v>
+      </c>
+      <c r="CA328" s="162"/>
       <c r="CB328" s="98"/>
       <c r="CC328" s="98"/>
       <c r="CD328" s="98"/>
@@ -41667,9 +41897,9 @@
     </row>
     <row r="329" spans="78:85">
       <c r="BZ329" s="85" t="s">
-        <v>2237</v>
-      </c>
-      <c r="CA329" s="160"/>
+        <v>2243</v>
+      </c>
+      <c r="CA329" s="162"/>
       <c r="CB329" s="98"/>
       <c r="CC329" s="98"/>
       <c r="CD329" s="98"/>
@@ -41678,7 +41908,7 @@
     <row r="330" spans="78:85">
       <c r="BZ330" s="4"/>
       <c r="CA330" s="98" t="s">
-        <v>2238</v>
+        <v>2244</v>
       </c>
       <c r="CB330" s="98"/>
       <c r="CC330" s="98"/>
@@ -41688,7 +41918,7 @@
     <row r="331" spans="78:85">
       <c r="BZ331" s="4"/>
       <c r="CA331" s="98" t="s">
-        <v>2239</v>
+        <v>2245</v>
       </c>
       <c r="CB331" s="98"/>
       <c r="CC331" s="98"/>
@@ -41697,7 +41927,7 @@
     </row>
     <row r="332" spans="78:85">
       <c r="BZ332" s="4" t="s">
-        <v>2240</v>
+        <v>2246</v>
       </c>
       <c r="CA332" s="98"/>
       <c r="CB332" s="98"/>
@@ -41715,7 +41945,7 @@
     </row>
     <row r="334" spans="78:85">
       <c r="BZ334" s="4" t="s">
-        <v>2241</v>
+        <v>2247</v>
       </c>
       <c r="CA334" s="98"/>
       <c r="CB334" s="98"/>
@@ -41726,7 +41956,7 @@
     <row r="335" spans="78:85">
       <c r="BZ335" s="4"/>
       <c r="CA335" s="98" t="s">
-        <v>2242</v>
+        <v>2248</v>
       </c>
       <c r="CB335" s="98"/>
       <c r="CC335" s="98"/>
@@ -41736,7 +41966,7 @@
     <row r="336" spans="78:85">
       <c r="BZ336" s="4"/>
       <c r="CA336" s="98" t="s">
-        <v>2243</v>
+        <v>2249</v>
       </c>
       <c r="CB336" s="98"/>
       <c r="CC336" s="98"/>
@@ -41745,7 +41975,7 @@
     </row>
     <row r="337" spans="78:85">
       <c r="BZ337" s="4" t="s">
-        <v>2143</v>
+        <v>2149</v>
       </c>
       <c r="CA337" s="98"/>
       <c r="CB337" s="98"/>
@@ -41763,7 +41993,7 @@
     </row>
     <row r="339" spans="78:85">
       <c r="BZ339" s="85" t="s">
-        <v>2244</v>
+        <v>2250</v>
       </c>
       <c r="CA339" s="98"/>
       <c r="CB339" s="98"/>
@@ -41773,7 +42003,7 @@
     </row>
     <row r="340" spans="78:85">
       <c r="BZ340" s="85" t="s">
-        <v>2245</v>
+        <v>2251</v>
       </c>
       <c r="CA340" s="98"/>
       <c r="CB340" s="98"/>
@@ -41783,7 +42013,7 @@
     </row>
     <row r="341" spans="78:85">
       <c r="BZ341" s="85" t="s">
-        <v>2246</v>
+        <v>2252</v>
       </c>
       <c r="CA341" s="98"/>
       <c r="CB341" s="98"/>
@@ -41792,9 +42022,9 @@
       <c r="CG341" s="9"/>
     </row>
     <row r="342" spans="78:85">
-      <c r="BZ342" s="161"/>
+      <c r="BZ342" s="163"/>
       <c r="CA342" s="98" t="s">
-        <v>2247</v>
+        <v>2253</v>
       </c>
       <c r="CB342" s="98"/>
       <c r="CC342" s="98"/>
@@ -41802,9 +42032,9 @@
       <c r="CG342" s="9"/>
     </row>
     <row r="343" spans="78:85">
-      <c r="BZ343" s="161"/>
+      <c r="BZ343" s="163"/>
       <c r="CA343" s="98" t="s">
-        <v>2239</v>
+        <v>2245</v>
       </c>
       <c r="CB343" s="98"/>
       <c r="CC343" s="98"/>
@@ -41813,7 +42043,7 @@
     </row>
     <row r="344" spans="78:85">
       <c r="BZ344" s="85" t="s">
-        <v>2248</v>
+        <v>2254</v>
       </c>
       <c r="CA344" s="98"/>
       <c r="CB344" s="98"/>
@@ -41824,7 +42054,7 @@
     <row r="345" spans="78:85">
       <c r="BZ345" s="4"/>
       <c r="CA345" s="98" t="s">
-        <v>2249</v>
+        <v>2255</v>
       </c>
       <c r="CB345" s="98"/>
       <c r="CC345" s="98"/>
@@ -41834,7 +42064,7 @@
     <row r="346" spans="78:85">
       <c r="BZ346" s="4"/>
       <c r="CA346" s="98" t="s">
-        <v>2250</v>
+        <v>2256</v>
       </c>
       <c r="CB346" s="98"/>
       <c r="CC346" s="98"/>
@@ -41843,7 +42073,7 @@
     </row>
     <row r="347" spans="78:85">
       <c r="BZ347" s="4" t="s">
-        <v>2240</v>
+        <v>2246</v>
       </c>
       <c r="CA347" s="98"/>
       <c r="CB347" s="98"/>
@@ -41861,7 +42091,7 @@
     </row>
     <row r="349" spans="78:85">
       <c r="BZ349" s="4" t="s">
-        <v>2251</v>
+        <v>2257</v>
       </c>
       <c r="CA349" s="98"/>
       <c r="CB349" s="98"/>
@@ -41871,7 +42101,7 @@
     </row>
     <row r="350" spans="78:85">
       <c r="BZ350" s="4" t="s">
-        <v>2252</v>
+        <v>2258</v>
       </c>
       <c r="CA350" s="98"/>
       <c r="CB350" s="98"/>
@@ -41881,7 +42111,7 @@
     </row>
     <row r="351" spans="78:85">
       <c r="BZ351" s="4" t="s">
-        <v>2253</v>
+        <v>2259</v>
       </c>
       <c r="CA351" s="98"/>
       <c r="CB351" s="98"/>
@@ -41899,7 +42129,7 @@
     </row>
     <row r="353" spans="78:85">
       <c r="BZ353" s="4" t="s">
-        <v>2254</v>
+        <v>2260</v>
       </c>
       <c r="CA353" s="98"/>
       <c r="CB353" s="98"/>
@@ -41909,7 +42139,7 @@
     </row>
     <row r="354" spans="78:85">
       <c r="BZ354" s="97" t="s">
-        <v>2255</v>
+        <v>2261</v>
       </c>
       <c r="CA354" s="98"/>
       <c r="CB354" s="98"/>
@@ -41927,7 +42157,7 @@
     </row>
     <row r="356" spans="78:85">
       <c r="BZ356" s="4" t="s">
-        <v>2256</v>
+        <v>2262</v>
       </c>
       <c r="CA356" s="98"/>
       <c r="CB356" s="98"/>
@@ -41937,7 +42167,7 @@
     </row>
     <row r="357" spans="78:85">
       <c r="BZ357" s="4" t="s">
-        <v>2257</v>
+        <v>2263</v>
       </c>
       <c r="CA357" s="98"/>
       <c r="CB357" s="98"/>
@@ -41947,7 +42177,7 @@
     </row>
     <row r="358" spans="78:85">
       <c r="BZ358" s="4" t="s">
-        <v>2258</v>
+        <v>2264</v>
       </c>
       <c r="CA358" s="98"/>
       <c r="CB358" s="98"/>
@@ -41958,7 +42188,7 @@
     <row r="359" spans="78:85">
       <c r="BZ359" s="4"/>
       <c r="CA359" s="98" t="s">
-        <v>2259</v>
+        <v>2265</v>
       </c>
       <c r="CB359" s="98"/>
       <c r="CC359" s="98"/>
@@ -41968,7 +42198,7 @@
     <row r="360" spans="78:85">
       <c r="BZ360" s="4"/>
       <c r="CA360" s="98" t="s">
-        <v>2260</v>
+        <v>2266</v>
       </c>
       <c r="CB360" s="98"/>
       <c r="CC360" s="98"/>
@@ -41977,7 +42207,7 @@
     </row>
     <row r="361" spans="78:85">
       <c r="BZ361" s="4" t="s">
-        <v>2193</v>
+        <v>2199</v>
       </c>
       <c r="CA361" s="98"/>
       <c r="CB361" s="98"/>
@@ -41988,7 +42218,7 @@
     <row r="362" spans="78:85">
       <c r="BZ362" s="4"/>
       <c r="CA362" s="98" t="s">
-        <v>2261</v>
+        <v>2267</v>
       </c>
       <c r="CB362" s="98"/>
       <c r="CC362" s="98"/>
@@ -41998,7 +42228,7 @@
     <row r="363" spans="78:85">
       <c r="BZ363" s="4"/>
       <c r="CA363" s="98" t="s">
-        <v>2262</v>
+        <v>2268</v>
       </c>
       <c r="CB363" s="98"/>
       <c r="CC363" s="98"/>
@@ -42007,7 +42237,7 @@
     </row>
     <row r="364" spans="78:85">
       <c r="BZ364" s="4" t="s">
-        <v>2263</v>
+        <v>2269</v>
       </c>
       <c r="CA364" s="98"/>
       <c r="CB364" s="98"/>
@@ -42025,7 +42255,7 @@
     </row>
     <row r="366" spans="78:85">
       <c r="BZ366" s="97" t="s">
-        <v>2264</v>
+        <v>2270</v>
       </c>
       <c r="CA366" s="98"/>
       <c r="CB366" s="98"/>
@@ -42035,7 +42265,7 @@
     </row>
     <row r="367" spans="78:85">
       <c r="BZ367" s="97" t="s">
-        <v>2265</v>
+        <v>2271</v>
       </c>
       <c r="CA367" s="98"/>
       <c r="CB367" s="98"/>
@@ -42053,7 +42283,7 @@
     </row>
     <row r="369" spans="78:85">
       <c r="BZ369" s="4" t="s">
-        <v>2266</v>
+        <v>2272</v>
       </c>
       <c r="CA369" s="98"/>
       <c r="CB369" s="98"/>
@@ -42063,7 +42293,7 @@
     </row>
     <row r="370" spans="78:85">
       <c r="BZ370" s="4" t="s">
-        <v>2267</v>
+        <v>2273</v>
       </c>
       <c r="CA370" s="98"/>
       <c r="CB370" s="98"/>
@@ -42073,7 +42303,7 @@
     </row>
     <row r="371" spans="78:85">
       <c r="BZ371" s="4" t="s">
-        <v>2268</v>
+        <v>2274</v>
       </c>
       <c r="CA371" s="98"/>
       <c r="CB371" s="98"/>
@@ -42092,7 +42322,7 @@
     <row r="373" spans="78:85">
       <c r="BZ373" s="4"/>
       <c r="CA373" s="98" t="s">
-        <v>2269</v>
+        <v>2275</v>
       </c>
       <c r="CB373" s="98"/>
       <c r="CC373" s="98"/>
@@ -42102,7 +42332,7 @@
     <row r="374" spans="78:85">
       <c r="BZ374" s="4"/>
       <c r="CA374" s="98" t="s">
-        <v>2270</v>
+        <v>2276</v>
       </c>
       <c r="CB374" s="98"/>
       <c r="CC374" s="98"/>
@@ -42112,7 +42342,7 @@
     <row r="375" spans="78:85">
       <c r="BZ375" s="4"/>
       <c r="CA375" s="98" t="s">
-        <v>2271</v>
+        <v>2277</v>
       </c>
       <c r="CB375" s="98"/>
       <c r="CC375" s="98"/>
@@ -42122,7 +42352,7 @@
     <row r="376" spans="78:85">
       <c r="BZ376" s="4"/>
       <c r="CA376" s="98" t="s">
-        <v>2272</v>
+        <v>2278</v>
       </c>
       <c r="CB376" s="98"/>
       <c r="CC376" s="98"/>
@@ -42132,7 +42362,7 @@
     <row r="377" spans="78:85">
       <c r="BZ377" s="4"/>
       <c r="CA377" s="98" t="s">
-        <v>2273</v>
+        <v>2279</v>
       </c>
       <c r="CB377" s="98"/>
       <c r="CC377" s="98"/>
@@ -42142,7 +42372,7 @@
     <row r="378" spans="78:85">
       <c r="BZ378" s="4"/>
       <c r="CA378" s="98" t="s">
-        <v>2274</v>
+        <v>2280</v>
       </c>
       <c r="CB378" s="98"/>
       <c r="CC378" s="98"/>
@@ -42152,7 +42382,7 @@
     <row r="379" spans="78:85">
       <c r="BZ379" s="4"/>
       <c r="CA379" s="98" t="s">
-        <v>2275</v>
+        <v>2281</v>
       </c>
       <c r="CB379" s="98"/>
       <c r="CC379" s="98"/>
@@ -42162,7 +42392,7 @@
     <row r="380" spans="78:85">
       <c r="BZ380" s="4"/>
       <c r="CA380" s="98" t="s">
-        <v>2276</v>
+        <v>2282</v>
       </c>
       <c r="CB380" s="98"/>
       <c r="CC380" s="98"/>
@@ -42172,7 +42402,7 @@
     <row r="381" spans="78:85">
       <c r="BZ381" s="4"/>
       <c r="CA381" s="98" t="s">
-        <v>2277</v>
+        <v>2283</v>
       </c>
       <c r="CB381" s="98"/>
       <c r="CC381" s="98"/>
@@ -42182,7 +42412,7 @@
     <row r="382" spans="78:85">
       <c r="BZ382" s="4"/>
       <c r="CA382" s="98" t="s">
-        <v>2278</v>
+        <v>2284</v>
       </c>
       <c r="CB382" s="98"/>
       <c r="CC382" s="98"/>
@@ -42192,7 +42422,7 @@
     <row r="383" spans="78:85">
       <c r="BZ383" s="4"/>
       <c r="CA383" s="98" t="s">
-        <v>2279</v>
+        <v>2285</v>
       </c>
       <c r="CB383" s="98"/>
       <c r="CC383" s="98"/>
@@ -42202,7 +42432,7 @@
     <row r="384" spans="78:85">
       <c r="BZ384" s="4"/>
       <c r="CA384" s="98" t="s">
-        <v>2280</v>
+        <v>2286</v>
       </c>
       <c r="CB384" s="98"/>
       <c r="CC384" s="98"/>
@@ -42212,7 +42442,7 @@
     <row r="385" spans="78:85">
       <c r="BZ385" s="4"/>
       <c r="CA385" s="98" t="s">
-        <v>2281</v>
+        <v>2287</v>
       </c>
       <c r="CB385" s="98"/>
       <c r="CC385" s="98"/>
@@ -42222,7 +42452,7 @@
     <row r="386" spans="78:85">
       <c r="BZ386" s="4"/>
       <c r="CA386" s="98" t="s">
-        <v>2282</v>
+        <v>2288</v>
       </c>
       <c r="CB386" s="98"/>
       <c r="CC386" s="98"/>
@@ -42232,7 +42462,7 @@
     <row r="387" spans="78:85">
       <c r="BZ387" s="4"/>
       <c r="CA387" s="98" t="s">
-        <v>2283</v>
+        <v>2289</v>
       </c>
       <c r="CB387" s="98"/>
       <c r="CC387" s="98"/>
@@ -42242,7 +42472,7 @@
     <row r="388" spans="78:85">
       <c r="BZ388" s="4"/>
       <c r="CA388" s="98" t="s">
-        <v>2065</v>
+        <v>2071</v>
       </c>
       <c r="CB388" s="98"/>
       <c r="CC388" s="98"/>
@@ -42252,7 +42482,7 @@
     <row r="389" spans="78:85">
       <c r="BZ389" s="4"/>
       <c r="CA389" s="98" t="s">
-        <v>2284</v>
+        <v>2290</v>
       </c>
       <c r="CB389" s="98"/>
       <c r="CC389" s="98"/>
@@ -42262,7 +42492,7 @@
     <row r="390" spans="78:85">
       <c r="BZ390" s="4"/>
       <c r="CA390" s="98" t="s">
-        <v>2285</v>
+        <v>2291</v>
       </c>
       <c r="CB390" s="98"/>
       <c r="CC390" s="98"/>
@@ -42280,7 +42510,7 @@
     <row r="392" spans="78:85">
       <c r="BZ392" s="4"/>
       <c r="CA392" s="98" t="s">
-        <v>2286</v>
+        <v>2292</v>
       </c>
       <c r="CB392" s="98"/>
       <c r="CC392" s="98"/>
@@ -42290,7 +42520,7 @@
     <row r="393" spans="78:85">
       <c r="BZ393" s="4"/>
       <c r="CA393" s="98" t="s">
-        <v>2287</v>
+        <v>2293</v>
       </c>
       <c r="CB393" s="98"/>
       <c r="CC393" s="98"/>
@@ -42308,7 +42538,7 @@
     <row r="395" spans="78:85">
       <c r="BZ395" s="4"/>
       <c r="CA395" s="98" t="s">
-        <v>2288</v>
+        <v>2294</v>
       </c>
       <c r="CB395" s="98"/>
       <c r="CC395" s="98"/>
@@ -42318,7 +42548,7 @@
     <row r="396" spans="78:85">
       <c r="BZ396" s="4"/>
       <c r="CA396" s="98" t="s">
-        <v>2289</v>
+        <v>2295</v>
       </c>
       <c r="CB396" s="98"/>
       <c r="CC396" s="98"/>
@@ -42328,7 +42558,7 @@
     <row r="397" spans="78:85">
       <c r="BZ397" s="4"/>
       <c r="CA397" s="98" t="s">
-        <v>2290</v>
+        <v>2296</v>
       </c>
       <c r="CB397" s="98"/>
       <c r="CC397" s="98"/>
@@ -42346,7 +42576,7 @@
     <row r="399" spans="78:85">
       <c r="BZ399" s="4"/>
       <c r="CA399" s="98" t="s">
-        <v>2291</v>
+        <v>2297</v>
       </c>
       <c r="CB399" s="98"/>
       <c r="CC399" s="98"/>
@@ -42356,7 +42586,7 @@
     <row r="400" spans="78:85">
       <c r="BZ400" s="4"/>
       <c r="CA400" s="98" t="s">
-        <v>2292</v>
+        <v>2298</v>
       </c>
       <c r="CB400" s="98"/>
       <c r="CC400" s="98"/>
@@ -42366,7 +42596,7 @@
     <row r="401" spans="78:85">
       <c r="BZ401" s="4"/>
       <c r="CA401" s="98" t="s">
-        <v>2293</v>
+        <v>2299</v>
       </c>
       <c r="CB401" s="98"/>
       <c r="CC401" s="98"/>
@@ -42384,7 +42614,7 @@
     <row r="403" spans="78:85">
       <c r="BZ403" s="4"/>
       <c r="CA403" s="98" t="s">
-        <v>2294</v>
+        <v>2300</v>
       </c>
       <c r="CB403" s="98"/>
       <c r="CC403" s="98"/>
@@ -42394,7 +42624,7 @@
     <row r="404" spans="78:85">
       <c r="BZ404" s="4"/>
       <c r="CA404" s="98" t="s">
-        <v>2295</v>
+        <v>2301</v>
       </c>
       <c r="CB404" s="98"/>
       <c r="CC404" s="98"/>
@@ -42405,7 +42635,7 @@
       <c r="BZ405" s="4"/>
       <c r="CA405" s="98"/>
       <c r="CB405" s="98" t="s">
-        <v>2296</v>
+        <v>2302</v>
       </c>
       <c r="CC405" s="98"/>
       <c r="CD405" s="98"/>
@@ -42415,7 +42645,7 @@
       <c r="BZ406" s="4"/>
       <c r="CA406" s="98"/>
       <c r="CB406" s="98" t="s">
-        <v>2297</v>
+        <v>2303</v>
       </c>
       <c r="CC406" s="98"/>
       <c r="CD406" s="98"/>
@@ -42433,7 +42663,7 @@
       <c r="BZ408" s="4"/>
       <c r="CA408" s="98"/>
       <c r="CB408" s="98" t="s">
-        <v>2298</v>
+        <v>2304</v>
       </c>
       <c r="CC408" s="98"/>
       <c r="CD408" s="98"/>
@@ -42451,7 +42681,7 @@
       <c r="BZ410" s="4"/>
       <c r="CA410" s="98"/>
       <c r="CB410" s="98" t="s">
-        <v>2299</v>
+        <v>2305</v>
       </c>
       <c r="CC410" s="98"/>
       <c r="CD410" s="98"/>
@@ -42460,7 +42690,7 @@
     <row r="411" spans="78:85">
       <c r="BZ411" s="4"/>
       <c r="CA411" s="98" t="s">
-        <v>2143</v>
+        <v>2149</v>
       </c>
       <c r="CB411" s="98"/>
       <c r="CC411" s="98"/>
@@ -42469,7 +42699,7 @@
     </row>
     <row r="412" spans="78:85">
       <c r="BZ412" s="4" t="s">
-        <v>2143</v>
+        <v>2149</v>
       </c>
       <c r="CA412" s="98"/>
       <c r="CB412" s="98"/>
@@ -42487,7 +42717,7 @@
     </row>
     <row r="414" spans="78:85">
       <c r="BZ414" s="97" t="s">
-        <v>2300</v>
+        <v>2306</v>
       </c>
       <c r="CA414" s="98"/>
       <c r="CB414" s="98"/>
@@ -42497,7 +42727,7 @@
     </row>
     <row r="415" spans="78:85">
       <c r="BZ415" s="97" t="s">
-        <v>2301</v>
+        <v>2307</v>
       </c>
       <c r="CA415" s="98"/>
       <c r="CB415" s="98"/>
@@ -42515,7 +42745,7 @@
     </row>
     <row r="417" spans="78:85">
       <c r="BZ417" s="4" t="s">
-        <v>2302</v>
+        <v>2308</v>
       </c>
       <c r="CA417" s="98"/>
       <c r="CB417" s="98"/>
@@ -42526,7 +42756,7 @@
     <row r="418" spans="78:85">
       <c r="BZ418" s="4"/>
       <c r="CA418" s="98" t="s">
-        <v>2303</v>
+        <v>2309</v>
       </c>
       <c r="CB418" s="98"/>
       <c r="CC418" s="98"/>
@@ -42536,7 +42766,7 @@
     <row r="419" spans="78:85">
       <c r="BZ419" s="4"/>
       <c r="CA419" s="98" t="s">
-        <v>2304</v>
+        <v>2310</v>
       </c>
       <c r="CB419" s="98"/>
       <c r="CC419" s="98"/>
@@ -42545,7 +42775,7 @@
     </row>
     <row r="420" spans="78:85">
       <c r="BZ420" s="4" t="s">
-        <v>2143</v>
+        <v>2149</v>
       </c>
       <c r="CA420" s="98"/>
       <c r="CB420" s="98"/>
@@ -42563,7 +42793,7 @@
     </row>
     <row r="422" spans="78:85">
       <c r="BZ422" s="4" t="s">
-        <v>2305</v>
+        <v>2311</v>
       </c>
       <c r="CA422" s="98"/>
       <c r="CB422" s="98"/>
@@ -42573,7 +42803,7 @@
     </row>
     <row r="423" spans="78:85">
       <c r="BZ423" s="4" t="s">
-        <v>2306</v>
+        <v>2312</v>
       </c>
       <c r="CA423" s="98"/>
       <c r="CB423" s="98"/>
@@ -42591,7 +42821,7 @@
     </row>
     <row r="425" spans="78:85">
       <c r="BZ425" s="4" t="s">
-        <v>2307</v>
+        <v>2313</v>
       </c>
       <c r="CA425" s="98"/>
       <c r="CB425" s="98"/>
@@ -42601,7 +42831,7 @@
     </row>
     <row r="426" spans="78:85">
       <c r="BZ426" s="4" t="s">
-        <v>2268</v>
+        <v>2274</v>
       </c>
       <c r="CA426" s="98"/>
       <c r="CB426" s="98"/>
@@ -42612,7 +42842,7 @@
     <row r="427" spans="78:85">
       <c r="BZ427" s="4"/>
       <c r="CA427" s="98" t="s">
-        <v>2308</v>
+        <v>2314</v>
       </c>
       <c r="CB427" s="98"/>
       <c r="CC427" s="98"/>
@@ -42630,7 +42860,7 @@
     <row r="429" spans="78:85">
       <c r="BZ429" s="4"/>
       <c r="CA429" s="98" t="s">
-        <v>2309</v>
+        <v>2315</v>
       </c>
       <c r="CB429" s="98"/>
       <c r="CC429" s="98"/>
@@ -42641,7 +42871,7 @@
       <c r="BZ430" s="4"/>
       <c r="CA430" s="98"/>
       <c r="CB430" s="98" t="s">
-        <v>2310</v>
+        <v>2316</v>
       </c>
       <c r="CC430" s="98"/>
       <c r="CD430" s="98"/>
@@ -42651,7 +42881,7 @@
       <c r="BZ431" s="4"/>
       <c r="CA431" s="98"/>
       <c r="CB431" s="98" t="s">
-        <v>2311</v>
+        <v>2317</v>
       </c>
       <c r="CC431" s="98"/>
       <c r="CD431" s="98"/>
@@ -42661,7 +42891,7 @@
       <c r="BZ432" s="4"/>
       <c r="CA432" s="98"/>
       <c r="CB432" s="98" t="s">
-        <v>2242</v>
+        <v>2248</v>
       </c>
       <c r="CC432" s="98"/>
       <c r="CD432" s="98"/>
@@ -42671,7 +42901,7 @@
       <c r="BZ433" s="4"/>
       <c r="CA433" s="98"/>
       <c r="CB433" s="98" t="s">
-        <v>2312</v>
+        <v>2318</v>
       </c>
       <c r="CC433" s="98"/>
       <c r="CD433" s="98"/>
@@ -42680,7 +42910,7 @@
     <row r="434" spans="78:85">
       <c r="BZ434" s="4"/>
       <c r="CA434" s="98" t="s">
-        <v>2143</v>
+        <v>2149</v>
       </c>
       <c r="CB434" s="98"/>
       <c r="CC434" s="98"/>
@@ -42689,7 +42919,7 @@
     </row>
     <row r="435" spans="78:85">
       <c r="BZ435" s="4" t="s">
-        <v>2143</v>
+        <v>2149</v>
       </c>
       <c r="CA435" s="98"/>
       <c r="CB435" s="98"/>
@@ -42707,7 +42937,7 @@
     </row>
     <row r="437" spans="78:85">
       <c r="BZ437" s="4" t="s">
-        <v>2313</v>
+        <v>2319</v>
       </c>
       <c r="CA437" s="98"/>
       <c r="CB437" s="98"/>
@@ -42717,7 +42947,7 @@
     </row>
     <row r="438" spans="78:85">
       <c r="BZ438" s="4" t="s">
-        <v>2227</v>
+        <v>2233</v>
       </c>
       <c r="CA438" s="98"/>
       <c r="CB438" s="98"/>
@@ -42763,7 +42993,7 @@
   <sheetData>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>2314</v>
+        <v>2320</v>
       </c>
     </row>
   </sheetData>
@@ -42790,47 +43020,47 @@
     </row>
     <row r="11" spans="5:5">
       <c r="E11" t="s">
-        <v>2315</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" t="s">
-        <v>2316</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="15" spans="5:5">
       <c r="E15" t="s">
-        <v>2317</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>2318</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" t="s">
-        <v>2319</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="21" ht="20.25" spans="5:5">
       <c r="E21" s="12" t="s">
-        <v>2320</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="22" ht="21" spans="5:5">
       <c r="E22" s="13" t="s">
-        <v>2321</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="5:5">
       <c r="E23" s="14" t="s">
-        <v>2322</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="5:5">
       <c r="E24" s="15" t="s">
-        <v>2323</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="5:5">
@@ -42838,72 +43068,72 @@
     </row>
     <row r="26" ht="21.75" spans="5:5">
       <c r="E26" s="16" t="s">
-        <v>2324</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="5:5">
       <c r="E27" s="17" t="s">
-        <v>2325</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="5:5">
       <c r="E28" s="17" t="s">
-        <v>2326</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="5:5">
       <c r="E29" s="17" t="s">
-        <v>2327</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="5:5">
       <c r="E30" s="17" t="s">
-        <v>2328</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="5:5">
       <c r="E31" s="17" t="s">
-        <v>2329</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="32" ht="17.25" spans="5:5">
       <c r="E32" s="18" t="s">
-        <v>2330</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="5:5">
       <c r="E33" s="19" t="s">
-        <v>2331</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="5:5">
       <c r="E34" s="19" t="s">
-        <v>2332</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="19" t="s">
-        <v>2333</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="36" ht="20.25" spans="5:5">
       <c r="E36" s="13" t="s">
-        <v>2334</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="37" ht="17.25" spans="5:5">
       <c r="E37" s="14" t="s">
-        <v>2335</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="5:5">
       <c r="E38" s="17" t="s">
-        <v>2336</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="5:5">
       <c r="E39" s="15" t="s">
-        <v>2337</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="41" spans="5:5">
@@ -42911,17 +43141,17 @@
     </row>
     <row r="42" ht="17.25" spans="5:5">
       <c r="E42" s="15" t="s">
-        <v>2338</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="43" ht="20.25" spans="5:5">
       <c r="E43" s="13" t="s">
-        <v>2339</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="5:5">
       <c r="E44" s="17" t="s">
-        <v>2340</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="45" spans="5:5">
@@ -42956,152 +43186,152 @@
     </row>
     <row r="55" ht="17.25" spans="5:5">
       <c r="E55" s="15" t="s">
-        <v>2341</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="5:5">
       <c r="E56" s="15" t="s">
-        <v>2342</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="77" ht="17.25" spans="5:5">
       <c r="E77" s="15" t="s">
-        <v>2343</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="78" ht="17.25" spans="5:5">
       <c r="E78" s="17" t="s">
-        <v>2344</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="79" ht="17.25" spans="5:5">
       <c r="E79" s="17" t="s">
-        <v>2345</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="80" ht="17.25" spans="5:5">
       <c r="E80" s="15" t="s">
-        <v>2346</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="81" ht="17.25" spans="5:5">
       <c r="E81" s="17" t="s">
-        <v>2347</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="82" ht="17.25" spans="5:5">
       <c r="E82" s="15" t="s">
-        <v>2348</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="83" ht="17.25" spans="5:5">
       <c r="E83" s="17" t="s">
-        <v>2349</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="84" ht="17.25" spans="5:5">
       <c r="E84" s="15" t="s">
-        <v>2350</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="85" ht="17.25" spans="5:5">
       <c r="E85" s="17" t="s">
-        <v>2351</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="86" ht="17.25" spans="5:5">
       <c r="E86" s="17" t="s">
-        <v>2352</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="87" ht="20.25" spans="5:5">
       <c r="E87" s="13" t="s">
-        <v>2353</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="88" ht="17.25" spans="5:5">
       <c r="E88" s="17" t="s">
-        <v>2354</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="89" ht="17.25" spans="5:5">
       <c r="E89" s="15" t="s">
-        <v>2355</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="90" ht="21" spans="5:5">
       <c r="E90" s="13" t="s">
-        <v>2356</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="91" ht="17.25" spans="5:5">
       <c r="E91" s="17" t="s">
-        <v>2357</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="92" ht="17.25" spans="5:5">
       <c r="E92" s="17" t="s">
-        <v>2358</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="93" ht="20.25" spans="5:5">
       <c r="E93" s="13" t="s">
-        <v>2359</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="94" ht="17.25" spans="5:5">
       <c r="E94" s="17" t="s">
-        <v>2360</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="95" ht="20.25" spans="5:5">
       <c r="E95" s="13" t="s">
-        <v>2361</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="96" ht="17.25" spans="5:5">
       <c r="E96" s="17" t="s">
-        <v>2362</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="97" ht="20.25" spans="5:5">
       <c r="E97" s="13" t="s">
-        <v>2363</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="98" ht="17.25" spans="5:5">
       <c r="E98" s="17" t="s">
-        <v>2364</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="99" ht="20.25" spans="5:5">
       <c r="E99" s="13" t="s">
-        <v>2365</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="100" ht="17.25" spans="5:5">
       <c r="E100" s="17" t="s">
-        <v>2366</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="101" ht="20.25" spans="5:5">
       <c r="E101" s="13" t="s">
-        <v>2367</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="102" ht="17.25" spans="5:5">
       <c r="E102" s="17" t="s">
-        <v>2368</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="103" ht="20.25" spans="5:5">
       <c r="E103" s="13" t="s">
-        <v>2369</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="104" ht="17.25" spans="5:5">
       <c r="E104" s="17" t="s">
-        <v>2370</v>
+        <v>2376</v>
       </c>
     </row>
   </sheetData>
@@ -43124,92 +43354,92 @@
   <sheetData>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>2371</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>2372</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>2373</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="5" spans="5:5">
       <c r="E5" t="s">
-        <v>2374</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>2375</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="7" spans="5:5">
       <c r="E7" t="s">
-        <v>2376</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>2377</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="9" spans="5:5">
       <c r="E9" t="s">
-        <v>2378</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>2379</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>2380</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>2381</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>2382</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>2383</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>2384</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>2385</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>2386</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>2387</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>2388</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="22" spans="14:18">
@@ -43221,16 +43451,16 @@
     </row>
     <row r="23" spans="4:18">
       <c r="D23" t="s">
-        <v>2389</v>
+        <v>2395</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>2390</v>
+        <v>2396</v>
       </c>
       <c r="R23" s="9"/>
     </row>
     <row r="24" spans="4:18">
       <c r="D24" t="s">
-        <v>2391</v>
+        <v>2397</v>
       </c>
       <c r="N24" s="4">
         <v>3</v>
@@ -43239,7 +43469,7 @@
     </row>
     <row r="25" spans="4:18">
       <c r="D25" t="s">
-        <v>2392</v>
+        <v>2398</v>
       </c>
       <c r="N25" s="4">
         <v>4</v>
@@ -43248,16 +43478,16 @@
     </row>
     <row r="26" spans="4:18">
       <c r="D26" t="s">
-        <v>2393</v>
+        <v>2399</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>2394</v>
+        <v>2400</v>
       </c>
       <c r="R26" s="9"/>
     </row>
     <row r="27" spans="4:18">
       <c r="D27" t="s">
-        <v>2395</v>
+        <v>2401</v>
       </c>
       <c r="N27" s="4">
         <v>6</v>
@@ -43266,7 +43496,7 @@
     </row>
     <row r="28" spans="4:18">
       <c r="D28" t="s">
-        <v>2396</v>
+        <v>2402</v>
       </c>
       <c r="N28" s="4">
         <v>7</v>
@@ -43275,53 +43505,53 @@
     </row>
     <row r="29" spans="4:18">
       <c r="D29" t="s">
-        <v>2397</v>
+        <v>2403</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>2398</v>
+        <v>2404</v>
       </c>
       <c r="R29" s="9"/>
     </row>
     <row r="30" spans="4:18">
       <c r="D30" t="s">
-        <v>2399</v>
+        <v>2405</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>2400</v>
+        <v>2406</v>
       </c>
       <c r="R30" s="9"/>
     </row>
     <row r="31" spans="4:18">
       <c r="D31" t="s">
-        <v>2401</v>
+        <v>2407</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>2402</v>
+        <v>2408</v>
       </c>
       <c r="R31" s="9"/>
     </row>
     <row r="32" spans="4:18">
       <c r="D32" t="s">
-        <v>2403</v>
+        <v>2409</v>
       </c>
       <c r="N32" s="5"/>
       <c r="R32" s="9"/>
     </row>
     <row r="33" spans="4:18">
       <c r="D33" t="s">
-        <v>2404</v>
+        <v>2410</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>2405</v>
+        <v>2411</v>
       </c>
       <c r="R33" s="9"/>
     </row>
     <row r="34" spans="4:18">
       <c r="D34" t="s">
-        <v>2406</v>
+        <v>2412</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>2407</v>
+        <v>2413</v>
       </c>
       <c r="R34" s="9"/>
     </row>
@@ -43334,595 +43564,595 @@
     </row>
     <row r="37" spans="4:4">
       <c r="D37" t="s">
-        <v>2408</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" t="s">
-        <v>2409</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>2410</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>2411</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="41" spans="4:10">
       <c r="D41" s="1" t="s">
-        <v>2412</v>
+        <v>2418</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>2413</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" t="s">
-        <v>2414</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" s="1" t="s">
-        <v>2415</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" s="1" t="s">
-        <v>2416</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" t="s">
-        <v>2417</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>2418</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
-        <v>2419</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>2420</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="1" t="s">
-        <v>2421</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" t="s">
-        <v>2422</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" t="s">
-        <v>2423</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" t="s">
-        <v>2424</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" t="s">
-        <v>2425</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" t="s">
-        <v>2426</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" t="s">
-        <v>2427</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" t="s">
-        <v>2428</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" t="s">
-        <v>2429</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" s="1" t="s">
-        <v>2430</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61" s="1" t="s">
-        <v>2431</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" s="1" t="s">
-        <v>2432</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" t="s">
-        <v>2433</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" t="s">
-        <v>2434</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" t="s">
-        <v>2435</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" t="s">
-        <v>2436</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69" t="s">
-        <v>2437</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70" t="s">
-        <v>2438</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72" s="1" t="s">
-        <v>2439</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" t="s">
-        <v>2440</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" t="s">
-        <v>2441</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" t="s">
-        <v>2442</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="76" spans="4:4">
       <c r="D76" s="1" t="s">
-        <v>2443</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="1" t="s">
-        <v>2444</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78" t="s">
-        <v>2445</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="79" spans="4:4">
       <c r="D79" t="s">
-        <v>2446</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" t="s">
-        <v>2447</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="81" spans="4:4">
       <c r="D81" t="s">
-        <v>2448</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" t="s">
-        <v>2449</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" t="s">
-        <v>2450</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" t="s">
-        <v>2451</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="86" spans="4:4">
       <c r="D86" t="s">
-        <v>2452</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87" t="s">
-        <v>2453</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="88" spans="4:4">
       <c r="D88" t="s">
-        <v>2454</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="89" spans="4:4">
       <c r="D89" t="s">
-        <v>2455</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="91" spans="4:4">
       <c r="D91" t="s">
-        <v>2456</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="92" spans="4:4">
       <c r="D92" t="s">
-        <v>2457</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="93" spans="4:4">
       <c r="D93" t="s">
-        <v>2458</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="94" spans="4:4">
       <c r="D94" t="s">
-        <v>2459</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="95" spans="4:4">
       <c r="D95" t="s">
-        <v>2460</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="96" spans="4:4">
       <c r="D96" t="s">
-        <v>2461</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="97" spans="4:4">
       <c r="D97" t="s">
-        <v>2462</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="98" spans="4:4">
       <c r="D98" t="s">
-        <v>2463</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="99" spans="4:4">
       <c r="D99" t="s">
-        <v>2464</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="101" spans="4:4">
       <c r="D101" t="s">
-        <v>2465</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="102" spans="4:4">
       <c r="D102" t="s">
-        <v>2466</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="104" spans="4:4">
       <c r="D104" t="s">
-        <v>2467</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="106" spans="4:4">
       <c r="D106" t="s">
-        <v>2468</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="107" spans="4:4">
       <c r="D107" t="s">
-        <v>2469</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="108" spans="4:4">
       <c r="D108" t="s">
-        <v>2470</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="109" spans="4:4">
       <c r="D109" t="s">
-        <v>2471</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="110" spans="4:4">
       <c r="D110" t="s">
-        <v>2472</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="111" spans="4:4">
       <c r="D111" t="s">
-        <v>2473</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="112" spans="4:4">
       <c r="D112" t="s">
-        <v>2474</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="113" spans="4:4">
       <c r="D113" t="s">
-        <v>2475</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="114" spans="4:4">
       <c r="D114" t="s">
-        <v>2476</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="115" spans="4:4">
       <c r="D115" t="s">
-        <v>2477</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="116" spans="4:4">
       <c r="D116" t="s">
-        <v>2478</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="117" spans="4:4">
       <c r="D117" t="s">
-        <v>2479</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="118" spans="4:4">
       <c r="D118" t="s">
-        <v>2480</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="119" spans="4:4">
       <c r="D119" t="s">
-        <v>2481</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="120" spans="4:4">
       <c r="D120" t="s">
-        <v>2482</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="121" spans="4:4">
       <c r="D121" t="s">
-        <v>2483</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="122" spans="4:4">
       <c r="D122" t="s">
-        <v>2484</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="123" spans="4:4">
       <c r="D123" t="s">
-        <v>2485</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="124" spans="4:4">
       <c r="D124" t="s">
-        <v>2486</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="125" spans="4:4">
       <c r="D125" t="s">
-        <v>2487</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="126" spans="4:4">
       <c r="D126" t="s">
-        <v>2393</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="127" spans="5:5">
       <c r="E127" t="s">
-        <v>2488</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="128" spans="4:4">
       <c r="D128" t="s">
-        <v>2489</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="129" spans="4:4">
       <c r="D129" t="s">
-        <v>2490</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="130" spans="4:4">
       <c r="D130" t="s">
-        <v>2491</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="131" spans="4:4">
       <c r="D131" t="s">
-        <v>2492</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="132" spans="4:4">
       <c r="D132" t="s">
-        <v>2493</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="133" spans="4:4">
       <c r="D133" t="s">
-        <v>2494</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="134" spans="4:4">
       <c r="D134" t="s">
-        <v>2486</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="135" spans="4:4">
       <c r="D135" t="s">
-        <v>2495</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="136" spans="4:4">
       <c r="D136" t="s">
-        <v>2393</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="137" spans="5:5">
       <c r="E137" t="s">
-        <v>2488</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="138" spans="4:4">
       <c r="D138" t="s">
-        <v>2496</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="139" spans="4:4">
       <c r="D139" t="s">
-        <v>2497</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="140" spans="4:4">
       <c r="D140" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="141" spans="4:4">
       <c r="D141" t="s">
-        <v>2499</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="142" spans="4:4">
       <c r="D142" t="s">
-        <v>2500</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="143" spans="4:4">
       <c r="D143" t="s">
-        <v>2501</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="144" spans="4:4">
       <c r="D144" t="s">
-        <v>2393</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="145" spans="5:5">
       <c r="E145" t="s">
-        <v>2488</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="146" spans="4:4">
       <c r="D146" t="s">
-        <v>2502</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="147" spans="4:4">
       <c r="D147" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="148" spans="4:4">
       <c r="D148" t="s">
-        <v>2503</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="149" spans="4:4">
       <c r="D149" t="s">
-        <v>2500</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="150" spans="4:4">
       <c r="D150" t="s">
-        <v>2504</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="151" spans="4:4">
       <c r="D151" t="s">
-        <v>2393</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="152" spans="5:5">
       <c r="E152" t="s">
-        <v>2488</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="153" spans="4:4">
       <c r="D153" t="s">
-        <v>2505</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="154" spans="4:4">
       <c r="D154" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="155" spans="4:4">
       <c r="D155" t="s">
-        <v>2506</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="156" spans="4:4">
       <c r="D156" t="s">
-        <v>2500</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="157" spans="4:4">
       <c r="D157" t="s">
-        <v>2504</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="158" spans="4:4">
       <c r="D158" t="s">
-        <v>2393</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="159" spans="5:5">
       <c r="E159" t="s">
-        <v>2488</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="160" spans="4:4">
       <c r="D160" t="s">
-        <v>2507</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="161" spans="4:4">
       <c r="D161" t="s">
-        <v>2445</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="165" spans="4:4">
       <c r="D165" t="s">
-        <v>2508</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="166" ht="21" spans="4:4">
       <c r="D166" s="11" t="s">
-        <v>2509</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="167" spans="4:4">
       <c r="D167" t="s">
-        <v>2510</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="170" spans="4:4">
@@ -43932,22 +44162,22 @@
     </row>
     <row r="172" spans="4:4">
       <c r="D172" t="s">
-        <v>2511</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="173" spans="4:4">
       <c r="D173" t="s">
-        <v>2512</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="174" spans="4:4">
       <c r="D174" t="s">
-        <v>2513</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="175" spans="4:4">
       <c r="D175" t="s">
-        <v>2514</v>
+        <v>2520</v>
       </c>
     </row>
   </sheetData>
@@ -43973,22 +44203,22 @@
   <sheetData>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>2515</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="1" t="s">
-        <v>2516</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>2517</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>2518</v>
+        <v>2524</v>
       </c>
     </row>
   </sheetData>
